--- a/Business - Technology Services/DUOL.xlsx
+++ b/Business - Technology Services/DUOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721DB3C8-2DDA-49B6-B705-F8CDA3F770D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCF8742-5C44-436F-8610-16057790D495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="165" windowWidth="14340" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="105" windowWidth="14340" windowHeight="15075" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$X$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$X$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$8:$X$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$9:$X$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$8:$X$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$9:$X$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$X$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$X$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="212">
   <si>
     <t>Price</t>
   </si>
@@ -808,6 +808,153 @@
   <si>
     <t>Accrued Expense &amp; other</t>
   </si>
+  <si>
+    <t>Dr. Luis Alfonso von Ahn Arellano Ph.D.</t>
+  </si>
+  <si>
+    <t>Co-Founder, Chairman of the Board, President &amp; CEO</t>
+  </si>
+  <si>
+    <t>Mr. Matthew Skaruppa</t>
+  </si>
+  <si>
+    <t>Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>Mr. Stephen Chen</t>
+  </si>
+  <si>
+    <t>General Counsel</t>
+  </si>
+  <si>
+    <t>Mr. Robert Meese</t>
+  </si>
+  <si>
+    <t>Chief Business Officer</t>
+  </si>
+  <si>
+    <t>Dr. Natalie Glance Ph.D.</t>
+  </si>
+  <si>
+    <t>Chief Engineering Officer</t>
+  </si>
+  <si>
+    <t>Dr. Severin Benedict Hacker Ph.D.</t>
+  </si>
+  <si>
+    <t>Co-Founder, CTO &amp; Director</t>
+  </si>
+  <si>
+    <t>Ms. Deborah Belevan CPA</t>
+  </si>
+  <si>
+    <t>VP of Investor Relations</t>
+  </si>
+  <si>
+    <t>Sam Dalsimer</t>
+  </si>
+  <si>
+    <t>Global Head of Communications</t>
+  </si>
+  <si>
+    <t>Ms. Christine Rogers-Raetsch</t>
+  </si>
+  <si>
+    <t>Chief People Officer</t>
+  </si>
+  <si>
+    <t>Ms. Linda Simensky</t>
+  </si>
+  <si>
+    <t>Head of Animation &amp; Scripted Content</t>
+  </si>
+  <si>
+    <t>Baillie Gifford and Company</t>
+  </si>
+  <si>
+    <t>9.80%</t>
+  </si>
+  <si>
+    <t>Vanguard Group Inc</t>
+  </si>
+  <si>
+    <t>9.05%</t>
+  </si>
+  <si>
+    <t>Durable Capital Partners Lp</t>
+  </si>
+  <si>
+    <t>8.71%</t>
+  </si>
+  <si>
+    <t>Blackrock Inc.</t>
+  </si>
+  <si>
+    <t>6.88%</t>
+  </si>
+  <si>
+    <t>Whale Rock Capital Management LLC</t>
+  </si>
+  <si>
+    <t>2.81%</t>
+  </si>
+  <si>
+    <t>Shaw D.E. &amp; Co., Inc.</t>
+  </si>
+  <si>
+    <t>2.64%</t>
+  </si>
+  <si>
+    <t>FMR, LLC</t>
+  </si>
+  <si>
+    <t>2.54%</t>
+  </si>
+  <si>
+    <t>Gilder, Gagnon, Howe &amp; Co.</t>
+  </si>
+  <si>
+    <t>2.16%</t>
+  </si>
+  <si>
+    <t>Foxhaven Asset Management, LP</t>
+  </si>
+  <si>
+    <t>2.09%</t>
+  </si>
+  <si>
+    <t>Geode Capital Management, LLC</t>
+  </si>
+  <si>
+    <t>1.95%</t>
+  </si>
+  <si>
+    <t>BOHUTINSKY AMY C</t>
+  </si>
+  <si>
+    <t>CHEN STEPHEN C</t>
+  </si>
+  <si>
+    <t>GLANCE NATALIE</t>
+  </si>
+  <si>
+    <t>GORDON WILLIAM BINGHAM</t>
+  </si>
+  <si>
+    <t>HACKER SEVERI</t>
+  </si>
+  <si>
+    <t>MEESE ROBERT</t>
+  </si>
+  <si>
+    <t>SHELTON JAMES H</t>
+  </si>
+  <si>
+    <t>SKARUPPA MATTHEW</t>
+  </si>
+  <si>
+    <t>VON AHN ARELLANO LUIS</t>
+  </si>
 </sst>
 </file>
 
@@ -819,7 +966,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,12 +1019,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF232A31"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1548,9 +1689,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1605,9 +1746,6 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1620,100 +1758,94 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="11" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="8" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="8" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="8" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="8" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1741,25 +1873,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1771,17 +1903,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5272,6 +5397,435 @@
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9999"/>
+                <c:pt idx="0">
+                  <c:v>45397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45390</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45341</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45285</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45278</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45257</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45243</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45236</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45229</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45215</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45208</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45201</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45194</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45187</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45180</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45173</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45152</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45145</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45131</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45124</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45117</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45110</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45096</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45089</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45082</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45068</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45061</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45040</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45019</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44970</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44963</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44956</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44949</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44942</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44683</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44592</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44543</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44529</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44522</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44452</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44417</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44403</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5281,6 +5835,435 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9999"/>
+                <c:pt idx="0">
+                  <c:v>194.66000399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.03999300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.009995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220.58000200000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232.08999600000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216.33999600000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213.529999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>236.490005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>177.13000500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184.89999399999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>191.740005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>178.88999899999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192.88999899999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>194.60000600000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>212.009995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>204.134995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>226.85000600000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>238.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>231.490005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>214.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>213.300003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>221.46000699999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>211.64999399999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>211.529999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159.33000200000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>143.570007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>153.63000500000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160.10000600000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>164.240005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>165.86999499999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>152.66999799999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159.529999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>156.509995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>148.91999799999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>135.070007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>123.900002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>138.80999800000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137.36000100000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>150.96000699999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>149.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>149.509995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>135.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>142.94000199999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>140.029999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>152.78999300000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>155.820007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>155.94000199999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>149.13999899999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>150.35000600000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>141.449997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>123.55999799999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>136.16000399999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>140.820007</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>134.89999399999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>136.729996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>142.58999600000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>136.509995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>126.32</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>117.779999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>119.269997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>87.160004000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>91.339995999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>91.610000999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>99.889999000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>93.029999000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>84.580001999999993</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>79.360000999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72.080001999999993</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71.129997000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.699996999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72.989998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>68.669998000000007</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>70.699996999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>69.690002000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>67.699996999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>73.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79.839995999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>83.150002000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>82.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>78.309997999999993</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>95.230002999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89.209998999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>99.309997999999993</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>99.550003000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92.839995999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93.269997000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95.699996999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>108.415001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>103.07</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.75</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>95.449996999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99.400002000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>110.089996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.059997999999993</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>101.730003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>94.709998999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>93.370002999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>89.339995999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>83.779999000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>76.459998999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>89.769997000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>80.610000999999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>86.470000999999996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>89.82</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>94.559997999999993</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>95.650002000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>93.050003000000004</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>88.68</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>76.699996999999996</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>74.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>87.959998999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>91.480002999999996</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>91.830001999999993</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>85.709998999999996</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>92.629997000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>102.19000200000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>106.110001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>108.959999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>104.540001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>95.690002000000007</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>109.05999799999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>122.58000199999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>135.96000699999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>155.020004</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>153.729996</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>173.69000199999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>178.259995</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>156.699997</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>166.520004</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>160.58000200000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>199.36999499999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>184.979996</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>173.36999499999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>163.05999800000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>120.099998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>126.029999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>136.63000500000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>134.38000500000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>140.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5303,11 +6286,10 @@
         <c:axId val="693983327"/>
         <c:axId val="737522224"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="693983327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="7148"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5351,14 +6333,12 @@
         <c:crossAx val="737522224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="737522224"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5540,49 +6520,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>DoR!$K$4:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Less than -27,00%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-27,00% to -21,48%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-21,48% to -15,95%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-15,95% to -10,42%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-10,42% to -4,90%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-4,90% to 0,63%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0,63% to 6,15%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6,15% to 11,68%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>11,68% to 17,21%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>17,21% to 22,73%</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>22,73% to 28,26%</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Greater than 28,26%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5591,40 +6570,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5811,18 +6790,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5866,7 +6845,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5886,7 +6865,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5917,18 +6896,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5972,7 +6951,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5992,7 +6971,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11712,10 +12691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N54"/>
+  <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11740,7 +12719,7 @@
       <c r="E2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="60" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="25"/>
@@ -11770,11 +12749,28 @@
       <c r="C3" s="20">
         <v>45368</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="28"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="39"/>
-      <c r="L3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="10">
+        <v>4253</v>
+      </c>
+      <c r="J3" s="39">
+        <f>I3/($C$7*1000000)</f>
+        <v>9.9193419658274586E-5</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" t="s">
+        <v>164</v>
+      </c>
       <c r="N3" s="38"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -11782,21 +12778,47 @@
       <c r="C4" s="21">
         <v>0.94444444444444442</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="28"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="39"/>
-      <c r="L4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="10">
+        <v>34045</v>
+      </c>
+      <c r="J4" s="39">
+        <f>I4/($C$7*1000000)</f>
+        <v>7.9403714372583076E-4</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" t="s">
+        <v>166</v>
+      </c>
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="28"/>
+      <c r="E5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>188</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="39"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5" t="s">
+        <v>168</v>
+      </c>
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -11806,11 +12828,28 @@
       <c r="C6" s="13">
         <v>207.11</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="28"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="39"/>
-      <c r="L6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="10">
+        <v>124635</v>
+      </c>
+      <c r="J6" s="39">
+        <f>I6/($C$7*1000000)</f>
+        <v>2.9068826379282982E-3</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M6" t="s">
+        <v>170</v>
+      </c>
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -11821,11 +12860,28 @@
         <f>Model!G20</f>
         <v>42.875827999999998</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="28"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="39"/>
-      <c r="L7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="10">
+        <v>7514</v>
+      </c>
+      <c r="J7" s="39">
+        <f>I7/($C$7*1000000)</f>
+        <v>1.7525025989002476E-4</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" t="s">
+        <v>172</v>
+      </c>
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -11836,11 +12892,25 @@
         <f>C6*C7</f>
         <v>8880.0127370800001</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="28"/>
-      <c r="I8" s="10"/>
+      <c r="E8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
       <c r="J8" s="39"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M8" t="s">
+        <v>174</v>
+      </c>
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -11851,11 +12921,28 @@
         <f>Model!G35</f>
         <v>747.61</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="28"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="39"/>
-      <c r="L9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" s="10">
+        <v>160116</v>
+      </c>
+      <c r="J9" s="39">
+        <f>I9/($C$7*1000000)</f>
+        <v>3.7344118462272029E-3</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M9" t="s">
+        <v>176</v>
+      </c>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -11865,11 +12952,28 @@
       <c r="C10" s="15">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="28"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="39"/>
-      <c r="L10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="10">
+        <v>4253</v>
+      </c>
+      <c r="J10" s="39">
+        <f>I10/($C$7*1000000)</f>
+        <v>9.9193419658274586E-5</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M10" t="s">
+        <v>178</v>
+      </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -11880,11 +12984,28 @@
         <f>C9-C10</f>
         <v>747.61</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="28"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="39"/>
-      <c r="L11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" s="10">
+        <v>64523</v>
+      </c>
+      <c r="J11" s="39">
+        <f>I11/($C$7*1000000)</f>
+        <v>1.5048805588081004E-3</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" t="s">
+        <v>180</v>
+      </c>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -11895,10 +13016,28 @@
         <f>C8-C9+C10</f>
         <v>8132.4027370800004</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="28"/>
-      <c r="J12" s="13"/>
-      <c r="L12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <f>I12/($C$7*1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" t="s">
+        <v>182</v>
+      </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -11961,33 +13100,33 @@
       <c r="E17" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="129"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="131"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="130"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="52">
         <f>C14/(C16*100)</f>
         <v>0.7151219593242385</v>
       </c>
-      <c r="L18" s="132"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="134"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="133"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="52">
         <f>C15/(C17*100)</f>
         <v>1.042891959394135</v>
       </c>
-      <c r="L19" s="132"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="134"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="133"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -11997,9 +13136,9 @@
         <f>Model!H9/Model!G8-1</f>
         <v>0.36942771084337345</v>
       </c>
-      <c r="L20" s="132"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="134"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="133"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -12009,57 +13148,57 @@
         <f>Model!I9/Model!H9-1</f>
         <v>0.26894314307709233</v>
       </c>
-      <c r="L21" s="132"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="134"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="133"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="15" t="e">
-        <f>Model!F11+Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L22" s="132"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="134"/>
+      <c r="C22" s="15">
+        <f>Model!G14</f>
+        <v>-13.167999999999893</v>
+      </c>
+      <c r="L22" s="131"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="133"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!F11</f>
-        <v>150.44399999999999</v>
-      </c>
-      <c r="L23" s="132"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="134"/>
+        <f>Model!G17</f>
+        <v>17.868000000000109</v>
+      </c>
+      <c r="L23" s="131"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="133"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!F15</f>
-        <v>-0.67600000000000005</v>
-      </c>
-      <c r="L24" s="132"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="134"/>
+        <f>Model!G23</f>
+        <v>0.73248305722891571</v>
+      </c>
+      <c r="L24" s="131"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="133"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="7" t="e">
-        <f>Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L25" s="132"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="134"/>
+      <c r="C25" s="7">
+        <f>Model!G24</f>
+        <v>3.0417921686747187E-2</v>
+      </c>
+      <c r="L25" s="131"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="133"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -12067,199 +13206,102 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>54.056012450346977</v>
-      </c>
-      <c r="L26" s="132"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="134"/>
+        <v>455.13782947615573</v>
+      </c>
+      <c r="L26" s="131"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="133"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="125" t="e">
-        <f>Model!#REF!/Model!#REF!</f>
-        <v>#REF!</v>
+      <c r="C27" s="120">
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="132"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="134"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="133"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="36" t="e">
-        <f>C22/-Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="135"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="137"/>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+      <c r="L28" s="134"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="136"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="36" t="e">
-        <f>Model!Q30/Model!Q38</f>
-        <v>#DIV/0!</v>
+      <c r="C29" s="36">
+        <f>Model!G39/Model!G51</f>
+        <v>3.2369178185908671</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="36" t="e">
-        <f>(Model!Q24+Model!Q25)/Model!Q38</f>
-        <v>#DIV/0!</v>
+      <c r="C30" s="36">
+        <f>Model!G35/Model!G51</f>
+        <v>2.695430520402939</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="6" t="e">
-        <f>(Model!Q30-Model!Q38)/Model!Q34</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="36" t="e">
-        <f>(Model!Q34-Model!#REF!)/Main!C7</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="36">
+        <f>(Model!G39-Model!G51)/Main!C7</f>
+        <v>14.470531041406364</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="36" t="e">
-        <f>Model!Q3/Model!Q34</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="36">
+        <f>Model!G8/Model!G39</f>
+        <v>0.59166984110011378</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="39" t="e">
-        <f>Model!Q13/Model!Q34</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="39">
+        <f>Model!G19/Model!G46</f>
+        <v>1.6937870365226218E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="39" t="e">
-        <f>Model!Q13/Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="39">
+        <f>Model!G17/Model!G54</f>
+        <v>2.7258539651350808E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
         <v>92</v>
       </c>
       <c r="C36" s="23"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="62"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-    </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="62"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="62"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12275,10 +13317,10 @@
   <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12636,55 +13678,55 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="41"/>
     </row>
-    <row r="10" spans="1:25" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="152" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
         <v>45.987000000000002</v>
       </c>
-      <c r="E10" s="153">
+      <c r="E10" s="10">
         <v>69.186000000000007</v>
       </c>
-      <c r="F10" s="153">
+      <c r="F10" s="10">
         <v>99.430999999999997</v>
       </c>
-      <c r="G10" s="154">
+      <c r="G10" s="15">
         <v>142.10499999999999</v>
       </c>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10">
         <v>21.49</v>
       </c>
-      <c r="Q10" s="153">
+      <c r="Q10" s="10">
         <v>23.869</v>
       </c>
-      <c r="R10" s="153">
+      <c r="R10" s="10">
         <v>26.302</v>
       </c>
-      <c r="S10" s="153">
+      <c r="S10" s="10">
         <v>27.77</v>
       </c>
-      <c r="T10" s="153">
+      <c r="T10" s="10">
         <v>31.492000000000001</v>
       </c>
-      <c r="U10" s="153">
+      <c r="U10" s="10">
         <v>33.787999999999997</v>
       </c>
-      <c r="V10" s="153">
+      <c r="V10" s="10">
         <v>36.253999999999998</v>
       </c>
-      <c r="W10" s="154">
+      <c r="W10" s="15">
         <v>40.570999999999998</v>
       </c>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -12835,89 +13877,89 @@
         <v>23</v>
       </c>
       <c r="C14" s="11">
-        <f>C8-SUM(C10:C13)</f>
+        <f t="shared" ref="C14:I14" si="2">C8-SUM(C10:C13)</f>
         <v>0</v>
       </c>
       <c r="D14" s="11">
-        <f>D8-SUM(D10:D13)</f>
+        <f t="shared" si="2"/>
         <v>-16.010999999999996</v>
       </c>
       <c r="E14" s="11">
-        <f>E8-SUM(E10:E13)</f>
+        <f t="shared" si="2"/>
         <v>-59.979000000000013</v>
       </c>
       <c r="F14" s="11">
-        <f>F8-SUM(F10:F13)</f>
+        <f t="shared" si="2"/>
         <v>-65.29000000000002</v>
       </c>
       <c r="G14" s="14">
-        <f>G8-SUM(G10:G13)</f>
+        <f t="shared" si="2"/>
         <v>-13.167999999999893</v>
       </c>
       <c r="H14" s="11">
-        <f>H8-SUM(H10:H13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="11">
-        <f>I8-SUM(I10:I13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11">
-        <f>L8-SUM(L10:L13)</f>
+        <f t="shared" ref="L14:Y14" si="3">L8-SUM(L10:L13)</f>
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <f>M8-SUM(M10:M13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14" s="11">
-        <f>N8-SUM(N10:N13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="11">
-        <f>O8-SUM(O10:O13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P14" s="11">
-        <f>P8-SUM(P10:P13)</f>
+        <f t="shared" si="3"/>
         <v>-11.867000000000004</v>
       </c>
       <c r="Q14" s="11">
-        <f>Q8-SUM(Q10:Q13)</f>
+        <f t="shared" si="3"/>
         <v>-15.11999999999999</v>
       </c>
       <c r="R14" s="11">
-        <f>R8-SUM(R10:R13)</f>
+        <f t="shared" si="3"/>
         <v>-20.12700000000001</v>
       </c>
       <c r="S14" s="11">
-        <f>S8-SUM(S10:S13)</f>
+        <f t="shared" si="3"/>
         <v>-18.176000000000002</v>
       </c>
       <c r="T14" s="11">
-        <f>T8-SUM(T10:T13)</f>
+        <f t="shared" si="3"/>
         <v>-8.4799999999999898</v>
       </c>
       <c r="U14" s="11">
-        <f>U8-SUM(U10:U13)</f>
+        <f t="shared" si="3"/>
         <v>-4.8040000000000163</v>
       </c>
       <c r="V14" s="11">
-        <f>V8-SUM(V10:V13)</f>
+        <f t="shared" si="3"/>
         <v>-4.6939999999999884</v>
       </c>
       <c r="W14" s="14">
-        <f>W8-SUM(W10:W13)</f>
+        <f t="shared" si="3"/>
         <v>4.8100000000000307</v>
       </c>
       <c r="X14" s="11">
-        <f>X8-SUM(X10:X13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y14" s="11">
-        <f>Y8-SUM(Y10:Y13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13021,87 +14063,87 @@
         <v>19</v>
       </c>
       <c r="C17" s="11">
-        <f>C14+SUM(C15:C16)</f>
+        <f t="shared" ref="C17:I17" si="4">C14+SUM(C15:C16)</f>
         <v>0</v>
       </c>
       <c r="D17" s="11">
-        <f>D14+SUM(D15:D16)</f>
+        <f t="shared" si="4"/>
         <v>-15.707999999999995</v>
       </c>
       <c r="E17" s="11">
-        <f>E14+SUM(E15:E16)</f>
+        <f t="shared" si="4"/>
         <v>-59.930000000000014</v>
       </c>
       <c r="F17" s="11">
-        <f>F14+SUM(F15:F16)</f>
+        <f t="shared" si="4"/>
         <v>-58.731000000000023</v>
       </c>
       <c r="G17" s="14">
-        <f>G14+SUM(G15:G16)</f>
+        <f t="shared" si="4"/>
         <v>17.868000000000109</v>
       </c>
       <c r="H17" s="11">
-        <f>H14+SUM(H15:H16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <f>I14+SUM(I15:I16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17" s="11">
-        <f>L14+SUM(L15:L16)</f>
+        <f t="shared" ref="L17:Y17" si="5">L14+SUM(L15:L16)</f>
         <v>0</v>
       </c>
       <c r="M17" s="11">
-        <f>M14+SUM(M15:M16)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N17" s="11">
-        <f>N14+SUM(N15:N16)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O17" s="11">
-        <f>O14+SUM(O15:O16)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P17" s="11">
-        <f>P14+SUM(P15:P16)</f>
+        <f t="shared" si="5"/>
         <v>-12.146000000000004</v>
       </c>
       <c r="Q17" s="11">
-        <f>Q14+SUM(Q15:Q16)</f>
+        <f t="shared" si="5"/>
         <v>-14.98999999999999</v>
       </c>
       <c r="R17" s="11">
-        <f>R14+SUM(R15:R16)</f>
+        <f t="shared" si="5"/>
         <v>-18.35700000000001</v>
       </c>
       <c r="S17" s="11">
-        <f>S14+SUM(S15:S16)</f>
+        <f t="shared" si="5"/>
         <v>-13.238000000000003</v>
       </c>
       <c r="T17" s="11">
-        <f>T14+SUM(T15:T16)</f>
+        <f t="shared" si="5"/>
         <v>-2.6589999999999892</v>
       </c>
       <c r="U17" s="11">
-        <f>U14+SUM(U15:U16)</f>
+        <f t="shared" si="5"/>
         <v>2.4709999999999841</v>
       </c>
       <c r="V17" s="11">
-        <f>V14+SUM(V15:V16)</f>
+        <f t="shared" si="5"/>
         <v>2.9080000000000119</v>
       </c>
       <c r="W17" s="14">
-        <f>W14+SUM(W15:W16)</f>
+        <f t="shared" si="5"/>
         <v>15.148000000000032</v>
       </c>
       <c r="X17" s="11">
-        <f>X14+SUM(X15:X16)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y17" s="11">
-        <f>Y14+SUM(Y15:Y16)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13177,62 +14219,62 @@
         <f>G17-SUM(G18:G18)</f>
         <v>16.158000000000108</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
       <c r="L19" s="11">
-        <f>L17-SUM(L18:L18)</f>
+        <f t="shared" ref="L19:Y19" si="6">L17-SUM(L18:L18)</f>
         <v>0</v>
       </c>
       <c r="M19" s="11">
-        <f>M17-SUM(M18:M18)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N19" s="11">
-        <f>N17-SUM(N18:N18)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O19" s="11">
-        <f>O17-SUM(O18:O18)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P19" s="11">
-        <f>P17-SUM(P18:P18)</f>
+        <f t="shared" si="6"/>
         <v>-12.174000000000005</v>
       </c>
       <c r="Q19" s="11">
-        <f>Q17-SUM(Q18:Q18)</f>
+        <f t="shared" si="6"/>
         <v>-15.13099999999999</v>
       </c>
       <c r="R19" s="11">
-        <f>R17-SUM(R18:R18)</f>
+        <f t="shared" si="6"/>
         <v>-18.410000000000011</v>
       </c>
       <c r="S19" s="11">
-        <f>S17-SUM(S18:S18)</f>
+        <f t="shared" si="6"/>
         <v>-13.954000000000002</v>
       </c>
       <c r="T19" s="11">
-        <f>T17-SUM(T18:T18)</f>
+        <f t="shared" si="6"/>
         <v>-2.542999999999989</v>
       </c>
       <c r="U19" s="11">
-        <f>U17-SUM(U18:U18)</f>
+        <f t="shared" si="6"/>
         <v>3.785999999999984</v>
       </c>
       <c r="V19" s="11">
-        <f>V17-SUM(V18:V18)</f>
+        <f t="shared" si="6"/>
         <v>2.7830000000000119</v>
       </c>
       <c r="W19" s="14">
-        <f>W17-SUM(W18:W18)</f>
+        <f t="shared" si="6"/>
         <v>12.132000000000032</v>
       </c>
       <c r="X19" s="11">
-        <f>X17-SUM(X18:X18)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y19" s="11">
-        <f>Y17-SUM(Y18:Y18)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13249,7 +14291,7 @@
         <f>22.592387+16.032907</f>
         <v>38.625293999999997</v>
       </c>
-      <c r="F20" s="155">
+      <c r="F20" s="10">
         <f>32.201681+8.434238</f>
         <v>40.635919000000001</v>
       </c>
@@ -13263,14 +14305,32 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="15"/>
+      <c r="P20" s="10">
+        <f>F20</f>
+        <v>40.635919000000001</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>40.635919000000001</v>
+      </c>
+      <c r="R20" s="10">
+        <v>40.635919000000001</v>
+      </c>
+      <c r="S20" s="10">
+        <v>40.635919000000001</v>
+      </c>
+      <c r="T20" s="10">
+        <f>G20</f>
+        <v>42.875827999999998</v>
+      </c>
+      <c r="U20" s="10">
+        <v>42.875827999999998</v>
+      </c>
+      <c r="V20" s="10">
+        <v>42.875827999999998</v>
+      </c>
+      <c r="W20" s="15">
+        <v>42.875827999999998</v>
+      </c>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
     </row>
@@ -13293,26 +14353,50 @@
         <f>F19/F20</f>
         <v>-1.4683807200225993</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="55">
         <f>G19/G20</f>
         <v>0.37685569594131474</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
+      <c r="P21" s="2">
+        <f>P19/P20</f>
+        <v>-0.29958717065067497</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" ref="Q21:W21" si="7">Q19/Q20</f>
+        <v>-0.37235530467515671</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.45304746276317781</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.34339078193358941</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" si="7"/>
+        <v>-5.9310807945213075E-2</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="7"/>
+        <v>8.8301501722601927E-2</v>
+      </c>
+      <c r="V21" s="2">
+        <f t="shared" si="7"/>
+        <v>6.4908367483888868E-2</v>
+      </c>
+      <c r="W21" s="35">
+        <f t="shared" si="7"/>
+        <v>0.2829566346800354</v>
+      </c>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
     </row>
     <row r="22" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
@@ -13329,20 +14413,24 @@
       <c r="I22" s="46">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="148"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="Y22" s="50">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="23" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -13371,51 +14459,51 @@
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
       <c r="L23" s="3" t="e">
-        <f>1-L10/L8</f>
+        <f t="shared" ref="L23:W23" si="8">1-L10/L8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="3" t="e">
-        <f>1-M10/M8</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="3" t="e">
-        <f>1-N10/N8</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="3" t="e">
-        <f>1-O10/O8</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="3">
-        <f>1-P10/P8</f>
+        <f t="shared" si="8"/>
         <v>0.7353448275862069</v>
       </c>
       <c r="Q23" s="3">
-        <f>1-Q10/Q8</f>
+        <f t="shared" si="8"/>
         <v>0.72968289920724805</v>
       </c>
       <c r="R23" s="3">
-        <f>1-R10/R8</f>
+        <f t="shared" si="8"/>
         <v>0.72630593132154009</v>
       </c>
       <c r="S23" s="3">
-        <f>1-S10/S8</f>
+        <f t="shared" si="8"/>
         <v>0.73246628131021196</v>
       </c>
       <c r="T23" s="3">
-        <f>1-T10/T8</f>
+        <f t="shared" si="8"/>
         <v>0.72781331028522045</v>
       </c>
       <c r="U23" s="3">
-        <f>1-U10/U8</f>
+        <f t="shared" si="8"/>
         <v>0.73374310480693461</v>
       </c>
       <c r="V23" s="3">
-        <f>1-V10/V8</f>
+        <f t="shared" si="8"/>
         <v>0.73652616279069771</v>
       </c>
       <c r="W23" s="6">
-        <f>1-W10/W8</f>
+        <f t="shared" si="8"/>
         <v>0.73131788079470206</v>
       </c>
     </row>
@@ -13452,51 +14540,51 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="e">
-        <f>L19/L8</f>
+        <f t="shared" ref="L24:W24" si="9">L19/L8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="4" t="e">
-        <f>M19/M8</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="4" t="e">
-        <f>N19/N8</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="4" t="e">
-        <f>O19/O8</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="4">
-        <f>P19/P8</f>
+        <f t="shared" si="9"/>
         <v>-0.1499261083743843</v>
       </c>
       <c r="Q24" s="4">
-        <f>Q19/Q8</f>
+        <f t="shared" si="9"/>
         <v>-0.17135900339750834</v>
       </c>
       <c r="R24" s="4">
-        <f>R19/R8</f>
+        <f t="shared" si="9"/>
         <v>-0.19157127991675352</v>
       </c>
       <c r="S24" s="4">
-        <f>S19/S8</f>
+        <f t="shared" si="9"/>
         <v>-0.13443159922928713</v>
       </c>
       <c r="T24" s="4">
-        <f>T19/T8</f>
+        <f t="shared" si="9"/>
         <v>-2.1979256698357728E-2</v>
       </c>
       <c r="U24" s="4">
-        <f>U19/U8</f>
+        <f t="shared" si="9"/>
         <v>2.9834515366430135E-2</v>
       </c>
       <c r="V24" s="4">
-        <f>V19/V8</f>
+        <f t="shared" si="9"/>
         <v>2.0225290697674501E-2</v>
       </c>
       <c r="W24" s="7">
-        <f>W19/W8</f>
+        <f t="shared" si="9"/>
         <v>8.0344370860927342E-2</v>
       </c>
     </row>
@@ -13583,54 +14671,54 @@
         <f>G11/G8</f>
         <v>0.36587349397590357</v>
       </c>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
       <c r="L26" s="4" t="e">
-        <f>L11/L8</f>
+        <f t="shared" ref="L26:W26" si="10">L11/L8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="4" t="e">
-        <f>M11/M8</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="4" t="e">
-        <f>N11/N8</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="4" t="e">
-        <f>O11/O8</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="4">
-        <f>P11/P8</f>
+        <f t="shared" si="10"/>
         <v>0.36676108374384236</v>
       </c>
       <c r="Q26" s="4">
-        <f>Q11/Q8</f>
+        <f t="shared" si="10"/>
         <v>0.38750849377123436</v>
       </c>
       <c r="R26" s="4">
-        <f>R11/R8</f>
+        <f t="shared" si="10"/>
         <v>0.43679500520291364</v>
       </c>
       <c r="S26" s="4">
-        <f>S11/S8</f>
+        <f t="shared" si="10"/>
         <v>0.42842003853564548</v>
       </c>
       <c r="T26" s="4">
-        <f>T11/T8</f>
+        <f t="shared" si="10"/>
         <v>0.39623163353500435</v>
       </c>
       <c r="U26" s="4">
-        <f>U11/U8</f>
+        <f t="shared" si="10"/>
         <v>0.37783293932230105</v>
       </c>
       <c r="V26" s="4">
-        <f>V11/V8</f>
+        <f t="shared" si="10"/>
         <v>0.36558866279069763</v>
       </c>
       <c r="W26" s="7">
-        <f>W11/W8</f>
+        <f t="shared" si="10"/>
         <v>0.33282119205298005</v>
       </c>
       <c r="X26" s="4"/>
@@ -13659,54 +14747,54 @@
         <f>G12/G8</f>
         <v>0.14267319277108431</v>
       </c>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
       <c r="L27" s="4" t="e">
-        <f>L12/L8</f>
+        <f t="shared" ref="L27:W27" si="11">L12/L8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="4" t="e">
-        <f>M12/M8</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="4" t="e">
-        <f>N12/N8</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="4" t="e">
-        <f>O12/O8</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="4">
-        <f>P12/P8</f>
+        <f t="shared" si="11"/>
         <v>0.18399014778325121</v>
       </c>
       <c r="Q27" s="4">
-        <f>Q12/Q8</f>
+        <f t="shared" si="11"/>
         <v>0.1730124575311438</v>
       </c>
       <c r="R27" s="4">
-        <f>R12/R8</f>
+        <f t="shared" si="11"/>
         <v>0.18440166493236212</v>
       </c>
       <c r="S27" s="4">
-        <f>S12/S8</f>
+        <f t="shared" si="11"/>
         <v>0.18332369942196533</v>
       </c>
       <c r="T27" s="4">
-        <f>T12/T8</f>
+        <f t="shared" si="11"/>
         <v>0.14348314606741572</v>
       </c>
       <c r="U27" s="4">
-        <f>U12/U8</f>
+        <f t="shared" si="11"/>
         <v>0.13974783293932233</v>
       </c>
       <c r="V27" s="4">
-        <f>V12/V8</f>
+        <f t="shared" si="11"/>
         <v>0.16231831395348836</v>
       </c>
       <c r="W27" s="7">
-        <f>W12/W8</f>
+        <f t="shared" si="11"/>
         <v>0.12660927152317877</v>
       </c>
       <c r="X27" s="4"/>
@@ -13715,69 +14803,69 @@
       <c r="B28" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="156" t="e">
-        <f t="shared" ref="C28:G28" si="2">C13/C8</f>
+      <c r="C28" s="4" t="e">
+        <f t="shared" ref="C28:G28" si="12">C13/C8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="156">
-        <f t="shared" si="2"/>
+      <c r="D28" s="4">
+        <f t="shared" si="12"/>
         <v>0.27034063922422324</v>
       </c>
-      <c r="E28" s="156">
-        <f t="shared" si="2"/>
+      <c r="E28" s="4">
+        <f t="shared" si="12"/>
         <v>0.31335725677830945</v>
       </c>
-      <c r="F28" s="156">
-        <f t="shared" si="2"/>
+      <c r="F28" s="4">
+        <f t="shared" si="12"/>
         <v>0.31902544667027616</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0.24872552710843371</v>
       </c>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="L28" s="156" t="e">
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="L28" s="4" t="e">
         <f>L13/L8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="156" t="e">
-        <f t="shared" ref="M28:U28" si="3">M13/M8</f>
+      <c r="M28" s="4" t="e">
+        <f t="shared" ref="M28:U28" si="13">M13/M8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="156" t="e">
-        <f t="shared" si="3"/>
+      <c r="N28" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="156" t="e">
-        <f t="shared" si="3"/>
+      <c r="O28" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="156">
-        <f t="shared" si="3"/>
+      <c r="P28" s="4">
+        <f t="shared" si="13"/>
         <v>0.33073891625615764</v>
       </c>
-      <c r="Q28" s="156">
-        <f t="shared" si="3"/>
+      <c r="Q28" s="4">
+        <f t="shared" si="13"/>
         <v>0.34039637599093991</v>
       </c>
-      <c r="R28" s="156">
-        <f t="shared" si="3"/>
+      <c r="R28" s="4">
+        <f t="shared" si="13"/>
         <v>0.31454734651404792</v>
       </c>
-      <c r="S28" s="156">
-        <f t="shared" si="3"/>
+      <c r="S28" s="4">
+        <f t="shared" si="13"/>
         <v>0.29582851637764934</v>
       </c>
-      <c r="T28" s="156">
-        <f t="shared" si="3"/>
+      <c r="T28" s="4">
+        <f t="shared" si="13"/>
         <v>0.26139152981849612</v>
       </c>
-      <c r="U28" s="156">
-        <f t="shared" si="3"/>
+      <c r="U28" s="4">
+        <f t="shared" si="13"/>
         <v>0.25401891252955083</v>
       </c>
-      <c r="V28" s="156">
+      <c r="V28" s="4">
         <f>V13/V8</f>
         <v>0.24273255813953484</v>
       </c>
@@ -13794,19 +14882,19 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="e">
-        <f>E3/D3-1</f>
+        <f t="shared" ref="E29:G30" si="14">E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="4">
-        <f>F3/E3-1</f>
+        <f t="shared" si="14"/>
         <v>0.51355838406198129</v>
       </c>
       <c r="G29" s="7">
-        <f>G3/F3-1</f>
+        <f t="shared" si="14"/>
         <v>0.4797074954296161</v>
       </c>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -13828,19 +14916,19 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="e">
-        <f>E4/D4-1</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="4">
-        <f>F4/E4-1</f>
+        <f t="shared" si="14"/>
         <v>0.16103896103896109</v>
       </c>
       <c r="G30" s="7">
-        <f>G4/F4-1</f>
+        <f t="shared" si="14"/>
         <v>0.11633109619686799</v>
       </c>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -13876,11 +14964,11 @@
         <f>G19/F19-1</f>
         <v>-1.2707938795689571</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="58">
         <f>H22/G21-1</f>
         <v>2.3169194826092117</v>
       </c>
-      <c r="I31" s="59">
+      <c r="I31" s="58">
         <f>I22/H22-1</f>
         <v>0.85599999999999987</v>
       </c>
@@ -13889,23 +14977,23 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4" t="e">
-        <f t="shared" ref="P31:X31" si="4">P19/L19-1</f>
+        <f t="shared" ref="P31:X31" si="15">P19/L19-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>-0.79111220634138424</v>
       </c>
       <c r="U31" s="4">
@@ -13913,15 +15001,15 @@
         <v>-1.2502147908267784</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>-1.1511678435632815</v>
       </c>
       <c r="W31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>-1.8694281209688999</v>
       </c>
       <c r="X31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
     </row>
@@ -13930,15 +15018,15 @@
         <v>41</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" ref="C34:E34" si="5">C35</f>
+        <f t="shared" ref="C34:E34" si="16">C35</f>
         <v>0</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>120.49</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>553.99199999999996</v>
       </c>
       <c r="F34" s="11">
@@ -13954,47 +15042,47 @@
         <v>0</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" ref="M34:W34" si="6">M35</f>
+        <f t="shared" ref="M34:W34" si="17">M35</f>
         <v>0</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O34" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P34" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q34" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R34" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S34" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>608.17999999999995</v>
       </c>
       <c r="T34" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>641.09100000000001</v>
       </c>
       <c r="U34" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>678.66499999999996</v>
       </c>
       <c r="V34" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>701.73699999999997</v>
       </c>
       <c r="W34" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>747.61</v>
       </c>
     </row>
@@ -14065,7 +15153,7 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10">
-        <f t="shared" ref="S36:S38" si="7">F36</f>
+        <f t="shared" ref="S36:S38" si="18">F36</f>
         <v>46.728000000000002</v>
       </c>
       <c r="T36" s="10">
@@ -14078,7 +15166,7 @@
         <v>61.710999999999999</v>
       </c>
       <c r="W36" s="15">
-        <f t="shared" ref="W36:W38" si="8">G36</f>
+        <f t="shared" ref="W36:W38" si="19">G36</f>
         <v>88.974999999999994</v>
       </c>
     </row>
@@ -14107,7 +15195,7 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>35.040999999999997</v>
       </c>
       <c r="T37" s="10">
@@ -14120,7 +15208,7 @@
         <v>46.124000000000002</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>53.930999999999997</v>
       </c>
     </row>
@@ -14149,7 +15237,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>7.234</v>
       </c>
       <c r="T38" s="10">
@@ -14162,7 +15250,7 @@
         <v>9.5329999999999995</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>7.282</v>
       </c>
     </row>
@@ -14191,189 +15279,189 @@
         <v>897.79800000000012</v>
       </c>
       <c r="L39" s="11">
-        <f>SUM(L35:L38)</f>
+        <f t="shared" ref="L39:W39" si="20">SUM(L35:L38)</f>
         <v>0</v>
       </c>
       <c r="M39" s="11">
-        <f>SUM(M35:M38)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N39" s="11">
-        <f>SUM(N35:N38)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O39" s="11">
-        <f>SUM(O35:O38)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P39" s="11">
-        <f>SUM(P35:P38)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q39" s="11">
-        <f>SUM(Q35:Q38)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R39" s="11">
-        <f>SUM(R35:R38)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S39" s="11">
-        <f>SUM(S35:S38)</f>
+        <f t="shared" si="20"/>
         <v>697.18299999999988</v>
       </c>
       <c r="T39" s="11">
-        <f>SUM(T35:T38)</f>
+        <f t="shared" si="20"/>
         <v>741.23400000000004</v>
       </c>
       <c r="U39" s="11">
-        <f>SUM(U35:U38)</f>
+        <f t="shared" si="20"/>
         <v>784.94099999999992</v>
       </c>
       <c r="V39" s="11">
-        <f>SUM(V35:V38)</f>
+        <f t="shared" si="20"/>
         <v>819.10500000000002</v>
       </c>
       <c r="W39" s="14">
-        <f>SUM(W35:W38)</f>
+        <f t="shared" si="20"/>
         <v>897.79800000000012</v>
       </c>
     </row>
-    <row r="40" spans="2:23" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="152" t="s">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10">
         <v>6.4279999999999999</v>
       </c>
-      <c r="E40" s="153">
+      <c r="E40" s="10">
         <v>8.2110000000000003</v>
       </c>
-      <c r="F40" s="153">
+      <c r="F40" s="10">
         <v>12.968999999999999</v>
       </c>
-      <c r="G40" s="154"/>
-      <c r="L40" s="153"/>
-      <c r="M40" s="153"/>
-      <c r="N40" s="153"/>
-      <c r="O40" s="153"/>
-      <c r="P40" s="153"/>
-      <c r="Q40" s="153"/>
-      <c r="R40" s="153"/>
-      <c r="S40" s="153"/>
-      <c r="T40" s="153"/>
-      <c r="U40" s="153"/>
-      <c r="V40" s="153"/>
-      <c r="W40" s="154"/>
-    </row>
-    <row r="41" spans="2:23" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="152" t="s">
+      <c r="G40" s="15"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="15"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153">
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10">
         <v>0</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="10">
         <v>4.05</v>
       </c>
-      <c r="G41" s="154"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="153"/>
-      <c r="O41" s="153"/>
-      <c r="P41" s="153"/>
-      <c r="Q41" s="153"/>
-      <c r="R41" s="153"/>
-      <c r="S41" s="153"/>
-      <c r="T41" s="153"/>
-      <c r="U41" s="153"/>
-      <c r="V41" s="153"/>
-      <c r="W41" s="154"/>
-    </row>
-    <row r="42" spans="2:23" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="152" t="s">
+      <c r="G41" s="15"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="15"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="153"/>
-      <c r="D42" s="153">
+      <c r="C42" s="10"/>
+      <c r="D42" s="10">
         <v>2.2959999999999998</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="10">
         <v>4.5659999999999998</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="10">
         <v>8.4969999999999999</v>
       </c>
-      <c r="G42" s="154"/>
-      <c r="L42" s="153"/>
-      <c r="M42" s="153"/>
-      <c r="N42" s="153"/>
-      <c r="O42" s="153"/>
-      <c r="P42" s="153"/>
-      <c r="Q42" s="153"/>
-      <c r="R42" s="153"/>
-      <c r="S42" s="153"/>
-      <c r="T42" s="153"/>
-      <c r="U42" s="153"/>
-      <c r="V42" s="153"/>
-      <c r="W42" s="154"/>
-    </row>
-    <row r="43" spans="2:23" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="152" t="s">
+      <c r="G42" s="15"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="15"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10">
         <v>8.0730000000000004</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="10">
         <v>28.369</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="10">
         <v>22</v>
       </c>
-      <c r="G43" s="154"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="153"/>
-      <c r="P43" s="153"/>
-      <c r="Q43" s="153"/>
-      <c r="R43" s="153"/>
-      <c r="S43" s="153"/>
-      <c r="T43" s="153"/>
-      <c r="U43" s="153"/>
-      <c r="V43" s="153"/>
-      <c r="W43" s="154"/>
-    </row>
-    <row r="44" spans="2:23" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="152" t="s">
+      <c r="G43" s="15"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="15"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="153"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153">
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10">
         <v>0</v>
       </c>
       <c r="F44" s="10">
         <v>0.63300000000000001</v>
       </c>
-      <c r="G44" s="154"/>
-      <c r="L44" s="153"/>
-      <c r="M44" s="153"/>
-      <c r="N44" s="153"/>
-      <c r="O44" s="153"/>
-      <c r="P44" s="153"/>
-      <c r="Q44" s="153"/>
-      <c r="R44" s="153"/>
-      <c r="S44" s="153"/>
-      <c r="T44" s="153"/>
-      <c r="U44" s="153"/>
-      <c r="V44" s="153"/>
-      <c r="W44" s="154"/>
+      <c r="G44" s="15"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="15"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -14442,51 +15530,51 @@
         <v>953.95700000000011</v>
       </c>
       <c r="L46" s="11">
-        <f>SUM(L39:L45)</f>
+        <f t="shared" ref="L46:W46" si="21">SUM(L39:L45)</f>
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <f>SUM(M39:M45)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N46" s="11">
-        <f>SUM(N39:N45)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O46" s="11">
-        <f>SUM(O39:O45)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P46" s="11">
-        <f>SUM(P39:P45)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q46" s="11">
-        <f>SUM(Q39:Q45)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R46" s="11">
-        <f>SUM(R39:R45)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S46" s="11">
-        <f>SUM(S39:S45)</f>
+        <f t="shared" si="21"/>
         <v>698.68999999999983</v>
       </c>
       <c r="T46" s="11">
-        <f>SUM(T39:T45)</f>
+        <f t="shared" si="21"/>
         <v>790.37900000000002</v>
       </c>
       <c r="U46" s="11">
-        <f>SUM(U39:U45)</f>
+        <f t="shared" si="21"/>
         <v>834.80299999999988</v>
       </c>
       <c r="V46" s="11">
-        <f>SUM(V39:V45)</f>
+        <f t="shared" si="21"/>
         <v>870.71400000000006</v>
       </c>
       <c r="W46" s="14">
-        <f>SUM(W39:W45)</f>
+        <f t="shared" si="21"/>
         <v>953.95700000000011</v>
       </c>
     </row>
@@ -14515,7 +15603,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10">
-        <f t="shared" ref="S47:S50" si="9">F47</f>
+        <f t="shared" ref="S47:S50" si="22">F47</f>
         <v>1.177</v>
       </c>
       <c r="T47" s="10">
@@ -14528,7 +15616,7 @@
         <v>2.7120000000000002</v>
       </c>
       <c r="W47" s="15">
-        <f t="shared" ref="W47:W50" si="10">G47</f>
+        <f t="shared" ref="W47:W50" si="23">G47</f>
         <v>2.4470000000000001</v>
       </c>
     </row>
@@ -14557,7 +15645,7 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
       <c r="S48" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>157.55000000000001</v>
       </c>
       <c r="T48" s="10">
@@ -14570,7 +15658,7 @@
         <v>208.88800000000001</v>
       </c>
       <c r="W48" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>249.19200000000001</v>
       </c>
     </row>
@@ -14627,7 +15715,7 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>21.97</v>
       </c>
       <c r="T50" s="10">
@@ -14640,7 +15728,7 @@
         <v>23.334</v>
       </c>
       <c r="W50" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>25.722999999999999</v>
       </c>
     </row>
@@ -14669,51 +15757,51 @@
         <v>277.36200000000002</v>
       </c>
       <c r="L51" s="11">
-        <f>SUM(L47:L50)</f>
+        <f t="shared" ref="L51:W51" si="24">SUM(L47:L50)</f>
         <v>0</v>
       </c>
       <c r="M51" s="11">
-        <f>SUM(M47:M50)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N51" s="11">
-        <f>SUM(N47:N50)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O51" s="11">
-        <f>SUM(O47:O50)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P51" s="11">
-        <f>SUM(P47:P50)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q51" s="11">
-        <f>SUM(Q47:Q50)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R51" s="11">
-        <f>SUM(R47:R50)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S51" s="11">
-        <f>SUM(S47:S50)</f>
+        <f t="shared" si="24"/>
         <v>180.697</v>
       </c>
       <c r="T51" s="11">
-        <f>SUM(T47:T50)</f>
+        <f t="shared" si="24"/>
         <v>202.81299999999999</v>
       </c>
       <c r="U51" s="11">
-        <f>SUM(U47:U50)</f>
+        <f t="shared" si="24"/>
         <v>217.10599999999999</v>
       </c>
       <c r="V51" s="11">
-        <f>SUM(V47:V50)</f>
+        <f t="shared" si="24"/>
         <v>234.934</v>
       </c>
       <c r="W51" s="14">
-        <f>SUM(W47:W50)</f>
+        <f t="shared" si="24"/>
         <v>277.36200000000002</v>
       </c>
       <c r="X51" s="11"/>
@@ -14786,51 +15874,51 @@
         <v>298.45600000000002</v>
       </c>
       <c r="L53" s="11">
-        <f>SUM(L51:L52)</f>
+        <f t="shared" ref="L53:W53" si="25">SUM(L51:L52)</f>
         <v>0</v>
       </c>
       <c r="M53" s="11">
-        <f>SUM(M51:M52)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N53" s="11">
-        <f>SUM(N51:N52)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O53" s="11">
-        <f>SUM(O51:O52)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P53" s="11">
-        <f>SUM(P51:P52)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q53" s="11">
-        <f>SUM(Q51:Q52)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R53" s="11">
-        <f>SUM(R51:R52)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S53" s="11">
-        <f>SUM(S51:S52)</f>
+        <f t="shared" si="25"/>
         <v>204.2</v>
       </c>
       <c r="T53" s="11">
-        <f>SUM(T51:T52)</f>
+        <f t="shared" si="25"/>
         <v>225.19099999999997</v>
       </c>
       <c r="U53" s="11">
-        <f>SUM(U51:U52)</f>
+        <f t="shared" si="25"/>
         <v>238.398</v>
       </c>
       <c r="V53" s="11">
-        <f>SUM(V51:V52)</f>
+        <f t="shared" si="25"/>
         <v>255.89499999999998</v>
       </c>
       <c r="W53" s="14">
-        <f>SUM(W51:W52)</f>
+        <f t="shared" si="25"/>
         <v>298.45600000000002</v>
       </c>
     </row>
@@ -14838,19 +15926,19 @@
       <c r="B54" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="155">
+      <c r="C54" s="10">
         <f>C46-C53</f>
         <v>0</v>
       </c>
-      <c r="D54" s="155">
+      <c r="D54" s="10">
         <f>D46-D53</f>
         <v>102.91800000000001</v>
       </c>
-      <c r="E54" s="155">
+      <c r="E54" s="10">
         <f>E46-E53</f>
         <v>513.12600000000009</v>
       </c>
-      <c r="F54" s="155">
+      <c r="F54" s="10">
         <f>F46-F53</f>
         <v>541.56999999999982</v>
       </c>
@@ -14880,11 +15968,11 @@
       </c>
     </row>
     <row r="56" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="54"/>
       <c r="W56" s="16"/>
     </row>
     <row r="74" spans="7:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -15086,42 +16174,42 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="124" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149">
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="N5" s="149">
+      <c r="N5" s="125">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="O5" s="149">
+      <c r="O5" s="125">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="P5" s="149">
+      <c r="P5" s="125">
         <v>7.8E-2</v>
       </c>
-      <c r="Q5" s="149">
+      <c r="Q5" s="125">
         <v>0.08</v>
       </c>
-      <c r="R5" s="149">
+      <c r="R5" s="125">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="S5" s="149">
+      <c r="S5" s="125">
         <v>0.08</v>
       </c>
-      <c r="T5" s="149">
+      <c r="T5" s="125">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
@@ -15129,20 +16217,20 @@
       <c r="A7" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="150">
+      <c r="Q7" s="126">
         <f t="shared" ref="Q7:R7" si="0">Q2/M2-1</f>
         <v>0.62400000000000011</v>
       </c>
-      <c r="R7" s="150">
+      <c r="R7" s="126">
         <f t="shared" si="0"/>
         <v>0.6212121212121211</v>
       </c>
-      <c r="S7" s="150">
-        <f>S2/O2-1</f>
+      <c r="S7" s="126">
+        <f t="shared" ref="S7:T9" si="1">S2/O2-1</f>
         <v>0.62416107382550323</v>
       </c>
-      <c r="T7" s="150">
-        <f>T2/P2-1</f>
+      <c r="T7" s="126">
+        <f t="shared" si="1"/>
         <v>0.65030674846625747</v>
       </c>
     </row>
@@ -15150,20 +16238,20 @@
       <c r="A8" t="s">
         <v>143</v>
       </c>
-      <c r="Q8" s="150">
-        <f t="shared" ref="Q8:R8" si="1">Q3/M3-1</f>
+      <c r="Q8" s="126">
+        <f t="shared" ref="Q8:R8" si="2">Q3/M3-1</f>
         <v>0.47560975609756073</v>
       </c>
-      <c r="R8" s="150">
+      <c r="R8" s="126">
+        <f t="shared" si="2"/>
+        <v>0.49696969696969684</v>
+      </c>
+      <c r="S8" s="126">
         <f t="shared" si="1"/>
-        <v>0.49696969696969684</v>
-      </c>
-      <c r="S8" s="150">
-        <f>S3/O3-1</f>
         <v>0.47079646017699095</v>
       </c>
-      <c r="T8" s="150">
-        <f>T3/P3-1</f>
+      <c r="T8" s="126">
+        <f t="shared" si="1"/>
         <v>0.45634266886326191</v>
       </c>
     </row>
@@ -15171,25 +16259,25 @@
       <c r="A9" t="s">
         <v>144</v>
       </c>
-      <c r="Q9" s="150">
-        <f t="shared" ref="Q9:R9" si="2">Q4/M4-1</f>
+      <c r="Q9" s="126">
+        <f t="shared" ref="Q9:R9" si="3">Q4/M4-1</f>
         <v>0.65517241379310343</v>
       </c>
-      <c r="R9" s="150">
-        <f t="shared" si="2"/>
+      <c r="R9" s="126">
+        <f t="shared" si="3"/>
         <v>0.57575757575757591</v>
       </c>
-      <c r="S9" s="150">
-        <f>S4/O4-1</f>
+      <c r="S9" s="126">
+        <f t="shared" si="1"/>
         <v>0.56756756756756754</v>
       </c>
-      <c r="T9" s="150">
-        <f>T4/P4-1</f>
+      <c r="T9" s="126">
+        <f t="shared" si="1"/>
         <v>0.57142857142857117</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="127" t="s">
         <v>145</v>
       </c>
     </row>
@@ -15255,38 +16343,38 @@
       <c r="A16" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="150"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150">
-        <f>M13/M14</f>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126">
+        <f t="shared" ref="M16:T16" si="4">M13/M14</f>
         <v>0.76885406464250738</v>
       </c>
-      <c r="N16" s="150">
-        <f>N13/N14</f>
+      <c r="N16" s="126">
+        <f t="shared" si="4"/>
         <v>0.7599999999999999</v>
       </c>
-      <c r="O16" s="150">
-        <f>O13/O14</f>
+      <c r="O16" s="126">
+        <f t="shared" si="4"/>
         <v>0.76825705939629996</v>
       </c>
-      <c r="P16" s="150">
-        <f>P13/P14</f>
+      <c r="P16" s="126">
+        <f t="shared" si="4"/>
         <v>0.793512658227848</v>
       </c>
-      <c r="Q16" s="150">
-        <f>Q13/Q14</f>
+      <c r="Q16" s="126">
+        <f t="shared" si="4"/>
         <v>0.7858672376873661</v>
       </c>
-      <c r="R16" s="150">
-        <f>R13/R14</f>
+      <c r="R16" s="126">
+        <f t="shared" si="4"/>
         <v>0.77309090909090905</v>
       </c>
-      <c r="S16" s="150">
-        <f>S13/S14</f>
+      <c r="S16" s="126">
+        <f t="shared" si="4"/>
         <v>0.78971354166666663</v>
       </c>
-      <c r="T16" s="150">
-        <f>T13/T14</f>
+      <c r="T16" s="126">
+        <f t="shared" si="4"/>
         <v>0.8261780104712042</v>
       </c>
     </row>
@@ -15294,20 +16382,20 @@
       <c r="A17" t="s">
         <v>149</v>
       </c>
-      <c r="Q17" s="150">
-        <f>Q13/M13-1</f>
+      <c r="Q17" s="126">
+        <f t="shared" ref="Q17:T18" si="5">Q13/M13-1</f>
         <v>0.40254777070063685</v>
       </c>
-      <c r="R17" s="150">
-        <f>R13/N13-1</f>
+      <c r="R17" s="126">
+        <f t="shared" si="5"/>
         <v>0.43454790823211886</v>
       </c>
-      <c r="S17" s="150">
-        <f>S13/O13-1</f>
+      <c r="S17" s="126">
+        <f t="shared" si="5"/>
         <v>0.53738910012674257</v>
       </c>
-      <c r="T17" s="150">
-        <f>T13/P13-1</f>
+      <c r="T17" s="126">
+        <f t="shared" si="5"/>
         <v>0.57328015952143585</v>
       </c>
     </row>
@@ -15315,20 +16403,20 @@
       <c r="A18" t="s">
         <v>150</v>
       </c>
-      <c r="Q18" s="150">
-        <f>Q14/M14-1</f>
+      <c r="Q18" s="126">
+        <f t="shared" si="5"/>
         <v>0.37218413320274246</v>
       </c>
-      <c r="R18" s="150">
-        <f>R14/N14-1</f>
+      <c r="R18" s="126">
+        <f t="shared" si="5"/>
         <v>0.41025641025641035</v>
       </c>
-      <c r="S18" s="150">
-        <f>S14/O14-1</f>
+      <c r="S18" s="126">
+        <f t="shared" si="5"/>
         <v>0.49561830574488797</v>
       </c>
-      <c r="T18" s="150">
-        <f>T14/P14-1</f>
+      <c r="T18" s="126">
+        <f t="shared" si="5"/>
         <v>0.51107594936708844</v>
       </c>
     </row>
@@ -15342,8 +16430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DEC602-D7CA-409B-9962-CCABA92C723B}">
   <dimension ref="A1:M2067"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15370,8 +16458,12 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="12">
+        <v>45397</v>
+      </c>
+      <c r="C2" s="18">
+        <v>194.66000399999999</v>
+      </c>
       <c r="E2" t="s">
         <v>53</v>
       </c>
@@ -15383,8 +16475,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="12">
+        <v>45390</v>
+      </c>
+      <c r="C3" s="18">
+        <v>211.03999300000001</v>
+      </c>
       <c r="E3" s="12">
         <v>45328</v>
       </c>
@@ -15394,8 +16490,12 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="12">
+        <v>45383</v>
+      </c>
+      <c r="C4" s="18">
+        <v>215.009995</v>
+      </c>
       <c r="E4" s="12">
         <v>45302</v>
       </c>
@@ -15405,572 +16505,1132 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="12">
+        <v>45376</v>
+      </c>
+      <c r="C5" s="18">
+        <v>220.58000200000001</v>
+      </c>
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="12">
+        <v>45369</v>
+      </c>
+      <c r="C6" s="18">
+        <v>232.08999600000001</v>
+      </c>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="12">
+        <v>45362</v>
+      </c>
+      <c r="C7" s="18">
+        <v>216.33999600000001</v>
+      </c>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="12">
+        <v>45355</v>
+      </c>
+      <c r="C8" s="18">
+        <v>213.529999</v>
+      </c>
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="12">
+        <v>45348</v>
+      </c>
+      <c r="C9" s="18">
+        <v>236.490005</v>
+      </c>
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="12">
+        <v>45341</v>
+      </c>
+      <c r="C10" s="18">
+        <v>177.13000500000001</v>
+      </c>
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="12">
+        <v>45334</v>
+      </c>
+      <c r="C11" s="18">
+        <v>184.89999399999999</v>
+      </c>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="12">
+        <v>45327</v>
+      </c>
+      <c r="C12" s="18">
+        <v>191.740005</v>
+      </c>
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="12">
+        <v>45320</v>
+      </c>
+      <c r="C13" s="18">
+        <v>178.88999899999999</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="12">
+        <v>45313</v>
+      </c>
+      <c r="C14" s="18">
+        <v>192.88999899999999</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="12">
+        <v>45306</v>
+      </c>
+      <c r="C15" s="18">
+        <v>194.60000600000001</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C16" s="18">
+        <v>212.009995</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="12">
+        <v>45292</v>
+      </c>
+      <c r="C17" s="18">
+        <v>204.134995</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="12">
+        <v>45285</v>
+      </c>
+      <c r="C18" s="18">
+        <v>226.85000600000001</v>
+      </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="12">
+        <v>45278</v>
+      </c>
+      <c r="C19" s="18">
+        <v>238.25</v>
+      </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="12">
+        <v>45271</v>
+      </c>
+      <c r="C20" s="18">
+        <v>231.490005</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="12">
+        <v>45264</v>
+      </c>
+      <c r="C21" s="18">
+        <v>214.75</v>
+      </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="12">
+        <v>45257</v>
+      </c>
+      <c r="C22" s="18">
+        <v>213.300003</v>
+      </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="12">
+        <v>45250</v>
+      </c>
+      <c r="C23" s="18">
+        <v>221.46000699999999</v>
+      </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="12">
+        <v>45243</v>
+      </c>
+      <c r="C24" s="18">
+        <v>211.64999399999999</v>
+      </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="12">
+        <v>45236</v>
+      </c>
+      <c r="C25" s="18">
+        <v>211.529999</v>
+      </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="12">
+        <v>45229</v>
+      </c>
+      <c r="C26" s="18">
+        <v>159.33000200000001</v>
+      </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="12">
+        <v>45222</v>
+      </c>
+      <c r="C27" s="18">
+        <v>143.570007</v>
+      </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="12">
+        <v>45215</v>
+      </c>
+      <c r="C28" s="18">
+        <v>153.63000500000001</v>
+      </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="12">
+        <v>45208</v>
+      </c>
+      <c r="C29" s="18">
+        <v>160.10000600000001</v>
+      </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="12">
+        <v>45201</v>
+      </c>
+      <c r="C30" s="18">
+        <v>164.240005</v>
+      </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="12">
+        <v>45194</v>
+      </c>
+      <c r="C31" s="18">
+        <v>165.86999499999999</v>
+      </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="12">
+        <v>45187</v>
+      </c>
+      <c r="C32" s="18">
+        <v>152.66999799999999</v>
+      </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="18"/>
+      <c r="B33" s="12">
+        <v>45180</v>
+      </c>
+      <c r="C33" s="18">
+        <v>159.529999</v>
+      </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="12">
+        <v>45173</v>
+      </c>
+      <c r="C34" s="18">
+        <v>156.509995</v>
+      </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="12">
+        <v>45166</v>
+      </c>
+      <c r="C35" s="18">
+        <v>148.91999799999999</v>
+      </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="12">
+        <v>45159</v>
+      </c>
+      <c r="C36" s="18">
+        <v>135.070007</v>
+      </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="12">
+        <v>45152</v>
+      </c>
+      <c r="C37" s="18">
+        <v>123.900002</v>
+      </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="12">
+        <v>45145</v>
+      </c>
+      <c r="C38" s="18">
+        <v>138.80999800000001</v>
+      </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="12">
+        <v>45138</v>
+      </c>
+      <c r="C39" s="18">
+        <v>137.36000100000001</v>
+      </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40" s="18"/>
+      <c r="B40" s="12">
+        <v>45131</v>
+      </c>
+      <c r="C40" s="18">
+        <v>150.96000699999999</v>
+      </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
-      <c r="C41" s="18"/>
+      <c r="B41" s="12">
+        <v>45124</v>
+      </c>
+      <c r="C41" s="18">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
-      <c r="C42" s="18"/>
+      <c r="B42" s="12">
+        <v>45117</v>
+      </c>
+      <c r="C42" s="18">
+        <v>149.509995</v>
+      </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="12"/>
-      <c r="C43" s="18"/>
+      <c r="B43" s="12">
+        <v>45110</v>
+      </c>
+      <c r="C43" s="18">
+        <v>135.25</v>
+      </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="12"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="12">
+        <v>45103</v>
+      </c>
+      <c r="C44" s="18">
+        <v>142.94000199999999</v>
+      </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="12">
+        <v>45096</v>
+      </c>
+      <c r="C45" s="18">
+        <v>140.029999</v>
+      </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
-      <c r="C46" s="18"/>
+      <c r="B46" s="12">
+        <v>45089</v>
+      </c>
+      <c r="C46" s="18">
+        <v>152.78999300000001</v>
+      </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
-      <c r="C47" s="18"/>
+      <c r="B47" s="12">
+        <v>45082</v>
+      </c>
+      <c r="C47" s="18">
+        <v>155.820007</v>
+      </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
-      <c r="C48" s="18"/>
+      <c r="B48" s="12">
+        <v>45075</v>
+      </c>
+      <c r="C48" s="18">
+        <v>155.94000199999999</v>
+      </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="12"/>
-      <c r="C49" s="18"/>
+      <c r="B49" s="12">
+        <v>45068</v>
+      </c>
+      <c r="C49" s="18">
+        <v>149.13999899999999</v>
+      </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
-      <c r="C50" s="18"/>
+      <c r="B50" s="12">
+        <v>45061</v>
+      </c>
+      <c r="C50" s="18">
+        <v>150.35000600000001</v>
+      </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
-      <c r="C51" s="18"/>
+      <c r="B51" s="12">
+        <v>45054</v>
+      </c>
+      <c r="C51" s="18">
+        <v>141.449997</v>
+      </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
-      <c r="C52" s="18"/>
+      <c r="B52" s="12">
+        <v>45047</v>
+      </c>
+      <c r="C52" s="18">
+        <v>123.55999799999999</v>
+      </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
-      <c r="C53" s="18"/>
+      <c r="B53" s="12">
+        <v>45040</v>
+      </c>
+      <c r="C53" s="18">
+        <v>136.16000399999999</v>
+      </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
-      <c r="C54" s="18"/>
+      <c r="B54" s="12">
+        <v>45033</v>
+      </c>
+      <c r="C54" s="18">
+        <v>140.820007</v>
+      </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
-      <c r="C55" s="18"/>
+      <c r="B55" s="12">
+        <v>45026</v>
+      </c>
+      <c r="C55" s="18">
+        <v>134.89999399999999</v>
+      </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
-      <c r="C56" s="18"/>
+      <c r="B56" s="12">
+        <v>45019</v>
+      </c>
+      <c r="C56" s="18">
+        <v>136.729996</v>
+      </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
-      <c r="C57" s="18"/>
+      <c r="B57" s="12">
+        <v>45012</v>
+      </c>
+      <c r="C57" s="18">
+        <v>142.58999600000001</v>
+      </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
-      <c r="C58" s="18"/>
+      <c r="B58" s="12">
+        <v>45005</v>
+      </c>
+      <c r="C58" s="18">
+        <v>136.509995</v>
+      </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="12">
+        <v>44998</v>
+      </c>
+      <c r="C59" s="18">
+        <v>126.32</v>
+      </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="12"/>
-      <c r="C60" s="18"/>
+      <c r="B60" s="12">
+        <v>44991</v>
+      </c>
+      <c r="C60" s="18">
+        <v>117.779999</v>
+      </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="12"/>
-      <c r="C61" s="18"/>
+      <c r="B61" s="12">
+        <v>44984</v>
+      </c>
+      <c r="C61" s="18">
+        <v>119.269997</v>
+      </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="12"/>
-      <c r="C62" s="18"/>
+      <c r="B62" s="12">
+        <v>44977</v>
+      </c>
+      <c r="C62" s="18">
+        <v>87.160004000000001</v>
+      </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="12"/>
-      <c r="C63" s="18"/>
+      <c r="B63" s="12">
+        <v>44970</v>
+      </c>
+      <c r="C63" s="18">
+        <v>91.339995999999999</v>
+      </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="12"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="12">
+        <v>44963</v>
+      </c>
+      <c r="C64" s="18">
+        <v>91.610000999999997</v>
+      </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="12"/>
-      <c r="C65" s="18"/>
+      <c r="B65" s="12">
+        <v>44956</v>
+      </c>
+      <c r="C65" s="18">
+        <v>99.889999000000003</v>
+      </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="12"/>
-      <c r="C66" s="18"/>
+      <c r="B66" s="12">
+        <v>44949</v>
+      </c>
+      <c r="C66" s="18">
+        <v>93.029999000000004</v>
+      </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="12"/>
-      <c r="C67" s="18"/>
+      <c r="B67" s="12">
+        <v>44942</v>
+      </c>
+      <c r="C67" s="18">
+        <v>84.580001999999993</v>
+      </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="12"/>
-      <c r="C68" s="18"/>
+      <c r="B68" s="12">
+        <v>44935</v>
+      </c>
+      <c r="C68" s="18">
+        <v>79.360000999999997</v>
+      </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="12"/>
-      <c r="C69" s="18"/>
+      <c r="B69" s="12">
+        <v>44928</v>
+      </c>
+      <c r="C69" s="18">
+        <v>72.080001999999993</v>
+      </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="12"/>
-      <c r="C70" s="18"/>
+      <c r="B70" s="12">
+        <v>44921</v>
+      </c>
+      <c r="C70" s="18">
+        <v>71.129997000000003</v>
+      </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="12"/>
-      <c r="C71" s="18"/>
+      <c r="B71" s="12">
+        <v>44914</v>
+      </c>
+      <c r="C71" s="18">
+        <v>70.699996999999996</v>
+      </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="12"/>
-      <c r="C72" s="18"/>
+      <c r="B72" s="12">
+        <v>44907</v>
+      </c>
+      <c r="C72" s="18">
+        <v>72.989998</v>
+      </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="12"/>
-      <c r="C73" s="18"/>
+      <c r="B73" s="12">
+        <v>44900</v>
+      </c>
+      <c r="C73" s="18">
+        <v>68.669998000000007</v>
+      </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="12"/>
-      <c r="C74" s="18"/>
+      <c r="B74" s="12">
+        <v>44893</v>
+      </c>
+      <c r="C74" s="18">
+        <v>70.699996999999996</v>
+      </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="12"/>
-      <c r="C75" s="18"/>
+      <c r="B75" s="12">
+        <v>44886</v>
+      </c>
+      <c r="C75" s="18">
+        <v>69.690002000000007</v>
+      </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="12"/>
-      <c r="C76" s="18"/>
+      <c r="B76" s="12">
+        <v>44879</v>
+      </c>
+      <c r="C76" s="18">
+        <v>67.699996999999996</v>
+      </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="12"/>
-      <c r="C77" s="18"/>
+      <c r="B77" s="12">
+        <v>44872</v>
+      </c>
+      <c r="C77" s="18">
+        <v>73.430000000000007</v>
+      </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="12"/>
-      <c r="C78" s="18"/>
+      <c r="B78" s="12">
+        <v>44865</v>
+      </c>
+      <c r="C78" s="18">
+        <v>79.839995999999999</v>
+      </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="12"/>
-      <c r="C79" s="18"/>
+      <c r="B79" s="12">
+        <v>44858</v>
+      </c>
+      <c r="C79" s="18">
+        <v>83.150002000000001</v>
+      </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="12"/>
-      <c r="C80" s="18"/>
+      <c r="B80" s="12">
+        <v>44851</v>
+      </c>
+      <c r="C80" s="18">
+        <v>82.25</v>
+      </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="12"/>
-      <c r="C81" s="18"/>
+      <c r="B81" s="12">
+        <v>44844</v>
+      </c>
+      <c r="C81" s="18">
+        <v>78.309997999999993</v>
+      </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="12"/>
-      <c r="C82" s="18"/>
+      <c r="B82" s="12">
+        <v>44837</v>
+      </c>
+      <c r="C82" s="18">
+        <v>98.5</v>
+      </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="12"/>
-      <c r="C83" s="18"/>
+      <c r="B83" s="12">
+        <v>44830</v>
+      </c>
+      <c r="C83" s="18">
+        <v>95.230002999999996</v>
+      </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="12"/>
-      <c r="C84" s="18"/>
+      <c r="B84" s="12">
+        <v>44823</v>
+      </c>
+      <c r="C84" s="18">
+        <v>89.209998999999996</v>
+      </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="12"/>
-      <c r="C85" s="18"/>
+      <c r="B85" s="12">
+        <v>44816</v>
+      </c>
+      <c r="C85" s="18">
+        <v>99.309997999999993</v>
+      </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="12"/>
-      <c r="C86" s="18"/>
+      <c r="B86" s="12">
+        <v>44809</v>
+      </c>
+      <c r="C86" s="18">
+        <v>99.550003000000004</v>
+      </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="12"/>
-      <c r="C87" s="18"/>
+      <c r="B87" s="12">
+        <v>44802</v>
+      </c>
+      <c r="C87" s="18">
+        <v>92.839995999999999</v>
+      </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="12"/>
-      <c r="C88" s="18"/>
+      <c r="B88" s="12">
+        <v>44795</v>
+      </c>
+      <c r="C88" s="18">
+        <v>93.269997000000004</v>
+      </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="12"/>
-      <c r="C89" s="18"/>
+      <c r="B89" s="12">
+        <v>44788</v>
+      </c>
+      <c r="C89" s="18">
+        <v>95.699996999999996</v>
+      </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="12"/>
-      <c r="C90" s="18"/>
+      <c r="B90" s="12">
+        <v>44781</v>
+      </c>
+      <c r="C90" s="18">
+        <v>108.415001</v>
+      </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="12"/>
-      <c r="C91" s="18"/>
+      <c r="B91" s="12">
+        <v>44774</v>
+      </c>
+      <c r="C91" s="18">
+        <v>103.07</v>
+      </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="12"/>
-      <c r="C92" s="18"/>
+      <c r="B92" s="12">
+        <v>44767</v>
+      </c>
+      <c r="C92" s="18">
+        <v>91.75</v>
+      </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="12"/>
-      <c r="C93" s="18"/>
+      <c r="B93" s="12">
+        <v>44760</v>
+      </c>
+      <c r="C93" s="18">
+        <v>95.449996999999996</v>
+      </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="12"/>
-      <c r="C94" s="18"/>
+      <c r="B94" s="12">
+        <v>44753</v>
+      </c>
+      <c r="C94" s="18">
+        <v>99.400002000000001</v>
+      </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="12"/>
-      <c r="C95" s="18"/>
+      <c r="B95" s="12">
+        <v>44746</v>
+      </c>
+      <c r="C95" s="18">
+        <v>110.089996</v>
+      </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="12"/>
-      <c r="C96" s="18"/>
+      <c r="B96" s="12">
+        <v>44739</v>
+      </c>
+      <c r="C96" s="18">
+        <v>95.059997999999993</v>
+      </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="12"/>
-      <c r="C97" s="18"/>
+      <c r="B97" s="12">
+        <v>44732</v>
+      </c>
+      <c r="C97" s="18">
+        <v>101.730003</v>
+      </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="12"/>
-      <c r="C98" s="18"/>
+      <c r="B98" s="12">
+        <v>44725</v>
+      </c>
+      <c r="C98" s="18">
+        <v>94.709998999999996</v>
+      </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="12"/>
-      <c r="C99" s="18"/>
+      <c r="B99" s="12">
+        <v>44718</v>
+      </c>
+      <c r="C99" s="18">
+        <v>93.370002999999997</v>
+      </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="12"/>
-      <c r="C100" s="18"/>
+      <c r="B100" s="12">
+        <v>44711</v>
+      </c>
+      <c r="C100" s="18">
+        <v>89.339995999999999</v>
+      </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="12"/>
-      <c r="C101" s="18"/>
+      <c r="B101" s="12">
+        <v>44704</v>
+      </c>
+      <c r="C101" s="18">
+        <v>83.779999000000004</v>
+      </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="12"/>
-      <c r="C102" s="18"/>
+      <c r="B102" s="12">
+        <v>44697</v>
+      </c>
+      <c r="C102" s="18">
+        <v>76.459998999999996</v>
+      </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="12"/>
-      <c r="C103" s="18"/>
+      <c r="B103" s="12">
+        <v>44690</v>
+      </c>
+      <c r="C103" s="18">
+        <v>89.769997000000004</v>
+      </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="12"/>
-      <c r="C104" s="18"/>
+      <c r="B104" s="12">
+        <v>44683</v>
+      </c>
+      <c r="C104" s="18">
+        <v>80.610000999999997</v>
+      </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="12"/>
-      <c r="C105" s="18"/>
+      <c r="B105" s="12">
+        <v>44676</v>
+      </c>
+      <c r="C105" s="18">
+        <v>86.470000999999996</v>
+      </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="12"/>
-      <c r="C106" s="18"/>
+      <c r="B106" s="12">
+        <v>44669</v>
+      </c>
+      <c r="C106" s="18">
+        <v>86</v>
+      </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="12"/>
-      <c r="C107" s="18"/>
+      <c r="B107" s="12">
+        <v>44662</v>
+      </c>
+      <c r="C107" s="18">
+        <v>89.82</v>
+      </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="12"/>
-      <c r="C108" s="18"/>
+      <c r="B108" s="12">
+        <v>44655</v>
+      </c>
+      <c r="C108" s="18">
+        <v>94.559997999999993</v>
+      </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="12"/>
-      <c r="C109" s="18"/>
+      <c r="B109" s="12">
+        <v>44648</v>
+      </c>
+      <c r="C109" s="18">
+        <v>95.650002000000001</v>
+      </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="12"/>
-      <c r="C110" s="18"/>
+      <c r="B110" s="12">
+        <v>44641</v>
+      </c>
+      <c r="C110" s="18">
+        <v>93.050003000000004</v>
+      </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="12"/>
-      <c r="C111" s="18"/>
+      <c r="B111" s="12">
+        <v>44634</v>
+      </c>
+      <c r="C111" s="18">
+        <v>88.68</v>
+      </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="12"/>
-      <c r="C112" s="18"/>
+      <c r="B112" s="12">
+        <v>44627</v>
+      </c>
+      <c r="C112" s="18">
+        <v>76.699996999999996</v>
+      </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="12"/>
-      <c r="C113" s="18"/>
+      <c r="B113" s="12">
+        <v>44620</v>
+      </c>
+      <c r="C113" s="18">
+        <v>74.680000000000007</v>
+      </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="12"/>
-      <c r="C114" s="18"/>
+      <c r="B114" s="12">
+        <v>44613</v>
+      </c>
+      <c r="C114" s="18">
+        <v>87.959998999999996</v>
+      </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="12"/>
-      <c r="C115" s="18"/>
+      <c r="B115" s="12">
+        <v>44606</v>
+      </c>
+      <c r="C115" s="18">
+        <v>91</v>
+      </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="12"/>
-      <c r="C116" s="18"/>
+      <c r="B116" s="12">
+        <v>44599</v>
+      </c>
+      <c r="C116" s="18">
+        <v>94</v>
+      </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="12"/>
-      <c r="C117" s="18"/>
+      <c r="B117" s="12">
+        <v>44592</v>
+      </c>
+      <c r="C117" s="18">
+        <v>91.480002999999996</v>
+      </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="12"/>
-      <c r="C118" s="18"/>
+      <c r="B118" s="12">
+        <v>44585</v>
+      </c>
+      <c r="C118" s="18">
+        <v>91.830001999999993</v>
+      </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="12"/>
-      <c r="C119" s="18"/>
+      <c r="B119" s="12">
+        <v>44578</v>
+      </c>
+      <c r="C119" s="18">
+        <v>85.709998999999996</v>
+      </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="12"/>
-      <c r="C120" s="18"/>
+      <c r="B120" s="12">
+        <v>44571</v>
+      </c>
+      <c r="C120" s="18">
+        <v>92.629997000000003</v>
+      </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="12"/>
-      <c r="C121" s="18"/>
+      <c r="B121" s="12">
+        <v>44564</v>
+      </c>
+      <c r="C121" s="18">
+        <v>102.19000200000001</v>
+      </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="12"/>
-      <c r="C122" s="18"/>
+      <c r="B122" s="12">
+        <v>44557</v>
+      </c>
+      <c r="C122" s="18">
+        <v>106.110001</v>
+      </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="12"/>
-      <c r="C123" s="18"/>
+      <c r="B123" s="12">
+        <v>44550</v>
+      </c>
+      <c r="C123" s="18">
+        <v>108.959999</v>
+      </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="12"/>
-      <c r="C124" s="18"/>
+      <c r="B124" s="12">
+        <v>44543</v>
+      </c>
+      <c r="C124" s="18">
+        <v>104.540001</v>
+      </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="12"/>
-      <c r="C125" s="18"/>
+      <c r="B125" s="12">
+        <v>44536</v>
+      </c>
+      <c r="C125" s="18">
+        <v>95.690002000000007</v>
+      </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="12"/>
-      <c r="C126" s="18"/>
+      <c r="B126" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C126" s="18">
+        <v>109.05999799999999</v>
+      </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="12"/>
-      <c r="C127" s="18"/>
+      <c r="B127" s="12">
+        <v>44522</v>
+      </c>
+      <c r="C127" s="18">
+        <v>122.58000199999999</v>
+      </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="12"/>
-      <c r="C128" s="18"/>
+      <c r="B128" s="12">
+        <v>44515</v>
+      </c>
+      <c r="C128" s="18">
+        <v>135.96000699999999</v>
+      </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="12"/>
-      <c r="C129" s="18"/>
+      <c r="B129" s="12">
+        <v>44508</v>
+      </c>
+      <c r="C129" s="18">
+        <v>155.020004</v>
+      </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="12"/>
-      <c r="C130" s="18"/>
+      <c r="B130" s="12">
+        <v>44501</v>
+      </c>
+      <c r="C130" s="18">
+        <v>153.729996</v>
+      </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="12"/>
-      <c r="C131" s="18"/>
+      <c r="B131" s="12">
+        <v>44494</v>
+      </c>
+      <c r="C131" s="18">
+        <v>173.69000199999999</v>
+      </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="12"/>
-      <c r="C132" s="18"/>
+      <c r="B132" s="12">
+        <v>44487</v>
+      </c>
+      <c r="C132" s="18">
+        <v>178.259995</v>
+      </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="12"/>
-      <c r="C133" s="18"/>
+      <c r="B133" s="12">
+        <v>44480</v>
+      </c>
+      <c r="C133" s="18">
+        <v>156.699997</v>
+      </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="12"/>
-      <c r="C134" s="18"/>
+      <c r="B134" s="12">
+        <v>44473</v>
+      </c>
+      <c r="C134" s="18">
+        <v>166.520004</v>
+      </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="12"/>
-      <c r="C135" s="18"/>
+      <c r="B135" s="12">
+        <v>44466</v>
+      </c>
+      <c r="C135" s="18">
+        <v>160.58000200000001</v>
+      </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="12"/>
-      <c r="C136" s="18"/>
+      <c r="B136" s="12">
+        <v>44459</v>
+      </c>
+      <c r="C136" s="18">
+        <v>199.36999499999999</v>
+      </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="12"/>
-      <c r="C137" s="18"/>
+      <c r="B137" s="12">
+        <v>44452</v>
+      </c>
+      <c r="C137" s="18">
+        <v>184.979996</v>
+      </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="12"/>
-      <c r="C138" s="18"/>
+      <c r="B138" s="12">
+        <v>44445</v>
+      </c>
+      <c r="C138" s="18">
+        <v>173.36999499999999</v>
+      </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="12"/>
-      <c r="C139" s="18"/>
+      <c r="B139" s="12">
+        <v>44438</v>
+      </c>
+      <c r="C139" s="18">
+        <v>163.05999800000001</v>
+      </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="12"/>
-      <c r="C140" s="18"/>
+      <c r="B140" s="12">
+        <v>44431</v>
+      </c>
+      <c r="C140" s="18">
+        <v>120.099998</v>
+      </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="12"/>
-      <c r="C141" s="18"/>
+      <c r="B141" s="12">
+        <v>44424</v>
+      </c>
+      <c r="C141" s="18">
+        <v>126.029999</v>
+      </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="12"/>
-      <c r="C142" s="18"/>
+      <c r="B142" s="12">
+        <v>44417</v>
+      </c>
+      <c r="C142" s="18">
+        <v>136.63000500000001</v>
+      </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="12"/>
-      <c r="C143" s="18"/>
+      <c r="B143" s="12">
+        <v>44410</v>
+      </c>
+      <c r="C143" s="18">
+        <v>134.38000500000001</v>
+      </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="12"/>
-      <c r="C144" s="18"/>
+      <c r="B144" s="12">
+        <v>44403</v>
+      </c>
+      <c r="C144" s="18">
+        <v>140.25</v>
+      </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="12"/>
@@ -23675,15 +25335,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -23705,1344 +25366,2654 @@
       <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="138" t="s">
+      <c r="H1" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="140"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" t="e">
+      <c r="B2" s="12">
+        <v>45397</v>
+      </c>
+      <c r="C2" s="18">
+        <v>194.66000399999999</v>
+      </c>
+      <c r="D2">
         <f>C2/C3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+        <v>-7.7615568343958441E-2</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" t="e">
+      <c r="B3" s="12">
+        <v>45390</v>
+      </c>
+      <c r="C3" s="18">
+        <v>211.03999300000001</v>
+      </c>
+      <c r="D3">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="69" t="s">
+        <v>-1.8464267207670915E-2</v>
+      </c>
+      <c r="H3" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="68" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D4" t="e">
+      <c r="B4" s="12">
+        <v>45383</v>
+      </c>
+      <c r="C4" s="18">
+        <v>215.009995</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="74" t="e">
+        <v>-2.5251640898978689E-2</v>
+      </c>
+      <c r="H4" s="69">
         <f>$I$19-3*$I$23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="75" t="e">
+        <v>-0.27002958446094699</v>
+      </c>
+      <c r="I4" s="70">
         <f>H4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="76">
+        <v>-0.27002958446094699</v>
+      </c>
+      <c r="J4" s="71">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
-        <v>67</v>
-      </c>
-      <c r="K4" s="76" t="e">
+        <v>0</v>
+      </c>
+      <c r="K4" s="71" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="77" t="e">
+        <v>Less than -27,00%</v>
+      </c>
+      <c r="L4" s="72">
         <f>J4/$I$31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="78" t="e">
+        <v>0</v>
+      </c>
+      <c r="M4" s="73">
         <f>L4</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D5" t="e">
+      <c r="B5" s="12">
+        <v>45376</v>
+      </c>
+      <c r="C5" s="18">
+        <v>220.58000200000001</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="79" t="e">
+        <v>-4.9592805370206494E-2</v>
+      </c>
+      <c r="H5" s="74">
         <f>$I$19-2.4*$I$23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="80" t="e">
+        <v>-0.2147683314947211</v>
+      </c>
+      <c r="I5" s="75">
         <f>H5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="81">
+        <v>-0.2147683314947211</v>
+      </c>
+      <c r="J5" s="76">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
-        <v>67</v>
-      </c>
-      <c r="K5" s="82" t="e">
+        <v>0</v>
+      </c>
+      <c r="K5" s="77" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="83" t="e">
+        <v>-27,00% to -21,48%</v>
+      </c>
+      <c r="L5" s="78">
         <f>J5/$I$31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="M5" s="79">
         <f>M4+L5</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" t="e">
+      <c r="B6" s="12">
+        <v>45369</v>
+      </c>
+      <c r="C6" s="18">
+        <v>232.08999600000001</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="79" t="e">
+        <v>7.2802072160526476E-2</v>
+      </c>
+      <c r="H6" s="74">
         <f>$I$19-1.8*$I$23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="80" t="e">
+        <v>-0.15950707852849527</v>
+      </c>
+      <c r="I6" s="75">
         <f t="shared" ref="I6:I14" si="2">H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="81">
+        <v>-0.15950707852849527</v>
+      </c>
+      <c r="J6" s="76">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
-        <v>67</v>
-      </c>
-      <c r="K6" s="82" t="e">
+        <v>2</v>
+      </c>
+      <c r="K6" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="83" t="e">
+        <v>-21,48% to -15,95%</v>
+      </c>
+      <c r="L6" s="78">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="84" t="e">
+        <v>1.4084507042253521E-2</v>
+      </c>
+      <c r="M6" s="79">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
-        <v>#DIV/0!</v>
+        <v>1.4084507042253521E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" t="e">
+      <c r="B7" s="12">
+        <v>45362</v>
+      </c>
+      <c r="C7" s="18">
+        <v>216.33999600000001</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="79" t="e">
+        <v>1.3159729373669826E-2</v>
+      </c>
+      <c r="H7" s="74">
         <f>$I$19-1.2*$I$23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="80" t="e">
+        <v>-0.10424582556226938</v>
+      </c>
+      <c r="I7" s="75">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="81">
+        <v>-0.10424582556226938</v>
+      </c>
+      <c r="J7" s="76">
         <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="K7" s="82" t="e">
+        <v>8</v>
+      </c>
+      <c r="K7" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="83" t="e">
+        <v>-15,95% to -10,42%</v>
+      </c>
+      <c r="L7" s="78">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="84" t="e">
+        <v>5.6338028169014086E-2</v>
+      </c>
+      <c r="M7" s="79">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>7.0422535211267609E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" t="e">
+      <c r="B8" s="12">
+        <v>45355</v>
+      </c>
+      <c r="C8" s="18">
+        <v>213.529999</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="79" t="e">
+        <v>-9.7086580889539031E-2</v>
+      </c>
+      <c r="H8" s="74">
         <f>$I$19-0.6*$I$23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="80" t="e">
+        <v>-4.8984572596043538E-2</v>
+      </c>
+      <c r="I8" s="75">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="81">
+        <v>-4.8984572596043538E-2</v>
+      </c>
+      <c r="J8" s="76">
         <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="K8" s="82" t="e">
+        <v>24</v>
+      </c>
+      <c r="K8" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="83" t="e">
+        <v>-10,42% to -4,90%</v>
+      </c>
+      <c r="L8" s="78">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="84" t="e">
+        <v>0.16901408450704225</v>
+      </c>
+      <c r="M8" s="79">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.23943661971830987</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" t="e">
+      <c r="B9" s="12">
+        <v>45348</v>
+      </c>
+      <c r="C9" s="18">
+        <v>236.490005</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="79" t="e">
+        <v>0.33512108803926233</v>
+      </c>
+      <c r="H9" s="74">
         <f>$I$19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="80" t="e">
+        <v>6.2766803701823151E-3</v>
+      </c>
+      <c r="I9" s="75">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="81">
+        <v>6.2766803701823151E-3</v>
+      </c>
+      <c r="J9" s="76">
         <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="K9" s="82" t="e">
+        <v>42</v>
+      </c>
+      <c r="K9" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="83" t="e">
+        <v>-4,90% to 0,63%</v>
+      </c>
+      <c r="L9" s="78">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="84" t="e">
+        <v>0.29577464788732394</v>
+      </c>
+      <c r="M9" s="79">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.53521126760563376</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D10" t="e">
+      <c r="B10" s="12">
+        <v>45341</v>
+      </c>
+      <c r="C10" s="18">
+        <v>177.13000500000001</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="79" t="e">
+        <v>-4.2022656853087703E-2</v>
+      </c>
+      <c r="H10" s="74">
         <f>$I$19+0.6*$I$23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="80" t="e">
+        <v>6.1537933336408168E-2</v>
+      </c>
+      <c r="I10" s="75">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="81">
+        <v>6.1537933336408168E-2</v>
+      </c>
+      <c r="J10" s="76">
         <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="K10" s="82" t="e">
+        <v>30</v>
+      </c>
+      <c r="K10" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="83" t="e">
+        <v>0,63% to 6,15%</v>
+      </c>
+      <c r="L10" s="78">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="84" t="e">
+        <v>0.21126760563380281</v>
+      </c>
+      <c r="M10" s="79">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.74647887323943651</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D11" t="e">
+      <c r="B11" s="12">
+        <v>45334</v>
+      </c>
+      <c r="C11" s="18">
+        <v>184.89999399999999</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="79" t="e">
+        <v>-3.5673364043147915E-2</v>
+      </c>
+      <c r="H11" s="74">
         <f>$I$19+1.2*$I$23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="80" t="e">
+        <v>0.11679918630263403</v>
+      </c>
+      <c r="I11" s="75">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="81">
+        <v>0.11679918630263403</v>
+      </c>
+      <c r="J11" s="76">
         <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="K11" s="82" t="e">
+        <v>27</v>
+      </c>
+      <c r="K11" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="83" t="e">
+        <v>6,15% to 11,68%</v>
+      </c>
+      <c r="L11" s="78">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="84" t="e">
+        <v>0.19014084507042253</v>
+      </c>
+      <c r="M11" s="79">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.93661971830985902</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" t="e">
+      <c r="B12" s="12">
+        <v>45327</v>
+      </c>
+      <c r="C12" s="18">
+        <v>191.740005</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="79" t="e">
+        <v>7.1831885917781335E-2</v>
+      </c>
+      <c r="H12" s="74">
         <f>$I$19+1.8*$I$23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="80" t="e">
+        <v>0.17206043926885989</v>
+      </c>
+      <c r="I12" s="75">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="81">
+        <v>0.17206043926885989</v>
+      </c>
+      <c r="J12" s="76">
         <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="K12" s="82" t="e">
+        <v>5</v>
+      </c>
+      <c r="K12" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="83" t="e">
+        <v>11,68% to 17,21%</v>
+      </c>
+      <c r="L12" s="78">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="84" t="e">
+        <v>3.5211267605633804E-2</v>
+      </c>
+      <c r="M12" s="79">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.97183098591549277</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13" t="e">
+      <c r="B13" s="12">
+        <v>45320</v>
+      </c>
+      <c r="C13" s="18">
+        <v>178.88999899999999</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="79" t="e">
+        <v>-7.2580227448702517E-2</v>
+      </c>
+      <c r="H13" s="74">
         <f>$I$19+2.4*$I$23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="80" t="e">
+        <v>0.22732169223508572</v>
+      </c>
+      <c r="I13" s="75">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="81">
+        <v>0.22732169223508572</v>
+      </c>
+      <c r="J13" s="76">
         <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="K13" s="82" t="e">
+        <v>0</v>
+      </c>
+      <c r="K13" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="83" t="e">
+        <v>17,21% to 22,73%</v>
+      </c>
+      <c r="L13" s="78">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="M13" s="79">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.97183098591549277</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14" t="e">
+      <c r="B14" s="12">
+        <v>45313</v>
+      </c>
+      <c r="C14" s="18">
+        <v>192.88999899999999</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="79" t="e">
+        <v>-8.7872916098472587E-3</v>
+      </c>
+      <c r="H14" s="74">
         <f>$I$19+3*$I$23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="80" t="e">
+        <v>0.28258294520131161</v>
+      </c>
+      <c r="I14" s="75">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="81">
+        <v>0.28258294520131161</v>
+      </c>
+      <c r="J14" s="76">
         <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="K14" s="82" t="e">
+        <v>0</v>
+      </c>
+      <c r="K14" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="83" t="e">
+        <v>22,73% to 28,26%</v>
+      </c>
+      <c r="L14" s="78">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="M14" s="79">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.97183098591549277</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" t="e">
+      <c r="B15" s="12">
+        <v>45306</v>
+      </c>
+      <c r="C15" s="18">
+        <v>194.60000600000001</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86" t="s">
+        <v>-8.2118718034968063E-2</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="86">
+      <c r="J15" s="81">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
-        <v>67</v>
-      </c>
-      <c r="K15" s="86" t="e">
+        <v>4</v>
+      </c>
+      <c r="K15" s="81" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="87" t="e">
+        <v>Greater than 28,26%</v>
+      </c>
+      <c r="L15" s="82">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="87" t="e">
+        <v>2.8169014084507043E-2</v>
+      </c>
+      <c r="M15" s="82">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" t="e">
+      <c r="B16" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C16" s="18">
+        <v>212.009995</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="88"/>
-      <c r="M16" s="89"/>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" t="e">
+        <v>3.857741295165984E-2</v>
+      </c>
+      <c r="H16" s="83"/>
+      <c r="M16" s="84"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>45292</v>
+      </c>
+      <c r="C17" s="18">
+        <v>204.134995</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="141" t="s">
+        <v>-0.1001322918192914</v>
+      </c>
+      <c r="H17" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="142"/>
-      <c r="M17" s="89"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" t="e">
+      <c r="I17" s="141"/>
+      <c r="M17" s="84"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>45285</v>
+      </c>
+      <c r="C18" s="18">
+        <v>226.85000600000001</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="144"/>
-      <c r="M18" s="89"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" t="e">
+        <v>-4.7848873032528827E-2</v>
+      </c>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143"/>
+      <c r="M18" s="84"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>45278</v>
+      </c>
+      <c r="C19" s="18">
+        <v>238.25</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="90" t="s">
+        <v>2.9202103131839241E-2</v>
+      </c>
+      <c r="H19" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="127" t="e">
+      <c r="I19" s="122">
         <f>AVERAGE(D:D)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="89"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D20" t="e">
+        <v>6.2766803701823151E-3</v>
+      </c>
+      <c r="M19" s="84"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
+        <v>45271</v>
+      </c>
+      <c r="C20" s="18">
+        <v>231.490005</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="90" t="s">
+        <v>7.795112922002323E-2</v>
+      </c>
+      <c r="H20" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="127" t="e">
+      <c r="I20" s="122">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="89"/>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D21" t="e">
+        <v>7.7290355542290589E-3</v>
+      </c>
+      <c r="M20" s="84"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>45264</v>
+      </c>
+      <c r="C21" s="18">
+        <v>214.75</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="90" t="s">
+        <v>6.7979230173755845E-3</v>
+      </c>
+      <c r="H21" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="127" t="e">
+      <c r="I21" s="122">
         <f>MEDIAN(D:D)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D22" t="e">
+        <v>-1.5901968203113626E-3</v>
+      </c>
+      <c r="M21" s="84"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
+        <v>45257</v>
+      </c>
+      <c r="C22" s="18">
+        <v>213.300003</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="90" t="s">
+        <v>-3.6846399991308565E-2</v>
+      </c>
+      <c r="H22" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="127" t="e">
+      <c r="I22" s="122" t="e">
         <f>MODE(D:D)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="89"/>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="84"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
+        <v>45250</v>
+      </c>
+      <c r="C23" s="18">
+        <v>221.46000699999999</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="90" t="s">
+        <v>4.6350169043708922E-2</v>
+      </c>
+      <c r="H23" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="127" t="e">
+      <c r="I23" s="122">
         <f>_xlfn.STDEV.S(D:D)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="89"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D24" t="e">
+        <v>9.2102088277043095E-2</v>
+      </c>
+      <c r="M23" s="84"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>45243</v>
+      </c>
+      <c r="C24" s="18">
+        <v>211.64999399999999</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="90" t="s">
+        <v>5.6727178446203119E-4</v>
+      </c>
+      <c r="H24" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="I24" s="127" t="e">
+      <c r="I24" s="122">
         <f>_xlfn.VAR.S(D:D)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="89"/>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D25" t="e">
+        <v>8.4827946649922402E-3</v>
+      </c>
+      <c r="M24" s="84"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
+        <v>45236</v>
+      </c>
+      <c r="C25" s="18">
+        <v>211.529999</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="90" t="s">
+        <v>0.32762189383516094</v>
+      </c>
+      <c r="H25" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="I25" s="128" t="e">
+      <c r="I25" s="123">
         <f>KURT(D:D)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="89"/>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D26" t="e">
+        <v>3.6803059267123843</v>
+      </c>
+      <c r="M25" s="84"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
+        <v>45229</v>
+      </c>
+      <c r="C26" s="18">
+        <v>159.33000200000001</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="90" t="s">
+        <v>0.10977219636131941</v>
+      </c>
+      <c r="H26" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="128" t="e">
+      <c r="I26" s="123">
         <f>SKEW(D:D)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="89"/>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D27" t="e">
+        <v>1.2183112622984311</v>
+      </c>
+      <c r="M26" s="84"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
+        <v>45222</v>
+      </c>
+      <c r="C27" s="18">
+        <v>143.570007</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="90" t="s">
+        <v>-6.548198706365993E-2</v>
+      </c>
+      <c r="H27" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="I27" s="127" t="e">
+      <c r="I27" s="122">
         <f>I29-I28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="89"/>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D28" t="e">
+        <v>0.57337747950199325</v>
+      </c>
+      <c r="M27" s="84"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="12">
+        <v>45215</v>
+      </c>
+      <c r="C28" s="18">
+        <v>153.63000500000001</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="90" t="s">
+        <v>-4.0412247080115593E-2</v>
+      </c>
+      <c r="H28" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="127" t="e">
+      <c r="I28" s="122">
         <f>MIN(D:D)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="89"/>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D29" t="e">
+        <v>-0.20497463959390871</v>
+      </c>
+      <c r="M28" s="84"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <v>45208</v>
+      </c>
+      <c r="C29" s="18">
+        <v>160.10000600000001</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="90" t="s">
+        <v>-2.5207007269635651E-2</v>
+      </c>
+      <c r="H29" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="127" t="e">
+      <c r="I29" s="122">
         <f>MAX(D:D)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="89"/>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D30" t="e">
+        <v>0.36840283990808453</v>
+      </c>
+      <c r="M29" s="84"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
+        <v>45201</v>
+      </c>
+      <c r="C30" s="18">
+        <v>164.240005</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="90" t="s">
+        <v>-9.8269129386541199E-3</v>
+      </c>
+      <c r="H30" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="I30" s="128" t="e">
+      <c r="I30" s="123">
         <f>SUM(D:D)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="89"/>
-    </row>
-    <row r="31" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" t="e">
+        <v>0.89128861256588876</v>
+      </c>
+      <c r="M30" s="84"/>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
+        <v>45194</v>
+      </c>
+      <c r="C31" s="18">
+        <v>165.86999499999999</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="91" t="s">
+        <v>8.6460975783860361E-2</v>
+      </c>
+      <c r="H31" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="I31" s="68">
+      <c r="I31" s="63">
         <f>COUNT(D:D)</f>
+        <v>142</v>
+      </c>
+      <c r="M31" s="84"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
+        <v>45187</v>
+      </c>
+      <c r="C32" s="18">
+        <v>152.66999799999999</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-4.3001322904791195E-2</v>
+      </c>
+      <c r="H32" s="88"/>
+      <c r="M32" s="84"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="12">
+        <v>45180</v>
+      </c>
+      <c r="C33" s="18">
+        <v>159.529999</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1.929591781023321E-2</v>
+      </c>
+      <c r="H33" s="89"/>
+      <c r="I33" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" s="84"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="12">
+        <v>45173</v>
+      </c>
+      <c r="C34" s="18">
+        <v>156.509995</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>5.0966942666760051E-2</v>
+      </c>
+      <c r="H34" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="78">
+        <f>AVERAGEIF(D:D,"&gt;0")</f>
+        <v>7.534387823060433E-2</v>
+      </c>
+      <c r="J34" s="76">
+        <f>COUNTIF(D:D,"&gt;0")</f>
+        <v>69</v>
+      </c>
+      <c r="K34" s="78">
+        <f>J34/$I$31</f>
+        <v>0.4859154929577465</v>
+      </c>
+      <c r="L34" s="79">
+        <f>K34*I34</f>
+        <v>3.6610757731772525E-2</v>
+      </c>
+      <c r="M34" s="84"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="12">
+        <v>45166</v>
+      </c>
+      <c r="C35" s="18">
+        <v>148.91999799999999</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.10253935205615261</v>
+      </c>
+      <c r="H35" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="78">
+        <f>AVERAGEIF(D:D,"&lt;0")</f>
+        <v>-5.9006013497887852E-2</v>
+      </c>
+      <c r="J35" s="76">
+        <f>COUNTIF(D:D,"&lt;0")</f>
+        <v>73</v>
+      </c>
+      <c r="K35" s="78">
+        <f>J35/$I$31</f>
+        <v>0.5140845070422535</v>
+      </c>
+      <c r="L35" s="79">
+        <f t="shared" ref="L35:L36" si="6">K35*I35</f>
+        <v>-3.0334077361590231E-2</v>
+      </c>
+      <c r="M35" s="84"/>
+    </row>
+    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="12">
+        <v>45159</v>
+      </c>
+      <c r="C36" s="18">
+        <v>135.070007</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>9.0153388375247889E-2</v>
+      </c>
+      <c r="H36" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="81">
         <v>0</v>
       </c>
-      <c r="M31" s="89"/>
-    </row>
-    <row r="32" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="93"/>
-      <c r="M32" s="89"/>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D33" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="J33" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="K33" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="L33" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="M33" s="89"/>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D34" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" s="83" t="e">
-        <f>AVERAGEIF(D:D,"&gt;0")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="81">
-        <f>COUNTIF(D:D,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="83" t="e">
-        <f>J34/$I$31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34" s="84" t="e">
-        <f>K34*I34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="89"/>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D35" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="I35" s="83" t="e">
-        <f>AVERAGEIF(D:D,"&lt;0")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="81">
-        <f>COUNTIF(D:D,"&lt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="83" t="e">
-        <f>J35/$I$31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="84" t="e">
-        <f t="shared" ref="L35:L36" si="6">K35*I35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="89"/>
-    </row>
-    <row r="36" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="I36" s="86">
-        <v>0</v>
-      </c>
-      <c r="J36" s="86">
+      <c r="J36" s="81">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="99" t="e">
+      <c r="K36" s="94">
         <f>J36/$I$31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="87" t="e">
+        <v>0</v>
+      </c>
+      <c r="L36" s="82">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="89"/>
-    </row>
-    <row r="37" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" t="e">
+        <v>0</v>
+      </c>
+      <c r="M36" s="84"/>
+    </row>
+    <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="12">
+        <v>45152</v>
+      </c>
+      <c r="C37" s="18">
+        <v>123.900002</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="93"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="89"/>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D38" t="e">
+        <v>-0.10741298332127347</v>
+      </c>
+      <c r="H37" s="88"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="84"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="12">
+        <v>45145</v>
+      </c>
+      <c r="C38" s="18">
+        <v>138.80999800000001</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="74" t="s">
+        <v>1.0556180761821521E-2</v>
+      </c>
+      <c r="H38" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="I38" s="95" t="s">
+      <c r="I38" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="J38" s="95" t="s">
+      <c r="J38" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="K38" s="95" t="s">
+      <c r="K38" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="L38" s="95" t="s">
+      <c r="L38" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="M38" s="96" t="s">
+      <c r="M38" s="91" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D39" t="e">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
+        <v>45138</v>
+      </c>
+      <c r="C39" s="18">
+        <v>137.36000100000001</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="101">
+        <v>-9.0090125658247922E-2</v>
+      </c>
+      <c r="H39" s="96">
         <v>1</v>
       </c>
-      <c r="I39" s="83" t="e">
+      <c r="I39" s="78">
         <f>$I$19+($H39*$I$23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="83" t="e">
+        <v>9.8378768647225417E-2</v>
+      </c>
+      <c r="J39" s="78">
         <f>$I$19-($H39*$I$23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="81">
+        <v>-8.5825407906860773E-2</v>
+      </c>
+      <c r="K39" s="76">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
-        <v>67</v>
-      </c>
-      <c r="L39" s="83" t="e">
+        <v>109</v>
+      </c>
+      <c r="L39" s="78">
         <f>K39/$I$31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="84">
+        <v>0.76760563380281688</v>
+      </c>
+      <c r="M39" s="79">
         <v>0.68269999999999997</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D40" t="e">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="12">
+        <v>45131</v>
+      </c>
+      <c r="C40" s="18">
+        <v>150.96000699999999</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="101">
+        <v>9.7659331103678859E-3</v>
+      </c>
+      <c r="H40" s="96">
         <v>2</v>
       </c>
-      <c r="I40" s="83" t="e">
+      <c r="I40" s="78">
         <f>$I$19+($H40*$I$23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="83" t="e">
+        <v>0.1904808569242685</v>
+      </c>
+      <c r="J40" s="78">
         <f>$I$19-($H40*$I$23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="81">
+        <v>-0.17792749618390388</v>
+      </c>
+      <c r="K40" s="76">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
-        <v>67</v>
-      </c>
-      <c r="L40" s="83" t="e">
+        <v>136</v>
+      </c>
+      <c r="L40" s="78">
         <f>K40/$I$31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="84">
+        <v>0.95774647887323938</v>
+      </c>
+      <c r="M40" s="79">
         <v>0.95450000000000002</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D41" t="e">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="12">
+        <v>45124</v>
+      </c>
+      <c r="C41" s="18">
+        <v>149.5</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="101">
+        <v>-6.6851717840044067E-5</v>
+      </c>
+      <c r="H41" s="96">
         <v>3</v>
       </c>
-      <c r="I41" s="83" t="e">
+      <c r="I41" s="78">
         <f>$I$19+($H41*$I$23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="83" t="e">
+        <v>0.28258294520131161</v>
+      </c>
+      <c r="J41" s="78">
         <f>$I$19-($H41*$I$23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="81">
+        <v>-0.27002958446094699</v>
+      </c>
+      <c r="K41" s="76">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
-        <v>67</v>
-      </c>
-      <c r="L41" s="83" t="e">
+        <v>138</v>
+      </c>
+      <c r="L41" s="78">
         <f>K41/$I$31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="102">
+        <v>0.971830985915493</v>
+      </c>
+      <c r="M41" s="97">
         <v>0.99729999999999996</v>
       </c>
     </row>
-    <row r="42" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" t="e">
+    <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="12">
+        <v>45117</v>
+      </c>
+      <c r="C42" s="18">
+        <v>149.509995</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="79"/>
-      <c r="M42" s="102"/>
-    </row>
-    <row r="43" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" t="e">
+        <v>0.1054343438077634</v>
+      </c>
+      <c r="H42" s="74"/>
+      <c r="M42" s="97"/>
+    </row>
+    <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="12">
+        <v>45110</v>
+      </c>
+      <c r="C43" s="18">
+        <v>135.25</v>
+      </c>
+      <c r="D43">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H43" s="145" t="s">
+        <v>-5.3798809937053105E-2</v>
+      </c>
+      <c r="H43" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="147"/>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D44" t="e">
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="145"/>
+      <c r="M43" s="146"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="12">
+        <v>45103</v>
+      </c>
+      <c r="C44" s="18">
+        <v>142.94000199999999</v>
+      </c>
+      <c r="D44">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H44" s="103">
+        <v>2.0781282730709671E-2</v>
+      </c>
+      <c r="H44" s="98">
         <v>0.01</v>
       </c>
-      <c r="I44" s="104" t="e">
+      <c r="I44" s="99">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J44" s="105">
+        <v>-0.17669293733481406</v>
+      </c>
+      <c r="J44" s="100">
         <v>0.2</v>
       </c>
-      <c r="K44" s="104" t="e">
+      <c r="K44" s="99">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L44" s="105">
+        <v>-6.5549005715515585E-2</v>
+      </c>
+      <c r="L44" s="100">
         <v>0.85</v>
       </c>
-      <c r="M44" s="106" t="e">
+      <c r="M44" s="101">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D45" t="e">
+        <v>7.7241518117892066E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="12">
+        <v>45096</v>
+      </c>
+      <c r="C45" s="18">
+        <v>140.029999</v>
+      </c>
+      <c r="D45">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" s="107">
+        <v>-8.3513283491020274E-2</v>
+      </c>
+      <c r="H45" s="102">
         <v>0.02</v>
       </c>
-      <c r="I45" s="108" t="e">
+      <c r="I45" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J45" s="109">
+        <v>-0.14875556543405979</v>
+      </c>
+      <c r="J45" s="104">
         <v>0.25</v>
       </c>
-      <c r="K45" s="108" t="e">
+      <c r="K45" s="103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L45" s="109">
+        <v>-4.6729972435567868E-2</v>
+      </c>
+      <c r="L45" s="104">
         <v>0.86</v>
       </c>
-      <c r="M45" s="110" t="e">
+      <c r="M45" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D46" t="e">
+        <v>7.8657542874242176E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="12">
+        <v>45089</v>
+      </c>
+      <c r="C46" s="18">
+        <v>152.78999300000001</v>
+      </c>
+      <c r="D46">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H46" s="107">
+        <v>-1.9445603028371061E-2</v>
+      </c>
+      <c r="H46" s="102">
         <v>0.03</v>
       </c>
-      <c r="I46" s="108" t="e">
+      <c r="I46" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="109">
+        <v>-0.12286932581186043</v>
+      </c>
+      <c r="J46" s="104">
         <v>0.3</v>
       </c>
-      <c r="K46" s="108" t="e">
+      <c r="K46" s="103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L46" s="109">
+        <v>-4.0230867317060007E-2</v>
+      </c>
+      <c r="L46" s="104">
         <v>0.87</v>
       </c>
-      <c r="M46" s="110" t="e">
+      <c r="M46" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D47" t="e">
+        <v>8.4549328363533544E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="12">
+        <v>45082</v>
+      </c>
+      <c r="C47" s="18">
+        <v>155.820007</v>
+      </c>
+      <c r="D47">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H47" s="107">
+        <v>-7.6949466757081364E-4</v>
+      </c>
+      <c r="H47" s="102">
         <v>0.04</v>
       </c>
-      <c r="I47" s="108" t="e">
+      <c r="I47" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="109">
+        <v>-0.11919323922707813</v>
+      </c>
+      <c r="J47" s="104">
         <v>0.35</v>
       </c>
-      <c r="K47" s="108" t="e">
+      <c r="K47" s="103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="109">
+        <v>-3.3296461362503096E-2</v>
+      </c>
+      <c r="L47" s="104">
         <v>0.88</v>
       </c>
-      <c r="M47" s="110" t="e">
+      <c r="M47" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D48" t="e">
+        <v>9.0340008570796215E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="12">
+        <v>45075</v>
+      </c>
+      <c r="C48" s="18">
+        <v>155.94000199999999</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H48" s="107">
+        <v>4.5594763615359746E-2</v>
+      </c>
+      <c r="H48" s="102">
         <v>0.05</v>
       </c>
-      <c r="I48" s="108" t="e">
+      <c r="I48" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="109">
+        <v>-0.11468631143353698</v>
+      </c>
+      <c r="J48" s="104">
         <v>0.4</v>
       </c>
-      <c r="K48" s="108" t="e">
+      <c r="K48" s="103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L48" s="109">
+        <v>-2.5335766555049453E-2</v>
+      </c>
+      <c r="L48" s="104">
         <v>0.89</v>
       </c>
-      <c r="M48" s="110" t="e">
+      <c r="M48" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D49" t="e">
+        <v>9.4078735465797259E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="12">
+        <v>45068</v>
+      </c>
+      <c r="C49" s="18">
+        <v>149.13999899999999</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H49" s="107">
+        <v>-8.0479344975883382E-3</v>
+      </c>
+      <c r="H49" s="102">
         <v>0.06</v>
       </c>
-      <c r="I49" s="108" t="e">
+      <c r="I49" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="109">
+        <v>-0.10896946034280479</v>
+      </c>
+      <c r="J49" s="104">
         <v>0.45</v>
       </c>
-      <c r="K49" s="108" t="e">
+      <c r="K49" s="103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L49" s="109">
+        <v>-1.0689776138282188E-2</v>
+      </c>
+      <c r="L49" s="104">
         <v>0.9</v>
       </c>
-      <c r="M49" s="110" t="e">
+      <c r="M49" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D50" t="e">
+        <v>9.9488472841472525E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="12">
+        <v>45061</v>
+      </c>
+      <c r="C50" s="18">
+        <v>150.35000600000001</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" s="107">
+        <v>6.2919824593562934E-2</v>
+      </c>
+      <c r="H50" s="102">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="108" t="e">
+      <c r="I50" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J50" s="109">
+        <v>-0.10244419641056943</v>
+      </c>
+      <c r="J50" s="104">
         <v>0.5</v>
       </c>
-      <c r="K50" s="108" t="e">
+      <c r="K50" s="103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L50" s="109">
+        <v>-1.5901968203113626E-3</v>
+      </c>
+      <c r="L50" s="104">
         <v>0.91</v>
       </c>
-      <c r="M50" s="110" t="e">
+      <c r="M50" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D51" t="e">
+        <v>0.10147642181528681</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="12">
+        <v>45054</v>
+      </c>
+      <c r="C51" s="18">
+        <v>141.449997</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" s="107">
+        <v>0.14478795151809565</v>
+      </c>
+      <c r="H51" s="102">
         <v>0.08</v>
       </c>
-      <c r="I51" s="108" t="e">
+      <c r="I51" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J51" s="109">
+        <v>-9.9650422271656464E-2</v>
+      </c>
+      <c r="J51" s="104">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="108" t="e">
+      <c r="K51" s="103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L51" s="109">
+        <v>9.1473876828580929E-3</v>
+      </c>
+      <c r="L51" s="104">
         <v>0.92</v>
       </c>
-      <c r="M51" s="110" t="e">
+      <c r="M51" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D52" t="e">
+        <v>0.10462374611731237</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="12">
+        <v>45047</v>
+      </c>
+      <c r="C52" s="18">
+        <v>123.55999799999999</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" s="107">
+        <v>-9.253823171156772E-2</v>
+      </c>
+      <c r="H52" s="102">
         <v>0.09</v>
       </c>
-      <c r="I52" s="108" t="e">
+      <c r="I52" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J52" s="109">
+        <v>-9.7508112708440786E-2</v>
+      </c>
+      <c r="J52" s="104">
         <v>0.6</v>
       </c>
-      <c r="K52" s="108" t="e">
+      <c r="K52" s="103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L52" s="109">
+        <v>1.5843210028717657E-2</v>
+      </c>
+      <c r="L52" s="104">
         <v>0.93</v>
       </c>
-      <c r="M52" s="110" t="e">
+      <c r="M52" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D53" t="e">
+        <v>0.11027416494956492</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="12">
+        <v>45040</v>
+      </c>
+      <c r="C53" s="18">
+        <v>136.16000399999999</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="107">
+        <v>-3.3091910015314974E-2</v>
+      </c>
+      <c r="H53" s="102">
         <v>0.1</v>
       </c>
-      <c r="I53" s="108" t="e">
+      <c r="I53" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J53" s="109">
+        <v>-9.673305032079009E-2</v>
+      </c>
+      <c r="J53" s="104">
         <v>0.65</v>
       </c>
-      <c r="K53" s="108" t="e">
+      <c r="K53" s="103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="109">
+        <v>2.9327136499677098E-2</v>
+      </c>
+      <c r="L53" s="104">
         <v>0.94</v>
       </c>
-      <c r="M53" s="110" t="e">
+      <c r="M53" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D54" t="e">
+        <v>0.11889593002999232</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="12">
+        <v>45033</v>
+      </c>
+      <c r="C54" s="18">
+        <v>140.820007</v>
+      </c>
+      <c r="D54">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H54" s="107">
+        <v>4.3884457103830599E-2</v>
+      </c>
+      <c r="H54" s="102">
         <v>0.11</v>
       </c>
-      <c r="I54" s="108" t="e">
+      <c r="I54" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J54" s="109">
+        <v>-9.3034623021903864E-2</v>
+      </c>
+      <c r="J54" s="104">
         <v>0.7</v>
       </c>
-      <c r="K54" s="108" t="e">
+      <c r="K54" s="103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L54" s="109">
+        <v>4.4937719224913401E-2</v>
+      </c>
+      <c r="L54" s="104">
         <v>0.95</v>
       </c>
-      <c r="M54" s="110" t="e">
+      <c r="M54" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D55" t="e">
+        <v>0.1368772876304343</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="12">
+        <v>45026</v>
+      </c>
+      <c r="C55" s="18">
+        <v>134.89999399999999</v>
+      </c>
+      <c r="D55">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H55" s="107">
+        <v>-1.3384056560639457E-2</v>
+      </c>
+      <c r="H55" s="102">
         <v>0.12</v>
       </c>
-      <c r="I55" s="108" t="e">
+      <c r="I55" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J55" s="109">
+        <v>-9.0285974142513506E-2</v>
+      </c>
+      <c r="J55" s="104">
         <v>0.75</v>
       </c>
-      <c r="K55" s="108" t="e">
+      <c r="K55" s="103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L55" s="109">
+        <v>6.0146669574573652E-2</v>
+      </c>
+      <c r="L55" s="104">
         <v>0.96</v>
       </c>
-      <c r="M55" s="110" t="e">
+      <c r="M55" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D56" t="e">
+        <v>0.14889377070154777</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="12">
+        <v>45019</v>
+      </c>
+      <c r="C56" s="18">
+        <v>136.729996</v>
+      </c>
+      <c r="D56">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H56" s="107">
+        <v>-4.1096852264446482E-2</v>
+      </c>
+      <c r="H56" s="102">
         <v>0.13</v>
       </c>
-      <c r="I56" s="108" t="e">
+      <c r="I56" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="109">
+        <v>-8.3307983104005945E-2</v>
+      </c>
+      <c r="J56" s="104">
         <v>0.8</v>
       </c>
-      <c r="K56" s="108" t="e">
+      <c r="K56" s="103">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L56" s="109">
+        <v>7.0619138745168716E-2</v>
+      </c>
+      <c r="L56" s="104">
         <v>0.97</v>
       </c>
-      <c r="M56" s="110" t="e">
+      <c r="M56" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D57" t="e">
+        <v>0.15766959101573838</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="12">
+        <v>45012</v>
+      </c>
+      <c r="C57" s="18">
+        <v>142.58999600000001</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H57" s="107">
+        <v>4.4538870578670897E-2</v>
+      </c>
+      <c r="H57" s="102">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="108" t="e">
+      <c r="I57" s="103">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="109"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="109">
+        <v>-8.2319553233469747E-2</v>
+      </c>
+      <c r="J57" s="104"/>
+      <c r="K57" s="103"/>
+      <c r="L57" s="104">
         <v>0.98</v>
       </c>
-      <c r="M57" s="110" t="e">
+      <c r="M57" s="105">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" t="e">
+        <v>0.32897174879189922</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="12">
+        <v>45005</v>
+      </c>
+      <c r="C58" s="18">
+        <v>136.509995</v>
+      </c>
+      <c r="D58">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H58" s="111">
+        <v>8.0668104813172992E-2</v>
+      </c>
+      <c r="H58" s="106">
         <v>0.15</v>
       </c>
-      <c r="I58" s="112" t="e">
+      <c r="I58" s="107">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="113"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="114">
+        <v>-7.9947727627092097E-2</v>
+      </c>
+      <c r="J58" s="108"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="109">
         <v>0.99</v>
       </c>
-      <c r="M58" s="115" t="e">
+      <c r="M58" s="110">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" t="e">
+        <v>0.34844377950232808</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="12">
+        <v>44998</v>
+      </c>
+      <c r="C59" s="18">
+        <v>126.32</v>
+      </c>
+      <c r="D59">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D60" t="e">
+        <v>7.2508074991578075E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="12">
+        <v>44991</v>
+      </c>
+      <c r="C60" s="18">
+        <v>117.779999</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H60" s="116" t="s">
+        <v>-1.2492647249752187E-2</v>
+      </c>
+      <c r="H60" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="I60" s="117"/>
-    </row>
-    <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D61" t="e">
+      <c r="I60" s="112"/>
+    </row>
+    <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="12">
+        <v>44984</v>
+      </c>
+      <c r="C61" s="18">
+        <v>119.269997</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H61" s="118" t="s">
+        <v>0.36840283990808453</v>
+      </c>
+      <c r="H61" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="I61" s="119"/>
-    </row>
-    <row r="62" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D62" t="e">
+      <c r="I61" s="114"/>
+    </row>
+    <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="12">
+        <v>44977</v>
+      </c>
+      <c r="C62" s="18">
+        <v>87.160004000000001</v>
+      </c>
+      <c r="D62">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H62" s="120"/>
-    </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D63" t="e">
+        <v>-4.5762997405868089E-2</v>
+      </c>
+      <c r="H62" s="115"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="12">
+        <v>44970</v>
+      </c>
+      <c r="C63" s="18">
+        <v>91.339995999999999</v>
+      </c>
+      <c r="D63">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H63" s="116" t="s">
+        <v>-2.9473310452207135E-3</v>
+      </c>
+      <c r="H63" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="I63" s="121"/>
-    </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D64" t="e">
+      <c r="I63" s="116"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="12">
+        <v>44963</v>
+      </c>
+      <c r="C64" s="18">
+        <v>91.610000999999997</v>
+      </c>
+      <c r="D64">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" s="122" t="s">
+        <v>-8.2891161106128375E-2</v>
+      </c>
+      <c r="H64" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="I64" s="123">
+      <c r="I64" s="118">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" t="e">
+    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="12">
+        <v>44956</v>
+      </c>
+      <c r="C65" s="18">
+        <v>99.889999000000003</v>
+      </c>
+      <c r="D65">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H65" s="118" t="s">
+        <v>7.3739654667737797E-2</v>
+      </c>
+      <c r="H65" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="I65" s="124">
+      <c r="I65" s="119">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D66" t="e">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="12">
+        <v>44949</v>
+      </c>
+      <c r="C66" s="18">
+        <v>93.029999000000004</v>
+      </c>
+      <c r="D66">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D67" t="e">
-        <f t="shared" ref="D67:D68" si="10">C67/C68-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D68" t="e">
+        <v>9.9905377159958064E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="12">
+        <v>44942</v>
+      </c>
+      <c r="C67" s="18">
+        <v>84.580001999999993</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
+        <v>6.5776221449392436E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="12">
+        <v>44935</v>
+      </c>
+      <c r="C68" s="18">
+        <v>79.360000999999997</v>
+      </c>
+      <c r="D68">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.10099887344620218</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="12">
+        <v>44928</v>
+      </c>
+      <c r="C69" s="18">
+        <v>72.080001999999993</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="10"/>
+        <v>1.3355898215488438E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="12">
+        <v>44921</v>
+      </c>
+      <c r="C70" s="18">
+        <v>71.129997000000003</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="10"/>
+        <v>6.0820370331842177E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="12">
+        <v>44914</v>
+      </c>
+      <c r="C71" s="18">
+        <v>70.699996999999996</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="10"/>
+        <v>-3.1374175404142446E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="12">
+        <v>44907</v>
+      </c>
+      <c r="C72" s="18">
+        <v>72.989998</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="10"/>
+        <v>6.2909569328951864E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="12">
+        <v>44900</v>
+      </c>
+      <c r="C73" s="18">
+        <v>68.669998000000007</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="10"/>
+        <v>-2.8712858361224392E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="12">
+        <v>44893</v>
+      </c>
+      <c r="C74" s="18">
+        <v>70.699996999999996</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="10"/>
+        <v>1.4492681460964718E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="12">
+        <v>44886</v>
+      </c>
+      <c r="C75" s="18">
+        <v>69.690002000000007</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="10"/>
+        <v>2.9394462159282098E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="12">
+        <v>44879</v>
+      </c>
+      <c r="C76" s="18">
+        <v>67.699996999999996</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="10"/>
+        <v>-7.8033542148985613E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="12">
+        <v>44872</v>
+      </c>
+      <c r="C77" s="18">
+        <v>73.430000000000007</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="10"/>
+        <v>-8.0285525064405006E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="12">
+        <v>44865</v>
+      </c>
+      <c r="C78" s="18">
+        <v>79.839995999999999</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="10"/>
+        <v>-3.9807647869930296E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="12">
+        <v>44858</v>
+      </c>
+      <c r="C79" s="18">
+        <v>83.150002000000001</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="10"/>
+        <v>1.0942273556231008E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="12">
+        <v>44851</v>
+      </c>
+      <c r="C80" s="18">
+        <v>82.25</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="10"/>
+        <v>5.0312885974023391E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="12">
+        <v>44844</v>
+      </c>
+      <c r="C81" s="18">
+        <v>78.309997999999993</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="10"/>
+        <v>-0.20497463959390871</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="12">
+        <v>44837</v>
+      </c>
+      <c r="C82" s="18">
+        <v>98.5</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="10"/>
+        <v>3.4337886138678497E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="12">
+        <v>44830</v>
+      </c>
+      <c r="C83" s="18">
+        <v>95.230002999999996</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="10"/>
+        <v>6.7481269672472477E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="12">
+        <v>44823</v>
+      </c>
+      <c r="C84" s="18">
+        <v>89.209998999999996</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="10"/>
+        <v>-0.10170173399862514</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="12">
+        <v>44816</v>
+      </c>
+      <c r="C85" s="18">
+        <v>99.309997999999993</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="10"/>
+        <v>-2.4108989730519115E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="12">
+        <v>44809</v>
+      </c>
+      <c r="C86" s="18">
+        <v>99.550003000000004</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="10"/>
+        <v>7.2274960029080626E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="12">
+        <v>44802</v>
+      </c>
+      <c r="C87" s="18">
+        <v>92.839995999999999</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="10"/>
+        <v>-4.6102821253442006E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="12">
+        <v>44795</v>
+      </c>
+      <c r="C88" s="18">
+        <v>93.269997000000004</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="10"/>
+        <v>-2.5391850325763299E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="12">
+        <v>44788</v>
+      </c>
+      <c r="C89" s="18">
+        <v>95.699996999999996</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="10"/>
+        <v>-0.11728085488833784</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="12">
+        <v>44781</v>
+      </c>
+      <c r="C90" s="18">
+        <v>108.415001</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="10"/>
+        <v>5.1857970311439017E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="12">
+        <v>44774</v>
+      </c>
+      <c r="C91" s="18">
+        <v>103.07</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="10"/>
+        <v>0.12337874659400527</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="12">
+        <v>44767</v>
+      </c>
+      <c r="C92" s="18">
+        <v>91.75</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="10"/>
+        <v>-3.8763720443071303E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="12">
+        <v>44760</v>
+      </c>
+      <c r="C93" s="18">
+        <v>95.449996999999996</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="10"/>
+        <v>-3.9738480085744876E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="12">
+        <v>44753</v>
+      </c>
+      <c r="C94" s="18">
+        <v>99.400002000000001</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="10"/>
+        <v>-9.7102319814781346E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="12">
+        <v>44746</v>
+      </c>
+      <c r="C95" s="18">
+        <v>110.089996</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="10"/>
+        <v>0.158110649234392</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="12">
+        <v>44739</v>
+      </c>
+      <c r="C96" s="18">
+        <v>95.059997999999993</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="10"/>
+        <v>-6.5565760378479498E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="12">
+        <v>44732</v>
+      </c>
+      <c r="C97" s="18">
+        <v>101.730003</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="10"/>
+        <v>7.4121043967068312E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="12">
+        <v>44725</v>
+      </c>
+      <c r="C98" s="18">
+        <v>94.709998999999996</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="10"/>
+        <v>1.4351461464556126E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="12">
+        <v>44718</v>
+      </c>
+      <c r="C99" s="18">
+        <v>93.370002999999997</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="10"/>
+        <v>4.5108654359017342E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="12">
+        <v>44711</v>
+      </c>
+      <c r="C100" s="18">
+        <v>89.339995999999999</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="10"/>
+        <v>6.63642524034882E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="12">
+        <v>44704</v>
+      </c>
+      <c r="C101" s="18">
+        <v>83.779999000000004</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="10"/>
+        <v>9.5736333975102506E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="12">
+        <v>44697</v>
+      </c>
+      <c r="C102" s="18">
+        <v>76.459998999999996</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="10"/>
+        <v>-0.148267778153095</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="12">
+        <v>44690</v>
+      </c>
+      <c r="C103" s="18">
+        <v>89.769997000000004</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="10"/>
+        <v>0.11363349319397731</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="12">
+        <v>44683</v>
+      </c>
+      <c r="C104" s="18">
+        <v>80.610000999999997</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="10"/>
+        <v>-6.7769167714014533E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="12">
+        <v>44676</v>
+      </c>
+      <c r="C105" s="18">
+        <v>86.470000999999996</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="10"/>
+        <v>5.465127906976619E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="12">
+        <v>44669</v>
+      </c>
+      <c r="C106" s="18">
+        <v>86</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="10"/>
+        <v>-4.2529503451347095E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="12">
+        <v>44662</v>
+      </c>
+      <c r="C107" s="18">
+        <v>89.82</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="10"/>
+        <v>-5.0126883462920602E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="12">
+        <v>44655</v>
+      </c>
+      <c r="C108" s="18">
+        <v>94.559997999999993</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="10"/>
+        <v>-1.1395755119796069E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="12">
+        <v>44648</v>
+      </c>
+      <c r="C109" s="18">
+        <v>95.650002000000001</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="10"/>
+        <v>2.7941955036798749E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="12">
+        <v>44641</v>
+      </c>
+      <c r="C110" s="18">
+        <v>93.050003000000004</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="10"/>
+        <v>4.9278337843933206E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="12">
+        <v>44634</v>
+      </c>
+      <c r="C111" s="18">
+        <v>88.68</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="10"/>
+        <v>0.15619300480546316</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="12">
+        <v>44627</v>
+      </c>
+      <c r="C112" s="18">
+        <v>76.699996999999996</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="10"/>
+        <v>2.7048701124799068E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="12">
+        <v>44620</v>
+      </c>
+      <c r="C113" s="18">
+        <v>74.680000000000007</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="10"/>
+        <v>-0.15097770749178829</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="12">
+        <v>44613</v>
+      </c>
+      <c r="C114" s="18">
+        <v>87.959998999999996</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="10"/>
+        <v>-3.3406604395604389E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="12">
+        <v>44606</v>
+      </c>
+      <c r="C115" s="18">
+        <v>91</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="10"/>
+        <v>-3.1914893617021267E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="12">
+        <v>44599</v>
+      </c>
+      <c r="C116" s="18">
+        <v>94</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="10"/>
+        <v>2.7546971112364371E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="12">
+        <v>44592</v>
+      </c>
+      <c r="C117" s="18">
+        <v>91.480002999999996</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="10"/>
+        <v>-3.8113796403924649E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="12">
+        <v>44585</v>
+      </c>
+      <c r="C118" s="18">
+        <v>91.830001999999993</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="10"/>
+        <v>7.1403606013342724E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="12">
+        <v>44578</v>
+      </c>
+      <c r="C119" s="18">
+        <v>85.709998999999996</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="10"/>
+        <v>-7.4705799677398321E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="12">
+        <v>44571</v>
+      </c>
+      <c r="C120" s="18">
+        <v>92.629997000000003</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="10"/>
+        <v>-9.3551275202049644E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="12">
+        <v>44564</v>
+      </c>
+      <c r="C121" s="18">
+        <v>102.19000200000001</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="10"/>
+        <v>-3.6942785440177262E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="12">
+        <v>44557</v>
+      </c>
+      <c r="C122" s="18">
+        <v>106.110001</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="10"/>
+        <v>-2.6156369549893199E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="12">
+        <v>44550</v>
+      </c>
+      <c r="C123" s="18">
+        <v>108.959999</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="10"/>
+        <v>4.228044727108804E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="12">
+        <v>44543</v>
+      </c>
+      <c r="C124" s="18">
+        <v>104.540001</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="10"/>
+        <v>9.2486140819602047E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="12">
+        <v>44536</v>
+      </c>
+      <c r="C125" s="18">
+        <v>95.690002000000007</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="10"/>
+        <v>-0.12259303360706086</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C126" s="18">
+        <v>109.05999799999999</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="10"/>
+        <v>-0.11029534817596109</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="12">
+        <v>44522</v>
+      </c>
+      <c r="C127" s="18">
+        <v>122.58000199999999</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="10"/>
+        <v>-9.8411329149166615E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="12">
+        <v>44515</v>
+      </c>
+      <c r="C128" s="18">
+        <v>135.96000699999999</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="10"/>
+        <v>-0.12295185465225511</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="12">
+        <v>44508</v>
+      </c>
+      <c r="C129" s="18">
+        <v>155.020004</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="10"/>
+        <v>8.3913877159016437E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="12">
+        <v>44501</v>
+      </c>
+      <c r="C130" s="18">
+        <v>153.729996</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="10"/>
+        <v>-0.11491741476288309</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="12">
+        <v>44494</v>
+      </c>
+      <c r="C131" s="18">
+        <v>173.69000199999999</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D143" si="11">C131/C132-1</f>
+        <v>-2.5636671873574435E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="12">
+        <v>44487</v>
+      </c>
+      <c r="C132" s="18">
+        <v>178.259995</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="11"/>
+        <v>0.13758773715866757</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="12">
+        <v>44480</v>
+      </c>
+      <c r="C133" s="18">
+        <v>156.699997</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="11"/>
+        <v>-5.8971935888255222E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="12">
+        <v>44473</v>
+      </c>
+      <c r="C134" s="18">
+        <v>166.520004</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="11"/>
+        <v>3.6990919952784695E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="12">
+        <v>44466</v>
+      </c>
+      <c r="C135" s="18">
+        <v>160.58000200000001</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="11"/>
+        <v>-0.19456284281895064</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="12">
+        <v>44459</v>
+      </c>
+      <c r="C136" s="18">
+        <v>199.36999499999999</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="11"/>
+        <v>7.7792190026860997E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="12">
+        <v>44452</v>
+      </c>
+      <c r="C137" s="18">
+        <v>184.979996</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="11"/>
+        <v>6.6966610917881253E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="12">
+        <v>44445</v>
+      </c>
+      <c r="C138" s="18">
+        <v>173.36999499999999</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="11"/>
+        <v>6.3228241913752425E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="12">
+        <v>44438</v>
+      </c>
+      <c r="C139" s="18">
+        <v>163.05999800000001</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="11"/>
+        <v>0.3577019210275092</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="12">
+        <v>44431</v>
+      </c>
+      <c r="C140" s="18">
+        <v>120.099998</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="11"/>
+        <v>-4.7052297445467794E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="12">
+        <v>44424</v>
+      </c>
+      <c r="C141" s="18">
+        <v>126.029999</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="11"/>
+        <v>-7.7581831311504423E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="12">
+        <v>44417</v>
+      </c>
+      <c r="C142" s="18">
+        <v>136.63000500000001</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="11"/>
+        <v>1.6743562407219637E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="12">
+        <v>44410</v>
+      </c>
+      <c r="C143" s="18">
+        <v>134.38000500000001</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="11"/>
+        <v>-4.1853796791443743E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="12">
+        <v>44403</v>
+      </c>
+      <c r="C144" s="18">
+        <v>140.25</v>
       </c>
     </row>
   </sheetData>

--- a/Business - Technology Services/DUOL.xlsx
+++ b/Business - Technology Services/DUOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCF8742-5C44-436F-8610-16057790D495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA95467-72E1-4DB9-98B9-73A7A9D3D530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="105" windowWidth="14340" windowHeight="15075" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1691,7 +1691,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1846,6 +1846,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1903,10 +1906,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -6525,40 +6524,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Less than -27,00%</c:v>
+                  <c:v>Less than -26,96%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-27,00% to -21,48%</c:v>
+                  <c:v>-26,96% to -21,43%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-21,48% to -15,95%</c:v>
+                  <c:v>-21,43% to -15,89%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-15,95% to -10,42%</c:v>
+                  <c:v>-15,89% to -10,36%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10,42% to -4,90%</c:v>
+                  <c:v>-10,36% to -4,83%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4,90% to 0,63%</c:v>
+                  <c:v>-4,83% to 0,70%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,63% to 6,15%</c:v>
+                  <c:v>0,70% to 6,23%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6,15% to 11,68%</c:v>
+                  <c:v>6,23% to 11,77%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11,68% to 17,21%</c:v>
+                  <c:v>11,77% to 17,30%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17,21% to 22,73%</c:v>
+                  <c:v>17,30% to 22,83%</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22,73% to 28,26%</c:v>
+                  <c:v>22,83% to 28,36%</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Greater than 28,26%</c:v>
+                  <c:v>Greater than 28,36%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6585,13 +6584,13 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5</c:v>
@@ -13100,9 +13099,9 @@
       <c r="E17" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="128"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="130"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="131"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -13112,9 +13111,9 @@
         <f>C14/(C16*100)</f>
         <v>0.7151219593242385</v>
       </c>
-      <c r="L18" s="131"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="133"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="134"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -13124,9 +13123,9 @@
         <f>C15/(C17*100)</f>
         <v>1.042891959394135</v>
       </c>
-      <c r="L19" s="131"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="133"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="134"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -13136,9 +13135,9 @@
         <f>Model!H9/Model!G8-1</f>
         <v>0.36942771084337345</v>
       </c>
-      <c r="L20" s="131"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="133"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="134"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -13148,9 +13147,9 @@
         <f>Model!I9/Model!H9-1</f>
         <v>0.26894314307709233</v>
       </c>
-      <c r="L21" s="131"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="133"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="134"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -13160,9 +13159,9 @@
         <f>Model!G14</f>
         <v>-13.167999999999893</v>
       </c>
-      <c r="L22" s="131"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="133"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="134"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13172,9 +13171,9 @@
         <f>Model!G17</f>
         <v>17.868000000000109</v>
       </c>
-      <c r="L23" s="131"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="133"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="134"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -13184,9 +13183,9 @@
         <f>Model!G23</f>
         <v>0.73248305722891571</v>
       </c>
-      <c r="L24" s="131"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="133"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="134"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -13196,9 +13195,9 @@
         <f>Model!G24</f>
         <v>3.0417921686747187E-2</v>
       </c>
-      <c r="L25" s="131"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="133"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="134"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -13208,9 +13207,9 @@
         <f>C12/C23</f>
         <v>455.13782947615573</v>
       </c>
-      <c r="L26" s="131"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="133"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="134"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -13222,9 +13221,9 @@
       <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="131"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="133"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="134"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -13233,9 +13232,9 @@
       <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="L28" s="134"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="136"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="137"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -14421,10 +14420,10 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="51"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="147"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="128"/>
       <c r="X22" s="50">
         <v>0.27</v>
       </c>
@@ -25335,10 +25334,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25366,25 +25365,25 @@
       <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="137" t="s">
+      <c r="H1" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="140"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="C2" s="18">
-        <v>194.66000399999999</v>
-      </c>
-      <c r="D2">
+        <v>216.38</v>
+      </c>
+      <c r="D2" s="126">
         <f>C2/C3-1</f>
-        <v>-7.7615568343958441E-2</v>
+        <v>0.11157914082853915</v>
       </c>
       <c r="H2" s="61"/>
       <c r="I2" s="62"/>
@@ -25395,14 +25394,14 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="C3" s="18">
-        <v>211.03999300000001</v>
-      </c>
-      <c r="D3">
+        <v>194.66000399999999</v>
+      </c>
+      <c r="D3" s="126">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
-        <v>-1.8464267207670915E-2</v>
+        <v>-7.7615568343958441E-2</v>
       </c>
       <c r="H3" s="64" t="s">
         <v>95</v>
@@ -25425,22 +25424,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
-        <v>45383</v>
+        <v>45390</v>
       </c>
       <c r="C4" s="18">
-        <v>215.009995</v>
-      </c>
-      <c r="D4">
+        <v>211.03999300000001</v>
+      </c>
+      <c r="D4" s="126">
         <f t="shared" si="0"/>
-        <v>-2.5251640898978689E-2</v>
+        <v>-1.8464267207670915E-2</v>
       </c>
       <c r="H4" s="69">
         <f>$I$19-3*$I$23</f>
-        <v>-0.27002958446094699</v>
+        <v>-0.26958302426293923</v>
       </c>
       <c r="I4" s="70">
         <f>H4</f>
-        <v>-0.27002958446094699</v>
+        <v>-0.26958302426293923</v>
       </c>
       <c r="J4" s="71">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
@@ -25448,7 +25447,7 @@
       </c>
       <c r="K4" s="71" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
-        <v>Less than -27,00%</v>
+        <v>Less than -26,96%</v>
       </c>
       <c r="L4" s="72">
         <f>J4/$I$31</f>
@@ -25461,22 +25460,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
-        <v>45376</v>
+        <v>45383</v>
       </c>
       <c r="C5" s="18">
-        <v>220.58000200000001</v>
-      </c>
-      <c r="D5">
+        <v>215.009995</v>
+      </c>
+      <c r="D5" s="126">
         <f t="shared" si="0"/>
-        <v>-4.9592805370206494E-2</v>
+        <v>-2.5251640898978689E-2</v>
       </c>
       <c r="H5" s="74">
         <f>$I$19-2.4*$I$23</f>
-        <v>-0.2147683314947211</v>
+        <v>-0.21426380716784171</v>
       </c>
       <c r="I5" s="75">
         <f>H5</f>
-        <v>-0.2147683314947211</v>
+        <v>-0.21426380716784171</v>
       </c>
       <c r="J5" s="76">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
@@ -25484,7 +25483,7 @@
       </c>
       <c r="K5" s="77" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
-        <v>-27,00% to -21,48%</v>
+        <v>-26,96% to -21,43%</v>
       </c>
       <c r="L5" s="78">
         <f>J5/$I$31</f>
@@ -25497,22 +25496,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
-        <v>45369</v>
+        <v>45376</v>
       </c>
       <c r="C6" s="18">
-        <v>232.08999600000001</v>
-      </c>
-      <c r="D6">
+        <v>220.58000200000001</v>
+      </c>
+      <c r="D6" s="126">
         <f t="shared" si="0"/>
-        <v>7.2802072160526476E-2</v>
+        <v>-4.9592805370206494E-2</v>
       </c>
       <c r="H6" s="74">
         <f>$I$19-1.8*$I$23</f>
-        <v>-0.15950707852849527</v>
+        <v>-0.15894459007274417</v>
       </c>
       <c r="I6" s="75">
         <f t="shared" ref="I6:I14" si="2">H6</f>
-        <v>-0.15950707852849527</v>
+        <v>-0.15894459007274417</v>
       </c>
       <c r="J6" s="76">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
@@ -25520,35 +25519,35 @@
       </c>
       <c r="K6" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>-21,48% to -15,95%</v>
+        <v>-21,43% to -15,89%</v>
       </c>
       <c r="L6" s="78">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
-        <v>1.4084507042253521E-2</v>
+        <v>1.3986013986013986E-2</v>
       </c>
       <c r="M6" s="79">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
-        <v>1.4084507042253521E-2</v>
+        <v>1.3986013986013986E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
-        <v>45362</v>
+        <v>45369</v>
       </c>
       <c r="C7" s="18">
-        <v>216.33999600000001</v>
-      </c>
-      <c r="D7">
+        <v>232.08999600000001</v>
+      </c>
+      <c r="D7" s="126">
         <f t="shared" si="0"/>
-        <v>1.3159729373669826E-2</v>
+        <v>7.2802072160526476E-2</v>
       </c>
       <c r="H7" s="74">
         <f>$I$19-1.2*$I$23</f>
-        <v>-0.10424582556226938</v>
+        <v>-0.10362537297764662</v>
       </c>
       <c r="I7" s="75">
         <f t="shared" si="2"/>
-        <v>-0.10424582556226938</v>
+        <v>-0.10362537297764662</v>
       </c>
       <c r="J7" s="76">
         <f t="shared" si="3"/>
@@ -25556,35 +25555,35 @@
       </c>
       <c r="K7" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>-15,95% to -10,42%</v>
+        <v>-15,89% to -10,36%</v>
       </c>
       <c r="L7" s="78">
         <f t="shared" si="4"/>
-        <v>5.6338028169014086E-2</v>
+        <v>5.5944055944055944E-2</v>
       </c>
       <c r="M7" s="79">
         <f t="shared" si="5"/>
-        <v>7.0422535211267609E-2</v>
+        <v>6.9930069930069935E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
-        <v>45355</v>
+        <v>45362</v>
       </c>
       <c r="C8" s="18">
-        <v>213.529999</v>
-      </c>
-      <c r="D8">
+        <v>216.33999600000001</v>
+      </c>
+      <c r="D8" s="126">
         <f t="shared" si="0"/>
-        <v>-9.7086580889539031E-2</v>
+        <v>1.3159729373669826E-2</v>
       </c>
       <c r="H8" s="74">
         <f>$I$19-0.6*$I$23</f>
-        <v>-4.8984572596043538E-2</v>
+        <v>-4.8306155882549093E-2</v>
       </c>
       <c r="I8" s="75">
         <f t="shared" si="2"/>
-        <v>-4.8984572596043538E-2</v>
+        <v>-4.8306155882549093E-2</v>
       </c>
       <c r="J8" s="76">
         <f t="shared" si="3"/>
@@ -25592,143 +25591,143 @@
       </c>
       <c r="K8" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>-10,42% to -4,90%</v>
+        <v>-10,36% to -4,83%</v>
       </c>
       <c r="L8" s="78">
         <f t="shared" si="4"/>
-        <v>0.16901408450704225</v>
+        <v>0.16783216783216784</v>
       </c>
       <c r="M8" s="79">
         <f t="shared" si="5"/>
-        <v>0.23943661971830987</v>
+        <v>0.23776223776223776</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
+        <v>45355</v>
+      </c>
+      <c r="C9" s="18">
+        <v>213.529999</v>
+      </c>
+      <c r="D9" s="126">
+        <f t="shared" si="0"/>
+        <v>-9.7086580889539031E-2</v>
+      </c>
+      <c r="H9" s="74">
+        <f>$I$19</f>
+        <v>7.0130612125484468E-3</v>
+      </c>
+      <c r="I9" s="75">
+        <f t="shared" si="2"/>
+        <v>7.0130612125484468E-3</v>
+      </c>
+      <c r="J9" s="76">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="K9" s="77" t="str">
+        <f t="shared" si="1"/>
+        <v>-4,83% to 0,70%</v>
+      </c>
+      <c r="L9" s="78">
+        <f t="shared" si="4"/>
+        <v>0.30069930069930068</v>
+      </c>
+      <c r="M9" s="79">
+        <f t="shared" si="5"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
         <v>45348</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C10" s="18">
         <v>236.490005</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="126">
         <f t="shared" si="0"/>
         <v>0.33512108803926233</v>
       </c>
-      <c r="H9" s="74">
-        <f>$I$19</f>
-        <v>6.2766803701823151E-3</v>
-      </c>
-      <c r="I9" s="75">
+      <c r="H10" s="74">
+        <f>$I$19+0.6*$I$23</f>
+        <v>6.2332278307645983E-2</v>
+      </c>
+      <c r="I10" s="75">
         <f t="shared" si="2"/>
-        <v>6.2766803701823151E-3</v>
-      </c>
-      <c r="J9" s="76">
+        <v>6.2332278307645983E-2</v>
+      </c>
+      <c r="J10" s="76">
         <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="K9" s="77" t="str">
+        <v>29</v>
+      </c>
+      <c r="K10" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>-4,90% to 0,63%</v>
-      </c>
-      <c r="L9" s="78">
+        <v>0,70% to 6,23%</v>
+      </c>
+      <c r="L10" s="78">
         <f t="shared" si="4"/>
-        <v>0.29577464788732394</v>
-      </c>
-      <c r="M9" s="79">
+        <v>0.20279720279720279</v>
+      </c>
+      <c r="M10" s="79">
         <f t="shared" si="5"/>
-        <v>0.53521126760563376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+        <v>0.74125874125874125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
         <v>45341</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C11" s="18">
         <v>177.13000500000001</v>
       </c>
-      <c r="D10">
+      <c r="D11" s="126">
         <f t="shared" si="0"/>
         <v>-4.2022656853087703E-2</v>
       </c>
-      <c r="H10" s="74">
-        <f>$I$19+0.6*$I$23</f>
-        <v>6.1537933336408168E-2</v>
-      </c>
-      <c r="I10" s="75">
+      <c r="H11" s="74">
+        <f>$I$19+1.2*$I$23</f>
+        <v>0.11765149540274353</v>
+      </c>
+      <c r="I11" s="75">
         <f t="shared" si="2"/>
-        <v>6.1537933336408168E-2</v>
-      </c>
-      <c r="J10" s="76">
+        <v>0.11765149540274353</v>
+      </c>
+      <c r="J11" s="76">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K10" s="77" t="str">
+        <v>28</v>
+      </c>
+      <c r="K11" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>0,63% to 6,15%</v>
-      </c>
-      <c r="L10" s="78">
+        <v>6,23% to 11,77%</v>
+      </c>
+      <c r="L11" s="78">
         <f t="shared" si="4"/>
-        <v>0.21126760563380281</v>
-      </c>
-      <c r="M10" s="79">
+        <v>0.19580419580419581</v>
+      </c>
+      <c r="M11" s="79">
         <f t="shared" si="5"/>
-        <v>0.74647887323943651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+        <v>0.93706293706293708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
         <v>45334</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C12" s="18">
         <v>184.89999399999999</v>
       </c>
-      <c r="D11">
+      <c r="D12" s="126">
         <f t="shared" si="0"/>
         <v>-3.5673364043147915E-2</v>
       </c>
-      <c r="H11" s="74">
-        <f>$I$19+1.2*$I$23</f>
-        <v>0.11679918630263403</v>
-      </c>
-      <c r="I11" s="75">
-        <f t="shared" si="2"/>
-        <v>0.11679918630263403</v>
-      </c>
-      <c r="J11" s="76">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="K11" s="77" t="str">
-        <f t="shared" si="1"/>
-        <v>6,15% to 11,68%</v>
-      </c>
-      <c r="L11" s="78">
-        <f t="shared" si="4"/>
-        <v>0.19014084507042253</v>
-      </c>
-      <c r="M11" s="79">
-        <f t="shared" si="5"/>
-        <v>0.93661971830985902</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
-        <v>45327</v>
-      </c>
-      <c r="C12" s="18">
-        <v>191.740005</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>7.1831885917781335E-2</v>
-      </c>
       <c r="H12" s="74">
         <f>$I$19+1.8*$I$23</f>
-        <v>0.17206043926885989</v>
+        <v>0.17297071249784104</v>
       </c>
       <c r="I12" s="75">
         <f t="shared" si="2"/>
-        <v>0.17206043926885989</v>
+        <v>0.17297071249784104</v>
       </c>
       <c r="J12" s="76">
         <f t="shared" si="3"/>
@@ -25736,35 +25735,35 @@
       </c>
       <c r="K12" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>11,68% to 17,21%</v>
+        <v>11,77% to 17,30%</v>
       </c>
       <c r="L12" s="78">
         <f t="shared" si="4"/>
-        <v>3.5211267605633804E-2</v>
+        <v>3.4965034965034968E-2</v>
       </c>
       <c r="M12" s="79">
         <f t="shared" si="5"/>
-        <v>0.97183098591549277</v>
+        <v>0.97202797202797209</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
-        <v>45320</v>
+        <v>45327</v>
       </c>
       <c r="C13" s="18">
-        <v>178.88999899999999</v>
-      </c>
-      <c r="D13">
+        <v>191.740005</v>
+      </c>
+      <c r="D13" s="126">
         <f t="shared" si="0"/>
-        <v>-7.2580227448702517E-2</v>
+        <v>7.1831885917781335E-2</v>
       </c>
       <c r="H13" s="74">
         <f>$I$19+2.4*$I$23</f>
-        <v>0.22732169223508572</v>
+        <v>0.22828992959293859</v>
       </c>
       <c r="I13" s="75">
         <f t="shared" si="2"/>
-        <v>0.22732169223508572</v>
+        <v>0.22828992959293859</v>
       </c>
       <c r="J13" s="76">
         <f t="shared" si="3"/>
@@ -25772,7 +25771,7 @@
       </c>
       <c r="K13" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>17,21% to 22,73%</v>
+        <v>17,30% to 22,83%</v>
       </c>
       <c r="L13" s="78">
         <f t="shared" si="4"/>
@@ -25780,27 +25779,27 @@
       </c>
       <c r="M13" s="79">
         <f t="shared" si="5"/>
-        <v>0.97183098591549277</v>
+        <v>0.97202797202797209</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
-        <v>45313</v>
+        <v>45320</v>
       </c>
       <c r="C14" s="18">
-        <v>192.88999899999999</v>
-      </c>
-      <c r="D14">
+        <v>178.88999899999999</v>
+      </c>
+      <c r="D14" s="126">
         <f t="shared" si="0"/>
-        <v>-8.7872916098472587E-3</v>
+        <v>-7.2580227448702517E-2</v>
       </c>
       <c r="H14" s="74">
         <f>$I$19+3*$I$23</f>
-        <v>0.28258294520131161</v>
+        <v>0.28360914668803616</v>
       </c>
       <c r="I14" s="75">
         <f t="shared" si="2"/>
-        <v>0.28258294520131161</v>
+        <v>0.28360914668803616</v>
       </c>
       <c r="J14" s="76">
         <f t="shared" si="3"/>
@@ -25808,7 +25807,7 @@
       </c>
       <c r="K14" s="77" t="str">
         <f t="shared" si="1"/>
-        <v>22,73% to 28,26%</v>
+        <v>22,83% to 28,36%</v>
       </c>
       <c r="L14" s="78">
         <f t="shared" si="4"/>
@@ -25816,19 +25815,19 @@
       </c>
       <c r="M14" s="79">
         <f t="shared" si="5"/>
-        <v>0.97183098591549277</v>
+        <v>0.97202797202797209</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
-        <v>45306</v>
+        <v>45313</v>
       </c>
       <c r="C15" s="18">
-        <v>194.60000600000001</v>
-      </c>
-      <c r="D15">
+        <v>192.88999899999999</v>
+      </c>
+      <c r="D15" s="126">
         <f t="shared" si="0"/>
-        <v>-8.2118718034968063E-2</v>
+        <v>-8.7872916098472587E-3</v>
       </c>
       <c r="H15" s="80"/>
       <c r="I15" s="81" t="s">
@@ -25840,133 +25839,133 @@
       </c>
       <c r="K15" s="81" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
-        <v>Greater than 28,26%</v>
+        <v>Greater than 28,36%</v>
       </c>
       <c r="L15" s="82">
         <f t="shared" si="4"/>
-        <v>2.8169014084507043E-2</v>
+        <v>2.7972027972027972E-2</v>
       </c>
       <c r="M15" s="82">
         <f t="shared" si="5"/>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
+        <v>45306</v>
+      </c>
+      <c r="C16" s="18">
+        <v>194.60000600000001</v>
+      </c>
+      <c r="D16" s="126">
+        <f t="shared" si="0"/>
+        <v>-8.2118718034968063E-2</v>
+      </c>
+      <c r="H16" s="83"/>
+      <c r="M16" s="84"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
         <v>45299</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C17" s="18">
         <v>212.009995</v>
       </c>
-      <c r="D16">
+      <c r="D17" s="126">
         <f t="shared" si="0"/>
         <v>3.857741295165984E-2</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="M16" s="84"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="H17" s="141" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="142"/>
+      <c r="M17" s="84"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
         <v>45292</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C18" s="18">
         <v>204.134995</v>
       </c>
-      <c r="D17">
+      <c r="D18" s="126">
         <f t="shared" si="0"/>
         <v>-0.1001322918192914</v>
       </c>
-      <c r="H17" s="140" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="141"/>
-      <c r="M17" s="84"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="H18" s="143"/>
+      <c r="I18" s="144"/>
+      <c r="M18" s="84"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
         <v>45285</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C19" s="18">
         <v>226.85000600000001</v>
       </c>
-      <c r="D18">
+      <c r="D19" s="126">
         <f t="shared" si="0"/>
         <v>-4.7848873032528827E-2</v>
       </c>
-      <c r="H18" s="142"/>
-      <c r="I18" s="143"/>
-      <c r="M18" s="84"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+      <c r="H19" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="122">
+        <f>AVERAGE(D:D)</f>
+        <v>7.0130612125484468E-3</v>
+      </c>
+      <c r="M19" s="84"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
         <v>45278</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C20" s="18">
         <v>238.25</v>
       </c>
-      <c r="D19">
+      <c r="D20" s="126">
         <f t="shared" si="0"/>
         <v>2.9202103131839241E-2</v>
       </c>
-      <c r="H19" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="122">
-        <f>AVERAGE(D:D)</f>
-        <v>6.2766803701823151E-3</v>
-      </c>
-      <c r="M19" s="84"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="H20" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="122">
+        <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
+        <v>7.7100422159371634E-3</v>
+      </c>
+      <c r="M20" s="84"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
         <v>45271</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C21" s="18">
         <v>231.490005</v>
       </c>
-      <c r="D20">
+      <c r="D21" s="126">
         <f t="shared" si="0"/>
         <v>7.795112922002323E-2</v>
       </c>
-      <c r="H20" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="122">
-        <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
-        <v>7.7290355542290589E-3</v>
-      </c>
-      <c r="M20" s="84"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="H21" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="122">
+        <f>MEDIAN(D:D)</f>
+        <v>-7.6949466757081364E-4</v>
+      </c>
+      <c r="M21" s="84"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
         <v>45264</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C22" s="18">
         <v>214.75</v>
       </c>
-      <c r="D21">
+      <c r="D22" s="126">
         <f t="shared" si="0"/>
         <v>6.7979230173755845E-3</v>
-      </c>
-      <c r="H21" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="122">
-        <f>MEDIAN(D:D)</f>
-        <v>-1.5901968203113626E-3</v>
-      </c>
-      <c r="M21" s="84"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
-        <v>45257</v>
-      </c>
-      <c r="C22" s="18">
-        <v>213.300003</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>-3.6846399991308565E-2</v>
       </c>
       <c r="H22" s="85" t="s">
         <v>105</v>
@@ -25979,94 +25978,94 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
+        <v>45257</v>
+      </c>
+      <c r="C23" s="18">
+        <v>213.300003</v>
+      </c>
+      <c r="D23" s="126">
+        <f t="shared" si="0"/>
+        <v>-3.6846399991308565E-2</v>
+      </c>
+      <c r="H23" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="122">
+        <f>_xlfn.STDEV.S(D:D)</f>
+        <v>9.2198695158495894E-2</v>
+      </c>
+      <c r="M23" s="84"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
         <v>45250</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C24" s="18">
         <v>221.46000699999999</v>
       </c>
-      <c r="D23">
+      <c r="D24" s="126">
         <f t="shared" si="0"/>
         <v>4.6350169043708922E-2</v>
       </c>
-      <c r="H23" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="122">
-        <f>_xlfn.STDEV.S(D:D)</f>
-        <v>9.2102088277043095E-2</v>
-      </c>
-      <c r="M23" s="84"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="H24" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="122">
+        <f>_xlfn.VAR.S(D:D)</f>
+        <v>8.5005993889292544E-3</v>
+      </c>
+      <c r="M24" s="84"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
         <v>45243</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C25" s="18">
         <v>211.64999399999999</v>
       </c>
-      <c r="D24">
+      <c r="D25" s="126">
         <f t="shared" si="0"/>
         <v>5.6727178446203119E-4</v>
       </c>
-      <c r="H24" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" s="122">
-        <f>_xlfn.VAR.S(D:D)</f>
-        <v>8.4827946649922402E-3</v>
-      </c>
-      <c r="M24" s="84"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+      <c r="H25" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="123">
+        <f>KURT(D:D)</f>
+        <v>3.5761692065844546</v>
+      </c>
+      <c r="M25" s="84"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
         <v>45236</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C26" s="18">
         <v>211.529999</v>
       </c>
-      <c r="D25">
+      <c r="D26" s="126">
         <f t="shared" si="0"/>
         <v>0.32762189383516094</v>
       </c>
-      <c r="H25" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="123">
-        <f>KURT(D:D)</f>
-        <v>3.6803059267123843</v>
-      </c>
-      <c r="M25" s="84"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="H26" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="123">
+        <f>SKEW(D:D)</f>
+        <v>1.1921520470223386</v>
+      </c>
+      <c r="M26" s="84"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
         <v>45229</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C27" s="18">
         <v>159.33000200000001</v>
       </c>
-      <c r="D26">
+      <c r="D27" s="126">
         <f t="shared" si="0"/>
         <v>0.10977219636131941</v>
-      </c>
-      <c r="H26" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="123">
-        <f>SKEW(D:D)</f>
-        <v>1.2183112622984311</v>
-      </c>
-      <c r="M26" s="84"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
-        <v>45222</v>
-      </c>
-      <c r="C27" s="18">
-        <v>143.570007</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>-6.548198706365993E-2</v>
       </c>
       <c r="H27" s="85" t="s">
         <v>98</v>
@@ -26079,14 +26078,14 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
-        <v>45215</v>
+        <v>45222</v>
       </c>
       <c r="C28" s="18">
-        <v>153.63000500000001</v>
-      </c>
-      <c r="D28">
+        <v>143.570007</v>
+      </c>
+      <c r="D28" s="126">
         <f t="shared" si="0"/>
-        <v>-4.0412247080115593E-2</v>
+        <v>-6.548198706365993E-2</v>
       </c>
       <c r="H28" s="85" t="s">
         <v>110</v>
@@ -26099,14 +26098,14 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
-        <v>45208</v>
+        <v>45215</v>
       </c>
       <c r="C29" s="18">
-        <v>160.10000600000001</v>
-      </c>
-      <c r="D29">
+        <v>153.63000500000001</v>
+      </c>
+      <c r="D29" s="126">
         <f t="shared" si="0"/>
-        <v>-2.5207007269635651E-2</v>
+        <v>-4.0412247080115593E-2</v>
       </c>
       <c r="H29" s="85" t="s">
         <v>111</v>
@@ -26119,68 +26118,68 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
+        <v>45208</v>
+      </c>
+      <c r="C30" s="18">
+        <v>160.10000600000001</v>
+      </c>
+      <c r="D30" s="126">
+        <f t="shared" si="0"/>
+        <v>-2.5207007269635651E-2</v>
+      </c>
+      <c r="H30" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" s="123">
+        <f>SUM(D:D)</f>
+        <v>1.0028677533944279</v>
+      </c>
+      <c r="M30" s="84"/>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
         <v>45201</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C31" s="18">
         <v>164.240005</v>
       </c>
-      <c r="D30">
+      <c r="D31" s="126">
         <f t="shared" si="0"/>
         <v>-9.8269129386541199E-3</v>
       </c>
-      <c r="H30" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="I30" s="123">
-        <f>SUM(D:D)</f>
-        <v>0.89128861256588876</v>
-      </c>
-      <c r="M30" s="84"/>
-    </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="12">
+      <c r="H31" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="63">
+        <f>COUNT(D:D)</f>
+        <v>143</v>
+      </c>
+      <c r="M31" s="84"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
         <v>45194</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C32" s="18">
         <v>165.86999499999999</v>
       </c>
-      <c r="D31">
+      <c r="D32" s="126">
         <f t="shared" si="0"/>
         <v>8.6460975783860361E-2</v>
       </c>
-      <c r="H31" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" s="63">
-        <f>COUNT(D:D)</f>
-        <v>142</v>
-      </c>
-      <c r="M31" s="84"/>
-    </row>
-    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="12">
+      <c r="H32" s="88"/>
+      <c r="M32" s="84"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="12">
         <v>45187</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C33" s="18">
         <v>152.66999799999999</v>
       </c>
-      <c r="D32">
+      <c r="D33" s="126">
         <f t="shared" si="0"/>
         <v>-4.3001322904791195E-2</v>
-      </c>
-      <c r="H32" s="88"/>
-      <c r="M32" s="84"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
-        <v>45180</v>
-      </c>
-      <c r="C33" s="18">
-        <v>159.529999</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>1.929591781023321E-2</v>
       </c>
       <c r="H33" s="89"/>
       <c r="I33" s="90" t="s">
@@ -26199,46 +26198,46 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
+        <v>45180</v>
+      </c>
+      <c r="C34" s="18">
+        <v>159.529999</v>
+      </c>
+      <c r="D34" s="126">
+        <f t="shared" si="0"/>
+        <v>1.929591781023321E-2</v>
+      </c>
+      <c r="H34" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="78">
+        <f>AVERAGEIF(D:D,"&gt;0")</f>
+        <v>7.5861524839146252E-2</v>
+      </c>
+      <c r="J34" s="76">
+        <f>COUNTIF(D:D,"&gt;0")</f>
+        <v>70</v>
+      </c>
+      <c r="K34" s="78">
+        <f>J34/$I$31</f>
+        <v>0.48951048951048953</v>
+      </c>
+      <c r="L34" s="79">
+        <f>K34*I34</f>
+        <v>3.7135012159022644E-2</v>
+      </c>
+      <c r="M34" s="84"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="12">
         <v>45173</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C35" s="18">
         <v>156.509995</v>
       </c>
-      <c r="D34">
+      <c r="D35" s="126">
         <f t="shared" si="0"/>
         <v>5.0966942666760051E-2</v>
-      </c>
-      <c r="H34" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" s="78">
-        <f>AVERAGEIF(D:D,"&gt;0")</f>
-        <v>7.534387823060433E-2</v>
-      </c>
-      <c r="J34" s="76">
-        <f>COUNTIF(D:D,"&gt;0")</f>
-        <v>69</v>
-      </c>
-      <c r="K34" s="78">
-        <f>J34/$I$31</f>
-        <v>0.4859154929577465</v>
-      </c>
-      <c r="L34" s="79">
-        <f>K34*I34</f>
-        <v>3.6610757731772525E-2</v>
-      </c>
-      <c r="M34" s="84"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
-        <v>45166</v>
-      </c>
-      <c r="C35" s="18">
-        <v>148.91999799999999</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0.10253935205615261</v>
       </c>
       <c r="H35" s="92" t="s">
         <v>118</v>
@@ -26253,24 +26252,24 @@
       </c>
       <c r="K35" s="78">
         <f>J35/$I$31</f>
-        <v>0.5140845070422535</v>
+        <v>0.51048951048951052</v>
       </c>
       <c r="L35" s="79">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
-        <v>-3.0334077361590231E-2</v>
+        <v>-3.012195094647422E-2</v>
       </c>
       <c r="M35" s="84"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
-        <v>45159</v>
+        <v>45166</v>
       </c>
       <c r="C36" s="18">
-        <v>135.070007</v>
-      </c>
-      <c r="D36">
+        <v>148.91999799999999</v>
+      </c>
+      <c r="D36" s="126">
         <f t="shared" si="0"/>
-        <v>9.0153388375247889E-2</v>
+        <v>0.10253935205615261</v>
       </c>
       <c r="H36" s="93" t="s">
         <v>119</v>
@@ -26294,14 +26293,14 @@
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
-        <v>45152</v>
+        <v>45159</v>
       </c>
       <c r="C37" s="18">
-        <v>123.900002</v>
-      </c>
-      <c r="D37">
+        <v>135.070007</v>
+      </c>
+      <c r="D37" s="126">
         <f t="shared" si="0"/>
-        <v>-0.10741298332127347</v>
+        <v>9.0153388375247889E-2</v>
       </c>
       <c r="H37" s="88"/>
       <c r="I37" s="95"/>
@@ -26312,55 +26311,55 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
+        <v>45152</v>
+      </c>
+      <c r="C38" s="18">
+        <v>123.900002</v>
+      </c>
+      <c r="D38" s="126">
+        <f t="shared" si="0"/>
+        <v>-0.10741298332127347</v>
+      </c>
+      <c r="H38" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="K38" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="M38" s="91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
         <v>45145</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C39" s="18">
         <v>138.80999800000001</v>
       </c>
-      <c r="D38">
+      <c r="D39" s="126">
         <f t="shared" si="0"/>
         <v>1.0556180761821521E-2</v>
       </c>
-      <c r="H38" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="I38" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="J38" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="K38" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="L38" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="M38" s="91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
-        <v>45138</v>
-      </c>
-      <c r="C39" s="18">
-        <v>137.36000100000001</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>-9.0090125658247922E-2</v>
-      </c>
       <c r="H39" s="96">
         <v>1</v>
       </c>
       <c r="I39" s="78">
         <f>$I$19+($H39*$I$23)</f>
-        <v>9.8378768647225417E-2</v>
+        <v>9.9211756371044346E-2</v>
       </c>
       <c r="J39" s="78">
         <f>$I$19-($H39*$I$23)</f>
-        <v>-8.5825407906860773E-2</v>
+        <v>-8.5185633945947442E-2</v>
       </c>
       <c r="K39" s="76">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
@@ -26368,7 +26367,7 @@
       </c>
       <c r="L39" s="78">
         <f>K39/$I$31</f>
-        <v>0.76760563380281688</v>
+        <v>0.76223776223776218</v>
       </c>
       <c r="M39" s="79">
         <v>0.68269999999999997</v>
@@ -26376,552 +26375,552 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
+        <v>45138</v>
+      </c>
+      <c r="C40" s="18">
+        <v>137.36000100000001</v>
+      </c>
+      <c r="D40" s="126">
+        <f t="shared" si="0"/>
+        <v>-9.0090125658247922E-2</v>
+      </c>
+      <c r="H40" s="96">
+        <v>2</v>
+      </c>
+      <c r="I40" s="78">
+        <f>$I$19+($H40*$I$23)</f>
+        <v>0.19141045152954023</v>
+      </c>
+      <c r="J40" s="78">
+        <f>$I$19-($H40*$I$23)</f>
+        <v>-0.17738432910444335</v>
+      </c>
+      <c r="K40" s="76">
+        <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
+        <v>137</v>
+      </c>
+      <c r="L40" s="78">
+        <f>K40/$I$31</f>
+        <v>0.95804195804195802</v>
+      </c>
+      <c r="M40" s="79">
+        <v>0.95450000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="12">
         <v>45131</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C41" s="18">
         <v>150.96000699999999</v>
       </c>
-      <c r="D40">
+      <c r="D41" s="126">
         <f t="shared" si="0"/>
         <v>9.7659331103678859E-3</v>
       </c>
-      <c r="H40" s="96">
-        <v>2</v>
-      </c>
-      <c r="I40" s="78">
-        <f>$I$19+($H40*$I$23)</f>
-        <v>0.1904808569242685</v>
-      </c>
-      <c r="J40" s="78">
-        <f>$I$19-($H40*$I$23)</f>
-        <v>-0.17792749618390388</v>
-      </c>
-      <c r="K40" s="76">
-        <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
-        <v>136</v>
-      </c>
-      <c r="L40" s="78">
-        <f>K40/$I$31</f>
-        <v>0.95774647887323938</v>
-      </c>
-      <c r="M40" s="79">
-        <v>0.95450000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
+      <c r="H41" s="96">
+        <v>3</v>
+      </c>
+      <c r="I41" s="78">
+        <f>$I$19+($H41*$I$23)</f>
+        <v>0.28360914668803616</v>
+      </c>
+      <c r="J41" s="78">
+        <f>$I$19-($H41*$I$23)</f>
+        <v>-0.26958302426293923</v>
+      </c>
+      <c r="K41" s="76">
+        <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
+        <v>139</v>
+      </c>
+      <c r="L41" s="78">
+        <f>K41/$I$31</f>
+        <v>0.97202797202797198</v>
+      </c>
+      <c r="M41" s="97">
+        <v>0.99729999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="12">
         <v>45124</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C42" s="18">
         <v>149.5</v>
       </c>
-      <c r="D41">
+      <c r="D42" s="126">
         <f t="shared" si="0"/>
         <v>-6.6851717840044067E-5</v>
       </c>
-      <c r="H41" s="96">
-        <v>3</v>
-      </c>
-      <c r="I41" s="78">
-        <f>$I$19+($H41*$I$23)</f>
-        <v>0.28258294520131161</v>
-      </c>
-      <c r="J41" s="78">
-        <f>$I$19-($H41*$I$23)</f>
-        <v>-0.27002958446094699</v>
-      </c>
-      <c r="K41" s="76">
-        <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
-        <v>138</v>
-      </c>
-      <c r="L41" s="78">
-        <f>K41/$I$31</f>
-        <v>0.971830985915493</v>
-      </c>
-      <c r="M41" s="97">
-        <v>0.99729999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="12">
+      <c r="H42" s="74"/>
+      <c r="M42" s="97"/>
+    </row>
+    <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="12">
         <v>45117</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C43" s="18">
         <v>149.509995</v>
       </c>
-      <c r="D42">
+      <c r="D43" s="126">
         <f t="shared" si="0"/>
         <v>0.1054343438077634</v>
       </c>
-      <c r="H42" s="74"/>
-      <c r="M42" s="97"/>
-    </row>
-    <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="12">
+      <c r="H43" s="145" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="147"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="12">
         <v>45110</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C44" s="18">
         <v>135.25</v>
       </c>
-      <c r="D43">
+      <c r="D44" s="126">
         <f t="shared" si="0"/>
         <v>-5.3798809937053105E-2</v>
       </c>
-      <c r="H43" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="146"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
+      <c r="H44" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="I44" s="99">
+        <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
+        <v>-0.17625708598154247</v>
+      </c>
+      <c r="J44" s="100">
+        <v>0.2</v>
+      </c>
+      <c r="K44" s="99">
+        <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
+        <v>-6.5532251052551671E-2</v>
+      </c>
+      <c r="L44" s="100">
+        <v>0.85</v>
+      </c>
+      <c r="M44" s="101">
+        <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
+        <v>7.790344746207456E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="12">
         <v>45103</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C45" s="18">
         <v>142.94000199999999</v>
       </c>
-      <c r="D44">
+      <c r="D45" s="126">
         <f t="shared" si="0"/>
         <v>2.0781282730709671E-2</v>
       </c>
-      <c r="H44" s="98">
-        <v>0.01</v>
-      </c>
-      <c r="I44" s="99">
-        <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
-        <v>-0.17669293733481406</v>
-      </c>
-      <c r="J44" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="K44" s="99">
-        <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
-        <v>-6.5549005715515585E-2</v>
-      </c>
-      <c r="L44" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="M44" s="101">
-        <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
-        <v>7.7241518117892066E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
+      <c r="H45" s="102">
+        <v>0.02</v>
+      </c>
+      <c r="I45" s="103">
+        <f t="shared" si="7"/>
+        <v>-0.14870136684728594</v>
+      </c>
+      <c r="J45" s="104">
+        <v>0.25</v>
+      </c>
+      <c r="K45" s="103">
+        <f t="shared" si="8"/>
+        <v>-4.6407647425667942E-2</v>
+      </c>
+      <c r="L45" s="104">
+        <v>0.86</v>
+      </c>
+      <c r="M45" s="105">
+        <f t="shared" si="9"/>
+        <v>8.1363249329655496E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="12">
         <v>45096</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C46" s="18">
         <v>140.029999</v>
       </c>
-      <c r="D45">
+      <c r="D46" s="126">
         <f t="shared" si="0"/>
         <v>-8.3513283491020274E-2</v>
       </c>
-      <c r="H45" s="102">
-        <v>0.02</v>
-      </c>
-      <c r="I45" s="103">
+      <c r="H46" s="102">
+        <v>0.03</v>
+      </c>
+      <c r="I46" s="103">
         <f t="shared" si="7"/>
-        <v>-0.14875556543405979</v>
-      </c>
-      <c r="J45" s="104">
-        <v>0.25</v>
-      </c>
-      <c r="K45" s="103">
+        <v>-0.1228585611805046</v>
+      </c>
+      <c r="J46" s="104">
+        <v>0.3</v>
+      </c>
+      <c r="K46" s="103">
         <f t="shared" si="8"/>
-        <v>-4.6729972435567868E-2</v>
-      </c>
-      <c r="L45" s="104">
-        <v>0.86</v>
-      </c>
-      <c r="M45" s="105">
+        <v>-4.0049487554004413E-2</v>
+      </c>
+      <c r="L46" s="104">
+        <v>0.87</v>
+      </c>
+      <c r="M46" s="105">
         <f t="shared" si="9"/>
-        <v>7.8657542874242176E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
+        <v>8.8454878583209648E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="12">
         <v>45089</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C47" s="18">
         <v>152.78999300000001</v>
       </c>
-      <c r="D46">
+      <c r="D47" s="126">
         <f t="shared" si="0"/>
         <v>-1.9445603028371061E-2</v>
       </c>
-      <c r="H46" s="102">
-        <v>0.03</v>
-      </c>
-      <c r="I46" s="103">
+      <c r="H47" s="102">
+        <v>0.04</v>
+      </c>
+      <c r="I47" s="103">
         <f t="shared" si="7"/>
-        <v>-0.12286932581186043</v>
-      </c>
-      <c r="J46" s="104">
-        <v>0.3</v>
-      </c>
-      <c r="K46" s="103">
+        <v>-0.11898075207832921</v>
+      </c>
+      <c r="J47" s="104">
+        <v>0.35</v>
+      </c>
+      <c r="K47" s="103">
         <f t="shared" si="8"/>
-        <v>-4.0230867317060007E-2</v>
-      </c>
-      <c r="L46" s="104">
-        <v>0.87</v>
-      </c>
-      <c r="M46" s="105">
+        <v>-3.3186318329401797E-2</v>
+      </c>
+      <c r="L47" s="104">
+        <v>0.88</v>
+      </c>
+      <c r="M47" s="105">
         <f t="shared" si="9"/>
-        <v>8.4549328363533544E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
+        <v>9.239283072182787E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="12">
         <v>45082</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C48" s="18">
         <v>155.820007</v>
       </c>
-      <c r="D47">
+      <c r="D48" s="126">
         <f t="shared" si="0"/>
         <v>-7.6949466757081364E-4</v>
       </c>
-      <c r="H47" s="102">
-        <v>0.04</v>
-      </c>
-      <c r="I47" s="103">
+      <c r="H48" s="102">
+        <v>0.05</v>
+      </c>
+      <c r="I48" s="103">
         <f t="shared" si="7"/>
-        <v>-0.11919323922707813</v>
-      </c>
-      <c r="J47" s="104">
-        <v>0.35</v>
-      </c>
-      <c r="K47" s="103">
+        <v>-0.11445520810419088</v>
+      </c>
+      <c r="J48" s="104">
+        <v>0.4</v>
+      </c>
+      <c r="K48" s="103">
         <f t="shared" si="8"/>
-        <v>-3.3296461362503096E-2</v>
-      </c>
-      <c r="L47" s="104">
-        <v>0.88</v>
-      </c>
-      <c r="M47" s="105">
+        <v>-2.5279682784335612E-2</v>
+      </c>
+      <c r="L48" s="104">
+        <v>0.89</v>
+      </c>
+      <c r="M48" s="105">
         <f t="shared" si="9"/>
-        <v>9.0340008570796215E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
+        <v>9.7320570385347596E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="12">
         <v>45075</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C49" s="18">
         <v>155.94000199999999</v>
       </c>
-      <c r="D48">
+      <c r="D49" s="126">
         <f t="shared" si="0"/>
         <v>4.5594763615359746E-2</v>
       </c>
-      <c r="H48" s="102">
-        <v>0.05</v>
-      </c>
-      <c r="I48" s="103">
+      <c r="H49" s="102">
+        <v>0.06</v>
+      </c>
+      <c r="I49" s="103">
         <f t="shared" si="7"/>
-        <v>-0.11468631143353698</v>
-      </c>
-      <c r="J48" s="104">
-        <v>0.4</v>
-      </c>
-      <c r="K48" s="103">
+        <v>-0.10879651845152354</v>
+      </c>
+      <c r="J49" s="104">
+        <v>0.45</v>
+      </c>
+      <c r="K49" s="103">
         <f t="shared" si="8"/>
-        <v>-2.5335766555049453E-2</v>
-      </c>
-      <c r="L48" s="104">
-        <v>0.89</v>
-      </c>
-      <c r="M48" s="105">
+        <v>-9.9837971567683058E-3</v>
+      </c>
+      <c r="L49" s="104">
+        <v>0.9</v>
+      </c>
+      <c r="M49" s="105">
         <f t="shared" si="9"/>
-        <v>9.4078735465797259E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
+        <v>0.10078017418895337</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="12">
         <v>45068</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C50" s="18">
         <v>149.13999899999999</v>
       </c>
-      <c r="D49">
+      <c r="D50" s="126">
         <f t="shared" si="0"/>
         <v>-8.0479344975883382E-3</v>
       </c>
-      <c r="H49" s="102">
-        <v>0.06</v>
-      </c>
-      <c r="I49" s="103">
+      <c r="H50" s="102">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I50" s="103">
         <f t="shared" si="7"/>
-        <v>-0.10896946034280479</v>
-      </c>
-      <c r="J49" s="104">
-        <v>0.45</v>
-      </c>
-      <c r="K49" s="103">
+        <v>-0.10204440895798403</v>
+      </c>
+      <c r="J50" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="103">
         <f t="shared" si="8"/>
-        <v>-1.0689776138282188E-2</v>
-      </c>
-      <c r="L49" s="104">
-        <v>0.9</v>
-      </c>
-      <c r="M49" s="105">
+        <v>-7.6949466757081364E-4</v>
+      </c>
+      <c r="L50" s="104">
+        <v>0.91</v>
+      </c>
+      <c r="M50" s="105">
         <f t="shared" si="9"/>
-        <v>9.9488472841472525E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
+        <v>0.10317625024150698</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="12">
         <v>45061</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C51" s="18">
         <v>150.35000600000001</v>
       </c>
-      <c r="D50">
+      <c r="D51" s="126">
         <f t="shared" si="0"/>
         <v>6.2919824593562934E-2</v>
       </c>
-      <c r="H50" s="102">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I50" s="103">
+      <c r="H51" s="102">
+        <v>0.08</v>
+      </c>
+      <c r="I51" s="103">
         <f t="shared" si="7"/>
-        <v>-0.10244419641056943</v>
-      </c>
-      <c r="J50" s="104">
-        <v>0.5</v>
-      </c>
-      <c r="K50" s="103">
+        <v>-9.9512745258046473E-2</v>
+      </c>
+      <c r="J51" s="104">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K51" s="103">
         <f t="shared" si="8"/>
-        <v>-1.5901968203113626E-3</v>
-      </c>
-      <c r="L50" s="104">
-        <v>0.91</v>
-      </c>
-      <c r="M50" s="105">
+        <v>9.8449578755132553E-3</v>
+      </c>
+      <c r="L51" s="104">
+        <v>0.92</v>
+      </c>
+      <c r="M51" s="105">
         <f t="shared" si="9"/>
-        <v>0.10147642181528681</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
+        <v>0.10821056944203931</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="12">
         <v>45054</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C52" s="18">
         <v>141.449997</v>
       </c>
-      <c r="D51">
+      <c r="D52" s="126">
         <f t="shared" si="0"/>
         <v>0.14478795151809565</v>
       </c>
-      <c r="H51" s="102">
-        <v>0.08</v>
-      </c>
-      <c r="I51" s="103">
+      <c r="H52" s="102">
+        <v>0.09</v>
+      </c>
+      <c r="I52" s="103">
         <f t="shared" si="7"/>
-        <v>-9.9650422271656464E-2</v>
-      </c>
-      <c r="J51" s="104">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K51" s="103">
+        <v>-9.7390301868346102E-2</v>
+      </c>
+      <c r="J52" s="104">
+        <v>0.6</v>
+      </c>
+      <c r="K52" s="103">
         <f t="shared" si="8"/>
-        <v>9.1473876828580929E-3</v>
-      </c>
-      <c r="L51" s="104">
-        <v>0.92</v>
-      </c>
-      <c r="M51" s="105">
+        <v>1.7254033487822357E-2</v>
+      </c>
+      <c r="L52" s="104">
+        <v>0.93</v>
+      </c>
+      <c r="M52" s="105">
         <f t="shared" si="9"/>
-        <v>0.10462374611731237</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
+        <v>0.11170240197046544</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="12">
         <v>45047</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C53" s="18">
         <v>123.55999799999999</v>
       </c>
-      <c r="D52">
+      <c r="D53" s="126">
         <f t="shared" si="0"/>
         <v>-9.253823171156772E-2</v>
       </c>
-      <c r="H52" s="102">
-        <v>0.09</v>
-      </c>
-      <c r="I52" s="103">
+      <c r="H53" s="102">
+        <v>0.1</v>
+      </c>
+      <c r="I53" s="103">
         <f t="shared" si="7"/>
-        <v>-9.7508112708440786E-2</v>
-      </c>
-      <c r="J52" s="104">
-        <v>0.6</v>
-      </c>
-      <c r="K52" s="103">
+        <v>-9.6379519752041148E-2</v>
+      </c>
+      <c r="J53" s="104">
+        <v>0.65</v>
+      </c>
+      <c r="K53" s="103">
         <f t="shared" si="8"/>
-        <v>1.5843210028717657E-2</v>
-      </c>
-      <c r="L52" s="104">
-        <v>0.93</v>
-      </c>
-      <c r="M52" s="105">
+        <v>3.0877489353101004E-2</v>
+      </c>
+      <c r="L53" s="104">
+        <v>0.94</v>
+      </c>
+      <c r="M53" s="105">
         <f t="shared" si="9"/>
-        <v>0.11027416494956492</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
+        <v>0.11831121482599063</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="12">
         <v>45040</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C54" s="18">
         <v>136.16000399999999</v>
       </c>
-      <c r="D53">
+      <c r="D54" s="126">
         <f t="shared" si="0"/>
         <v>-3.3091910015314974E-2</v>
       </c>
-      <c r="H53" s="102">
-        <v>0.1</v>
-      </c>
-      <c r="I53" s="103">
+      <c r="H54" s="102">
+        <v>0.11</v>
+      </c>
+      <c r="I54" s="103">
         <f t="shared" si="7"/>
-        <v>-9.673305032079009E-2</v>
-      </c>
-      <c r="J53" s="104">
-        <v>0.65</v>
-      </c>
-      <c r="K53" s="103">
+        <v>-9.2923188237950857E-2</v>
+      </c>
+      <c r="J54" s="104">
+        <v>0.7</v>
+      </c>
+      <c r="K54" s="103">
         <f t="shared" si="8"/>
-        <v>2.9327136499677098E-2</v>
-      </c>
-      <c r="L53" s="104">
-        <v>0.94</v>
-      </c>
-      <c r="M53" s="105">
+        <v>4.5303098061554296E-2</v>
+      </c>
+      <c r="L54" s="104">
+        <v>0.95</v>
+      </c>
+      <c r="M54" s="105">
         <f t="shared" si="9"/>
-        <v>0.11889593002999232</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
+        <v>0.13616683810220143</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="12">
         <v>45033</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C55" s="18">
         <v>140.820007</v>
       </c>
-      <c r="D54">
+      <c r="D55" s="126">
         <f t="shared" si="0"/>
         <v>4.3884457103830599E-2</v>
       </c>
-      <c r="H54" s="102">
-        <v>0.11</v>
-      </c>
-      <c r="I54" s="103">
+      <c r="H55" s="102">
+        <v>0.12</v>
+      </c>
+      <c r="I55" s="103">
         <f t="shared" si="7"/>
-        <v>-9.3034623021903864E-2</v>
-      </c>
-      <c r="J54" s="104">
-        <v>0.7</v>
-      </c>
-      <c r="K54" s="103">
+        <v>-8.9827051971558824E-2</v>
+      </c>
+      <c r="J55" s="104">
+        <v>0.75</v>
+      </c>
+      <c r="K55" s="103">
         <f t="shared" si="8"/>
-        <v>4.4937719224913401E-2</v>
-      </c>
-      <c r="L54" s="104">
-        <v>0.95</v>
-      </c>
-      <c r="M54" s="105">
+        <v>6.2914696961257399E-2</v>
+      </c>
+      <c r="L55" s="104">
+        <v>0.96</v>
+      </c>
+      <c r="M55" s="105">
         <f t="shared" si="9"/>
-        <v>0.1368772876304343</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
+        <v>0.14843756857005316</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="12">
         <v>45026</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C56" s="18">
         <v>134.89999399999999</v>
       </c>
-      <c r="D55">
+      <c r="D56" s="126">
         <f t="shared" si="0"/>
         <v>-1.3384056560639457E-2</v>
       </c>
-      <c r="H55" s="102">
-        <v>0.12</v>
-      </c>
-      <c r="I55" s="103">
+      <c r="H56" s="102">
+        <v>0.13</v>
+      </c>
+      <c r="I56" s="103">
         <f t="shared" si="7"/>
-        <v>-9.0285974142513506E-2</v>
-      </c>
-      <c r="J55" s="104">
-        <v>0.75</v>
-      </c>
-      <c r="K55" s="103">
+        <v>-8.3227107193970001E-2</v>
+      </c>
+      <c r="J56" s="104">
+        <v>0.8</v>
+      </c>
+      <c r="K56" s="103">
         <f t="shared" si="8"/>
-        <v>6.0146669574573652E-2</v>
-      </c>
-      <c r="L55" s="104">
-        <v>0.96</v>
-      </c>
-      <c r="M55" s="105">
+        <v>7.1660573956005891E-2</v>
+      </c>
+      <c r="L56" s="104">
+        <v>0.97</v>
+      </c>
+      <c r="M56" s="105">
         <f t="shared" si="9"/>
-        <v>0.14889377070154777</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="12">
+        <v>0.15761206168287051</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="12">
         <v>45019</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C57" s="18">
         <v>136.729996</v>
       </c>
-      <c r="D56">
+      <c r="D57" s="126">
         <f t="shared" si="0"/>
         <v>-4.1096852264446482E-2</v>
       </c>
-      <c r="H56" s="102">
-        <v>0.13</v>
-      </c>
-      <c r="I56" s="103">
-        <f t="shared" si="7"/>
-        <v>-8.3307983104005945E-2</v>
-      </c>
-      <c r="J56" s="104">
-        <v>0.8</v>
-      </c>
-      <c r="K56" s="103">
-        <f t="shared" si="8"/>
-        <v>7.0619138745168716E-2</v>
-      </c>
-      <c r="L56" s="104">
-        <v>0.97</v>
-      </c>
-      <c r="M56" s="105">
-        <f t="shared" si="9"/>
-        <v>0.15766959101573838</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="12">
-        <v>45012</v>
-      </c>
-      <c r="C57" s="18">
-        <v>142.58999600000001</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>4.4538870578670897E-2</v>
-      </c>
       <c r="H57" s="102">
         <v>0.14000000000000001</v>
       </c>
       <c r="I57" s="103">
         <f t="shared" si="7"/>
-        <v>-8.2319553233469747E-2</v>
+        <v>-8.2211411203507292E-2</v>
       </c>
       <c r="J57" s="104"/>
       <c r="K57" s="103"/>
@@ -26930,26 +26929,26 @@
       </c>
       <c r="M57" s="105">
         <f t="shared" si="9"/>
-        <v>0.32897174879189922</v>
+        <v>0.32882176490781712</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="C58" s="18">
-        <v>136.509995</v>
-      </c>
-      <c r="D58">
+        <v>142.58999600000001</v>
+      </c>
+      <c r="D58" s="126">
         <f t="shared" si="0"/>
-        <v>8.0668104813172992E-2</v>
+        <v>4.4538870578670897E-2</v>
       </c>
       <c r="H58" s="106">
         <v>0.15</v>
       </c>
       <c r="I58" s="107">
         <f t="shared" si="7"/>
-        <v>-7.9947727627092097E-2</v>
+        <v>-7.9609930189779188E-2</v>
       </c>
       <c r="J58" s="108"/>
       <c r="K58" s="87"/>
@@ -26958,92 +26957,92 @@
       </c>
       <c r="M58" s="110">
         <f t="shared" si="9"/>
-        <v>0.34844377950232808</v>
+        <v>0.34821797117244579</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
+        <v>45005</v>
+      </c>
+      <c r="C59" s="18">
+        <v>136.509995</v>
+      </c>
+      <c r="D59" s="126">
+        <f t="shared" si="0"/>
+        <v>8.0668104813172992E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="12">
         <v>44998</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C60" s="18">
         <v>126.32</v>
       </c>
-      <c r="D59">
+      <c r="D60" s="126">
         <f t="shared" si="0"/>
         <v>7.2508074991578075E-2</v>
       </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="12">
+      <c r="H60" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="I60" s="112"/>
+    </row>
+    <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="12">
         <v>44991</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C61" s="18">
         <v>117.779999</v>
       </c>
-      <c r="D60">
+      <c r="D61" s="126">
         <f t="shared" si="0"/>
         <v>-1.2492647249752187E-2</v>
       </c>
-      <c r="H60" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="I60" s="112"/>
-    </row>
-    <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="12">
+      <c r="H61" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="I61" s="114"/>
+    </row>
+    <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="12">
         <v>44984</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C62" s="18">
         <v>119.269997</v>
       </c>
-      <c r="D61">
+      <c r="D62" s="126">
         <f t="shared" si="0"/>
         <v>0.36840283990808453</v>
       </c>
-      <c r="H61" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="I61" s="114"/>
-    </row>
-    <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="12">
+      <c r="H62" s="115"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="12">
         <v>44977</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C63" s="18">
         <v>87.160004000000001</v>
       </c>
-      <c r="D62">
+      <c r="D63" s="126">
         <f t="shared" si="0"/>
         <v>-4.5762997405868089E-2</v>
       </c>
-      <c r="H62" s="115"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="12">
+      <c r="H63" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="I63" s="116"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="12">
         <v>44970</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C64" s="18">
         <v>91.339995999999999</v>
       </c>
-      <c r="D63">
+      <c r="D64" s="126">
         <f t="shared" si="0"/>
         <v>-2.9473310452207135E-3</v>
-      </c>
-      <c r="H63" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="I63" s="116"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="12">
-        <v>44963</v>
-      </c>
-      <c r="C64" s="18">
-        <v>91.610000999999997</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>-8.2891161106128375E-2</v>
       </c>
       <c r="H64" s="117" t="s">
         <v>130</v>
@@ -27055,14 +27054,14 @@
     </row>
     <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
-        <v>44956</v>
+        <v>44963</v>
       </c>
       <c r="C65" s="18">
-        <v>99.889999000000003</v>
-      </c>
-      <c r="D65">
+        <v>91.610000999999997</v>
+      </c>
+      <c r="D65" s="126">
         <f t="shared" si="0"/>
-        <v>7.3739654667737797E-2</v>
+        <v>-8.2891161106128375E-2</v>
       </c>
       <c r="H65" s="113" t="s">
         <v>131</v>
@@ -27074,945 +27073,957 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
-        <v>44949</v>
+        <v>44956</v>
       </c>
       <c r="C66" s="18">
-        <v>93.029999000000004</v>
-      </c>
-      <c r="D66">
+        <v>99.889999000000003</v>
+      </c>
+      <c r="D66" s="126">
         <f t="shared" si="0"/>
-        <v>9.9905377159958064E-2</v>
+        <v>7.3739654667737797E-2</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
-        <v>44942</v>
+        <v>44949</v>
       </c>
       <c r="C67" s="18">
-        <v>84.580001999999993</v>
-      </c>
-      <c r="D67">
+        <v>93.029999000000004</v>
+      </c>
+      <c r="D67" s="126">
         <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
-        <v>6.5776221449392436E-2</v>
+        <v>9.9905377159958064E-2</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
+        <v>44942</v>
+      </c>
+      <c r="C68" s="18">
+        <v>84.580001999999993</v>
+      </c>
+      <c r="D68" s="126">
+        <f t="shared" si="10"/>
+        <v>6.5776221449392436E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="12">
         <v>44935</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C69" s="18">
         <v>79.360000999999997</v>
       </c>
-      <c r="D68">
+      <c r="D69" s="126">
         <f t="shared" si="10"/>
         <v>0.10099887344620218</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="12">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="12">
         <v>44928</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C70" s="18">
         <v>72.080001999999993</v>
       </c>
-      <c r="D69">
+      <c r="D70" s="126">
         <f t="shared" si="10"/>
         <v>1.3355898215488438E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="12">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="12">
         <v>44921</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C71" s="18">
         <v>71.129997000000003</v>
       </c>
-      <c r="D70">
+      <c r="D71" s="126">
         <f t="shared" si="10"/>
         <v>6.0820370331842177E-3</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="12">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="12">
         <v>44914</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C72" s="18">
         <v>70.699996999999996</v>
       </c>
-      <c r="D71">
+      <c r="D72" s="126">
         <f t="shared" si="10"/>
         <v>-3.1374175404142446E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="12">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="12">
         <v>44907</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C73" s="18">
         <v>72.989998</v>
       </c>
-      <c r="D72">
+      <c r="D73" s="126">
         <f t="shared" si="10"/>
         <v>6.2909569328951864E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="12">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="12">
         <v>44900</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C74" s="18">
         <v>68.669998000000007</v>
       </c>
-      <c r="D73">
+      <c r="D74" s="126">
         <f t="shared" si="10"/>
         <v>-2.8712858361224392E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="12">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="12">
         <v>44893</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C75" s="18">
         <v>70.699996999999996</v>
       </c>
-      <c r="D74">
+      <c r="D75" s="126">
         <f t="shared" si="10"/>
         <v>1.4492681460964718E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="12">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="12">
         <v>44886</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C76" s="18">
         <v>69.690002000000007</v>
       </c>
-      <c r="D75">
+      <c r="D76" s="126">
         <f t="shared" si="10"/>
         <v>2.9394462159282098E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="12">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="12">
         <v>44879</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C77" s="18">
         <v>67.699996999999996</v>
       </c>
-      <c r="D76">
+      <c r="D77" s="126">
         <f t="shared" si="10"/>
         <v>-7.8033542148985613E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="12">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="12">
         <v>44872</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C78" s="18">
         <v>73.430000000000007</v>
       </c>
-      <c r="D77">
+      <c r="D78" s="126">
         <f t="shared" si="10"/>
         <v>-8.0285525064405006E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="12">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="12">
         <v>44865</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C79" s="18">
         <v>79.839995999999999</v>
       </c>
-      <c r="D78">
+      <c r="D79" s="126">
         <f t="shared" si="10"/>
         <v>-3.9807647869930296E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="12">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="12">
         <v>44858</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C80" s="18">
         <v>83.150002000000001</v>
       </c>
-      <c r="D79">
+      <c r="D80" s="126">
         <f t="shared" si="10"/>
         <v>1.0942273556231008E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="12">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="12">
         <v>44851</v>
       </c>
-      <c r="C80" s="18">
+      <c r="C81" s="18">
         <v>82.25</v>
       </c>
-      <c r="D80">
+      <c r="D81" s="126">
         <f t="shared" si="10"/>
         <v>5.0312885974023391E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="12">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="12">
         <v>44844</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C82" s="18">
         <v>78.309997999999993</v>
       </c>
-      <c r="D81">
+      <c r="D82" s="126">
         <f t="shared" si="10"/>
         <v>-0.20497463959390871</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="12">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="12">
         <v>44837</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C83" s="18">
         <v>98.5</v>
       </c>
-      <c r="D82">
+      <c r="D83" s="126">
         <f t="shared" si="10"/>
         <v>3.4337886138678497E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="12">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="12">
         <v>44830</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C84" s="18">
         <v>95.230002999999996</v>
       </c>
-      <c r="D83">
+      <c r="D84" s="126">
         <f t="shared" si="10"/>
         <v>6.7481269672472477E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="12">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="12">
         <v>44823</v>
       </c>
-      <c r="C84" s="18">
+      <c r="C85" s="18">
         <v>89.209998999999996</v>
       </c>
-      <c r="D84">
+      <c r="D85" s="126">
         <f t="shared" si="10"/>
         <v>-0.10170173399862514</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="12">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="12">
         <v>44816</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C86" s="18">
         <v>99.309997999999993</v>
       </c>
-      <c r="D85">
+      <c r="D86" s="126">
         <f t="shared" si="10"/>
         <v>-2.4108989730519115E-3</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="12">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="12">
         <v>44809</v>
       </c>
-      <c r="C86" s="18">
+      <c r="C87" s="18">
         <v>99.550003000000004</v>
       </c>
-      <c r="D86">
+      <c r="D87" s="126">
         <f t="shared" si="10"/>
         <v>7.2274960029080626E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="12">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="12">
         <v>44802</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C88" s="18">
         <v>92.839995999999999</v>
       </c>
-      <c r="D87">
+      <c r="D88" s="126">
         <f t="shared" si="10"/>
         <v>-4.6102821253442006E-3</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="12">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="12">
         <v>44795</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C89" s="18">
         <v>93.269997000000004</v>
       </c>
-      <c r="D88">
+      <c r="D89" s="126">
         <f t="shared" si="10"/>
         <v>-2.5391850325763299E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="12">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="12">
         <v>44788</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C90" s="18">
         <v>95.699996999999996</v>
       </c>
-      <c r="D89">
+      <c r="D90" s="126">
         <f t="shared" si="10"/>
         <v>-0.11728085488833784</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="12">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="12">
         <v>44781</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C91" s="18">
         <v>108.415001</v>
       </c>
-      <c r="D90">
+      <c r="D91" s="126">
         <f t="shared" si="10"/>
         <v>5.1857970311439017E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="12">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="12">
         <v>44774</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C92" s="18">
         <v>103.07</v>
       </c>
-      <c r="D91">
+      <c r="D92" s="126">
         <f t="shared" si="10"/>
         <v>0.12337874659400527</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="12">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="12">
         <v>44767</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C93" s="18">
         <v>91.75</v>
       </c>
-      <c r="D92">
+      <c r="D93" s="126">
         <f t="shared" si="10"/>
         <v>-3.8763720443071303E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="12">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="12">
         <v>44760</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C94" s="18">
         <v>95.449996999999996</v>
       </c>
-      <c r="D93">
+      <c r="D94" s="126">
         <f t="shared" si="10"/>
         <v>-3.9738480085744876E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="12">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="12">
         <v>44753</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C95" s="18">
         <v>99.400002000000001</v>
       </c>
-      <c r="D94">
+      <c r="D95" s="126">
         <f t="shared" si="10"/>
         <v>-9.7102319814781346E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="12">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="12">
         <v>44746</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C96" s="18">
         <v>110.089996</v>
       </c>
-      <c r="D95">
+      <c r="D96" s="126">
         <f t="shared" si="10"/>
         <v>0.158110649234392</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="12">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="12">
         <v>44739</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C97" s="18">
         <v>95.059997999999993</v>
       </c>
-      <c r="D96">
+      <c r="D97" s="126">
         <f t="shared" si="10"/>
         <v>-6.5565760378479498E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="12">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="12">
         <v>44732</v>
       </c>
-      <c r="C97" s="18">
+      <c r="C98" s="18">
         <v>101.730003</v>
       </c>
-      <c r="D97">
+      <c r="D98" s="126">
         <f t="shared" si="10"/>
         <v>7.4121043967068312E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="12">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="12">
         <v>44725</v>
       </c>
-      <c r="C98" s="18">
+      <c r="C99" s="18">
         <v>94.709998999999996</v>
       </c>
-      <c r="D98">
+      <c r="D99" s="126">
         <f t="shared" si="10"/>
         <v>1.4351461464556126E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="12">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="12">
         <v>44718</v>
       </c>
-      <c r="C99" s="18">
+      <c r="C100" s="18">
         <v>93.370002999999997</v>
       </c>
-      <c r="D99">
+      <c r="D100" s="126">
         <f t="shared" si="10"/>
         <v>4.5108654359017342E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="12">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="12">
         <v>44711</v>
       </c>
-      <c r="C100" s="18">
+      <c r="C101" s="18">
         <v>89.339995999999999</v>
       </c>
-      <c r="D100">
+      <c r="D101" s="126">
         <f t="shared" si="10"/>
         <v>6.63642524034882E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="12">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="12">
         <v>44704</v>
       </c>
-      <c r="C101" s="18">
+      <c r="C102" s="18">
         <v>83.779999000000004</v>
       </c>
-      <c r="D101">
+      <c r="D102" s="126">
         <f t="shared" si="10"/>
         <v>9.5736333975102506E-2</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="12">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="12">
         <v>44697</v>
       </c>
-      <c r="C102" s="18">
+      <c r="C103" s="18">
         <v>76.459998999999996</v>
       </c>
-      <c r="D102">
+      <c r="D103" s="126">
         <f t="shared" si="10"/>
         <v>-0.148267778153095</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="12">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="12">
         <v>44690</v>
       </c>
-      <c r="C103" s="18">
+      <c r="C104" s="18">
         <v>89.769997000000004</v>
       </c>
-      <c r="D103">
+      <c r="D104" s="126">
         <f t="shared" si="10"/>
         <v>0.11363349319397731</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="12">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="12">
         <v>44683</v>
       </c>
-      <c r="C104" s="18">
+      <c r="C105" s="18">
         <v>80.610000999999997</v>
       </c>
-      <c r="D104">
+      <c r="D105" s="126">
         <f t="shared" si="10"/>
         <v>-6.7769167714014533E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="12">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="12">
         <v>44676</v>
       </c>
-      <c r="C105" s="18">
+      <c r="C106" s="18">
         <v>86.470000999999996</v>
       </c>
-      <c r="D105">
+      <c r="D106" s="126">
         <f t="shared" si="10"/>
         <v>5.465127906976619E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="12">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="12">
         <v>44669</v>
       </c>
-      <c r="C106" s="18">
+      <c r="C107" s="18">
         <v>86</v>
       </c>
-      <c r="D106">
+      <c r="D107" s="126">
         <f t="shared" si="10"/>
         <v>-4.2529503451347095E-2</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="12">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="12">
         <v>44662</v>
       </c>
-      <c r="C107" s="18">
+      <c r="C108" s="18">
         <v>89.82</v>
       </c>
-      <c r="D107">
+      <c r="D108" s="126">
         <f t="shared" si="10"/>
         <v>-5.0126883462920602E-2</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="12">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="12">
         <v>44655</v>
       </c>
-      <c r="C108" s="18">
+      <c r="C109" s="18">
         <v>94.559997999999993</v>
       </c>
-      <c r="D108">
+      <c r="D109" s="126">
         <f t="shared" si="10"/>
         <v>-1.1395755119796069E-2</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="12">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="12">
         <v>44648</v>
       </c>
-      <c r="C109" s="18">
+      <c r="C110" s="18">
         <v>95.650002000000001</v>
       </c>
-      <c r="D109">
+      <c r="D110" s="126">
         <f t="shared" si="10"/>
         <v>2.7941955036798749E-2</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="12">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="12">
         <v>44641</v>
       </c>
-      <c r="C110" s="18">
+      <c r="C111" s="18">
         <v>93.050003000000004</v>
       </c>
-      <c r="D110">
+      <c r="D111" s="126">
         <f t="shared" si="10"/>
         <v>4.9278337843933206E-2</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="12">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="12">
         <v>44634</v>
       </c>
-      <c r="C111" s="18">
+      <c r="C112" s="18">
         <v>88.68</v>
       </c>
-      <c r="D111">
+      <c r="D112" s="126">
         <f t="shared" si="10"/>
         <v>0.15619300480546316</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="12">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="12">
         <v>44627</v>
       </c>
-      <c r="C112" s="18">
+      <c r="C113" s="18">
         <v>76.699996999999996</v>
       </c>
-      <c r="D112">
+      <c r="D113" s="126">
         <f t="shared" si="10"/>
         <v>2.7048701124799068E-2</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="12">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="12">
         <v>44620</v>
       </c>
-      <c r="C113" s="18">
+      <c r="C114" s="18">
         <v>74.680000000000007</v>
       </c>
-      <c r="D113">
+      <c r="D114" s="126">
         <f t="shared" si="10"/>
         <v>-0.15097770749178829</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="12">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="12">
         <v>44613</v>
       </c>
-      <c r="C114" s="18">
+      <c r="C115" s="18">
         <v>87.959998999999996</v>
       </c>
-      <c r="D114">
+      <c r="D115" s="126">
         <f t="shared" si="10"/>
         <v>-3.3406604395604389E-2</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="12">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="12">
         <v>44606</v>
       </c>
-      <c r="C115" s="18">
+      <c r="C116" s="18">
         <v>91</v>
       </c>
-      <c r="D115">
+      <c r="D116" s="126">
         <f t="shared" si="10"/>
         <v>-3.1914893617021267E-2</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="12">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="12">
         <v>44599</v>
       </c>
-      <c r="C116" s="18">
+      <c r="C117" s="18">
         <v>94</v>
       </c>
-      <c r="D116">
+      <c r="D117" s="126">
         <f t="shared" si="10"/>
         <v>2.7546971112364371E-2</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="12">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="12">
         <v>44592</v>
       </c>
-      <c r="C117" s="18">
+      <c r="C118" s="18">
         <v>91.480002999999996</v>
       </c>
-      <c r="D117">
+      <c r="D118" s="126">
         <f t="shared" si="10"/>
         <v>-3.8113796403924649E-3</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="12">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="12">
         <v>44585</v>
       </c>
-      <c r="C118" s="18">
+      <c r="C119" s="18">
         <v>91.830001999999993</v>
       </c>
-      <c r="D118">
+      <c r="D119" s="126">
         <f t="shared" si="10"/>
         <v>7.1403606013342724E-2</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="12">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="12">
         <v>44578</v>
       </c>
-      <c r="C119" s="18">
+      <c r="C120" s="18">
         <v>85.709998999999996</v>
       </c>
-      <c r="D119">
+      <c r="D120" s="126">
         <f t="shared" si="10"/>
         <v>-7.4705799677398321E-2</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="12">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="12">
         <v>44571</v>
       </c>
-      <c r="C120" s="18">
+      <c r="C121" s="18">
         <v>92.629997000000003</v>
       </c>
-      <c r="D120">
+      <c r="D121" s="126">
         <f t="shared" si="10"/>
         <v>-9.3551275202049644E-2</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="12">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="12">
         <v>44564</v>
       </c>
-      <c r="C121" s="18">
+      <c r="C122" s="18">
         <v>102.19000200000001</v>
       </c>
-      <c r="D121">
+      <c r="D122" s="126">
         <f t="shared" si="10"/>
         <v>-3.6942785440177262E-2</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="12">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="12">
         <v>44557</v>
       </c>
-      <c r="C122" s="18">
+      <c r="C123" s="18">
         <v>106.110001</v>
       </c>
-      <c r="D122">
+      <c r="D123" s="126">
         <f t="shared" si="10"/>
         <v>-2.6156369549893199E-2</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="12">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="12">
         <v>44550</v>
       </c>
-      <c r="C123" s="18">
+      <c r="C124" s="18">
         <v>108.959999</v>
       </c>
-      <c r="D123">
+      <c r="D124" s="126">
         <f t="shared" si="10"/>
         <v>4.228044727108804E-2</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="12">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="12">
         <v>44543</v>
       </c>
-      <c r="C124" s="18">
+      <c r="C125" s="18">
         <v>104.540001</v>
       </c>
-      <c r="D124">
+      <c r="D125" s="126">
         <f t="shared" si="10"/>
         <v>9.2486140819602047E-2</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="12">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="12">
         <v>44536</v>
       </c>
-      <c r="C125" s="18">
+      <c r="C126" s="18">
         <v>95.690002000000007</v>
       </c>
-      <c r="D125">
+      <c r="D126" s="126">
         <f t="shared" si="10"/>
         <v>-0.12259303360706086</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="12">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="12">
         <v>44529</v>
       </c>
-      <c r="C126" s="18">
+      <c r="C127" s="18">
         <v>109.05999799999999</v>
       </c>
-      <c r="D126">
+      <c r="D127" s="126">
         <f t="shared" si="10"/>
         <v>-0.11029534817596109</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="12">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="12">
         <v>44522</v>
       </c>
-      <c r="C127" s="18">
+      <c r="C128" s="18">
         <v>122.58000199999999</v>
       </c>
-      <c r="D127">
+      <c r="D128" s="126">
         <f t="shared" si="10"/>
         <v>-9.8411329149166615E-2</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="12">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="12">
         <v>44515</v>
       </c>
-      <c r="C128" s="18">
+      <c r="C129" s="18">
         <v>135.96000699999999</v>
       </c>
-      <c r="D128">
+      <c r="D129" s="126">
         <f t="shared" si="10"/>
         <v>-0.12295185465225511</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="12">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="12">
         <v>44508</v>
       </c>
-      <c r="C129" s="18">
+      <c r="C130" s="18">
         <v>155.020004</v>
       </c>
-      <c r="D129">
+      <c r="D130" s="126">
         <f t="shared" si="10"/>
         <v>8.3913877159016437E-3</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="12">
-        <v>44501</v>
-      </c>
-      <c r="C130" s="18">
-        <v>153.729996</v>
-      </c>
-      <c r="D130">
-        <f t="shared" si="10"/>
-        <v>-0.11491741476288309</v>
-      </c>
-    </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="12">
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="C131" s="18">
-        <v>173.69000199999999</v>
-      </c>
-      <c r="D131">
-        <f t="shared" ref="D131:D143" si="11">C131/C132-1</f>
-        <v>-2.5636671873574435E-2</v>
+        <v>153.729996</v>
+      </c>
+      <c r="D131" s="126">
+        <f t="shared" ref="D131:D144" si="11">C131/C132-1</f>
+        <v>-0.11491741476288309</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="12">
+        <v>44494</v>
+      </c>
+      <c r="C132" s="18">
+        <v>173.69000199999999</v>
+      </c>
+      <c r="D132" s="126">
+        <f t="shared" si="11"/>
+        <v>-2.5636671873574435E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="12">
         <v>44487</v>
       </c>
-      <c r="C132" s="18">
+      <c r="C133" s="18">
         <v>178.259995</v>
       </c>
-      <c r="D132">
+      <c r="D133" s="126">
         <f t="shared" si="11"/>
         <v>0.13758773715866757</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="12">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="12">
         <v>44480</v>
       </c>
-      <c r="C133" s="18">
+      <c r="C134" s="18">
         <v>156.699997</v>
       </c>
-      <c r="D133">
+      <c r="D134" s="126">
         <f t="shared" si="11"/>
         <v>-5.8971935888255222E-2</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="12">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="12">
         <v>44473</v>
       </c>
-      <c r="C134" s="18">
+      <c r="C135" s="18">
         <v>166.520004</v>
       </c>
-      <c r="D134">
+      <c r="D135" s="126">
         <f t="shared" si="11"/>
         <v>3.6990919952784695E-2</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="12">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="12">
         <v>44466</v>
       </c>
-      <c r="C135" s="18">
+      <c r="C136" s="18">
         <v>160.58000200000001</v>
       </c>
-      <c r="D135">
+      <c r="D136" s="126">
         <f t="shared" si="11"/>
         <v>-0.19456284281895064</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="12">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="12">
         <v>44459</v>
       </c>
-      <c r="C136" s="18">
+      <c r="C137" s="18">
         <v>199.36999499999999</v>
       </c>
-      <c r="D136">
+      <c r="D137" s="126">
         <f t="shared" si="11"/>
         <v>7.7792190026860997E-2</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="12">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="12">
         <v>44452</v>
       </c>
-      <c r="C137" s="18">
+      <c r="C138" s="18">
         <v>184.979996</v>
       </c>
-      <c r="D137">
+      <c r="D138" s="126">
         <f t="shared" si="11"/>
         <v>6.6966610917881253E-2</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="12">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="12">
         <v>44445</v>
       </c>
-      <c r="C138" s="18">
+      <c r="C139" s="18">
         <v>173.36999499999999</v>
       </c>
-      <c r="D138">
+      <c r="D139" s="126">
         <f t="shared" si="11"/>
         <v>6.3228241913752425E-2</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="12">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="12">
         <v>44438</v>
       </c>
-      <c r="C139" s="18">
+      <c r="C140" s="18">
         <v>163.05999800000001</v>
       </c>
-      <c r="D139">
+      <c r="D140" s="126">
         <f t="shared" si="11"/>
         <v>0.3577019210275092</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="12">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="12">
         <v>44431</v>
       </c>
-      <c r="C140" s="18">
+      <c r="C141" s="18">
         <v>120.099998</v>
       </c>
-      <c r="D140">
+      <c r="D141" s="126">
         <f t="shared" si="11"/>
         <v>-4.7052297445467794E-2</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="12">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="12">
         <v>44424</v>
       </c>
-      <c r="C141" s="18">
+      <c r="C142" s="18">
         <v>126.029999</v>
       </c>
-      <c r="D141">
+      <c r="D142" s="126">
         <f t="shared" si="11"/>
         <v>-7.7581831311504423E-2</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="12">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="12">
         <v>44417</v>
       </c>
-      <c r="C142" s="18">
+      <c r="C143" s="18">
         <v>136.63000500000001</v>
       </c>
-      <c r="D142">
+      <c r="D143" s="126">
         <f t="shared" si="11"/>
         <v>1.6743562407219637E-2</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="12">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="12">
         <v>44410</v>
       </c>
-      <c r="C143" s="18">
+      <c r="C144" s="18">
         <v>134.38000500000001</v>
       </c>
-      <c r="D143">
+      <c r="D144" s="126">
         <f t="shared" si="11"/>
         <v>-4.1853796791443743E-2</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="12">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="12">
         <v>44403</v>
       </c>
-      <c r="C144" s="18">
+      <c r="C145" s="18">
         <v>140.25</v>
       </c>
     </row>

--- a/Business - Technology Services/DUOL.xlsx
+++ b/Business - Technology Services/DUOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA95467-72E1-4DB9-98B9-73A7A9D3D530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ACE913-6021-4C2A-814E-629C95EA9491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$8:$X$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$9:$X$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$X$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$X$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$X$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$X$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$8:$X$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$9:$X$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6789,18 +6789,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6844,7 +6844,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6864,7 +6864,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6895,18 +6895,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6950,7 +6950,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6970,7 +6970,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -25336,8 +25336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26986,7 +26986,9 @@
       <c r="H60" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="I60" s="112"/>
+      <c r="I60" s="112">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
@@ -27002,7 +27004,9 @@
       <c r="H61" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="I61" s="114"/>
+      <c r="I61" s="114">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
@@ -27031,7 +27035,9 @@
       <c r="H63" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="I63" s="116"/>
+      <c r="I63" s="116">
+        <v>210.03</v>
+      </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
@@ -27049,7 +27055,7 @@
       </c>
       <c r="I64" s="118">
         <f>I63*(1-I60)</f>
-        <v>0</v>
+        <v>189.02700000000002</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27068,7 +27074,7 @@
       </c>
       <c r="I65" s="119">
         <f>I63*(1+I61)</f>
-        <v>0</v>
+        <v>304.54349999999999</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">

--- a/Business - Technology Services/DUOL.xlsx
+++ b/Business - Technology Services/DUOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ACE913-6021-4C2A-814E-629C95EA9491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562D7497-4045-442F-8BA4-F9D51287FF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="15105" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$X$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$X$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$8:$X$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$9:$X$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$8:$X$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$9:$X$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$X$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$X$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1691,7 +1691,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1906,6 +1906,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2210,6 +2218,9 @@
                 <c:pt idx="11">
                   <c:v>151.00000000000003</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>165.42500000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2334,7 +2345,7 @@
                   <c:v>0.45472061657032792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1</c:v>
+                  <c:v>0.4312878133102851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3514,7 +3525,7 @@
                   <c:v>12.132000000000032</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>15.881162499999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,6 +3673,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.73131788079470206</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6789,18 +6803,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6844,7 +6858,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6864,7 +6878,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6895,18 +6909,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6950,7 +6964,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6970,7 +6984,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13315,11 +13329,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13437,6 +13451,14 @@
       <c r="W3" s="13">
         <v>117.5</v>
       </c>
+      <c r="X3" s="148">
+        <f>W3*1.11</f>
+        <v>130.42500000000001</v>
+      </c>
+      <c r="Y3" s="148">
+        <f>X3*1.11</f>
+        <v>144.77175000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -13475,6 +13497,12 @@
       <c r="W4" s="13">
         <v>13.5</v>
       </c>
+      <c r="X4" s="149">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="149">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -13513,6 +13541,12 @@
       <c r="W5" s="13">
         <v>10.8</v>
       </c>
+      <c r="X5" s="149">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="149">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -13533,6 +13567,12 @@
       <c r="W6" s="13">
         <v>8.9</v>
       </c>
+      <c r="X6" s="149">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="149">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -13570,6 +13610,12 @@
       </c>
       <c r="W7" s="13">
         <v>0.3</v>
+      </c>
+      <c r="X7" s="149">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="149">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13630,7 +13676,7 @@
         <v>103.8</v>
       </c>
       <c r="T8" s="11">
-        <f t="shared" ref="T8:W8" si="1">SUM(T3:T7)</f>
+        <f t="shared" ref="T8:Y8" si="1">SUM(T3:T7)</f>
         <v>115.7</v>
       </c>
       <c r="U8" s="11">
@@ -13645,7 +13691,14 @@
         <f t="shared" si="1"/>
         <v>151.00000000000003</v>
       </c>
-      <c r="X8" s="11"/>
+      <c r="X8" s="150">
+        <f t="shared" si="1"/>
+        <v>165.42500000000001</v>
+      </c>
+      <c r="Y8" s="150">
+        <f t="shared" si="1"/>
+        <v>179.27175000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -13674,8 +13727,12 @@
       <c r="U9" s="41"/>
       <c r="V9" s="41"/>
       <c r="W9" s="15"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="41"/>
+      <c r="X9" s="10">
+        <v>165.6</v>
+      </c>
+      <c r="Y9" s="41">
+        <v>176.92</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -13724,8 +13781,14 @@
       <c r="W10" s="15">
         <v>40.570999999999998</v>
       </c>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
+      <c r="X10" s="10">
+        <f>X8*0.3</f>
+        <v>49.627500000000005</v>
+      </c>
+      <c r="Y10" s="10">
+        <f>Y8*0.3</f>
+        <v>53.781525000000009</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -13774,6 +13837,14 @@
       <c r="W11" s="15">
         <v>50.256</v>
       </c>
+      <c r="X11" s="151">
+        <f>X8*0.37</f>
+        <v>61.207250000000002</v>
+      </c>
+      <c r="Y11" s="151">
+        <f>Y8*0.37</f>
+        <v>66.330547500000009</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -13822,6 +13893,14 @@
       <c r="W12" s="15">
         <v>19.117999999999999</v>
       </c>
+      <c r="X12" s="151">
+        <f>X9*0.16</f>
+        <v>26.495999999999999</v>
+      </c>
+      <c r="Y12" s="151">
+        <f>Y9*0.16</f>
+        <v>28.307199999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -13870,6 +13949,14 @@
       <c r="W13" s="15">
         <v>36.244999999999997</v>
       </c>
+      <c r="X13" s="151">
+        <f>X10*0.25</f>
+        <v>12.406875000000001</v>
+      </c>
+      <c r="Y13" s="151">
+        <f>Y10*0.25</f>
+        <v>13.445381250000002</v>
+      </c>
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -13955,11 +14042,11 @@
       </c>
       <c r="X14" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15.687374999999975</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17.407096250000023</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -14010,6 +14097,12 @@
       <c r="W15" s="15">
         <v>1.054</v>
       </c>
+      <c r="X15" s="152">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="152">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -14056,6 +14149,12 @@
       <c r="W16" s="15">
         <v>9.2840000000000007</v>
       </c>
+      <c r="X16" s="152">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="152">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -14139,11 +14238,11 @@
       </c>
       <c r="X17" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>22.687374999999975</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>24.407096250000023</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
@@ -14193,6 +14292,14 @@
       <c r="W18" s="15">
         <v>3.016</v>
       </c>
+      <c r="X18" s="152">
+        <f>X17*0.3</f>
+        <v>6.806212499999992</v>
+      </c>
+      <c r="Y18" s="152">
+        <f>Y17*0.3</f>
+        <v>7.3221288750000069</v>
+      </c>
     </row>
     <row r="19" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
@@ -14270,11 +14377,11 @@
       </c>
       <c r="X19" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15.881162499999983</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>17.084967375000016</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
@@ -14330,8 +14437,12 @@
       <c r="W20" s="15">
         <v>42.875827999999998</v>
       </c>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
+      <c r="X20" s="10">
+        <v>44</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -14367,7 +14478,7 @@
         <v>-0.29958717065067497</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" ref="Q21:W21" si="7">Q19/Q20</f>
+        <f t="shared" ref="Q21:Y21" si="7">Q19/Q20</f>
         <v>-0.37235530467515671</v>
       </c>
       <c r="R21" s="2">
@@ -14394,8 +14505,14 @@
         <f t="shared" si="7"/>
         <v>0.2829566346800354</v>
       </c>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
+      <c r="X21" s="153">
+        <f t="shared" si="7"/>
+        <v>0.36093551136363594</v>
+      </c>
+      <c r="Y21" s="153">
+        <f t="shared" si="7"/>
+        <v>0.3882947130681822</v>
+      </c>
     </row>
     <row r="22" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
@@ -14458,7 +14575,7 @@
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
       <c r="L23" s="3" t="e">
-        <f t="shared" ref="L23:W23" si="8">1-L10/L8</f>
+        <f t="shared" ref="L23:Y23" si="8">1-L10/L8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="3" t="e">
@@ -14502,8 +14619,16 @@
         <v>0.73652616279069771</v>
       </c>
       <c r="W23" s="6">
+        <f>1-W10/W8</f>
+        <v>0.73131788079470206</v>
+      </c>
+      <c r="X23" s="40">
+        <f>1-X10/X8</f>
+        <v>0.7</v>
+      </c>
+      <c r="Y23" s="40">
         <f t="shared" si="8"/>
-        <v>0.73131788079470206</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
@@ -14539,7 +14664,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="e">
-        <f t="shared" ref="L24:W24" si="9">L19/L8</f>
+        <f t="shared" ref="L24:Y24" si="9">L19/L8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="4" t="e">
@@ -14585,6 +14710,14 @@
       <c r="W24" s="7">
         <f t="shared" si="9"/>
         <v>8.0344370860927342E-2</v>
+      </c>
+      <c r="X24" s="154">
+        <f t="shared" si="9"/>
+        <v>9.6002191325373923E-2</v>
+      </c>
+      <c r="Y24" s="154">
+        <f t="shared" si="9"/>
+        <v>9.5302061674524929E-2</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
@@ -14639,11 +14772,11 @@
       </c>
       <c r="X25" s="37">
         <f>X9/T8-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Y25" s="37">
+        <v>0.4312878133102851</v>
+      </c>
+      <c r="Y25" s="155">
         <f>Y9/U8-1</f>
-        <v>-1</v>
+        <v>0.39416863672182822</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
@@ -14720,7 +14853,14 @@
         <f t="shared" si="10"/>
         <v>0.33282119205298005</v>
       </c>
-      <c r="X26" s="4"/>
+      <c r="X26" s="154">
+        <f t="shared" ref="X26:Y26" si="11">X11/X8</f>
+        <v>0.37</v>
+      </c>
+      <c r="Y26" s="154">
+        <f t="shared" si="11"/>
+        <v>0.37</v>
+      </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -14749,77 +14889,84 @@
       <c r="H27" s="121"/>
       <c r="I27" s="121"/>
       <c r="L27" s="4" t="e">
-        <f t="shared" ref="L27:W27" si="11">L12/L8</f>
+        <f t="shared" ref="L27:W27" si="12">L12/L8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18399014778325121</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1730124575311438</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18440166493236212</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18332369942196533</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14348314606741572</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13974783293932233</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16231831395348836</v>
       </c>
       <c r="W27" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12660927152317877</v>
       </c>
-      <c r="X27" s="4"/>
+      <c r="X27" s="154">
+        <f t="shared" ref="X27:Y27" si="13">X12/X8</f>
+        <v>0.16016926099440831</v>
+      </c>
+      <c r="Y27" s="154">
+        <f t="shared" si="13"/>
+        <v>0.15790106360873921</v>
+      </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>136</v>
       </c>
       <c r="C28" s="4" t="e">
-        <f t="shared" ref="C28:G28" si="12">C13/C8</f>
+        <f t="shared" ref="C28:G28" si="14">C13/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.27034063922422324</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.31335725677830945</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.31902544667027616</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.24872552710843371</v>
       </c>
       <c r="H28" s="121"/>
@@ -14829,39 +14976,39 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="4" t="e">
-        <f t="shared" ref="M28:U28" si="13">M13/M8</f>
+        <f t="shared" ref="M28:U28" si="15">M13/M8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.33073891625615764</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.34039637599093991</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.31454734651404792</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.29582851637764934</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26139152981849612</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.25401891252955083</v>
       </c>
       <c r="V28" s="4">
@@ -14872,7 +15019,14 @@
         <f>W13/W8</f>
         <v>0.2400331125827814</v>
       </c>
-      <c r="X28" s="4"/>
+      <c r="X28" s="154">
+        <f t="shared" ref="X28:Y28" si="16">X13/X8</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Y28" s="154">
+        <f t="shared" si="16"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -14881,15 +15035,15 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="e">
-        <f t="shared" ref="E29:G30" si="14">E3/D3-1</f>
+        <f t="shared" ref="E29:G30" si="17">E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.51355838406198129</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.4797074954296161</v>
       </c>
       <c r="H29" s="121"/>
@@ -14915,15 +15069,15 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.16103896103896109</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.11633109619686799</v>
       </c>
       <c r="H30" s="121"/>
@@ -14976,23 +15130,23 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4" t="e">
-        <f t="shared" ref="P31:X31" si="15">P19/L19-1</f>
+        <f t="shared" ref="P31:X31" si="18">P19/L19-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-0.79111220634138424</v>
       </c>
       <c r="U31" s="4">
@@ -15000,16 +15154,16 @@
         <v>-1.2502147908267784</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.1511678435632815</v>
       </c>
       <c r="W31" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.8694281209688999</v>
       </c>
       <c r="X31" s="4">
-        <f t="shared" si="15"/>
-        <v>-1</v>
+        <f t="shared" si="18"/>
+        <v>-7.2450501376327372</v>
       </c>
     </row>
     <row r="34" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15017,15 +15171,15 @@
         <v>41</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" ref="C34:E34" si="16">C35</f>
+        <f t="shared" ref="C34:E34" si="19">C35</f>
         <v>0</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>120.49</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>553.99199999999996</v>
       </c>
       <c r="F34" s="11">
@@ -15041,47 +15195,47 @@
         <v>0</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" ref="M34:W34" si="17">M35</f>
+        <f t="shared" ref="M34:W34" si="20">M35</f>
         <v>0</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O34" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P34" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q34" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R34" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S34" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>608.17999999999995</v>
       </c>
       <c r="T34" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>641.09100000000001</v>
       </c>
       <c r="U34" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>678.66499999999996</v>
       </c>
       <c r="V34" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>701.73699999999997</v>
       </c>
       <c r="W34" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>747.61</v>
       </c>
     </row>
@@ -15152,7 +15306,7 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10">
-        <f t="shared" ref="S36:S38" si="18">F36</f>
+        <f t="shared" ref="S36:S38" si="21">F36</f>
         <v>46.728000000000002</v>
       </c>
       <c r="T36" s="10">
@@ -15165,7 +15319,7 @@
         <v>61.710999999999999</v>
       </c>
       <c r="W36" s="15">
-        <f t="shared" ref="W36:W38" si="19">G36</f>
+        <f t="shared" ref="W36:W38" si="22">G36</f>
         <v>88.974999999999994</v>
       </c>
     </row>
@@ -15194,7 +15348,7 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>35.040999999999997</v>
       </c>
       <c r="T37" s="10">
@@ -15207,7 +15361,7 @@
         <v>46.124000000000002</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>53.930999999999997</v>
       </c>
     </row>
@@ -15236,7 +15390,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>7.234</v>
       </c>
       <c r="T38" s="10">
@@ -15249,7 +15403,7 @@
         <v>9.5329999999999995</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7.282</v>
       </c>
     </row>
@@ -15278,51 +15432,51 @@
         <v>897.79800000000012</v>
       </c>
       <c r="L39" s="11">
-        <f t="shared" ref="L39:W39" si="20">SUM(L35:L38)</f>
+        <f t="shared" ref="L39:W39" si="23">SUM(L35:L38)</f>
         <v>0</v>
       </c>
       <c r="M39" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N39" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O39" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P39" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q39" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R39" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S39" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>697.18299999999988</v>
       </c>
       <c r="T39" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>741.23400000000004</v>
       </c>
       <c r="U39" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>784.94099999999992</v>
       </c>
       <c r="V39" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>819.10500000000002</v>
       </c>
       <c r="W39" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>897.79800000000012</v>
       </c>
     </row>
@@ -15529,51 +15683,51 @@
         <v>953.95700000000011</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" ref="L46:W46" si="21">SUM(L39:L45)</f>
+        <f t="shared" ref="L46:W46" si="24">SUM(L39:L45)</f>
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>698.68999999999983</v>
       </c>
       <c r="T46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>790.37900000000002</v>
       </c>
       <c r="U46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>834.80299999999988</v>
       </c>
       <c r="V46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>870.71400000000006</v>
       </c>
       <c r="W46" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>953.95700000000011</v>
       </c>
     </row>
@@ -15602,7 +15756,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10">
-        <f t="shared" ref="S47:S50" si="22">F47</f>
+        <f t="shared" ref="S47:S50" si="25">F47</f>
         <v>1.177</v>
       </c>
       <c r="T47" s="10">
@@ -15615,7 +15769,7 @@
         <v>2.7120000000000002</v>
       </c>
       <c r="W47" s="15">
-        <f t="shared" ref="W47:W50" si="23">G47</f>
+        <f t="shared" ref="W47:W50" si="26">G47</f>
         <v>2.4470000000000001</v>
       </c>
     </row>
@@ -15644,7 +15798,7 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
       <c r="S48" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>157.55000000000001</v>
       </c>
       <c r="T48" s="10">
@@ -15657,7 +15811,7 @@
         <v>208.88800000000001</v>
       </c>
       <c r="W48" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>249.19200000000001</v>
       </c>
     </row>
@@ -15714,7 +15868,7 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>21.97</v>
       </c>
       <c r="T50" s="10">
@@ -15727,7 +15881,7 @@
         <v>23.334</v>
       </c>
       <c r="W50" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>25.722999999999999</v>
       </c>
     </row>
@@ -15756,51 +15910,51 @@
         <v>277.36200000000002</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" ref="L51:W51" si="24">SUM(L47:L50)</f>
+        <f t="shared" ref="L51:W51" si="27">SUM(L47:L50)</f>
         <v>0</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N51" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O51" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P51" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q51" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R51" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S51" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>180.697</v>
       </c>
       <c r="T51" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>202.81299999999999</v>
       </c>
       <c r="U51" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>217.10599999999999</v>
       </c>
       <c r="V51" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>234.934</v>
       </c>
       <c r="W51" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>277.36200000000002</v>
       </c>
       <c r="X51" s="11"/>
@@ -15873,51 +16027,51 @@
         <v>298.45600000000002</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" ref="L53:W53" si="25">SUM(L51:L52)</f>
+        <f t="shared" ref="L53:W53" si="28">SUM(L51:L52)</f>
         <v>0</v>
       </c>
       <c r="M53" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N53" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O53" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P53" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q53" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R53" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S53" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>204.2</v>
       </c>
       <c r="T53" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>225.19099999999997</v>
       </c>
       <c r="U53" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>238.398</v>
       </c>
       <c r="V53" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>255.89499999999998</v>
       </c>
       <c r="W53" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>298.45600000000002</v>
       </c>
     </row>
@@ -25336,7 +25490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>

--- a/Business - Technology Services/DUOL.xlsx
+++ b/Business - Technology Services/DUOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562D7497-4045-442F-8BA4-F9D51287FF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536C1D6A-4D93-4808-80EA-F48695B80697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="15105" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,28 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$B$8</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$8:$X$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$9:$X$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$X$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$X$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Model!$L$21:$T$21</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Model!$L$21:$W$21</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Model!$L$22:$T$22</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Model!$L$22:$W$22</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Model!$L$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Model!$L$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Model!$B$8</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Model!$L$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Model!$L$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Model!$L$8:$T$8</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Model!$L$8:$W$8</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Model!$L$9:$T$9</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Model!$L$9:$W$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$8:$T$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$L$8:$W$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$L$9:$T$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$9:$W$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="214">
   <si>
     <t>Price</t>
   </si>
@@ -954,6 +968,12 @@
   </si>
   <si>
     <t>VON AHN ARELLANO LUIS</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1711,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1731,7 +1751,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1754,8 +1773,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1846,9 +1863,8 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1906,14 +1922,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2035,7 +2062,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2047,21 +2074,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E309-400E-9279-09DE67BBD1C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2070,7 +2104,26 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E309-400E-9279-09DE67BBD1C5}"/>
+                <c16:uniqueId val="{00000004-1D4D-4343-9602-BE7B9B9959A2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E309-400E-9279-09DE67BBD1C5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2131,95 +2184,89 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$X$2</c:f>
+              <c:f>Model!$L$2:$W$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q124</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$8:$X$8</c:f>
+              <c:f>Model!$L$8:$W$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>81.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>88.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>96.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>103.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.2</c:v>
+                  <c:v>115.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.300000000000011</c:v>
+                  <c:v>126.89999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.1</c:v>
+                  <c:v>137.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103.8</c:v>
+                  <c:v>151.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115.7</c:v>
+                  <c:v>167.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126.89999999999999</c:v>
+                  <c:v>178.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>137.60000000000002</c:v>
+                  <c:v>189.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>151.00000000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>165.42500000000001</c:v>
+                  <c:v>201.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2328,24 +2375,27 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$25:$X$25</c:f>
+              <c:f>Model!$L$25:$W$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
+                <c:pt idx="4">
+                  <c:v>0.42487684729064035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43714609286523198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43184183142559873</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45472061657032792</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42487684729064035</c:v>
+                  <c:v>0.44857389801210013</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.43714609286523198</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.43184183142559873</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45472061657032792</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4312878133102851</c:v>
+                  <c:v>0.40504334121355412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,7 +2759,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="4"/>
+            <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2728,14 +2778,12 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2745,6 +2793,25 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-8FA1-4450-8EE0-3FE2DAE0EFFF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-D11A-4DFC-B66E-A60A577D9261}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2802,25 +2869,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$H$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Model!$C$2:$H$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Model!$D$2:$H$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>FY24</c:v>
                 </c:pt>
               </c:strCache>
@@ -2828,24 +2899,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$8:$H$8</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Model!$C$8:$I$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Model!$D$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>161.696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161.696</c:v>
+                  <c:v>250.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250.79999999999998</c:v>
+                  <c:v>369.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>369.4</c:v>
+                  <c:v>531.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>531.20000000000005</c:v>
+                  <c:v>736.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>945.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2961,23 +3042,61 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>200%</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>300%</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>400%</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>500%</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>600%</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>700%</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$25:$H$25</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Model!$C$25:$I$25</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Model!$D$25:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>0.55105877696417971</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55105877696417971</c:v>
+                  <c:v>0.47288676236044669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47288676236044669</c:v>
+                  <c:v>0.43800757985923133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43800757985923133</c:v>
+                  <c:v>0.38623870481927702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36942771084337345</c:v>
+                  <c:v>0.28436791286988883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3278,7 +3397,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Net Income by Quarter</a:t>
+              <a:t>EPS / Quarter</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3321,11 +3440,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$19</c:f>
+              <c:f>Model!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net Income</c:v>
+                  <c:v>EPS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3341,12 +3460,31 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-699F-4382-ACCA-221B9B130F4E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3356,27 +3494,6 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-C0F4-4607-8C78-36F0EE07B767}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C0F4-4607-8C78-36F0EE07B767}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3437,95 +3554,89 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$X$2</c:f>
+              <c:f>Model!$L$2:$W$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q124</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$19:$X$19</c:f>
+              <c:f>Model!$L$21:$W$21</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-0.29958717065067497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.37235530467515671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-0.45304746276317781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.34339078193358941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12.174000000000005</c:v>
+                  <c:v>-5.9310807945213075E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-15.13099999999999</c:v>
+                  <c:v>8.8301501722601927E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.410000000000011</c:v>
+                  <c:v>6.4908367483888868E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-13.954000000000002</c:v>
+                  <c:v>0.2829566346800354</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.542999999999989</c:v>
+                  <c:v>0.6261983699409196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.785999999999984</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7830000000000119</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.132000000000032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.881162499999983</c:v>
+                  <c:v>0.55867449996117324</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3634,48 +3745,39 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$23:$X$23</c:f>
+              <c:f>Model!$L$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.7353448275862069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.72968289920724805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.72630593132154009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.73246628131021196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7353448275862069</c:v>
+                  <c:v>0.72781331028522045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72968289920724805</c:v>
+                  <c:v>0.73374310480693461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72630593132154009</c:v>
+                  <c:v>0.73652616279069771</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73246628131021196</c:v>
+                  <c:v>0.73131788079470206</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72781331028522045</c:v>
+                  <c:v>0.73036396181384244</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73374310480693461</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.73652616279069771</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.73131788079470206</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7</c:v>
+                  <c:v>0.73444195176668536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3769,7 +3871,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3976,7 +4078,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Net Income year</a:t>
+              <a:t>EPS / Year</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4019,11 +4121,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$19</c:f>
+              <c:f>Model!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net Income</c:v>
+                  <c:v>EPS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4038,6 +4140,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D6CB-423C-896B-CA9CB793AA1C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-D6CB-423C-896B-CA9CB793AA1C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4093,50 +4233,67 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$H$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Model!$C$2:$I$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Model!$D$2:$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
+                  <c:v>FY24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FY24</c:v>
+                  <c:v>FY25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$19:$H$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Model!$C$21:$I$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Model!$D$21:$I$21</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.775999999999994</c:v>
+                  <c:v>-1.5561564398707235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-60.107000000000014</c:v>
+                  <c:v>-1.4683807200225993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-59.669000000000025</c:v>
+                  <c:v>0.37685569594131474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.158000000000108</c:v>
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4168,11 +4325,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$31</c:f>
+              <c:f>Model!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net Income y/y</c:v>
+                  <c:v>Gross Margin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4241,26 +4398,58 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>200%</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>300%</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>400%</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>500%</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>600%</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>700%</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$31:$H$31</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Model!$C$23:$I$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Model!$D$23:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.71559593310904412</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.72413875598086119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.8100278904665337</c:v>
+                  <c:v>0.73083107742284792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.2870048413660182E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.2707938795689571</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3169194826092117</c:v>
+                  <c:v>0.73248305722891571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4354,7 +4543,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4712,83 +4901,83 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$V$2</c:f>
+              <c:f>Model!$L$2:$W$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$26:$V$26</c:f>
+              <c:f>Model!$L$26:$W$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.36676108374384236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.38750849377123436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.43679500520291364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.42842003853564548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36676108374384236</c:v>
+                  <c:v>0.39623163353500435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38750849377123436</c:v>
+                  <c:v>0.37783293932230105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43679500520291364</c:v>
+                  <c:v>0.36558866279069763</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42842003853564548</c:v>
+                  <c:v>0.33282119205298005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39623163353500435</c:v>
+                  <c:v>0.30356801909307879</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37783293932230105</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36558866279069763</c:v>
+                  <c:v>0.30929332585530001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4896,6 +5085,50 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$L$2:$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q424</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Model!$L$27:$W$27</c:f>
@@ -4903,40 +5136,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.18399014778325121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.1730124575311438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.18440166493236212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.18332369942196533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18399014778325121</c:v>
+                  <c:v>0.14348314606741572</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1730124575311438</c:v>
+                  <c:v>0.13974783293932233</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18440166493236212</c:v>
+                  <c:v>0.16231831395348836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18332369942196533</c:v>
+                  <c:v>0.12660927152317877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14348314606741572</c:v>
+                  <c:v>0.1189200477326969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13974783293932233</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.16231831395348836</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12660927152317877</c:v>
+                  <c:v>0.11314638250140212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5044,6 +5271,50 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$L$2:$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q424</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Model!$L$28:$W$28</c:f>
@@ -5051,40 +5322,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.33073891625615764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.34039637599093991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.31454734651404792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.29582851637764934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33073891625615764</c:v>
+                  <c:v>0.26139152981849612</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34039637599093991</c:v>
+                  <c:v>0.25401891252955083</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31454734651404792</c:v>
+                  <c:v>0.24273255813953484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29582851637764934</c:v>
+                  <c:v>0.2400331125827814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26139152981849612</c:v>
+                  <c:v>0.20951073985680191</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25401891252955083</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.24273255813953484</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2400331125827814</c:v>
+                  <c:v>0.20727425687044307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6803,18 +7068,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6858,7 +7123,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6878,7 +7143,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6909,18 +7174,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -12165,13 +12430,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12277,13 +12542,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
@@ -12321,8 +12586,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6734175" y="5762625"/>
-              <a:ext cx="5876925" cy="3290888"/>
+              <a:off x="6734176" y="5762625"/>
+              <a:ext cx="5505450" cy="3290888"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12707,7 +12972,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12732,7 +12997,7 @@
       <c r="E2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="57" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="25"/>
@@ -12760,7 +13025,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="20">
-        <v>45368</v>
+        <v>45534</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>183</v>
@@ -12774,9 +13039,9 @@
       <c r="I3" s="10">
         <v>4253</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="38">
         <f>I3/($C$7*1000000)</f>
-        <v>9.9193419658274586E-5</v>
+        <v>9.7683055761176892E-5</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>163</v>
@@ -12784,12 +13049,12 @@
       <c r="M3" t="s">
         <v>164</v>
       </c>
-      <c r="N3" s="38"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.94444444444444442</v>
+        <v>0.62430555555555556</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>185</v>
@@ -12803,9 +13068,9 @@
       <c r="I4" s="10">
         <v>34045</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="38">
         <f>I4/($C$7*1000000)</f>
-        <v>7.9403714372583076E-4</v>
+        <v>7.8194677483876492E-4</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>165</v>
@@ -12825,7 +13090,7 @@
         <v>188</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="38"/>
       <c r="L5" s="5" t="s">
         <v>167</v>
       </c>
@@ -12839,7 +13104,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>207.11</v>
+        <v>209.99</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>189</v>
@@ -12853,9 +13118,9 @@
       <c r="I6" s="10">
         <v>124635</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="38">
         <f>I6/($C$7*1000000)</f>
-        <v>2.9068826379282982E-3</v>
+        <v>2.8626211273910843E-3</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>169</v>
@@ -12870,8 +13135,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!G20</f>
-        <v>42.875827999999998</v>
+        <f>Model!U20</f>
+        <v>43.538769000000002</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>191</v>
@@ -12885,9 +13150,9 @@
       <c r="I7" s="10">
         <v>7514</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="38">
         <f>I7/($C$7*1000000)</f>
-        <v>1.7525025989002476E-4</v>
+        <v>1.7258182012449641E-4</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>171</v>
@@ -12903,7 +13168,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>8880.0127370800001</v>
+        <v>9142.7061023100014</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>193</v>
@@ -12917,7 +13182,7 @@
       <c r="I8" s="10">
         <v>0</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="38"/>
       <c r="L8" s="5" t="s">
         <v>173</v>
       </c>
@@ -12931,8 +13196,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!G35</f>
-        <v>747.61</v>
+        <f>Model!U35</f>
+        <v>888.24</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>195</v>
@@ -12946,9 +13211,9 @@
       <c r="I9" s="10">
         <v>160116</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="38">
         <f>I9/($C$7*1000000)</f>
-        <v>3.7344118462272029E-3</v>
+        <v>3.6775500014711027E-3</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>175</v>
@@ -12977,9 +13242,9 @@
       <c r="I10" s="10">
         <v>4253</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="38">
         <f>I10/($C$7*1000000)</f>
-        <v>9.9193419658274586E-5</v>
+        <v>9.7683055761176892E-5</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>177</v>
@@ -12995,7 +13260,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>747.61</v>
+        <v>888.24</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>199</v>
@@ -13009,9 +13274,9 @@
       <c r="I11" s="10">
         <v>64523</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="38">
         <f>I11/($C$7*1000000)</f>
-        <v>1.5048805588081004E-3</v>
+        <v>1.4819665663951132E-3</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>179</v>
@@ -13027,7 +13292,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>8132.4027370800004</v>
+        <v>8254.4661023100016</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>201</v>
@@ -13059,7 +13324,7 @@
       </c>
       <c r="C13" s="36">
         <f>C6/Model!G21</f>
-        <v>549.57375523455505</v>
+        <v>557.21593772248673</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -13072,7 +13337,7 @@
       </c>
       <c r="C14" s="36">
         <f>C6/Model!H22</f>
-        <v>165.68800000000002</v>
+        <v>112.29411764705883</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -13090,7 +13355,7 @@
       </c>
       <c r="C15" s="36">
         <f>C6/Model!I22</f>
-        <v>89.27155172413795</v>
+        <v>74.201413427561832</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -13099,7 +13364,7 @@
       </c>
       <c r="C16" s="6">
         <f>Model!H22/Model!G21-1</f>
-        <v>2.3169194826092117</v>
+        <v>3.9621115459833804</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -13108,38 +13373,38 @@
       </c>
       <c r="C17" s="6">
         <f>Model!I22/Model!H22-1</f>
-        <v>0.85599999999999987</v>
+        <v>0.5133689839572193</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="129"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="131"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="129"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <f>C14/(C16*100)</f>
-        <v>0.7151219593242385</v>
-      </c>
-      <c r="L18" s="132"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="134"/>
+        <v>0.28341987938451102</v>
+      </c>
+      <c r="L18" s="130"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="132"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="51">
         <f>C15/(C17*100)</f>
-        <v>1.042891959394135</v>
-      </c>
-      <c r="L19" s="132"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="134"/>
+        <v>1.4453816990577146</v>
+      </c>
+      <c r="L19" s="130"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="132"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -13147,11 +13412,11 @@
       </c>
       <c r="C20" s="6">
         <f>Model!H9/Model!G8-1</f>
-        <v>0.36942771084337345</v>
-      </c>
-      <c r="L20" s="132"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="134"/>
+        <v>0.38623870481927702</v>
+      </c>
+      <c r="L20" s="130"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="132"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -13159,11 +13424,11 @@
       </c>
       <c r="C21" s="6">
         <f>Model!I9/Model!H9-1</f>
-        <v>0.26894314307709233</v>
-      </c>
-      <c r="L21" s="132"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="134"/>
+        <v>0.28436791286988883</v>
+      </c>
+      <c r="L21" s="130"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="132"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -13173,9 +13438,9 @@
         <f>Model!G14</f>
         <v>-13.167999999999893</v>
       </c>
-      <c r="L22" s="132"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="134"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="132"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13185,33 +13450,33 @@
         <f>Model!G17</f>
         <v>17.868000000000109</v>
       </c>
-      <c r="L23" s="132"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="134"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="132"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!G23</f>
-        <v>0.73248305722891571</v>
-      </c>
-      <c r="L24" s="132"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="134"/>
+        <f>Model!U23</f>
+        <v>0.73444195176668536</v>
+      </c>
+      <c r="L24" s="130"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="132"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!G24</f>
-        <v>3.0417921686747187E-2</v>
-      </c>
-      <c r="L25" s="132"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="134"/>
+        <f>Model!U24</f>
+        <v>0.13642176107683696</v>
+      </c>
+      <c r="L25" s="130"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="132"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -13219,25 +13484,25 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>455.13782947615573</v>
-      </c>
-      <c r="L26" s="132"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="134"/>
+        <v>461.96922444089722</v>
+      </c>
+      <c r="L26" s="130"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="132"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="120">
+      <c r="C27" s="117">
         <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="132"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="134"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="132"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -13246,17 +13511,17 @@
       <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="L28" s="135"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="137"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="135"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!G39/Model!G51</f>
-        <v>3.2369178185908671</v>
+        <f>Model!U39/Model!U51</f>
+        <v>3.2782037239868576</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -13264,8 +13529,8 @@
         <v>86</v>
       </c>
       <c r="C30" s="36">
-        <f>Model!G35/Model!G51</f>
-        <v>2.695430520402939</v>
+        <f>Model!U35/Model!U51</f>
+        <v>2.795633946444084</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -13279,8 +13544,8 @@
         <v>88</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!G39-Model!G51)/Main!C7</f>
-        <v>14.470531041406364</v>
+        <f>(Model!U39-Model!U51)/Main!C7</f>
+        <v>16.625182949017233</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -13296,7 +13561,7 @@
       <c r="B34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="38">
         <f>Model!G19/Model!G46</f>
         <v>1.6937870365226218E-2</v>
       </c>
@@ -13305,7 +13570,7 @@
       <c r="B35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="38">
         <f>Model!G17/Model!G54</f>
         <v>2.7258539651350808E-2</v>
       </c>
@@ -13327,13 +13592,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13341,15 +13606,16 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="13"/>
+    <col min="19" max="19" width="11.42578125" style="146"/>
+    <col min="21" max="21" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>36</v>
       </c>
@@ -13372,49 +13638,43 @@
         <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="S2" s="146" t="s">
+        <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="W2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>151</v>
       </c>
@@ -13427,40 +13687,38 @@
       <c r="G3" s="13">
         <v>404.7</v>
       </c>
+      <c r="L3">
+        <v>58</v>
+      </c>
+      <c r="M3">
+        <v>65.2</v>
+      </c>
+      <c r="N3">
+        <v>72.2</v>
+      </c>
+      <c r="O3">
+        <v>78.099999999999994</v>
+      </c>
       <c r="P3">
-        <v>58</v>
+        <v>86.2</v>
       </c>
       <c r="Q3">
-        <v>65.2</v>
+        <v>95.2</v>
       </c>
       <c r="R3">
-        <v>72.2</v>
-      </c>
-      <c r="S3">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="T3">
-        <v>86.2</v>
-      </c>
-      <c r="U3">
-        <v>95.2</v>
-      </c>
-      <c r="V3">
         <v>105.9</v>
       </c>
-      <c r="W3" s="13">
+      <c r="S3" s="146">
         <v>117.5</v>
       </c>
-      <c r="X3" s="148">
-        <f>W3*1.11</f>
-        <v>130.42500000000001</v>
-      </c>
-      <c r="Y3" s="148">
-        <f>X3*1.11</f>
-        <v>144.77175000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T3" s="125">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="U3" s="117">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>152</v>
       </c>
@@ -13473,38 +13731,35 @@
       <c r="G4" s="13">
         <v>49.9</v>
       </c>
+      <c r="L4">
+        <v>11.7</v>
+      </c>
+      <c r="M4">
+        <v>11.2</v>
+      </c>
+      <c r="N4">
+        <v>10.6</v>
+      </c>
+      <c r="O4">
+        <v>11.1</v>
+      </c>
       <c r="P4">
+        <v>11.6</v>
+      </c>
+      <c r="Q4">
+        <v>13.1</v>
+      </c>
+      <c r="R4">
         <v>11.7</v>
       </c>
-      <c r="Q4">
-        <v>11.2</v>
-      </c>
-      <c r="R4">
-        <v>10.6</v>
-      </c>
-      <c r="S4">
-        <v>11.1</v>
+      <c r="S4" s="146">
+        <v>13.5</v>
       </c>
       <c r="T4">
-        <v>11.6</v>
-      </c>
-      <c r="U4">
-        <v>13.1</v>
-      </c>
-      <c r="V4">
-        <v>11.7</v>
-      </c>
-      <c r="W4" s="13">
-        <v>13.5</v>
-      </c>
-      <c r="X4" s="149">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="149">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>153</v>
       </c>
@@ -13517,38 +13772,35 @@
       <c r="G5" s="13">
         <v>41.2</v>
       </c>
+      <c r="L5">
+        <v>8.1</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O5">
+        <v>8.4</v>
+      </c>
       <c r="P5">
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="R5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="S5">
-        <v>8.4</v>
+        <v>10.6</v>
+      </c>
+      <c r="S5" s="146">
+        <v>10.8</v>
       </c>
       <c r="T5">
-        <v>10</v>
-      </c>
-      <c r="U5">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="V5">
-        <v>10.6</v>
-      </c>
-      <c r="W5" s="13">
-        <v>10.8</v>
-      </c>
-      <c r="X5" s="149">
-        <v>11</v>
-      </c>
-      <c r="Y5" s="149">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>154</v>
       </c>
@@ -13558,23 +13810,20 @@
       <c r="G6" s="13">
         <v>34.700000000000003</v>
       </c>
-      <c r="S6">
+      <c r="O6">
         <v>5.9</v>
       </c>
-      <c r="U6">
+      <c r="Q6">
         <v>0</v>
       </c>
-      <c r="W6" s="13">
+      <c r="S6" s="146">
         <v>8.9</v>
       </c>
-      <c r="X6" s="149">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="149">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
@@ -13587,38 +13836,38 @@
       <c r="G7" s="13">
         <v>0.7</v>
       </c>
+      <c r="L7">
+        <v>3.4</v>
+      </c>
+      <c r="M7">
+        <v>3.9</v>
+      </c>
+      <c r="N7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O7">
+        <v>0.3</v>
+      </c>
       <c r="P7">
-        <v>3.4</v>
+        <v>7.9</v>
       </c>
       <c r="Q7">
-        <v>3.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="R7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="S7">
+        <v>9.4</v>
+      </c>
+      <c r="S7" s="146">
         <v>0.3</v>
       </c>
       <c r="T7">
-        <v>7.9</v>
-      </c>
-      <c r="U7">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="V7">
-        <v>9.4</v>
-      </c>
-      <c r="W7" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="X7" s="149">
-        <v>5</v>
-      </c>
-      <c r="Y7" s="149">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="U7" s="13">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -13641,66 +13890,60 @@
         <f>SUM(G3:G7)</f>
         <v>531.20000000000005</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="H8" s="43">
+        <v>736.37</v>
+      </c>
+      <c r="I8" s="43">
+        <v>945.77</v>
+      </c>
       <c r="L8" s="11">
-        <f t="shared" ref="L8:R8" si="0">SUM(L3:L7)</f>
-        <v>0</v>
+        <f t="shared" ref="L8:N8" si="0">SUM(L3:L7)</f>
+        <v>81.2</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88.300000000000011</v>
       </c>
       <c r="N8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96.1</v>
       </c>
       <c r="O8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(O3:O7)</f>
+        <v>103.8</v>
       </c>
       <c r="P8" s="11">
-        <f t="shared" si="0"/>
-        <v>81.2</v>
+        <f t="shared" ref="P8:W8" si="1">SUM(P3:P7)</f>
+        <v>115.7</v>
       </c>
       <c r="Q8" s="11">
-        <f t="shared" si="0"/>
-        <v>88.300000000000011</v>
-      </c>
-      <c r="R8" s="11">
-        <f t="shared" si="0"/>
-        <v>96.1</v>
-      </c>
-      <c r="S8" s="11">
-        <f>SUM(S3:S7)</f>
-        <v>103.8</v>
-      </c>
-      <c r="T8" s="11">
-        <f t="shared" ref="T8:Y8" si="1">SUM(T3:T7)</f>
-        <v>115.7</v>
-      </c>
-      <c r="U8" s="11">
         <f t="shared" si="1"/>
         <v>126.89999999999999</v>
       </c>
-      <c r="V8" s="11">
+      <c r="R8" s="11">
         <f t="shared" si="1"/>
         <v>137.60000000000002</v>
       </c>
-      <c r="W8" s="14">
+      <c r="S8" s="147">
         <f t="shared" si="1"/>
         <v>151.00000000000003</v>
       </c>
-      <c r="X8" s="150">
+      <c r="T8" s="147">
         <f t="shared" si="1"/>
-        <v>165.42500000000001</v>
-      </c>
-      <c r="Y8" s="150">
+        <v>167.6</v>
+      </c>
+      <c r="U8" s="14">
         <f t="shared" si="1"/>
-        <v>179.27175000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>178.3</v>
+      </c>
+      <c r="V8" s="43">
+        <v>189.08</v>
+      </c>
+      <c r="W8" s="43">
+        <v>201.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>69</v>
       </c>
@@ -13709,32 +13952,34 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="43">
-        <v>727.44</v>
-      </c>
-      <c r="I9" s="43">
-        <v>923.08</v>
-      </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="10">
+      <c r="H9" s="42">
+        <v>736.37</v>
+      </c>
+      <c r="I9" s="42">
+        <v>945.77</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="10">
         <v>165.6</v>
       </c>
-      <c r="Y9" s="41">
+      <c r="U9" s="154">
         <v>176.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>189.08</v>
+      </c>
+      <c r="W9">
+        <v>201.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>62</v>
       </c>
@@ -13753,44 +13998,38 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="L10" s="10">
+        <v>21.49</v>
+      </c>
+      <c r="M10" s="10">
+        <v>23.869</v>
+      </c>
+      <c r="N10" s="10">
+        <v>26.302</v>
+      </c>
+      <c r="O10" s="10">
+        <v>27.77</v>
+      </c>
       <c r="P10" s="10">
-        <v>21.49</v>
+        <v>31.492000000000001</v>
       </c>
       <c r="Q10" s="10">
-        <v>23.869</v>
+        <v>33.787999999999997</v>
       </c>
       <c r="R10" s="10">
-        <v>26.302</v>
-      </c>
-      <c r="S10" s="10">
-        <v>27.77</v>
+        <v>36.253999999999998</v>
+      </c>
+      <c r="S10" s="148">
+        <v>40.570999999999998</v>
       </c>
       <c r="T10" s="10">
-        <v>31.492000000000001</v>
-      </c>
-      <c r="U10" s="10">
-        <v>33.787999999999997</v>
-      </c>
-      <c r="V10" s="10">
-        <v>36.253999999999998</v>
-      </c>
-      <c r="W10" s="15">
-        <v>40.570999999999998</v>
-      </c>
-      <c r="X10" s="10">
-        <f>X8*0.3</f>
-        <v>49.627500000000005</v>
-      </c>
-      <c r="Y10" s="10">
-        <f>Y8*0.3</f>
-        <v>53.781525000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>45.191000000000003</v>
+      </c>
+      <c r="U10" s="15">
+        <v>47.348999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>76</v>
       </c>
@@ -13807,46 +14046,40 @@
       <c r="G11" s="15">
         <v>194.352</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="L11" s="10">
+        <v>29.780999999999999</v>
+      </c>
+      <c r="M11" s="10">
+        <v>34.216999999999999</v>
+      </c>
+      <c r="N11" s="10">
+        <v>41.975999999999999</v>
+      </c>
+      <c r="O11" s="10">
+        <v>44.47</v>
+      </c>
       <c r="P11" s="10">
-        <v>29.780999999999999</v>
+        <v>45.844000000000001</v>
       </c>
       <c r="Q11" s="10">
-        <v>34.216999999999999</v>
+        <v>47.947000000000003</v>
       </c>
       <c r="R11" s="10">
-        <v>41.975999999999999</v>
-      </c>
-      <c r="S11" s="10">
-        <v>44.47</v>
-      </c>
-      <c r="T11" s="10">
-        <v>45.844000000000001</v>
-      </c>
-      <c r="U11" s="10">
-        <v>47.947000000000003</v>
-      </c>
-      <c r="V11" s="10">
         <v>50.305</v>
       </c>
-      <c r="W11" s="15">
+      <c r="S11" s="148">
         <v>50.256</v>
       </c>
-      <c r="X11" s="151">
-        <f>X8*0.37</f>
-        <v>61.207250000000002</v>
-      </c>
-      <c r="Y11" s="151">
-        <f>Y8*0.37</f>
-        <v>66.330547500000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T11" s="126">
+        <v>50.878</v>
+      </c>
+      <c r="U11" s="155">
+        <v>55.146999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>63</v>
       </c>
@@ -13863,46 +14096,40 @@
       <c r="G12" s="15">
         <v>75.787999999999997</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="L12" s="10">
+        <v>14.94</v>
+      </c>
+      <c r="M12" s="10">
+        <v>15.276999999999999</v>
+      </c>
+      <c r="N12" s="10">
+        <v>17.721</v>
+      </c>
+      <c r="O12" s="10">
+        <v>19.029</v>
+      </c>
       <c r="P12" s="10">
-        <v>14.94</v>
+        <v>16.600999999999999</v>
       </c>
       <c r="Q12" s="10">
-        <v>15.276999999999999</v>
+        <v>17.734000000000002</v>
       </c>
       <c r="R12" s="10">
-        <v>17.721</v>
-      </c>
-      <c r="S12" s="10">
-        <v>19.029</v>
-      </c>
-      <c r="T12" s="10">
-        <v>16.600999999999999</v>
-      </c>
-      <c r="U12" s="10">
-        <v>17.734000000000002</v>
-      </c>
-      <c r="V12" s="10">
         <v>22.335000000000001</v>
       </c>
-      <c r="W12" s="15">
+      <c r="S12" s="148">
         <v>19.117999999999999</v>
       </c>
-      <c r="X12" s="151">
-        <f>X9*0.16</f>
-        <v>26.495999999999999</v>
-      </c>
-      <c r="Y12" s="151">
-        <f>Y9*0.16</f>
-        <v>28.307199999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T12" s="126">
+        <v>19.931000000000001</v>
+      </c>
+      <c r="U12" s="155">
+        <v>20.173999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>137</v>
       </c>
@@ -13921,44 +14148,38 @@
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="L13" s="10">
+        <v>26.856000000000002</v>
+      </c>
+      <c r="M13" s="10">
+        <v>30.056999999999999</v>
+      </c>
+      <c r="N13" s="10">
+        <v>30.228000000000002</v>
+      </c>
+      <c r="O13" s="10">
+        <v>30.707000000000001</v>
+      </c>
       <c r="P13" s="10">
-        <v>26.856000000000002</v>
+        <v>30.242999999999999</v>
       </c>
       <c r="Q13" s="10">
-        <v>30.056999999999999</v>
+        <v>32.234999999999999</v>
       </c>
       <c r="R13" s="10">
-        <v>30.228000000000002</v>
-      </c>
-      <c r="S13" s="10">
-        <v>30.707000000000001</v>
-      </c>
-      <c r="T13" s="10">
-        <v>30.242999999999999</v>
-      </c>
-      <c r="U13" s="10">
-        <v>32.234999999999999</v>
-      </c>
-      <c r="V13" s="10">
         <v>33.4</v>
       </c>
-      <c r="W13" s="15">
+      <c r="S13" s="148">
         <v>36.244999999999997</v>
       </c>
-      <c r="X13" s="151">
-        <f>X10*0.25</f>
-        <v>12.406875000000001</v>
-      </c>
-      <c r="Y13" s="151">
-        <f>Y10*0.25</f>
-        <v>13.445381250000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="126">
+        <v>35.113999999999997</v>
+      </c>
+      <c r="U13" s="155">
+        <v>36.957000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -13984,72 +14205,56 @@
       </c>
       <c r="H14" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>736.37</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>945.77</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11">
-        <f t="shared" ref="L14:Y14" si="3">L8-SUM(L10:L13)</f>
-        <v>0</v>
+        <f t="shared" ref="L14:U14" si="3">L8-SUM(L10:L13)</f>
+        <v>-11.867000000000004</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-15.11999999999999</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-20.12700000000001</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-18.176000000000002</v>
       </c>
       <c r="P14" s="11">
         <f t="shared" si="3"/>
-        <v>-11.867000000000004</v>
+        <v>-8.4799999999999898</v>
       </c>
       <c r="Q14" s="11">
         <f t="shared" si="3"/>
-        <v>-15.11999999999999</v>
+        <v>-4.8040000000000163</v>
       </c>
       <c r="R14" s="11">
         <f t="shared" si="3"/>
-        <v>-20.12700000000001</v>
-      </c>
-      <c r="S14" s="11">
+        <v>-4.6939999999999884</v>
+      </c>
+      <c r="S14" s="147">
         <f t="shared" si="3"/>
-        <v>-18.176000000000002</v>
+        <v>4.8100000000000307</v>
       </c>
       <c r="T14" s="11">
         <f t="shared" si="3"/>
-        <v>-8.4799999999999898</v>
-      </c>
-      <c r="U14" s="11">
+        <v>16.48599999999999</v>
+      </c>
+      <c r="U14" s="14">
         <f t="shared" si="3"/>
-        <v>-4.8040000000000163</v>
-      </c>
-      <c r="V14" s="11">
-        <f t="shared" si="3"/>
-        <v>-4.6939999999999884</v>
-      </c>
-      <c r="W14" s="14">
-        <f t="shared" si="3"/>
-        <v>4.8100000000000307</v>
-      </c>
-      <c r="X14" s="11">
-        <f t="shared" si="3"/>
-        <v>15.687374999999975</v>
-      </c>
-      <c r="Y14" s="11">
-        <f t="shared" si="3"/>
-        <v>17.407096250000023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>18.67300000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -14067,44 +14272,40 @@
       <c r="G15" s="15">
         <v>-5.5E-2</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="L15" s="10">
+        <v>-0.312</v>
+      </c>
+      <c r="M15" s="10">
+        <v>-0.53900000000000003</v>
+      </c>
+      <c r="N15" s="10">
+        <v>-0.49</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.66500000000000004</v>
+      </c>
       <c r="P15" s="10">
-        <v>-0.312</v>
+        <v>0.182</v>
       </c>
       <c r="Q15" s="10">
-        <v>-0.53900000000000003</v>
+        <v>-0.26800000000000002</v>
       </c>
       <c r="R15" s="10">
-        <v>-0.49</v>
-      </c>
-      <c r="S15" s="10">
-        <v>0.66500000000000004</v>
+        <v>-1.0229999999999999</v>
+      </c>
+      <c r="S15" s="148">
+        <v>1.054</v>
       </c>
       <c r="T15" s="10">
-        <v>0.182</v>
-      </c>
-      <c r="U15" s="10">
-        <v>-0.26800000000000002</v>
-      </c>
-      <c r="V15" s="10">
-        <v>-1.0229999999999999</v>
-      </c>
-      <c r="W15" s="15">
-        <v>1.054</v>
-      </c>
-      <c r="X15" s="152">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-0.621</v>
+      </c>
+      <c r="U15" s="15">
+        <v>-0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>155</v>
       </c>
@@ -14119,44 +14320,40 @@
       <c r="G16" s="15">
         <v>31.091000000000001</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="L16" s="10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="N16" s="10">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="O16" s="10">
+        <v>4.2729999999999997</v>
+      </c>
       <c r="P16" s="10">
-        <v>3.3000000000000002E-2</v>
+        <v>5.6390000000000002</v>
       </c>
       <c r="Q16" s="10">
-        <v>0.66900000000000004</v>
+        <v>7.5430000000000001</v>
       </c>
       <c r="R16" s="10">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="S16" s="10">
-        <v>4.2729999999999997</v>
+        <v>8.625</v>
+      </c>
+      <c r="S16" s="148">
+        <v>9.2840000000000007</v>
       </c>
       <c r="T16" s="10">
-        <v>5.6390000000000002</v>
-      </c>
-      <c r="U16" s="10">
-        <v>7.5430000000000001</v>
-      </c>
-      <c r="V16" s="10">
-        <v>8.625</v>
-      </c>
-      <c r="W16" s="15">
-        <v>9.2840000000000007</v>
-      </c>
-      <c r="X16" s="152">
-        <v>7</v>
-      </c>
-      <c r="Y16" s="152">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10.032999999999999</v>
+      </c>
+      <c r="U16" s="15">
+        <v>10.721</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
@@ -14182,70 +14379,54 @@
       </c>
       <c r="H17" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>736.37</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>945.77</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" ref="L17:Y17" si="5">L14+SUM(L15:L16)</f>
-        <v>0</v>
+        <f t="shared" ref="L17:U17" si="5">L14+SUM(L15:L16)</f>
+        <v>-12.146000000000004</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-14.98999999999999</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-18.35700000000001</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-13.238000000000003</v>
       </c>
       <c r="P17" s="11">
         <f t="shared" si="5"/>
-        <v>-12.146000000000004</v>
+        <v>-2.6589999999999892</v>
       </c>
       <c r="Q17" s="11">
         <f t="shared" si="5"/>
-        <v>-14.98999999999999</v>
+        <v>2.4709999999999841</v>
       </c>
       <c r="R17" s="11">
         <f t="shared" si="5"/>
-        <v>-18.35700000000001</v>
-      </c>
-      <c r="S17" s="11">
+        <v>2.9080000000000119</v>
+      </c>
+      <c r="S17" s="147">
         <f t="shared" si="5"/>
-        <v>-13.238000000000003</v>
+        <v>15.148000000000032</v>
       </c>
       <c r="T17" s="11">
         <f t="shared" si="5"/>
-        <v>-2.6589999999999892</v>
-      </c>
-      <c r="U17" s="11">
+        <v>25.897999999999989</v>
+      </c>
+      <c r="U17" s="14">
         <f t="shared" si="5"/>
-        <v>2.4709999999999841</v>
-      </c>
-      <c r="V17" s="11">
-        <f t="shared" si="5"/>
-        <v>2.9080000000000119</v>
-      </c>
-      <c r="W17" s="14">
-        <f t="shared" si="5"/>
-        <v>15.148000000000032</v>
-      </c>
-      <c r="X17" s="11">
-        <f t="shared" si="5"/>
-        <v>22.687374999999975</v>
-      </c>
-      <c r="Y17" s="11">
-        <f t="shared" si="5"/>
-        <v>24.407096250000023</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+        <v>28.68700000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -14262,46 +14443,40 @@
       <c r="G18" s="15">
         <v>1.71</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="L18" s="10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N18" s="10">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0.71599999999999997</v>
+      </c>
       <c r="P18" s="10">
-        <v>2.8000000000000001E-2</v>
+        <v>-0.11600000000000001</v>
       </c>
       <c r="Q18" s="10">
-        <v>0.14099999999999999</v>
+        <v>-1.3149999999999999</v>
       </c>
       <c r="R18" s="10">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="S18" s="10">
-        <v>0.71599999999999997</v>
+        <v>0.125</v>
+      </c>
+      <c r="S18" s="148">
+        <v>3.016</v>
       </c>
       <c r="T18" s="10">
-        <v>-0.11600000000000001</v>
-      </c>
-      <c r="U18" s="10">
-        <v>-1.3149999999999999</v>
-      </c>
-      <c r="V18" s="10">
-        <v>0.125</v>
-      </c>
-      <c r="W18" s="15">
-        <v>3.016</v>
-      </c>
-      <c r="X18" s="152">
-        <f>X17*0.3</f>
-        <v>6.806212499999992</v>
-      </c>
-      <c r="Y18" s="152">
-        <f>Y17*0.3</f>
-        <v>7.3221288750000069</v>
-      </c>
-    </row>
-    <row r="19" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-1.105</v>
+      </c>
+      <c r="U18" s="15">
+        <v>4.3630000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -14325,66 +14500,50 @@
         <f>G17-SUM(G18:G18)</f>
         <v>16.158000000000108</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
       <c r="L19" s="11">
-        <f t="shared" ref="L19:Y19" si="6">L17-SUM(L18:L18)</f>
-        <v>0</v>
+        <f t="shared" ref="L19:U19" si="6">L17-SUM(L18:L18)</f>
+        <v>-12.174000000000005</v>
       </c>
       <c r="M19" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-15.13099999999999</v>
       </c>
       <c r="N19" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-18.410000000000011</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-13.954000000000002</v>
       </c>
       <c r="P19" s="11">
         <f t="shared" si="6"/>
-        <v>-12.174000000000005</v>
+        <v>-2.542999999999989</v>
       </c>
       <c r="Q19" s="11">
         <f t="shared" si="6"/>
-        <v>-15.13099999999999</v>
+        <v>3.785999999999984</v>
       </c>
       <c r="R19" s="11">
         <f t="shared" si="6"/>
-        <v>-18.410000000000011</v>
-      </c>
-      <c r="S19" s="11">
+        <v>2.7830000000000119</v>
+      </c>
+      <c r="S19" s="147">
         <f t="shared" si="6"/>
-        <v>-13.954000000000002</v>
+        <v>12.132000000000032</v>
       </c>
       <c r="T19" s="11">
         <f t="shared" si="6"/>
-        <v>-2.542999999999989</v>
-      </c>
-      <c r="U19" s="11">
+        <v>27.002999999999989</v>
+      </c>
+      <c r="U19" s="14">
         <f t="shared" si="6"/>
-        <v>3.785999999999984</v>
-      </c>
-      <c r="V19" s="11">
-        <f t="shared" si="6"/>
-        <v>2.7830000000000119</v>
-      </c>
-      <c r="W19" s="14">
-        <f t="shared" si="6"/>
-        <v>12.132000000000032</v>
-      </c>
-      <c r="X19" s="11">
-        <f t="shared" si="6"/>
-        <v>15.881162499999983</v>
-      </c>
-      <c r="Y19" s="11">
-        <f t="shared" si="6"/>
-        <v>17.084967375000016</v>
-      </c>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+        <v>24.32400000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -14405,46 +14564,44 @@
         <f>36.680751+6.195077</f>
         <v>42.875827999999998</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10">
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="L20" s="10">
         <f>F20</f>
         <v>40.635919000000001</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="M20" s="10">
         <v>40.635919000000001</v>
       </c>
-      <c r="R20" s="10">
+      <c r="N20" s="10">
         <v>40.635919000000001</v>
       </c>
-      <c r="S20" s="10">
+      <c r="O20" s="10">
         <v>40.635919000000001</v>
       </c>
-      <c r="T20" s="10">
+      <c r="P20" s="10">
         <f>G20</f>
         <v>42.875827999999998</v>
       </c>
-      <c r="U20" s="10">
+      <c r="Q20" s="10">
         <v>42.875827999999998</v>
       </c>
-      <c r="V20" s="10">
+      <c r="R20" s="10">
         <v>42.875827999999998</v>
       </c>
-      <c r="W20" s="15">
+      <c r="S20" s="148">
         <v>42.875827999999998</v>
       </c>
-      <c r="X20" s="10">
-        <v>44</v>
-      </c>
-      <c r="Y20" s="10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="10">
+        <f>36.989041+6.133077</f>
+        <v>43.122118</v>
+      </c>
+      <c r="U20" s="15">
+        <f>37.436692+6.102077</f>
+        <v>43.538769000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -14463,58 +14620,64 @@
         <f>F19/F20</f>
         <v>-1.4683807200225993</v>
       </c>
-      <c r="G21" s="55">
+      <c r="G21" s="54">
         <f>G19/G20</f>
         <v>0.37685569594131474</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="H21" s="160">
+        <v>1.87</v>
+      </c>
+      <c r="I21" s="159">
+        <v>2.83</v>
+      </c>
+      <c r="L21" s="2">
+        <f>L19/L20</f>
+        <v>-0.29958717065067497</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" ref="M21:U21" si="7">M19/M20</f>
+        <v>-0.37235530467515671</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.45304746276317781</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.34339078193358941</v>
+      </c>
       <c r="P21" s="2">
-        <f>P19/P20</f>
-        <v>-0.29958717065067497</v>
+        <f t="shared" si="7"/>
+        <v>-5.9310807945213075E-2</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" ref="Q21:Y21" si="7">Q19/Q20</f>
-        <v>-0.37235530467515671</v>
+        <f t="shared" si="7"/>
+        <v>8.8301501722601927E-2</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="7"/>
-        <v>-0.45304746276317781</v>
-      </c>
-      <c r="S21" s="2">
+        <v>6.4908367483888868E-2</v>
+      </c>
+      <c r="S21" s="149">
         <f t="shared" si="7"/>
-        <v>-0.34339078193358941</v>
+        <v>0.2829566346800354</v>
       </c>
       <c r="T21" s="2">
         <f t="shared" si="7"/>
-        <v>-5.9310807945213075E-2</v>
-      </c>
-      <c r="U21" s="2">
+        <v>0.6261983699409196</v>
+      </c>
+      <c r="U21" s="35">
         <f t="shared" si="7"/>
-        <v>8.8301501722601927E-2</v>
-      </c>
-      <c r="V21" s="2">
-        <f t="shared" si="7"/>
-        <v>6.4908367483888868E-2</v>
-      </c>
-      <c r="W21" s="35">
-        <f t="shared" si="7"/>
-        <v>0.2829566346800354</v>
-      </c>
-      <c r="X21" s="153">
-        <f t="shared" si="7"/>
-        <v>0.36093551136363594</v>
-      </c>
-      <c r="Y21" s="153">
-        <f t="shared" si="7"/>
-        <v>0.3882947130681822</v>
-      </c>
-    </row>
-    <row r="22" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.55867449996117324</v>
+      </c>
+      <c r="V21" s="159">
+        <v>0.35</v>
+      </c>
+      <c r="W21" s="159">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>68</v>
       </c>
@@ -14523,32 +14686,34 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="45">
-        <v>1.25</v>
-      </c>
-      <c r="I22" s="46">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="50">
+      <c r="H22" s="44">
+        <v>1.87</v>
+      </c>
+      <c r="I22" s="45">
+        <v>2.83</v>
+      </c>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="150"/>
+      <c r="T22" s="49">
         <v>0.27</v>
       </c>
-      <c r="Y22" s="50">
+      <c r="U22" s="156">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="23" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V22" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -14572,66 +14737,50 @@
         <f>1-G10/G8</f>
         <v>0.73248305722891571</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="L23" s="3" t="e">
-        <f t="shared" ref="L23:Y23" si="8">1-L10/L8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="3" t="e">
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="L23" s="3">
+        <f t="shared" ref="L23:U23" si="8">1-L10/L8</f>
+        <v>0.7353448275862069</v>
+      </c>
+      <c r="M23" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="3" t="e">
+        <v>0.72968289920724805</v>
+      </c>
+      <c r="N23" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="3" t="e">
+        <v>0.72630593132154009</v>
+      </c>
+      <c r="O23" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.73246628131021196</v>
       </c>
       <c r="P23" s="3">
         <f t="shared" si="8"/>
-        <v>0.7353448275862069</v>
+        <v>0.72781331028522045</v>
       </c>
       <c r="Q23" s="3">
         <f t="shared" si="8"/>
-        <v>0.72968289920724805</v>
+        <v>0.73374310480693461</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" si="8"/>
-        <v>0.72630593132154009</v>
-      </c>
-      <c r="S23" s="3">
+        <v>0.73652616279069771</v>
+      </c>
+      <c r="S23" s="39">
+        <f>1-S10/S8</f>
+        <v>0.73131788079470206</v>
+      </c>
+      <c r="T23" s="39">
+        <f>1-T10/T8</f>
+        <v>0.73036396181384244</v>
+      </c>
+      <c r="U23" s="6">
         <f t="shared" si="8"/>
-        <v>0.73246628131021196</v>
-      </c>
-      <c r="T23" s="3">
-        <f t="shared" si="8"/>
-        <v>0.72781331028522045</v>
-      </c>
-      <c r="U23" s="3">
-        <f t="shared" si="8"/>
-        <v>0.73374310480693461</v>
-      </c>
-      <c r="V23" s="3">
-        <f t="shared" si="8"/>
-        <v>0.73652616279069771</v>
-      </c>
-      <c r="W23" s="6">
-        <f>1-W10/W8</f>
-        <v>0.73131788079470206</v>
-      </c>
-      <c r="X23" s="40">
-        <f>1-X10/X8</f>
-        <v>0.7</v>
-      </c>
-      <c r="Y23" s="40">
-        <f t="shared" si="8"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+        <v>0.73444195176668536</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -14655,72 +14804,56 @@
         <f>G19/G8</f>
         <v>3.0417921686747187E-2</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="47">
         <f>H19/H9</f>
         <v>0</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="47">
         <f>I19/I9</f>
         <v>0</v>
       </c>
-      <c r="L24" s="4" t="e">
-        <f t="shared" ref="L24:Y24" si="9">L19/L8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="4" t="e">
+      <c r="L24" s="4">
+        <f t="shared" ref="L24:U24" si="9">L19/L8</f>
+        <v>-0.1499261083743843</v>
+      </c>
+      <c r="M24" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="4" t="e">
+        <v>-0.17135900339750834</v>
+      </c>
+      <c r="N24" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="4" t="e">
+        <v>-0.19157127991675352</v>
+      </c>
+      <c r="O24" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>-0.13443159922928713</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="9"/>
-        <v>-0.1499261083743843</v>
+        <v>-2.1979256698357728E-2</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="9"/>
-        <v>-0.17135900339750834</v>
+        <v>2.9834515366430135E-2</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="9"/>
-        <v>-0.19157127991675352</v>
-      </c>
-      <c r="S24" s="4">
+        <v>2.0225290697674501E-2</v>
+      </c>
+      <c r="S24" s="151">
         <f t="shared" si="9"/>
-        <v>-0.13443159922928713</v>
+        <v>8.0344370860927342E-2</v>
       </c>
       <c r="T24" s="4">
         <f t="shared" si="9"/>
-        <v>-2.1979256698357728E-2</v>
-      </c>
-      <c r="U24" s="4">
+        <v>0.16111575178997609</v>
+      </c>
+      <c r="U24" s="7">
         <f t="shared" si="9"/>
-        <v>2.9834515366430135E-2</v>
-      </c>
-      <c r="V24" s="4">
-        <f t="shared" si="9"/>
-        <v>2.0225290697674501E-2</v>
-      </c>
-      <c r="W24" s="7">
-        <f t="shared" si="9"/>
-        <v>8.0344370860927342E-2</v>
-      </c>
-      <c r="X24" s="154">
-        <f t="shared" si="9"/>
-        <v>9.6002191325373923E-2</v>
-      </c>
-      <c r="Y24" s="154">
-        <f t="shared" si="9"/>
-        <v>9.5302061674524929E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+        <v>0.13642176107683696</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -14730,7 +14863,7 @@
         <f>E8/D8-1</f>
         <v>0.55105877696417971</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <f>F8/E8-1</f>
         <v>0.47288676236044669</v>
       </c>
@@ -14738,48 +14871,44 @@
         <f>G8/F8-1</f>
         <v>0.43800757985923133</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="48">
         <f>H9/G8-1</f>
-        <v>0.36942771084337345</v>
-      </c>
-      <c r="I25" s="49">
+        <v>0.38623870481927702</v>
+      </c>
+      <c r="I25" s="48">
         <f>I9/H9-1</f>
-        <v>0.26894314307709233</v>
+        <v>0.28436791286988883</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4">
+      <c r="P25" s="4">
+        <f>P8/L8-1</f>
+        <v>0.42487684729064035</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>Q8/M8-1</f>
+        <v>0.43714609286523198</v>
+      </c>
+      <c r="R25" s="4">
+        <f>R8/N8-1</f>
+        <v>0.43184183142559873</v>
+      </c>
+      <c r="S25" s="151">
+        <f>S8/O8-1</f>
+        <v>0.45472061657032792</v>
+      </c>
+      <c r="T25" s="157">
         <f>T8/P8-1</f>
-        <v>0.42487684729064035</v>
-      </c>
-      <c r="U25" s="4">
+        <v>0.44857389801210013</v>
+      </c>
+      <c r="U25" s="158">
         <f>U8/Q8-1</f>
-        <v>0.43714609286523198</v>
-      </c>
-      <c r="V25" s="4">
-        <f>V8/R8-1</f>
-        <v>0.43184183142559873</v>
-      </c>
-      <c r="W25" s="7">
-        <f>W8/S8-1</f>
-        <v>0.45472061657032792</v>
-      </c>
-      <c r="X25" s="37">
-        <f>X9/T8-1</f>
-        <v>0.4312878133102851</v>
-      </c>
-      <c r="Y25" s="155">
-        <f>Y9/U8-1</f>
-        <v>0.39416863672182822</v>
-      </c>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+        <v>0.40504334121355412</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -14803,66 +14932,50 @@
         <f>G11/G8</f>
         <v>0.36587349397590357</v>
       </c>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="L26" s="4" t="e">
-        <f t="shared" ref="L26:W26" si="10">L11/L8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="4" t="e">
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="L26" s="4">
+        <f t="shared" ref="L26:S26" si="10">L11/L8</f>
+        <v>0.36676108374384236</v>
+      </c>
+      <c r="M26" s="4">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="4" t="e">
+        <v>0.38750849377123436</v>
+      </c>
+      <c r="N26" s="4">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="4" t="e">
+        <v>0.43679500520291364</v>
+      </c>
+      <c r="O26" s="4">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.42842003853564548</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="10"/>
-        <v>0.36676108374384236</v>
+        <v>0.39623163353500435</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="10"/>
-        <v>0.38750849377123436</v>
+        <v>0.37783293932230105</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="10"/>
-        <v>0.43679500520291364</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="10"/>
-        <v>0.42842003853564548</v>
-      </c>
-      <c r="T26" s="4">
-        <f t="shared" si="10"/>
-        <v>0.39623163353500435</v>
-      </c>
-      <c r="U26" s="4">
-        <f t="shared" si="10"/>
-        <v>0.37783293932230105</v>
-      </c>
-      <c r="V26" s="4">
-        <f t="shared" si="10"/>
         <v>0.36558866279069763</v>
       </c>
-      <c r="W26" s="7">
+      <c r="S26" s="151">
         <f t="shared" si="10"/>
         <v>0.33282119205298005</v>
       </c>
-      <c r="X26" s="154">
-        <f t="shared" ref="X26:Y26" si="11">X11/X8</f>
-        <v>0.37</v>
-      </c>
-      <c r="Y26" s="154">
-        <f t="shared" si="11"/>
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T26" s="4">
+        <f t="shared" ref="T26" si="11">T11/T8</f>
+        <v>0.30356801909307879</v>
+      </c>
+      <c r="U26" s="7">
+        <f>U11/U8</f>
+        <v>0.30929332585530001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>159</v>
       </c>
@@ -14886,66 +14999,50 @@
         <f>G12/G8</f>
         <v>0.14267319277108431</v>
       </c>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="L27" s="4" t="e">
-        <f t="shared" ref="L27:W27" si="12">L12/L8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="4" t="e">
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="L27" s="4">
+        <f t="shared" ref="L27:S27" si="12">L12/L8</f>
+        <v>0.18399014778325121</v>
+      </c>
+      <c r="M27" s="4">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="4" t="e">
+        <v>0.1730124575311438</v>
+      </c>
+      <c r="N27" s="4">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="4" t="e">
+        <v>0.18440166493236212</v>
+      </c>
+      <c r="O27" s="4">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.18332369942196533</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="12"/>
-        <v>0.18399014778325121</v>
+        <v>0.14348314606741572</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="12"/>
-        <v>0.1730124575311438</v>
+        <v>0.13974783293932233</v>
       </c>
       <c r="R27" s="4">
         <f t="shared" si="12"/>
-        <v>0.18440166493236212</v>
-      </c>
-      <c r="S27" s="4">
-        <f t="shared" si="12"/>
-        <v>0.18332369942196533</v>
-      </c>
-      <c r="T27" s="4">
-        <f t="shared" si="12"/>
-        <v>0.14348314606741572</v>
-      </c>
-      <c r="U27" s="4">
-        <f t="shared" si="12"/>
-        <v>0.13974783293932233</v>
-      </c>
-      <c r="V27" s="4">
-        <f t="shared" si="12"/>
         <v>0.16231831395348836</v>
       </c>
-      <c r="W27" s="7">
+      <c r="S27" s="151">
         <f t="shared" si="12"/>
         <v>0.12660927152317877</v>
       </c>
-      <c r="X27" s="154">
-        <f t="shared" ref="X27:Y27" si="13">X12/X8</f>
-        <v>0.16016926099440831</v>
-      </c>
-      <c r="Y27" s="154">
-        <f t="shared" si="13"/>
-        <v>0.15790106360873921</v>
-      </c>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T27" s="4">
+        <f>T12/T8</f>
+        <v>0.1189200477326969</v>
+      </c>
+      <c r="U27" s="7">
+        <f t="shared" ref="U27" si="13">U12/U8</f>
+        <v>0.11314638250140212</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -14969,66 +15066,50 @@
         <f t="shared" si="14"/>
         <v>0.24872552710843371</v>
       </c>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="L28" s="4" t="e">
-        <f>L13/L8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="4" t="e">
-        <f t="shared" ref="M28:U28" si="15">M13/M8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4" t="e">
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="L28" s="4">
+        <f t="shared" ref="L28:Q28" si="15">L13/L8</f>
+        <v>0.33073891625615764</v>
+      </c>
+      <c r="M28" s="4">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="4" t="e">
+        <v>0.34039637599093991</v>
+      </c>
+      <c r="N28" s="4">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.31454734651404792</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="15"/>
+        <v>0.29582851637764934</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="15"/>
-        <v>0.33073891625615764</v>
+        <v>0.26139152981849612</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="15"/>
-        <v>0.34039637599093991</v>
+        <v>0.25401891252955083</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="15"/>
-        <v>0.31454734651404792</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" si="15"/>
-        <v>0.29582851637764934</v>
+        <f>R13/R8</f>
+        <v>0.24273255813953484</v>
+      </c>
+      <c r="S28" s="151">
+        <f>S13/S8</f>
+        <v>0.2400331125827814</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="15"/>
-        <v>0.26139152981849612</v>
-      </c>
-      <c r="U28" s="4">
-        <f t="shared" si="15"/>
-        <v>0.25401891252955083</v>
-      </c>
-      <c r="V28" s="4">
-        <f>V13/V8</f>
-        <v>0.24273255813953484</v>
-      </c>
-      <c r="W28" s="7">
-        <f>W13/W8</f>
-        <v>0.2400331125827814</v>
-      </c>
-      <c r="X28" s="154">
-        <f t="shared" ref="X28:Y28" si="16">X13/X8</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Y28" s="154">
+        <f t="shared" ref="T28:U28" si="16">T13/T8</f>
+        <v>0.20951073985680191</v>
+      </c>
+      <c r="U28" s="7">
         <f t="shared" si="16"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+        <v>0.20727425687044307</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>133</v>
       </c>
@@ -15046,8 +15127,8 @@
         <f t="shared" si="17"/>
         <v>0.4797074954296161</v>
       </c>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -15055,14 +15136,10 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="S29" s="151"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="4"/>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>134</v>
       </c>
@@ -15080,8 +15157,8 @@
         <f t="shared" si="17"/>
         <v>0.11633109619686799</v>
       </c>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -15089,14 +15166,10 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
+      <c r="S30" s="151"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="4"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>37</v>
       </c>
@@ -15109,7 +15182,7 @@
         <f>-(E19/D19-1)</f>
         <v>-2.8100278904665337</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="39">
         <f>F19/E19-1</f>
         <v>-7.2870048413660182E-3</v>
       </c>
@@ -15117,53 +15190,41 @@
         <f>G19/F19-1</f>
         <v>-1.2707938795689571</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H31" s="55">
         <f>H22/G21-1</f>
-        <v>2.3169194826092117</v>
-      </c>
-      <c r="I31" s="58">
+        <v>3.9621115459833804</v>
+      </c>
+      <c r="I31" s="55">
         <f>I22/H22-1</f>
-        <v>0.85599999999999987</v>
+        <v>0.5133689839572193</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="4" t="e">
-        <f t="shared" ref="P31:X31" si="18">P19/L19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="4" t="e">
+      <c r="P31" s="4">
+        <f t="shared" ref="P31:S31" si="18">P19/L19-1</f>
+        <v>-0.79111220634138424</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>Q19/M19-1</f>
+        <v>-1.2502147908267784</v>
+      </c>
+      <c r="R31" s="4">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="4" t="e">
+        <v>-1.1511678435632815</v>
+      </c>
+      <c r="S31" s="151">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>-1.8694281209688999</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="18"/>
-        <v>-0.79111220634138424</v>
+        <f>T19/P19-1</f>
+        <v>-11.618560755013805</v>
       </c>
       <c r="U31" s="4">
         <f>U19/Q19-1</f>
-        <v>-1.2502147908267784</v>
-      </c>
-      <c r="V31" s="4">
-        <f t="shared" si="18"/>
-        <v>-1.1511678435632815</v>
-      </c>
-      <c r="W31" s="7">
-        <f t="shared" si="18"/>
-        <v>-1.8694281209688999</v>
-      </c>
-      <c r="X31" s="4">
-        <f t="shared" si="18"/>
-        <v>-7.2450501376327372</v>
+        <v>5.4247226624406055</v>
       </c>
     </row>
     <row r="34" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15191,11 +15252,11 @@
         <v>747.61</v>
       </c>
       <c r="L34" s="11">
-        <f>L35</f>
+        <f t="shared" ref="L34:W34" si="20">L35</f>
         <v>0</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" ref="M34:W34" si="20">M35</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N34" s="11">
@@ -15204,39 +15265,39 @@
       </c>
       <c r="O34" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>608.17999999999995</v>
       </c>
       <c r="P34" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>641.09100000000001</v>
       </c>
       <c r="Q34" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>678.66499999999996</v>
       </c>
       <c r="R34" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="11">
+        <v>701.73699999999997</v>
+      </c>
+      <c r="S34" s="147">
         <f t="shared" si="20"/>
-        <v>608.17999999999995</v>
+        <v>747.61</v>
       </c>
       <c r="T34" s="11">
         <f t="shared" si="20"/>
-        <v>641.09100000000001</v>
-      </c>
-      <c r="U34" s="11">
+        <v>829.71299999999997</v>
+      </c>
+      <c r="U34" s="14">
         <f t="shared" si="20"/>
-        <v>678.66499999999996</v>
+        <v>888.24</v>
       </c>
       <c r="V34" s="11">
         <f t="shared" si="20"/>
-        <v>701.73699999999997</v>
-      </c>
-      <c r="W34" s="14">
+        <v>0</v>
+      </c>
+      <c r="W34" s="11">
         <f t="shared" si="20"/>
-        <v>747.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
@@ -15259,27 +15320,31 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10">
+      <c r="O35" s="10">
         <f>F35</f>
         <v>608.17999999999995</v>
       </c>
-      <c r="T35" s="10">
+      <c r="P35" s="10">
         <v>641.09100000000001</v>
       </c>
-      <c r="U35" s="10">
+      <c r="Q35" s="10">
         <v>678.66499999999996</v>
       </c>
-      <c r="V35" s="10">
+      <c r="R35" s="10">
         <v>701.73699999999997</v>
       </c>
-      <c r="W35" s="15">
+      <c r="S35" s="148">
         <f>G35</f>
         <v>747.61</v>
       </c>
+      <c r="T35" s="10">
+        <v>829.71299999999997</v>
+      </c>
+      <c r="U35" s="15">
+        <v>888.24</v>
+      </c>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -15301,27 +15366,31 @@
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10">
-        <f t="shared" ref="S36:S38" si="21">F36</f>
+      <c r="O36" s="10">
+        <f>F36</f>
         <v>46.728000000000002</v>
       </c>
+      <c r="P36" s="10">
+        <v>52.509</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>53.405999999999999</v>
+      </c>
+      <c r="R36" s="10">
+        <v>61.710999999999999</v>
+      </c>
+      <c r="S36" s="148">
+        <f>G36</f>
+        <v>88.974999999999994</v>
+      </c>
       <c r="T36" s="10">
-        <v>52.509</v>
-      </c>
-      <c r="U36" s="10">
-        <v>53.405999999999999</v>
-      </c>
-      <c r="V36" s="10">
-        <v>61.710999999999999</v>
-      </c>
-      <c r="W36" s="15">
-        <f t="shared" ref="W36:W38" si="22">G36</f>
-        <v>88.974999999999994</v>
-      </c>
+        <v>76.421000000000006</v>
+      </c>
+      <c r="U36" s="15">
+        <v>77.721999999999994</v>
+      </c>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -15343,27 +15412,31 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10">
-        <f t="shared" si="21"/>
+      <c r="O37" s="10">
+        <f>F37</f>
         <v>35.040999999999997</v>
       </c>
+      <c r="P37" s="10">
+        <v>40.137</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>42.72</v>
+      </c>
+      <c r="R37" s="10">
+        <v>46.124000000000002</v>
+      </c>
+      <c r="S37" s="148">
+        <f>G37</f>
+        <v>53.930999999999997</v>
+      </c>
       <c r="T37" s="10">
-        <v>40.137</v>
-      </c>
-      <c r="U37" s="10">
-        <v>42.72</v>
-      </c>
-      <c r="V37" s="10">
-        <v>46.124000000000002</v>
-      </c>
-      <c r="W37" s="15">
-        <f t="shared" si="22"/>
-        <v>53.930999999999997</v>
-      </c>
+        <v>60.396999999999998</v>
+      </c>
+      <c r="U37" s="15">
+        <v>63.284999999999997</v>
+      </c>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -15385,27 +15458,31 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10">
-        <f t="shared" si="21"/>
+      <c r="O38" s="10">
+        <f>F38</f>
         <v>7.234</v>
       </c>
+      <c r="P38" s="10">
+        <v>7.4969999999999999</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>10.15</v>
+      </c>
+      <c r="R38" s="10">
+        <v>9.5329999999999995</v>
+      </c>
+      <c r="S38" s="148">
+        <f>G38</f>
+        <v>7.282</v>
+      </c>
       <c r="T38" s="10">
-        <v>7.4969999999999999</v>
-      </c>
-      <c r="U38" s="10">
-        <v>10.15</v>
-      </c>
-      <c r="V38" s="10">
-        <v>9.5329999999999995</v>
-      </c>
-      <c r="W38" s="15">
-        <f t="shared" si="22"/>
-        <v>7.282</v>
-      </c>
+        <v>10.747</v>
+      </c>
+      <c r="U38" s="15">
+        <v>12.317</v>
+      </c>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -15432,52 +15509,52 @@
         <v>897.79800000000012</v>
       </c>
       <c r="L39" s="11">
-        <f t="shared" ref="L39:W39" si="23">SUM(L35:L38)</f>
+        <f t="shared" ref="L39:S39" si="21">SUM(L35:L38)</f>
         <v>0</v>
       </c>
       <c r="M39" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N39" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O39" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
+        <v>697.18299999999988</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" si="21"/>
+        <v>741.23400000000004</v>
+      </c>
+      <c r="Q39" s="11">
+        <f t="shared" si="21"/>
+        <v>784.94099999999992</v>
+      </c>
+      <c r="R39" s="11">
+        <f t="shared" si="21"/>
+        <v>819.10500000000002</v>
+      </c>
+      <c r="S39" s="147">
+        <f t="shared" si="21"/>
+        <v>897.79800000000012</v>
+      </c>
+      <c r="T39" s="11">
+        <f t="shared" ref="T39:W39" si="22">SUM(T35:T38)</f>
+        <v>977.27800000000002</v>
+      </c>
+      <c r="U39" s="14">
+        <f t="shared" si="22"/>
+        <v>1041.5640000000001</v>
+      </c>
+      <c r="V39" s="11">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="P39" s="11">
-        <f t="shared" si="23"/>
+      <c r="W39" s="11">
+        <f t="shared" si="22"/>
         <v>0</v>
-      </c>
-      <c r="Q39" s="11">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="11">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="11">
-        <f t="shared" si="23"/>
-        <v>697.18299999999988</v>
-      </c>
-      <c r="T39" s="11">
-        <f t="shared" si="23"/>
-        <v>741.23400000000004</v>
-      </c>
-      <c r="U39" s="11">
-        <f t="shared" si="23"/>
-        <v>784.94099999999992</v>
-      </c>
-      <c r="V39" s="11">
-        <f t="shared" si="23"/>
-        <v>819.10500000000002</v>
-      </c>
-      <c r="W39" s="14">
-        <f t="shared" si="23"/>
-        <v>897.79800000000012</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
@@ -15502,11 +15579,15 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
+      <c r="S40" s="148"/>
+      <c r="T40" s="10">
+        <v>13.209</v>
+      </c>
+      <c r="U40" s="15">
+        <v>18.343</v>
+      </c>
       <c r="V40" s="10"/>
-      <c r="W40" s="15"/>
+      <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -15528,11 +15609,15 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
+      <c r="S41" s="148"/>
+      <c r="T41" s="10">
+        <v>4.05</v>
+      </c>
+      <c r="U41" s="15">
+        <v>4.05</v>
+      </c>
       <c r="V41" s="10"/>
-      <c r="W41" s="15"/>
+      <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -15556,11 +15641,15 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
+      <c r="S42" s="148"/>
+      <c r="T42" s="10">
+        <v>18.594999999999999</v>
+      </c>
+      <c r="U42" s="15">
+        <v>20.585999999999999</v>
+      </c>
       <c r="V42" s="10"/>
-      <c r="W42" s="15"/>
+      <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -15584,11 +15673,15 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
+      <c r="S43" s="148"/>
+      <c r="T43" s="10">
+        <v>49.784999999999997</v>
+      </c>
+      <c r="U43" s="15">
+        <v>49.76</v>
+      </c>
       <c r="V43" s="10"/>
-      <c r="W43" s="15"/>
+      <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -15610,11 +15703,17 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
+      <c r="S44" s="148"/>
+      <c r="T44" s="10">
+        <f>2.735+0.766</f>
+        <v>3.5009999999999999</v>
+      </c>
+      <c r="U44" s="15">
+        <f>2.735+0.835</f>
+        <v>3.57</v>
+      </c>
       <c r="V44" s="10"/>
-      <c r="W44" s="15"/>
+      <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -15636,27 +15735,31 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10">
+      <c r="O45" s="10">
         <f>F45</f>
         <v>1.5069999999999999</v>
       </c>
-      <c r="T45" s="10">
+      <c r="P45" s="10">
         <v>49.145000000000003</v>
       </c>
-      <c r="U45" s="10">
+      <c r="Q45" s="10">
         <v>49.862000000000002</v>
       </c>
-      <c r="V45" s="10">
+      <c r="R45" s="10">
         <v>51.609000000000002</v>
       </c>
-      <c r="W45" s="15">
+      <c r="S45" s="148">
         <f>G45</f>
         <v>56.158999999999999</v>
       </c>
+      <c r="T45" s="10">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="U45" s="15">
+        <v>1.57</v>
+      </c>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
@@ -15683,52 +15786,52 @@
         <v>953.95700000000011</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" ref="L46:W46" si="24">SUM(L39:L45)</f>
+        <f t="shared" ref="L46:S46" si="23">SUM(L39:L45)</f>
         <v>0</v>
       </c>
       <c r="M46" s="11">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <f t="shared" si="23"/>
+        <v>698.68999999999983</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="23"/>
+        <v>790.37900000000002</v>
+      </c>
+      <c r="Q46" s="11">
+        <f t="shared" si="23"/>
+        <v>834.80299999999988</v>
+      </c>
+      <c r="R46" s="11">
+        <f t="shared" si="23"/>
+        <v>870.71400000000006</v>
+      </c>
+      <c r="S46" s="147">
+        <f t="shared" si="23"/>
+        <v>953.95700000000011</v>
+      </c>
+      <c r="T46" s="11">
+        <f t="shared" ref="T46:W46" si="24">SUM(T39:T45)</f>
+        <v>1068.6669999999999</v>
+      </c>
+      <c r="U46" s="14">
+        <f t="shared" si="24"/>
+        <v>1139.443</v>
+      </c>
+      <c r="V46" s="11">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="N46" s="11">
+      <c r="W46" s="11">
         <f t="shared" si="24"/>
         <v>0</v>
-      </c>
-      <c r="O46" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="11">
-        <f t="shared" si="24"/>
-        <v>698.68999999999983</v>
-      </c>
-      <c r="T46" s="11">
-        <f t="shared" si="24"/>
-        <v>790.37900000000002</v>
-      </c>
-      <c r="U46" s="11">
-        <f t="shared" si="24"/>
-        <v>834.80299999999988</v>
-      </c>
-      <c r="V46" s="11">
-        <f t="shared" si="24"/>
-        <v>870.71400000000006</v>
-      </c>
-      <c r="W46" s="14">
-        <f t="shared" si="24"/>
-        <v>953.95700000000011</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -15751,27 +15854,31 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10">
-        <f t="shared" ref="S47:S50" si="25">F47</f>
+      <c r="O47" s="10">
+        <f>F47</f>
         <v>1.177</v>
       </c>
+      <c r="P47" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="R47" s="10">
+        <v>2.7120000000000002</v>
+      </c>
+      <c r="S47" s="148">
+        <f>G47</f>
+        <v>2.4470000000000001</v>
+      </c>
       <c r="T47" s="10">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="U47" s="10">
-        <v>2.3050000000000002</v>
-      </c>
-      <c r="V47" s="10">
-        <v>2.7120000000000002</v>
-      </c>
-      <c r="W47" s="15">
-        <f t="shared" ref="W47:W50" si="26">G47</f>
-        <v>2.4470000000000001</v>
-      </c>
+        <v>2.625</v>
+      </c>
+      <c r="U47" s="15">
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -15793,29 +15900,33 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10">
-        <f t="shared" si="25"/>
+      <c r="O48" s="10">
+        <f>F48</f>
         <v>157.55000000000001</v>
       </c>
+      <c r="P48" s="10">
+        <v>181.94200000000001</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>192.75299999999999</v>
+      </c>
+      <c r="R48" s="10">
+        <v>208.88800000000001</v>
+      </c>
+      <c r="S48" s="148">
+        <f>G48</f>
+        <v>249.19200000000001</v>
+      </c>
       <c r="T48" s="10">
-        <v>181.94200000000001</v>
-      </c>
-      <c r="U48" s="10">
-        <v>192.75299999999999</v>
-      </c>
-      <c r="V48" s="10">
-        <v>208.88800000000001</v>
-      </c>
-      <c r="W48" s="15">
-        <f t="shared" si="26"/>
-        <v>249.19200000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+        <v>279.31299999999999</v>
+      </c>
+      <c r="U48" s="15">
+        <v>291.47699999999998</v>
+      </c>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>20</v>
       </c>
@@ -15837,13 +15948,17 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
+      <c r="S49" s="148"/>
+      <c r="T49" s="10">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="U49" s="15">
+        <v>3.7999999999999999E-2</v>
+      </c>
       <c r="V49" s="10"/>
-      <c r="W49" s="15"/>
-    </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W49" s="10"/>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>162</v>
       </c>
@@ -15863,29 +15978,33 @@
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10">
-        <f t="shared" si="25"/>
+      <c r="O50" s="10">
+        <f>F50</f>
         <v>21.97</v>
       </c>
+      <c r="P50" s="10">
+        <v>19.885000000000002</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>22.047999999999998</v>
+      </c>
+      <c r="R50" s="10">
+        <v>23.334</v>
+      </c>
+      <c r="S50" s="148">
+        <f>G50</f>
+        <v>25.722999999999999</v>
+      </c>
       <c r="T50" s="10">
-        <v>19.885000000000002</v>
-      </c>
-      <c r="U50" s="10">
-        <v>22.047999999999998</v>
-      </c>
-      <c r="V50" s="10">
-        <v>23.334</v>
-      </c>
-      <c r="W50" s="15">
-        <f t="shared" si="26"/>
-        <v>25.722999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21.422000000000001</v>
+      </c>
+      <c r="U50" s="15">
+        <v>22.803999999999998</v>
+      </c>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+    </row>
+    <row r="51" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>65</v>
       </c>
@@ -15910,57 +16029,55 @@
         <v>277.36200000000002</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" ref="L51:W51" si="27">SUM(L47:L50)</f>
+        <f t="shared" ref="L51:S51" si="25">SUM(L47:L50)</f>
         <v>0</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N51" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O51" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
+        <v>180.697</v>
+      </c>
+      <c r="P51" s="11">
+        <f t="shared" si="25"/>
+        <v>202.81299999999999</v>
+      </c>
+      <c r="Q51" s="11">
+        <f t="shared" si="25"/>
+        <v>217.10599999999999</v>
+      </c>
+      <c r="R51" s="11">
+        <f t="shared" si="25"/>
+        <v>234.934</v>
+      </c>
+      <c r="S51" s="147">
+        <f t="shared" si="25"/>
+        <v>277.36200000000002</v>
+      </c>
+      <c r="T51" s="11">
+        <f t="shared" ref="T51:W51" si="26">SUM(T47:T50)</f>
+        <v>303.72200000000004</v>
+      </c>
+      <c r="U51" s="14">
+        <f t="shared" si="26"/>
+        <v>317.72399999999993</v>
+      </c>
+      <c r="V51" s="11">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P51" s="11">
-        <f t="shared" si="27"/>
+      <c r="W51" s="11">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="11">
-        <f t="shared" si="27"/>
-        <v>180.697</v>
-      </c>
-      <c r="T51" s="11">
-        <f t="shared" si="27"/>
-        <v>202.81299999999999</v>
-      </c>
-      <c r="U51" s="11">
-        <f t="shared" si="27"/>
-        <v>217.10599999999999</v>
-      </c>
-      <c r="V51" s="11">
-        <f t="shared" si="27"/>
-        <v>234.934</v>
-      </c>
-      <c r="W51" s="14">
-        <f t="shared" si="27"/>
-        <v>277.36200000000002</v>
-      </c>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-    </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>158</v>
       </c>
@@ -15980,29 +16097,33 @@
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10">
+      <c r="O52" s="10">
         <f>F52</f>
         <v>23.503</v>
       </c>
-      <c r="T52" s="10">
+      <c r="P52" s="10">
         <v>22.378</v>
       </c>
-      <c r="U52" s="10">
+      <c r="Q52" s="10">
         <v>21.292000000000002</v>
       </c>
-      <c r="V52" s="10">
+      <c r="R52" s="10">
         <v>20.960999999999999</v>
       </c>
-      <c r="W52" s="15">
+      <c r="S52" s="148">
         <f>G52</f>
         <v>21.094000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T52" s="10">
+        <v>53.893000000000001</v>
+      </c>
+      <c r="U52" s="15">
+        <v>54.774999999999999</v>
+      </c>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>29</v>
       </c>
@@ -16027,55 +16148,55 @@
         <v>298.45600000000002</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" ref="L53:W53" si="28">SUM(L51:L52)</f>
+        <f t="shared" ref="L53:S53" si="27">SUM(L51:L52)</f>
         <v>0</v>
       </c>
       <c r="M53" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="11">
+        <f t="shared" si="27"/>
+        <v>204.2</v>
+      </c>
+      <c r="P53" s="11">
+        <f t="shared" si="27"/>
+        <v>225.19099999999997</v>
+      </c>
+      <c r="Q53" s="11">
+        <f t="shared" si="27"/>
+        <v>238.398</v>
+      </c>
+      <c r="R53" s="11">
+        <f t="shared" si="27"/>
+        <v>255.89499999999998</v>
+      </c>
+      <c r="S53" s="147">
+        <f t="shared" si="27"/>
+        <v>298.45600000000002</v>
+      </c>
+      <c r="T53" s="11">
+        <f t="shared" ref="T53:W53" si="28">SUM(T51:T52)</f>
+        <v>357.61500000000001</v>
+      </c>
+      <c r="U53" s="14">
+        <f t="shared" si="28"/>
+        <v>372.49899999999991</v>
+      </c>
+      <c r="V53" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N53" s="11">
+      <c r="W53" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O53" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="11">
-        <f t="shared" si="28"/>
-        <v>204.2</v>
-      </c>
-      <c r="T53" s="11">
-        <f t="shared" si="28"/>
-        <v>225.19099999999997</v>
-      </c>
-      <c r="U53" s="11">
-        <f t="shared" si="28"/>
-        <v>238.398</v>
-      </c>
-      <c r="V53" s="11">
-        <f t="shared" si="28"/>
-        <v>255.89499999999998</v>
-      </c>
-      <c r="W53" s="14">
-        <f t="shared" si="28"/>
-        <v>298.45600000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>80</v>
       </c>
@@ -16099,42 +16220,61 @@
         <f>G46-G53</f>
         <v>655.50100000000009</v>
       </c>
-      <c r="S54" s="10">
+      <c r="O54" s="10">
+        <f>O46-O53</f>
+        <v>494.48999999999984</v>
+      </c>
+      <c r="P54" s="10">
+        <f>P46-P53</f>
+        <v>565.1880000000001</v>
+      </c>
+      <c r="Q54" s="10">
+        <f>Q46-Q53</f>
+        <v>596.40499999999986</v>
+      </c>
+      <c r="R54" s="10">
+        <f>R46-R53</f>
+        <v>614.81900000000007</v>
+      </c>
+      <c r="S54" s="148">
         <f>S46-S53</f>
-        <v>494.48999999999984</v>
+        <v>655.50100000000009</v>
       </c>
       <c r="T54" s="10">
-        <f>T46-T53</f>
-        <v>565.1880000000001</v>
-      </c>
-      <c r="U54" s="10">
-        <f>U46-U53</f>
-        <v>596.40499999999986</v>
+        <f t="shared" ref="T54:W54" si="29">T46-T53</f>
+        <v>711.05199999999991</v>
+      </c>
+      <c r="U54" s="15">
+        <f t="shared" si="29"/>
+        <v>766.94400000000007</v>
       </c>
       <c r="V54" s="10">
-        <f>V46-V53</f>
-        <v>614.81900000000007</v>
-      </c>
-      <c r="W54" s="15">
-        <f>W46-W53</f>
-        <v>655.50100000000009</v>
-      </c>
-    </row>
-    <row r="56" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="54"/>
-      <c r="W56" s="16"/>
-    </row>
-    <row r="74" spans="7:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G74" s="42"/>
-      <c r="W74" s="42"/>
-    </row>
-    <row r="75" spans="7:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="10">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="S56" s="152"/>
+      <c r="U56" s="16"/>
+    </row>
+    <row r="74" spans="7:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="41"/>
+      <c r="S74" s="153"/>
+      <c r="U74" s="41"/>
+    </row>
+    <row r="75" spans="7:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G75" s="16"/>
-      <c r="W75" s="16"/>
+      <c r="S75" s="152"/>
+      <c r="U75" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16154,7 +16294,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16175,13 +16315,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16189,7 +16329,7 @@
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -16238,8 +16378,14 @@
       <c r="T1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -16267,8 +16413,14 @@
       <c r="T2">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>31.4</v>
+      </c>
+      <c r="V2">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -16296,8 +16448,14 @@
       <c r="T3">
         <v>88.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>97.6</v>
+      </c>
+      <c r="V3">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -16325,116 +16483,152 @@
       <c r="T4">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="124" t="s">
+      <c r="U4">
+        <v>7.4</v>
+      </c>
+      <c r="V4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125">
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="N5" s="125">
+      <c r="N5" s="122">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="O5" s="125">
+      <c r="O5" s="122">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="P5" s="125">
+      <c r="P5" s="122">
         <v>7.8E-2</v>
       </c>
-      <c r="Q5" s="125">
+      <c r="Q5" s="122">
         <v>0.08</v>
       </c>
-      <c r="R5" s="125">
+      <c r="R5" s="122">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="S5" s="125">
+      <c r="S5" s="122">
         <v>0.08</v>
       </c>
-      <c r="T5" s="125">
+      <c r="T5" s="122">
         <v>8.3000000000000004E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="122">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="V5" s="122">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="126">
+      <c r="Q7" s="123">
         <f t="shared" ref="Q7:R7" si="0">Q2/M2-1</f>
         <v>0.62400000000000011</v>
       </c>
-      <c r="R7" s="126">
+      <c r="R7" s="123">
         <f t="shared" si="0"/>
         <v>0.6212121212121211</v>
       </c>
-      <c r="S7" s="126">
+      <c r="S7" s="123">
         <f t="shared" ref="S7:T9" si="1">S2/O2-1</f>
         <v>0.62416107382550323</v>
       </c>
-      <c r="T7" s="126">
+      <c r="T7" s="123">
         <f t="shared" si="1"/>
         <v>0.65030674846625747</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="123">
+        <f t="shared" ref="U7:U9" si="2">U2/Q2-1</f>
+        <v>0.54679802955665013</v>
+      </c>
+      <c r="V7" s="123">
+        <f t="shared" ref="V7:V9" si="3">V2/R2-1</f>
+        <v>0.59345794392523388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>143</v>
       </c>
-      <c r="Q8" s="126">
-        <f t="shared" ref="Q8:R8" si="2">Q3/M3-1</f>
+      <c r="Q8" s="123">
+        <f t="shared" ref="Q8:R8" si="4">Q3/M3-1</f>
         <v>0.47560975609756073</v>
       </c>
-      <c r="R8" s="126">
-        <f t="shared" si="2"/>
+      <c r="R8" s="123">
+        <f t="shared" si="4"/>
         <v>0.49696969696969684</v>
       </c>
-      <c r="S8" s="126">
+      <c r="S8" s="123">
         <f t="shared" si="1"/>
         <v>0.47079646017699095</v>
       </c>
-      <c r="T8" s="126">
+      <c r="T8" s="123">
         <f t="shared" si="1"/>
         <v>0.45634266886326191</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="123">
+        <f t="shared" si="2"/>
+        <v>0.34435261707988984</v>
+      </c>
+      <c r="V8" s="123">
+        <f t="shared" si="3"/>
+        <v>0.3981106612685561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>144</v>
       </c>
-      <c r="Q9" s="126">
-        <f t="shared" ref="Q9:R9" si="3">Q4/M4-1</f>
+      <c r="Q9" s="123">
+        <f t="shared" ref="Q9:R9" si="5">Q4/M4-1</f>
         <v>0.65517241379310343</v>
       </c>
-      <c r="R9" s="126">
-        <f t="shared" si="3"/>
+      <c r="R9" s="123">
+        <f t="shared" si="5"/>
         <v>0.57575757575757591</v>
       </c>
-      <c r="S9" s="126">
+      <c r="S9" s="123">
         <f t="shared" si="1"/>
         <v>0.56756756756756754</v>
       </c>
-      <c r="T9" s="126">
+      <c r="T9" s="123">
         <f t="shared" si="1"/>
         <v>0.57142857142857117</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="127" t="s">
+      <c r="U9" s="123">
+        <f t="shared" si="2"/>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="V9" s="123">
+        <f t="shared" si="3"/>
+        <v>0.53846153846153832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="124" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -16462,8 +16656,14 @@
       <c r="T13">
         <v>157.80000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>167.6</v>
+      </c>
+      <c r="V13">
+        <v>178.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -16491,86 +16691,116 @@
       <c r="T14">
         <v>191</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>197.5</v>
+      </c>
+      <c r="V14">
+        <v>190.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126">
-        <f t="shared" ref="M16:T16" si="4">M13/M14</f>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123">
+        <f t="shared" ref="M16:T16" si="6">M13/M14</f>
         <v>0.76885406464250738</v>
       </c>
-      <c r="N16" s="126">
-        <f t="shared" si="4"/>
+      <c r="N16" s="123">
+        <f t="shared" si="6"/>
         <v>0.7599999999999999</v>
       </c>
-      <c r="O16" s="126">
-        <f t="shared" si="4"/>
+      <c r="O16" s="123">
+        <f t="shared" si="6"/>
         <v>0.76825705939629996</v>
       </c>
-      <c r="P16" s="126">
-        <f t="shared" si="4"/>
+      <c r="P16" s="123">
+        <f t="shared" si="6"/>
         <v>0.793512658227848</v>
       </c>
-      <c r="Q16" s="126">
-        <f t="shared" si="4"/>
+      <c r="Q16" s="123">
+        <f t="shared" si="6"/>
         <v>0.7858672376873661</v>
       </c>
-      <c r="R16" s="126">
-        <f t="shared" si="4"/>
+      <c r="R16" s="123">
+        <f t="shared" si="6"/>
         <v>0.77309090909090905</v>
       </c>
-      <c r="S16" s="126">
-        <f t="shared" si="4"/>
+      <c r="S16" s="123">
+        <f t="shared" si="6"/>
         <v>0.78971354166666663</v>
       </c>
-      <c r="T16" s="126">
-        <f t="shared" si="4"/>
+      <c r="T16" s="123">
+        <f t="shared" si="6"/>
         <v>0.8261780104712042</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="123">
+        <f t="shared" ref="U16:V16" si="7">U13/U14</f>
+        <v>0.84860759493670879</v>
+      </c>
+      <c r="V16" s="123">
+        <f t="shared" si="7"/>
+        <v>0.9379274066280906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>149</v>
       </c>
-      <c r="Q17" s="126">
-        <f t="shared" ref="Q17:T18" si="5">Q13/M13-1</f>
+      <c r="Q17" s="123">
+        <f t="shared" ref="Q17:T18" si="8">Q13/M13-1</f>
         <v>0.40254777070063685</v>
       </c>
-      <c r="R17" s="126">
-        <f t="shared" si="5"/>
+      <c r="R17" s="123">
+        <f t="shared" si="8"/>
         <v>0.43454790823211886</v>
       </c>
-      <c r="S17" s="126">
-        <f t="shared" si="5"/>
+      <c r="S17" s="123">
+        <f t="shared" si="8"/>
         <v>0.53738910012674257</v>
       </c>
-      <c r="T17" s="126">
-        <f t="shared" si="5"/>
+      <c r="T17" s="123">
+        <f t="shared" si="8"/>
         <v>0.57328015952143585</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="123">
+        <f t="shared" ref="U17:U18" si="9">U13/Q13-1</f>
+        <v>0.52225249772933702</v>
+      </c>
+      <c r="V17" s="123">
+        <f t="shared" ref="V17:V18" si="10">V13/R13-1</f>
+        <v>0.67732831608654775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>150</v>
       </c>
-      <c r="Q18" s="126">
-        <f t="shared" si="5"/>
+      <c r="Q18" s="123">
+        <f t="shared" si="8"/>
         <v>0.37218413320274246</v>
       </c>
-      <c r="R18" s="126">
-        <f t="shared" si="5"/>
+      <c r="R18" s="123">
+        <f t="shared" si="8"/>
         <v>0.41025641025641035</v>
       </c>
-      <c r="S18" s="126">
-        <f t="shared" si="5"/>
+      <c r="S18" s="123">
+        <f t="shared" si="8"/>
         <v>0.49561830574488797</v>
       </c>
-      <c r="T18" s="126">
-        <f t="shared" si="5"/>
+      <c r="T18" s="123">
+        <f t="shared" si="8"/>
         <v>0.51107594936708844</v>
+      </c>
+      <c r="U18" s="123">
+        <f t="shared" si="9"/>
+        <v>0.4097073518915062</v>
+      </c>
+      <c r="V18" s="123">
+        <f t="shared" si="10"/>
+        <v>0.38254545454545452</v>
       </c>
     </row>
   </sheetData>
@@ -25519,14 +25749,14 @@
       <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="138" t="s">
+      <c r="H1" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="140"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="138"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -25535,16 +25765,16 @@
       <c r="C2" s="18">
         <v>216.38</v>
       </c>
-      <c r="D2" s="126">
+      <c r="D2" s="123">
         <f>C2/C3-1</f>
         <v>0.11157914082853915</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
@@ -25553,26 +25783,26 @@
       <c r="C3" s="18">
         <v>194.66000399999999</v>
       </c>
-      <c r="D3" s="126">
+      <c r="D3" s="123">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>-7.7615568343958441E-2</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="65" t="s">
         <v>100</v>
       </c>
     </row>
@@ -25583,31 +25813,31 @@
       <c r="C4" s="18">
         <v>211.03999300000001</v>
       </c>
-      <c r="D4" s="126">
+      <c r="D4" s="123">
         <f t="shared" si="0"/>
         <v>-1.8464267207670915E-2</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="66">
         <f>$I$19-3*$I$23</f>
         <v>-0.26958302426293923</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="67">
         <f>H4</f>
         <v>-0.26958302426293923</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="68">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="71" t="str">
+      <c r="K4" s="68" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>Less than -26,96%</v>
       </c>
-      <c r="L4" s="72">
+      <c r="L4" s="69">
         <f>J4/$I$31</f>
         <v>0</v>
       </c>
-      <c r="M4" s="73">
+      <c r="M4" s="70">
         <f>L4</f>
         <v>0</v>
       </c>
@@ -25619,31 +25849,31 @@
       <c r="C5" s="18">
         <v>215.009995</v>
       </c>
-      <c r="D5" s="126">
+      <c r="D5" s="123">
         <f t="shared" si="0"/>
         <v>-2.5251640898978689E-2</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="71">
         <f>$I$19-2.4*$I$23</f>
         <v>-0.21426380716784171</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="72">
         <f>H5</f>
         <v>-0.21426380716784171</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="73">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="77" t="str">
+      <c r="K5" s="74" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>-26,96% to -21,43%</v>
       </c>
-      <c r="L5" s="78">
+      <c r="L5" s="75">
         <f>J5/$I$31</f>
         <v>0</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="76">
         <f>M4+L5</f>
         <v>0</v>
       </c>
@@ -25655,31 +25885,31 @@
       <c r="C6" s="18">
         <v>220.58000200000001</v>
       </c>
-      <c r="D6" s="126">
+      <c r="D6" s="123">
         <f t="shared" si="0"/>
         <v>-4.9592805370206494E-2</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="71">
         <f>$I$19-1.8*$I$23</f>
         <v>-0.15894459007274417</v>
       </c>
-      <c r="I6" s="75">
+      <c r="I6" s="72">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>-0.15894459007274417</v>
       </c>
-      <c r="J6" s="76">
+      <c r="J6" s="73">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="77" t="str">
+      <c r="K6" s="74" t="str">
         <f t="shared" si="1"/>
         <v>-21,43% to -15,89%</v>
       </c>
-      <c r="L6" s="78">
+      <c r="L6" s="75">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>1.3986013986013986E-2</v>
       </c>
-      <c r="M6" s="79">
+      <c r="M6" s="76">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>1.3986013986013986E-2</v>
       </c>
@@ -25691,31 +25921,31 @@
       <c r="C7" s="18">
         <v>232.08999600000001</v>
       </c>
-      <c r="D7" s="126">
+      <c r="D7" s="123">
         <f t="shared" si="0"/>
         <v>7.2802072160526476E-2</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="71">
         <f>$I$19-1.2*$I$23</f>
         <v>-0.10362537297764662</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="72">
         <f t="shared" si="2"/>
         <v>-0.10362537297764662</v>
       </c>
-      <c r="J7" s="76">
+      <c r="J7" s="73">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K7" s="77" t="str">
+      <c r="K7" s="74" t="str">
         <f t="shared" si="1"/>
         <v>-15,89% to -10,36%</v>
       </c>
-      <c r="L7" s="78">
+      <c r="L7" s="75">
         <f t="shared" si="4"/>
         <v>5.5944055944055944E-2</v>
       </c>
-      <c r="M7" s="79">
+      <c r="M7" s="76">
         <f t="shared" si="5"/>
         <v>6.9930069930069935E-2</v>
       </c>
@@ -25727,31 +25957,31 @@
       <c r="C8" s="18">
         <v>216.33999600000001</v>
       </c>
-      <c r="D8" s="126">
+      <c r="D8" s="123">
         <f t="shared" si="0"/>
         <v>1.3159729373669826E-2</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="71">
         <f>$I$19-0.6*$I$23</f>
         <v>-4.8306155882549093E-2</v>
       </c>
-      <c r="I8" s="75">
+      <c r="I8" s="72">
         <f t="shared" si="2"/>
         <v>-4.8306155882549093E-2</v>
       </c>
-      <c r="J8" s="76">
+      <c r="J8" s="73">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="K8" s="77" t="str">
+      <c r="K8" s="74" t="str">
         <f t="shared" si="1"/>
         <v>-10,36% to -4,83%</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="75">
         <f t="shared" si="4"/>
         <v>0.16783216783216784</v>
       </c>
-      <c r="M8" s="79">
+      <c r="M8" s="76">
         <f t="shared" si="5"/>
         <v>0.23776223776223776</v>
       </c>
@@ -25763,31 +25993,31 @@
       <c r="C9" s="18">
         <v>213.529999</v>
       </c>
-      <c r="D9" s="126">
+      <c r="D9" s="123">
         <f t="shared" si="0"/>
         <v>-9.7086580889539031E-2</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="71">
         <f>$I$19</f>
         <v>7.0130612125484468E-3</v>
       </c>
-      <c r="I9" s="75">
+      <c r="I9" s="72">
         <f t="shared" si="2"/>
         <v>7.0130612125484468E-3</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="73">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="K9" s="77" t="str">
+      <c r="K9" s="74" t="str">
         <f t="shared" si="1"/>
         <v>-4,83% to 0,70%</v>
       </c>
-      <c r="L9" s="78">
+      <c r="L9" s="75">
         <f t="shared" si="4"/>
         <v>0.30069930069930068</v>
       </c>
-      <c r="M9" s="79">
+      <c r="M9" s="76">
         <f t="shared" si="5"/>
         <v>0.53846153846153844</v>
       </c>
@@ -25799,31 +26029,31 @@
       <c r="C10" s="18">
         <v>236.490005</v>
       </c>
-      <c r="D10" s="126">
+      <c r="D10" s="123">
         <f t="shared" si="0"/>
         <v>0.33512108803926233</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="71">
         <f>$I$19+0.6*$I$23</f>
         <v>6.2332278307645983E-2</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="72">
         <f t="shared" si="2"/>
         <v>6.2332278307645983E-2</v>
       </c>
-      <c r="J10" s="76">
+      <c r="J10" s="73">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="K10" s="77" t="str">
+      <c r="K10" s="74" t="str">
         <f t="shared" si="1"/>
         <v>0,70% to 6,23%</v>
       </c>
-      <c r="L10" s="78">
+      <c r="L10" s="75">
         <f t="shared" si="4"/>
         <v>0.20279720279720279</v>
       </c>
-      <c r="M10" s="79">
+      <c r="M10" s="76">
         <f t="shared" si="5"/>
         <v>0.74125874125874125</v>
       </c>
@@ -25835,31 +26065,31 @@
       <c r="C11" s="18">
         <v>177.13000500000001</v>
       </c>
-      <c r="D11" s="126">
+      <c r="D11" s="123">
         <f t="shared" si="0"/>
         <v>-4.2022656853087703E-2</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="71">
         <f>$I$19+1.2*$I$23</f>
         <v>0.11765149540274353</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="72">
         <f t="shared" si="2"/>
         <v>0.11765149540274353</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="73">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="K11" s="77" t="str">
+      <c r="K11" s="74" t="str">
         <f t="shared" si="1"/>
         <v>6,23% to 11,77%</v>
       </c>
-      <c r="L11" s="78">
+      <c r="L11" s="75">
         <f t="shared" si="4"/>
         <v>0.19580419580419581</v>
       </c>
-      <c r="M11" s="79">
+      <c r="M11" s="76">
         <f t="shared" si="5"/>
         <v>0.93706293706293708</v>
       </c>
@@ -25871,31 +26101,31 @@
       <c r="C12" s="18">
         <v>184.89999399999999</v>
       </c>
-      <c r="D12" s="126">
+      <c r="D12" s="123">
         <f t="shared" si="0"/>
         <v>-3.5673364043147915E-2</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="71">
         <f>$I$19+1.8*$I$23</f>
         <v>0.17297071249784104</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="72">
         <f t="shared" si="2"/>
         <v>0.17297071249784104</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="73">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K12" s="77" t="str">
+      <c r="K12" s="74" t="str">
         <f t="shared" si="1"/>
         <v>11,77% to 17,30%</v>
       </c>
-      <c r="L12" s="78">
+      <c r="L12" s="75">
         <f t="shared" si="4"/>
         <v>3.4965034965034968E-2</v>
       </c>
-      <c r="M12" s="79">
+      <c r="M12" s="76">
         <f t="shared" si="5"/>
         <v>0.97202797202797209</v>
       </c>
@@ -25907,31 +26137,31 @@
       <c r="C13" s="18">
         <v>191.740005</v>
       </c>
-      <c r="D13" s="126">
+      <c r="D13" s="123">
         <f t="shared" si="0"/>
         <v>7.1831885917781335E-2</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="71">
         <f>$I$19+2.4*$I$23</f>
         <v>0.22828992959293859</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I13" s="72">
         <f t="shared" si="2"/>
         <v>0.22828992959293859</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="77" t="str">
+      <c r="K13" s="74" t="str">
         <f t="shared" si="1"/>
         <v>17,30% to 22,83%</v>
       </c>
-      <c r="L13" s="78">
+      <c r="L13" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="79">
+      <c r="M13" s="76">
         <f t="shared" si="5"/>
         <v>0.97202797202797209</v>
       </c>
@@ -25943,31 +26173,31 @@
       <c r="C14" s="18">
         <v>178.88999899999999</v>
       </c>
-      <c r="D14" s="126">
+      <c r="D14" s="123">
         <f t="shared" si="0"/>
         <v>-7.2580227448702517E-2</v>
       </c>
-      <c r="H14" s="74">
+      <c r="H14" s="71">
         <f>$I$19+3*$I$23</f>
         <v>0.28360914668803616</v>
       </c>
-      <c r="I14" s="75">
+      <c r="I14" s="72">
         <f t="shared" si="2"/>
         <v>0.28360914668803616</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="77" t="str">
+      <c r="K14" s="74" t="str">
         <f t="shared" si="1"/>
         <v>22,83% to 28,36%</v>
       </c>
-      <c r="L14" s="78">
+      <c r="L14" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="79">
+      <c r="M14" s="76">
         <f t="shared" si="5"/>
         <v>0.97202797202797209</v>
       </c>
@@ -25979,27 +26209,27 @@
       <c r="C15" s="18">
         <v>192.88999899999999</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="123">
         <f t="shared" si="0"/>
         <v>-8.7872916098472587E-3</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81" t="s">
+      <c r="H15" s="77"/>
+      <c r="I15" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="81">
+      <c r="J15" s="78">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>4</v>
       </c>
-      <c r="K15" s="81" t="str">
+      <c r="K15" s="78" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>Greater than 28,36%</v>
       </c>
-      <c r="L15" s="82">
+      <c r="L15" s="79">
         <f t="shared" si="4"/>
         <v>2.7972027972027972E-2</v>
       </c>
-      <c r="M15" s="82">
+      <c r="M15" s="79">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -26011,12 +26241,12 @@
       <c r="C16" s="18">
         <v>194.60000600000001</v>
       </c>
-      <c r="D16" s="126">
+      <c r="D16" s="123">
         <f t="shared" si="0"/>
         <v>-8.2118718034968063E-2</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="M16" s="84"/>
+      <c r="H16" s="80"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
@@ -26025,15 +26255,15 @@
       <c r="C17" s="18">
         <v>212.009995</v>
       </c>
-      <c r="D17" s="126">
+      <c r="D17" s="123">
         <f t="shared" si="0"/>
         <v>3.857741295165984E-2</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="142"/>
-      <c r="M17" s="84"/>
+      <c r="I17" s="140"/>
+      <c r="M17" s="81"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
@@ -26042,13 +26272,13 @@
       <c r="C18" s="18">
         <v>204.134995</v>
       </c>
-      <c r="D18" s="126">
+      <c r="D18" s="123">
         <f t="shared" si="0"/>
         <v>-0.1001322918192914</v>
       </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="144"/>
-      <c r="M18" s="84"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
+      <c r="M18" s="81"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
@@ -26057,18 +26287,18 @@
       <c r="C19" s="18">
         <v>226.85000600000001</v>
       </c>
-      <c r="D19" s="126">
+      <c r="D19" s="123">
         <f t="shared" si="0"/>
         <v>-4.7848873032528827E-2</v>
       </c>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="122">
+      <c r="I19" s="119">
         <f>AVERAGE(D:D)</f>
         <v>7.0130612125484468E-3</v>
       </c>
-      <c r="M19" s="84"/>
+      <c r="M19" s="81"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
@@ -26077,18 +26307,18 @@
       <c r="C20" s="18">
         <v>238.25</v>
       </c>
-      <c r="D20" s="126">
+      <c r="D20" s="123">
         <f t="shared" si="0"/>
         <v>2.9202103131839241E-2</v>
       </c>
-      <c r="H20" s="85" t="s">
+      <c r="H20" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="122">
+      <c r="I20" s="119">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>7.7100422159371634E-3</v>
       </c>
-      <c r="M20" s="84"/>
+      <c r="M20" s="81"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
@@ -26097,18 +26327,18 @@
       <c r="C21" s="18">
         <v>231.490005</v>
       </c>
-      <c r="D21" s="126">
+      <c r="D21" s="123">
         <f t="shared" si="0"/>
         <v>7.795112922002323E-2</v>
       </c>
-      <c r="H21" s="85" t="s">
+      <c r="H21" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="122">
+      <c r="I21" s="119">
         <f>MEDIAN(D:D)</f>
         <v>-7.6949466757081364E-4</v>
       </c>
-      <c r="M21" s="84"/>
+      <c r="M21" s="81"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
@@ -26117,18 +26347,18 @@
       <c r="C22" s="18">
         <v>214.75</v>
       </c>
-      <c r="D22" s="126">
+      <c r="D22" s="123">
         <f t="shared" si="0"/>
         <v>6.7979230173755845E-3</v>
       </c>
-      <c r="H22" s="85" t="s">
+      <c r="H22" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="122" t="e">
+      <c r="I22" s="119" t="e">
         <f>MODE(D:D)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="84"/>
+      <c r="M22" s="81"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -26137,18 +26367,18 @@
       <c r="C23" s="18">
         <v>213.300003</v>
       </c>
-      <c r="D23" s="126">
+      <c r="D23" s="123">
         <f t="shared" si="0"/>
         <v>-3.6846399991308565E-2</v>
       </c>
-      <c r="H23" s="85" t="s">
+      <c r="H23" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="122">
+      <c r="I23" s="119">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>9.2198695158495894E-2</v>
       </c>
-      <c r="M23" s="84"/>
+      <c r="M23" s="81"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -26157,18 +26387,18 @@
       <c r="C24" s="18">
         <v>221.46000699999999</v>
       </c>
-      <c r="D24" s="126">
+      <c r="D24" s="123">
         <f t="shared" si="0"/>
         <v>4.6350169043708922E-2</v>
       </c>
-      <c r="H24" s="85" t="s">
+      <c r="H24" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="I24" s="122">
+      <c r="I24" s="119">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>8.5005993889292544E-3</v>
       </c>
-      <c r="M24" s="84"/>
+      <c r="M24" s="81"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
@@ -26177,18 +26407,18 @@
       <c r="C25" s="18">
         <v>211.64999399999999</v>
       </c>
-      <c r="D25" s="126">
+      <c r="D25" s="123">
         <f t="shared" si="0"/>
         <v>5.6727178446203119E-4</v>
       </c>
-      <c r="H25" s="85" t="s">
+      <c r="H25" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="I25" s="123">
+      <c r="I25" s="120">
         <f>KURT(D:D)</f>
         <v>3.5761692065844546</v>
       </c>
-      <c r="M25" s="84"/>
+      <c r="M25" s="81"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
@@ -26197,18 +26427,18 @@
       <c r="C26" s="18">
         <v>211.529999</v>
       </c>
-      <c r="D26" s="126">
+      <c r="D26" s="123">
         <f t="shared" si="0"/>
         <v>0.32762189383516094</v>
       </c>
-      <c r="H26" s="85" t="s">
+      <c r="H26" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="123">
+      <c r="I26" s="120">
         <f>SKEW(D:D)</f>
         <v>1.1921520470223386</v>
       </c>
-      <c r="M26" s="84"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -26217,18 +26447,18 @@
       <c r="C27" s="18">
         <v>159.33000200000001</v>
       </c>
-      <c r="D27" s="126">
+      <c r="D27" s="123">
         <f t="shared" si="0"/>
         <v>0.10977219636131941</v>
       </c>
-      <c r="H27" s="85" t="s">
+      <c r="H27" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="I27" s="122">
+      <c r="I27" s="119">
         <f>I29-I28</f>
         <v>0.57337747950199325</v>
       </c>
-      <c r="M27" s="84"/>
+      <c r="M27" s="81"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -26237,18 +26467,18 @@
       <c r="C28" s="18">
         <v>143.570007</v>
       </c>
-      <c r="D28" s="126">
+      <c r="D28" s="123">
         <f t="shared" si="0"/>
         <v>-6.548198706365993E-2</v>
       </c>
-      <c r="H28" s="85" t="s">
+      <c r="H28" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="122">
+      <c r="I28" s="119">
         <f>MIN(D:D)</f>
         <v>-0.20497463959390871</v>
       </c>
-      <c r="M28" s="84"/>
+      <c r="M28" s="81"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -26257,18 +26487,18 @@
       <c r="C29" s="18">
         <v>153.63000500000001</v>
       </c>
-      <c r="D29" s="126">
+      <c r="D29" s="123">
         <f t="shared" si="0"/>
         <v>-4.0412247080115593E-2</v>
       </c>
-      <c r="H29" s="85" t="s">
+      <c r="H29" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="122">
+      <c r="I29" s="119">
         <f>MAX(D:D)</f>
         <v>0.36840283990808453</v>
       </c>
-      <c r="M29" s="84"/>
+      <c r="M29" s="81"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -26277,18 +26507,18 @@
       <c r="C30" s="18">
         <v>160.10000600000001</v>
       </c>
-      <c r="D30" s="126">
+      <c r="D30" s="123">
         <f t="shared" si="0"/>
         <v>-2.5207007269635651E-2</v>
       </c>
-      <c r="H30" s="85" t="s">
+      <c r="H30" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="I30" s="123">
+      <c r="I30" s="120">
         <f>SUM(D:D)</f>
         <v>1.0028677533944279</v>
       </c>
-      <c r="M30" s="84"/>
+      <c r="M30" s="81"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
@@ -26297,18 +26527,18 @@
       <c r="C31" s="18">
         <v>164.240005</v>
       </c>
-      <c r="D31" s="126">
+      <c r="D31" s="123">
         <f t="shared" si="0"/>
         <v>-9.8269129386541199E-3</v>
       </c>
-      <c r="H31" s="86" t="s">
+      <c r="H31" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="60">
         <f>COUNT(D:D)</f>
         <v>143</v>
       </c>
-      <c r="M31" s="84"/>
+      <c r="M31" s="81"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
@@ -26317,12 +26547,12 @@
       <c r="C32" s="18">
         <v>165.86999499999999</v>
       </c>
-      <c r="D32" s="126">
+      <c r="D32" s="123">
         <f t="shared" si="0"/>
         <v>8.6460975783860361E-2</v>
       </c>
-      <c r="H32" s="88"/>
-      <c r="M32" s="84"/>
+      <c r="H32" s="85"/>
+      <c r="M32" s="81"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -26331,24 +26561,24 @@
       <c r="C33" s="18">
         <v>152.66999799999999</v>
       </c>
-      <c r="D33" s="126">
+      <c r="D33" s="123">
         <f t="shared" si="0"/>
         <v>-4.3001322904791195E-2</v>
       </c>
-      <c r="H33" s="89"/>
-      <c r="I33" s="90" t="s">
+      <c r="H33" s="86"/>
+      <c r="I33" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="90" t="s">
+      <c r="J33" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="K33" s="90" t="s">
+      <c r="K33" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="L33" s="91" t="s">
+      <c r="L33" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="84"/>
+      <c r="M33" s="81"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
@@ -26357,30 +26587,30 @@
       <c r="C34" s="18">
         <v>159.529999</v>
       </c>
-      <c r="D34" s="126">
+      <c r="D34" s="123">
         <f t="shared" si="0"/>
         <v>1.929591781023321E-2</v>
       </c>
-      <c r="H34" s="92" t="s">
+      <c r="H34" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="I34" s="78">
+      <c r="I34" s="75">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>7.5861524839146252E-2</v>
       </c>
-      <c r="J34" s="76">
+      <c r="J34" s="73">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>70</v>
       </c>
-      <c r="K34" s="78">
+      <c r="K34" s="75">
         <f>J34/$I$31</f>
         <v>0.48951048951048953</v>
       </c>
-      <c r="L34" s="79">
+      <c r="L34" s="76">
         <f>K34*I34</f>
         <v>3.7135012159022644E-2</v>
       </c>
-      <c r="M34" s="84"/>
+      <c r="M34" s="81"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
@@ -26389,30 +26619,30 @@
       <c r="C35" s="18">
         <v>156.509995</v>
       </c>
-      <c r="D35" s="126">
+      <c r="D35" s="123">
         <f t="shared" si="0"/>
         <v>5.0966942666760051E-2</v>
       </c>
-      <c r="H35" s="92" t="s">
+      <c r="H35" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="I35" s="78">
+      <c r="I35" s="75">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>-5.9006013497887852E-2</v>
       </c>
-      <c r="J35" s="76">
+      <c r="J35" s="73">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>73</v>
       </c>
-      <c r="K35" s="78">
+      <c r="K35" s="75">
         <f>J35/$I$31</f>
         <v>0.51048951048951052</v>
       </c>
-      <c r="L35" s="79">
+      <c r="L35" s="76">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>-3.012195094647422E-2</v>
       </c>
-      <c r="M35" s="84"/>
+      <c r="M35" s="81"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
@@ -26421,29 +26651,29 @@
       <c r="C36" s="18">
         <v>148.91999799999999</v>
       </c>
-      <c r="D36" s="126">
+      <c r="D36" s="123">
         <f t="shared" si="0"/>
         <v>0.10253935205615261</v>
       </c>
-      <c r="H36" s="93" t="s">
+      <c r="H36" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="81">
+      <c r="I36" s="78">
         <v>0</v>
       </c>
-      <c r="J36" s="81">
+      <c r="J36" s="78">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="94">
+      <c r="K36" s="91">
         <f>J36/$I$31</f>
         <v>0</v>
       </c>
-      <c r="L36" s="82">
+      <c r="L36" s="79">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" s="84"/>
+      <c r="M36" s="81"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
@@ -26452,16 +26682,16 @@
       <c r="C37" s="18">
         <v>135.070007</v>
       </c>
-      <c r="D37" s="126">
+      <c r="D37" s="123">
         <f t="shared" si="0"/>
         <v>9.0153388375247889E-2</v>
       </c>
-      <c r="H37" s="88"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="84"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="81"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
@@ -26470,26 +26700,26 @@
       <c r="C38" s="18">
         <v>123.900002</v>
       </c>
-      <c r="D38" s="126">
+      <c r="D38" s="123">
         <f t="shared" si="0"/>
         <v>-0.10741298332127347</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="I38" s="90" t="s">
+      <c r="I38" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="J38" s="90" t="s">
+      <c r="J38" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="K38" s="90" t="s">
+      <c r="K38" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="L38" s="90" t="s">
+      <c r="L38" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="M38" s="91" t="s">
+      <c r="M38" s="88" t="s">
         <v>125</v>
       </c>
     </row>
@@ -26500,30 +26730,30 @@
       <c r="C39" s="18">
         <v>138.80999800000001</v>
       </c>
-      <c r="D39" s="126">
+      <c r="D39" s="123">
         <f t="shared" si="0"/>
         <v>1.0556180761821521E-2</v>
       </c>
-      <c r="H39" s="96">
+      <c r="H39" s="93">
         <v>1</v>
       </c>
-      <c r="I39" s="78">
+      <c r="I39" s="75">
         <f>$I$19+($H39*$I$23)</f>
         <v>9.9211756371044346E-2</v>
       </c>
-      <c r="J39" s="78">
+      <c r="J39" s="75">
         <f>$I$19-($H39*$I$23)</f>
         <v>-8.5185633945947442E-2</v>
       </c>
-      <c r="K39" s="76">
+      <c r="K39" s="73">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>109</v>
       </c>
-      <c r="L39" s="78">
+      <c r="L39" s="75">
         <f>K39/$I$31</f>
         <v>0.76223776223776218</v>
       </c>
-      <c r="M39" s="79">
+      <c r="M39" s="76">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -26534,30 +26764,30 @@
       <c r="C40" s="18">
         <v>137.36000100000001</v>
       </c>
-      <c r="D40" s="126">
+      <c r="D40" s="123">
         <f t="shared" si="0"/>
         <v>-9.0090125658247922E-2</v>
       </c>
-      <c r="H40" s="96">
+      <c r="H40" s="93">
         <v>2</v>
       </c>
-      <c r="I40" s="78">
+      <c r="I40" s="75">
         <f>$I$19+($H40*$I$23)</f>
         <v>0.19141045152954023</v>
       </c>
-      <c r="J40" s="78">
+      <c r="J40" s="75">
         <f>$I$19-($H40*$I$23)</f>
         <v>-0.17738432910444335</v>
       </c>
-      <c r="K40" s="76">
+      <c r="K40" s="73">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>137</v>
       </c>
-      <c r="L40" s="78">
+      <c r="L40" s="75">
         <f>K40/$I$31</f>
         <v>0.95804195804195802</v>
       </c>
-      <c r="M40" s="79">
+      <c r="M40" s="76">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -26568,30 +26798,30 @@
       <c r="C41" s="18">
         <v>150.96000699999999</v>
       </c>
-      <c r="D41" s="126">
+      <c r="D41" s="123">
         <f t="shared" si="0"/>
         <v>9.7659331103678859E-3</v>
       </c>
-      <c r="H41" s="96">
+      <c r="H41" s="93">
         <v>3</v>
       </c>
-      <c r="I41" s="78">
+      <c r="I41" s="75">
         <f>$I$19+($H41*$I$23)</f>
         <v>0.28360914668803616</v>
       </c>
-      <c r="J41" s="78">
+      <c r="J41" s="75">
         <f>$I$19-($H41*$I$23)</f>
         <v>-0.26958302426293923</v>
       </c>
-      <c r="K41" s="76">
+      <c r="K41" s="73">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>139</v>
       </c>
-      <c r="L41" s="78">
+      <c r="L41" s="75">
         <f>K41/$I$31</f>
         <v>0.97202797202797198</v>
       </c>
-      <c r="M41" s="97">
+      <c r="M41" s="94">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -26602,12 +26832,12 @@
       <c r="C42" s="18">
         <v>149.5</v>
       </c>
-      <c r="D42" s="126">
+      <c r="D42" s="123">
         <f t="shared" si="0"/>
         <v>-6.6851717840044067E-5</v>
       </c>
-      <c r="H42" s="74"/>
-      <c r="M42" s="97"/>
+      <c r="H42" s="71"/>
+      <c r="M42" s="94"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
@@ -26616,18 +26846,18 @@
       <c r="C43" s="18">
         <v>149.509995</v>
       </c>
-      <c r="D43" s="126">
+      <c r="D43" s="123">
         <f t="shared" si="0"/>
         <v>0.1054343438077634</v>
       </c>
-      <c r="H43" s="145" t="s">
+      <c r="H43" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="147"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="144"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="145"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -26636,28 +26866,28 @@
       <c r="C44" s="18">
         <v>135.25</v>
       </c>
-      <c r="D44" s="126">
+      <c r="D44" s="123">
         <f t="shared" si="0"/>
         <v>-5.3798809937053105E-2</v>
       </c>
-      <c r="H44" s="98">
+      <c r="H44" s="95">
         <v>0.01</v>
       </c>
-      <c r="I44" s="99">
+      <c r="I44" s="96">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>-0.17625708598154247</v>
       </c>
-      <c r="J44" s="100">
+      <c r="J44" s="97">
         <v>0.2</v>
       </c>
-      <c r="K44" s="99">
+      <c r="K44" s="96">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>-6.5532251052551671E-2</v>
       </c>
-      <c r="L44" s="100">
+      <c r="L44" s="97">
         <v>0.85</v>
       </c>
-      <c r="M44" s="101">
+      <c r="M44" s="98">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>7.790344746207456E-2</v>
       </c>
@@ -26669,28 +26899,28 @@
       <c r="C45" s="18">
         <v>142.94000199999999</v>
       </c>
-      <c r="D45" s="126">
+      <c r="D45" s="123">
         <f t="shared" si="0"/>
         <v>2.0781282730709671E-2</v>
       </c>
-      <c r="H45" s="102">
+      <c r="H45" s="99">
         <v>0.02</v>
       </c>
-      <c r="I45" s="103">
+      <c r="I45" s="100">
         <f t="shared" si="7"/>
         <v>-0.14870136684728594</v>
       </c>
-      <c r="J45" s="104">
+      <c r="J45" s="101">
         <v>0.25</v>
       </c>
-      <c r="K45" s="103">
+      <c r="K45" s="100">
         <f t="shared" si="8"/>
         <v>-4.6407647425667942E-2</v>
       </c>
-      <c r="L45" s="104">
+      <c r="L45" s="101">
         <v>0.86</v>
       </c>
-      <c r="M45" s="105">
+      <c r="M45" s="102">
         <f t="shared" si="9"/>
         <v>8.1363249329655496E-2</v>
       </c>
@@ -26702,28 +26932,28 @@
       <c r="C46" s="18">
         <v>140.029999</v>
       </c>
-      <c r="D46" s="126">
+      <c r="D46" s="123">
         <f t="shared" si="0"/>
         <v>-8.3513283491020274E-2</v>
       </c>
-      <c r="H46" s="102">
+      <c r="H46" s="99">
         <v>0.03</v>
       </c>
-      <c r="I46" s="103">
+      <c r="I46" s="100">
         <f t="shared" si="7"/>
         <v>-0.1228585611805046</v>
       </c>
-      <c r="J46" s="104">
+      <c r="J46" s="101">
         <v>0.3</v>
       </c>
-      <c r="K46" s="103">
+      <c r="K46" s="100">
         <f t="shared" si="8"/>
         <v>-4.0049487554004413E-2</v>
       </c>
-      <c r="L46" s="104">
+      <c r="L46" s="101">
         <v>0.87</v>
       </c>
-      <c r="M46" s="105">
+      <c r="M46" s="102">
         <f t="shared" si="9"/>
         <v>8.8454878583209648E-2</v>
       </c>
@@ -26735,28 +26965,28 @@
       <c r="C47" s="18">
         <v>152.78999300000001</v>
       </c>
-      <c r="D47" s="126">
+      <c r="D47" s="123">
         <f t="shared" si="0"/>
         <v>-1.9445603028371061E-2</v>
       </c>
-      <c r="H47" s="102">
+      <c r="H47" s="99">
         <v>0.04</v>
       </c>
-      <c r="I47" s="103">
+      <c r="I47" s="100">
         <f t="shared" si="7"/>
         <v>-0.11898075207832921</v>
       </c>
-      <c r="J47" s="104">
+      <c r="J47" s="101">
         <v>0.35</v>
       </c>
-      <c r="K47" s="103">
+      <c r="K47" s="100">
         <f t="shared" si="8"/>
         <v>-3.3186318329401797E-2</v>
       </c>
-      <c r="L47" s="104">
+      <c r="L47" s="101">
         <v>0.88</v>
       </c>
-      <c r="M47" s="105">
+      <c r="M47" s="102">
         <f t="shared" si="9"/>
         <v>9.239283072182787E-2</v>
       </c>
@@ -26768,28 +26998,28 @@
       <c r="C48" s="18">
         <v>155.820007</v>
       </c>
-      <c r="D48" s="126">
+      <c r="D48" s="123">
         <f t="shared" si="0"/>
         <v>-7.6949466757081364E-4</v>
       </c>
-      <c r="H48" s="102">
+      <c r="H48" s="99">
         <v>0.05</v>
       </c>
-      <c r="I48" s="103">
+      <c r="I48" s="100">
         <f t="shared" si="7"/>
         <v>-0.11445520810419088</v>
       </c>
-      <c r="J48" s="104">
+      <c r="J48" s="101">
         <v>0.4</v>
       </c>
-      <c r="K48" s="103">
+      <c r="K48" s="100">
         <f t="shared" si="8"/>
         <v>-2.5279682784335612E-2</v>
       </c>
-      <c r="L48" s="104">
+      <c r="L48" s="101">
         <v>0.89</v>
       </c>
-      <c r="M48" s="105">
+      <c r="M48" s="102">
         <f t="shared" si="9"/>
         <v>9.7320570385347596E-2</v>
       </c>
@@ -26801,28 +27031,28 @@
       <c r="C49" s="18">
         <v>155.94000199999999</v>
       </c>
-      <c r="D49" s="126">
+      <c r="D49" s="123">
         <f t="shared" si="0"/>
         <v>4.5594763615359746E-2</v>
       </c>
-      <c r="H49" s="102">
+      <c r="H49" s="99">
         <v>0.06</v>
       </c>
-      <c r="I49" s="103">
+      <c r="I49" s="100">
         <f t="shared" si="7"/>
         <v>-0.10879651845152354</v>
       </c>
-      <c r="J49" s="104">
+      <c r="J49" s="101">
         <v>0.45</v>
       </c>
-      <c r="K49" s="103">
+      <c r="K49" s="100">
         <f t="shared" si="8"/>
         <v>-9.9837971567683058E-3</v>
       </c>
-      <c r="L49" s="104">
+      <c r="L49" s="101">
         <v>0.9</v>
       </c>
-      <c r="M49" s="105">
+      <c r="M49" s="102">
         <f t="shared" si="9"/>
         <v>0.10078017418895337</v>
       </c>
@@ -26834,28 +27064,28 @@
       <c r="C50" s="18">
         <v>149.13999899999999</v>
       </c>
-      <c r="D50" s="126">
+      <c r="D50" s="123">
         <f t="shared" si="0"/>
         <v>-8.0479344975883382E-3</v>
       </c>
-      <c r="H50" s="102">
+      <c r="H50" s="99">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="103">
+      <c r="I50" s="100">
         <f t="shared" si="7"/>
         <v>-0.10204440895798403</v>
       </c>
-      <c r="J50" s="104">
+      <c r="J50" s="101">
         <v>0.5</v>
       </c>
-      <c r="K50" s="103">
+      <c r="K50" s="100">
         <f t="shared" si="8"/>
         <v>-7.6949466757081364E-4</v>
       </c>
-      <c r="L50" s="104">
+      <c r="L50" s="101">
         <v>0.91</v>
       </c>
-      <c r="M50" s="105">
+      <c r="M50" s="102">
         <f t="shared" si="9"/>
         <v>0.10317625024150698</v>
       </c>
@@ -26867,28 +27097,28 @@
       <c r="C51" s="18">
         <v>150.35000600000001</v>
       </c>
-      <c r="D51" s="126">
+      <c r="D51" s="123">
         <f t="shared" si="0"/>
         <v>6.2919824593562934E-2</v>
       </c>
-      <c r="H51" s="102">
+      <c r="H51" s="99">
         <v>0.08</v>
       </c>
-      <c r="I51" s="103">
+      <c r="I51" s="100">
         <f t="shared" si="7"/>
         <v>-9.9512745258046473E-2</v>
       </c>
-      <c r="J51" s="104">
+      <c r="J51" s="101">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="103">
+      <c r="K51" s="100">
         <f t="shared" si="8"/>
         <v>9.8449578755132553E-3</v>
       </c>
-      <c r="L51" s="104">
+      <c r="L51" s="101">
         <v>0.92</v>
       </c>
-      <c r="M51" s="105">
+      <c r="M51" s="102">
         <f t="shared" si="9"/>
         <v>0.10821056944203931</v>
       </c>
@@ -26900,28 +27130,28 @@
       <c r="C52" s="18">
         <v>141.449997</v>
       </c>
-      <c r="D52" s="126">
+      <c r="D52" s="123">
         <f t="shared" si="0"/>
         <v>0.14478795151809565</v>
       </c>
-      <c r="H52" s="102">
+      <c r="H52" s="99">
         <v>0.09</v>
       </c>
-      <c r="I52" s="103">
+      <c r="I52" s="100">
         <f t="shared" si="7"/>
         <v>-9.7390301868346102E-2</v>
       </c>
-      <c r="J52" s="104">
+      <c r="J52" s="101">
         <v>0.6</v>
       </c>
-      <c r="K52" s="103">
+      <c r="K52" s="100">
         <f t="shared" si="8"/>
         <v>1.7254033487822357E-2</v>
       </c>
-      <c r="L52" s="104">
+      <c r="L52" s="101">
         <v>0.93</v>
       </c>
-      <c r="M52" s="105">
+      <c r="M52" s="102">
         <f t="shared" si="9"/>
         <v>0.11170240197046544</v>
       </c>
@@ -26933,28 +27163,28 @@
       <c r="C53" s="18">
         <v>123.55999799999999</v>
       </c>
-      <c r="D53" s="126">
+      <c r="D53" s="123">
         <f t="shared" si="0"/>
         <v>-9.253823171156772E-2</v>
       </c>
-      <c r="H53" s="102">
+      <c r="H53" s="99">
         <v>0.1</v>
       </c>
-      <c r="I53" s="103">
+      <c r="I53" s="100">
         <f t="shared" si="7"/>
         <v>-9.6379519752041148E-2</v>
       </c>
-      <c r="J53" s="104">
+      <c r="J53" s="101">
         <v>0.65</v>
       </c>
-      <c r="K53" s="103">
+      <c r="K53" s="100">
         <f t="shared" si="8"/>
         <v>3.0877489353101004E-2</v>
       </c>
-      <c r="L53" s="104">
+      <c r="L53" s="101">
         <v>0.94</v>
       </c>
-      <c r="M53" s="105">
+      <c r="M53" s="102">
         <f t="shared" si="9"/>
         <v>0.11831121482599063</v>
       </c>
@@ -26966,28 +27196,28 @@
       <c r="C54" s="18">
         <v>136.16000399999999</v>
       </c>
-      <c r="D54" s="126">
+      <c r="D54" s="123">
         <f t="shared" si="0"/>
         <v>-3.3091910015314974E-2</v>
       </c>
-      <c r="H54" s="102">
+      <c r="H54" s="99">
         <v>0.11</v>
       </c>
-      <c r="I54" s="103">
+      <c r="I54" s="100">
         <f t="shared" si="7"/>
         <v>-9.2923188237950857E-2</v>
       </c>
-      <c r="J54" s="104">
+      <c r="J54" s="101">
         <v>0.7</v>
       </c>
-      <c r="K54" s="103">
+      <c r="K54" s="100">
         <f t="shared" si="8"/>
         <v>4.5303098061554296E-2</v>
       </c>
-      <c r="L54" s="104">
+      <c r="L54" s="101">
         <v>0.95</v>
       </c>
-      <c r="M54" s="105">
+      <c r="M54" s="102">
         <f t="shared" si="9"/>
         <v>0.13616683810220143</v>
       </c>
@@ -26999,28 +27229,28 @@
       <c r="C55" s="18">
         <v>140.820007</v>
       </c>
-      <c r="D55" s="126">
+      <c r="D55" s="123">
         <f t="shared" si="0"/>
         <v>4.3884457103830599E-2</v>
       </c>
-      <c r="H55" s="102">
+      <c r="H55" s="99">
         <v>0.12</v>
       </c>
-      <c r="I55" s="103">
+      <c r="I55" s="100">
         <f t="shared" si="7"/>
         <v>-8.9827051971558824E-2</v>
       </c>
-      <c r="J55" s="104">
+      <c r="J55" s="101">
         <v>0.75</v>
       </c>
-      <c r="K55" s="103">
+      <c r="K55" s="100">
         <f t="shared" si="8"/>
         <v>6.2914696961257399E-2</v>
       </c>
-      <c r="L55" s="104">
+      <c r="L55" s="101">
         <v>0.96</v>
       </c>
-      <c r="M55" s="105">
+      <c r="M55" s="102">
         <f t="shared" si="9"/>
         <v>0.14843756857005316</v>
       </c>
@@ -27032,28 +27262,28 @@
       <c r="C56" s="18">
         <v>134.89999399999999</v>
       </c>
-      <c r="D56" s="126">
+      <c r="D56" s="123">
         <f t="shared" si="0"/>
         <v>-1.3384056560639457E-2</v>
       </c>
-      <c r="H56" s="102">
+      <c r="H56" s="99">
         <v>0.13</v>
       </c>
-      <c r="I56" s="103">
+      <c r="I56" s="100">
         <f t="shared" si="7"/>
         <v>-8.3227107193970001E-2</v>
       </c>
-      <c r="J56" s="104">
+      <c r="J56" s="101">
         <v>0.8</v>
       </c>
-      <c r="K56" s="103">
+      <c r="K56" s="100">
         <f t="shared" si="8"/>
         <v>7.1660573956005891E-2</v>
       </c>
-      <c r="L56" s="104">
+      <c r="L56" s="101">
         <v>0.97</v>
       </c>
-      <c r="M56" s="105">
+      <c r="M56" s="102">
         <f t="shared" si="9"/>
         <v>0.15761206168287051</v>
       </c>
@@ -27065,23 +27295,23 @@
       <c r="C57" s="18">
         <v>136.729996</v>
       </c>
-      <c r="D57" s="126">
+      <c r="D57" s="123">
         <f t="shared" si="0"/>
         <v>-4.1096852264446482E-2</v>
       </c>
-      <c r="H57" s="102">
+      <c r="H57" s="99">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="103">
+      <c r="I57" s="100">
         <f t="shared" si="7"/>
         <v>-8.2211411203507292E-2</v>
       </c>
-      <c r="J57" s="104"/>
-      <c r="K57" s="103"/>
-      <c r="L57" s="104">
+      <c r="J57" s="101"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="101">
         <v>0.98</v>
       </c>
-      <c r="M57" s="105">
+      <c r="M57" s="102">
         <f t="shared" si="9"/>
         <v>0.32882176490781712</v>
       </c>
@@ -27093,23 +27323,23 @@
       <c r="C58" s="18">
         <v>142.58999600000001</v>
       </c>
-      <c r="D58" s="126">
+      <c r="D58" s="123">
         <f t="shared" si="0"/>
         <v>4.4538870578670897E-2</v>
       </c>
-      <c r="H58" s="106">
+      <c r="H58" s="103">
         <v>0.15</v>
       </c>
-      <c r="I58" s="107">
+      <c r="I58" s="104">
         <f t="shared" si="7"/>
         <v>-7.9609930189779188E-2</v>
       </c>
-      <c r="J58" s="108"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="109">
+      <c r="J58" s="105"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="106">
         <v>0.99</v>
       </c>
-      <c r="M58" s="110">
+      <c r="M58" s="107">
         <f t="shared" si="9"/>
         <v>0.34821797117244579</v>
       </c>
@@ -27121,7 +27351,7 @@
       <c r="C59" s="18">
         <v>136.509995</v>
       </c>
-      <c r="D59" s="126">
+      <c r="D59" s="123">
         <f t="shared" si="0"/>
         <v>8.0668104813172992E-2</v>
       </c>
@@ -27133,14 +27363,14 @@
       <c r="C60" s="18">
         <v>126.32</v>
       </c>
-      <c r="D60" s="126">
+      <c r="D60" s="123">
         <f t="shared" si="0"/>
         <v>7.2508074991578075E-2</v>
       </c>
-      <c r="H60" s="111" t="s">
+      <c r="H60" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="I60" s="112">
+      <c r="I60" s="109">
         <v>0.1</v>
       </c>
     </row>
@@ -27151,14 +27381,14 @@
       <c r="C61" s="18">
         <v>117.779999</v>
       </c>
-      <c r="D61" s="126">
+      <c r="D61" s="123">
         <f t="shared" si="0"/>
         <v>-1.2492647249752187E-2</v>
       </c>
-      <c r="H61" s="113" t="s">
+      <c r="H61" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="I61" s="114">
+      <c r="I61" s="111">
         <v>0.45</v>
       </c>
     </row>
@@ -27169,11 +27399,11 @@
       <c r="C62" s="18">
         <v>119.269997</v>
       </c>
-      <c r="D62" s="126">
+      <c r="D62" s="123">
         <f t="shared" si="0"/>
         <v>0.36840283990808453</v>
       </c>
-      <c r="H62" s="115"/>
+      <c r="H62" s="112"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
@@ -27182,14 +27412,14 @@
       <c r="C63" s="18">
         <v>87.160004000000001</v>
       </c>
-      <c r="D63" s="126">
+      <c r="D63" s="123">
         <f t="shared" si="0"/>
         <v>-4.5762997405868089E-2</v>
       </c>
-      <c r="H63" s="111" t="s">
+      <c r="H63" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="I63" s="116">
+      <c r="I63" s="113">
         <v>210.03</v>
       </c>
     </row>
@@ -27200,14 +27430,14 @@
       <c r="C64" s="18">
         <v>91.339995999999999</v>
       </c>
-      <c r="D64" s="126">
+      <c r="D64" s="123">
         <f t="shared" si="0"/>
         <v>-2.9473310452207135E-3</v>
       </c>
-      <c r="H64" s="117" t="s">
+      <c r="H64" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="I64" s="118">
+      <c r="I64" s="115">
         <f>I63*(1-I60)</f>
         <v>189.02700000000002</v>
       </c>
@@ -27219,14 +27449,14 @@
       <c r="C65" s="18">
         <v>91.610000999999997</v>
       </c>
-      <c r="D65" s="126">
+      <c r="D65" s="123">
         <f t="shared" si="0"/>
         <v>-8.2891161106128375E-2</v>
       </c>
-      <c r="H65" s="113" t="s">
+      <c r="H65" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="I65" s="119">
+      <c r="I65" s="116">
         <f>I63*(1+I61)</f>
         <v>304.54349999999999</v>
       </c>
@@ -27238,7 +27468,7 @@
       <c r="C66" s="18">
         <v>99.889999000000003</v>
       </c>
-      <c r="D66" s="126">
+      <c r="D66" s="123">
         <f t="shared" si="0"/>
         <v>7.3739654667737797E-2</v>
       </c>
@@ -27250,7 +27480,7 @@
       <c r="C67" s="18">
         <v>93.029999000000004</v>
       </c>
-      <c r="D67" s="126">
+      <c r="D67" s="123">
         <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
         <v>9.9905377159958064E-2</v>
       </c>
@@ -27262,7 +27492,7 @@
       <c r="C68" s="18">
         <v>84.580001999999993</v>
       </c>
-      <c r="D68" s="126">
+      <c r="D68" s="123">
         <f t="shared" si="10"/>
         <v>6.5776221449392436E-2</v>
       </c>
@@ -27274,7 +27504,7 @@
       <c r="C69" s="18">
         <v>79.360000999999997</v>
       </c>
-      <c r="D69" s="126">
+      <c r="D69" s="123">
         <f t="shared" si="10"/>
         <v>0.10099887344620218</v>
       </c>
@@ -27286,7 +27516,7 @@
       <c r="C70" s="18">
         <v>72.080001999999993</v>
       </c>
-      <c r="D70" s="126">
+      <c r="D70" s="123">
         <f t="shared" si="10"/>
         <v>1.3355898215488438E-2</v>
       </c>
@@ -27298,7 +27528,7 @@
       <c r="C71" s="18">
         <v>71.129997000000003</v>
       </c>
-      <c r="D71" s="126">
+      <c r="D71" s="123">
         <f t="shared" si="10"/>
         <v>6.0820370331842177E-3</v>
       </c>
@@ -27310,7 +27540,7 @@
       <c r="C72" s="18">
         <v>70.699996999999996</v>
       </c>
-      <c r="D72" s="126">
+      <c r="D72" s="123">
         <f t="shared" si="10"/>
         <v>-3.1374175404142446E-2</v>
       </c>
@@ -27322,7 +27552,7 @@
       <c r="C73" s="18">
         <v>72.989998</v>
       </c>
-      <c r="D73" s="126">
+      <c r="D73" s="123">
         <f t="shared" si="10"/>
         <v>6.2909569328951864E-2</v>
       </c>
@@ -27334,7 +27564,7 @@
       <c r="C74" s="18">
         <v>68.669998000000007</v>
       </c>
-      <c r="D74" s="126">
+      <c r="D74" s="123">
         <f t="shared" si="10"/>
         <v>-2.8712858361224392E-2</v>
       </c>
@@ -27346,7 +27576,7 @@
       <c r="C75" s="18">
         <v>70.699996999999996</v>
       </c>
-      <c r="D75" s="126">
+      <c r="D75" s="123">
         <f t="shared" si="10"/>
         <v>1.4492681460964718E-2</v>
       </c>
@@ -27358,7 +27588,7 @@
       <c r="C76" s="18">
         <v>69.690002000000007</v>
       </c>
-      <c r="D76" s="126">
+      <c r="D76" s="123">
         <f t="shared" si="10"/>
         <v>2.9394462159282098E-2</v>
       </c>
@@ -27370,7 +27600,7 @@
       <c r="C77" s="18">
         <v>67.699996999999996</v>
       </c>
-      <c r="D77" s="126">
+      <c r="D77" s="123">
         <f t="shared" si="10"/>
         <v>-7.8033542148985613E-2</v>
       </c>
@@ -27382,7 +27612,7 @@
       <c r="C78" s="18">
         <v>73.430000000000007</v>
       </c>
-      <c r="D78" s="126">
+      <c r="D78" s="123">
         <f t="shared" si="10"/>
         <v>-8.0285525064405006E-2</v>
       </c>
@@ -27394,7 +27624,7 @@
       <c r="C79" s="18">
         <v>79.839995999999999</v>
       </c>
-      <c r="D79" s="126">
+      <c r="D79" s="123">
         <f t="shared" si="10"/>
         <v>-3.9807647869930296E-2</v>
       </c>
@@ -27406,7 +27636,7 @@
       <c r="C80" s="18">
         <v>83.150002000000001</v>
       </c>
-      <c r="D80" s="126">
+      <c r="D80" s="123">
         <f t="shared" si="10"/>
         <v>1.0942273556231008E-2</v>
       </c>
@@ -27418,7 +27648,7 @@
       <c r="C81" s="18">
         <v>82.25</v>
       </c>
-      <c r="D81" s="126">
+      <c r="D81" s="123">
         <f t="shared" si="10"/>
         <v>5.0312885974023391E-2</v>
       </c>
@@ -27430,7 +27660,7 @@
       <c r="C82" s="18">
         <v>78.309997999999993</v>
       </c>
-      <c r="D82" s="126">
+      <c r="D82" s="123">
         <f t="shared" si="10"/>
         <v>-0.20497463959390871</v>
       </c>
@@ -27442,7 +27672,7 @@
       <c r="C83" s="18">
         <v>98.5</v>
       </c>
-      <c r="D83" s="126">
+      <c r="D83" s="123">
         <f t="shared" si="10"/>
         <v>3.4337886138678497E-2</v>
       </c>
@@ -27454,7 +27684,7 @@
       <c r="C84" s="18">
         <v>95.230002999999996</v>
       </c>
-      <c r="D84" s="126">
+      <c r="D84" s="123">
         <f t="shared" si="10"/>
         <v>6.7481269672472477E-2</v>
       </c>
@@ -27466,7 +27696,7 @@
       <c r="C85" s="18">
         <v>89.209998999999996</v>
       </c>
-      <c r="D85" s="126">
+      <c r="D85" s="123">
         <f t="shared" si="10"/>
         <v>-0.10170173399862514</v>
       </c>
@@ -27478,7 +27708,7 @@
       <c r="C86" s="18">
         <v>99.309997999999993</v>
       </c>
-      <c r="D86" s="126">
+      <c r="D86" s="123">
         <f t="shared" si="10"/>
         <v>-2.4108989730519115E-3</v>
       </c>
@@ -27490,7 +27720,7 @@
       <c r="C87" s="18">
         <v>99.550003000000004</v>
       </c>
-      <c r="D87" s="126">
+      <c r="D87" s="123">
         <f t="shared" si="10"/>
         <v>7.2274960029080626E-2</v>
       </c>
@@ -27502,7 +27732,7 @@
       <c r="C88" s="18">
         <v>92.839995999999999</v>
       </c>
-      <c r="D88" s="126">
+      <c r="D88" s="123">
         <f t="shared" si="10"/>
         <v>-4.6102821253442006E-3</v>
       </c>
@@ -27514,7 +27744,7 @@
       <c r="C89" s="18">
         <v>93.269997000000004</v>
       </c>
-      <c r="D89" s="126">
+      <c r="D89" s="123">
         <f t="shared" si="10"/>
         <v>-2.5391850325763299E-2</v>
       </c>
@@ -27526,7 +27756,7 @@
       <c r="C90" s="18">
         <v>95.699996999999996</v>
       </c>
-      <c r="D90" s="126">
+      <c r="D90" s="123">
         <f t="shared" si="10"/>
         <v>-0.11728085488833784</v>
       </c>
@@ -27538,7 +27768,7 @@
       <c r="C91" s="18">
         <v>108.415001</v>
       </c>
-      <c r="D91" s="126">
+      <c r="D91" s="123">
         <f t="shared" si="10"/>
         <v>5.1857970311439017E-2</v>
       </c>
@@ -27550,7 +27780,7 @@
       <c r="C92" s="18">
         <v>103.07</v>
       </c>
-      <c r="D92" s="126">
+      <c r="D92" s="123">
         <f t="shared" si="10"/>
         <v>0.12337874659400527</v>
       </c>
@@ -27562,7 +27792,7 @@
       <c r="C93" s="18">
         <v>91.75</v>
       </c>
-      <c r="D93" s="126">
+      <c r="D93" s="123">
         <f t="shared" si="10"/>
         <v>-3.8763720443071303E-2</v>
       </c>
@@ -27574,7 +27804,7 @@
       <c r="C94" s="18">
         <v>95.449996999999996</v>
       </c>
-      <c r="D94" s="126">
+      <c r="D94" s="123">
         <f t="shared" si="10"/>
         <v>-3.9738480085744876E-2</v>
       </c>
@@ -27586,7 +27816,7 @@
       <c r="C95" s="18">
         <v>99.400002000000001</v>
       </c>
-      <c r="D95" s="126">
+      <c r="D95" s="123">
         <f t="shared" si="10"/>
         <v>-9.7102319814781346E-2</v>
       </c>
@@ -27598,7 +27828,7 @@
       <c r="C96" s="18">
         <v>110.089996</v>
       </c>
-      <c r="D96" s="126">
+      <c r="D96" s="123">
         <f t="shared" si="10"/>
         <v>0.158110649234392</v>
       </c>
@@ -27610,7 +27840,7 @@
       <c r="C97" s="18">
         <v>95.059997999999993</v>
       </c>
-      <c r="D97" s="126">
+      <c r="D97" s="123">
         <f t="shared" si="10"/>
         <v>-6.5565760378479498E-2</v>
       </c>
@@ -27622,7 +27852,7 @@
       <c r="C98" s="18">
         <v>101.730003</v>
       </c>
-      <c r="D98" s="126">
+      <c r="D98" s="123">
         <f t="shared" si="10"/>
         <v>7.4121043967068312E-2</v>
       </c>
@@ -27634,7 +27864,7 @@
       <c r="C99" s="18">
         <v>94.709998999999996</v>
       </c>
-      <c r="D99" s="126">
+      <c r="D99" s="123">
         <f t="shared" si="10"/>
         <v>1.4351461464556126E-2</v>
       </c>
@@ -27646,7 +27876,7 @@
       <c r="C100" s="18">
         <v>93.370002999999997</v>
       </c>
-      <c r="D100" s="126">
+      <c r="D100" s="123">
         <f t="shared" si="10"/>
         <v>4.5108654359017342E-2</v>
       </c>
@@ -27658,7 +27888,7 @@
       <c r="C101" s="18">
         <v>89.339995999999999</v>
       </c>
-      <c r="D101" s="126">
+      <c r="D101" s="123">
         <f t="shared" si="10"/>
         <v>6.63642524034882E-2</v>
       </c>
@@ -27670,7 +27900,7 @@
       <c r="C102" s="18">
         <v>83.779999000000004</v>
       </c>
-      <c r="D102" s="126">
+      <c r="D102" s="123">
         <f t="shared" si="10"/>
         <v>9.5736333975102506E-2</v>
       </c>
@@ -27682,7 +27912,7 @@
       <c r="C103" s="18">
         <v>76.459998999999996</v>
       </c>
-      <c r="D103" s="126">
+      <c r="D103" s="123">
         <f t="shared" si="10"/>
         <v>-0.148267778153095</v>
       </c>
@@ -27694,7 +27924,7 @@
       <c r="C104" s="18">
         <v>89.769997000000004</v>
       </c>
-      <c r="D104" s="126">
+      <c r="D104" s="123">
         <f t="shared" si="10"/>
         <v>0.11363349319397731</v>
       </c>
@@ -27706,7 +27936,7 @@
       <c r="C105" s="18">
         <v>80.610000999999997</v>
       </c>
-      <c r="D105" s="126">
+      <c r="D105" s="123">
         <f t="shared" si="10"/>
         <v>-6.7769167714014533E-2</v>
       </c>
@@ -27718,7 +27948,7 @@
       <c r="C106" s="18">
         <v>86.470000999999996</v>
       </c>
-      <c r="D106" s="126">
+      <c r="D106" s="123">
         <f t="shared" si="10"/>
         <v>5.465127906976619E-3</v>
       </c>
@@ -27730,7 +27960,7 @@
       <c r="C107" s="18">
         <v>86</v>
       </c>
-      <c r="D107" s="126">
+      <c r="D107" s="123">
         <f t="shared" si="10"/>
         <v>-4.2529503451347095E-2</v>
       </c>
@@ -27742,7 +27972,7 @@
       <c r="C108" s="18">
         <v>89.82</v>
       </c>
-      <c r="D108" s="126">
+      <c r="D108" s="123">
         <f t="shared" si="10"/>
         <v>-5.0126883462920602E-2</v>
       </c>
@@ -27754,7 +27984,7 @@
       <c r="C109" s="18">
         <v>94.559997999999993</v>
       </c>
-      <c r="D109" s="126">
+      <c r="D109" s="123">
         <f t="shared" si="10"/>
         <v>-1.1395755119796069E-2</v>
       </c>
@@ -27766,7 +27996,7 @@
       <c r="C110" s="18">
         <v>95.650002000000001</v>
       </c>
-      <c r="D110" s="126">
+      <c r="D110" s="123">
         <f t="shared" si="10"/>
         <v>2.7941955036798749E-2</v>
       </c>
@@ -27778,7 +28008,7 @@
       <c r="C111" s="18">
         <v>93.050003000000004</v>
       </c>
-      <c r="D111" s="126">
+      <c r="D111" s="123">
         <f t="shared" si="10"/>
         <v>4.9278337843933206E-2</v>
       </c>
@@ -27790,7 +28020,7 @@
       <c r="C112" s="18">
         <v>88.68</v>
       </c>
-      <c r="D112" s="126">
+      <c r="D112" s="123">
         <f t="shared" si="10"/>
         <v>0.15619300480546316</v>
       </c>
@@ -27802,7 +28032,7 @@
       <c r="C113" s="18">
         <v>76.699996999999996</v>
       </c>
-      <c r="D113" s="126">
+      <c r="D113" s="123">
         <f t="shared" si="10"/>
         <v>2.7048701124799068E-2</v>
       </c>
@@ -27814,7 +28044,7 @@
       <c r="C114" s="18">
         <v>74.680000000000007</v>
       </c>
-      <c r="D114" s="126">
+      <c r="D114" s="123">
         <f t="shared" si="10"/>
         <v>-0.15097770749178829</v>
       </c>
@@ -27826,7 +28056,7 @@
       <c r="C115" s="18">
         <v>87.959998999999996</v>
       </c>
-      <c r="D115" s="126">
+      <c r="D115" s="123">
         <f t="shared" si="10"/>
         <v>-3.3406604395604389E-2</v>
       </c>
@@ -27838,7 +28068,7 @@
       <c r="C116" s="18">
         <v>91</v>
       </c>
-      <c r="D116" s="126">
+      <c r="D116" s="123">
         <f t="shared" si="10"/>
         <v>-3.1914893617021267E-2</v>
       </c>
@@ -27850,7 +28080,7 @@
       <c r="C117" s="18">
         <v>94</v>
       </c>
-      <c r="D117" s="126">
+      <c r="D117" s="123">
         <f t="shared" si="10"/>
         <v>2.7546971112364371E-2</v>
       </c>
@@ -27862,7 +28092,7 @@
       <c r="C118" s="18">
         <v>91.480002999999996</v>
       </c>
-      <c r="D118" s="126">
+      <c r="D118" s="123">
         <f t="shared" si="10"/>
         <v>-3.8113796403924649E-3</v>
       </c>
@@ -27874,7 +28104,7 @@
       <c r="C119" s="18">
         <v>91.830001999999993</v>
       </c>
-      <c r="D119" s="126">
+      <c r="D119" s="123">
         <f t="shared" si="10"/>
         <v>7.1403606013342724E-2</v>
       </c>
@@ -27886,7 +28116,7 @@
       <c r="C120" s="18">
         <v>85.709998999999996</v>
       </c>
-      <c r="D120" s="126">
+      <c r="D120" s="123">
         <f t="shared" si="10"/>
         <v>-7.4705799677398321E-2</v>
       </c>
@@ -27898,7 +28128,7 @@
       <c r="C121" s="18">
         <v>92.629997000000003</v>
       </c>
-      <c r="D121" s="126">
+      <c r="D121" s="123">
         <f t="shared" si="10"/>
         <v>-9.3551275202049644E-2</v>
       </c>
@@ -27910,7 +28140,7 @@
       <c r="C122" s="18">
         <v>102.19000200000001</v>
       </c>
-      <c r="D122" s="126">
+      <c r="D122" s="123">
         <f t="shared" si="10"/>
         <v>-3.6942785440177262E-2</v>
       </c>
@@ -27922,7 +28152,7 @@
       <c r="C123" s="18">
         <v>106.110001</v>
       </c>
-      <c r="D123" s="126">
+      <c r="D123" s="123">
         <f t="shared" si="10"/>
         <v>-2.6156369549893199E-2</v>
       </c>
@@ -27934,7 +28164,7 @@
       <c r="C124" s="18">
         <v>108.959999</v>
       </c>
-      <c r="D124" s="126">
+      <c r="D124" s="123">
         <f t="shared" si="10"/>
         <v>4.228044727108804E-2</v>
       </c>
@@ -27946,7 +28176,7 @@
       <c r="C125" s="18">
         <v>104.540001</v>
       </c>
-      <c r="D125" s="126">
+      <c r="D125" s="123">
         <f t="shared" si="10"/>
         <v>9.2486140819602047E-2</v>
       </c>
@@ -27958,7 +28188,7 @@
       <c r="C126" s="18">
         <v>95.690002000000007</v>
       </c>
-      <c r="D126" s="126">
+      <c r="D126" s="123">
         <f t="shared" si="10"/>
         <v>-0.12259303360706086</v>
       </c>
@@ -27970,7 +28200,7 @@
       <c r="C127" s="18">
         <v>109.05999799999999</v>
       </c>
-      <c r="D127" s="126">
+      <c r="D127" s="123">
         <f t="shared" si="10"/>
         <v>-0.11029534817596109</v>
       </c>
@@ -27982,7 +28212,7 @@
       <c r="C128" s="18">
         <v>122.58000199999999</v>
       </c>
-      <c r="D128" s="126">
+      <c r="D128" s="123">
         <f t="shared" si="10"/>
         <v>-9.8411329149166615E-2</v>
       </c>
@@ -27994,7 +28224,7 @@
       <c r="C129" s="18">
         <v>135.96000699999999</v>
       </c>
-      <c r="D129" s="126">
+      <c r="D129" s="123">
         <f t="shared" si="10"/>
         <v>-0.12295185465225511</v>
       </c>
@@ -28006,7 +28236,7 @@
       <c r="C130" s="18">
         <v>155.020004</v>
       </c>
-      <c r="D130" s="126">
+      <c r="D130" s="123">
         <f t="shared" si="10"/>
         <v>8.3913877159016437E-3</v>
       </c>
@@ -28018,7 +28248,7 @@
       <c r="C131" s="18">
         <v>153.729996</v>
       </c>
-      <c r="D131" s="126">
+      <c r="D131" s="123">
         <f t="shared" ref="D131:D144" si="11">C131/C132-1</f>
         <v>-0.11491741476288309</v>
       </c>
@@ -28030,7 +28260,7 @@
       <c r="C132" s="18">
         <v>173.69000199999999</v>
       </c>
-      <c r="D132" s="126">
+      <c r="D132" s="123">
         <f t="shared" si="11"/>
         <v>-2.5636671873574435E-2</v>
       </c>
@@ -28042,7 +28272,7 @@
       <c r="C133" s="18">
         <v>178.259995</v>
       </c>
-      <c r="D133" s="126">
+      <c r="D133" s="123">
         <f t="shared" si="11"/>
         <v>0.13758773715866757</v>
       </c>
@@ -28054,7 +28284,7 @@
       <c r="C134" s="18">
         <v>156.699997</v>
       </c>
-      <c r="D134" s="126">
+      <c r="D134" s="123">
         <f t="shared" si="11"/>
         <v>-5.8971935888255222E-2</v>
       </c>
@@ -28066,7 +28296,7 @@
       <c r="C135" s="18">
         <v>166.520004</v>
       </c>
-      <c r="D135" s="126">
+      <c r="D135" s="123">
         <f t="shared" si="11"/>
         <v>3.6990919952784695E-2</v>
       </c>
@@ -28078,7 +28308,7 @@
       <c r="C136" s="18">
         <v>160.58000200000001</v>
       </c>
-      <c r="D136" s="126">
+      <c r="D136" s="123">
         <f t="shared" si="11"/>
         <v>-0.19456284281895064</v>
       </c>
@@ -28090,7 +28320,7 @@
       <c r="C137" s="18">
         <v>199.36999499999999</v>
       </c>
-      <c r="D137" s="126">
+      <c r="D137" s="123">
         <f t="shared" si="11"/>
         <v>7.7792190026860997E-2</v>
       </c>
@@ -28102,7 +28332,7 @@
       <c r="C138" s="18">
         <v>184.979996</v>
       </c>
-      <c r="D138" s="126">
+      <c r="D138" s="123">
         <f t="shared" si="11"/>
         <v>6.6966610917881253E-2</v>
       </c>
@@ -28114,7 +28344,7 @@
       <c r="C139" s="18">
         <v>173.36999499999999</v>
       </c>
-      <c r="D139" s="126">
+      <c r="D139" s="123">
         <f t="shared" si="11"/>
         <v>6.3228241913752425E-2</v>
       </c>
@@ -28126,7 +28356,7 @@
       <c r="C140" s="18">
         <v>163.05999800000001</v>
       </c>
-      <c r="D140" s="126">
+      <c r="D140" s="123">
         <f t="shared" si="11"/>
         <v>0.3577019210275092</v>
       </c>
@@ -28138,7 +28368,7 @@
       <c r="C141" s="18">
         <v>120.099998</v>
       </c>
-      <c r="D141" s="126">
+      <c r="D141" s="123">
         <f t="shared" si="11"/>
         <v>-4.7052297445467794E-2</v>
       </c>
@@ -28150,7 +28380,7 @@
       <c r="C142" s="18">
         <v>126.029999</v>
       </c>
-      <c r="D142" s="126">
+      <c r="D142" s="123">
         <f t="shared" si="11"/>
         <v>-7.7581831311504423E-2</v>
       </c>
@@ -28162,7 +28392,7 @@
       <c r="C143" s="18">
         <v>136.63000500000001</v>
       </c>
-      <c r="D143" s="126">
+      <c r="D143" s="123">
         <f t="shared" si="11"/>
         <v>1.6743562407219637E-2</v>
       </c>
@@ -28174,7 +28404,7 @@
       <c r="C144" s="18">
         <v>134.38000500000001</v>
       </c>
-      <c r="D144" s="126">
+      <c r="D144" s="123">
         <f t="shared" si="11"/>
         <v>-4.1853796791443743E-2</v>
       </c>

--- a/Business - Technology Services/DUOL.xlsx
+++ b/Business - Technology Services/DUOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536C1D6A-4D93-4808-80EA-F48695B80697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51150DFE-FCDA-49EA-90E3-68C42A431AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,30 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Model!$L$21:$T$21</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Model!$L$21:$W$21</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Model!$L$22:$T$22</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Model!$L$22:$W$22</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Model!$L$2:$T$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Model!$L$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Model!$B$8</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Model!$L$2:$T$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Model!$L$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$T$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Model!$L$8:$T$8</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Model!$L$8:$W$8</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Model!$L$9:$T$9</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Model!$L$9:$W$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$8:$T$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$L$8:$W$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$L$9:$T$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$9:$W$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$W$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$W$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$8:$W$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$9:$W$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -443,9 +429,6 @@
   </si>
   <si>
     <t>FY19</t>
-  </si>
-  <si>
-    <t>Net Income y/y</t>
   </si>
   <si>
     <t>Q223</t>
@@ -974,6 +957,9 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Earnings Growth</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1697,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1865,6 +1851,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1922,25 +1918,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2074,6 +2051,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D0C7-4330-AAB4-E7E1AD34EBCB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2088,6 +2070,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D0C7-4330-AAB4-E7E1AD34EBCB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -3046,22 +3033,22 @@
             <c:strLit>
               <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>200%</c:v>
+                <c:v>2</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>300%</c:v>
+                <c:v>3</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>400%</c:v>
+                <c:v>4</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>500%</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>600%</c:v>
+                <c:v>6</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>700%</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -4402,22 +4389,22 @@
             <c:strLit>
               <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>200%</c:v>
+                <c:v>2</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>300%</c:v>
+                <c:v>3</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>400%</c:v>
+                <c:v>4</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>500%</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>600%</c:v>
+                <c:v>6</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>700%</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -7068,18 +7055,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.15</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.15</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.11</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7123,7 +7110,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7143,7 +7130,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7174,18 +7161,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7229,7 +7216,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7249,7 +7236,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12995,46 +12982,46 @@
       <c r="B2" s="34"/>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>52</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="20">
         <v>45534</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>184</v>
-      </c>
       <c r="H3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I3" s="10">
         <v>4253</v>
@@ -13044,10 +13031,10 @@
         <v>9.7683055761176892E-5</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" t="s">
         <v>163</v>
-      </c>
-      <c r="M3" t="s">
-        <v>164</v>
       </c>
       <c r="N3" s="37"/>
     </row>
@@ -13057,13 +13044,13 @@
         <v>0.62430555555555556</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>186</v>
-      </c>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I4" s="10">
         <v>34045</v>
@@ -13073,10 +13060,10 @@
         <v>7.8194677483876492E-4</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M4" t="s">
         <v>165</v>
-      </c>
-      <c r="M4" t="s">
-        <v>166</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -13084,18 +13071,18 @@
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
       <c r="E5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>187</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>188</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="38"/>
       <c r="L5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" t="s">
         <v>167</v>
-      </c>
-      <c r="M5" t="s">
-        <v>168</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -13107,13 +13094,13 @@
         <v>209.99</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>190</v>
-      </c>
       <c r="H6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I6" s="10">
         <v>124635</v>
@@ -13123,10 +13110,10 @@
         <v>2.8626211273910843E-3</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" t="s">
         <v>169</v>
-      </c>
-      <c r="M6" t="s">
-        <v>170</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -13139,13 +13126,13 @@
         <v>43.538769000000002</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I7" s="10">
         <v>7514</v>
@@ -13155,10 +13142,10 @@
         <v>1.7258182012449641E-4</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" t="s">
         <v>171</v>
-      </c>
-      <c r="M7" t="s">
-        <v>172</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -13171,23 +13158,23 @@
         <v>9142.7061023100014</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>194</v>
-      </c>
       <c r="H8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I8" s="10">
         <v>0</v>
       </c>
       <c r="J8" s="38"/>
       <c r="L8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M8" t="s">
         <v>173</v>
-      </c>
-      <c r="M8" t="s">
-        <v>174</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -13200,13 +13187,13 @@
         <v>888.24</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>196</v>
-      </c>
       <c r="H9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I9" s="10">
         <v>160116</v>
@@ -13216,10 +13203,10 @@
         <v>3.6775500014711027E-3</v>
       </c>
       <c r="L9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9" t="s">
         <v>175</v>
-      </c>
-      <c r="M9" t="s">
-        <v>176</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -13231,13 +13218,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>198</v>
-      </c>
       <c r="H10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I10" s="10">
         <v>4253</v>
@@ -13247,29 +13234,29 @@
         <v>9.7683055761176892E-5</v>
       </c>
       <c r="L10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M10" t="s">
         <v>177</v>
-      </c>
-      <c r="M10" t="s">
-        <v>178</v>
       </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
         <v>888.24</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>200</v>
-      </c>
       <c r="H11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I11" s="10">
         <v>64523</v>
@@ -13279,10 +13266,10 @@
         <v>1.4819665663951132E-3</v>
       </c>
       <c r="L11" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" t="s">
         <v>179</v>
-      </c>
-      <c r="M11" t="s">
-        <v>180</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -13295,13 +13282,13 @@
         <v>8254.4661023100016</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>202</v>
-      </c>
       <c r="H12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I12" s="10">
         <v>0</v>
@@ -13311,16 +13298,16 @@
         <v>0</v>
       </c>
       <c r="L12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" t="s">
         <v>181</v>
-      </c>
-      <c r="M12" t="s">
-        <v>182</v>
       </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="36">
         <f>C6/Model!G21</f>
@@ -13333,7 +13320,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="36">
         <f>C6/Model!H22</f>
@@ -13351,7 +13338,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="36">
         <f>C6/Model!I22</f>
@@ -13360,7 +13347,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="6">
         <f>Model!H22/Model!G21-1</f>
@@ -13369,78 +13356,78 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="6">
         <f>Model!I22/Model!H22-1</f>
         <v>0.5133689839572193</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="127"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="129"/>
+        <v>56</v>
+      </c>
+      <c r="L17" s="133"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="51">
         <f>C14/(C16*100)</f>
         <v>0.28341987938451102</v>
       </c>
-      <c r="L18" s="130"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="132"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="51">
         <f>C15/(C17*100)</f>
         <v>1.4453816990577146</v>
       </c>
-      <c r="L19" s="130"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="132"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="138"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="6">
         <f>Model!H9/Model!G8-1</f>
         <v>0.38623870481927702</v>
       </c>
-      <c r="L20" s="130"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="132"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="138"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="6">
         <f>Model!I9/Model!H9-1</f>
         <v>0.28436791286988883</v>
       </c>
-      <c r="L21" s="130"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="132"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="138"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="15">
         <f>Model!G14</f>
         <v>-13.167999999999893</v>
       </c>
-      <c r="L22" s="130"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="132"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="138"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13450,9 +13437,9 @@
         <f>Model!G17</f>
         <v>17.868000000000109</v>
       </c>
-      <c r="L23" s="130"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="132"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="138"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -13462,9 +13449,9 @@
         <f>Model!U23</f>
         <v>0.73444195176668536</v>
       </c>
-      <c r="L24" s="130"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="132"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="138"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -13474,50 +13461,50 @@
         <f>Model!U24</f>
         <v>0.13642176107683696</v>
       </c>
-      <c r="L25" s="130"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="132"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="138"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
         <v>461.96922444089722</v>
       </c>
-      <c r="L26" s="130"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="132"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="138"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="117">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
-      </c>
-      <c r="L27" s="130"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="132"/>
+        <v>76</v>
+      </c>
+      <c r="L27" s="136"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="L28" s="133"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="135"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="141"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="36">
         <f>Model!U39/Model!U51</f>
@@ -13526,7 +13513,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="36">
         <f>Model!U35/Model!U51</f>
@@ -13535,13 +13522,13 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="36">
         <f>(Model!U39-Model!U51)/Main!C7</f>
@@ -13550,7 +13537,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="36">
         <f>Model!G8/Model!G39</f>
@@ -13559,7 +13546,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="38">
         <f>Model!G19/Model!G46</f>
@@ -13568,7 +13555,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="38">
         <f>Model!G17/Model!G54</f>
@@ -13577,7 +13564,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="23"/>
     </row>
@@ -13595,10 +13582,10 @@
   <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
+      <selection pane="bottomRight" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13606,13 +13593,12 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="19" max="19" width="11.42578125" style="146"/>
     <col min="21" max="21" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -13635,7 +13621,7 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -13653,30 +13639,30 @@
         <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="146" t="s">
-        <v>43</v>
-      </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V2" t="s">
+        <v>211</v>
+      </c>
+      <c r="W2" t="s">
         <v>212</v>
-      </c>
-      <c r="W2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3">
         <v>180.7</v>
@@ -13708,7 +13694,7 @@
       <c r="R3">
         <v>105.9</v>
       </c>
-      <c r="S3" s="146">
+      <c r="S3">
         <v>117.5</v>
       </c>
       <c r="T3" s="125">
@@ -13720,7 +13706,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4">
         <v>38.5</v>
@@ -13752,7 +13738,7 @@
       <c r="R4">
         <v>11.7</v>
       </c>
-      <c r="S4" s="146">
+      <c r="S4">
         <v>13.5</v>
       </c>
       <c r="T4">
@@ -13761,7 +13747,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5">
         <v>24.7</v>
@@ -13793,7 +13779,7 @@
       <c r="R5">
         <v>10.6</v>
       </c>
-      <c r="S5" s="146">
+      <c r="S5">
         <v>10.8</v>
       </c>
       <c r="T5">
@@ -13802,7 +13788,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6">
         <v>17.899999999999999</v>
@@ -13816,7 +13802,7 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="S6" s="146">
+      <c r="S6">
         <v>8.9</v>
       </c>
       <c r="T6">
@@ -13857,7 +13843,7 @@
       <c r="R7">
         <v>9.4</v>
       </c>
-      <c r="S7" s="146">
+      <c r="S7">
         <v>0.3</v>
       </c>
       <c r="T7">
@@ -13913,7 +13899,7 @@
         <v>103.8</v>
       </c>
       <c r="P8" s="11">
-        <f t="shared" ref="P8:W8" si="1">SUM(P3:P7)</f>
+        <f t="shared" ref="P8:U8" si="1">SUM(P3:P7)</f>
         <v>115.7</v>
       </c>
       <c r="Q8" s="11">
@@ -13924,11 +13910,11 @@
         <f t="shared" si="1"/>
         <v>137.60000000000002</v>
       </c>
-      <c r="S8" s="147">
+      <c r="S8" s="11">
         <f t="shared" si="1"/>
         <v>151.00000000000003</v>
       </c>
-      <c r="T8" s="147">
+      <c r="T8" s="11">
         <f t="shared" si="1"/>
         <v>167.6</v>
       </c>
@@ -13945,7 +13931,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13965,11 +13951,11 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
-      <c r="S9" s="148"/>
+      <c r="S9" s="10"/>
       <c r="T9" s="10">
         <v>165.6</v>
       </c>
-      <c r="U9" s="154">
+      <c r="U9" s="128">
         <v>176.92</v>
       </c>
       <c r="V9">
@@ -13981,7 +13967,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10">
@@ -14019,7 +14005,7 @@
       <c r="R10" s="10">
         <v>36.253999999999998</v>
       </c>
-      <c r="S10" s="148">
+      <c r="S10" s="10">
         <v>40.570999999999998</v>
       </c>
       <c r="T10" s="10">
@@ -14031,7 +14017,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10">
@@ -14069,19 +14055,19 @@
       <c r="R11" s="10">
         <v>50.305</v>
       </c>
-      <c r="S11" s="148">
+      <c r="S11" s="10">
         <v>50.256</v>
       </c>
       <c r="T11" s="126">
         <v>50.878</v>
       </c>
-      <c r="U11" s="155">
+      <c r="U11" s="129">
         <v>55.146999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
@@ -14119,19 +14105,19 @@
       <c r="R12" s="10">
         <v>22.335000000000001</v>
       </c>
-      <c r="S12" s="148">
+      <c r="S12" s="10">
         <v>19.117999999999999</v>
       </c>
       <c r="T12" s="126">
         <v>19.931000000000001</v>
       </c>
-      <c r="U12" s="155">
+      <c r="U12" s="129">
         <v>20.173999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -14169,13 +14155,13 @@
       <c r="R13" s="10">
         <v>33.4</v>
       </c>
-      <c r="S13" s="148">
+      <c r="S13" s="10">
         <v>36.244999999999997</v>
       </c>
       <c r="T13" s="126">
         <v>35.113999999999997</v>
       </c>
-      <c r="U13" s="155">
+      <c r="U13" s="129">
         <v>36.957000000000001</v>
       </c>
     </row>
@@ -14241,7 +14227,7 @@
         <f t="shared" si="3"/>
         <v>-4.6939999999999884</v>
       </c>
-      <c r="S14" s="147">
+      <c r="S14" s="11">
         <f t="shared" si="3"/>
         <v>4.8100000000000307</v>
       </c>
@@ -14295,7 +14281,7 @@
       <c r="R15" s="10">
         <v>-1.0229999999999999</v>
       </c>
-      <c r="S15" s="148">
+      <c r="S15" s="10">
         <v>1.054</v>
       </c>
       <c r="T15" s="10">
@@ -14307,7 +14293,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -14343,7 +14329,7 @@
       <c r="R16" s="10">
         <v>8.625</v>
       </c>
-      <c r="S16" s="148">
+      <c r="S16" s="10">
         <v>9.2840000000000007</v>
       </c>
       <c r="T16" s="10">
@@ -14413,7 +14399,7 @@
         <f t="shared" si="5"/>
         <v>2.9080000000000119</v>
       </c>
-      <c r="S17" s="147">
+      <c r="S17" s="11">
         <f t="shared" si="5"/>
         <v>15.148000000000032</v>
       </c>
@@ -14466,7 +14452,7 @@
       <c r="R18" s="10">
         <v>0.125</v>
       </c>
-      <c r="S18" s="148">
+      <c r="S18" s="10">
         <v>3.016</v>
       </c>
       <c r="T18" s="10">
@@ -14530,7 +14516,7 @@
         <f t="shared" si="6"/>
         <v>2.7830000000000119</v>
       </c>
-      <c r="S19" s="147">
+      <c r="S19" s="11">
         <f t="shared" si="6"/>
         <v>12.132000000000032</v>
       </c>
@@ -14589,7 +14575,7 @@
       <c r="R20" s="10">
         <v>42.875827999999998</v>
       </c>
-      <c r="S20" s="148">
+      <c r="S20" s="10">
         <v>42.875827999999998</v>
       </c>
       <c r="T20" s="10">
@@ -14624,10 +14610,10 @@
         <f>G19/G20</f>
         <v>0.37685569594131474</v>
       </c>
-      <c r="H21" s="160">
+      <c r="H21" s="132">
         <v>1.87</v>
       </c>
-      <c r="I21" s="159">
+      <c r="I21" s="131">
         <v>2.83</v>
       </c>
       <c r="L21" s="2">
@@ -14658,7 +14644,7 @@
         <f t="shared" si="7"/>
         <v>6.4908367483888868E-2</v>
       </c>
-      <c r="S21" s="149">
+      <c r="S21" s="2">
         <f t="shared" si="7"/>
         <v>0.2829566346800354</v>
       </c>
@@ -14670,16 +14656,16 @@
         <f t="shared" si="7"/>
         <v>0.55867449996117324</v>
       </c>
-      <c r="V21" s="159">
+      <c r="V21" s="131">
         <v>0.35</v>
       </c>
-      <c r="W21" s="159">
+      <c r="W21" s="131">
         <v>0.45</v>
       </c>
     </row>
     <row r="22" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -14699,11 +14685,11 @@
       <c r="P22" s="50"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
-      <c r="S22" s="150"/>
+      <c r="S22" s="127"/>
       <c r="T22" s="49">
         <v>0.27</v>
       </c>
-      <c r="U22" s="156">
+      <c r="U22" s="130">
         <v>0.25</v>
       </c>
       <c r="V22" s="1">
@@ -14840,7 +14826,7 @@
         <f t="shared" si="9"/>
         <v>2.0225290697674501E-2</v>
       </c>
-      <c r="S24" s="151">
+      <c r="S24" s="4">
         <f t="shared" si="9"/>
         <v>8.0344370860927342E-2</v>
       </c>
@@ -14884,33 +14870,33 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4">
-        <f>P8/L8-1</f>
+        <f t="shared" ref="P25:U25" si="10">P8/L8-1</f>
         <v>0.42487684729064035</v>
       </c>
       <c r="Q25" s="4">
-        <f>Q8/M8-1</f>
+        <f t="shared" si="10"/>
         <v>0.43714609286523198</v>
       </c>
       <c r="R25" s="4">
-        <f>R8/N8-1</f>
+        <f t="shared" si="10"/>
         <v>0.43184183142559873</v>
       </c>
-      <c r="S25" s="151">
-        <f>S8/O8-1</f>
+      <c r="S25" s="4">
+        <f t="shared" si="10"/>
         <v>0.45472061657032792</v>
       </c>
-      <c r="T25" s="157">
-        <f>T8/P8-1</f>
+      <c r="T25" s="4">
+        <f t="shared" si="10"/>
         <v>0.44857389801210013</v>
       </c>
-      <c r="U25" s="158">
-        <f>U8/Q8-1</f>
+      <c r="U25" s="7">
+        <f t="shared" si="10"/>
         <v>0.40504334121355412</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="4" t="e">
         <f>C11/C8</f>
@@ -14935,39 +14921,39 @@
       <c r="H26" s="118"/>
       <c r="I26" s="118"/>
       <c r="L26" s="4">
-        <f t="shared" ref="L26:S26" si="10">L11/L8</f>
+        <f t="shared" ref="L26:S26" si="11">L11/L8</f>
         <v>0.36676108374384236</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.38750849377123436</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.43679500520291364</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.42842003853564548</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.39623163353500435</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.37783293932230105</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.36558866279069763</v>
       </c>
-      <c r="S26" s="151">
-        <f t="shared" si="10"/>
+      <c r="S26" s="4">
+        <f t="shared" si="11"/>
         <v>0.33282119205298005</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" ref="T26" si="11">T11/T8</f>
+        <f t="shared" ref="T26" si="12">T11/T8</f>
         <v>0.30356801909307879</v>
       </c>
       <c r="U26" s="7">
@@ -14977,7 +14963,7 @@
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="4" t="e">
         <f>C12/C8</f>
@@ -15002,35 +14988,35 @@
       <c r="H27" s="118"/>
       <c r="I27" s="118"/>
       <c r="L27" s="4">
-        <f t="shared" ref="L27:S27" si="12">L12/L8</f>
+        <f t="shared" ref="L27:S27" si="13">L12/L8</f>
         <v>0.18399014778325121</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1730124575311438</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.18440166493236212</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.18332369942196533</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.14348314606741572</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.13974783293932233</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.16231831395348836</v>
       </c>
-      <c r="S27" s="151">
-        <f t="shared" si="12"/>
+      <c r="S27" s="4">
+        <f t="shared" si="13"/>
         <v>0.12660927152317877</v>
       </c>
       <c r="T27" s="4">
@@ -15038,93 +15024,93 @@
         <v>0.1189200477326969</v>
       </c>
       <c r="U27" s="7">
-        <f t="shared" ref="U27" si="13">U12/U8</f>
+        <f t="shared" ref="U27" si="14">U12/U8</f>
         <v>0.11314638250140212</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="4" t="e">
-        <f t="shared" ref="C28:G28" si="14">C13/C8</f>
+        <f t="shared" ref="C28:G28" si="15">C13/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.27034063922422324</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.31335725677830945</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.31902544667027616</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.24872552710843371</v>
       </c>
       <c r="H28" s="118"/>
       <c r="I28" s="118"/>
       <c r="L28" s="4">
-        <f t="shared" ref="L28:Q28" si="15">L13/L8</f>
+        <f t="shared" ref="L28:Q28" si="16">L13/L8</f>
         <v>0.33073891625615764</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.34039637599093991</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.31454734651404792</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.29582851637764934</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.26139152981849612</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.25401891252955083</v>
       </c>
       <c r="R28" s="4">
         <f>R13/R8</f>
         <v>0.24273255813953484</v>
       </c>
-      <c r="S28" s="151">
+      <c r="S28" s="4">
         <f>S13/S8</f>
         <v>0.2400331125827814</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28:U28" si="16">T13/T8</f>
+        <f t="shared" ref="T28:U28" si="17">T13/T8</f>
         <v>0.20951073985680191</v>
       </c>
       <c r="U28" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.20727425687044307</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="e">
-        <f t="shared" ref="E29:G30" si="17">E3/D3-1</f>
+        <f t="shared" ref="E29:G30" si="18">E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.51355838406198129</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.4797074954296161</v>
       </c>
       <c r="H29" s="118"/>
@@ -15136,25 +15122,25 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="151"/>
+      <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.16103896103896109</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.11633109619686799</v>
       </c>
       <c r="H30" s="118"/>
@@ -15166,12 +15152,12 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="151"/>
+      <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="e">
@@ -15203,44 +15189,44 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4">
-        <f t="shared" ref="P31:S31" si="18">P19/L19-1</f>
-        <v>-0.79111220634138424</v>
+        <f t="shared" ref="P31:T31" si="19">P21/O21-1</f>
+        <v>-0.82727897466774869</v>
       </c>
       <c r="Q31" s="4">
-        <f>Q19/M19-1</f>
-        <v>-1.2502147908267784</v>
+        <f t="shared" si="19"/>
+        <v>-2.4887927644514356</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="18"/>
-        <v>-1.1511678435632815</v>
-      </c>
-      <c r="S31" s="151">
-        <f t="shared" si="18"/>
-        <v>-1.8694281209688999</v>
+        <f t="shared" si="19"/>
+        <v>-0.2649234020073894</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" si="19"/>
+        <v>3.3593244699964</v>
       </c>
       <c r="T31" s="4">
-        <f>T19/P19-1</f>
-        <v>-11.618560755013805</v>
-      </c>
-      <c r="U31" s="4">
-        <f>U19/Q19-1</f>
-        <v>5.4247226624406055</v>
+        <f t="shared" si="19"/>
+        <v>1.2130542040444414</v>
+      </c>
+      <c r="U31" s="7">
+        <f>U21/T21-1</f>
+        <v>-0.10783143684343521</v>
       </c>
     </row>
     <row r="34" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" ref="C34:E34" si="19">C35</f>
+        <f t="shared" ref="C34:E34" si="20">C35</f>
         <v>0</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>120.49</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>553.99199999999996</v>
       </c>
       <c r="F34" s="11">
@@ -15252,51 +15238,51 @@
         <v>747.61</v>
       </c>
       <c r="L34" s="11">
-        <f t="shared" ref="L34:W34" si="20">L35</f>
+        <f t="shared" ref="L34:W34" si="21">L35</f>
         <v>0</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O34" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>608.17999999999995</v>
       </c>
       <c r="P34" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>641.09100000000001</v>
       </c>
       <c r="Q34" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>678.66499999999996</v>
       </c>
       <c r="R34" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>701.73699999999997</v>
       </c>
-      <c r="S34" s="147">
-        <f t="shared" si="20"/>
+      <c r="S34" s="11">
+        <f t="shared" si="21"/>
         <v>747.61</v>
       </c>
       <c r="T34" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>829.71299999999997</v>
       </c>
       <c r="U34" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>888.24</v>
       </c>
       <c r="V34" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W34" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -15333,7 +15319,7 @@
       <c r="R35" s="10">
         <v>701.73699999999997</v>
       </c>
-      <c r="S35" s="148">
+      <c r="S35" s="10">
         <f>G35</f>
         <v>747.61</v>
       </c>
@@ -15379,7 +15365,7 @@
       <c r="R36" s="10">
         <v>61.710999999999999</v>
       </c>
-      <c r="S36" s="148">
+      <c r="S36" s="10">
         <f>G36</f>
         <v>88.974999999999994</v>
       </c>
@@ -15394,7 +15380,7 @@
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
@@ -15425,7 +15411,7 @@
       <c r="R37" s="10">
         <v>46.124000000000002</v>
       </c>
-      <c r="S37" s="148">
+      <c r="S37" s="10">
         <f>G37</f>
         <v>53.930999999999997</v>
       </c>
@@ -15440,7 +15426,7 @@
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
@@ -15471,7 +15457,7 @@
       <c r="R38" s="10">
         <v>9.5329999999999995</v>
       </c>
-      <c r="S38" s="148">
+      <c r="S38" s="10">
         <f>G38</f>
         <v>7.282</v>
       </c>
@@ -15486,7 +15472,7 @@
     </row>
     <row r="39" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="11">
         <f>SUM(C35:C38)</f>
@@ -15509,57 +15495,57 @@
         <v>897.79800000000012</v>
       </c>
       <c r="L39" s="11">
-        <f t="shared" ref="L39:S39" si="21">SUM(L35:L38)</f>
+        <f t="shared" ref="L39:S39" si="22">SUM(L35:L38)</f>
         <v>0</v>
       </c>
       <c r="M39" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="11">
-        <f t="shared" si="21"/>
-        <v>697.18299999999988</v>
-      </c>
-      <c r="P39" s="11">
-        <f t="shared" si="21"/>
-        <v>741.23400000000004</v>
-      </c>
-      <c r="Q39" s="11">
-        <f t="shared" si="21"/>
-        <v>784.94099999999992</v>
-      </c>
-      <c r="R39" s="11">
-        <f t="shared" si="21"/>
-        <v>819.10500000000002</v>
-      </c>
-      <c r="S39" s="147">
-        <f t="shared" si="21"/>
-        <v>897.79800000000012</v>
-      </c>
-      <c r="T39" s="11">
-        <f t="shared" ref="T39:W39" si="22">SUM(T35:T38)</f>
-        <v>977.27800000000002</v>
-      </c>
-      <c r="U39" s="14">
-        <f t="shared" si="22"/>
-        <v>1041.5640000000001</v>
-      </c>
-      <c r="V39" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="W39" s="11">
+      <c r="N39" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="O39" s="11">
+        <f t="shared" si="22"/>
+        <v>697.18299999999988</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" si="22"/>
+        <v>741.23400000000004</v>
+      </c>
+      <c r="Q39" s="11">
+        <f t="shared" si="22"/>
+        <v>784.94099999999992</v>
+      </c>
+      <c r="R39" s="11">
+        <f t="shared" si="22"/>
+        <v>819.10500000000002</v>
+      </c>
+      <c r="S39" s="11">
+        <f t="shared" si="22"/>
+        <v>897.79800000000012</v>
+      </c>
+      <c r="T39" s="11">
+        <f t="shared" ref="T39:W39" si="23">SUM(T35:T38)</f>
+        <v>977.27800000000002</v>
+      </c>
+      <c r="U39" s="14">
+        <f t="shared" si="23"/>
+        <v>1041.5640000000001</v>
+      </c>
+      <c r="V39" s="11">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="11">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10">
@@ -15579,7 +15565,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
-      <c r="S40" s="148"/>
+      <c r="S40" s="10"/>
       <c r="T40" s="10">
         <v>13.209</v>
       </c>
@@ -15609,7 +15595,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
-      <c r="S41" s="148"/>
+      <c r="S41" s="10"/>
       <c r="T41" s="10">
         <v>4.05</v>
       </c>
@@ -15621,7 +15607,7 @@
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
@@ -15641,7 +15627,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
-      <c r="S42" s="148"/>
+      <c r="S42" s="10"/>
       <c r="T42" s="10">
         <v>18.594999999999999</v>
       </c>
@@ -15653,7 +15639,7 @@
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
@@ -15673,7 +15659,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="148"/>
+      <c r="S43" s="10"/>
       <c r="T43" s="10">
         <v>49.784999999999997</v>
       </c>
@@ -15685,7 +15671,7 @@
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -15703,7 +15689,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="148"/>
+      <c r="S44" s="10"/>
       <c r="T44" s="10">
         <f>2.735+0.766</f>
         <v>3.5009999999999999</v>
@@ -15748,7 +15734,7 @@
       <c r="R45" s="10">
         <v>51.609000000000002</v>
       </c>
-      <c r="S45" s="148">
+      <c r="S45" s="10">
         <f>G45</f>
         <v>56.158999999999999</v>
       </c>
@@ -15786,51 +15772,51 @@
         <v>953.95700000000011</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" ref="L46:S46" si="23">SUM(L39:L45)</f>
+        <f t="shared" ref="L46:S46" si="24">SUM(L39:L45)</f>
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="11">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="11">
-        <f t="shared" si="23"/>
-        <v>698.68999999999983</v>
-      </c>
-      <c r="P46" s="11">
-        <f t="shared" si="23"/>
-        <v>790.37900000000002</v>
-      </c>
-      <c r="Q46" s="11">
-        <f t="shared" si="23"/>
-        <v>834.80299999999988</v>
-      </c>
-      <c r="R46" s="11">
-        <f t="shared" si="23"/>
-        <v>870.71400000000006</v>
-      </c>
-      <c r="S46" s="147">
-        <f t="shared" si="23"/>
-        <v>953.95700000000011</v>
-      </c>
-      <c r="T46" s="11">
-        <f t="shared" ref="T46:W46" si="24">SUM(T39:T45)</f>
-        <v>1068.6669999999999</v>
-      </c>
-      <c r="U46" s="14">
-        <f t="shared" si="24"/>
-        <v>1139.443</v>
-      </c>
-      <c r="V46" s="11">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
+      <c r="N46" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <f t="shared" si="24"/>
+        <v>698.68999999999983</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="24"/>
+        <v>790.37900000000002</v>
+      </c>
+      <c r="Q46" s="11">
+        <f t="shared" si="24"/>
+        <v>834.80299999999988</v>
+      </c>
+      <c r="R46" s="11">
+        <f t="shared" si="24"/>
+        <v>870.71400000000006</v>
+      </c>
+      <c r="S46" s="11">
+        <f t="shared" si="24"/>
+        <v>953.95700000000011</v>
+      </c>
+      <c r="T46" s="11">
+        <f t="shared" ref="T46:W46" si="25">SUM(T39:T45)</f>
+        <v>1068.6669999999999</v>
+      </c>
+      <c r="U46" s="14">
+        <f t="shared" si="25"/>
+        <v>1139.443</v>
+      </c>
+      <c r="V46" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="W46" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -15867,7 +15853,7 @@
       <c r="R47" s="10">
         <v>2.7120000000000002</v>
       </c>
-      <c r="S47" s="148">
+      <c r="S47" s="10">
         <f>G47</f>
         <v>2.4470000000000001</v>
       </c>
@@ -15882,7 +15868,7 @@
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
@@ -15913,7 +15899,7 @@
       <c r="R48" s="10">
         <v>208.88800000000001</v>
       </c>
-      <c r="S48" s="148">
+      <c r="S48" s="10">
         <f>G48</f>
         <v>249.19200000000001</v>
       </c>
@@ -15948,7 +15934,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="148"/>
+      <c r="S49" s="10"/>
       <c r="T49" s="10">
         <v>0.36199999999999999</v>
       </c>
@@ -15960,7 +15946,7 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
@@ -15991,7 +15977,7 @@
       <c r="R50" s="10">
         <v>23.334</v>
       </c>
-      <c r="S50" s="148">
+      <c r="S50" s="10">
         <f>G50</f>
         <v>25.722999999999999</v>
       </c>
@@ -16006,7 +15992,7 @@
     </row>
     <row r="51" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="11">
         <f>SUM(C47:C50)</f>
@@ -16029,57 +16015,57 @@
         <v>277.36200000000002</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" ref="L51:S51" si="25">SUM(L47:L50)</f>
+        <f t="shared" ref="L51:S51" si="26">SUM(L47:L50)</f>
         <v>0</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="11">
-        <f t="shared" si="25"/>
-        <v>180.697</v>
-      </c>
-      <c r="P51" s="11">
-        <f t="shared" si="25"/>
-        <v>202.81299999999999</v>
-      </c>
-      <c r="Q51" s="11">
-        <f t="shared" si="25"/>
-        <v>217.10599999999999</v>
-      </c>
-      <c r="R51" s="11">
-        <f t="shared" si="25"/>
-        <v>234.934</v>
-      </c>
-      <c r="S51" s="147">
-        <f t="shared" si="25"/>
-        <v>277.36200000000002</v>
-      </c>
-      <c r="T51" s="11">
-        <f t="shared" ref="T51:W51" si="26">SUM(T47:T50)</f>
-        <v>303.72200000000004</v>
-      </c>
-      <c r="U51" s="14">
-        <f t="shared" si="26"/>
-        <v>317.72399999999993</v>
-      </c>
-      <c r="V51" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="W51" s="11">
+      <c r="N51" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
+      <c r="O51" s="11">
+        <f t="shared" si="26"/>
+        <v>180.697</v>
+      </c>
+      <c r="P51" s="11">
+        <f t="shared" si="26"/>
+        <v>202.81299999999999</v>
+      </c>
+      <c r="Q51" s="11">
+        <f t="shared" si="26"/>
+        <v>217.10599999999999</v>
+      </c>
+      <c r="R51" s="11">
+        <f t="shared" si="26"/>
+        <v>234.934</v>
+      </c>
+      <c r="S51" s="11">
+        <f t="shared" si="26"/>
+        <v>277.36200000000002</v>
+      </c>
+      <c r="T51" s="11">
+        <f t="shared" ref="T51:W51" si="27">SUM(T47:T50)</f>
+        <v>303.72200000000004</v>
+      </c>
+      <c r="U51" s="14">
+        <f t="shared" si="27"/>
+        <v>317.72399999999993</v>
+      </c>
+      <c r="V51" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10">
@@ -16110,7 +16096,7 @@
       <c r="R52" s="10">
         <v>20.960999999999999</v>
       </c>
-      <c r="S52" s="148">
+      <c r="S52" s="10">
         <f>G52</f>
         <v>21.094000000000001</v>
       </c>
@@ -16148,57 +16134,57 @@
         <v>298.45600000000002</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" ref="L53:S53" si="27">SUM(L51:L52)</f>
+        <f t="shared" ref="L53:S53" si="28">SUM(L51:L52)</f>
         <v>0</v>
       </c>
       <c r="M53" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="11">
-        <f t="shared" si="27"/>
-        <v>204.2</v>
-      </c>
-      <c r="P53" s="11">
-        <f t="shared" si="27"/>
-        <v>225.19099999999997</v>
-      </c>
-      <c r="Q53" s="11">
-        <f t="shared" si="27"/>
-        <v>238.398</v>
-      </c>
-      <c r="R53" s="11">
-        <f t="shared" si="27"/>
-        <v>255.89499999999998</v>
-      </c>
-      <c r="S53" s="147">
-        <f t="shared" si="27"/>
-        <v>298.45600000000002</v>
-      </c>
-      <c r="T53" s="11">
-        <f t="shared" ref="T53:W53" si="28">SUM(T51:T52)</f>
-        <v>357.61500000000001</v>
-      </c>
-      <c r="U53" s="14">
-        <f t="shared" si="28"/>
-        <v>372.49899999999991</v>
-      </c>
-      <c r="V53" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="W53" s="11">
+      <c r="N53" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
+      <c r="O53" s="11">
+        <f t="shared" si="28"/>
+        <v>204.2</v>
+      </c>
+      <c r="P53" s="11">
+        <f t="shared" si="28"/>
+        <v>225.19099999999997</v>
+      </c>
+      <c r="Q53" s="11">
+        <f t="shared" si="28"/>
+        <v>238.398</v>
+      </c>
+      <c r="R53" s="11">
+        <f t="shared" si="28"/>
+        <v>255.89499999999998</v>
+      </c>
+      <c r="S53" s="11">
+        <f t="shared" si="28"/>
+        <v>298.45600000000002</v>
+      </c>
+      <c r="T53" s="11">
+        <f t="shared" ref="T53:W53" si="29">SUM(T51:T52)</f>
+        <v>357.61500000000001</v>
+      </c>
+      <c r="U53" s="14">
+        <f t="shared" si="29"/>
+        <v>372.49899999999991</v>
+      </c>
+      <c r="V53" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="10">
         <f>C46-C53</f>
@@ -16236,24 +16222,24 @@
         <f>R46-R53</f>
         <v>614.81900000000007</v>
       </c>
-      <c r="S54" s="148">
+      <c r="S54" s="10">
         <f>S46-S53</f>
         <v>655.50100000000009</v>
       </c>
       <c r="T54" s="10">
-        <f t="shared" ref="T54:W54" si="29">T46-T53</f>
+        <f t="shared" ref="T54:W54" si="30">T46-T53</f>
         <v>711.05199999999991</v>
       </c>
       <c r="U54" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>766.94400000000007</v>
       </c>
       <c r="V54" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W54" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -16263,17 +16249,14 @@
       <c r="E56" s="52"/>
       <c r="F56" s="52"/>
       <c r="G56" s="53"/>
-      <c r="S56" s="152"/>
       <c r="U56" s="16"/>
     </row>
     <row r="74" spans="7:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G74" s="41"/>
-      <c r="S74" s="153"/>
       <c r="U74" s="41"/>
     </row>
     <row r="75" spans="7:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G75" s="16"/>
-      <c r="S75" s="152"/>
       <c r="U75" s="16"/>
     </row>
   </sheetData>
@@ -16301,7 +16284,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -16370,24 +16353,24 @@
         <v>9</v>
       </c>
       <c r="R1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" t="s">
-        <v>43</v>
-      </c>
       <c r="U1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M2">
         <v>12.5</v>
@@ -16422,7 +16405,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M3">
         <v>49.2</v>
@@ -16457,7 +16440,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M4">
         <v>2.9</v>
@@ -16492,7 +16475,7 @@
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="122"/>
       <c r="C5" s="122"/>
@@ -16538,7 +16521,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="123">
         <f t="shared" ref="Q7:R7" si="0">Q2/M2-1</f>
@@ -16567,7 +16550,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="123">
         <f t="shared" ref="Q8:R8" si="4">Q3/M3-1</f>
@@ -16596,7 +16579,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q9" s="123">
         <f t="shared" ref="Q9:R9" si="5">Q4/M4-1</f>
@@ -16625,12 +16608,12 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M13">
         <v>78.5</v>
@@ -16665,7 +16648,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M14">
         <v>102.1</v>
@@ -16700,7 +16683,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K16" s="123"/>
       <c r="L16" s="123"/>
@@ -16747,7 +16730,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="123">
         <f t="shared" ref="Q17:T18" si="8">Q13/M13-1</f>
@@ -16776,7 +16759,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q18" s="123">
         <f t="shared" si="8"/>
@@ -16831,13 +16814,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -16848,13 +16831,13 @@
         <v>194.66000399999999</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -16868,7 +16851,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -16883,7 +16866,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -25738,25 +25721,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="136" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="138"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -25788,22 +25771,22 @@
         <v>-7.7615568343958441E-2</v>
       </c>
       <c r="H3" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="J3" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="K3" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="L3" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="M3" s="65" t="s">
         <v>99</v>
-      </c>
-      <c r="M3" s="65" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -26215,7 +26198,7 @@
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J15" s="78">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
@@ -26259,10 +26242,10 @@
         <f t="shared" si="0"/>
         <v>3.857741295165984E-2</v>
       </c>
-      <c r="H17" s="139" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="140"/>
+      <c r="H17" s="145" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="146"/>
       <c r="M17" s="81"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -26276,8 +26259,8 @@
         <f t="shared" si="0"/>
         <v>-0.1001322918192914</v>
       </c>
-      <c r="H18" s="141"/>
-      <c r="I18" s="142"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
       <c r="M18" s="81"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -26292,7 +26275,7 @@
         <v>-4.7848873032528827E-2</v>
       </c>
       <c r="H19" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I19" s="119">
         <f>AVERAGE(D:D)</f>
@@ -26312,7 +26295,7 @@
         <v>2.9202103131839241E-2</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I20" s="119">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
@@ -26332,7 +26315,7 @@
         <v>7.795112922002323E-2</v>
       </c>
       <c r="H21" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I21" s="119">
         <f>MEDIAN(D:D)</f>
@@ -26352,7 +26335,7 @@
         <v>6.7979230173755845E-3</v>
       </c>
       <c r="H22" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I22" s="119" t="e">
         <f>MODE(D:D)</f>
@@ -26372,7 +26355,7 @@
         <v>-3.6846399991308565E-2</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I23" s="119">
         <f>_xlfn.STDEV.S(D:D)</f>
@@ -26392,7 +26375,7 @@
         <v>4.6350169043708922E-2</v>
       </c>
       <c r="H24" s="82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I24" s="119">
         <f>_xlfn.VAR.S(D:D)</f>
@@ -26412,7 +26395,7 @@
         <v>5.6727178446203119E-4</v>
       </c>
       <c r="H25" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I25" s="120">
         <f>KURT(D:D)</f>
@@ -26432,7 +26415,7 @@
         <v>0.32762189383516094</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I26" s="120">
         <f>SKEW(D:D)</f>
@@ -26452,7 +26435,7 @@
         <v>0.10977219636131941</v>
       </c>
       <c r="H27" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I27" s="119">
         <f>I29-I28</f>
@@ -26472,7 +26455,7 @@
         <v>-6.548198706365993E-2</v>
       </c>
       <c r="H28" s="82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I28" s="119">
         <f>MIN(D:D)</f>
@@ -26492,7 +26475,7 @@
         <v>-4.0412247080115593E-2</v>
       </c>
       <c r="H29" s="82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I29" s="119">
         <f>MAX(D:D)</f>
@@ -26512,7 +26495,7 @@
         <v>-2.5207007269635651E-2</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I30" s="120">
         <f>SUM(D:D)</f>
@@ -26532,7 +26515,7 @@
         <v>-9.8269129386541199E-3</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I31" s="60">
         <f>COUNT(D:D)</f>
@@ -26567,16 +26550,16 @@
       </c>
       <c r="H33" s="86"/>
       <c r="I33" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="K33" s="87" t="s">
+      <c r="L33" s="88" t="s">
         <v>115</v>
-      </c>
-      <c r="L33" s="88" t="s">
-        <v>116</v>
       </c>
       <c r="M33" s="81"/>
     </row>
@@ -26592,7 +26575,7 @@
         <v>1.929591781023321E-2</v>
       </c>
       <c r="H34" s="89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I34" s="75">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
@@ -26624,7 +26607,7 @@
         <v>5.0966942666760051E-2</v>
       </c>
       <c r="H35" s="89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I35" s="75">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
@@ -26656,7 +26639,7 @@
         <v>0.10253935205615261</v>
       </c>
       <c r="H36" s="90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I36" s="78">
         <v>0</v>
@@ -26705,22 +26688,22 @@
         <v>-0.10741298332127347</v>
       </c>
       <c r="H38" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="I38" s="87" t="s">
+      <c r="J38" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="J38" s="87" t="s">
+      <c r="K38" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="K38" s="87" t="s">
+      <c r="L38" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="L38" s="87" t="s">
+      <c r="M38" s="88" t="s">
         <v>124</v>
-      </c>
-      <c r="M38" s="88" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -26850,14 +26833,14 @@
         <f t="shared" si="0"/>
         <v>0.1054343438077634</v>
       </c>
-      <c r="H43" s="143" t="s">
-        <v>126</v>
-      </c>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="144"/>
-      <c r="M43" s="145"/>
+      <c r="H43" s="149" t="s">
+        <v>125</v>
+      </c>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="151"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -27368,7 +27351,7 @@
         <v>7.2508074991578075E-2</v>
       </c>
       <c r="H60" s="108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I60" s="109">
         <v>0.1</v>
@@ -27386,7 +27369,7 @@
         <v>-1.2492647249752187E-2</v>
       </c>
       <c r="H61" s="110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I61" s="111">
         <v>0.45</v>
@@ -27417,7 +27400,7 @@
         <v>-4.5762997405868089E-2</v>
       </c>
       <c r="H63" s="108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I63" s="113">
         <v>210.03</v>
@@ -27435,7 +27418,7 @@
         <v>-2.9473310452207135E-3</v>
       </c>
       <c r="H64" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I64" s="115">
         <f>I63*(1-I60)</f>
@@ -27454,7 +27437,7 @@
         <v>-8.2891161106128375E-2</v>
       </c>
       <c r="H65" s="110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I65" s="116">
         <f>I63*(1+I61)</f>

--- a/Business - Technology Services/DUOL.xlsx
+++ b/Business - Technology Services/DUOL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51150DFE-FCDA-49EA-90E3-68C42A431AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF55888-239A-4012-AB36-A9FC1083AA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$W$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$W$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$8:$W$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$9:$W$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$8:$W$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$9:$W$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$W$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$W$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$W$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="222">
   <si>
     <t>Price</t>
   </si>
@@ -960,6 +960,30 @@
   </si>
   <si>
     <t>Earnings Growth</t>
+  </si>
+  <si>
+    <t>ROE1</t>
+  </si>
+  <si>
+    <t>Duolingo, Inc. operates as a mobile learning platform in the United States, the United Kingdom, and internationally. The company offers courses in 40 different languages, including Spanish, English, French, German, Italian, Portuguese, Japanese, and Chinese through its Duolingo app. It also provides a digital English language proficiency assessment exam. Duolingo, Inc. was incorporated in 2011 and is headquartered in Pittsburgh, Pennsylvania.</t>
+  </si>
+  <si>
+    <t>Echter Superstar, reCHAPTA Founder, and google verkauft</t>
+  </si>
+  <si>
+    <t>PHD Computer Science, ETH Zürich</t>
+  </si>
+  <si>
+    <t>McKinsey</t>
+  </si>
+  <si>
+    <t>Ex Google</t>
+  </si>
+  <si>
+    <t>VP Goldman Sachs, Ex KKR, Ex Bain, Stanford</t>
+  </si>
+  <si>
+    <t>Ex Google, PHD Physics, Stanford</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1721,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1918,6 +1942,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -7055,18 +7080,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7110,7 +7135,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7130,7 +7155,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7161,18 +7186,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7216,7 +7241,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7236,7 +7261,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12959,7 +12984,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13007,7 +13032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>43</v>
       </c>
@@ -13036,7 +13061,9 @@
       <c r="M3" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="37"/>
+      <c r="N3" s="37" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -13065,7 +13092,9 @@
       <c r="M4" t="s">
         <v>165</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="13" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -13115,7 +13144,9 @@
       <c r="M6" t="s">
         <v>169</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="13" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -13147,7 +13178,9 @@
       <c r="M7" t="s">
         <v>171</v>
       </c>
-      <c r="N7" s="13"/>
+      <c r="N7" s="13" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -13176,7 +13209,9 @@
       <c r="M8" t="s">
         <v>173</v>
       </c>
-      <c r="N8" s="13"/>
+      <c r="N8" s="13" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
@@ -13271,7 +13306,9 @@
       <c r="M11" t="s">
         <v>179</v>
       </c>
-      <c r="N11" s="13"/>
+      <c r="N11" s="13" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
@@ -13365,7 +13402,9 @@
       <c r="E17" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="133"/>
+      <c r="L17" s="133" t="s">
+        <v>215</v>
+      </c>
       <c r="M17" s="134"/>
       <c r="N17" s="135"/>
     </row>
@@ -13535,7 +13574,7 @@
         <v>16.625182949017233</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>88</v>
       </c>
@@ -13544,7 +13583,7 @@
         <v>0.59166984110011378</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>89</v>
       </c>
@@ -13553,16 +13592,19 @@
         <v>1.6937870365226218E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="38">
-        <f>Model!G17/Model!G54</f>
-        <v>2.7258539651350808E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+        <f>Model!H19/Model!U54</f>
+        <v>0.10484468227145659</v>
+      </c>
+      <c r="D35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
         <v>91</v>
       </c>
@@ -13582,10 +13624,10 @@
   <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V25" sqref="V25"/>
+      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14486,8 +14528,14 @@
         <f>G17-SUM(G18:G18)</f>
         <v>16.158000000000108</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="H19" s="56">
+        <f>H22*H20</f>
+        <v>80.410000000000011</v>
+      </c>
+      <c r="I19" s="56">
+        <f>I22*I20</f>
+        <v>121.69</v>
+      </c>
       <c r="L19" s="11">
         <f t="shared" ref="L19:U19" si="6">L17-SUM(L18:L18)</f>
         <v>-12.174000000000005</v>
@@ -14550,8 +14598,12 @@
         <f>36.680751+6.195077</f>
         <v>42.875827999999998</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="H20" s="40">
+        <v>43</v>
+      </c>
+      <c r="I20" s="40">
+        <v>43</v>
+      </c>
       <c r="L20" s="10">
         <f>F20</f>
         <v>40.635919000000001</v>
@@ -14792,11 +14844,11 @@
       </c>
       <c r="H24" s="47">
         <f>H19/H9</f>
-        <v>0</v>
+        <v>0.10919782174721948</v>
       </c>
       <c r="I24" s="47">
         <f>I19/I9</f>
-        <v>0</v>
+        <v>0.12866764646795734</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" ref="L24:U24" si="9">L19/L8</f>
@@ -15186,31 +15238,45 @@
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4">
-        <f t="shared" ref="P31:T31" si="19">P21/O21-1</f>
-        <v>-0.82727897466774869</v>
-      </c>
-      <c r="Q31" s="4">
+      <c r="N31" s="152" t="e">
+        <f t="shared" ref="N31:T31" si="19">N21/J21-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="152" t="e">
         <f t="shared" si="19"/>
-        <v>-2.4887927644514356</v>
-      </c>
-      <c r="R31" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="152">
         <f t="shared" si="19"/>
-        <v>-0.2649234020073894</v>
-      </c>
-      <c r="S31" s="4">
+        <v>-0.80202487370739006</v>
+      </c>
+      <c r="Q31" s="152">
         <f t="shared" si="19"/>
-        <v>3.3593244699964</v>
-      </c>
-      <c r="T31" s="4">
+        <v>-1.237143128119623</v>
+      </c>
+      <c r="R31" s="152">
         <f t="shared" si="19"/>
-        <v>1.2130542040444414</v>
+        <v>-1.1432705683594535</v>
+      </c>
+      <c r="S31" s="152">
+        <f t="shared" si="19"/>
+        <v>-1.8240076599806869</v>
+      </c>
+      <c r="T31" s="152">
+        <f t="shared" si="19"/>
+        <v>-11.557913332075247</v>
       </c>
       <c r="U31" s="7">
-        <f>U21/T21-1</f>
-        <v>-0.10783143684343521</v>
+        <f>U21/Q21-1</f>
+        <v>5.3268969277129878</v>
+      </c>
+      <c r="V31" s="152">
+        <f>V21/R21-1</f>
+        <v>4.3922169601149603</v>
+      </c>
+      <c r="W31" s="152">
+        <f>W21/S21-1</f>
+        <v>0.59034970326409075</v>
       </c>
     </row>
     <row r="34" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16231,7 +16297,7 @@
         <v>711.05199999999991</v>
       </c>
       <c r="U54" s="15">
-        <f t="shared" si="30"/>
+        <f>U46-U53</f>
         <v>766.94400000000007</v>
       </c>
       <c r="V54" s="10">

--- a/Business - Technology Services/DUOL.xlsx
+++ b/Business - Technology Services/DUOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF55888-239A-4012-AB36-A9FC1083AA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B563B-CC48-4602-9233-3B97A42B00AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$8:$W$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$9:$W$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$W$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$W$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$W$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$W$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$8:$W$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$9:$W$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="222">
   <si>
     <t>Price</t>
   </si>
@@ -350,15 +350,6 @@
     <t>Q123</t>
   </si>
   <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q421</t>
-  </si>
-  <si>
     <t>Q122</t>
   </si>
   <si>
@@ -384,9 +375,6 @@
   </si>
   <si>
     <t>Net Income</t>
-  </si>
-  <si>
-    <t>EPS</t>
   </si>
   <si>
     <t>Operational Income</t>
@@ -423,9 +411,6 @@
   </si>
   <si>
     <t>FY24</t>
-  </si>
-  <si>
-    <t>Q121</t>
   </si>
   <si>
     <t>FY19</t>
@@ -985,16 +970,32 @@
   <si>
     <t>Ex Google, PHD Physics, Stanford</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Long Term Investments</t>
+  </si>
+  <si>
+    <t>Deferred Tax Liabilities</t>
+  </si>
+  <si>
+    <t>EPS (diluted)</t>
+  </si>
+  <si>
+    <t>DUOL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1721,7 +1722,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1878,7 +1879,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1942,7 +1942,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2272,13 +2293,13 @@
                   <c:v>167.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>178.3</c:v>
+                  <c:v>178.31800000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>189.08</c:v>
+                  <c:v>192.59399999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>201.41</c:v>
+                  <c:v>204.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2407,7 +2428,13 @@
                   <c:v>0.44857389801210013</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40504334121355412</c:v>
+                  <c:v>0.40518518518518531</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3996656976744184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35403973509933762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,10 +3132,10 @@
                   <c:v>0.43800757985923133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38623870481927702</c:v>
+                  <c:v>0.3971197289156625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28436791286988883</c:v>
+                  <c:v>0.28457858923398249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3456,7 +3483,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EPS</c:v>
+                  <c:v>EPS (diluted)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3642,13 +3669,13 @@
                   <c:v>0.6261983699409196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55867449996117324</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.35</c:v>
+                  <c:v>0.55908792460347301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.45</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3789,7 +3816,10 @@
                   <c:v>0.73036396181384244</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73444195176668536</c:v>
+                  <c:v>0.73446875806144085</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72906736450772092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4137,7 +4167,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EPS</c:v>
+                  <c:v>EPS (diluted)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4989,7 +5019,10 @@
                   <c:v>0.30356801909307879</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30929332585530001</c:v>
+                  <c:v>0.30926210477910249</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32647953726492002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5175,7 +5208,10 @@
                   <c:v>0.1189200477326969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11314638250140212</c:v>
+                  <c:v>0.1131349611368454</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13278710655575979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5361,7 +5397,10 @@
                   <c:v>0.20951073985680191</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20727425687044307</c:v>
+                  <c:v>0.2072533339315156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19932085111685721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7080,18 +7119,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7135,7 +7174,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7155,8 +7194,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
-              <cx:v>EPS</cx:v>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>EPS (diluted)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -7186,18 +7225,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7241,7 +7280,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7261,7 +7300,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12984,7 +13023,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13004,114 +13043,116 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="34"/>
+      <c r="B2" s="34" t="s">
+        <v>221</v>
+      </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" s="20">
-        <v>45534</v>
+        <v>45605</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I3" s="10">
         <v>4253</v>
       </c>
       <c r="J3" s="38">
         <f>I3/($C$7*1000000)</f>
-        <v>9.7683055761176892E-5</v>
+        <v>9.6703046839472485E-5</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.62430555555555556</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I4" s="10">
         <v>34045</v>
       </c>
       <c r="J4" s="38">
         <f>I4/($C$7*1000000)</f>
-        <v>7.8194677483876492E-4</v>
+        <v>7.7410186448385627E-4</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
       <c r="E5" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="38"/>
       <c r="L5" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -13120,32 +13161,32 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>209.99</v>
+        <v>326.89</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I6" s="10">
         <v>124635</v>
       </c>
       <c r="J6" s="38">
         <f>I6/($C$7*1000000)</f>
-        <v>2.8626211273910843E-3</v>
+        <v>2.8339017735334242E-3</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -13153,33 +13194,33 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!U20</f>
-        <v>43.538769000000002</v>
+        <f>Model!V20</f>
+        <v>43.98</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I7" s="10">
         <v>7514</v>
       </c>
       <c r="J7" s="38">
         <f>I7/($C$7*1000000)</f>
-        <v>1.7258182012449641E-4</v>
+        <v>1.7085038653933605E-4</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -13188,29 +13229,29 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>9142.7061023100014</v>
+        <v>14376.622199999998</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I8" s="10">
         <v>0</v>
       </c>
       <c r="J8" s="38"/>
       <c r="L8" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -13218,30 +13259,30 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!U35</f>
-        <v>888.24</v>
+        <f>Model!V35</f>
+        <v>880.76300000000003</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I9" s="10">
         <v>160116</v>
       </c>
       <c r="J9" s="38">
         <f>I9/($C$7*1000000)</f>
-        <v>3.6775500014711027E-3</v>
+        <v>3.6406548431105047E-3</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -13253,61 +13294,61 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I10" s="10">
         <v>4253</v>
       </c>
       <c r="J10" s="38">
         <f>I10/($C$7*1000000)</f>
-        <v>9.7683055761176892E-5</v>
+        <v>9.6703046839472485E-5</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>888.24</v>
+        <v>880.76300000000003</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I11" s="10">
         <v>64523</v>
       </c>
       <c r="J11" s="38">
         <f>I11/($C$7*1000000)</f>
-        <v>1.4819665663951132E-3</v>
+        <v>1.4670986812187357E-3</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -13316,16 +13357,16 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>8254.4661023100016</v>
+        <v>13495.859199999997</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I12" s="10">
         <v>0</v>
@@ -13335,20 +13376,20 @@
         <v>0</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C13" s="36">
         <f>C6/Model!G21</f>
-        <v>557.21593772248673</v>
+        <v>867.41424773610004</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -13357,11 +13398,11 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C14" s="36">
         <f>C6/Model!H22</f>
-        <v>112.29411764705883</v>
+        <v>162.6318407960199</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -13375,208 +13416,208 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15" s="36">
         <f>C6/Model!I22</f>
-        <v>74.201413427561832</v>
+        <v>108.60132890365449</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6">
         <f>Model!H22/Model!G21-1</f>
-        <v>3.9621115459833804</v>
+        <v>4.3336065280356113</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C17" s="6">
         <f>Model!I22/Model!H22-1</f>
-        <v>0.5133689839572193</v>
+        <v>0.49751243781094523</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="133" t="s">
-        <v>215</v>
-      </c>
-      <c r="M17" s="134"/>
-      <c r="N17" s="135"/>
+        <v>51</v>
+      </c>
+      <c r="L17" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="M17" s="133"/>
+      <c r="N17" s="134"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C18" s="51">
         <f>C14/(C16*100)</f>
-        <v>0.28341987938451102</v>
-      </c>
-      <c r="L18" s="136"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="138"/>
+        <v>0.37528058845189988</v>
+      </c>
+      <c r="L18" s="135"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="137"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C19" s="51">
         <f>C15/(C17*100)</f>
-        <v>1.4453816990577146</v>
-      </c>
-      <c r="L19" s="136"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="138"/>
+        <v>2.1828867109634555</v>
+      </c>
+      <c r="L19" s="135"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="137"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C20" s="6">
         <f>Model!H9/Model!G8-1</f>
-        <v>0.38623870481927702</v>
-      </c>
-      <c r="L20" s="136"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="138"/>
+        <v>0.3971197289156625</v>
+      </c>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="137"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C21" s="6">
         <f>Model!I9/Model!H9-1</f>
-        <v>0.28436791286988883</v>
-      </c>
-      <c r="L21" s="136"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="138"/>
+        <v>0.28457858923398249</v>
+      </c>
+      <c r="L21" s="135"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="137"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C22" s="15">
         <f>Model!G14</f>
         <v>-13.167999999999893</v>
       </c>
-      <c r="L22" s="136"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="138"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="137"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="15">
         <f>Model!G17</f>
         <v>17.868000000000109</v>
       </c>
-      <c r="L23" s="136"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="138"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="137"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!U23</f>
-        <v>0.73444195176668536</v>
-      </c>
-      <c r="L24" s="136"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="138"/>
+        <f>Model!V23</f>
+        <v>0.72906736450772092</v>
+      </c>
+      <c r="L24" s="135"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="137"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!U24</f>
-        <v>0.13642176107683696</v>
-      </c>
-      <c r="L25" s="136"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="138"/>
+        <f>Model!V24</f>
+        <v>0.12129142133192096</v>
+      </c>
+      <c r="L25" s="135"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="137"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>461.96922444089722</v>
-      </c>
-      <c r="L26" s="136"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="138"/>
+        <v>755.3088873964582</v>
+      </c>
+      <c r="L26" s="135"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="137"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C27" s="117">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="136"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="138"/>
+        <v>71</v>
+      </c>
+      <c r="L27" s="135"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="137"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="L28" s="139"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="141"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="140"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!U39/Model!U51</f>
-        <v>3.2782037239868576</v>
+        <f>Model!V39/Model!V52</f>
+        <v>3.0936419462606648</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C30" s="36">
-        <f>Model!U35/Model!U51</f>
-        <v>2.795633946444084</v>
+        <f>Model!V35/Model!V52</f>
+        <v>2.5743292813028851</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!U39-Model!U51)/Main!C7</f>
-        <v>16.625182949017233</v>
+        <f>(Model!V39-Model!V52)/Main!C7</f>
+        <v>16.287039563437929</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C33" s="36">
         <f>Model!G8/Model!G39</f>
@@ -13585,28 +13626,28 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C34" s="38">
-        <f>Model!G19/Model!G46</f>
+        <f>Model!G19/Model!G47</f>
         <v>1.6937870365226218E-2</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C35" s="38">
-        <f>Model!H19/Model!U54</f>
-        <v>0.10484468227145659</v>
+        <f>Model!H19/Model!U56</f>
+        <v>0.11269401677306294</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C36" s="23"/>
     </row>
@@ -13621,13 +13662,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:X77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13635,38 +13676,39 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="21" max="21" width="11.42578125" style="13"/>
+    <col min="21" max="21" width="11.42578125" style="151"/>
+    <col min="22" max="22" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
         <v>6</v>
@@ -13681,30 +13723,33 @@
         <v>9</v>
       </c>
       <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
       <c r="T2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" t="s">
-        <v>211</v>
+        <v>61</v>
+      </c>
+      <c r="U2" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="W2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="X2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E3">
         <v>180.7</v>
@@ -13742,13 +13787,16 @@
       <c r="T3" s="125">
         <v>131.69999999999999</v>
       </c>
-      <c r="U3" s="117">
+      <c r="U3" s="164">
         <v>143.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V3" s="161">
+        <v>157.61699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E4">
         <v>38.5</v>
@@ -13786,10 +13834,16 @@
       <c r="T4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U4" s="165">
+        <v>13.257999999999999</v>
+      </c>
+      <c r="V4" s="162">
+        <v>14.404999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>24.7</v>
@@ -13827,10 +13881,16 @@
       <c r="T5">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U5" s="165">
+        <v>10.698</v>
+      </c>
+      <c r="V5" s="162">
+        <v>10.772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>17.899999999999999</v>
@@ -13850,10 +13910,16 @@
       <c r="T6">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U6" s="165">
+        <v>10.176</v>
+      </c>
+      <c r="V6" s="162">
+        <v>9.4109999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>6.9</v>
@@ -13891,13 +13957,16 @@
       <c r="T7">
         <v>0.2</v>
       </c>
-      <c r="U7" s="13">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="165">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="V7" s="162">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="11">
         <f>SUM(C3:C7)</f>
@@ -13960,20 +14029,26 @@
         <f t="shared" si="1"/>
         <v>167.6</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="152">
         <f t="shared" si="1"/>
-        <v>178.3</v>
-      </c>
-      <c r="V8" s="43">
-        <v>189.08</v>
+        <v>178.31800000000001</v>
+      </c>
+      <c r="V8" s="14">
+        <f>SUM(V3:V7)</f>
+        <v>192.59399999999999</v>
       </c>
       <c r="W8" s="43">
-        <v>201.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <f>W9</f>
+        <v>204.46</v>
+      </c>
+      <c r="X8" s="1">
+        <f>X9</f>
+        <v>220.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13981,10 +14056,10 @@
       <c r="F9" s="10"/>
       <c r="G9" s="15"/>
       <c r="H9" s="42">
-        <v>736.37</v>
+        <v>742.15</v>
       </c>
       <c r="I9" s="42">
-        <v>945.77</v>
+        <v>953.35</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
@@ -13997,19 +14072,22 @@
       <c r="T9" s="10">
         <v>165.6</v>
       </c>
-      <c r="U9" s="128">
+      <c r="U9" s="153">
         <v>176.92</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="163">
         <v>189.08</v>
       </c>
       <c r="W9">
-        <v>201.41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>204.46</v>
+      </c>
+      <c r="X9">
+        <v>220.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10">
@@ -14053,13 +14131,16 @@
       <c r="T10" s="10">
         <v>45.191000000000003</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="154">
         <v>47.348999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V10" s="15">
+        <v>52.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10">
@@ -14103,13 +14184,16 @@
       <c r="T11" s="126">
         <v>50.878</v>
       </c>
-      <c r="U11" s="129">
+      <c r="U11" s="155">
         <v>55.146999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V11" s="128">
+        <v>62.878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
@@ -14153,13 +14237,16 @@
       <c r="T12" s="126">
         <v>19.931000000000001</v>
       </c>
-      <c r="U12" s="129">
+      <c r="U12" s="155">
         <v>20.173999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V12" s="128">
+        <v>25.574000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -14203,13 +14290,16 @@
       <c r="T13" s="126">
         <v>35.113999999999997</v>
       </c>
-      <c r="U13" s="129">
+      <c r="U13" s="155">
         <v>36.957000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="128">
+        <v>38.387999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11">
         <f t="shared" ref="C14:I14" si="2">C8-SUM(C10:C13)</f>
@@ -14242,7 +14332,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11">
-        <f t="shared" ref="L14:U14" si="3">L8-SUM(L10:L13)</f>
+        <f t="shared" ref="L14:V14" si="3">L8-SUM(L10:L13)</f>
         <v>-11.867000000000004</v>
       </c>
       <c r="M14" s="11">
@@ -14277,14 +14367,18 @@
         <f t="shared" si="3"/>
         <v>16.48599999999999</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="152">
         <f t="shared" si="3"/>
-        <v>18.67300000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>18.691000000000031</v>
+      </c>
+      <c r="V14" s="14">
+        <f t="shared" si="3"/>
+        <v>13.573999999999984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10">
@@ -14329,13 +14423,16 @@
       <c r="T15" s="10">
         <v>-0.621</v>
       </c>
-      <c r="U15" s="15">
+      <c r="U15" s="154">
         <v>-0.70699999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V15" s="15">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -14377,13 +14474,16 @@
       <c r="T16" s="10">
         <v>10.032999999999999</v>
       </c>
-      <c r="U16" s="15">
+      <c r="U16" s="154">
         <v>10.721</v>
       </c>
-    </row>
-    <row r="17" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="15">
+        <v>11.246</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11">
         <f t="shared" ref="C17:I17" si="4">C14+SUM(C15:C16)</f>
@@ -14414,7 +14514,7 @@
         <v>945.77</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" ref="L17:U17" si="5">L14+SUM(L15:L16)</f>
+        <f t="shared" ref="L17:V17" si="5">L14+SUM(L15:L16)</f>
         <v>-12.146000000000004</v>
       </c>
       <c r="M17" s="11">
@@ -14449,14 +14549,18 @@
         <f t="shared" si="5"/>
         <v>25.897999999999989</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="152">
         <f t="shared" si="5"/>
-        <v>28.68700000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+        <v>28.70500000000003</v>
+      </c>
+      <c r="V17" s="14">
+        <f t="shared" si="5"/>
+        <v>25.388999999999985</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -14500,13 +14604,16 @@
       <c r="T18" s="10">
         <v>-1.105</v>
       </c>
-      <c r="U18" s="15">
+      <c r="U18" s="154">
         <v>4.3630000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="15">
+        <v>2.0289999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11">
         <f>C17-SUM(C18:C18)</f>
@@ -14530,14 +14637,14 @@
       </c>
       <c r="H19" s="56">
         <f>H22*H20</f>
-        <v>80.410000000000011</v>
+        <v>86.429999999999993</v>
       </c>
       <c r="I19" s="56">
         <f>I22*I20</f>
-        <v>121.69</v>
+        <v>129.42999999999998</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" ref="L19:U19" si="6">L17-SUM(L18:L18)</f>
+        <f t="shared" ref="L19:V19" si="6">L17-SUM(L18:L18)</f>
         <v>-12.174000000000005</v>
       </c>
       <c r="M19" s="11">
@@ -14572,12 +14679,16 @@
         <f t="shared" si="6"/>
         <v>27.002999999999989</v>
       </c>
-      <c r="U19" s="14">
+      <c r="U19" s="152">
         <f t="shared" si="6"/>
-        <v>24.32400000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+        <v>24.342000000000031</v>
+      </c>
+      <c r="V19" s="14">
+        <f t="shared" si="6"/>
+        <v>23.359999999999985</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -14634,14 +14745,17 @@
         <f>36.989041+6.133077</f>
         <v>43.122118</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U20" s="154">
         <f>37.436692+6.102077</f>
         <v>43.538769000000002</v>
       </c>
-    </row>
-    <row r="21" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="15">
+        <v>43.98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2" t="e">
         <f>C19/C20</f>
@@ -14662,10 +14776,10 @@
         <f>G19/G20</f>
         <v>0.37685569594131474</v>
       </c>
-      <c r="H21" s="132">
+      <c r="H21" s="131">
         <v>1.87</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="130">
         <v>2.83</v>
       </c>
       <c r="L21" s="2">
@@ -14673,7 +14787,7 @@
         <v>-0.29958717065067497</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" ref="M21:U21" si="7">M19/M20</f>
+        <f t="shared" ref="M21:V21" si="7">M19/M20</f>
         <v>-0.37235530467515671</v>
       </c>
       <c r="N21" s="2">
@@ -14704,20 +14818,25 @@
         <f t="shared" si="7"/>
         <v>0.6261983699409196</v>
       </c>
-      <c r="U21" s="35">
+      <c r="U21" s="156">
         <f t="shared" si="7"/>
-        <v>0.55867449996117324</v>
-      </c>
-      <c r="V21" s="131">
-        <v>0.35</v>
-      </c>
-      <c r="W21" s="131">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.55908792460347301</v>
+      </c>
+      <c r="V21" s="35">
+        <v>0.49</v>
+      </c>
+      <c r="W21" s="130">
+        <f>W22</f>
+        <v>0.47</v>
+      </c>
+      <c r="X21" s="1">
+        <f>X22</f>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -14725,10 +14844,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="35"/>
       <c r="H22" s="44">
-        <v>1.87</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I22" s="45">
-        <v>2.83</v>
+        <v>3.01</v>
       </c>
       <c r="L22" s="50"/>
       <c r="M22" s="50"/>
@@ -14741,19 +14860,22 @@
       <c r="T22" s="49">
         <v>0.27</v>
       </c>
-      <c r="U22" s="130">
+      <c r="U22" s="157">
         <v>0.25</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="129">
         <v>0.35</v>
       </c>
       <c r="W22" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.47</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3" t="e">
         <f>1-C10/C8</f>
@@ -14813,14 +14935,18 @@
         <f>1-T10/T8</f>
         <v>0.73036396181384244</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="39">
         <f t="shared" si="8"/>
-        <v>0.73444195176668536</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+        <v>0.73446875806144085</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" ref="V23" si="9">1-V10/V8</f>
+        <v>0.72906736450772092</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4" t="e">
         <f>C19/C8</f>
@@ -14844,56 +14970,60 @@
       </c>
       <c r="H24" s="47">
         <f>H19/H9</f>
-        <v>0.10919782174721948</v>
+        <v>0.11645893687259987</v>
       </c>
       <c r="I24" s="47">
         <f>I19/I9</f>
-        <v>0.12866764646795734</v>
+        <v>0.13576336078040591</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" ref="L24:U24" si="9">L19/L8</f>
+        <f t="shared" ref="L24:U24" si="10">L19/L8</f>
         <v>-0.1499261083743843</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.17135900339750834</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.19157127991675352</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.13443159922928713</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.1979256698357728E-2</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9834515366430135E-2</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0225290697674501E-2</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.0344370860927342E-2</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.16111575178997609</v>
       </c>
-      <c r="U24" s="7">
-        <f t="shared" si="9"/>
-        <v>0.13642176107683696</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U24" s="158">
+        <f t="shared" si="10"/>
+        <v>0.13650893347839269</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" ref="V24" si="11">V19/V8</f>
+        <v>0.12129142133192096</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -14911,44 +15041,56 @@
       </c>
       <c r="H25" s="48">
         <f>H9/G8-1</f>
-        <v>0.38623870481927702</v>
+        <v>0.3971197289156625</v>
       </c>
       <c r="I25" s="48">
         <f>I9/H9-1</f>
-        <v>0.28436791286988883</v>
+        <v>0.28457858923398249</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4">
-        <f t="shared" ref="P25:U25" si="10">P8/L8-1</f>
+      <c r="P25" s="166">
+        <f t="shared" ref="P25:X25" si="12">P8/L8-1</f>
         <v>0.42487684729064035</v>
       </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="10"/>
+      <c r="Q25" s="166">
+        <f t="shared" si="12"/>
         <v>0.43714609286523198</v>
       </c>
-      <c r="R25" s="4">
-        <f t="shared" si="10"/>
+      <c r="R25" s="166">
+        <f t="shared" si="12"/>
         <v>0.43184183142559873</v>
       </c>
-      <c r="S25" s="4">
-        <f t="shared" si="10"/>
+      <c r="S25" s="166">
+        <f t="shared" si="12"/>
         <v>0.45472061657032792</v>
       </c>
-      <c r="T25" s="4">
-        <f t="shared" si="10"/>
+      <c r="T25" s="166">
+        <f t="shared" si="12"/>
         <v>0.44857389801210013</v>
       </c>
-      <c r="U25" s="7">
-        <f t="shared" si="10"/>
-        <v>0.40504334121355412</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U25" s="167">
+        <f t="shared" si="12"/>
+        <v>0.40518518518518531</v>
+      </c>
+      <c r="V25" s="168">
+        <f t="shared" si="12"/>
+        <v>0.3996656976744184</v>
+      </c>
+      <c r="W25" s="167">
+        <f t="shared" si="12"/>
+        <v>0.35403973509933762</v>
+      </c>
+      <c r="X25" s="167">
+        <f t="shared" si="12"/>
+        <v>0.31420047732696887</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C26" s="4" t="e">
         <f>C11/C8</f>
@@ -14973,49 +15115,53 @@
       <c r="H26" s="118"/>
       <c r="I26" s="118"/>
       <c r="L26" s="4">
-        <f t="shared" ref="L26:S26" si="11">L11/L8</f>
+        <f t="shared" ref="L26:S26" si="13">L11/L8</f>
         <v>0.36676108374384236</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.38750849377123436</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.43679500520291364</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.42842003853564548</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.39623163353500435</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.37783293932230105</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.36558866279069763</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.33282119205298005</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" ref="T26" si="12">T11/T8</f>
+        <f t="shared" ref="T26" si="14">T11/T8</f>
         <v>0.30356801909307879</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="158">
         <f>U11/U8</f>
-        <v>0.30929332585530001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+        <v>0.30926210477910249</v>
+      </c>
+      <c r="V26" s="7">
+        <f>V11/V8</f>
+        <v>0.32647953726492002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C27" s="4" t="e">
         <f>C12/C8</f>
@@ -15040,94 +15186,98 @@
       <c r="H27" s="118"/>
       <c r="I27" s="118"/>
       <c r="L27" s="4">
-        <f t="shared" ref="L27:S27" si="13">L12/L8</f>
+        <f t="shared" ref="L27:S27" si="15">L12/L8</f>
         <v>0.18399014778325121</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.1730124575311438</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.18440166493236212</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.18332369942196533</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.14348314606741572</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.13974783293932233</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16231831395348836</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.12660927152317877</v>
       </c>
       <c r="T27" s="4">
         <f>T12/T8</f>
         <v>0.1189200477326969</v>
       </c>
-      <c r="U27" s="7">
-        <f t="shared" ref="U27" si="14">U12/U8</f>
-        <v>0.11314638250140212</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U27" s="158">
+        <f t="shared" ref="U27:V27" si="16">U12/U8</f>
+        <v>0.1131349611368454</v>
+      </c>
+      <c r="V27" s="7">
+        <f t="shared" si="16"/>
+        <v>0.13278710655575979</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C28" s="4" t="e">
-        <f t="shared" ref="C28:G28" si="15">C13/C8</f>
+        <f t="shared" ref="C28:G28" si="17">C13/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.27034063922422324</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.31335725677830945</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.31902544667027616</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.24872552710843371</v>
       </c>
       <c r="H28" s="118"/>
       <c r="I28" s="118"/>
       <c r="L28" s="4">
-        <f t="shared" ref="L28:Q28" si="16">L13/L8</f>
+        <f t="shared" ref="L28:Q28" si="18">L13/L8</f>
         <v>0.33073891625615764</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.34039637599093991</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.31454734651404792</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.29582851637764934</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.26139152981849612</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.25401891252955083</v>
       </c>
       <c r="R28" s="4">
@@ -15139,30 +15289,34 @@
         <v>0.2400331125827814</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28:U28" si="17">T13/T8</f>
+        <f t="shared" ref="T28:U28" si="19">T13/T8</f>
         <v>0.20951073985680191</v>
       </c>
-      <c r="U28" s="7">
-        <f t="shared" si="17"/>
-        <v>0.20727425687044307</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U28" s="158">
+        <f t="shared" si="19"/>
+        <v>0.2072533339315156</v>
+      </c>
+      <c r="V28" s="7">
+        <f t="shared" ref="V28" si="20">V13/V8</f>
+        <v>0.19932085111685721</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="e">
-        <f t="shared" ref="E29:G30" si="18">E3/D3-1</f>
+        <f t="shared" ref="E29:G30" si="21">E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.51355838406198129</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.4797074954296161</v>
       </c>
       <c r="H29" s="118"/>
@@ -15177,22 +15331,22 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.16103896103896109</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.11633109619686799</v>
       </c>
       <c r="H30" s="118"/>
@@ -15207,9 +15361,9 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="e">
@@ -15230,69 +15384,73 @@
       </c>
       <c r="H31" s="55">
         <f>H22/G21-1</f>
-        <v>3.9621115459833804</v>
+        <v>4.3336065280356113</v>
       </c>
       <c r="I31" s="55">
         <f>I22/H22-1</f>
-        <v>0.5133689839572193</v>
+        <v>0.49751243781094523</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="152" t="e">
-        <f t="shared" ref="N31:T31" si="19">N21/J21-1</f>
+      <c r="N31" s="4" t="e">
+        <f t="shared" ref="N31:T31" si="22">N21/J21-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="152" t="e">
-        <f t="shared" si="19"/>
+      <c r="O31" s="4" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P31" s="152">
-        <f t="shared" si="19"/>
+      <c r="P31" s="4">
+        <f t="shared" si="22"/>
         <v>-0.80202487370739006</v>
       </c>
-      <c r="Q31" s="152">
-        <f t="shared" si="19"/>
+      <c r="Q31" s="4">
+        <f t="shared" si="22"/>
         <v>-1.237143128119623</v>
       </c>
-      <c r="R31" s="152">
-        <f t="shared" si="19"/>
+      <c r="R31" s="4">
+        <f t="shared" si="22"/>
         <v>-1.1432705683594535</v>
       </c>
-      <c r="S31" s="152">
-        <f t="shared" si="19"/>
+      <c r="S31" s="4">
+        <f t="shared" si="22"/>
         <v>-1.8240076599806869</v>
       </c>
-      <c r="T31" s="152">
-        <f t="shared" si="19"/>
+      <c r="T31" s="4">
+        <f t="shared" si="22"/>
         <v>-11.557913332075247</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U31" s="158">
         <f>U21/Q21-1</f>
-        <v>5.3268969277129878</v>
-      </c>
-      <c r="V31" s="152">
+        <v>5.3315788938657098</v>
+      </c>
+      <c r="V31" s="7">
         <f>V21/R21-1</f>
-        <v>4.3922169601149603</v>
-      </c>
-      <c r="W31" s="152">
+        <v>6.549103744160945</v>
+      </c>
+      <c r="W31" s="4">
         <f>W21/S21-1</f>
-        <v>0.59034970326409075</v>
+        <v>0.66103191229805014</v>
+      </c>
+      <c r="X31" s="4">
+        <f>X21/T21-1</f>
+        <v>0.10188725030552193</v>
       </c>
     </row>
     <row r="34" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" ref="C34:E34" si="20">C35</f>
+        <f t="shared" ref="C34:E34" si="23">C35</f>
         <v>0</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>120.49</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>553.99199999999996</v>
       </c>
       <c r="F34" s="11">
@@ -15304,57 +15462,57 @@
         <v>747.61</v>
       </c>
       <c r="L34" s="11">
-        <f t="shared" ref="L34:W34" si="21">L35</f>
+        <f t="shared" ref="L34:W34" si="24">L35</f>
         <v>0</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O34" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>608.17999999999995</v>
       </c>
       <c r="P34" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>641.09100000000001</v>
       </c>
       <c r="Q34" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>678.66499999999996</v>
       </c>
       <c r="R34" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>701.73699999999997</v>
       </c>
       <c r="S34" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>747.61</v>
       </c>
       <c r="T34" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>829.71299999999997</v>
       </c>
-      <c r="U34" s="14">
-        <f t="shared" si="21"/>
+      <c r="U34" s="152">
+        <f t="shared" si="24"/>
         <v>888.24</v>
       </c>
-      <c r="V34" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
+      <c r="V34" s="14">
+        <f t="shared" si="24"/>
+        <v>880.76300000000003</v>
       </c>
       <c r="W34" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10">
@@ -15392,15 +15550,18 @@
       <c r="T35" s="10">
         <v>829.71299999999997</v>
       </c>
-      <c r="U35" s="15">
+      <c r="U35" s="154">
         <v>888.24</v>
       </c>
-      <c r="V35" s="10"/>
+      <c r="V35" s="15">
+        <f>854.409+26.354</f>
+        <v>880.76300000000003</v>
+      </c>
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10">
@@ -15438,15 +15599,17 @@
       <c r="T36" s="10">
         <v>76.421000000000006</v>
       </c>
-      <c r="U36" s="15">
+      <c r="U36" s="154">
         <v>77.721999999999994</v>
       </c>
-      <c r="V36" s="10"/>
+      <c r="V36" s="15">
+        <v>94.215000000000003</v>
+      </c>
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
@@ -15484,15 +15647,17 @@
       <c r="T37" s="10">
         <v>60.396999999999998</v>
       </c>
-      <c r="U37" s="15">
+      <c r="U37" s="154">
         <v>63.284999999999997</v>
       </c>
-      <c r="V37" s="10"/>
+      <c r="V37" s="15">
+        <v>67.328999999999994</v>
+      </c>
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
@@ -15530,15 +15695,17 @@
       <c r="T38" s="10">
         <v>10.747</v>
       </c>
-      <c r="U38" s="15">
+      <c r="U38" s="154">
         <v>12.317</v>
       </c>
-      <c r="V38" s="10"/>
+      <c r="V38" s="15">
+        <v>16.13</v>
+      </c>
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C39" s="11">
         <f>SUM(C35:C38)</f>
@@ -15561,57 +15728,57 @@
         <v>897.79800000000012</v>
       </c>
       <c r="L39" s="11">
-        <f t="shared" ref="L39:S39" si="22">SUM(L35:L38)</f>
+        <f t="shared" ref="L39:S39" si="25">SUM(L35:L38)</f>
         <v>0</v>
       </c>
       <c r="M39" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N39" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O39" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>697.18299999999988</v>
       </c>
       <c r="P39" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>741.23400000000004</v>
       </c>
       <c r="Q39" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>784.94099999999992</v>
       </c>
       <c r="R39" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>819.10500000000002</v>
       </c>
       <c r="S39" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>897.79800000000012</v>
       </c>
       <c r="T39" s="11">
-        <f t="shared" ref="T39:W39" si="23">SUM(T35:T38)</f>
+        <f t="shared" ref="T39:W39" si="26">SUM(T35:T38)</f>
         <v>977.27800000000002</v>
       </c>
-      <c r="U39" s="14">
-        <f t="shared" si="23"/>
+      <c r="U39" s="152">
+        <f t="shared" si="26"/>
         <v>1041.5640000000001</v>
       </c>
-      <c r="V39" s="11">
-        <f t="shared" si="23"/>
-        <v>0</v>
+      <c r="V39" s="14">
+        <f t="shared" si="26"/>
+        <v>1058.4370000000001</v>
       </c>
       <c r="W39" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10">
@@ -15635,15 +15802,17 @@
       <c r="T40" s="10">
         <v>13.209</v>
       </c>
-      <c r="U40" s="15">
+      <c r="U40" s="154">
         <v>18.343</v>
       </c>
-      <c r="V40" s="10"/>
+      <c r="V40" s="15">
+        <v>48.624000000000002</v>
+      </c>
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -15665,15 +15834,17 @@
       <c r="T41" s="10">
         <v>4.05</v>
       </c>
-      <c r="U41" s="15">
+      <c r="U41" s="154">
         <v>4.05</v>
       </c>
-      <c r="V41" s="10"/>
+      <c r="V41" s="15">
+        <v>10.538</v>
+      </c>
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
@@ -15697,26 +15868,22 @@
       <c r="T42" s="10">
         <v>18.594999999999999</v>
       </c>
-      <c r="U42" s="15">
+      <c r="U42" s="154">
         <v>20.585999999999999</v>
       </c>
-      <c r="V42" s="10"/>
+      <c r="V42" s="15">
+        <v>21.9</v>
+      </c>
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="10">
-        <v>8.0730000000000004</v>
-      </c>
-      <c r="E43" s="10">
-        <v>28.369</v>
-      </c>
-      <c r="F43" s="10">
-        <v>22</v>
-      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="15"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -15726,26 +15893,26 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
-      <c r="T43" s="10">
-        <v>49.784999999999997</v>
-      </c>
-      <c r="U43" s="15">
-        <v>49.76</v>
-      </c>
-      <c r="V43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="15">
+        <v>55.328000000000003</v>
+      </c>
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="D44" s="10">
+        <v>8.0730000000000004</v>
+      </c>
       <c r="E44" s="10">
-        <v>0</v>
+        <v>28.369</v>
       </c>
       <c r="F44" s="10">
-        <v>0.63300000000000001</v>
+        <v>22</v>
       </c>
       <c r="G44" s="15"/>
       <c r="L44" s="10"/>
@@ -15757,573 +15924,649 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
       <c r="T44" s="10">
-        <f>2.735+0.766</f>
-        <v>3.5009999999999999</v>
-      </c>
-      <c r="U44" s="15">
-        <f>2.735+0.835</f>
-        <v>3.57</v>
-      </c>
-      <c r="V44" s="10"/>
+        <v>49.784999999999997</v>
+      </c>
+      <c r="U44" s="154">
+        <v>49.76</v>
+      </c>
+      <c r="V44" s="15">
+        <f>19.495+2.735</f>
+        <v>22.23</v>
+      </c>
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="10">
-        <v>0.56200000000000006</v>
-      </c>
+      <c r="D45" s="10"/>
       <c r="E45" s="10">
-        <v>0.89400000000000002</v>
+        <v>0</v>
       </c>
       <c r="F45" s="10">
-        <v>1.5069999999999999</v>
-      </c>
-      <c r="G45" s="15">
-        <v>56.158999999999999</v>
-      </c>
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="G45" s="15"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="10">
-        <f>F45</f>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10">
+        <f>2.735+0.766</f>
+        <v>3.5009999999999999</v>
+      </c>
+      <c r="U45" s="154">
+        <f>2.735+0.835</f>
+        <v>3.57</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="W45" s="10"/>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="F46" s="10">
         <v>1.5069999999999999</v>
       </c>
-      <c r="P45" s="10">
+      <c r="G46" s="15">
+        <v>56.158999999999999</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10">
+        <f>F46</f>
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="P46" s="10">
         <v>49.145000000000003</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="Q46" s="10">
         <v>49.862000000000002</v>
       </c>
-      <c r="R45" s="10">
+      <c r="R46" s="10">
         <v>51.609000000000002</v>
       </c>
-      <c r="S45" s="10">
-        <f>G45</f>
+      <c r="S46" s="10">
+        <f>G46</f>
         <v>56.158999999999999</v>
       </c>
-      <c r="T45" s="10">
+      <c r="T46" s="10">
         <v>2.2490000000000001</v>
       </c>
-      <c r="U45" s="15">
+      <c r="U46" s="154">
         <v>1.57</v>
       </c>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="11">
-        <f>SUM(C39:C45)</f>
+      <c r="V46" s="15">
+        <v>1.657</v>
+      </c>
+      <c r="W46" s="10"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="11">
+        <f>SUM(C39:C46)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="11">
-        <f>SUM(D39:D45)</f>
+      <c r="D47" s="11">
+        <f>SUM(D39:D46)</f>
         <v>175.739</v>
       </c>
-      <c r="E46" s="11">
-        <f>SUM(E39:E45)</f>
+      <c r="E47" s="11">
+        <f>SUM(E39:E46)</f>
         <v>661.38100000000009</v>
       </c>
-      <c r="F46" s="11">
-        <f>SUM(F39:F45)</f>
+      <c r="F47" s="11">
+        <f>SUM(F39:F46)</f>
         <v>746.83899999999983</v>
       </c>
-      <c r="G46" s="14">
-        <f>SUM(G39:G45)</f>
+      <c r="G47" s="14">
+        <f>SUM(G39:G46)</f>
         <v>953.95700000000011</v>
       </c>
-      <c r="L46" s="11">
-        <f t="shared" ref="L46:S46" si="24">SUM(L39:L45)</f>
+      <c r="L47" s="11">
+        <f t="shared" ref="L47:S47" si="27">SUM(L39:L46)</f>
         <v>0</v>
       </c>
-      <c r="M46" s="11">
-        <f t="shared" si="24"/>
+      <c r="M47" s="11">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N46" s="11">
-        <f t="shared" si="24"/>
+      <c r="N47" s="11">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="O46" s="11">
-        <f t="shared" si="24"/>
+      <c r="O47" s="11">
+        <f t="shared" si="27"/>
         <v>698.68999999999983</v>
       </c>
-      <c r="P46" s="11">
-        <f t="shared" si="24"/>
+      <c r="P47" s="11">
+        <f t="shared" si="27"/>
         <v>790.37900000000002</v>
       </c>
-      <c r="Q46" s="11">
-        <f t="shared" si="24"/>
+      <c r="Q47" s="11">
+        <f t="shared" si="27"/>
         <v>834.80299999999988</v>
       </c>
-      <c r="R46" s="11">
-        <f t="shared" si="24"/>
+      <c r="R47" s="11">
+        <f t="shared" si="27"/>
         <v>870.71400000000006</v>
       </c>
-      <c r="S46" s="11">
-        <f t="shared" si="24"/>
+      <c r="S47" s="11">
+        <f t="shared" si="27"/>
         <v>953.95700000000011</v>
       </c>
-      <c r="T46" s="11">
-        <f t="shared" ref="T46:W46" si="25">SUM(T39:T45)</f>
+      <c r="T47" s="11">
+        <f t="shared" ref="T47:W47" si="28">SUM(T39:T46)</f>
         <v>1068.6669999999999</v>
       </c>
-      <c r="U46" s="14">
-        <f t="shared" si="25"/>
+      <c r="U47" s="152">
+        <f t="shared" si="28"/>
         <v>1139.443</v>
       </c>
-      <c r="V46" s="11">
-        <f t="shared" si="25"/>
+      <c r="V47" s="14">
+        <f t="shared" si="28"/>
+        <v>1219.5490000000002</v>
+      </c>
+      <c r="W47" s="11">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="W46" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10">
-        <v>2.1960000000000002</v>
-      </c>
-      <c r="E47" s="10">
-        <v>7.8179999999999996</v>
-      </c>
-      <c r="F47" s="10">
-        <v>1.177</v>
-      </c>
-      <c r="G47" s="15">
-        <v>2.4470000000000001</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10">
-        <f>F47</f>
-        <v>1.177</v>
-      </c>
-      <c r="P47" s="10">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="Q47" s="10">
-        <v>2.3050000000000002</v>
-      </c>
-      <c r="R47" s="10">
-        <v>2.7120000000000002</v>
-      </c>
-      <c r="S47" s="10">
-        <f>G47</f>
-        <v>2.4470000000000001</v>
-      </c>
-      <c r="T47" s="10">
-        <v>2.625</v>
-      </c>
-      <c r="U47" s="15">
-        <v>3.4049999999999998</v>
-      </c>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
-        <v>53.792000000000002</v>
+        <v>2.1960000000000002</v>
       </c>
       <c r="E48" s="10">
-        <v>98.266999999999996</v>
+        <v>7.8179999999999996</v>
       </c>
       <c r="F48" s="10">
-        <v>157.55000000000001</v>
+        <v>1.177</v>
       </c>
       <c r="G48" s="15">
-        <v>249.19200000000001</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10">
         <f>F48</f>
-        <v>157.55000000000001</v>
+        <v>1.177</v>
       </c>
       <c r="P48" s="10">
-        <v>181.94200000000001</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="Q48" s="10">
-        <v>192.75299999999999</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="R48" s="10">
-        <v>208.88800000000001</v>
+        <v>2.7120000000000002</v>
       </c>
       <c r="S48" s="10">
         <f>G48</f>
-        <v>249.19200000000001</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="T48" s="10">
-        <v>279.31299999999999</v>
-      </c>
-      <c r="U48" s="15">
-        <v>291.47699999999998</v>
-      </c>
-      <c r="V48" s="10"/>
+        <v>2.625</v>
+      </c>
+      <c r="U48" s="154">
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="V48" s="15">
+        <v>3.649</v>
+      </c>
       <c r="W48" s="10"/>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
-        <v>6.8000000000000005E-2</v>
+        <v>53.792000000000002</v>
       </c>
       <c r="E49" s="10">
-        <v>0.113</v>
+        <v>98.266999999999996</v>
       </c>
       <c r="F49" s="10">
-        <v>1.069</v>
-      </c>
-      <c r="G49" s="15"/>
+        <v>157.55000000000001</v>
+      </c>
+      <c r="G49" s="15">
+        <v>249.19200000000001</v>
+      </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
+      <c r="O49" s="10">
+        <f>F49</f>
+        <v>157.55000000000001</v>
+      </c>
+      <c r="P49" s="10">
+        <v>181.94200000000001</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>192.75299999999999</v>
+      </c>
+      <c r="R49" s="10">
+        <v>208.88800000000001</v>
+      </c>
+      <c r="S49" s="10">
+        <f>G49</f>
+        <v>249.19200000000001</v>
+      </c>
       <c r="T49" s="10">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="U49" s="15">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="V49" s="10"/>
+        <v>279.31299999999999</v>
+      </c>
+      <c r="U49" s="154">
+        <v>291.47699999999998</v>
+      </c>
+      <c r="V49" s="15">
+        <v>310.60300000000001</v>
+      </c>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
-        <v>8.6340000000000003</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E50" s="10">
-        <v>12.933</v>
+        <v>0.113</v>
       </c>
       <c r="F50" s="10">
-        <v>21.97</v>
-      </c>
-      <c r="G50" s="15">
-        <v>25.722999999999999</v>
-      </c>
+        <v>1.069</v>
+      </c>
+      <c r="G50" s="15"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
-      <c r="O50" s="10">
-        <f>F50</f>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="U50" s="154">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="V50" s="15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="W50" s="10"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10">
+        <v>8.6340000000000003</v>
+      </c>
+      <c r="E51" s="10">
+        <v>12.933</v>
+      </c>
+      <c r="F51" s="10">
         <v>21.97</v>
       </c>
-      <c r="P50" s="10">
+      <c r="G51" s="15">
+        <v>25.722999999999999</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10">
+        <f>F51</f>
+        <v>21.97</v>
+      </c>
+      <c r="P51" s="10">
         <v>19.885000000000002</v>
       </c>
-      <c r="Q50" s="10">
+      <c r="Q51" s="10">
         <v>22.047999999999998</v>
       </c>
-      <c r="R50" s="10">
+      <c r="R51" s="10">
         <v>23.334</v>
       </c>
-      <c r="S50" s="10">
-        <f>G50</f>
+      <c r="S51" s="10">
+        <f>G51</f>
         <v>25.722999999999999</v>
       </c>
-      <c r="T50" s="10">
+      <c r="T51" s="10">
         <v>21.422000000000001</v>
       </c>
-      <c r="U50" s="15">
+      <c r="U51" s="154">
         <v>22.803999999999998</v>
       </c>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-    </row>
-    <row r="51" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="11">
-        <f>SUM(C47:C50)</f>
+      <c r="V51" s="15">
+        <v>27.844999999999999</v>
+      </c>
+      <c r="W51" s="10"/>
+    </row>
+    <row r="52" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="11">
+        <f>SUM(C48:C51)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="11">
-        <f>SUM(D47:D50)</f>
+      <c r="D52" s="11">
+        <f>SUM(D48:D51)</f>
         <v>64.69</v>
       </c>
-      <c r="E51" s="11">
-        <f>SUM(E47:E50)</f>
+      <c r="E52" s="11">
+        <f>SUM(E48:E51)</f>
         <v>119.131</v>
       </c>
-      <c r="F51" s="11">
-        <f>SUM(F47:F50)</f>
+      <c r="F52" s="11">
+        <f>SUM(F48:F51)</f>
         <v>181.76599999999999</v>
       </c>
-      <c r="G51" s="14">
-        <f>SUM(G47:G50)</f>
+      <c r="G52" s="14">
+        <f>SUM(G48:G51)</f>
         <v>277.36200000000002</v>
       </c>
-      <c r="L51" s="11">
-        <f t="shared" ref="L51:S51" si="26">SUM(L47:L50)</f>
+      <c r="L52" s="11">
+        <f t="shared" ref="L52:S52" si="29">SUM(L48:L51)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="11">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="11">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="11">
-        <f t="shared" si="26"/>
-        <v>180.697</v>
-      </c>
-      <c r="P51" s="11">
-        <f t="shared" si="26"/>
-        <v>202.81299999999999</v>
-      </c>
-      <c r="Q51" s="11">
-        <f t="shared" si="26"/>
-        <v>217.10599999999999</v>
-      </c>
-      <c r="R51" s="11">
-        <f t="shared" si="26"/>
-        <v>234.934</v>
-      </c>
-      <c r="S51" s="11">
-        <f t="shared" si="26"/>
-        <v>277.36200000000002</v>
-      </c>
-      <c r="T51" s="11">
-        <f t="shared" ref="T51:W51" si="27">SUM(T47:T50)</f>
-        <v>303.72200000000004</v>
-      </c>
-      <c r="U51" s="14">
-        <f t="shared" si="27"/>
-        <v>317.72399999999993</v>
-      </c>
-      <c r="V51" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="W51" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10">
-        <v>8.1310000000000002</v>
-      </c>
-      <c r="E52" s="10">
-        <v>29.123999999999999</v>
-      </c>
-      <c r="F52" s="10">
-        <v>23.503</v>
-      </c>
-      <c r="G52" s="15">
-        <v>21.094000000000001</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10">
-        <f>F52</f>
-        <v>23.503</v>
-      </c>
-      <c r="P52" s="10">
-        <v>22.378</v>
-      </c>
-      <c r="Q52" s="10">
-        <v>21.292000000000002</v>
-      </c>
-      <c r="R52" s="10">
-        <v>20.960999999999999</v>
-      </c>
-      <c r="S52" s="10">
-        <f>G52</f>
-        <v>21.094000000000001</v>
-      </c>
-      <c r="T52" s="10">
-        <v>53.893000000000001</v>
-      </c>
-      <c r="U52" s="15">
-        <v>54.774999999999999</v>
-      </c>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="11">
-        <f>SUM(C51:C52)</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="11">
-        <f>SUM(D51:D52)</f>
-        <v>72.820999999999998</v>
-      </c>
-      <c r="E53" s="11">
-        <f>SUM(E51:E52)</f>
-        <v>148.255</v>
-      </c>
-      <c r="F53" s="11">
-        <f>SUM(F51:F52)</f>
-        <v>205.26900000000001</v>
-      </c>
-      <c r="G53" s="14">
-        <f>SUM(G51:G52)</f>
-        <v>298.45600000000002</v>
-      </c>
-      <c r="L53" s="11">
-        <f t="shared" ref="L53:S53" si="28">SUM(L51:L52)</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="11">
-        <f t="shared" si="28"/>
-        <v>204.2</v>
-      </c>
-      <c r="P53" s="11">
-        <f t="shared" si="28"/>
-        <v>225.19099999999997</v>
-      </c>
-      <c r="Q53" s="11">
-        <f t="shared" si="28"/>
-        <v>238.398</v>
-      </c>
-      <c r="R53" s="11">
-        <f t="shared" si="28"/>
-        <v>255.89499999999998</v>
-      </c>
-      <c r="S53" s="11">
-        <f t="shared" si="28"/>
-        <v>298.45600000000002</v>
-      </c>
-      <c r="T53" s="11">
-        <f t="shared" ref="T53:W53" si="29">SUM(T51:T52)</f>
-        <v>357.61500000000001</v>
-      </c>
-      <c r="U53" s="14">
-        <f t="shared" si="29"/>
-        <v>372.49899999999991</v>
-      </c>
-      <c r="V53" s="11">
+      <c r="M52" s="11">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="W53" s="11">
+      <c r="N52" s="11">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="10">
-        <f>C46-C53</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="10">
-        <f>D46-D53</f>
-        <v>102.91800000000001</v>
-      </c>
-      <c r="E54" s="10">
-        <f>E46-E53</f>
-        <v>513.12600000000009</v>
-      </c>
-      <c r="F54" s="10">
-        <f>F46-F53</f>
-        <v>541.56999999999982</v>
-      </c>
-      <c r="G54" s="15">
-        <f>G46-G53</f>
-        <v>655.50100000000009</v>
-      </c>
-      <c r="O54" s="10">
-        <f>O46-O53</f>
-        <v>494.48999999999984</v>
-      </c>
-      <c r="P54" s="10">
-        <f>P46-P53</f>
-        <v>565.1880000000001</v>
-      </c>
-      <c r="Q54" s="10">
-        <f>Q46-Q53</f>
-        <v>596.40499999999986</v>
-      </c>
-      <c r="R54" s="10">
-        <f>R46-R53</f>
-        <v>614.81900000000007</v>
-      </c>
-      <c r="S54" s="10">
-        <f>S46-S53</f>
-        <v>655.50100000000009</v>
-      </c>
-      <c r="T54" s="10">
-        <f t="shared" ref="T54:W54" si="30">T46-T53</f>
-        <v>711.05199999999991</v>
-      </c>
-      <c r="U54" s="15">
-        <f>U46-U53</f>
-        <v>766.94400000000007</v>
-      </c>
-      <c r="V54" s="10">
+      <c r="O52" s="11">
+        <f t="shared" si="29"/>
+        <v>180.697</v>
+      </c>
+      <c r="P52" s="11">
+        <f t="shared" si="29"/>
+        <v>202.81299999999999</v>
+      </c>
+      <c r="Q52" s="11">
+        <f t="shared" si="29"/>
+        <v>217.10599999999999</v>
+      </c>
+      <c r="R52" s="11">
+        <f t="shared" si="29"/>
+        <v>234.934</v>
+      </c>
+      <c r="S52" s="11">
+        <f t="shared" si="29"/>
+        <v>277.36200000000002</v>
+      </c>
+      <c r="T52" s="11">
+        <f t="shared" ref="T52:W52" si="30">SUM(T48:T51)</f>
+        <v>303.72200000000004</v>
+      </c>
+      <c r="U52" s="152">
+        <f t="shared" si="30"/>
+        <v>317.72399999999993</v>
+      </c>
+      <c r="V52" s="14">
+        <f t="shared" si="30"/>
+        <v>342.13300000000004</v>
+      </c>
+      <c r="W52" s="11">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="W54" s="10">
-        <f t="shared" si="30"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10">
+        <v>8.1310000000000002</v>
+      </c>
+      <c r="E53" s="10">
+        <v>29.123999999999999</v>
+      </c>
+      <c r="F53" s="10">
+        <v>23.503</v>
+      </c>
+      <c r="G53" s="15">
+        <v>21.094000000000001</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10">
+        <f>F53</f>
+        <v>23.503</v>
+      </c>
+      <c r="P53" s="10">
+        <v>22.378</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>21.292000000000002</v>
+      </c>
+      <c r="R53" s="10">
+        <v>20.960999999999999</v>
+      </c>
+      <c r="S53" s="10">
+        <f>G53</f>
+        <v>21.094000000000001</v>
+      </c>
+      <c r="T53" s="10">
+        <v>53.893000000000001</v>
+      </c>
+      <c r="U53" s="154">
+        <v>54.774999999999999</v>
+      </c>
+      <c r="V53" s="15">
+        <v>54.651000000000003</v>
+      </c>
+      <c r="W53" s="10"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="15"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="154"/>
+      <c r="V54" s="15">
+        <v>0.312</v>
+      </c>
+      <c r="W54" s="10"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="11">
+        <f>SUM(C52:C53)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="U56" s="16"/>
-    </row>
-    <row r="74" spans="7:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G74" s="41"/>
-      <c r="U74" s="41"/>
-    </row>
-    <row r="75" spans="7:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G75" s="16"/>
-      <c r="U75" s="16"/>
+      <c r="D55" s="11">
+        <f>SUM(D52:D53)</f>
+        <v>72.820999999999998</v>
+      </c>
+      <c r="E55" s="11">
+        <f>SUM(E52:E53)</f>
+        <v>148.255</v>
+      </c>
+      <c r="F55" s="11">
+        <f>SUM(F52:F53)</f>
+        <v>205.26900000000001</v>
+      </c>
+      <c r="G55" s="14">
+        <f>SUM(G52:G53)</f>
+        <v>298.45600000000002</v>
+      </c>
+      <c r="L55" s="11">
+        <f>SUM(L52:L53)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="11">
+        <f>SUM(M52:M53)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="11">
+        <f>SUM(N52:N53)</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="11">
+        <f>SUM(O52:O53)</f>
+        <v>204.2</v>
+      </c>
+      <c r="P55" s="11">
+        <f>SUM(P52:P53)</f>
+        <v>225.19099999999997</v>
+      </c>
+      <c r="Q55" s="11">
+        <f>SUM(Q52:Q53)</f>
+        <v>238.398</v>
+      </c>
+      <c r="R55" s="11">
+        <f>SUM(R52:R53)</f>
+        <v>255.89499999999998</v>
+      </c>
+      <c r="S55" s="11">
+        <f>SUM(S52:S53)</f>
+        <v>298.45600000000002</v>
+      </c>
+      <c r="T55" s="11">
+        <f>SUM(T52:T53)</f>
+        <v>357.61500000000001</v>
+      </c>
+      <c r="U55" s="152">
+        <f>SUM(U52:U53)</f>
+        <v>372.49899999999991</v>
+      </c>
+      <c r="V55" s="14">
+        <f>SUM(V52:V54)</f>
+        <v>397.09600000000006</v>
+      </c>
+      <c r="W55" s="152">
+        <f>SUM(W52:W54)</f>
+        <v>0</v>
+      </c>
+      <c r="X55" s="151"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="10">
+        <f>C47-C55</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="10">
+        <f>D47-D55</f>
+        <v>102.91800000000001</v>
+      </c>
+      <c r="E56" s="10">
+        <f>E47-E55</f>
+        <v>513.12600000000009</v>
+      </c>
+      <c r="F56" s="10">
+        <f>F47-F55</f>
+        <v>541.56999999999982</v>
+      </c>
+      <c r="G56" s="15">
+        <f>G47-G55</f>
+        <v>655.50100000000009</v>
+      </c>
+      <c r="O56" s="10">
+        <f>O47-O55</f>
+        <v>494.48999999999984</v>
+      </c>
+      <c r="P56" s="10">
+        <f>P47-P55</f>
+        <v>565.1880000000001</v>
+      </c>
+      <c r="Q56" s="10">
+        <f>Q47-Q55</f>
+        <v>596.40499999999986</v>
+      </c>
+      <c r="R56" s="10">
+        <f>R47-R55</f>
+        <v>614.81900000000007</v>
+      </c>
+      <c r="S56" s="10">
+        <f>S47-S55</f>
+        <v>655.50100000000009</v>
+      </c>
+      <c r="T56" s="10">
+        <f>T47-T55</f>
+        <v>711.05199999999991</v>
+      </c>
+      <c r="U56" s="154">
+        <f>U47-U55</f>
+        <v>766.94400000000007</v>
+      </c>
+      <c r="V56" s="15">
+        <f>V47-V55</f>
+        <v>822.4530000000002</v>
+      </c>
+      <c r="W56" s="154">
+        <f>W47-W55</f>
+        <v>0</v>
+      </c>
+      <c r="X56" s="151"/>
+    </row>
+    <row r="58" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="U58" s="159"/>
+      <c r="V58" s="16"/>
+    </row>
+    <row r="76" spans="7:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="41"/>
+      <c r="U76" s="160"/>
+      <c r="V76" s="41"/>
+    </row>
+    <row r="77" spans="7:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="16"/>
+      <c r="U77" s="159"/>
+      <c r="V77" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16333,7 +16576,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C51" formula="1"/>
+    <ignoredError sqref="C52" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -16350,7 +16593,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -16364,13 +16607,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16378,7 +16621,7 @@
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -16392,156 +16635,159 @@
         <v>2023</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" t="s">
+        <v>206</v>
+      </c>
+      <c r="T1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2">
+        <v>12.5</v>
+      </c>
+      <c r="J2">
+        <v>13.2</v>
+      </c>
+      <c r="K2">
+        <v>14.9</v>
+      </c>
+      <c r="L2">
+        <v>16.3</v>
+      </c>
+      <c r="M2">
+        <v>20.3</v>
+      </c>
+      <c r="N2">
+        <v>21.4</v>
+      </c>
+      <c r="O2">
+        <v>24.2</v>
+      </c>
+      <c r="P2">
+        <v>26.9</v>
+      </c>
+      <c r="Q2">
+        <v>31.4</v>
+      </c>
+      <c r="R2">
+        <v>34.1</v>
+      </c>
+      <c r="S2">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3">
+        <v>49.2</v>
+      </c>
+      <c r="J3">
+        <v>49.5</v>
+      </c>
+      <c r="K3">
+        <v>56.5</v>
+      </c>
+      <c r="L3">
+        <v>60.7</v>
+      </c>
+      <c r="M3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="N3">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="O3">
+        <v>83.1</v>
+      </c>
+      <c r="P3">
+        <v>88.4</v>
+      </c>
+      <c r="Q3">
+        <v>97.6</v>
+      </c>
+      <c r="R3">
+        <v>103.6</v>
+      </c>
+      <c r="S3">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4">
+        <v>2.9</v>
+      </c>
+      <c r="J4">
+        <v>3.3</v>
+      </c>
+      <c r="K4">
+        <v>3.7</v>
+      </c>
+      <c r="L4">
+        <v>4.2</v>
+      </c>
+      <c r="M4">
+        <v>4.8</v>
+      </c>
+      <c r="N4">
+        <v>5.2</v>
+      </c>
+      <c r="O4">
+        <v>5.8</v>
+      </c>
+      <c r="P4">
+        <v>6.6</v>
+      </c>
+      <c r="Q4">
+        <v>7.4</v>
+      </c>
+      <c r="R4">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2">
-        <v>12.5</v>
-      </c>
-      <c r="N2">
-        <v>13.2</v>
-      </c>
-      <c r="O2">
-        <v>14.9</v>
-      </c>
-      <c r="P2">
-        <v>16.3</v>
-      </c>
-      <c r="Q2">
-        <v>20.3</v>
-      </c>
-      <c r="R2">
-        <v>21.4</v>
-      </c>
-      <c r="S2">
-        <v>24.2</v>
-      </c>
-      <c r="T2">
-        <v>26.9</v>
-      </c>
-      <c r="U2">
-        <v>31.4</v>
-      </c>
-      <c r="V2">
-        <v>34.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M3">
-        <v>49.2</v>
-      </c>
-      <c r="N3">
-        <v>49.5</v>
-      </c>
-      <c r="O3">
-        <v>56.5</v>
-      </c>
-      <c r="P3">
-        <v>60.7</v>
-      </c>
-      <c r="Q3">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="R3">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="S3">
-        <v>83.1</v>
-      </c>
-      <c r="T3">
-        <v>88.4</v>
-      </c>
-      <c r="U3">
-        <v>97.6</v>
-      </c>
-      <c r="V3">
-        <v>103.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M4">
-        <v>2.9</v>
-      </c>
-      <c r="N4">
-        <v>3.3</v>
-      </c>
-      <c r="O4">
-        <v>3.7</v>
-      </c>
-      <c r="P4">
-        <v>4.2</v>
-      </c>
-      <c r="Q4">
-        <v>4.8</v>
-      </c>
-      <c r="R4">
-        <v>5.2</v>
-      </c>
       <c r="S4">
-        <v>5.8</v>
-      </c>
-      <c r="T4">
-        <v>6.6</v>
-      </c>
-      <c r="U4">
-        <v>7.4</v>
-      </c>
-      <c r="V4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="121" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B5" s="122"/>
       <c r="C5" s="122"/>
@@ -16550,306 +16796,333 @@
       <c r="F5" s="122"/>
       <c r="G5" s="122"/>
       <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
+      <c r="I5" s="122">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J5" s="122">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K5" s="122">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="L5" s="122">
+        <v>7.8E-2</v>
+      </c>
       <c r="M5" s="122">
-        <v>6.8000000000000005E-2</v>
+        <v>0.08</v>
       </c>
       <c r="N5" s="122">
-        <v>7.1999999999999995E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="O5" s="122">
-        <v>7.3999999999999996E-2</v>
+        <v>0.08</v>
       </c>
       <c r="P5" s="122">
-        <v>7.8E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="Q5" s="122">
-        <v>0.08</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="R5" s="122">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="S5" s="122">
-        <v>0.08</v>
-      </c>
-      <c r="T5" s="122">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="U5" s="122">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="V5" s="122">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q7" s="123">
-        <f t="shared" ref="Q7:R7" si="0">Q2/M2-1</f>
+        <v>136</v>
+      </c>
+      <c r="M7" s="169">
+        <f t="shared" ref="M7:N7" si="0">M2/I2-1</f>
         <v>0.62400000000000011</v>
       </c>
-      <c r="R7" s="123">
+      <c r="N7" s="169">
         <f t="shared" si="0"/>
         <v>0.6212121212121211</v>
       </c>
-      <c r="S7" s="123">
-        <f t="shared" ref="S7:T9" si="1">S2/O2-1</f>
+      <c r="O7" s="169">
+        <f t="shared" ref="O7:P9" si="1">O2/K2-1</f>
         <v>0.62416107382550323</v>
       </c>
-      <c r="T7" s="123">
+      <c r="P7" s="169">
         <f t="shared" si="1"/>
         <v>0.65030674846625747</v>
       </c>
-      <c r="U7" s="123">
-        <f t="shared" ref="U7:U9" si="2">U2/Q2-1</f>
+      <c r="Q7" s="169">
+        <f t="shared" ref="Q7:Q9" si="2">Q2/M2-1</f>
         <v>0.54679802955665013</v>
       </c>
-      <c r="V7" s="123">
-        <f t="shared" ref="V7:V9" si="3">V2/R2-1</f>
+      <c r="R7" s="170">
+        <f t="shared" ref="R7:S9" si="3">R2/N2-1</f>
         <v>0.59345794392523388</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S7" s="170">
+        <f t="shared" si="3"/>
+        <v>0.53719008264462831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="123">
-        <f t="shared" ref="Q8:R8" si="4">Q3/M3-1</f>
+        <v>137</v>
+      </c>
+      <c r="M8" s="169">
+        <f t="shared" ref="M8:N8" si="4">M3/I3-1</f>
         <v>0.47560975609756073</v>
       </c>
-      <c r="R8" s="123">
+      <c r="N8" s="169">
         <f t="shared" si="4"/>
         <v>0.49696969696969684</v>
       </c>
-      <c r="S8" s="123">
+      <c r="O8" s="169">
         <f t="shared" si="1"/>
         <v>0.47079646017699095</v>
       </c>
-      <c r="T8" s="123">
+      <c r="P8" s="169">
         <f t="shared" si="1"/>
         <v>0.45634266886326191</v>
       </c>
-      <c r="U8" s="123">
+      <c r="Q8" s="170">
         <f t="shared" si="2"/>
         <v>0.34435261707988984</v>
       </c>
-      <c r="V8" s="123">
+      <c r="R8" s="170">
         <f t="shared" si="3"/>
         <v>0.3981106612685561</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S8" s="170">
+        <f t="shared" si="3"/>
+        <v>0.36101083032490977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q9" s="123">
-        <f t="shared" ref="Q9:R9" si="5">Q4/M4-1</f>
+        <v>138</v>
+      </c>
+      <c r="M9" s="123">
+        <f t="shared" ref="M9:N9" si="5">M4/I4-1</f>
         <v>0.65517241379310343</v>
       </c>
-      <c r="R9" s="123">
+      <c r="N9" s="123">
         <f t="shared" si="5"/>
         <v>0.57575757575757591</v>
       </c>
-      <c r="S9" s="123">
+      <c r="O9" s="123">
         <f t="shared" si="1"/>
         <v>0.56756756756756754</v>
       </c>
-      <c r="T9" s="123">
+      <c r="P9" s="123">
         <f t="shared" si="1"/>
         <v>0.57142857142857117</v>
       </c>
-      <c r="U9" s="123">
+      <c r="Q9" s="123">
         <f t="shared" si="2"/>
         <v>0.54166666666666674</v>
       </c>
-      <c r="V9" s="123">
+      <c r="R9" s="123">
         <f t="shared" si="3"/>
         <v>0.53846153846153832</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S9" s="123">
+        <f t="shared" si="3"/>
+        <v>0.48275862068965525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="I13">
+        <v>78.5</v>
+      </c>
+      <c r="J13">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="K13">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="L13">
+        <v>100.3</v>
       </c>
       <c r="M13">
-        <v>78.5</v>
+        <v>110.1</v>
       </c>
       <c r="N13">
-        <v>74.099999999999994</v>
+        <v>106.3</v>
       </c>
       <c r="O13">
-        <v>78.900000000000006</v>
+        <v>121.3</v>
       </c>
       <c r="P13">
-        <v>100.3</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="Q13">
-        <v>110.1</v>
+        <v>167.6</v>
       </c>
       <c r="R13">
-        <v>106.3</v>
+        <v>178.3</v>
       </c>
       <c r="S13">
-        <v>121.3</v>
-      </c>
-      <c r="T13">
-        <v>157.80000000000001</v>
-      </c>
-      <c r="U13">
-        <v>167.6</v>
-      </c>
-      <c r="V13">
-        <v>178.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>192.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="I14">
+        <v>102.1</v>
+      </c>
+      <c r="J14">
+        <v>97.5</v>
+      </c>
+      <c r="K14">
+        <v>102.7</v>
+      </c>
+      <c r="L14">
+        <v>126.4</v>
       </c>
       <c r="M14">
-        <v>102.1</v>
+        <v>140.1</v>
       </c>
       <c r="N14">
-        <v>97.5</v>
+        <v>137.5</v>
       </c>
       <c r="O14">
-        <v>102.7</v>
+        <v>153.6</v>
       </c>
       <c r="P14">
-        <v>126.4</v>
+        <v>191</v>
       </c>
       <c r="Q14">
-        <v>140.1</v>
+        <v>197.5</v>
       </c>
       <c r="R14">
-        <v>137.5</v>
+        <v>190.1</v>
       </c>
       <c r="S14">
-        <v>153.6</v>
-      </c>
-      <c r="T14">
-        <v>191</v>
-      </c>
-      <c r="U14">
-        <v>197.5</v>
-      </c>
-      <c r="V14">
-        <v>190.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>211.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
+        <v>142</v>
+      </c>
+      <c r="I16" s="123">
+        <f t="shared" ref="I16:P16" si="6">I13/I14</f>
+        <v>0.76885406464250738</v>
+      </c>
+      <c r="J16" s="123">
+        <f t="shared" si="6"/>
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="K16" s="123">
+        <f t="shared" si="6"/>
+        <v>0.76825705939629996</v>
+      </c>
+      <c r="L16" s="123">
+        <f t="shared" si="6"/>
+        <v>0.793512658227848</v>
+      </c>
       <c r="M16" s="123">
-        <f t="shared" ref="M16:T16" si="6">M13/M14</f>
-        <v>0.76885406464250738</v>
+        <f t="shared" si="6"/>
+        <v>0.7858672376873661</v>
       </c>
       <c r="N16" s="123">
         <f t="shared" si="6"/>
-        <v>0.7599999999999999</v>
+        <v>0.77309090909090905</v>
       </c>
       <c r="O16" s="123">
         <f t="shared" si="6"/>
-        <v>0.76825705939629996</v>
+        <v>0.78971354166666663</v>
       </c>
       <c r="P16" s="123">
         <f t="shared" si="6"/>
-        <v>0.793512658227848</v>
+        <v>0.8261780104712042</v>
       </c>
       <c r="Q16" s="123">
-        <f t="shared" si="6"/>
-        <v>0.7858672376873661</v>
-      </c>
-      <c r="R16" s="123">
-        <f t="shared" si="6"/>
-        <v>0.77309090909090905</v>
-      </c>
-      <c r="S16" s="123">
-        <f t="shared" si="6"/>
-        <v>0.78971354166666663</v>
-      </c>
-      <c r="T16" s="123">
-        <f t="shared" si="6"/>
-        <v>0.8261780104712042</v>
-      </c>
-      <c r="U16" s="123">
-        <f t="shared" ref="U16:V16" si="7">U13/U14</f>
+        <f t="shared" ref="Q16:S16" si="7">Q13/Q14</f>
         <v>0.84860759493670879</v>
       </c>
-      <c r="V16" s="123">
+      <c r="R16" s="169">
         <f t="shared" si="7"/>
         <v>0.9379274066280906</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S16" s="169">
+        <f t="shared" si="7"/>
+        <v>0.91063829787234041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q17" s="123">
-        <f t="shared" ref="Q17:T18" si="8">Q13/M13-1</f>
+        <v>143</v>
+      </c>
+      <c r="M17" s="123">
+        <f t="shared" ref="M17:P18" si="8">M13/I13-1</f>
         <v>0.40254777070063685</v>
       </c>
-      <c r="R17" s="123">
+      <c r="N17" s="123">
         <f t="shared" si="8"/>
         <v>0.43454790823211886</v>
       </c>
-      <c r="S17" s="123">
+      <c r="O17" s="169">
         <f t="shared" si="8"/>
         <v>0.53738910012674257</v>
       </c>
-      <c r="T17" s="123">
+      <c r="P17" s="169">
         <f t="shared" si="8"/>
         <v>0.57328015952143585</v>
       </c>
-      <c r="U17" s="123">
-        <f t="shared" ref="U17:U18" si="9">U13/Q13-1</f>
+      <c r="Q17" s="169">
+        <f t="shared" ref="Q17:Q18" si="9">Q13/M13-1</f>
         <v>0.52225249772933702</v>
       </c>
-      <c r="V17" s="123">
-        <f t="shared" ref="V17:V18" si="10">V13/R13-1</f>
+      <c r="R17" s="169">
+        <f t="shared" ref="R17:S18" si="10">R13/N13-1</f>
         <v>0.67732831608654775</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S17" s="169">
+        <f t="shared" si="10"/>
+        <v>0.58779884583676822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q18" s="123">
+        <v>144</v>
+      </c>
+      <c r="M18" s="123">
         <f t="shared" si="8"/>
         <v>0.37218413320274246</v>
       </c>
-      <c r="R18" s="123">
+      <c r="N18" s="123">
         <f t="shared" si="8"/>
         <v>0.41025641025641035</v>
       </c>
-      <c r="S18" s="123">
+      <c r="O18" s="123">
         <f t="shared" si="8"/>
         <v>0.49561830574488797</v>
       </c>
-      <c r="T18" s="123">
+      <c r="P18" s="123">
         <f t="shared" si="8"/>
         <v>0.51107594936708844</v>
       </c>
-      <c r="U18" s="123">
+      <c r="Q18" s="123">
         <f t="shared" si="9"/>
         <v>0.4097073518915062</v>
       </c>
-      <c r="V18" s="123">
+      <c r="R18" s="123">
         <f t="shared" si="10"/>
         <v>0.38254545454545452</v>
+      </c>
+      <c r="S18" s="123">
+        <f t="shared" si="10"/>
+        <v>0.376953125</v>
       </c>
     </row>
   </sheetData>
@@ -16880,13 +17153,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -16897,13 +17170,13 @@
         <v>194.66000399999999</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -16917,7 +17190,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -16932,7 +17205,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -25787,25 +26060,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="142" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="144"/>
+        <v>87</v>
+      </c>
+      <c r="H1" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -25837,22 +26110,22 @@
         <v>-7.7615568343958441E-2</v>
       </c>
       <c r="H3" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="65" t="s">
         <v>94</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="65" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -26264,7 +26537,7 @@
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="78" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J15" s="78">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
@@ -26308,10 +26581,10 @@
         <f t="shared" si="0"/>
         <v>3.857741295165984E-2</v>
       </c>
-      <c r="H17" s="145" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="146"/>
+      <c r="H17" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="145"/>
       <c r="M17" s="81"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -26325,8 +26598,8 @@
         <f t="shared" si="0"/>
         <v>-0.1001322918192914</v>
       </c>
-      <c r="H18" s="147"/>
-      <c r="I18" s="148"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
       <c r="M18" s="81"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -26341,7 +26614,7 @@
         <v>-4.7848873032528827E-2</v>
       </c>
       <c r="H19" s="82" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I19" s="119">
         <f>AVERAGE(D:D)</f>
@@ -26361,7 +26634,7 @@
         <v>2.9202103131839241E-2</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I20" s="119">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
@@ -26381,7 +26654,7 @@
         <v>7.795112922002323E-2</v>
       </c>
       <c r="H21" s="82" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I21" s="119">
         <f>MEDIAN(D:D)</f>
@@ -26401,7 +26674,7 @@
         <v>6.7979230173755845E-3</v>
       </c>
       <c r="H22" s="82" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I22" s="119" t="e">
         <f>MODE(D:D)</f>
@@ -26421,7 +26694,7 @@
         <v>-3.6846399991308565E-2</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I23" s="119">
         <f>_xlfn.STDEV.S(D:D)</f>
@@ -26441,7 +26714,7 @@
         <v>4.6350169043708922E-2</v>
       </c>
       <c r="H24" s="82" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I24" s="119">
         <f>_xlfn.VAR.S(D:D)</f>
@@ -26461,7 +26734,7 @@
         <v>5.6727178446203119E-4</v>
       </c>
       <c r="H25" s="82" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I25" s="120">
         <f>KURT(D:D)</f>
@@ -26481,7 +26754,7 @@
         <v>0.32762189383516094</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I26" s="120">
         <f>SKEW(D:D)</f>
@@ -26501,7 +26774,7 @@
         <v>0.10977219636131941</v>
       </c>
       <c r="H27" s="82" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I27" s="119">
         <f>I29-I28</f>
@@ -26521,7 +26794,7 @@
         <v>-6.548198706365993E-2</v>
       </c>
       <c r="H28" s="82" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I28" s="119">
         <f>MIN(D:D)</f>
@@ -26541,7 +26814,7 @@
         <v>-4.0412247080115593E-2</v>
       </c>
       <c r="H29" s="82" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I29" s="119">
         <f>MAX(D:D)</f>
@@ -26561,7 +26834,7 @@
         <v>-2.5207007269635651E-2</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I30" s="120">
         <f>SUM(D:D)</f>
@@ -26581,7 +26854,7 @@
         <v>-9.8269129386541199E-3</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I31" s="60">
         <f>COUNT(D:D)</f>
@@ -26616,16 +26889,16 @@
       </c>
       <c r="H33" s="86"/>
       <c r="I33" s="87" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J33" s="87" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K33" s="87" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L33" s="88" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M33" s="81"/>
     </row>
@@ -26641,7 +26914,7 @@
         <v>1.929591781023321E-2</v>
       </c>
       <c r="H34" s="89" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I34" s="75">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
@@ -26673,7 +26946,7 @@
         <v>5.0966942666760051E-2</v>
       </c>
       <c r="H35" s="89" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I35" s="75">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
@@ -26705,7 +26978,7 @@
         <v>0.10253935205615261</v>
       </c>
       <c r="H36" s="90" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I36" s="78">
         <v>0</v>
@@ -26754,22 +27027,22 @@
         <v>-0.10741298332127347</v>
       </c>
       <c r="H38" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="J38" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="K38" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="M38" s="88" t="s">
         <v>119</v>
-      </c>
-      <c r="I38" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="J38" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="L38" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="M38" s="88" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -26899,14 +27172,14 @@
         <f t="shared" si="0"/>
         <v>0.1054343438077634</v>
       </c>
-      <c r="H43" s="149" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="151"/>
+      <c r="H43" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -27417,7 +27690,7 @@
         <v>7.2508074991578075E-2</v>
       </c>
       <c r="H60" s="108" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I60" s="109">
         <v>0.1</v>
@@ -27435,7 +27708,7 @@
         <v>-1.2492647249752187E-2</v>
       </c>
       <c r="H61" s="110" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I61" s="111">
         <v>0.45</v>
@@ -27466,7 +27739,7 @@
         <v>-4.5762997405868089E-2</v>
       </c>
       <c r="H63" s="108" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I63" s="113">
         <v>210.03</v>
@@ -27484,7 +27757,7 @@
         <v>-2.9473310452207135E-3</v>
       </c>
       <c r="H64" s="114" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I64" s="115">
         <f>I63*(1-I60)</f>
@@ -27503,7 +27776,7 @@
         <v>-8.2891161106128375E-2</v>
       </c>
       <c r="H65" s="110" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I65" s="116">
         <f>I63*(1+I61)</f>

--- a/Business - Technology Services/DUOL.xlsx
+++ b/Business - Technology Services/DUOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B563B-CC48-4602-9233-3B97A42B00AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9A6163-472E-4771-9397-B2E9E6F14963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16785" yWindow="135" windowWidth="11445" windowHeight="14895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1722,7 +1722,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1885,6 +1885,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1942,28 +1951,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2654,6 +2641,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2661,7 +2649,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3355,6 +3342,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3362,7 +3350,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4039,6 +4026,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4046,7 +4034,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4711,6 +4698,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4718,7 +4706,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5574,6 +5561,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5581,7 +5569,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6731,6 +6718,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6738,7 +6726,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7072,6 +7059,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7079,7 +7067,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13443,11 +13430,11 @@
       <c r="E17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="132" t="s">
+      <c r="L17" s="141" t="s">
         <v>210</v>
       </c>
-      <c r="M17" s="133"/>
-      <c r="N17" s="134"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="143"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -13457,9 +13444,9 @@
         <f>C14/(C16*100)</f>
         <v>0.37528058845189988</v>
       </c>
-      <c r="L18" s="135"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="137"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="146"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -13469,9 +13456,9 @@
         <f>C15/(C17*100)</f>
         <v>2.1828867109634555</v>
       </c>
-      <c r="L19" s="135"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="137"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="146"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -13481,9 +13468,9 @@
         <f>Model!H9/Model!G8-1</f>
         <v>0.3971197289156625</v>
       </c>
-      <c r="L20" s="135"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="137"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="146"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -13493,9 +13480,9 @@
         <f>Model!I9/Model!H9-1</f>
         <v>0.28457858923398249</v>
       </c>
-      <c r="L21" s="135"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="137"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="146"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -13505,9 +13492,9 @@
         <f>Model!G14</f>
         <v>-13.167999999999893</v>
       </c>
-      <c r="L22" s="135"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="137"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="146"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13517,9 +13504,9 @@
         <f>Model!G17</f>
         <v>17.868000000000109</v>
       </c>
-      <c r="L23" s="135"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="137"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="146"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -13529,9 +13516,9 @@
         <f>Model!V23</f>
         <v>0.72906736450772092</v>
       </c>
-      <c r="L24" s="135"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="137"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="146"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -13541,9 +13528,9 @@
         <f>Model!V24</f>
         <v>0.12129142133192096</v>
       </c>
-      <c r="L25" s="135"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="137"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="146"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -13553,9 +13540,9 @@
         <f>C12/C23</f>
         <v>755.3088873964582</v>
       </c>
-      <c r="L26" s="135"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="137"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="146"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -13567,9 +13554,9 @@
       <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="135"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="137"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="146"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -13578,9 +13565,9 @@
       <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="L28" s="138"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="140"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="149"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -13676,7 +13663,6 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="21" max="21" width="11.42578125" style="151"/>
     <col min="22" max="22" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -13734,7 +13720,7 @@
       <c r="T2" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="151" t="s">
+      <c r="U2" t="s">
         <v>64</v>
       </c>
       <c r="V2" s="13" t="s">
@@ -13787,10 +13773,10 @@
       <c r="T3" s="125">
         <v>131.69999999999999</v>
       </c>
-      <c r="U3" s="164">
+      <c r="U3" s="135">
         <v>143.9</v>
       </c>
-      <c r="V3" s="161">
+      <c r="V3" s="132">
         <v>157.61699999999999</v>
       </c>
     </row>
@@ -13834,10 +13820,10 @@
       <c r="T4">
         <v>13</v>
       </c>
-      <c r="U4" s="165">
+      <c r="U4" s="136">
         <v>13.257999999999999</v>
       </c>
-      <c r="V4" s="162">
+      <c r="V4" s="133">
         <v>14.404999999999999</v>
       </c>
     </row>
@@ -13881,10 +13867,10 @@
       <c r="T5">
         <v>12.8</v>
       </c>
-      <c r="U5" s="165">
+      <c r="U5" s="136">
         <v>10.698</v>
       </c>
-      <c r="V5" s="162">
+      <c r="V5" s="133">
         <v>10.772</v>
       </c>
     </row>
@@ -13910,10 +13896,10 @@
       <c r="T6">
         <v>9.9</v>
       </c>
-      <c r="U6" s="165">
+      <c r="U6" s="136">
         <v>10.176</v>
       </c>
-      <c r="V6" s="162">
+      <c r="V6" s="133">
         <v>9.4109999999999996</v>
       </c>
     </row>
@@ -13957,10 +13943,10 @@
       <c r="T7">
         <v>0.2</v>
       </c>
-      <c r="U7" s="165">
+      <c r="U7" s="136">
         <v>0.28599999999999998</v>
       </c>
-      <c r="V7" s="162">
+      <c r="V7" s="133">
         <v>0.38900000000000001</v>
       </c>
     </row>
@@ -14029,7 +14015,7 @@
         <f t="shared" si="1"/>
         <v>167.6</v>
       </c>
-      <c r="U8" s="152">
+      <c r="U8" s="11">
         <f t="shared" si="1"/>
         <v>178.31800000000001</v>
       </c>
@@ -14072,10 +14058,10 @@
       <c r="T9" s="10">
         <v>165.6</v>
       </c>
-      <c r="U9" s="153">
+      <c r="U9" s="40">
         <v>176.92</v>
       </c>
-      <c r="V9" s="163">
+      <c r="V9" s="134">
         <v>189.08</v>
       </c>
       <c r="W9">
@@ -14131,7 +14117,7 @@
       <c r="T10" s="10">
         <v>45.191000000000003</v>
       </c>
-      <c r="U10" s="154">
+      <c r="U10" s="10">
         <v>47.348999999999997</v>
       </c>
       <c r="V10" s="15">
@@ -14184,7 +14170,7 @@
       <c r="T11" s="126">
         <v>50.878</v>
       </c>
-      <c r="U11" s="155">
+      <c r="U11" s="126">
         <v>55.146999999999998</v>
       </c>
       <c r="V11" s="128">
@@ -14237,7 +14223,7 @@
       <c r="T12" s="126">
         <v>19.931000000000001</v>
       </c>
-      <c r="U12" s="155">
+      <c r="U12" s="126">
         <v>20.173999999999999</v>
       </c>
       <c r="V12" s="128">
@@ -14290,7 +14276,7 @@
       <c r="T13" s="126">
         <v>35.113999999999997</v>
       </c>
-      <c r="U13" s="155">
+      <c r="U13" s="126">
         <v>36.957000000000001</v>
       </c>
       <c r="V13" s="128">
@@ -14367,7 +14353,7 @@
         <f t="shared" si="3"/>
         <v>16.48599999999999</v>
       </c>
-      <c r="U14" s="152">
+      <c r="U14" s="11">
         <f t="shared" si="3"/>
         <v>18.691000000000031</v>
       </c>
@@ -14423,7 +14409,7 @@
       <c r="T15" s="10">
         <v>-0.621</v>
       </c>
-      <c r="U15" s="154">
+      <c r="U15" s="10">
         <v>-0.70699999999999996</v>
       </c>
       <c r="V15" s="15">
@@ -14474,7 +14460,7 @@
       <c r="T16" s="10">
         <v>10.032999999999999</v>
       </c>
-      <c r="U16" s="154">
+      <c r="U16" s="10">
         <v>10.721</v>
       </c>
       <c r="V16" s="15">
@@ -14549,7 +14535,7 @@
         <f t="shared" si="5"/>
         <v>25.897999999999989</v>
       </c>
-      <c r="U17" s="152">
+      <c r="U17" s="11">
         <f t="shared" si="5"/>
         <v>28.70500000000003</v>
       </c>
@@ -14604,7 +14590,7 @@
       <c r="T18" s="10">
         <v>-1.105</v>
       </c>
-      <c r="U18" s="154">
+      <c r="U18" s="10">
         <v>4.3630000000000004</v>
       </c>
       <c r="V18" s="15">
@@ -14679,7 +14665,7 @@
         <f t="shared" si="6"/>
         <v>27.002999999999989</v>
       </c>
-      <c r="U19" s="152">
+      <c r="U19" s="11">
         <f t="shared" si="6"/>
         <v>24.342000000000031</v>
       </c>
@@ -14745,7 +14731,7 @@
         <f>36.989041+6.133077</f>
         <v>43.122118</v>
       </c>
-      <c r="U20" s="154">
+      <c r="U20" s="10">
         <f>37.436692+6.102077</f>
         <v>43.538769000000002</v>
       </c>
@@ -14787,7 +14773,7 @@
         <v>-0.29958717065067497</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" ref="M21:V21" si="7">M19/M20</f>
+        <f t="shared" ref="M21:U21" si="7">M19/M20</f>
         <v>-0.37235530467515671</v>
       </c>
       <c r="N21" s="2">
@@ -14818,7 +14804,7 @@
         <f t="shared" si="7"/>
         <v>0.6261983699409196</v>
       </c>
-      <c r="U21" s="156">
+      <c r="U21" s="2">
         <f t="shared" si="7"/>
         <v>0.55908792460347301</v>
       </c>
@@ -14860,7 +14846,7 @@
       <c r="T22" s="49">
         <v>0.27</v>
       </c>
-      <c r="U22" s="157">
+      <c r="U22" s="49">
         <v>0.25</v>
       </c>
       <c r="V22" s="129">
@@ -15012,7 +14998,7 @@
         <f t="shared" si="10"/>
         <v>0.16111575178997609</v>
       </c>
-      <c r="U24" s="158">
+      <c r="U24" s="4">
         <f t="shared" si="10"/>
         <v>0.13650893347839269</v>
       </c>
@@ -15051,39 +15037,39 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="166">
+      <c r="P25" s="137">
         <f t="shared" ref="P25:X25" si="12">P8/L8-1</f>
         <v>0.42487684729064035</v>
       </c>
-      <c r="Q25" s="166">
+      <c r="Q25" s="137">
         <f t="shared" si="12"/>
         <v>0.43714609286523198</v>
       </c>
-      <c r="R25" s="166">
+      <c r="R25" s="137">
         <f t="shared" si="12"/>
         <v>0.43184183142559873</v>
       </c>
-      <c r="S25" s="166">
+      <c r="S25" s="137">
         <f t="shared" si="12"/>
         <v>0.45472061657032792</v>
       </c>
-      <c r="T25" s="166">
+      <c r="T25" s="137">
         <f t="shared" si="12"/>
         <v>0.44857389801210013</v>
       </c>
-      <c r="U25" s="167">
+      <c r="U25" s="137">
         <f t="shared" si="12"/>
         <v>0.40518518518518531</v>
       </c>
-      <c r="V25" s="168">
+      <c r="V25" s="138">
         <f t="shared" si="12"/>
         <v>0.3996656976744184</v>
       </c>
-      <c r="W25" s="167">
+      <c r="W25" s="137">
         <f t="shared" si="12"/>
         <v>0.35403973509933762</v>
       </c>
-      <c r="X25" s="167">
+      <c r="X25" s="137">
         <f t="shared" si="12"/>
         <v>0.31420047732696887</v>
       </c>
@@ -15150,7 +15136,7 @@
         <f t="shared" ref="T26" si="14">T11/T8</f>
         <v>0.30356801909307879</v>
       </c>
-      <c r="U26" s="158">
+      <c r="U26" s="4">
         <f>U11/U8</f>
         <v>0.30926210477910249</v>
       </c>
@@ -15221,7 +15207,7 @@
         <f>T12/T8</f>
         <v>0.1189200477326969</v>
       </c>
-      <c r="U27" s="158">
+      <c r="U27" s="4">
         <f t="shared" ref="U27:V27" si="16">U12/U8</f>
         <v>0.1131349611368454</v>
       </c>
@@ -15292,7 +15278,7 @@
         <f t="shared" ref="T28:U28" si="19">T13/T8</f>
         <v>0.20951073985680191</v>
       </c>
-      <c r="U28" s="158">
+      <c r="U28" s="4">
         <f t="shared" si="19"/>
         <v>0.2072533339315156</v>
       </c>
@@ -15420,7 +15406,7 @@
         <f t="shared" si="22"/>
         <v>-11.557913332075247</v>
       </c>
-      <c r="U31" s="158">
+      <c r="U31" s="4">
         <f>U21/Q21-1</f>
         <v>5.3315788938657098</v>
       </c>
@@ -15497,7 +15483,7 @@
         <f t="shared" si="24"/>
         <v>829.71299999999997</v>
       </c>
-      <c r="U34" s="152">
+      <c r="U34" s="11">
         <f t="shared" si="24"/>
         <v>888.24</v>
       </c>
@@ -15550,7 +15536,7 @@
       <c r="T35" s="10">
         <v>829.71299999999997</v>
       </c>
-      <c r="U35" s="154">
+      <c r="U35" s="10">
         <v>888.24</v>
       </c>
       <c r="V35" s="15">
@@ -15599,7 +15585,7 @@
       <c r="T36" s="10">
         <v>76.421000000000006</v>
       </c>
-      <c r="U36" s="154">
+      <c r="U36" s="10">
         <v>77.721999999999994</v>
       </c>
       <c r="V36" s="15">
@@ -15647,7 +15633,7 @@
       <c r="T37" s="10">
         <v>60.396999999999998</v>
       </c>
-      <c r="U37" s="154">
+      <c r="U37" s="10">
         <v>63.284999999999997</v>
       </c>
       <c r="V37" s="15">
@@ -15695,7 +15681,7 @@
       <c r="T38" s="10">
         <v>10.747</v>
       </c>
-      <c r="U38" s="154">
+      <c r="U38" s="10">
         <v>12.317</v>
       </c>
       <c r="V38" s="15">
@@ -15763,7 +15749,7 @@
         <f t="shared" ref="T39:W39" si="26">SUM(T35:T38)</f>
         <v>977.27800000000002</v>
       </c>
-      <c r="U39" s="152">
+      <c r="U39" s="11">
         <f t="shared" si="26"/>
         <v>1041.5640000000001</v>
       </c>
@@ -15802,7 +15788,7 @@
       <c r="T40" s="10">
         <v>13.209</v>
       </c>
-      <c r="U40" s="154">
+      <c r="U40" s="10">
         <v>18.343</v>
       </c>
       <c r="V40" s="15">
@@ -15834,7 +15820,7 @@
       <c r="T41" s="10">
         <v>4.05</v>
       </c>
-      <c r="U41" s="154">
+      <c r="U41" s="10">
         <v>4.05</v>
       </c>
       <c r="V41" s="15">
@@ -15868,7 +15854,7 @@
       <c r="T42" s="10">
         <v>18.594999999999999</v>
       </c>
-      <c r="U42" s="154">
+      <c r="U42" s="10">
         <v>20.585999999999999</v>
       </c>
       <c r="V42" s="15">
@@ -15894,7 +15880,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
-      <c r="U43" s="154"/>
+      <c r="U43" s="10"/>
       <c r="V43" s="15">
         <v>55.328000000000003</v>
       </c>
@@ -15926,7 +15912,7 @@
       <c r="T44" s="10">
         <v>49.784999999999997</v>
       </c>
-      <c r="U44" s="154">
+      <c r="U44" s="10">
         <v>49.76</v>
       </c>
       <c r="V44" s="15">
@@ -15960,7 +15946,7 @@
         <f>2.735+0.766</f>
         <v>3.5009999999999999</v>
       </c>
-      <c r="U45" s="154">
+      <c r="U45" s="10">
         <f>2.735+0.835</f>
         <v>3.57</v>
       </c>
@@ -16009,7 +15995,7 @@
       <c r="T46" s="10">
         <v>2.2490000000000001</v>
       </c>
-      <c r="U46" s="154">
+      <c r="U46" s="10">
         <v>1.57</v>
       </c>
       <c r="V46" s="15">
@@ -16077,7 +16063,7 @@
         <f t="shared" ref="T47:W47" si="28">SUM(T39:T46)</f>
         <v>1068.6669999999999</v>
       </c>
-      <c r="U47" s="152">
+      <c r="U47" s="11">
         <f t="shared" si="28"/>
         <v>1139.443</v>
       </c>
@@ -16130,7 +16116,7 @@
       <c r="T48" s="10">
         <v>2.625</v>
       </c>
-      <c r="U48" s="154">
+      <c r="U48" s="10">
         <v>3.4049999999999998</v>
       </c>
       <c r="V48" s="15">
@@ -16138,7 +16124,7 @@
       </c>
       <c r="W48" s="10"/>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>151</v>
       </c>
@@ -16178,7 +16164,7 @@
       <c r="T49" s="10">
         <v>279.31299999999999</v>
       </c>
-      <c r="U49" s="154">
+      <c r="U49" s="10">
         <v>291.47699999999998</v>
       </c>
       <c r="V49" s="15">
@@ -16186,7 +16172,7 @@
       </c>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>17</v>
       </c>
@@ -16212,7 +16198,7 @@
       <c r="T50" s="10">
         <v>0.36199999999999999</v>
       </c>
-      <c r="U50" s="154">
+      <c r="U50" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="V50" s="15">
@@ -16220,7 +16206,7 @@
       </c>
       <c r="W50" s="10"/>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>156</v>
       </c>
@@ -16260,7 +16246,7 @@
       <c r="T51" s="10">
         <v>21.422000000000001</v>
       </c>
-      <c r="U51" s="154">
+      <c r="U51" s="10">
         <v>22.803999999999998</v>
       </c>
       <c r="V51" s="15">
@@ -16268,7 +16254,7 @@
       </c>
       <c r="W51" s="10"/>
     </row>
-    <row r="52" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>59</v>
       </c>
@@ -16328,7 +16314,7 @@
         <f t="shared" ref="T52:W52" si="30">SUM(T48:T51)</f>
         <v>303.72200000000004</v>
       </c>
-      <c r="U52" s="152">
+      <c r="U52" s="11">
         <f t="shared" si="30"/>
         <v>317.72399999999993</v>
       </c>
@@ -16341,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>152</v>
       </c>
@@ -16381,7 +16367,7 @@
       <c r="T53" s="10">
         <v>53.893000000000001</v>
       </c>
-      <c r="U53" s="154">
+      <c r="U53" s="10">
         <v>54.774999999999999</v>
       </c>
       <c r="V53" s="15">
@@ -16389,7 +16375,7 @@
       </c>
       <c r="W53" s="10"/>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>219</v>
       </c>
@@ -16407,13 +16393,13 @@
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
-      <c r="U54" s="154"/>
+      <c r="U54" s="10"/>
       <c r="V54" s="15">
         <v>0.312</v>
       </c>
       <c r="W54" s="10"/>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>25</v>
       </c>
@@ -16438,56 +16424,55 @@
         <v>298.45600000000002</v>
       </c>
       <c r="L55" s="11">
-        <f>SUM(L52:L53)</f>
+        <f t="shared" ref="L55:U55" si="31">SUM(L52:L53)</f>
         <v>0</v>
       </c>
       <c r="M55" s="11">
-        <f>SUM(M52:M53)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N55" s="11">
-        <f>SUM(N52:N53)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O55" s="11">
-        <f>SUM(O52:O53)</f>
+        <f t="shared" si="31"/>
         <v>204.2</v>
       </c>
       <c r="P55" s="11">
-        <f>SUM(P52:P53)</f>
+        <f t="shared" si="31"/>
         <v>225.19099999999997</v>
       </c>
       <c r="Q55" s="11">
-        <f>SUM(Q52:Q53)</f>
+        <f t="shared" si="31"/>
         <v>238.398</v>
       </c>
       <c r="R55" s="11">
-        <f>SUM(R52:R53)</f>
+        <f t="shared" si="31"/>
         <v>255.89499999999998</v>
       </c>
       <c r="S55" s="11">
-        <f>SUM(S52:S53)</f>
+        <f t="shared" si="31"/>
         <v>298.45600000000002</v>
       </c>
       <c r="T55" s="11">
-        <f>SUM(T52:T53)</f>
+        <f t="shared" si="31"/>
         <v>357.61500000000001</v>
       </c>
-      <c r="U55" s="152">
-        <f>SUM(U52:U53)</f>
+      <c r="U55" s="11">
+        <f t="shared" si="31"/>
         <v>372.49899999999991</v>
       </c>
       <c r="V55" s="14">
         <f>SUM(V52:V54)</f>
         <v>397.09600000000006</v>
       </c>
-      <c r="W55" s="152">
+      <c r="W55" s="11">
         <f>SUM(W52:W54)</f>
         <v>0</v>
       </c>
-      <c r="X55" s="151"/>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>74</v>
       </c>
@@ -16512,60 +16497,56 @@
         <v>655.50100000000009</v>
       </c>
       <c r="O56" s="10">
-        <f>O47-O55</f>
+        <f t="shared" ref="O56:W56" si="32">O47-O55</f>
         <v>494.48999999999984</v>
       </c>
       <c r="P56" s="10">
-        <f>P47-P55</f>
+        <f t="shared" si="32"/>
         <v>565.1880000000001</v>
       </c>
       <c r="Q56" s="10">
-        <f>Q47-Q55</f>
+        <f t="shared" si="32"/>
         <v>596.40499999999986</v>
       </c>
       <c r="R56" s="10">
-        <f>R47-R55</f>
+        <f t="shared" si="32"/>
         <v>614.81900000000007</v>
       </c>
       <c r="S56" s="10">
-        <f>S47-S55</f>
+        <f t="shared" si="32"/>
         <v>655.50100000000009</v>
       </c>
       <c r="T56" s="10">
-        <f>T47-T55</f>
+        <f t="shared" si="32"/>
         <v>711.05199999999991</v>
       </c>
-      <c r="U56" s="154">
-        <f>U47-U55</f>
+      <c r="U56" s="10">
+        <f t="shared" si="32"/>
         <v>766.94400000000007</v>
       </c>
       <c r="V56" s="15">
-        <f>V47-V55</f>
+        <f t="shared" si="32"/>
         <v>822.4530000000002</v>
       </c>
-      <c r="W56" s="154">
-        <f>W47-W55</f>
+      <c r="W56" s="10">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="X56" s="151"/>
-    </row>
-    <row r="58" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="52"/>
       <c r="D58" s="52"/>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
       <c r="G58" s="53"/>
-      <c r="U58" s="159"/>
       <c r="V58" s="16"/>
     </row>
     <row r="76" spans="7:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G76" s="41"/>
-      <c r="U76" s="160"/>
       <c r="V76" s="41"/>
     </row>
     <row r="77" spans="7:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G77" s="16"/>
-      <c r="U77" s="159"/>
       <c r="V77" s="16"/>
     </row>
   </sheetData>
@@ -16834,31 +16815,31 @@
       <c r="A7" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="169">
+      <c r="M7" s="139">
         <f t="shared" ref="M7:N7" si="0">M2/I2-1</f>
         <v>0.62400000000000011</v>
       </c>
-      <c r="N7" s="169">
+      <c r="N7" s="139">
         <f t="shared" si="0"/>
         <v>0.6212121212121211</v>
       </c>
-      <c r="O7" s="169">
+      <c r="O7" s="139">
         <f t="shared" ref="O7:P9" si="1">O2/K2-1</f>
         <v>0.62416107382550323</v>
       </c>
-      <c r="P7" s="169">
+      <c r="P7" s="139">
         <f t="shared" si="1"/>
         <v>0.65030674846625747</v>
       </c>
-      <c r="Q7" s="169">
+      <c r="Q7" s="139">
         <f t="shared" ref="Q7:Q9" si="2">Q2/M2-1</f>
         <v>0.54679802955665013</v>
       </c>
-      <c r="R7" s="170">
+      <c r="R7" s="140">
         <f t="shared" ref="R7:S9" si="3">R2/N2-1</f>
         <v>0.59345794392523388</v>
       </c>
-      <c r="S7" s="170">
+      <c r="S7" s="140">
         <f t="shared" si="3"/>
         <v>0.53719008264462831</v>
       </c>
@@ -16867,31 +16848,31 @@
       <c r="A8" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="169">
+      <c r="M8" s="139">
         <f t="shared" ref="M8:N8" si="4">M3/I3-1</f>
         <v>0.47560975609756073</v>
       </c>
-      <c r="N8" s="169">
+      <c r="N8" s="139">
         <f t="shared" si="4"/>
         <v>0.49696969696969684</v>
       </c>
-      <c r="O8" s="169">
+      <c r="O8" s="139">
         <f t="shared" si="1"/>
         <v>0.47079646017699095</v>
       </c>
-      <c r="P8" s="169">
+      <c r="P8" s="139">
         <f t="shared" si="1"/>
         <v>0.45634266886326191</v>
       </c>
-      <c r="Q8" s="170">
+      <c r="Q8" s="140">
         <f t="shared" si="2"/>
         <v>0.34435261707988984</v>
       </c>
-      <c r="R8" s="170">
+      <c r="R8" s="140">
         <f t="shared" si="3"/>
         <v>0.3981106612685561</v>
       </c>
-      <c r="S8" s="170">
+      <c r="S8" s="140">
         <f t="shared" si="3"/>
         <v>0.36101083032490977</v>
       </c>
@@ -17050,11 +17031,11 @@
         <f t="shared" ref="Q16:S16" si="7">Q13/Q14</f>
         <v>0.84860759493670879</v>
       </c>
-      <c r="R16" s="169">
+      <c r="R16" s="139">
         <f t="shared" si="7"/>
         <v>0.9379274066280906</v>
       </c>
-      <c r="S16" s="169">
+      <c r="S16" s="139">
         <f t="shared" si="7"/>
         <v>0.91063829787234041</v>
       </c>
@@ -17071,23 +17052,23 @@
         <f t="shared" si="8"/>
         <v>0.43454790823211886</v>
       </c>
-      <c r="O17" s="169">
+      <c r="O17" s="139">
         <f t="shared" si="8"/>
         <v>0.53738910012674257</v>
       </c>
-      <c r="P17" s="169">
+      <c r="P17" s="139">
         <f t="shared" si="8"/>
         <v>0.57328015952143585</v>
       </c>
-      <c r="Q17" s="169">
+      <c r="Q17" s="139">
         <f t="shared" ref="Q17:Q18" si="9">Q13/M13-1</f>
         <v>0.52225249772933702</v>
       </c>
-      <c r="R17" s="169">
+      <c r="R17" s="139">
         <f t="shared" ref="R17:S18" si="10">R13/N13-1</f>
         <v>0.67732831608654775</v>
       </c>
-      <c r="S17" s="169">
+      <c r="S17" s="139">
         <f t="shared" si="10"/>
         <v>0.58779884583676822</v>
       </c>
@@ -26071,14 +26052,14 @@
       <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="H1" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="143"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="152"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -26581,10 +26562,10 @@
         <f t="shared" si="0"/>
         <v>3.857741295165984E-2</v>
       </c>
-      <c r="H17" s="144" t="s">
+      <c r="H17" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="145"/>
+      <c r="I17" s="154"/>
       <c r="M17" s="81"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -26598,8 +26579,8 @@
         <f t="shared" si="0"/>
         <v>-0.1001322918192914</v>
       </c>
-      <c r="H18" s="146"/>
-      <c r="I18" s="147"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="156"/>
       <c r="M18" s="81"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -27172,14 +27153,14 @@
         <f t="shared" si="0"/>
         <v>0.1054343438077634</v>
       </c>
-      <c r="H43" s="148" t="s">
+      <c r="H43" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="150"/>
+      <c r="I43" s="158"/>
+      <c r="J43" s="158"/>
+      <c r="K43" s="158"/>
+      <c r="L43" s="158"/>
+      <c r="M43" s="159"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">

--- a/Business - Technology Services/DUOL.xlsx
+++ b/Business - Technology Services/DUOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9A6163-472E-4771-9397-B2E9E6F14963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B647A6F-EC5D-4E85-87A2-8FF4EEBBAF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16785" yWindow="135" windowWidth="11445" windowHeight="14895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15150" yWindow="165" windowWidth="13575" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$W$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$W$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$8:$W$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$9:$W$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$N$2:$Y$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$N$8:$Y$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$N$9:$Y$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$N$21:$Y$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$N$22:$Y$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$N$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="239">
   <si>
     <t>Price</t>
   </si>
@@ -985,19 +985,71 @@
   <si>
     <t>DUOL</t>
   </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+  <si>
+    <t>US Anteil</t>
+  </si>
+  <si>
+    <t>US Growth</t>
+  </si>
+  <si>
+    <t>RoW Growth</t>
+  </si>
+  <si>
+    <t>Key Operating Metrics and Non-GAAP Financial Measures</t>
+  </si>
+  <si>
+    <t>Growth slowing down, high multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strong balance sheet </t>
+  </si>
+  <si>
+    <t>DAU, MAU Growth</t>
+  </si>
+  <si>
+    <t>Subscriber Rates</t>
+  </si>
+  <si>
+    <t>New Users, Learning Products (Chess)</t>
+  </si>
+  <si>
+    <t>Driving Stock factor: potentially M&amp;A (1b Cash), reducing R&amp;D Spend</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,6 +1149,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1722,7 +1781,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1770,8 +1829,6 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1782,7 +1839,6 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1879,15 +1935,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1951,6 +1999,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2204,7 +2282,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$W$2</c:f>
+              <c:f>Model!$N$2:$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2248,7 +2326,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$8:$W$8</c:f>
+              <c:f>Model!$N$8:$Y$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2286,7 +2364,7 @@
                   <c:v>192.59399999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>204.46</c:v>
+                  <c:v>209.51200000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,7 +2473,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$25:$W$25</c:f>
+              <c:f>Model!$N$25:$Y$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2421,7 +2499,7 @@
                   <c:v>0.3996656976744184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35403973509933762</c:v>
+                  <c:v>0.38749668874172172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,10 +3027,10 @@
                   <c:v>531.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>736.37</c:v>
+                  <c:v>748.024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>945.77</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,10 +3197,10 @@
                   <c:v>0.43800757985923133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3971197289156625</c:v>
+                  <c:v>0.40817771084337329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28457858923398249</c:v>
+                  <c:v>0.37438523209593755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3580,7 +3658,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$W$2</c:f>
+              <c:f>Model!$N$2:$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3624,7 +3702,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$21:$W$21</c:f>
+              <c:f>Model!$N$21:$Y$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3661,8 +3739,8 @@
                 <c:pt idx="10">
                   <c:v>0.49</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0.47</c:v>
+                <c:pt idx="11">
+                  <c:v>0.30654600040024038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3771,7 +3849,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$23:$W$23</c:f>
+              <c:f>Model!$N$23:$Y$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3807,6 +3885,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.72906736450772092</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71875119324907399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4319,10 +4400,10 @@
                   <c:v>0.37685569594131474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.87</c:v>
+                  <c:v>1.9577478866140972</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>2.83</c:v>
+                  <c:v>6.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4479,6 +4560,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.73248305722891571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72775606130284587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4930,7 +5014,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$W$2</c:f>
+              <c:f>Model!$N$2:$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4974,7 +5058,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$26:$W$26</c:f>
+              <c:f>Model!$N$26:$Y$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5010,6 +5094,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.32647953726492002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31690308908320297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5119,7 +5206,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$W$2</c:f>
+              <c:f>Model!$N$2:$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5163,7 +5250,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$27:$W$27</c:f>
+              <c:f>Model!$N$27:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5199,6 +5286,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.13278710655575979</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11844190308908319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5308,7 +5398,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$W$2</c:f>
+              <c:f>Model!$N$2:$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5352,7 +5442,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$28:$W$28</c:f>
+              <c:f>Model!$N$28:$Y$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5388,6 +5478,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.19932085111685721</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21732884035281982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7106,18 +7199,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7161,7 +7254,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7181,7 +7274,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS (diluted)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7212,18 +7305,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7267,7 +7360,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7287,7 +7380,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13009,8 +13102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13037,7 +13130,7 @@
       <c r="E2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="54" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="25"/>
@@ -13065,7 +13158,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="20">
-        <v>45605</v>
+        <v>45959</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>177</v>
@@ -13096,7 +13189,7 @@
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.93055555555555558</v>
+        <v>0.71319444444444446</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>179</v>
@@ -13148,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>326.89</v>
+        <v>276.43</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>183</v>
@@ -13181,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!V20</f>
+        <f>Model!X20</f>
         <v>43.98</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -13216,7 +13309,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>14376.622199999998</v>
+        <v>12157.391399999999</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>187</v>
@@ -13246,8 +13339,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!V35</f>
-        <v>880.76300000000003</v>
+        <f>Model!AA35</f>
+        <v>1097.883</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>189</v>
@@ -13310,7 +13403,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>880.76300000000003</v>
+        <v>1097.883</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>193</v>
@@ -13344,7 +13437,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>13495.859199999997</v>
+        <v>11059.508399999999</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>195</v>
@@ -13375,8 +13468,8 @@
         <v>44</v>
       </c>
       <c r="C13" s="36">
-        <f>C6/Model!G21</f>
-        <v>867.41424773610004</v>
+        <f>C6/Model!H21</f>
+        <v>141.19795602388956</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -13388,8 +13481,8 @@
         <v>42</v>
       </c>
       <c r="C14" s="36">
-        <f>C6/Model!H22</f>
-        <v>162.6318407960199</v>
+        <f>C6/Model!I21</f>
+        <v>42.267584097859327</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -13406,8 +13499,8 @@
         <v>43</v>
       </c>
       <c r="C15" s="36">
-        <f>C6/Model!I22</f>
-        <v>108.60132890365449</v>
+        <f>C6/Model!J22</f>
+        <v>33.145083932853716</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -13415,8 +13508,8 @@
         <v>40</v>
       </c>
       <c r="C16" s="6">
-        <f>Model!H22/Model!G21-1</f>
-        <v>4.3336065280356113</v>
+        <f>Model!I22/Model!H21-1</f>
+        <v>2.3405731374895549</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -13424,113 +13517,125 @@
         <v>41</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!I22/Model!H22-1</f>
-        <v>0.49751243781094523</v>
+        <f>Model!J22/Model!I22-1</f>
+        <v>0.27522935779816504</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="141" t="s">
+      <c r="L17" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="M17" s="142"/>
-      <c r="N17" s="143"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="134"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="49">
         <f>C14/(C16*100)</f>
-        <v>0.37528058845189988</v>
-      </c>
-      <c r="L18" s="144"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="146"/>
+        <v>0.18058647012925461</v>
+      </c>
+      <c r="E18" t="s">
+        <v>235</v>
+      </c>
+      <c r="L18" s="135"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="137"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="49">
         <f>C15/(C17*100)</f>
-        <v>2.1828867109634555</v>
-      </c>
-      <c r="L19" s="144"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="146"/>
+        <v>1.2042713828936855</v>
+      </c>
+      <c r="E19" t="s">
+        <v>236</v>
+      </c>
+      <c r="L19" s="135"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="137"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="6">
-        <f>Model!H9/Model!G8-1</f>
-        <v>0.3971197289156625</v>
-      </c>
-      <c r="L20" s="144"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="146"/>
+        <f>Model!I8/Model!H8-1</f>
+        <v>0.36359261200175386</v>
+      </c>
+      <c r="E20" t="s">
+        <v>237</v>
+      </c>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="137"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="6">
-        <f>Model!I9/Model!H9-1</f>
-        <v>0.28457858923398249</v>
-      </c>
-      <c r="L21" s="144"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="146"/>
+        <f>Model!J8/Model!I8-1</f>
+        <v>0.25490196078431371</v>
+      </c>
+      <c r="E21" t="s">
+        <v>238</v>
+      </c>
+      <c r="L21" s="135"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="137"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="15">
-        <f>Model!G14</f>
-        <v>-13.167999999999893</v>
-      </c>
-      <c r="L22" s="144"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="146"/>
+        <f>Model!H14</f>
+        <v>62.595000000000027</v>
+      </c>
+      <c r="L22" s="135"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="137"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!G17</f>
-        <v>17.868000000000109</v>
-      </c>
-      <c r="L23" s="144"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="146"/>
+        <f>Model!H17</f>
+        <v>102.30600000000004</v>
+      </c>
+      <c r="L23" s="135"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="137"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!V23</f>
-        <v>0.72906736450772092</v>
-      </c>
-      <c r="L24" s="144"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="146"/>
+        <f>Model!AA23</f>
+        <v>0.72376667393415661</v>
+      </c>
+      <c r="L24" s="135"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="137"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!V24</f>
-        <v>0.12129142133192096</v>
-      </c>
-      <c r="L25" s="144"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="146"/>
+        <f>Model!AA24</f>
+        <v>0.17751570768834374</v>
+      </c>
+      <c r="L25" s="135"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="137"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -13538,25 +13643,25 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>755.3088873964582</v>
-      </c>
-      <c r="L26" s="144"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="146"/>
+        <v>108.10224620256871</v>
+      </c>
+      <c r="L26" s="135"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="137"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="117">
+      <c r="C27" s="114">
         <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="144"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="146"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="137"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -13565,17 +13670,23 @@
       <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="L28" s="147"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="149"/>
+      <c r="E28" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="140"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!V39/Model!V52</f>
-        <v>3.0936419462606648</v>
+        <f>Model!AA39/Model!AA52</f>
+        <v>2.8087351474278881</v>
+      </c>
+      <c r="E29" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -13583,8 +13694,8 @@
         <v>80</v>
       </c>
       <c r="C30" s="36">
-        <f>Model!V35/Model!V52</f>
-        <v>2.5743292813028851</v>
+        <f>Model!AA35/Model!AA52</f>
+        <v>2.329067870500209</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -13598,8 +13709,8 @@
         <v>82</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!V39-Model!V52)/Main!C7</f>
-        <v>16.287039563437929</v>
+        <f>(Model!AA39-Model!AA52)/Main!C7</f>
+        <v>19.386243747157806</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -13607,8 +13718,8 @@
         <v>83</v>
       </c>
       <c r="C33" s="36">
-        <f>Model!G8/Model!G39</f>
-        <v>0.59166984110011378</v>
+        <f>Model!H8/Model!H39</f>
+        <v>0.67904152913793547</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -13616,8 +13727,8 @@
         <v>84</v>
       </c>
       <c r="C34" s="38">
-        <f>Model!G19/Model!G47</f>
-        <v>1.6937870365226218E-2</v>
+        <f>Model!H19/Model!H47</f>
+        <v>6.8043400771897106E-2</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -13625,8 +13736,8 @@
         <v>85</v>
       </c>
       <c r="C35" s="38">
-        <f>Model!H19/Model!U56</f>
-        <v>0.11269401677306294</v>
+        <f>Model!I19/Model!AA56</f>
+        <v>0.2878311947113244</v>
       </c>
       <c r="D35" t="s">
         <v>209</v>
@@ -13649,29 +13760,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:X77"/>
+  <dimension ref="A1:AD77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
+      <selection pane="bottomRight" activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="22" max="22" width="11.42578125" style="13"/>
+    <col min="7" max="7" width="11.42578125" style="151"/>
+    <col min="8" max="8" width="11.42578125" style="13"/>
+    <col min="24" max="24" width="11.42578125" style="151"/>
+    <col min="27" max="27" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>31</v>
       </c>
@@ -13684,56 +13797,71 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>65</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>61</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="X2" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>207</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA2" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>145</v>
       </c>
@@ -13743,44 +13871,60 @@
       <c r="F3">
         <v>273.5</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="151">
         <v>404.7</v>
       </c>
-      <c r="L3">
+      <c r="H3" s="171">
+        <v>607.53099999999995</v>
+      </c>
+      <c r="N3">
         <v>58</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>65.2</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>72.2</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>78.099999999999994</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>86.2</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>95.2</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>105.9</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>117.5</v>
       </c>
-      <c r="T3" s="125">
+      <c r="V3" s="122">
         <v>131.69999999999999</v>
       </c>
-      <c r="U3" s="135">
+      <c r="W3" s="126">
         <v>143.9</v>
       </c>
-      <c r="V3" s="132">
+      <c r="X3" s="126">
         <v>157.61699999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" s="18">
+        <f>607.531-X3-W3-V3</f>
+        <v>174.31400000000002</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>190.98699999999999</v>
+      </c>
+      <c r="AA3" s="49">
+        <v>210.678</v>
+      </c>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>146</v>
       </c>
@@ -13790,44 +13934,60 @@
       <c r="F4">
         <v>44.7</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="151">
         <v>49.9</v>
       </c>
-      <c r="L4">
+      <c r="H4" s="171">
+        <v>54.906999999999996</v>
+      </c>
+      <c r="N4">
         <v>11.7</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>11.2</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>10.6</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>11.1</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>11.6</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>13.1</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>11.7</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>13.5</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>13</v>
       </c>
-      <c r="U4" s="136">
+      <c r="W4" s="127">
         <v>13.257999999999999</v>
       </c>
-      <c r="V4" s="133">
+      <c r="X4" s="160">
         <v>14.404999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" s="127">
+        <f>H4-X4-W4-V4</f>
+        <v>14.243999999999996</v>
+      </c>
+      <c r="Z4" s="127">
+        <v>17.882000000000001</v>
+      </c>
+      <c r="AA4" s="125">
+        <v>20.603000000000002</v>
+      </c>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
@@ -13837,73 +13997,105 @@
       <c r="F5">
         <v>32.700000000000003</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="151">
         <v>41.2</v>
       </c>
-      <c r="L5">
+      <c r="H5" s="171">
+        <v>45.64</v>
+      </c>
+      <c r="N5">
         <v>8.1</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>8</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>8.4</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>10</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>10.6</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>10.8</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>12.8</v>
       </c>
-      <c r="U5" s="136">
+      <c r="W5" s="127">
         <v>10.698</v>
       </c>
-      <c r="V5" s="133">
+      <c r="X5" s="160">
         <v>10.772</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" s="127">
+        <f t="shared" ref="Y5:Y7" si="0">H5-X5-W5-V5</f>
+        <v>11.370000000000001</v>
+      </c>
+      <c r="Z5" s="127">
+        <v>11.936</v>
+      </c>
+      <c r="AA5" s="125">
+        <v>10.087999999999999</v>
+      </c>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>148</v>
       </c>
       <c r="F6">
         <v>17.899999999999999</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="151">
         <v>34.700000000000003</v>
       </c>
-      <c r="O6">
+      <c r="H6" s="171">
+        <v>38.652999999999999</v>
+      </c>
+      <c r="Q6">
         <v>5.9</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>8.9</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>9.9</v>
       </c>
-      <c r="U6" s="136">
+      <c r="W6" s="127">
         <v>10.176</v>
       </c>
-      <c r="V6" s="133">
+      <c r="X6" s="160">
         <v>9.4109999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" s="127">
+        <f t="shared" si="0"/>
+        <v>9.165999999999995</v>
+      </c>
+      <c r="Z6" s="127">
+        <v>9.4420000000000002</v>
+      </c>
+      <c r="AA6" s="125">
+        <v>10.39</v>
+      </c>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
@@ -13913,44 +14105,60 @@
       <c r="F7">
         <v>0.6</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="151">
         <v>0.7</v>
       </c>
-      <c r="L7">
+      <c r="H7" s="171">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="N7">
         <v>3.4</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>3.9</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.3</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>7.9</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>9.4</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.3</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.2</v>
       </c>
-      <c r="U7" s="136">
+      <c r="W7" s="127">
         <v>0.28599999999999998</v>
       </c>
-      <c r="V7" s="133">
+      <c r="X7" s="160">
         <v>0.38900000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="127">
+        <f t="shared" si="0"/>
+        <v>0.41799999999999987</v>
+      </c>
+      <c r="Z7" s="127">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AA7" s="125">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+    </row>
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -13969,70 +14177,88 @@
         <f>SUM(F3:F7)</f>
         <v>369.4</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="152">
         <f>SUM(G3:G7)</f>
         <v>531.20000000000005</v>
       </c>
-      <c r="H8" s="43">
-        <v>736.37</v>
-      </c>
-      <c r="I8" s="43">
-        <v>945.77</v>
-      </c>
-      <c r="L8" s="11">
-        <f t="shared" ref="L8:N8" si="0">SUM(L3:L7)</f>
+      <c r="H8" s="14">
+        <f>SUM(H3:H7)</f>
+        <v>748.024</v>
+      </c>
+      <c r="I8" s="173">
+        <v>1020</v>
+      </c>
+      <c r="J8" s="174">
+        <v>1280</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" ref="N8:P8" si="1">SUM(N3:N7)</f>
         <v>81.2</v>
       </c>
-      <c r="M8" s="11">
-        <f t="shared" si="0"/>
+      <c r="O8" s="11">
+        <f t="shared" si="1"/>
         <v>88.300000000000011</v>
       </c>
-      <c r="N8" s="11">
-        <f t="shared" si="0"/>
+      <c r="P8" s="11">
+        <f t="shared" si="1"/>
         <v>96.1</v>
       </c>
-      <c r="O8" s="11">
-        <f>SUM(O3:O7)</f>
+      <c r="Q8" s="11">
+        <f>SUM(Q3:Q7)</f>
         <v>103.8</v>
       </c>
-      <c r="P8" s="11">
-        <f t="shared" ref="P8:U8" si="1">SUM(P3:P7)</f>
+      <c r="R8" s="11">
+        <f t="shared" ref="R8:W8" si="2">SUM(R3:R7)</f>
         <v>115.7</v>
       </c>
-      <c r="Q8" s="11">
-        <f t="shared" si="1"/>
+      <c r="S8" s="11">
+        <f t="shared" si="2"/>
         <v>126.89999999999999</v>
       </c>
-      <c r="R8" s="11">
-        <f t="shared" si="1"/>
+      <c r="T8" s="11">
+        <f t="shared" si="2"/>
         <v>137.60000000000002</v>
       </c>
-      <c r="S8" s="11">
-        <f t="shared" si="1"/>
+      <c r="U8" s="11">
+        <f t="shared" si="2"/>
         <v>151.00000000000003</v>
       </c>
-      <c r="T8" s="11">
-        <f t="shared" si="1"/>
+      <c r="V8" s="11">
+        <f t="shared" si="2"/>
         <v>167.6</v>
       </c>
-      <c r="U8" s="11">
-        <f t="shared" si="1"/>
+      <c r="W8" s="11">
+        <f t="shared" si="2"/>
         <v>178.31800000000001</v>
       </c>
-      <c r="V8" s="14">
-        <f>SUM(V3:V7)</f>
+      <c r="X8" s="152">
+        <f>SUM(X3:X7)</f>
         <v>192.59399999999999</v>
       </c>
-      <c r="W8" s="43">
-        <f>W9</f>
-        <v>204.46</v>
-      </c>
-      <c r="X8" s="1">
-        <f>X9</f>
-        <v>220.26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" s="152">
+        <f>SUM(Y3:Y7)</f>
+        <v>209.51200000000003</v>
+      </c>
+      <c r="Z8" s="152">
+        <f>SUM(Z3:Z7)</f>
+        <v>230.69300000000001</v>
+      </c>
+      <c r="AA8" s="14">
+        <f>SUM(AA3:AA7)</f>
+        <v>252.26500000000001</v>
+      </c>
+      <c r="AB8" s="177">
+        <v>260.35000000000002</v>
+      </c>
+      <c r="AC8" s="177">
+        <v>274.41000000000003</v>
+      </c>
+      <c r="AD8" s="152">
+        <f t="shared" ref="Z8:AD8" si="3">SUM(AD3:AD7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>63</v>
       </c>
@@ -14040,38 +14266,47 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="42">
+      <c r="G9" s="153"/>
+      <c r="H9" s="169">
         <v>742.15</v>
       </c>
       <c r="I9" s="42">
-        <v>953.35</v>
-      </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+        <v>1020</v>
+      </c>
+      <c r="J9">
+        <v>1280</v>
+      </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10">
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10">
         <v>165.6</v>
       </c>
-      <c r="U9" s="40">
+      <c r="W9" s="40">
         <v>176.92</v>
       </c>
-      <c r="V9" s="134">
+      <c r="X9" s="161">
         <v>189.08</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>204.46</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>220.26</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <v>260.35000000000002</v>
+      </c>
+      <c r="AC9">
+        <v>274.41000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -14085,46 +14320,61 @@
       <c r="F10" s="10">
         <v>99.430999999999997</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="153">
         <v>142.10499999999999</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="168">
+        <v>203.64500000000001</v>
+      </c>
       <c r="I10" s="10"/>
-      <c r="L10" s="10">
+      <c r="N10" s="10">
         <v>21.49</v>
       </c>
-      <c r="M10" s="10">
+      <c r="O10" s="10">
         <v>23.869</v>
       </c>
-      <c r="N10" s="10">
+      <c r="P10" s="10">
         <v>26.302</v>
       </c>
-      <c r="O10" s="10">
+      <c r="Q10" s="10">
         <v>27.77</v>
       </c>
-      <c r="P10" s="10">
+      <c r="R10" s="10">
         <v>31.492000000000001</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="S10" s="10">
         <v>33.787999999999997</v>
       </c>
-      <c r="R10" s="10">
+      <c r="T10" s="10">
         <v>36.253999999999998</v>
       </c>
-      <c r="S10" s="10">
+      <c r="U10" s="10">
         <v>40.570999999999998</v>
       </c>
-      <c r="T10" s="10">
+      <c r="V10" s="10">
         <v>45.191000000000003</v>
       </c>
-      <c r="U10" s="10">
+      <c r="W10" s="10">
         <v>47.348999999999997</v>
       </c>
-      <c r="V10" s="15">
+      <c r="X10" s="153">
         <v>52.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" s="127">
+        <f t="shared" ref="Y10:Y18" si="4">H10-X10-W10-V10</f>
+        <v>58.925000000000011</v>
+      </c>
+      <c r="Z10" s="127">
+        <v>66.647000000000006</v>
+      </c>
+      <c r="AA10" s="125">
+        <v>69.683999999999997</v>
+      </c>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -14138,46 +14388,61 @@
       <c r="F11" s="10">
         <v>150.44399999999999</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="153">
         <v>194.352</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="168">
+        <v>235.298</v>
+      </c>
       <c r="I11" s="40"/>
-      <c r="L11" s="10">
+      <c r="N11" s="10">
         <v>29.780999999999999</v>
       </c>
-      <c r="M11" s="10">
+      <c r="O11" s="10">
         <v>34.216999999999999</v>
       </c>
-      <c r="N11" s="10">
+      <c r="P11" s="10">
         <v>41.975999999999999</v>
       </c>
-      <c r="O11" s="10">
+      <c r="Q11" s="10">
         <v>44.47</v>
       </c>
-      <c r="P11" s="10">
+      <c r="R11" s="10">
         <v>45.844000000000001</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="S11" s="10">
         <v>47.947000000000003</v>
       </c>
-      <c r="R11" s="10">
+      <c r="T11" s="10">
         <v>50.305</v>
       </c>
-      <c r="S11" s="10">
+      <c r="U11" s="10">
         <v>50.256</v>
       </c>
-      <c r="T11" s="126">
+      <c r="V11" s="123">
         <v>50.878</v>
       </c>
-      <c r="U11" s="126">
+      <c r="W11" s="123">
         <v>55.146999999999998</v>
       </c>
-      <c r="V11" s="128">
+      <c r="X11" s="162">
         <v>62.878</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" s="127">
+        <f t="shared" si="4"/>
+        <v>66.395000000000024</v>
+      </c>
+      <c r="Z11" s="127">
+        <v>70.39</v>
+      </c>
+      <c r="AA11" s="125">
+        <v>73.67</v>
+      </c>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>57</v>
       </c>
@@ -14191,46 +14456,61 @@
       <c r="F12" s="10">
         <v>66.966999999999999</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="153">
         <v>75.787999999999997</v>
       </c>
-      <c r="H12" s="40"/>
+      <c r="H12" s="168">
+        <v>90.494</v>
+      </c>
       <c r="I12" s="40"/>
-      <c r="L12" s="10">
+      <c r="N12" s="10">
         <v>14.94</v>
       </c>
-      <c r="M12" s="10">
+      <c r="O12" s="10">
         <v>15.276999999999999</v>
       </c>
-      <c r="N12" s="10">
+      <c r="P12" s="10">
         <v>17.721</v>
       </c>
-      <c r="O12" s="10">
+      <c r="Q12" s="10">
         <v>19.029</v>
       </c>
-      <c r="P12" s="10">
+      <c r="R12" s="10">
         <v>16.600999999999999</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="S12" s="10">
         <v>17.734000000000002</v>
       </c>
-      <c r="R12" s="10">
+      <c r="T12" s="10">
         <v>22.335000000000001</v>
       </c>
-      <c r="S12" s="10">
+      <c r="U12" s="10">
         <v>19.117999999999999</v>
       </c>
-      <c r="T12" s="126">
+      <c r="V12" s="123">
         <v>19.931000000000001</v>
       </c>
-      <c r="U12" s="126">
+      <c r="W12" s="123">
         <v>20.173999999999999</v>
       </c>
-      <c r="V12" s="128">
+      <c r="X12" s="162">
         <v>25.574000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" s="127">
+        <f t="shared" si="4"/>
+        <v>24.815000000000001</v>
+      </c>
+      <c r="Z12" s="127">
+        <v>26.661999999999999</v>
+      </c>
+      <c r="AA12" s="125">
+        <v>29.562999999999999</v>
+      </c>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="127"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>131</v>
       </c>
@@ -14244,125 +14524,163 @@
       <c r="F13" s="10">
         <v>117.848</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="153">
         <v>132.12299999999999</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="168">
+        <v>155.99199999999999</v>
+      </c>
       <c r="I13" s="10"/>
-      <c r="L13" s="10">
+      <c r="N13" s="10">
         <v>26.856000000000002</v>
       </c>
-      <c r="M13" s="10">
+      <c r="O13" s="10">
         <v>30.056999999999999</v>
       </c>
-      <c r="N13" s="10">
+      <c r="P13" s="10">
         <v>30.228000000000002</v>
       </c>
-      <c r="O13" s="10">
+      <c r="Q13" s="10">
         <v>30.707000000000001</v>
       </c>
-      <c r="P13" s="10">
+      <c r="R13" s="10">
         <v>30.242999999999999</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="S13" s="10">
         <v>32.234999999999999</v>
       </c>
-      <c r="R13" s="10">
+      <c r="T13" s="10">
         <v>33.4</v>
       </c>
-      <c r="S13" s="10">
+      <c r="U13" s="10">
         <v>36.244999999999997</v>
       </c>
-      <c r="T13" s="126">
+      <c r="V13" s="123">
         <v>35.113999999999997</v>
       </c>
-      <c r="U13" s="126">
+      <c r="W13" s="123">
         <v>36.957000000000001</v>
       </c>
-      <c r="V13" s="128">
+      <c r="X13" s="162">
         <v>38.387999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y13" s="127">
+        <f t="shared" si="4"/>
+        <v>45.532999999999994</v>
+      </c>
+      <c r="Z13" s="127">
+        <v>43.45</v>
+      </c>
+      <c r="AA13" s="125">
+        <v>45.984999999999999</v>
+      </c>
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="127"/>
+      <c r="AD13" s="127"/>
+    </row>
+    <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" ref="C14:I14" si="2">C8-SUM(C10:C13)</f>
+        <f t="shared" ref="C14:I14" si="5">C8-SUM(C10:C13)</f>
         <v>0</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-16.010999999999996</v>
       </c>
       <c r="E14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-59.979000000000013</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-65.29000000000002</v>
       </c>
-      <c r="G14" s="14">
-        <f t="shared" si="2"/>
+      <c r="G14" s="152">
+        <f t="shared" si="5"/>
         <v>-13.167999999999893</v>
       </c>
-      <c r="H14" s="11">
-        <f t="shared" si="2"/>
-        <v>736.37</v>
+      <c r="H14" s="14">
+        <f t="shared" si="5"/>
+        <v>62.595000000000027</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="2"/>
-        <v>945.77</v>
+        <f t="shared" si="5"/>
+        <v>1020</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="11">
-        <f t="shared" ref="L14:V14" si="3">L8-SUM(L10:L13)</f>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11">
+        <f t="shared" ref="N14:AC14" si="6">N8-SUM(N10:N13)</f>
         <v>-11.867000000000004</v>
       </c>
-      <c r="M14" s="11">
-        <f t="shared" si="3"/>
+      <c r="O14" s="11">
+        <f t="shared" si="6"/>
         <v>-15.11999999999999</v>
       </c>
-      <c r="N14" s="11">
-        <f t="shared" si="3"/>
+      <c r="P14" s="11">
+        <f t="shared" si="6"/>
         <v>-20.12700000000001</v>
       </c>
-      <c r="O14" s="11">
-        <f t="shared" si="3"/>
+      <c r="Q14" s="11">
+        <f t="shared" si="6"/>
         <v>-18.176000000000002</v>
       </c>
-      <c r="P14" s="11">
-        <f t="shared" si="3"/>
+      <c r="R14" s="11">
+        <f t="shared" si="6"/>
         <v>-8.4799999999999898</v>
       </c>
-      <c r="Q14" s="11">
-        <f t="shared" si="3"/>
+      <c r="S14" s="11">
+        <f t="shared" si="6"/>
         <v>-4.8040000000000163</v>
       </c>
-      <c r="R14" s="11">
-        <f t="shared" si="3"/>
+      <c r="T14" s="11">
+        <f t="shared" si="6"/>
         <v>-4.6939999999999884</v>
       </c>
-      <c r="S14" s="11">
-        <f t="shared" si="3"/>
+      <c r="U14" s="11">
+        <f t="shared" si="6"/>
         <v>4.8100000000000307</v>
       </c>
-      <c r="T14" s="11">
-        <f t="shared" si="3"/>
+      <c r="V14" s="11">
+        <f t="shared" si="6"/>
         <v>16.48599999999999</v>
       </c>
-      <c r="U14" s="11">
-        <f t="shared" si="3"/>
+      <c r="W14" s="11">
+        <f t="shared" si="6"/>
         <v>18.691000000000031</v>
       </c>
-      <c r="V14" s="14">
-        <f t="shared" si="3"/>
+      <c r="X14" s="152">
+        <f t="shared" si="6"/>
         <v>13.573999999999984</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" s="152">
+        <f t="shared" si="6"/>
+        <v>13.843999999999994</v>
+      </c>
+      <c r="Z14" s="152">
+        <f t="shared" si="6"/>
+        <v>23.544000000000011</v>
+      </c>
+      <c r="AA14" s="14">
+        <f t="shared" si="6"/>
+        <v>33.363000000000028</v>
+      </c>
+      <c r="AB14" s="152">
+        <f t="shared" si="6"/>
+        <v>260.35000000000002</v>
+      </c>
+      <c r="AC14" s="152">
+        <f t="shared" si="6"/>
+        <v>274.41000000000003</v>
+      </c>
+      <c r="AD14" s="152"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -14377,46 +14695,62 @@
       <c r="F15" s="10">
         <v>-0.67600000000000005</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="153">
         <v>-5.5E-2</v>
       </c>
-      <c r="H15" s="40"/>
+      <c r="H15" s="168">
+        <f>1.267-4.253</f>
+        <v>-2.9860000000000002</v>
+      </c>
       <c r="I15" s="40"/>
-      <c r="L15" s="10">
+      <c r="N15" s="10">
         <v>-0.312</v>
       </c>
-      <c r="M15" s="10">
+      <c r="O15" s="10">
         <v>-0.53900000000000003</v>
       </c>
-      <c r="N15" s="10">
+      <c r="P15" s="10">
         <v>-0.49</v>
       </c>
-      <c r="O15" s="10">
+      <c r="Q15" s="10">
         <v>0.66500000000000004</v>
       </c>
-      <c r="P15" s="10">
+      <c r="R15" s="10">
         <v>0.182</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="S15" s="10">
         <v>-0.26800000000000002</v>
       </c>
-      <c r="R15" s="10">
+      <c r="T15" s="10">
         <v>-1.0229999999999999</v>
       </c>
-      <c r="S15" s="10">
+      <c r="U15" s="10">
         <v>1.054</v>
       </c>
-      <c r="T15" s="10">
+      <c r="V15" s="10">
         <v>-0.621</v>
       </c>
-      <c r="U15" s="10">
+      <c r="W15" s="10">
         <v>-0.70699999999999996</v>
       </c>
-      <c r="V15" s="15">
+      <c r="X15" s="153">
         <v>0.56899999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15" s="127">
+        <f t="shared" si="4"/>
+        <v>-2.2270000000000003</v>
+      </c>
+      <c r="Z15" s="127">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="AA15" s="125">
+        <v>1.66</v>
+      </c>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="127"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>149</v>
       </c>
@@ -14428,123 +14762,159 @@
       <c r="F16" s="10">
         <v>7.2350000000000003</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="153">
         <v>31.091000000000001</v>
       </c>
-      <c r="H16" s="40"/>
+      <c r="H16" s="168">
+        <v>42.697000000000003</v>
+      </c>
       <c r="I16" s="40"/>
-      <c r="L16" s="10">
+      <c r="N16" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="M16" s="10">
+      <c r="O16" s="10">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N16" s="10">
+      <c r="P16" s="10">
         <v>2.2599999999999998</v>
       </c>
-      <c r="O16" s="10">
+      <c r="Q16" s="10">
         <v>4.2729999999999997</v>
       </c>
-      <c r="P16" s="10">
+      <c r="R16" s="10">
         <v>5.6390000000000002</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="S16" s="10">
         <v>7.5430000000000001</v>
       </c>
-      <c r="R16" s="10">
+      <c r="T16" s="10">
         <v>8.625</v>
       </c>
-      <c r="S16" s="10">
+      <c r="U16" s="10">
         <v>9.2840000000000007</v>
       </c>
-      <c r="T16" s="10">
+      <c r="V16" s="10">
         <v>10.032999999999999</v>
       </c>
-      <c r="U16" s="10">
+      <c r="W16" s="10">
         <v>10.721</v>
       </c>
-      <c r="V16" s="15">
+      <c r="X16" s="153">
         <v>11.246</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y16" s="127">
+        <f t="shared" si="4"/>
+        <v>10.697000000000001</v>
+      </c>
+      <c r="Z16" s="127">
+        <v>10.414999999999999</v>
+      </c>
+      <c r="AA16" s="125">
+        <v>11.427</v>
+      </c>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+    </row>
+    <row r="17" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11">
-        <f t="shared" ref="C17:I17" si="4">C14+SUM(C15:C16)</f>
+        <f t="shared" ref="C17:I17" si="7">C14+SUM(C15:C16)</f>
         <v>0</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-15.707999999999995</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-59.930000000000014</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-58.731000000000023</v>
       </c>
-      <c r="G17" s="14">
-        <f t="shared" si="4"/>
+      <c r="G17" s="152">
+        <f t="shared" si="7"/>
         <v>17.868000000000109</v>
       </c>
-      <c r="H17" s="11">
-        <f t="shared" si="4"/>
-        <v>736.37</v>
+      <c r="H17" s="14">
+        <f t="shared" si="7"/>
+        <v>102.30600000000004</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="4"/>
-        <v>945.77</v>
-      </c>
-      <c r="L17" s="11">
-        <f t="shared" ref="L17:V17" si="5">L14+SUM(L15:L16)</f>
+        <f t="shared" si="7"/>
+        <v>1020</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" ref="N17:AC17" si="8">N14+SUM(N15:N16)</f>
         <v>-12.146000000000004</v>
       </c>
-      <c r="M17" s="11">
-        <f t="shared" si="5"/>
+      <c r="O17" s="11">
+        <f t="shared" si="8"/>
         <v>-14.98999999999999</v>
       </c>
-      <c r="N17" s="11">
-        <f t="shared" si="5"/>
+      <c r="P17" s="11">
+        <f t="shared" si="8"/>
         <v>-18.35700000000001</v>
       </c>
-      <c r="O17" s="11">
-        <f t="shared" si="5"/>
+      <c r="Q17" s="11">
+        <f t="shared" si="8"/>
         <v>-13.238000000000003</v>
       </c>
-      <c r="P17" s="11">
-        <f t="shared" si="5"/>
+      <c r="R17" s="11">
+        <f t="shared" si="8"/>
         <v>-2.6589999999999892</v>
       </c>
-      <c r="Q17" s="11">
-        <f t="shared" si="5"/>
+      <c r="S17" s="11">
+        <f t="shared" si="8"/>
         <v>2.4709999999999841</v>
       </c>
-      <c r="R17" s="11">
-        <f t="shared" si="5"/>
+      <c r="T17" s="11">
+        <f t="shared" si="8"/>
         <v>2.9080000000000119</v>
       </c>
-      <c r="S17" s="11">
-        <f t="shared" si="5"/>
+      <c r="U17" s="11">
+        <f t="shared" si="8"/>
         <v>15.148000000000032</v>
       </c>
-      <c r="T17" s="11">
-        <f t="shared" si="5"/>
+      <c r="V17" s="11">
+        <f t="shared" si="8"/>
         <v>25.897999999999989</v>
       </c>
-      <c r="U17" s="11">
-        <f t="shared" si="5"/>
+      <c r="W17" s="11">
+        <f t="shared" si="8"/>
         <v>28.70500000000003</v>
       </c>
-      <c r="V17" s="14">
-        <f t="shared" si="5"/>
+      <c r="X17" s="152">
+        <f t="shared" si="8"/>
         <v>25.388999999999985</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="152">
+        <f t="shared" si="8"/>
+        <v>22.313999999999993</v>
+      </c>
+      <c r="Z17" s="152">
+        <f t="shared" si="8"/>
+        <v>34.960000000000008</v>
+      </c>
+      <c r="AA17" s="14">
+        <f t="shared" si="8"/>
+        <v>46.450000000000031</v>
+      </c>
+      <c r="AB17" s="152">
+        <f t="shared" si="8"/>
+        <v>260.35000000000002</v>
+      </c>
+      <c r="AC17" s="152">
+        <f t="shared" si="8"/>
+        <v>274.41000000000003</v>
+      </c>
+      <c r="AD17" s="152"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -14558,46 +14928,61 @@
       <c r="F18" s="10">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="153">
         <v>1.71</v>
       </c>
-      <c r="H18" s="40"/>
+      <c r="H18" s="168">
+        <v>13.731999999999999</v>
+      </c>
       <c r="I18" s="40"/>
-      <c r="L18" s="10">
+      <c r="N18" s="10">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="M18" s="10">
+      <c r="O18" s="10">
         <v>0.14099999999999999</v>
       </c>
-      <c r="N18" s="10">
+      <c r="P18" s="10">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="O18" s="10">
+      <c r="Q18" s="10">
         <v>0.71599999999999997</v>
       </c>
-      <c r="P18" s="10">
+      <c r="R18" s="10">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="S18" s="10">
         <v>-1.3149999999999999</v>
       </c>
-      <c r="R18" s="10">
+      <c r="T18" s="10">
         <v>0.125</v>
       </c>
-      <c r="S18" s="10">
+      <c r="U18" s="10">
         <v>3.016</v>
       </c>
-      <c r="T18" s="10">
+      <c r="V18" s="10">
         <v>-1.105</v>
       </c>
-      <c r="U18" s="10">
+      <c r="W18" s="10">
         <v>4.3630000000000004</v>
       </c>
-      <c r="V18" s="15">
+      <c r="X18" s="153">
         <v>2.0289999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y18" s="127">
+        <f t="shared" si="4"/>
+        <v>8.4449999999999985</v>
+      </c>
+      <c r="Z18" s="127">
+        <v>-0.125</v>
+      </c>
+      <c r="AA18" s="125">
+        <v>1.669</v>
+      </c>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+    </row>
+    <row r="19" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
@@ -14617,64 +15002,85 @@
         <f>F17-SUM(F18:F18)</f>
         <v>-59.669000000000025</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="152">
         <f>G17-SUM(G18:G18)</f>
         <v>16.158000000000108</v>
       </c>
-      <c r="H19" s="56">
-        <f>H22*H20</f>
-        <v>86.429999999999993</v>
-      </c>
-      <c r="I19" s="56">
+      <c r="H19" s="14">
+        <f>H17-SUM(H18:H18)</f>
+        <v>88.574000000000041</v>
+      </c>
+      <c r="I19" s="53">
         <f>I22*I20</f>
-        <v>129.42999999999998</v>
-      </c>
-      <c r="L19" s="11">
-        <f t="shared" ref="L19:V19" si="6">L17-SUM(L18:L18)</f>
+        <v>281.22000000000003</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" ref="N19:AC19" si="9">N17-SUM(N18:N18)</f>
         <v>-12.174000000000005</v>
       </c>
-      <c r="M19" s="11">
-        <f t="shared" si="6"/>
+      <c r="O19" s="11">
+        <f t="shared" si="9"/>
         <v>-15.13099999999999</v>
       </c>
-      <c r="N19" s="11">
-        <f t="shared" si="6"/>
+      <c r="P19" s="11">
+        <f t="shared" si="9"/>
         <v>-18.410000000000011</v>
       </c>
-      <c r="O19" s="11">
-        <f t="shared" si="6"/>
+      <c r="Q19" s="11">
+        <f t="shared" si="9"/>
         <v>-13.954000000000002</v>
       </c>
-      <c r="P19" s="11">
-        <f t="shared" si="6"/>
+      <c r="R19" s="11">
+        <f t="shared" si="9"/>
         <v>-2.542999999999989</v>
       </c>
-      <c r="Q19" s="11">
-        <f t="shared" si="6"/>
+      <c r="S19" s="11">
+        <f t="shared" si="9"/>
         <v>3.785999999999984</v>
       </c>
-      <c r="R19" s="11">
-        <f t="shared" si="6"/>
+      <c r="T19" s="11">
+        <f t="shared" si="9"/>
         <v>2.7830000000000119</v>
       </c>
-      <c r="S19" s="11">
-        <f t="shared" si="6"/>
+      <c r="U19" s="11">
+        <f t="shared" si="9"/>
         <v>12.132000000000032</v>
       </c>
-      <c r="T19" s="11">
-        <f t="shared" si="6"/>
+      <c r="V19" s="11">
+        <f t="shared" si="9"/>
         <v>27.002999999999989</v>
       </c>
-      <c r="U19" s="11">
-        <f t="shared" si="6"/>
+      <c r="W19" s="11">
+        <f t="shared" si="9"/>
         <v>24.342000000000031</v>
       </c>
-      <c r="V19" s="14">
-        <f t="shared" si="6"/>
+      <c r="X19" s="152">
+        <f t="shared" si="9"/>
         <v>23.359999999999985</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="152">
+        <f t="shared" si="9"/>
+        <v>13.868999999999994</v>
+      </c>
+      <c r="Z19" s="152">
+        <f t="shared" si="9"/>
+        <v>35.085000000000008</v>
+      </c>
+      <c r="AA19" s="14">
+        <f t="shared" si="9"/>
+        <v>44.781000000000034</v>
+      </c>
+      <c r="AB19" s="152">
+        <f t="shared" si="9"/>
+        <v>260.35000000000002</v>
+      </c>
+      <c r="AC19" s="152">
+        <f t="shared" si="9"/>
+        <v>274.41000000000003</v>
+      </c>
+      <c r="AD19" s="152"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -14691,55 +15097,69 @@
         <f>32.201681+8.434238</f>
         <v>40.635919000000001</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="153">
         <f>36.680751+6.195077</f>
         <v>42.875827999999998</v>
       </c>
-      <c r="H20" s="40">
-        <v>43</v>
+      <c r="H20" s="168">
+        <f>39.04419+6.198612</f>
+        <v>45.242801999999998</v>
       </c>
       <c r="I20" s="40">
         <v>43</v>
       </c>
-      <c r="L20" s="10">
+      <c r="N20" s="10">
         <f>F20</f>
         <v>40.635919000000001</v>
       </c>
-      <c r="M20" s="10">
-        <v>40.635919000000001</v>
-      </c>
-      <c r="N20" s="10">
-        <v>40.635919000000001</v>
-      </c>
       <c r="O20" s="10">
         <v>40.635919000000001</v>
       </c>
       <c r="P20" s="10">
+        <v>40.635919000000001</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>40.635919000000001</v>
+      </c>
+      <c r="R20" s="10">
         <f>G20</f>
         <v>42.875827999999998</v>
       </c>
-      <c r="Q20" s="10">
-        <v>42.875827999999998</v>
-      </c>
-      <c r="R20" s="10">
-        <v>42.875827999999998</v>
-      </c>
       <c r="S20" s="10">
         <v>42.875827999999998</v>
       </c>
       <c r="T20" s="10">
+        <v>42.875827999999998</v>
+      </c>
+      <c r="U20" s="10">
+        <v>42.875827999999998</v>
+      </c>
+      <c r="V20" s="10">
         <f>36.989041+6.133077</f>
         <v>43.122118</v>
       </c>
-      <c r="U20" s="10">
+      <c r="W20" s="10">
         <f>37.436692+6.102077</f>
         <v>43.538769000000002</v>
       </c>
-      <c r="V20" s="15">
+      <c r="X20" s="153">
         <v>43.98</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="10">
+        <f>H20</f>
+        <v>45.242801999999998</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>45.242801999999998</v>
+      </c>
+      <c r="AA20" s="15">
+        <v>45.242801999999998</v>
+      </c>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+    </row>
+    <row r="21" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>220</v>
       </c>
@@ -14758,69 +15178,84 @@
         <f>F19/F20</f>
         <v>-1.4683807200225993</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="154">
         <f>G19/G20</f>
         <v>0.37685569594131474</v>
       </c>
-      <c r="H21" s="131">
-        <v>1.87</v>
-      </c>
-      <c r="I21" s="130">
-        <v>2.83</v>
-      </c>
-      <c r="L21" s="2">
-        <f>L19/L20</f>
+      <c r="H21" s="51">
+        <f>H19/H20</f>
+        <v>1.9577478866140972</v>
+      </c>
+      <c r="I21" s="175">
+        <v>6.54</v>
+      </c>
+      <c r="J21" s="176">
+        <v>8.34</v>
+      </c>
+      <c r="N21" s="2">
+        <f>N19/N20</f>
         <v>-0.29958717065067497</v>
       </c>
-      <c r="M21" s="2">
-        <f t="shared" ref="M21:U21" si="7">M19/M20</f>
+      <c r="O21" s="2">
+        <f t="shared" ref="O21:AC21" si="10">O19/O20</f>
         <v>-0.37235530467515671</v>
       </c>
-      <c r="N21" s="2">
-        <f t="shared" si="7"/>
+      <c r="P21" s="2">
+        <f t="shared" si="10"/>
         <v>-0.45304746276317781</v>
       </c>
-      <c r="O21" s="2">
-        <f t="shared" si="7"/>
+      <c r="Q21" s="2">
+        <f t="shared" si="10"/>
         <v>-0.34339078193358941</v>
       </c>
-      <c r="P21" s="2">
-        <f t="shared" si="7"/>
+      <c r="R21" s="2">
+        <f t="shared" si="10"/>
         <v>-5.9310807945213075E-2</v>
       </c>
-      <c r="Q21" s="2">
-        <f t="shared" si="7"/>
+      <c r="S21" s="2">
+        <f t="shared" si="10"/>
         <v>8.8301501722601927E-2</v>
       </c>
-      <c r="R21" s="2">
-        <f t="shared" si="7"/>
+      <c r="T21" s="2">
+        <f t="shared" si="10"/>
         <v>6.4908367483888868E-2</v>
       </c>
-      <c r="S21" s="2">
-        <f t="shared" si="7"/>
+      <c r="U21" s="2">
+        <f t="shared" si="10"/>
         <v>0.2829566346800354</v>
       </c>
-      <c r="T21" s="2">
-        <f t="shared" si="7"/>
+      <c r="V21" s="2">
+        <f t="shared" si="10"/>
         <v>0.6261983699409196</v>
       </c>
-      <c r="U21" s="2">
-        <f t="shared" si="7"/>
+      <c r="W21" s="2">
+        <f t="shared" si="10"/>
         <v>0.55908792460347301</v>
       </c>
-      <c r="V21" s="35">
+      <c r="X21" s="155">
         <v>0.49</v>
       </c>
-      <c r="W21" s="130">
-        <f>W22</f>
-        <v>0.47</v>
-      </c>
-      <c r="X21" s="1">
-        <f>X22</f>
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="2">
+        <f t="shared" si="10"/>
+        <v>0.30654600040024038</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="10"/>
+        <v>0.77548247343301169</v>
+      </c>
+      <c r="AA21" s="35">
+        <f t="shared" si="10"/>
+        <v>0.98979280726246877</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>1.59</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>1.73</v>
+      </c>
+      <c r="AD21" s="178"/>
+    </row>
+    <row r="22" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>62</v>
       </c>
@@ -14828,38 +15263,48 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="44">
+      <c r="G22" s="155"/>
+      <c r="H22" s="170">
         <v>2.0099999999999998</v>
       </c>
-      <c r="I22" s="45">
-        <v>3.01</v>
-      </c>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="49">
+      <c r="I22" s="43">
+        <v>6.54</v>
+      </c>
+      <c r="J22" s="1">
+        <v>8.34</v>
+      </c>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="47">
         <v>0.27</v>
       </c>
-      <c r="U22" s="49">
+      <c r="W22" s="47">
         <v>0.25</v>
       </c>
-      <c r="V22" s="129">
+      <c r="X22" s="163">
         <v>0.35</v>
       </c>
-      <c r="W22" s="1">
+      <c r="Y22" s="1">
         <v>0.47</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Z22" s="1">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -14879,58 +15324,79 @@
         <f>1-F10/F8</f>
         <v>0.73083107742284792</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="39">
         <f>1-G10/G8</f>
         <v>0.73248305722891571</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="L23" s="3">
-        <f t="shared" ref="L23:U23" si="8">1-L10/L8</f>
+      <c r="H23" s="6">
+        <f>1-H10/H8</f>
+        <v>0.72775606130284587</v>
+      </c>
+      <c r="I23" s="44"/>
+      <c r="N23" s="3">
+        <f t="shared" ref="N23:W23" si="11">1-N10/N8</f>
         <v>0.7353448275862069</v>
       </c>
-      <c r="M23" s="3">
-        <f t="shared" si="8"/>
+      <c r="O23" s="3">
+        <f t="shared" si="11"/>
         <v>0.72968289920724805</v>
       </c>
-      <c r="N23" s="3">
-        <f t="shared" si="8"/>
+      <c r="P23" s="3">
+        <f t="shared" si="11"/>
         <v>0.72630593132154009</v>
       </c>
-      <c r="O23" s="3">
-        <f t="shared" si="8"/>
+      <c r="Q23" s="3">
+        <f t="shared" si="11"/>
         <v>0.73246628131021196</v>
       </c>
-      <c r="P23" s="3">
-        <f t="shared" si="8"/>
+      <c r="R23" s="3">
+        <f t="shared" si="11"/>
         <v>0.72781331028522045</v>
       </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="8"/>
+      <c r="S23" s="3">
+        <f t="shared" si="11"/>
         <v>0.73374310480693461</v>
       </c>
-      <c r="R23" s="3">
-        <f t="shared" si="8"/>
+      <c r="T23" s="3">
+        <f t="shared" si="11"/>
         <v>0.73652616279069771</v>
       </c>
-      <c r="S23" s="39">
-        <f>1-S10/S8</f>
+      <c r="U23" s="39">
+        <f>1-U10/U8</f>
         <v>0.73131788079470206</v>
       </c>
-      <c r="T23" s="39">
-        <f>1-T10/T8</f>
+      <c r="V23" s="39">
+        <f>1-V10/V8</f>
         <v>0.73036396181384244</v>
       </c>
-      <c r="U23" s="39">
-        <f t="shared" si="8"/>
+      <c r="W23" s="39">
+        <f t="shared" si="11"/>
         <v>0.73446875806144085</v>
       </c>
-      <c r="V23" s="6">
-        <f t="shared" ref="V23" si="9">1-V10/V8</f>
+      <c r="X23" s="39">
+        <f t="shared" ref="X23:Y23" si="12">1-X10/X8</f>
         <v>0.72906736450772092</v>
       </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y23" s="39">
+        <f t="shared" si="12"/>
+        <v>0.71875119324907399</v>
+      </c>
+      <c r="Z23" s="39">
+        <f t="shared" ref="Z23:AB23" si="13">1-Z10/Z8</f>
+        <v>0.71110090033074258</v>
+      </c>
+      <c r="AA23" s="6">
+        <f t="shared" si="13"/>
+        <v>0.72376667393415661</v>
+      </c>
+      <c r="AB23" s="39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -14950,64 +15416,82 @@
         <f>F19/F8</f>
         <v>-0.16152950730915006</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="156">
         <f>G19/G8</f>
         <v>3.0417921686747187E-2</v>
       </c>
-      <c r="H24" s="47">
-        <f>H19/H9</f>
-        <v>0.11645893687259987</v>
-      </c>
-      <c r="I24" s="47">
+      <c r="H24" s="7">
+        <f>H19/H8</f>
+        <v>0.11841063923082687</v>
+      </c>
+      <c r="I24" s="45">
         <f>I19/I9</f>
-        <v>0.13576336078040591</v>
-      </c>
-      <c r="L24" s="4">
-        <f t="shared" ref="L24:U24" si="10">L19/L8</f>
+        <v>0.27570588235294119</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" ref="N24:W24" si="14">N19/N8</f>
         <v>-0.1499261083743843</v>
       </c>
-      <c r="M24" s="4">
-        <f t="shared" si="10"/>
+      <c r="O24" s="4">
+        <f t="shared" si="14"/>
         <v>-0.17135900339750834</v>
       </c>
-      <c r="N24" s="4">
-        <f t="shared" si="10"/>
+      <c r="P24" s="4">
+        <f t="shared" si="14"/>
         <v>-0.19157127991675352</v>
       </c>
-      <c r="O24" s="4">
-        <f t="shared" si="10"/>
+      <c r="Q24" s="4">
+        <f t="shared" si="14"/>
         <v>-0.13443159922928713</v>
       </c>
-      <c r="P24" s="4">
-        <f t="shared" si="10"/>
+      <c r="R24" s="4">
+        <f t="shared" si="14"/>
         <v>-2.1979256698357728E-2</v>
       </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="10"/>
+      <c r="S24" s="4">
+        <f t="shared" si="14"/>
         <v>2.9834515366430135E-2</v>
       </c>
-      <c r="R24" s="4">
-        <f t="shared" si="10"/>
+      <c r="T24" s="4">
+        <f t="shared" si="14"/>
         <v>2.0225290697674501E-2</v>
       </c>
-      <c r="S24" s="4">
-        <f t="shared" si="10"/>
+      <c r="U24" s="4">
+        <f t="shared" si="14"/>
         <v>8.0344370860927342E-2</v>
       </c>
-      <c r="T24" s="4">
-        <f t="shared" si="10"/>
+      <c r="V24" s="4">
+        <f t="shared" si="14"/>
         <v>0.16111575178997609</v>
       </c>
-      <c r="U24" s="4">
-        <f t="shared" si="10"/>
+      <c r="W24" s="4">
+        <f t="shared" si="14"/>
         <v>0.13650893347839269</v>
       </c>
-      <c r="V24" s="7">
-        <f t="shared" ref="V24" si="11">V19/V8</f>
+      <c r="X24" s="156">
+        <f t="shared" ref="X24:Y24" si="15">X19/X8</f>
         <v>0.12129142133192096</v>
       </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y24" s="156">
+        <f t="shared" si="15"/>
+        <v>6.6196685631371918E-2</v>
+      </c>
+      <c r="Z24" s="156">
+        <f>Z19/Z8</f>
+        <v>0.15208523882389152</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" ref="Z24:AB24" si="16">AA19/AA8</f>
+        <v>0.17751570768834374</v>
+      </c>
+      <c r="AB24" s="156">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AC24" s="156"/>
+      <c r="AD24" s="156"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -15021,60 +15505,77 @@
         <f>F8/E8-1</f>
         <v>0.47288676236044669</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="39">
         <f>G8/F8-1</f>
         <v>0.43800757985923133</v>
       </c>
-      <c r="H25" s="48">
-        <f>H9/G8-1</f>
-        <v>0.3971197289156625</v>
-      </c>
-      <c r="I25" s="48">
+      <c r="H25" s="6">
+        <f>H8/G8-1</f>
+        <v>0.40817771084337329</v>
+      </c>
+      <c r="I25" s="46">
         <f>I9/H9-1</f>
-        <v>0.28457858923398249</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+        <v>0.37438523209593755</v>
+      </c>
+      <c r="J25" s="46">
+        <f>J9/I9-1</f>
+        <v>0.25490196078431371</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="137">
-        <f t="shared" ref="P25:X25" si="12">P8/L8-1</f>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="128">
+        <f t="shared" ref="R25:Z25" si="17">R8/N8-1</f>
         <v>0.42487684729064035</v>
       </c>
-      <c r="Q25" s="137">
-        <f t="shared" si="12"/>
+      <c r="S25" s="128">
+        <f t="shared" si="17"/>
         <v>0.43714609286523198</v>
       </c>
-      <c r="R25" s="137">
-        <f t="shared" si="12"/>
+      <c r="T25" s="128">
+        <f t="shared" si="17"/>
         <v>0.43184183142559873</v>
       </c>
-      <c r="S25" s="137">
-        <f t="shared" si="12"/>
+      <c r="U25" s="128">
+        <f t="shared" si="17"/>
         <v>0.45472061657032792</v>
       </c>
-      <c r="T25" s="137">
-        <f t="shared" si="12"/>
+      <c r="V25" s="128">
+        <f t="shared" si="17"/>
         <v>0.44857389801210013</v>
       </c>
-      <c r="U25" s="137">
-        <f t="shared" si="12"/>
+      <c r="W25" s="128">
+        <f t="shared" si="17"/>
         <v>0.40518518518518531</v>
       </c>
-      <c r="V25" s="138">
-        <f t="shared" si="12"/>
+      <c r="X25" s="164">
+        <f t="shared" si="17"/>
         <v>0.3996656976744184</v>
       </c>
-      <c r="W25" s="137">
-        <f t="shared" si="12"/>
-        <v>0.35403973509933762</v>
-      </c>
-      <c r="X25" s="137">
-        <f t="shared" si="12"/>
-        <v>0.31420047732696887</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y25" s="128">
+        <f t="shared" si="17"/>
+        <v>0.38749668874172172</v>
+      </c>
+      <c r="Z25" s="128">
+        <f t="shared" ref="Z25" si="18">Z8/V8-1</f>
+        <v>0.37644988066825791</v>
+      </c>
+      <c r="AA25" s="129">
+        <f t="shared" ref="AA25" si="19">AA8/W8-1</f>
+        <v>0.41469173050393127</v>
+      </c>
+      <c r="AB25" s="128">
+        <f>AB8/X8-1</f>
+        <v>0.35180742909955676</v>
+      </c>
+      <c r="AC25" s="128">
+        <f>AC8/Y8-1</f>
+        <v>0.30975791362785898</v>
+      </c>
+      <c r="AD25" s="128"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>129</v>
       </c>
@@ -15094,58 +15595,79 @@
         <f>F11/F8</f>
         <v>0.40726583649160802</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="156">
         <f>G11/G8</f>
         <v>0.36587349397590357</v>
       </c>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="L26" s="4">
-        <f t="shared" ref="L26:S26" si="13">L11/L8</f>
+      <c r="H26" s="7">
+        <f>H11/H8</f>
+        <v>0.31455942590077324</v>
+      </c>
+      <c r="I26" s="115"/>
+      <c r="N26" s="4">
+        <f t="shared" ref="N26:U26" si="20">N11/N8</f>
         <v>0.36676108374384236</v>
       </c>
-      <c r="M26" s="4">
-        <f t="shared" si="13"/>
+      <c r="O26" s="4">
+        <f t="shared" si="20"/>
         <v>0.38750849377123436</v>
       </c>
-      <c r="N26" s="4">
-        <f t="shared" si="13"/>
+      <c r="P26" s="4">
+        <f t="shared" si="20"/>
         <v>0.43679500520291364</v>
       </c>
-      <c r="O26" s="4">
-        <f t="shared" si="13"/>
+      <c r="Q26" s="4">
+        <f t="shared" si="20"/>
         <v>0.42842003853564548</v>
       </c>
-      <c r="P26" s="4">
-        <f t="shared" si="13"/>
+      <c r="R26" s="4">
+        <f t="shared" si="20"/>
         <v>0.39623163353500435</v>
       </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="13"/>
+      <c r="S26" s="4">
+        <f t="shared" si="20"/>
         <v>0.37783293932230105</v>
       </c>
-      <c r="R26" s="4">
-        <f t="shared" si="13"/>
+      <c r="T26" s="4">
+        <f t="shared" si="20"/>
         <v>0.36558866279069763</v>
       </c>
-      <c r="S26" s="4">
-        <f t="shared" si="13"/>
+      <c r="U26" s="4">
+        <f t="shared" si="20"/>
         <v>0.33282119205298005</v>
       </c>
-      <c r="T26" s="4">
-        <f t="shared" ref="T26" si="14">T11/T8</f>
+      <c r="V26" s="4">
+        <f t="shared" ref="V26" si="21">V11/V8</f>
         <v>0.30356801909307879</v>
       </c>
-      <c r="U26" s="4">
-        <f>U11/U8</f>
+      <c r="W26" s="4">
+        <f>W11/W8</f>
         <v>0.30926210477910249</v>
       </c>
-      <c r="V26" s="7">
-        <f>V11/V8</f>
+      <c r="X26" s="156">
+        <f>X11/X8</f>
         <v>0.32647953726492002</v>
       </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y26" s="156">
+        <f>Y11/Y8</f>
+        <v>0.31690308908320297</v>
+      </c>
+      <c r="Z26" s="156">
+        <f t="shared" ref="Z26:AB26" si="22">Z11/Z8</f>
+        <v>0.3051241260029563</v>
+      </c>
+      <c r="AA26" s="7">
+        <f t="shared" si="22"/>
+        <v>0.29203417041603075</v>
+      </c>
+      <c r="AB26" s="156">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="156"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>153</v>
       </c>
@@ -15165,150 +15687,193 @@
         <f>F12/F8</f>
         <v>0.181285868976719</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="156">
         <f>G12/G8</f>
         <v>0.14267319277108431</v>
       </c>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="L27" s="4">
-        <f t="shared" ref="L27:S27" si="15">L12/L8</f>
+      <c r="H27" s="7">
+        <f>H12/H8</f>
+        <v>0.12097740179459482</v>
+      </c>
+      <c r="I27" s="115"/>
+      <c r="N27" s="4">
+        <f t="shared" ref="N27:U27" si="23">N12/N8</f>
         <v>0.18399014778325121</v>
       </c>
-      <c r="M27" s="4">
-        <f t="shared" si="15"/>
+      <c r="O27" s="4">
+        <f t="shared" si="23"/>
         <v>0.1730124575311438</v>
       </c>
-      <c r="N27" s="4">
-        <f t="shared" si="15"/>
+      <c r="P27" s="4">
+        <f t="shared" si="23"/>
         <v>0.18440166493236212</v>
       </c>
-      <c r="O27" s="4">
-        <f t="shared" si="15"/>
+      <c r="Q27" s="4">
+        <f t="shared" si="23"/>
         <v>0.18332369942196533</v>
       </c>
-      <c r="P27" s="4">
-        <f t="shared" si="15"/>
+      <c r="R27" s="4">
+        <f t="shared" si="23"/>
         <v>0.14348314606741572</v>
       </c>
-      <c r="Q27" s="4">
-        <f t="shared" si="15"/>
+      <c r="S27" s="4">
+        <f t="shared" si="23"/>
         <v>0.13974783293932233</v>
       </c>
-      <c r="R27" s="4">
-        <f t="shared" si="15"/>
+      <c r="T27" s="4">
+        <f t="shared" si="23"/>
         <v>0.16231831395348836</v>
       </c>
-      <c r="S27" s="4">
-        <f t="shared" si="15"/>
+      <c r="U27" s="4">
+        <f t="shared" si="23"/>
         <v>0.12660927152317877</v>
       </c>
-      <c r="T27" s="4">
-        <f>T12/T8</f>
+      <c r="V27" s="4">
+        <f>V12/V8</f>
         <v>0.1189200477326969</v>
       </c>
-      <c r="U27" s="4">
-        <f t="shared" ref="U27:V27" si="16">U12/U8</f>
+      <c r="W27" s="4">
+        <f t="shared" ref="W27:Y27" si="24">W12/W8</f>
         <v>0.1131349611368454</v>
       </c>
-      <c r="V27" s="7">
-        <f t="shared" si="16"/>
+      <c r="X27" s="156">
+        <f t="shared" si="24"/>
         <v>0.13278710655575979</v>
       </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y27" s="156">
+        <f t="shared" si="24"/>
+        <v>0.11844190308908319</v>
+      </c>
+      <c r="Z27" s="156">
+        <f t="shared" ref="Z27:AB27" si="25">Z12/Z8</f>
+        <v>0.11557351111650548</v>
+      </c>
+      <c r="AA27" s="7">
+        <f t="shared" si="25"/>
+        <v>0.11719025627812021</v>
+      </c>
+      <c r="AB27" s="156">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="156"/>
+      <c r="AD27" s="156"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>130</v>
       </c>
       <c r="C28" s="4" t="e">
-        <f t="shared" ref="C28:G28" si="17">C13/C8</f>
+        <f t="shared" ref="C28:G28" si="26">C13/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0.27034063922422324</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0.31335725677830945</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0.31902544667027616</v>
       </c>
-      <c r="G28" s="7">
-        <f t="shared" si="17"/>
+      <c r="G28" s="156">
+        <f t="shared" si="26"/>
         <v>0.24872552710843371</v>
       </c>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="L28" s="4">
-        <f t="shared" ref="L28:Q28" si="18">L13/L8</f>
+      <c r="H28" s="7">
+        <f t="shared" ref="H28" si="27">H13/H8</f>
+        <v>0.2085387634621349</v>
+      </c>
+      <c r="I28" s="115"/>
+      <c r="N28" s="4">
+        <f t="shared" ref="N28:S28" si="28">N13/N8</f>
         <v>0.33073891625615764</v>
       </c>
-      <c r="M28" s="4">
-        <f t="shared" si="18"/>
+      <c r="O28" s="4">
+        <f t="shared" si="28"/>
         <v>0.34039637599093991</v>
       </c>
-      <c r="N28" s="4">
-        <f t="shared" si="18"/>
+      <c r="P28" s="4">
+        <f t="shared" si="28"/>
         <v>0.31454734651404792</v>
       </c>
-      <c r="O28" s="4">
-        <f t="shared" si="18"/>
+      <c r="Q28" s="4">
+        <f t="shared" si="28"/>
         <v>0.29582851637764934</v>
       </c>
-      <c r="P28" s="4">
-        <f t="shared" si="18"/>
+      <c r="R28" s="4">
+        <f t="shared" si="28"/>
         <v>0.26139152981849612</v>
       </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="18"/>
+      <c r="S28" s="4">
+        <f t="shared" si="28"/>
         <v>0.25401891252955083</v>
       </c>
-      <c r="R28" s="4">
-        <f>R13/R8</f>
+      <c r="T28" s="4">
+        <f>T13/T8</f>
         <v>0.24273255813953484</v>
       </c>
-      <c r="S28" s="4">
-        <f>S13/S8</f>
+      <c r="U28" s="4">
+        <f>U13/U8</f>
         <v>0.2400331125827814</v>
       </c>
-      <c r="T28" s="4">
-        <f t="shared" ref="T28:U28" si="19">T13/T8</f>
+      <c r="V28" s="4">
+        <f t="shared" ref="V28:W28" si="29">V13/V8</f>
         <v>0.20951073985680191</v>
       </c>
-      <c r="U28" s="4">
-        <f t="shared" si="19"/>
+      <c r="W28" s="4">
+        <f t="shared" si="29"/>
         <v>0.2072533339315156</v>
       </c>
-      <c r="V28" s="7">
-        <f t="shared" ref="V28" si="20">V13/V8</f>
+      <c r="X28" s="156">
+        <f t="shared" ref="X28:Y28" si="30">X13/X8</f>
         <v>0.19932085111685721</v>
       </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y28" s="156">
+        <f t="shared" si="30"/>
+        <v>0.21732884035281982</v>
+      </c>
+      <c r="Z28" s="156">
+        <f t="shared" ref="Z28:AB28" si="31">Z13/Z8</f>
+        <v>0.18834555014673179</v>
+      </c>
+      <c r="AA28" s="7">
+        <f t="shared" si="31"/>
+        <v>0.18228846649356825</v>
+      </c>
+      <c r="AB28" s="156">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="e">
-        <f t="shared" ref="E29:G30" si="21">E3/D3-1</f>
+        <f t="shared" ref="E29:H30" si="32">E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0.51355838406198129</v>
       </c>
-      <c r="G29" s="7">
-        <f t="shared" si="21"/>
+      <c r="G29" s="156">
+        <f t="shared" si="32"/>
         <v>0.4797074954296161</v>
       </c>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="H29" s="7">
+        <f t="shared" si="32"/>
+        <v>0.50118853471707436</v>
+      </c>
+      <c r="I29" s="115"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -15316,29 +15881,32 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>128</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0.16103896103896109</v>
       </c>
-      <c r="G30" s="7">
-        <f t="shared" si="21"/>
+      <c r="G30" s="156">
+        <f t="shared" si="32"/>
         <v>0.11633109619686799</v>
       </c>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="H30" s="7">
+        <f t="shared" si="32"/>
+        <v>0.10034068136272545</v>
+      </c>
+      <c r="I30" s="115"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -15346,8 +15914,10 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>208</v>
       </c>
@@ -15364,139 +15934,184 @@
         <f>F19/E19-1</f>
         <v>-7.2870048413660182E-3</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="39">
         <f>G19/F19-1</f>
         <v>-1.2707938795689571</v>
       </c>
-      <c r="H31" s="55">
-        <f>H22/G21-1</f>
-        <v>4.3336065280356113</v>
-      </c>
-      <c r="I31" s="55">
+      <c r="H31" s="6">
+        <f>H19/G19-1</f>
+        <v>4.4817427899492168</v>
+      </c>
+      <c r="I31" s="52">
         <f>I22/H22-1</f>
-        <v>0.49751243781094523</v>
-      </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4" t="e">
-        <f t="shared" ref="N31:T31" si="22">N21/J21-1</f>
+        <v>2.2537313432835826</v>
+      </c>
+      <c r="J31" s="52">
+        <f>J22/I22-1</f>
+        <v>0.27522935779816504</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4">
+        <f>P21/J21-1</f>
+        <v>-1.0543222377413883</v>
+      </c>
+      <c r="Q31" s="4" t="e">
+        <f t="shared" ref="Q31:V31" si="33">Q21/M21-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="4" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="4">
-        <f t="shared" si="22"/>
+      <c r="R31" s="4">
+        <f t="shared" si="33"/>
         <v>-0.80202487370739006</v>
       </c>
-      <c r="Q31" s="4">
-        <f t="shared" si="22"/>
+      <c r="S31" s="4">
+        <f t="shared" si="33"/>
         <v>-1.237143128119623</v>
       </c>
-      <c r="R31" s="4">
-        <f t="shared" si="22"/>
+      <c r="T31" s="4">
+        <f t="shared" si="33"/>
         <v>-1.1432705683594535</v>
       </c>
-      <c r="S31" s="4">
-        <f t="shared" si="22"/>
+      <c r="U31" s="4">
+        <f t="shared" si="33"/>
         <v>-1.8240076599806869</v>
       </c>
-      <c r="T31" s="4">
-        <f t="shared" si="22"/>
+      <c r="V31" s="4">
+        <f t="shared" si="33"/>
         <v>-11.557913332075247</v>
-      </c>
-      <c r="U31" s="4">
-        <f>U21/Q21-1</f>
-        <v>5.3315788938657098</v>
-      </c>
-      <c r="V31" s="7">
-        <f>V21/R21-1</f>
-        <v>6.549103744160945</v>
       </c>
       <c r="W31" s="4">
         <f>W21/S21-1</f>
-        <v>0.66103191229805014</v>
-      </c>
-      <c r="X31" s="4">
+        <v>5.3315788938657098</v>
+      </c>
+      <c r="X31" s="156">
         <f>X21/T21-1</f>
-        <v>0.10188725030552193</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6.549103744160945</v>
+      </c>
+      <c r="Y31" s="4">
+        <f>Y21/U21-1</f>
+        <v>8.3367423940702512E-2</v>
+      </c>
+      <c r="Z31" s="4">
+        <f>Z21/V21-1</f>
+        <v>0.23839746421916863</v>
+      </c>
+      <c r="AA31" s="7">
+        <f>AA21/W21-1</f>
+        <v>0.77037056910944468</v>
+      </c>
+      <c r="AB31" s="156">
+        <f>AB21/X21-1</f>
+        <v>2.2448979591836737</v>
+      </c>
+      <c r="AC31" s="156">
+        <f t="shared" ref="AB31:AD31" si="34">AC21/Y21-1</f>
+        <v>4.6435249448410136</v>
+      </c>
+      <c r="AD31" s="156"/>
+    </row>
+    <row r="34" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" ref="C34:E34" si="23">C35</f>
+        <f t="shared" ref="C34:E34" si="35">C35</f>
         <v>0</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>120.49</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>553.99199999999996</v>
       </c>
       <c r="F34" s="11">
         <f>F35</f>
         <v>608.17999999999995</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="152">
         <f>G35</f>
         <v>747.61</v>
       </c>
-      <c r="L34" s="11">
-        <f t="shared" ref="L34:W34" si="24">L35</f>
+      <c r="H34" s="14">
+        <f t="shared" ref="H34:J34" si="36">H35</f>
+        <v>877.6450000000001</v>
+      </c>
+      <c r="I34" s="152">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M34" s="11">
-        <f t="shared" si="24"/>
+      <c r="J34" s="152">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="N34:AC34" si="37">N35</f>
         <v>0</v>
       </c>
       <c r="O34" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="11">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="11">
+        <f t="shared" si="37"/>
         <v>608.17999999999995</v>
       </c>
-      <c r="P34" s="11">
-        <f t="shared" si="24"/>
+      <c r="R34" s="11">
+        <f t="shared" si="37"/>
         <v>641.09100000000001</v>
       </c>
-      <c r="Q34" s="11">
-        <f t="shared" si="24"/>
+      <c r="S34" s="11">
+        <f t="shared" si="37"/>
         <v>678.66499999999996</v>
       </c>
-      <c r="R34" s="11">
-        <f t="shared" si="24"/>
+      <c r="T34" s="11">
+        <f t="shared" si="37"/>
         <v>701.73699999999997</v>
       </c>
-      <c r="S34" s="11">
-        <f t="shared" si="24"/>
+      <c r="U34" s="11">
+        <f t="shared" si="37"/>
         <v>747.61</v>
       </c>
-      <c r="T34" s="11">
-        <f t="shared" si="24"/>
+      <c r="V34" s="11">
+        <f t="shared" si="37"/>
         <v>829.71299999999997</v>
       </c>
-      <c r="U34" s="11">
-        <f t="shared" si="24"/>
+      <c r="W34" s="11">
+        <f t="shared" si="37"/>
         <v>888.24</v>
       </c>
-      <c r="V34" s="14">
-        <f t="shared" si="24"/>
+      <c r="X34" s="152">
+        <f t="shared" si="37"/>
         <v>880.76300000000003</v>
       </c>
-      <c r="W34" s="11">
-        <f t="shared" si="24"/>
+      <c r="Y34" s="11">
+        <f t="shared" si="37"/>
+        <v>877.6450000000001</v>
+      </c>
+      <c r="Z34" s="11">
+        <f t="shared" si="37"/>
+        <v>999.28</v>
+      </c>
+      <c r="AA34" s="14">
+        <f t="shared" si="37"/>
+        <v>1097.883</v>
+      </c>
+      <c r="AB34" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AC34" s="11">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>20</v>
       </c>
@@ -15510,42 +16125,59 @@
       <c r="F35" s="10">
         <v>608.17999999999995</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="153">
         <v>747.61</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="H35" s="15">
+        <f>Y35</f>
+        <v>877.6450000000001</v>
+      </c>
       <c r="N35" s="10"/>
-      <c r="O35" s="10">
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10">
         <f>F35</f>
         <v>608.17999999999995</v>
       </c>
-      <c r="P35" s="10">
+      <c r="R35" s="10">
         <v>641.09100000000001</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="S35" s="10">
         <v>678.66499999999996</v>
       </c>
-      <c r="R35" s="10">
+      <c r="T35" s="10">
         <v>701.73699999999997</v>
       </c>
-      <c r="S35" s="10">
+      <c r="U35" s="10">
         <f>G35</f>
         <v>747.61</v>
       </c>
-      <c r="T35" s="10">
+      <c r="V35" s="10">
         <v>829.71299999999997</v>
       </c>
-      <c r="U35" s="10">
+      <c r="W35" s="10">
         <v>888.24</v>
       </c>
-      <c r="V35" s="15">
+      <c r="X35" s="153">
         <f>854.409+26.354</f>
         <v>880.76300000000003</v>
       </c>
-      <c r="W35" s="10"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y35" s="10">
+        <f>+785.791+91.854</f>
+        <v>877.6450000000001</v>
+      </c>
+      <c r="Z35" s="10">
+        <f>883.996+115.284</f>
+        <v>999.28</v>
+      </c>
+      <c r="AA35" s="15">
+        <f>976.231+121.652</f>
+        <v>1097.883</v>
+      </c>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>21</v>
       </c>
@@ -15559,41 +16191,55 @@
       <c r="F36" s="10">
         <v>46.728000000000002</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="153">
         <v>88.974999999999994</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
+      <c r="H36" s="15">
+        <f t="shared" ref="H36:H38" si="38">Y36</f>
+        <v>128.923</v>
+      </c>
       <c r="N36" s="10"/>
-      <c r="O36" s="10">
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10">
         <f>F36</f>
         <v>46.728000000000002</v>
       </c>
-      <c r="P36" s="10">
+      <c r="R36" s="10">
         <v>52.509</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="S36" s="10">
         <v>53.405999999999999</v>
       </c>
-      <c r="R36" s="10">
+      <c r="T36" s="10">
         <v>61.710999999999999</v>
       </c>
-      <c r="S36" s="10">
+      <c r="U36" s="10">
         <f>G36</f>
         <v>88.974999999999994</v>
       </c>
-      <c r="T36" s="10">
+      <c r="V36" s="10">
         <v>76.421000000000006</v>
       </c>
-      <c r="U36" s="10">
+      <c r="W36" s="10">
         <v>77.721999999999994</v>
       </c>
-      <c r="V36" s="15">
+      <c r="X36" s="153">
         <v>94.215000000000003</v>
       </c>
-      <c r="W36" s="10"/>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y36" s="10">
+        <v>128.923</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>114.18300000000001</v>
+      </c>
+      <c r="AA36" s="15">
+        <v>112.919</v>
+      </c>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>150</v>
       </c>
@@ -15607,41 +16253,55 @@
       <c r="F37" s="10">
         <v>35.040999999999997</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="153">
         <v>53.930999999999997</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="H37" s="15">
+        <f t="shared" si="38"/>
+        <v>80.162000000000006</v>
+      </c>
       <c r="N37" s="10"/>
-      <c r="O37" s="10">
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10">
         <f>F37</f>
         <v>35.040999999999997</v>
       </c>
-      <c r="P37" s="10">
+      <c r="R37" s="10">
         <v>40.137</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="S37" s="10">
         <v>42.72</v>
       </c>
-      <c r="R37" s="10">
+      <c r="T37" s="10">
         <v>46.124000000000002</v>
       </c>
-      <c r="S37" s="10">
+      <c r="U37" s="10">
         <f>G37</f>
         <v>53.930999999999997</v>
       </c>
-      <c r="T37" s="10">
+      <c r="V37" s="10">
         <v>60.396999999999998</v>
       </c>
-      <c r="U37" s="10">
+      <c r="W37" s="10">
         <v>63.284999999999997</v>
       </c>
-      <c r="V37" s="15">
+      <c r="X37" s="153">
         <v>67.328999999999994</v>
       </c>
-      <c r="W37" s="10"/>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y37" s="10">
+        <v>80.162000000000006</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>89.563999999999993</v>
+      </c>
+      <c r="AA37" s="15">
+        <v>93.793999999999997</v>
+      </c>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>72</v>
       </c>
@@ -15655,41 +16315,55 @@
       <c r="F38" s="10">
         <v>7.234</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="153">
         <v>7.282</v>
       </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
+      <c r="H38" s="15">
+        <f t="shared" si="38"/>
+        <v>14.858000000000001</v>
+      </c>
       <c r="N38" s="10"/>
-      <c r="O38" s="10">
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10">
         <f>F38</f>
         <v>7.234</v>
       </c>
-      <c r="P38" s="10">
+      <c r="R38" s="10">
         <v>7.4969999999999999</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="S38" s="10">
         <v>10.15</v>
       </c>
-      <c r="R38" s="10">
+      <c r="T38" s="10">
         <v>9.5329999999999995</v>
       </c>
-      <c r="S38" s="10">
+      <c r="U38" s="10">
         <f>G38</f>
         <v>7.282</v>
       </c>
-      <c r="T38" s="10">
+      <c r="V38" s="10">
         <v>10.747</v>
       </c>
-      <c r="U38" s="10">
+      <c r="W38" s="10">
         <v>12.317</v>
       </c>
-      <c r="V38" s="15">
+      <c r="X38" s="153">
         <v>16.13</v>
       </c>
-      <c r="W38" s="10"/>
-    </row>
-    <row r="39" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="10">
+        <v>14.858000000000001</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>16.63</v>
+      </c>
+      <c r="AA38" s="15">
+        <v>19.393999999999998</v>
+      </c>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+    </row>
+    <row r="39" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>58</v>
       </c>
@@ -15709,60 +16383,88 @@
         <f>SUM(F35:F38)</f>
         <v>697.18299999999988</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="152">
         <f>SUM(G35:G38)</f>
         <v>897.79800000000012</v>
       </c>
-      <c r="L39" s="11">
-        <f t="shared" ref="L39:S39" si="25">SUM(L35:L38)</f>
+      <c r="H39" s="14">
+        <f t="shared" ref="H39:J39" si="39">SUM(H35:H38)</f>
+        <v>1101.588</v>
+      </c>
+      <c r="I39" s="152">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="M39" s="11">
-        <f t="shared" si="25"/>
+      <c r="J39" s="152">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N39" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="N39:U39" si="40">SUM(N35:N38)</f>
         <v>0</v>
       </c>
       <c r="O39" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="11">
+        <f t="shared" si="40"/>
         <v>697.18299999999988</v>
       </c>
-      <c r="P39" s="11">
-        <f t="shared" si="25"/>
+      <c r="R39" s="11">
+        <f t="shared" si="40"/>
         <v>741.23400000000004</v>
       </c>
-      <c r="Q39" s="11">
-        <f t="shared" si="25"/>
+      <c r="S39" s="11">
+        <f t="shared" si="40"/>
         <v>784.94099999999992</v>
       </c>
-      <c r="R39" s="11">
-        <f t="shared" si="25"/>
+      <c r="T39" s="11">
+        <f t="shared" si="40"/>
         <v>819.10500000000002</v>
       </c>
-      <c r="S39" s="11">
-        <f t="shared" si="25"/>
+      <c r="U39" s="11">
+        <f t="shared" si="40"/>
         <v>897.79800000000012</v>
       </c>
-      <c r="T39" s="11">
-        <f t="shared" ref="T39:W39" si="26">SUM(T35:T38)</f>
+      <c r="V39" s="11">
+        <f t="shared" ref="V39:AC39" si="41">SUM(V35:V38)</f>
         <v>977.27800000000002</v>
       </c>
-      <c r="U39" s="11">
-        <f t="shared" si="26"/>
+      <c r="W39" s="11">
+        <f t="shared" si="41"/>
         <v>1041.5640000000001</v>
       </c>
-      <c r="V39" s="14">
-        <f t="shared" si="26"/>
+      <c r="X39" s="152">
+        <f t="shared" si="41"/>
         <v>1058.4370000000001</v>
       </c>
-      <c r="W39" s="11">
-        <f t="shared" si="26"/>
+      <c r="Y39" s="11">
+        <f t="shared" si="41"/>
+        <v>1101.588</v>
+      </c>
+      <c r="Z39" s="11">
+        <f t="shared" si="41"/>
+        <v>1219.6570000000002</v>
+      </c>
+      <c r="AA39" s="14">
+        <f t="shared" si="41"/>
+        <v>1323.9900000000002</v>
+      </c>
+      <c r="AB39" s="11">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AC39" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>73</v>
       </c>
@@ -15776,27 +16478,41 @@
       <c r="F40" s="10">
         <v>12.968999999999999</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="15">
+        <f t="shared" ref="H40:H45" si="42">Y40</f>
+        <v>18.943000000000001</v>
+      </c>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
-      <c r="T40" s="10">
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10">
         <v>13.209</v>
       </c>
-      <c r="U40" s="10">
+      <c r="W40" s="10">
         <v>18.343</v>
       </c>
-      <c r="V40" s="15">
+      <c r="X40" s="153">
         <v>48.624000000000002</v>
       </c>
-      <c r="W40" s="10"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y40" s="10">
+        <v>18.943000000000001</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>19.161000000000001</v>
+      </c>
+      <c r="AA40" s="15">
+        <v>19.684999999999999</v>
+      </c>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>23</v>
       </c>
@@ -15808,27 +16524,41 @@
       <c r="F41" s="10">
         <v>4.05</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="15">
+        <f t="shared" si="42"/>
+        <v>10.538</v>
+      </c>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
-      <c r="T41" s="10">
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10">
         <v>4.05</v>
       </c>
-      <c r="U41" s="10">
+      <c r="W41" s="10">
         <v>4.05</v>
       </c>
-      <c r="V41" s="15">
+      <c r="X41" s="153">
         <v>10.538</v>
       </c>
-      <c r="W41" s="10"/>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y41" s="10">
+        <v>10.538</v>
+      </c>
+      <c r="Z41" s="10">
+        <v>10.538</v>
+      </c>
+      <c r="AA41" s="15">
+        <v>10.538</v>
+      </c>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -15842,27 +16572,41 @@
       <c r="F42" s="10">
         <v>8.4969999999999999</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="15">
+        <f t="shared" si="42"/>
+        <v>19.899000000000001</v>
+      </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
-      <c r="T42" s="10">
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10">
         <v>18.594999999999999</v>
       </c>
-      <c r="U42" s="10">
+      <c r="W42" s="10">
         <v>20.585999999999999</v>
       </c>
-      <c r="V42" s="15">
+      <c r="X42" s="153">
         <v>21.9</v>
       </c>
-      <c r="W42" s="10"/>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y42" s="10">
+        <v>19.899000000000001</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>18.872</v>
+      </c>
+      <c r="AA42" s="15">
+        <v>19.923999999999999</v>
+      </c>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>218</v>
       </c>
@@ -15870,9 +16614,11 @@
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="15"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="15">
+        <f t="shared" si="42"/>
+        <v>98.292000000000002</v>
+      </c>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
@@ -15881,12 +16627,24 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
-      <c r="V43" s="15">
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="153">
         <v>55.328000000000003</v>
       </c>
-      <c r="W43" s="10"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y43" s="10">
+        <v>98.292000000000002</v>
+      </c>
+      <c r="Z43" s="10">
+        <v>83.341999999999999</v>
+      </c>
+      <c r="AA43" s="15">
+        <v>75.361999999999995</v>
+      </c>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>60</v>
       </c>
@@ -15900,28 +16658,42 @@
       <c r="F44" s="10">
         <v>22</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="15">
+        <f t="shared" si="42"/>
+        <v>47.494999999999997</v>
+      </c>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
-      <c r="T44" s="10">
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10">
         <v>49.784999999999997</v>
       </c>
-      <c r="U44" s="10">
+      <c r="W44" s="10">
         <v>49.76</v>
       </c>
-      <c r="V44" s="15">
+      <c r="X44" s="153">
         <f>19.495+2.735</f>
         <v>22.23</v>
       </c>
-      <c r="W44" s="10"/>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y44" s="10">
+        <v>47.494999999999997</v>
+      </c>
+      <c r="Z44" s="10">
+        <v>46.369</v>
+      </c>
+      <c r="AA44" s="15">
+        <v>80.986999999999995</v>
+      </c>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>154</v>
       </c>
@@ -15933,29 +16705,43 @@
       <c r="F45" s="10">
         <v>0.63300000000000001</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="15">
+        <f t="shared" si="42"/>
+        <v>0.67500000000000004</v>
+      </c>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
-      <c r="T45" s="10">
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10">
         <f>2.735+0.766</f>
         <v>3.5009999999999999</v>
       </c>
-      <c r="U45" s="10">
+      <c r="W45" s="10">
         <f>2.735+0.835</f>
         <v>3.57</v>
       </c>
-      <c r="V45" s="15">
+      <c r="X45" s="153">
         <v>0.83499999999999996</v>
       </c>
-      <c r="W45" s="10"/>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y45" s="10">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="Z45" s="10">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AA45" s="15">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>22</v>
       </c>
@@ -15969,41 +16755,58 @@
       <c r="F46" s="10">
         <v>1.5069999999999999</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="153">
         <v>56.158999999999999</v>
       </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
+      <c r="H46" s="15">
+        <f>Y46</f>
+        <v>4.298</v>
+      </c>
       <c r="N46" s="10"/>
-      <c r="O46" s="10">
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10">
         <f>F46</f>
         <v>1.5069999999999999</v>
       </c>
-      <c r="P46" s="10">
+      <c r="R46" s="10">
         <v>49.145000000000003</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="S46" s="10">
         <v>49.862000000000002</v>
       </c>
-      <c r="R46" s="10">
+      <c r="T46" s="10">
         <v>51.609000000000002</v>
       </c>
-      <c r="S46" s="10">
+      <c r="U46" s="10">
         <f>G46</f>
         <v>56.158999999999999</v>
       </c>
-      <c r="T46" s="10">
+      <c r="V46" s="10">
         <v>2.2490000000000001</v>
       </c>
-      <c r="U46" s="10">
+      <c r="W46" s="10">
         <v>1.57</v>
       </c>
-      <c r="V46" s="15">
+      <c r="X46" s="153">
         <v>1.657</v>
       </c>
-      <c r="W46" s="10"/>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y46" s="10">
+        <f>1.563+2.735</f>
+        <v>4.298</v>
+      </c>
+      <c r="Z46" s="10">
+        <f>2.735+1.797</f>
+        <v>4.532</v>
+      </c>
+      <c r="AA46" s="15">
+        <f>2.735+8.663</f>
+        <v>11.398</v>
+      </c>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
@@ -16023,60 +16826,88 @@
         <f>SUM(F39:F46)</f>
         <v>746.83899999999983</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="152">
         <f>SUM(G39:G46)</f>
         <v>953.95700000000011</v>
       </c>
-      <c r="L47" s="11">
-        <f t="shared" ref="L47:S47" si="27">SUM(L39:L46)</f>
+      <c r="H47" s="14">
+        <f t="shared" ref="H47:J47" si="43">SUM(H39:H46)</f>
+        <v>1301.7279999999996</v>
+      </c>
+      <c r="I47" s="152">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="M47" s="11">
-        <f t="shared" si="27"/>
+      <c r="J47" s="152">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N47" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="N47:U47" si="44">SUM(N39:N46)</f>
         <v>0</v>
       </c>
       <c r="O47" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="11">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="11">
+        <f t="shared" si="44"/>
         <v>698.68999999999983</v>
       </c>
-      <c r="P47" s="11">
-        <f t="shared" si="27"/>
+      <c r="R47" s="11">
+        <f t="shared" si="44"/>
         <v>790.37900000000002</v>
       </c>
-      <c r="Q47" s="11">
-        <f t="shared" si="27"/>
+      <c r="S47" s="11">
+        <f t="shared" si="44"/>
         <v>834.80299999999988</v>
       </c>
-      <c r="R47" s="11">
-        <f t="shared" si="27"/>
+      <c r="T47" s="11">
+        <f t="shared" si="44"/>
         <v>870.71400000000006</v>
       </c>
-      <c r="S47" s="11">
-        <f t="shared" si="27"/>
+      <c r="U47" s="11">
+        <f t="shared" si="44"/>
         <v>953.95700000000011</v>
       </c>
-      <c r="T47" s="11">
-        <f t="shared" ref="T47:W47" si="28">SUM(T39:T46)</f>
+      <c r="V47" s="11">
+        <f t="shared" ref="V47:AC47" si="45">SUM(V39:V46)</f>
         <v>1068.6669999999999</v>
       </c>
-      <c r="U47" s="11">
-        <f t="shared" si="28"/>
+      <c r="W47" s="11">
+        <f t="shared" si="45"/>
         <v>1139.443</v>
       </c>
-      <c r="V47" s="14">
-        <f t="shared" si="28"/>
+      <c r="X47" s="152">
+        <f t="shared" si="45"/>
         <v>1219.5490000000002</v>
       </c>
-      <c r="W47" s="11">
-        <f t="shared" si="28"/>
+      <c r="Y47" s="11">
+        <f t="shared" si="45"/>
+        <v>1301.7279999999996</v>
+      </c>
+      <c r="Z47" s="11">
+        <f t="shared" si="45"/>
+        <v>1403.1460000000002</v>
+      </c>
+      <c r="AA47" s="14">
+        <f t="shared" si="45"/>
+        <v>1542.5590000000002</v>
+      </c>
+      <c r="AB47" s="11">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AC47" s="11">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>26</v>
       </c>
@@ -16090,41 +16921,55 @@
       <c r="F48" s="10">
         <v>1.177</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="153">
         <v>2.4470000000000001</v>
       </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
+      <c r="H48" s="15">
+        <f t="shared" ref="H48:H51" si="46">Y48</f>
+        <v>6.3810000000000002</v>
+      </c>
       <c r="N48" s="10"/>
-      <c r="O48" s="10">
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10">
         <f>F48</f>
         <v>1.177</v>
       </c>
-      <c r="P48" s="10">
+      <c r="R48" s="10">
         <v>0.98599999999999999</v>
       </c>
-      <c r="Q48" s="10">
+      <c r="S48" s="10">
         <v>2.3050000000000002</v>
       </c>
-      <c r="R48" s="10">
+      <c r="T48" s="10">
         <v>2.7120000000000002</v>
       </c>
-      <c r="S48" s="10">
+      <c r="U48" s="10">
         <f>G48</f>
         <v>2.4470000000000001</v>
       </c>
-      <c r="T48" s="10">
+      <c r="V48" s="10">
         <v>2.625</v>
       </c>
-      <c r="U48" s="10">
+      <c r="W48" s="10">
         <v>3.4049999999999998</v>
       </c>
-      <c r="V48" s="15">
+      <c r="X48" s="153">
         <v>3.649</v>
       </c>
-      <c r="W48" s="10"/>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y48" s="10">
+        <v>6.3810000000000002</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>2.5459999999999998</v>
+      </c>
+      <c r="AA48" s="15">
+        <v>7.7290000000000001</v>
+      </c>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>151</v>
       </c>
@@ -16138,41 +16983,55 @@
       <c r="F49" s="10">
         <v>157.55000000000001</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="153">
         <v>249.19200000000001</v>
       </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
+      <c r="H49" s="15">
+        <f t="shared" si="46"/>
+        <v>372.88400000000001</v>
+      </c>
       <c r="N49" s="10"/>
-      <c r="O49" s="10">
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10">
         <f>F49</f>
         <v>157.55000000000001</v>
       </c>
-      <c r="P49" s="10">
+      <c r="R49" s="10">
         <v>181.94200000000001</v>
       </c>
-      <c r="Q49" s="10">
+      <c r="S49" s="10">
         <v>192.75299999999999</v>
       </c>
-      <c r="R49" s="10">
+      <c r="T49" s="10">
         <v>208.88800000000001</v>
       </c>
-      <c r="S49" s="10">
+      <c r="U49" s="10">
         <f>G49</f>
         <v>249.19200000000001</v>
       </c>
-      <c r="T49" s="10">
+      <c r="V49" s="10">
         <v>279.31299999999999</v>
       </c>
-      <c r="U49" s="10">
+      <c r="W49" s="10">
         <v>291.47699999999998</v>
       </c>
-      <c r="V49" s="15">
+      <c r="X49" s="153">
         <v>310.60300000000001</v>
       </c>
-      <c r="W49" s="10"/>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y49" s="10">
+        <v>372.88400000000001</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>415.02300000000002</v>
+      </c>
+      <c r="AA49" s="15">
+        <v>431.17700000000002</v>
+      </c>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>17</v>
       </c>
@@ -16186,27 +17045,41 @@
       <c r="F50" s="10">
         <v>1.069</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="15">
+        <f t="shared" si="46"/>
+        <v>6.5910000000000002</v>
+      </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
-      <c r="T50" s="10">
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10">
         <v>0.36199999999999999</v>
       </c>
-      <c r="U50" s="10">
+      <c r="W50" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="V50" s="15">
+      <c r="X50" s="153">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="W50" s="10"/>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y50" s="10">
+        <v>6.5910000000000002</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>6.3810000000000002</v>
+      </c>
+      <c r="AA50" s="15">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>156</v>
       </c>
@@ -16220,41 +17093,55 @@
       <c r="F51" s="10">
         <v>21.97</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="153">
         <v>25.722999999999999</v>
       </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
+      <c r="H51" s="15">
+        <f t="shared" si="46"/>
+        <v>36.375</v>
+      </c>
       <c r="N51" s="10"/>
-      <c r="O51" s="10">
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10">
         <f>F51</f>
         <v>21.97</v>
       </c>
-      <c r="P51" s="10">
+      <c r="R51" s="10">
         <v>19.885000000000002</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="S51" s="10">
         <v>22.047999999999998</v>
       </c>
-      <c r="R51" s="10">
+      <c r="T51" s="10">
         <v>23.334</v>
       </c>
-      <c r="S51" s="10">
+      <c r="U51" s="10">
         <f>G51</f>
         <v>25.722999999999999</v>
       </c>
-      <c r="T51" s="10">
+      <c r="V51" s="10">
         <v>21.422000000000001</v>
       </c>
-      <c r="U51" s="10">
+      <c r="W51" s="10">
         <v>22.803999999999998</v>
       </c>
-      <c r="V51" s="15">
+      <c r="X51" s="153">
         <v>27.844999999999999</v>
       </c>
-      <c r="W51" s="10"/>
-    </row>
-    <row r="52" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y51" s="10">
+        <v>36.375</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>30.535</v>
+      </c>
+      <c r="AA51" s="15">
+        <v>32.453000000000003</v>
+      </c>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+    </row>
+    <row r="52" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>59</v>
       </c>
@@ -16274,60 +17161,88 @@
         <f>SUM(F48:F51)</f>
         <v>181.76599999999999</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="152">
         <f>SUM(G48:G51)</f>
         <v>277.36200000000002</v>
       </c>
-      <c r="L52" s="11">
-        <f t="shared" ref="L52:S52" si="29">SUM(L48:L51)</f>
+      <c r="H52" s="14">
+        <f t="shared" ref="H52:J52" si="47">SUM(H48:H51)</f>
+        <v>422.23099999999999</v>
+      </c>
+      <c r="I52" s="152">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="M52" s="11">
-        <f t="shared" si="29"/>
+      <c r="J52" s="152">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="N52:U52" si="48">SUM(N48:N51)</f>
         <v>0</v>
       </c>
       <c r="O52" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="11">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="11">
+        <f t="shared" si="48"/>
         <v>180.697</v>
       </c>
-      <c r="P52" s="11">
-        <f t="shared" si="29"/>
+      <c r="R52" s="11">
+        <f t="shared" si="48"/>
         <v>202.81299999999999</v>
       </c>
-      <c r="Q52" s="11">
-        <f t="shared" si="29"/>
+      <c r="S52" s="11">
+        <f t="shared" si="48"/>
         <v>217.10599999999999</v>
       </c>
-      <c r="R52" s="11">
-        <f t="shared" si="29"/>
+      <c r="T52" s="11">
+        <f t="shared" si="48"/>
         <v>234.934</v>
       </c>
-      <c r="S52" s="11">
-        <f t="shared" si="29"/>
+      <c r="U52" s="11">
+        <f t="shared" si="48"/>
         <v>277.36200000000002</v>
       </c>
-      <c r="T52" s="11">
-        <f t="shared" ref="T52:W52" si="30">SUM(T48:T51)</f>
+      <c r="V52" s="11">
+        <f t="shared" ref="V52:AC52" si="49">SUM(V48:V51)</f>
         <v>303.72200000000004</v>
       </c>
-      <c r="U52" s="11">
-        <f t="shared" si="30"/>
+      <c r="W52" s="11">
+        <f t="shared" si="49"/>
         <v>317.72399999999993</v>
       </c>
-      <c r="V52" s="14">
-        <f t="shared" si="30"/>
+      <c r="X52" s="152">
+        <f t="shared" si="49"/>
         <v>342.13300000000004</v>
       </c>
-      <c r="W52" s="11">
-        <f t="shared" si="30"/>
+      <c r="Y52" s="11">
+        <f t="shared" si="49"/>
+        <v>422.23099999999999</v>
+      </c>
+      <c r="Z52" s="11">
+        <f t="shared" si="49"/>
+        <v>454.48500000000007</v>
+      </c>
+      <c r="AA52" s="14">
+        <f t="shared" si="49"/>
+        <v>471.38300000000004</v>
+      </c>
+      <c r="AB52" s="11">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AC52" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>152</v>
       </c>
@@ -16341,41 +17256,55 @@
       <c r="F53" s="10">
         <v>23.503</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="153">
         <v>21.094000000000001</v>
       </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
+      <c r="H53" s="15">
+        <f t="shared" ref="H53:H54" si="50">Y53</f>
+        <v>54.655999999999999</v>
+      </c>
       <c r="N53" s="10"/>
-      <c r="O53" s="10">
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10">
         <f>F53</f>
         <v>23.503</v>
       </c>
-      <c r="P53" s="10">
+      <c r="R53" s="10">
         <v>22.378</v>
       </c>
-      <c r="Q53" s="10">
+      <c r="S53" s="10">
         <v>21.292000000000002</v>
       </c>
-      <c r="R53" s="10">
+      <c r="T53" s="10">
         <v>20.960999999999999</v>
       </c>
-      <c r="S53" s="10">
+      <c r="U53" s="10">
         <f>G53</f>
         <v>21.094000000000001</v>
       </c>
-      <c r="T53" s="10">
+      <c r="V53" s="10">
         <v>53.893000000000001</v>
       </c>
-      <c r="U53" s="10">
+      <c r="W53" s="10">
         <v>54.774999999999999</v>
       </c>
-      <c r="V53" s="15">
+      <c r="X53" s="153">
         <v>54.651000000000003</v>
       </c>
-      <c r="W53" s="10"/>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y53" s="10">
+        <v>54.655999999999999</v>
+      </c>
+      <c r="Z53" s="10">
+        <v>54.533000000000001</v>
+      </c>
+      <c r="AA53" s="15">
+        <v>93.843000000000004</v>
+      </c>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>219</v>
       </c>
@@ -16383,9 +17312,11 @@
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="15"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
+      <c r="G54" s="153"/>
+      <c r="H54" s="15">
+        <f t="shared" si="50"/>
+        <v>0.29099999999999998</v>
+      </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
@@ -16394,12 +17325,24 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
-      <c r="V54" s="15">
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="153">
         <v>0.312</v>
       </c>
-      <c r="W54" s="10"/>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y54" s="10">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="Z54" s="10">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AA54" s="15">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>25</v>
       </c>
@@ -16419,60 +17362,89 @@
         <f>SUM(F52:F53)</f>
         <v>205.26900000000001</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="152">
         <f>SUM(G52:G53)</f>
         <v>298.45600000000002</v>
       </c>
-      <c r="L55" s="11">
-        <f t="shared" ref="L55:U55" si="31">SUM(L52:L53)</f>
+      <c r="H55" s="14">
+        <f t="shared" ref="H55:K55" si="51">SUM(H52:H53)</f>
+        <v>476.887</v>
+      </c>
+      <c r="I55" s="152">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="M55" s="11">
-        <f t="shared" si="31"/>
+      <c r="J55" s="152">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
+      <c r="K55" s="152"/>
       <c r="N55" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="N55:W55" si="52">SUM(N52:N53)</f>
         <v>0</v>
       </c>
       <c r="O55" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="11">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="11">
+        <f t="shared" si="52"/>
         <v>204.2</v>
       </c>
-      <c r="P55" s="11">
-        <f t="shared" si="31"/>
+      <c r="R55" s="11">
+        <f t="shared" si="52"/>
         <v>225.19099999999997</v>
       </c>
-      <c r="Q55" s="11">
-        <f t="shared" si="31"/>
+      <c r="S55" s="11">
+        <f t="shared" si="52"/>
         <v>238.398</v>
       </c>
-      <c r="R55" s="11">
-        <f t="shared" si="31"/>
+      <c r="T55" s="11">
+        <f t="shared" si="52"/>
         <v>255.89499999999998</v>
       </c>
-      <c r="S55" s="11">
-        <f t="shared" si="31"/>
+      <c r="U55" s="11">
+        <f t="shared" si="52"/>
         <v>298.45600000000002</v>
       </c>
-      <c r="T55" s="11">
-        <f t="shared" si="31"/>
+      <c r="V55" s="11">
+        <f t="shared" si="52"/>
         <v>357.61500000000001</v>
       </c>
-      <c r="U55" s="11">
-        <f t="shared" si="31"/>
+      <c r="W55" s="11">
+        <f t="shared" si="52"/>
         <v>372.49899999999991</v>
       </c>
-      <c r="V55" s="14">
-        <f>SUM(V52:V54)</f>
+      <c r="X55" s="152">
+        <f>SUM(X52:X54)</f>
         <v>397.09600000000006</v>
       </c>
-      <c r="W55" s="11">
-        <f>SUM(W52:W54)</f>
+      <c r="Y55" s="11">
+        <f>SUM(Y52:Y54)</f>
+        <v>477.178</v>
+      </c>
+      <c r="Z55" s="11">
+        <f t="shared" ref="Z55:AC55" si="53">SUM(Z52:Z54)</f>
+        <v>509.32000000000011</v>
+      </c>
+      <c r="AA55" s="14">
+        <f t="shared" si="53"/>
+        <v>565.52800000000002</v>
+      </c>
+      <c r="AB55" s="11">
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AC55" s="11">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>74</v>
       </c>
@@ -16492,62 +17464,97 @@
         <f>F47-F55</f>
         <v>541.56999999999982</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="153">
         <f>G47-G55</f>
         <v>655.50100000000009</v>
       </c>
-      <c r="O56" s="10">
-        <f t="shared" ref="O56:W56" si="32">O47-O55</f>
+      <c r="H56" s="15">
+        <f t="shared" ref="H56:K56" si="54">H47-H55</f>
+        <v>824.84099999999967</v>
+      </c>
+      <c r="I56" s="153">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="153">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="153"/>
+      <c r="Q56" s="10">
+        <f t="shared" ref="Q56:Y56" si="55">Q47-Q55</f>
         <v>494.48999999999984</v>
       </c>
-      <c r="P56" s="10">
-        <f t="shared" si="32"/>
+      <c r="R56" s="10">
+        <f t="shared" si="55"/>
         <v>565.1880000000001</v>
       </c>
-      <c r="Q56" s="10">
-        <f t="shared" si="32"/>
+      <c r="S56" s="10">
+        <f t="shared" si="55"/>
         <v>596.40499999999986</v>
       </c>
-      <c r="R56" s="10">
-        <f t="shared" si="32"/>
+      <c r="T56" s="10">
+        <f t="shared" si="55"/>
         <v>614.81900000000007</v>
       </c>
-      <c r="S56" s="10">
-        <f t="shared" si="32"/>
+      <c r="U56" s="10">
+        <f t="shared" si="55"/>
         <v>655.50100000000009</v>
       </c>
-      <c r="T56" s="10">
-        <f t="shared" si="32"/>
+      <c r="V56" s="10">
+        <f t="shared" si="55"/>
         <v>711.05199999999991</v>
       </c>
-      <c r="U56" s="10">
-        <f t="shared" si="32"/>
+      <c r="W56" s="10">
+        <f t="shared" si="55"/>
         <v>766.94400000000007</v>
       </c>
-      <c r="V56" s="15">
-        <f t="shared" si="32"/>
+      <c r="X56" s="153">
+        <f t="shared" si="55"/>
         <v>822.4530000000002</v>
       </c>
-      <c r="W56" s="10">
-        <f t="shared" si="32"/>
+      <c r="Y56" s="10">
+        <f t="shared" si="55"/>
+        <v>824.54999999999961</v>
+      </c>
+      <c r="Z56" s="10">
+        <f t="shared" ref="Z56:AC56" si="56">Z47-Z55</f>
+        <v>893.82600000000002</v>
+      </c>
+      <c r="AA56" s="15">
+        <f t="shared" si="56"/>
+        <v>977.03100000000018</v>
+      </c>
+      <c r="AB56" s="10">
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="V58" s="16"/>
-    </row>
-    <row r="76" spans="7:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G76" s="41"/>
-      <c r="V76" s="41"/>
-    </row>
-    <row r="77" spans="7:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G77" s="16"/>
-      <c r="V77" s="16"/>
+      <c r="AC56" s="10">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="157"/>
+      <c r="H58" s="16"/>
+      <c r="X58" s="159"/>
+      <c r="AA58" s="16"/>
+    </row>
+    <row r="76" spans="7:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="158"/>
+      <c r="H76" s="41"/>
+      <c r="X76" s="158"/>
+      <c r="AA76" s="41"/>
+    </row>
+    <row r="77" spans="7:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="159"/>
+      <c r="H77" s="16"/>
+      <c r="X77" s="159"/>
+      <c r="AA77" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16588,13 +17595,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16602,7 +17609,7 @@
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -16615,6 +17622,9 @@
       <c r="E1">
         <v>2023</v>
       </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -16651,8 +17661,20 @@
       <c r="T1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" t="s">
+        <v>223</v>
+      </c>
+      <c r="W1" t="s">
+        <v>224</v>
+      </c>
+      <c r="X1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -16689,8 +17711,17 @@
       <c r="S2">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>40.5</v>
+      </c>
+      <c r="U2">
+        <v>46.6</v>
+      </c>
+      <c r="V2">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -16727,8 +17758,17 @@
       <c r="S3">
         <v>113.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>116.7</v>
+      </c>
+      <c r="U3">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="V3">
+        <v>128.30000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -16765,157 +17805,214 @@
       <c r="S4">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="121" t="s">
+      <c r="T4">
+        <v>9.5</v>
+      </c>
+      <c r="U4">
+        <v>10.3</v>
+      </c>
+      <c r="V4">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J5" s="122">
+      <c r="J5" s="119">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K5" s="122">
+      <c r="K5" s="119">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="L5" s="122">
+      <c r="L5" s="119">
         <v>7.8E-2</v>
       </c>
-      <c r="M5" s="122">
+      <c r="M5" s="119">
         <v>0.08</v>
       </c>
-      <c r="N5" s="122">
+      <c r="N5" s="119">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="O5" s="122">
+      <c r="O5" s="119">
         <v>0.08</v>
       </c>
-      <c r="P5" s="122">
+      <c r="P5" s="119">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q5" s="122">
+      <c r="Q5" s="119">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="R5" s="122">
+      <c r="R5" s="119">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="S5" s="122">
+      <c r="S5" s="119">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T5" s="119">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="U5" s="119">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="V5" s="119">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="139">
+      <c r="M7" s="130">
         <f t="shared" ref="M7:N7" si="0">M2/I2-1</f>
         <v>0.62400000000000011</v>
       </c>
-      <c r="N7" s="139">
+      <c r="N7" s="130">
         <f t="shared" si="0"/>
         <v>0.6212121212121211</v>
       </c>
-      <c r="O7" s="139">
+      <c r="O7" s="130">
         <f t="shared" ref="O7:P9" si="1">O2/K2-1</f>
         <v>0.62416107382550323</v>
       </c>
-      <c r="P7" s="139">
+      <c r="P7" s="130">
         <f t="shared" si="1"/>
         <v>0.65030674846625747</v>
       </c>
-      <c r="Q7" s="139">
+      <c r="Q7" s="130">
         <f t="shared" ref="Q7:Q9" si="2">Q2/M2-1</f>
         <v>0.54679802955665013</v>
       </c>
-      <c r="R7" s="140">
+      <c r="R7" s="131">
         <f t="shared" ref="R7:S9" si="3">R2/N2-1</f>
         <v>0.59345794392523388</v>
       </c>
-      <c r="S7" s="140">
+      <c r="S7" s="131">
         <f t="shared" si="3"/>
         <v>0.53719008264462831</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T7" s="131">
+        <f t="shared" ref="T7:T9" si="4">T2/P2-1</f>
+        <v>0.50557620817843874</v>
+      </c>
+      <c r="U7" s="131">
+        <f t="shared" ref="U7:V9" si="5">U2/Q2-1</f>
+        <v>0.48407643312101922</v>
+      </c>
+      <c r="V7" s="131">
+        <f t="shared" si="5"/>
+        <v>0.39882697947214085</v>
+      </c>
+      <c r="W7" s="131"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="139">
-        <f t="shared" ref="M8:N8" si="4">M3/I3-1</f>
+      <c r="M8" s="130">
+        <f t="shared" ref="M8:N8" si="6">M3/I3-1</f>
         <v>0.47560975609756073</v>
       </c>
-      <c r="N8" s="139">
-        <f t="shared" si="4"/>
+      <c r="N8" s="130">
+        <f t="shared" si="6"/>
         <v>0.49696969696969684</v>
       </c>
-      <c r="O8" s="139">
+      <c r="O8" s="130">
         <f t="shared" si="1"/>
         <v>0.47079646017699095</v>
       </c>
-      <c r="P8" s="139">
+      <c r="P8" s="130">
         <f t="shared" si="1"/>
         <v>0.45634266886326191</v>
       </c>
-      <c r="Q8" s="140">
+      <c r="Q8" s="131">
         <f t="shared" si="2"/>
         <v>0.34435261707988984</v>
       </c>
-      <c r="R8" s="140">
+      <c r="R8" s="131">
         <f t="shared" si="3"/>
         <v>0.3981106612685561</v>
       </c>
-      <c r="S8" s="140">
+      <c r="S8" s="131">
         <f t="shared" si="3"/>
         <v>0.36101083032490977</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" s="131">
+        <f t="shared" si="4"/>
+        <v>0.32013574660633481</v>
+      </c>
+      <c r="U8" s="131">
+        <f t="shared" si="5"/>
+        <v>0.33401639344262302</v>
+      </c>
+      <c r="V8" s="131">
+        <f t="shared" si="5"/>
+        <v>0.23841698841698866</v>
+      </c>
+      <c r="W8" s="131"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
-      <c r="M9" s="123">
-        <f t="shared" ref="M9:N9" si="5">M4/I4-1</f>
+      <c r="M9" s="120">
+        <f t="shared" ref="M9:N9" si="7">M4/I4-1</f>
         <v>0.65517241379310343</v>
       </c>
-      <c r="N9" s="123">
-        <f t="shared" si="5"/>
+      <c r="N9" s="120">
+        <f t="shared" si="7"/>
         <v>0.57575757575757591</v>
       </c>
-      <c r="O9" s="123">
+      <c r="O9" s="120">
         <f t="shared" si="1"/>
         <v>0.56756756756756754</v>
       </c>
-      <c r="P9" s="123">
+      <c r="P9" s="120">
         <f t="shared" si="1"/>
         <v>0.57142857142857117</v>
       </c>
-      <c r="Q9" s="123">
+      <c r="Q9" s="120">
         <f t="shared" si="2"/>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R9" s="123">
+      <c r="R9" s="120">
         <f t="shared" si="3"/>
         <v>0.53846153846153832</v>
       </c>
-      <c r="S9" s="123">
+      <c r="S9" s="120">
         <f t="shared" si="3"/>
         <v>0.48275862068965525</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="124" t="s">
+      <c r="T9" s="120">
+        <f t="shared" si="4"/>
+        <v>0.43939393939393945</v>
+      </c>
+      <c r="U9" s="120">
+        <f t="shared" si="5"/>
+        <v>0.39189189189189189</v>
+      </c>
+      <c r="V9" s="120">
+        <f t="shared" si="5"/>
+        <v>0.36250000000000004</v>
+      </c>
+      <c r="W9" s="120"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="121" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -16952,8 +18049,18 @@
       <c r="S13">
         <v>192.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <f>730.737-S13-R13-Q13</f>
+        <v>192.23699999999994</v>
+      </c>
+      <c r="U13">
+        <v>232.184</v>
+      </c>
+      <c r="V13">
+        <v>227.25899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>141</v>
       </c>
@@ -16990,120 +18097,266 @@
       <c r="S14">
         <v>211.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <f>870.601-S14-R14-Q14</f>
+        <v>271.50099999999998</v>
+      </c>
+      <c r="U14">
+        <v>271.64800000000002</v>
+      </c>
+      <c r="V14">
+        <v>268.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="123">
-        <f t="shared" ref="I16:P16" si="6">I13/I14</f>
+      <c r="I16" s="120">
+        <f t="shared" ref="I16:P16" si="8">I13/I14</f>
         <v>0.76885406464250738</v>
       </c>
-      <c r="J16" s="123">
-        <f t="shared" si="6"/>
+      <c r="J16" s="120">
+        <f t="shared" si="8"/>
         <v>0.7599999999999999</v>
       </c>
-      <c r="K16" s="123">
-        <f t="shared" si="6"/>
+      <c r="K16" s="120">
+        <f t="shared" si="8"/>
         <v>0.76825705939629996</v>
       </c>
-      <c r="L16" s="123">
-        <f t="shared" si="6"/>
+      <c r="L16" s="120">
+        <f t="shared" si="8"/>
         <v>0.793512658227848</v>
       </c>
-      <c r="M16" s="123">
-        <f t="shared" si="6"/>
+      <c r="M16" s="120">
+        <f t="shared" si="8"/>
         <v>0.7858672376873661</v>
       </c>
-      <c r="N16" s="123">
-        <f t="shared" si="6"/>
+      <c r="N16" s="120">
+        <f t="shared" si="8"/>
         <v>0.77309090909090905</v>
       </c>
-      <c r="O16" s="123">
-        <f t="shared" si="6"/>
+      <c r="O16" s="120">
+        <f t="shared" si="8"/>
         <v>0.78971354166666663</v>
       </c>
-      <c r="P16" s="123">
-        <f t="shared" si="6"/>
+      <c r="P16" s="120">
+        <f t="shared" si="8"/>
         <v>0.8261780104712042</v>
       </c>
-      <c r="Q16" s="123">
-        <f t="shared" ref="Q16:S16" si="7">Q13/Q14</f>
+      <c r="Q16" s="120">
+        <f t="shared" ref="Q16:S16" si="9">Q13/Q14</f>
         <v>0.84860759493670879</v>
       </c>
-      <c r="R16" s="139">
-        <f t="shared" si="7"/>
+      <c r="R16" s="130">
+        <f t="shared" si="9"/>
         <v>0.9379274066280906</v>
       </c>
-      <c r="S16" s="139">
-        <f t="shared" si="7"/>
+      <c r="S16" s="130">
+        <f t="shared" si="9"/>
         <v>0.91063829787234041</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="130">
+        <f t="shared" ref="T16:V16" si="10">T13/T14</f>
+        <v>0.70805264069008933</v>
+      </c>
+      <c r="U16" s="130">
+        <f t="shared" si="10"/>
+        <v>0.85472376016020724</v>
+      </c>
+      <c r="V16" s="130">
+        <f t="shared" si="10"/>
+        <v>0.84791806581598383</v>
+      </c>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>143</v>
       </c>
-      <c r="M17" s="123">
-        <f t="shared" ref="M17:P18" si="8">M13/I13-1</f>
+      <c r="M17" s="120">
+        <f t="shared" ref="M17:P18" si="11">M13/I13-1</f>
         <v>0.40254777070063685</v>
       </c>
-      <c r="N17" s="123">
-        <f t="shared" si="8"/>
+      <c r="N17" s="120">
+        <f t="shared" si="11"/>
         <v>0.43454790823211886</v>
       </c>
-      <c r="O17" s="139">
-        <f t="shared" si="8"/>
+      <c r="O17" s="130">
+        <f t="shared" si="11"/>
         <v>0.53738910012674257</v>
       </c>
-      <c r="P17" s="139">
-        <f t="shared" si="8"/>
+      <c r="P17" s="130">
+        <f t="shared" si="11"/>
         <v>0.57328015952143585</v>
       </c>
-      <c r="Q17" s="139">
-        <f t="shared" ref="Q17:Q18" si="9">Q13/M13-1</f>
+      <c r="Q17" s="130">
+        <f t="shared" ref="Q17:Q18" si="12">Q13/M13-1</f>
         <v>0.52225249772933702</v>
       </c>
-      <c r="R17" s="139">
-        <f t="shared" ref="R17:S18" si="10">R13/N13-1</f>
+      <c r="R17" s="130">
+        <f t="shared" ref="R17:S18" si="13">R13/N13-1</f>
         <v>0.67732831608654775</v>
       </c>
-      <c r="S17" s="139">
-        <f t="shared" si="10"/>
+      <c r="S17" s="130">
+        <f t="shared" si="13"/>
         <v>0.58779884583676822</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="130">
+        <f t="shared" ref="T17:T18" si="14">T13/P13-1</f>
+        <v>0.2182319391634977</v>
+      </c>
+      <c r="U17" s="130">
+        <f t="shared" ref="U17:U18" si="15">U13/Q13-1</f>
+        <v>0.38534606205250599</v>
+      </c>
+      <c r="V17" s="130">
+        <f t="shared" ref="V17:V18" si="16">V13/R13-1</f>
+        <v>0.27458777341559149</v>
+      </c>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>144</v>
       </c>
-      <c r="M18" s="123">
-        <f t="shared" si="8"/>
+      <c r="M18" s="120">
+        <f t="shared" si="11"/>
         <v>0.37218413320274246</v>
       </c>
-      <c r="N18" s="123">
-        <f t="shared" si="8"/>
+      <c r="N18" s="120">
+        <f t="shared" si="11"/>
         <v>0.41025641025641035</v>
       </c>
-      <c r="O18" s="123">
-        <f t="shared" si="8"/>
+      <c r="O18" s="120">
+        <f t="shared" si="11"/>
         <v>0.49561830574488797</v>
       </c>
-      <c r="P18" s="123">
-        <f t="shared" si="8"/>
+      <c r="P18" s="120">
+        <f t="shared" si="11"/>
         <v>0.51107594936708844</v>
       </c>
-      <c r="Q18" s="123">
-        <f t="shared" si="9"/>
+      <c r="Q18" s="120">
+        <f t="shared" si="12"/>
         <v>0.4097073518915062</v>
       </c>
-      <c r="R18" s="123">
-        <f t="shared" si="10"/>
+      <c r="R18" s="120">
+        <f t="shared" si="13"/>
         <v>0.38254545454545452</v>
       </c>
-      <c r="S18" s="123">
-        <f t="shared" si="10"/>
+      <c r="S18" s="120">
+        <f t="shared" si="13"/>
         <v>0.376953125</v>
+      </c>
+      <c r="T18" s="120">
+        <f t="shared" si="14"/>
+        <v>0.42147120418848161</v>
+      </c>
+      <c r="U18" s="120">
+        <f t="shared" si="15"/>
+        <v>0.37543291139240509</v>
+      </c>
+      <c r="V18" s="120">
+        <f t="shared" si="16"/>
+        <v>0.40988953182535504</v>
+      </c>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="166">
+        <v>168.32</v>
+      </c>
+      <c r="E22" s="166">
+        <v>238.75899999999999</v>
+      </c>
+      <c r="F22" s="166">
+        <v>311.53899999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="166">
+        <v>201.17500000000001</v>
+      </c>
+      <c r="E23" s="166">
+        <v>292.35000000000002</v>
+      </c>
+      <c r="F23" s="166">
+        <v>436.48500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:E24" si="17">SUM(C22:C23)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="167">
+        <f t="shared" si="17"/>
+        <v>369.495</v>
+      </c>
+      <c r="E24" s="167">
+        <f t="shared" si="17"/>
+        <v>531.10900000000004</v>
+      </c>
+      <c r="F24" s="167">
+        <f>SUM(F22:F23)</f>
+        <v>748.024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="165">
+        <f>D22/D24</f>
+        <v>0.45554067037442997</v>
+      </c>
+      <c r="E26" s="165">
+        <f t="shared" ref="E26:F26" si="18">E22/E24</f>
+        <v>0.44954802121598386</v>
+      </c>
+      <c r="F26" s="165">
+        <f t="shared" si="18"/>
+        <v>0.41648262622589649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="165">
+        <f>E22/D22-1</f>
+        <v>0.41848265209125479</v>
+      </c>
+      <c r="F27" s="165">
+        <f>F22/E22-1</f>
+        <v>0.30482620550429518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="165">
+        <f>E23/D23-1</f>
+        <v>0.45321237728345976</v>
+      </c>
+      <c r="F28" s="165">
+        <f>F23/E23-1</f>
+        <v>0.49302206259620318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O32" s="172" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -26052,14 +27305,14 @@
       <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="150" t="s">
+      <c r="H1" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="152"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -26068,16 +27321,16 @@
       <c r="C2" s="18">
         <v>216.38</v>
       </c>
-      <c r="D2" s="123">
+      <c r="D2" s="120">
         <f>C2/C3-1</f>
         <v>0.11157914082853915</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
@@ -26086,26 +27339,26 @@
       <c r="C3" s="18">
         <v>194.66000399999999</v>
       </c>
-      <c r="D3" s="123">
+      <c r="D3" s="120">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>-7.7615568343958441E-2</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="62" t="s">
         <v>94</v>
       </c>
     </row>
@@ -26116,31 +27369,31 @@
       <c r="C4" s="18">
         <v>211.03999300000001</v>
       </c>
-      <c r="D4" s="123">
+      <c r="D4" s="120">
         <f t="shared" si="0"/>
         <v>-1.8464267207670915E-2</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="63">
         <f>$I$19-3*$I$23</f>
         <v>-0.26958302426293923</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="64">
         <f>H4</f>
         <v>-0.26958302426293923</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="65">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="68" t="str">
+      <c r="K4" s="65" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>Less than -26,96%</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="66">
         <f>J4/$I$31</f>
         <v>0</v>
       </c>
-      <c r="M4" s="70">
+      <c r="M4" s="67">
         <f>L4</f>
         <v>0</v>
       </c>
@@ -26152,31 +27405,31 @@
       <c r="C5" s="18">
         <v>215.009995</v>
       </c>
-      <c r="D5" s="123">
+      <c r="D5" s="120">
         <f t="shared" si="0"/>
         <v>-2.5251640898978689E-2</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="68">
         <f>$I$19-2.4*$I$23</f>
         <v>-0.21426380716784171</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="69">
         <f>H5</f>
         <v>-0.21426380716784171</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="70">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="74" t="str">
+      <c r="K5" s="71" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>-26,96% to -21,43%</v>
       </c>
-      <c r="L5" s="75">
+      <c r="L5" s="72">
         <f>J5/$I$31</f>
         <v>0</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="73">
         <f>M4+L5</f>
         <v>0</v>
       </c>
@@ -26188,31 +27441,31 @@
       <c r="C6" s="18">
         <v>220.58000200000001</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="120">
         <f t="shared" si="0"/>
         <v>-4.9592805370206494E-2</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="68">
         <f>$I$19-1.8*$I$23</f>
         <v>-0.15894459007274417</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="69">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>-0.15894459007274417</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J6" s="70">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="74" t="str">
+      <c r="K6" s="71" t="str">
         <f t="shared" si="1"/>
         <v>-21,43% to -15,89%</v>
       </c>
-      <c r="L6" s="75">
+      <c r="L6" s="72">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>1.3986013986013986E-2</v>
       </c>
-      <c r="M6" s="76">
+      <c r="M6" s="73">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>1.3986013986013986E-2</v>
       </c>
@@ -26224,31 +27477,31 @@
       <c r="C7" s="18">
         <v>232.08999600000001</v>
       </c>
-      <c r="D7" s="123">
+      <c r="D7" s="120">
         <f t="shared" si="0"/>
         <v>7.2802072160526476E-2</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="68">
         <f>$I$19-1.2*$I$23</f>
         <v>-0.10362537297764662</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="69">
         <f t="shared" si="2"/>
         <v>-0.10362537297764662</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="70">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K7" s="74" t="str">
+      <c r="K7" s="71" t="str">
         <f t="shared" si="1"/>
         <v>-15,89% to -10,36%</v>
       </c>
-      <c r="L7" s="75">
+      <c r="L7" s="72">
         <f t="shared" si="4"/>
         <v>5.5944055944055944E-2</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="73">
         <f t="shared" si="5"/>
         <v>6.9930069930069935E-2</v>
       </c>
@@ -26260,31 +27513,31 @@
       <c r="C8" s="18">
         <v>216.33999600000001</v>
       </c>
-      <c r="D8" s="123">
+      <c r="D8" s="120">
         <f t="shared" si="0"/>
         <v>1.3159729373669826E-2</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="68">
         <f>$I$19-0.6*$I$23</f>
         <v>-4.8306155882549093E-2</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="69">
         <f t="shared" si="2"/>
         <v>-4.8306155882549093E-2</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="70">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="K8" s="74" t="str">
+      <c r="K8" s="71" t="str">
         <f t="shared" si="1"/>
         <v>-10,36% to -4,83%</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="72">
         <f t="shared" si="4"/>
         <v>0.16783216783216784</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="73">
         <f t="shared" si="5"/>
         <v>0.23776223776223776</v>
       </c>
@@ -26296,31 +27549,31 @@
       <c r="C9" s="18">
         <v>213.529999</v>
       </c>
-      <c r="D9" s="123">
+      <c r="D9" s="120">
         <f t="shared" si="0"/>
         <v>-9.7086580889539031E-2</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="68">
         <f>$I$19</f>
         <v>7.0130612125484468E-3</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="69">
         <f t="shared" si="2"/>
         <v>7.0130612125484468E-3</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="70">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="K9" s="74" t="str">
+      <c r="K9" s="71" t="str">
         <f t="shared" si="1"/>
         <v>-4,83% to 0,70%</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="72">
         <f t="shared" si="4"/>
         <v>0.30069930069930068</v>
       </c>
-      <c r="M9" s="76">
+      <c r="M9" s="73">
         <f t="shared" si="5"/>
         <v>0.53846153846153844</v>
       </c>
@@ -26332,31 +27585,31 @@
       <c r="C10" s="18">
         <v>236.490005</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="120">
         <f t="shared" si="0"/>
         <v>0.33512108803926233</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="68">
         <f>$I$19+0.6*$I$23</f>
         <v>6.2332278307645983E-2</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="69">
         <f t="shared" si="2"/>
         <v>6.2332278307645983E-2</v>
       </c>
-      <c r="J10" s="73">
+      <c r="J10" s="70">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="K10" s="74" t="str">
+      <c r="K10" s="71" t="str">
         <f t="shared" si="1"/>
         <v>0,70% to 6,23%</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="72">
         <f t="shared" si="4"/>
         <v>0.20279720279720279</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="73">
         <f t="shared" si="5"/>
         <v>0.74125874125874125</v>
       </c>
@@ -26368,31 +27621,31 @@
       <c r="C11" s="18">
         <v>177.13000500000001</v>
       </c>
-      <c r="D11" s="123">
+      <c r="D11" s="120">
         <f t="shared" si="0"/>
         <v>-4.2022656853087703E-2</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="68">
         <f>$I$19+1.2*$I$23</f>
         <v>0.11765149540274353</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="69">
         <f t="shared" si="2"/>
         <v>0.11765149540274353</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="70">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="K11" s="74" t="str">
+      <c r="K11" s="71" t="str">
         <f t="shared" si="1"/>
         <v>6,23% to 11,77%</v>
       </c>
-      <c r="L11" s="75">
+      <c r="L11" s="72">
         <f t="shared" si="4"/>
         <v>0.19580419580419581</v>
       </c>
-      <c r="M11" s="76">
+      <c r="M11" s="73">
         <f t="shared" si="5"/>
         <v>0.93706293706293708</v>
       </c>
@@ -26404,31 +27657,31 @@
       <c r="C12" s="18">
         <v>184.89999399999999</v>
       </c>
-      <c r="D12" s="123">
+      <c r="D12" s="120">
         <f t="shared" si="0"/>
         <v>-3.5673364043147915E-2</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="68">
         <f>$I$19+1.8*$I$23</f>
         <v>0.17297071249784104</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="69">
         <f t="shared" si="2"/>
         <v>0.17297071249784104</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="70">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K12" s="74" t="str">
+      <c r="K12" s="71" t="str">
         <f t="shared" si="1"/>
         <v>11,77% to 17,30%</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="72">
         <f t="shared" si="4"/>
         <v>3.4965034965034968E-2</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="73">
         <f t="shared" si="5"/>
         <v>0.97202797202797209</v>
       </c>
@@ -26440,31 +27693,31 @@
       <c r="C13" s="18">
         <v>191.740005</v>
       </c>
-      <c r="D13" s="123">
+      <c r="D13" s="120">
         <f t="shared" si="0"/>
         <v>7.1831885917781335E-2</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="68">
         <f>$I$19+2.4*$I$23</f>
         <v>0.22828992959293859</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="69">
         <f t="shared" si="2"/>
         <v>0.22828992959293859</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="74" t="str">
+      <c r="K13" s="71" t="str">
         <f t="shared" si="1"/>
         <v>17,30% to 22,83%</v>
       </c>
-      <c r="L13" s="75">
+      <c r="L13" s="72">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="76">
+      <c r="M13" s="73">
         <f t="shared" si="5"/>
         <v>0.97202797202797209</v>
       </c>
@@ -26476,31 +27729,31 @@
       <c r="C14" s="18">
         <v>178.88999899999999</v>
       </c>
-      <c r="D14" s="123">
+      <c r="D14" s="120">
         <f t="shared" si="0"/>
         <v>-7.2580227448702517E-2</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="68">
         <f>$I$19+3*$I$23</f>
         <v>0.28360914668803616</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="69">
         <f t="shared" si="2"/>
         <v>0.28360914668803616</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="74" t="str">
+      <c r="K14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>22,83% to 28,36%</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="72">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="76">
+      <c r="M14" s="73">
         <f t="shared" si="5"/>
         <v>0.97202797202797209</v>
       </c>
@@ -26512,27 +27765,27 @@
       <c r="C15" s="18">
         <v>192.88999899999999</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="120">
         <f t="shared" si="0"/>
         <v>-8.7872916098472587E-3</v>
       </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78" t="s">
+      <c r="H15" s="74"/>
+      <c r="I15" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="78">
+      <c r="J15" s="75">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>4</v>
       </c>
-      <c r="K15" s="78" t="str">
+      <c r="K15" s="75" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>Greater than 28,36%</v>
       </c>
-      <c r="L15" s="79">
+      <c r="L15" s="76">
         <f t="shared" si="4"/>
         <v>2.7972027972027972E-2</v>
       </c>
-      <c r="M15" s="79">
+      <c r="M15" s="76">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -26544,12 +27797,12 @@
       <c r="C16" s="18">
         <v>194.60000600000001</v>
       </c>
-      <c r="D16" s="123">
+      <c r="D16" s="120">
         <f t="shared" si="0"/>
         <v>-8.2118718034968063E-2</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="H16" s="77"/>
+      <c r="M16" s="78"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
@@ -26558,15 +27811,15 @@
       <c r="C17" s="18">
         <v>212.009995</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="120">
         <f t="shared" si="0"/>
         <v>3.857741295165984E-2</v>
       </c>
-      <c r="H17" s="153" t="s">
+      <c r="H17" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="154"/>
-      <c r="M17" s="81"/>
+      <c r="I17" s="145"/>
+      <c r="M17" s="78"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
@@ -26575,13 +27828,13 @@
       <c r="C18" s="18">
         <v>204.134995</v>
       </c>
-      <c r="D18" s="123">
+      <c r="D18" s="120">
         <f t="shared" si="0"/>
         <v>-0.1001322918192914</v>
       </c>
-      <c r="H18" s="155"/>
-      <c r="I18" s="156"/>
-      <c r="M18" s="81"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
+      <c r="M18" s="78"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
@@ -26590,18 +27843,18 @@
       <c r="C19" s="18">
         <v>226.85000600000001</v>
       </c>
-      <c r="D19" s="123">
+      <c r="D19" s="120">
         <f t="shared" si="0"/>
         <v>-4.7848873032528827E-2</v>
       </c>
-      <c r="H19" s="82" t="s">
+      <c r="H19" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="119">
+      <c r="I19" s="116">
         <f>AVERAGE(D:D)</f>
         <v>7.0130612125484468E-3</v>
       </c>
-      <c r="M19" s="81"/>
+      <c r="M19" s="78"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
@@ -26610,18 +27863,18 @@
       <c r="C20" s="18">
         <v>238.25</v>
       </c>
-      <c r="D20" s="123">
+      <c r="D20" s="120">
         <f t="shared" si="0"/>
         <v>2.9202103131839241E-2</v>
       </c>
-      <c r="H20" s="82" t="s">
+      <c r="H20" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="119">
+      <c r="I20" s="116">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>7.7100422159371634E-3</v>
       </c>
-      <c r="M20" s="81"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
@@ -26630,18 +27883,18 @@
       <c r="C21" s="18">
         <v>231.490005</v>
       </c>
-      <c r="D21" s="123">
+      <c r="D21" s="120">
         <f t="shared" si="0"/>
         <v>7.795112922002323E-2</v>
       </c>
-      <c r="H21" s="82" t="s">
+      <c r="H21" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="119">
+      <c r="I21" s="116">
         <f>MEDIAN(D:D)</f>
         <v>-7.6949466757081364E-4</v>
       </c>
-      <c r="M21" s="81"/>
+      <c r="M21" s="78"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
@@ -26650,18 +27903,18 @@
       <c r="C22" s="18">
         <v>214.75</v>
       </c>
-      <c r="D22" s="123">
+      <c r="D22" s="120">
         <f t="shared" si="0"/>
         <v>6.7979230173755845E-3</v>
       </c>
-      <c r="H22" s="82" t="s">
+      <c r="H22" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="I22" s="119" t="e">
+      <c r="I22" s="116" t="e">
         <f>MODE(D:D)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="81"/>
+      <c r="M22" s="78"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -26670,18 +27923,18 @@
       <c r="C23" s="18">
         <v>213.300003</v>
       </c>
-      <c r="D23" s="123">
+      <c r="D23" s="120">
         <f t="shared" si="0"/>
         <v>-3.6846399991308565E-2</v>
       </c>
-      <c r="H23" s="82" t="s">
+      <c r="H23" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="119">
+      <c r="I23" s="116">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>9.2198695158495894E-2</v>
       </c>
-      <c r="M23" s="81"/>
+      <c r="M23" s="78"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -26690,18 +27943,18 @@
       <c r="C24" s="18">
         <v>221.46000699999999</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="120">
         <f t="shared" si="0"/>
         <v>4.6350169043708922E-2</v>
       </c>
-      <c r="H24" s="82" t="s">
+      <c r="H24" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="119">
+      <c r="I24" s="116">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>8.5005993889292544E-3</v>
       </c>
-      <c r="M24" s="81"/>
+      <c r="M24" s="78"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
@@ -26710,18 +27963,18 @@
       <c r="C25" s="18">
         <v>211.64999399999999</v>
       </c>
-      <c r="D25" s="123">
+      <c r="D25" s="120">
         <f t="shared" si="0"/>
         <v>5.6727178446203119E-4</v>
       </c>
-      <c r="H25" s="82" t="s">
+      <c r="H25" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="120">
+      <c r="I25" s="117">
         <f>KURT(D:D)</f>
         <v>3.5761692065844546</v>
       </c>
-      <c r="M25" s="81"/>
+      <c r="M25" s="78"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
@@ -26730,18 +27983,18 @@
       <c r="C26" s="18">
         <v>211.529999</v>
       </c>
-      <c r="D26" s="123">
+      <c r="D26" s="120">
         <f t="shared" si="0"/>
         <v>0.32762189383516094</v>
       </c>
-      <c r="H26" s="82" t="s">
+      <c r="H26" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="120">
+      <c r="I26" s="117">
         <f>SKEW(D:D)</f>
         <v>1.1921520470223386</v>
       </c>
-      <c r="M26" s="81"/>
+      <c r="M26" s="78"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -26750,18 +28003,18 @@
       <c r="C27" s="18">
         <v>159.33000200000001</v>
       </c>
-      <c r="D27" s="123">
+      <c r="D27" s="120">
         <f t="shared" si="0"/>
         <v>0.10977219636131941</v>
       </c>
-      <c r="H27" s="82" t="s">
+      <c r="H27" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="119">
+      <c r="I27" s="116">
         <f>I29-I28</f>
         <v>0.57337747950199325</v>
       </c>
-      <c r="M27" s="81"/>
+      <c r="M27" s="78"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -26770,18 +28023,18 @@
       <c r="C28" s="18">
         <v>143.570007</v>
       </c>
-      <c r="D28" s="123">
+      <c r="D28" s="120">
         <f t="shared" si="0"/>
         <v>-6.548198706365993E-2</v>
       </c>
-      <c r="H28" s="82" t="s">
+      <c r="H28" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="I28" s="119">
+      <c r="I28" s="116">
         <f>MIN(D:D)</f>
         <v>-0.20497463959390871</v>
       </c>
-      <c r="M28" s="81"/>
+      <c r="M28" s="78"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -26790,18 +28043,18 @@
       <c r="C29" s="18">
         <v>153.63000500000001</v>
       </c>
-      <c r="D29" s="123">
+      <c r="D29" s="120">
         <f t="shared" si="0"/>
         <v>-4.0412247080115593E-2</v>
       </c>
-      <c r="H29" s="82" t="s">
+      <c r="H29" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="119">
+      <c r="I29" s="116">
         <f>MAX(D:D)</f>
         <v>0.36840283990808453</v>
       </c>
-      <c r="M29" s="81"/>
+      <c r="M29" s="78"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -26810,18 +28063,18 @@
       <c r="C30" s="18">
         <v>160.10000600000001</v>
       </c>
-      <c r="D30" s="123">
+      <c r="D30" s="120">
         <f t="shared" si="0"/>
         <v>-2.5207007269635651E-2</v>
       </c>
-      <c r="H30" s="82" t="s">
+      <c r="H30" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="120">
+      <c r="I30" s="117">
         <f>SUM(D:D)</f>
         <v>1.0028677533944279</v>
       </c>
-      <c r="M30" s="81"/>
+      <c r="M30" s="78"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
@@ -26830,18 +28083,18 @@
       <c r="C31" s="18">
         <v>164.240005</v>
       </c>
-      <c r="D31" s="123">
+      <c r="D31" s="120">
         <f t="shared" si="0"/>
         <v>-9.8269129386541199E-3</v>
       </c>
-      <c r="H31" s="83" t="s">
+      <c r="H31" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="57">
         <f>COUNT(D:D)</f>
         <v>143</v>
       </c>
-      <c r="M31" s="81"/>
+      <c r="M31" s="78"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
@@ -26850,12 +28103,12 @@
       <c r="C32" s="18">
         <v>165.86999499999999</v>
       </c>
-      <c r="D32" s="123">
+      <c r="D32" s="120">
         <f t="shared" si="0"/>
         <v>8.6460975783860361E-2</v>
       </c>
-      <c r="H32" s="85"/>
-      <c r="M32" s="81"/>
+      <c r="H32" s="82"/>
+      <c r="M32" s="78"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -26864,24 +28117,24 @@
       <c r="C33" s="18">
         <v>152.66999799999999</v>
       </c>
-      <c r="D33" s="123">
+      <c r="D33" s="120">
         <f t="shared" si="0"/>
         <v>-4.3001322904791195E-2</v>
       </c>
-      <c r="H33" s="86"/>
-      <c r="I33" s="87" t="s">
+      <c r="H33" s="83"/>
+      <c r="I33" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="87" t="s">
+      <c r="J33" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="87" t="s">
+      <c r="K33" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="L33" s="88" t="s">
+      <c r="L33" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="M33" s="81"/>
+      <c r="M33" s="78"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
@@ -26890,30 +28143,30 @@
       <c r="C34" s="18">
         <v>159.529999</v>
       </c>
-      <c r="D34" s="123">
+      <c r="D34" s="120">
         <f t="shared" si="0"/>
         <v>1.929591781023321E-2</v>
       </c>
-      <c r="H34" s="89" t="s">
+      <c r="H34" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="75">
+      <c r="I34" s="72">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>7.5861524839146252E-2</v>
       </c>
-      <c r="J34" s="73">
+      <c r="J34" s="70">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>70</v>
       </c>
-      <c r="K34" s="75">
+      <c r="K34" s="72">
         <f>J34/$I$31</f>
         <v>0.48951048951048953</v>
       </c>
-      <c r="L34" s="76">
+      <c r="L34" s="73">
         <f>K34*I34</f>
         <v>3.7135012159022644E-2</v>
       </c>
-      <c r="M34" s="81"/>
+      <c r="M34" s="78"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
@@ -26922,30 +28175,30 @@
       <c r="C35" s="18">
         <v>156.509995</v>
       </c>
-      <c r="D35" s="123">
+      <c r="D35" s="120">
         <f t="shared" si="0"/>
         <v>5.0966942666760051E-2</v>
       </c>
-      <c r="H35" s="89" t="s">
+      <c r="H35" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="75">
+      <c r="I35" s="72">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>-5.9006013497887852E-2</v>
       </c>
-      <c r="J35" s="73">
+      <c r="J35" s="70">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>73</v>
       </c>
-      <c r="K35" s="75">
+      <c r="K35" s="72">
         <f>J35/$I$31</f>
         <v>0.51048951048951052</v>
       </c>
-      <c r="L35" s="76">
+      <c r="L35" s="73">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>-3.012195094647422E-2</v>
       </c>
-      <c r="M35" s="81"/>
+      <c r="M35" s="78"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
@@ -26954,29 +28207,29 @@
       <c r="C36" s="18">
         <v>148.91999799999999</v>
       </c>
-      <c r="D36" s="123">
+      <c r="D36" s="120">
         <f t="shared" si="0"/>
         <v>0.10253935205615261</v>
       </c>
-      <c r="H36" s="90" t="s">
+      <c r="H36" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="I36" s="78">
+      <c r="I36" s="75">
         <v>0</v>
       </c>
-      <c r="J36" s="78">
+      <c r="J36" s="75">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="91">
+      <c r="K36" s="88">
         <f>J36/$I$31</f>
         <v>0</v>
       </c>
-      <c r="L36" s="79">
+      <c r="L36" s="76">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" s="81"/>
+      <c r="M36" s="78"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
@@ -26985,16 +28238,16 @@
       <c r="C37" s="18">
         <v>135.070007</v>
       </c>
-      <c r="D37" s="123">
+      <c r="D37" s="120">
         <f t="shared" si="0"/>
         <v>9.0153388375247889E-2</v>
       </c>
-      <c r="H37" s="85"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="81"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="78"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
@@ -27003,26 +28256,26 @@
       <c r="C38" s="18">
         <v>123.900002</v>
       </c>
-      <c r="D38" s="123">
+      <c r="D38" s="120">
         <f t="shared" si="0"/>
         <v>-0.10741298332127347</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="I38" s="87" t="s">
+      <c r="I38" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="87" t="s">
+      <c r="J38" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="K38" s="87" t="s">
+      <c r="K38" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="L38" s="87" t="s">
+      <c r="L38" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="88" t="s">
+      <c r="M38" s="85" t="s">
         <v>119</v>
       </c>
     </row>
@@ -27033,30 +28286,30 @@
       <c r="C39" s="18">
         <v>138.80999800000001</v>
       </c>
-      <c r="D39" s="123">
+      <c r="D39" s="120">
         <f t="shared" si="0"/>
         <v>1.0556180761821521E-2</v>
       </c>
-      <c r="H39" s="93">
+      <c r="H39" s="90">
         <v>1</v>
       </c>
-      <c r="I39" s="75">
+      <c r="I39" s="72">
         <f>$I$19+($H39*$I$23)</f>
         <v>9.9211756371044346E-2</v>
       </c>
-      <c r="J39" s="75">
+      <c r="J39" s="72">
         <f>$I$19-($H39*$I$23)</f>
         <v>-8.5185633945947442E-2</v>
       </c>
-      <c r="K39" s="73">
+      <c r="K39" s="70">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>109</v>
       </c>
-      <c r="L39" s="75">
+      <c r="L39" s="72">
         <f>K39/$I$31</f>
         <v>0.76223776223776218</v>
       </c>
-      <c r="M39" s="76">
+      <c r="M39" s="73">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -27067,30 +28320,30 @@
       <c r="C40" s="18">
         <v>137.36000100000001</v>
       </c>
-      <c r="D40" s="123">
+      <c r="D40" s="120">
         <f t="shared" si="0"/>
         <v>-9.0090125658247922E-2</v>
       </c>
-      <c r="H40" s="93">
+      <c r="H40" s="90">
         <v>2</v>
       </c>
-      <c r="I40" s="75">
+      <c r="I40" s="72">
         <f>$I$19+($H40*$I$23)</f>
         <v>0.19141045152954023</v>
       </c>
-      <c r="J40" s="75">
+      <c r="J40" s="72">
         <f>$I$19-($H40*$I$23)</f>
         <v>-0.17738432910444335</v>
       </c>
-      <c r="K40" s="73">
+      <c r="K40" s="70">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>137</v>
       </c>
-      <c r="L40" s="75">
+      <c r="L40" s="72">
         <f>K40/$I$31</f>
         <v>0.95804195804195802</v>
       </c>
-      <c r="M40" s="76">
+      <c r="M40" s="73">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -27101,30 +28354,30 @@
       <c r="C41" s="18">
         <v>150.96000699999999</v>
       </c>
-      <c r="D41" s="123">
+      <c r="D41" s="120">
         <f t="shared" si="0"/>
         <v>9.7659331103678859E-3</v>
       </c>
-      <c r="H41" s="93">
+      <c r="H41" s="90">
         <v>3</v>
       </c>
-      <c r="I41" s="75">
+      <c r="I41" s="72">
         <f>$I$19+($H41*$I$23)</f>
         <v>0.28360914668803616</v>
       </c>
-      <c r="J41" s="75">
+      <c r="J41" s="72">
         <f>$I$19-($H41*$I$23)</f>
         <v>-0.26958302426293923</v>
       </c>
-      <c r="K41" s="73">
+      <c r="K41" s="70">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>139</v>
       </c>
-      <c r="L41" s="75">
+      <c r="L41" s="72">
         <f>K41/$I$31</f>
         <v>0.97202797202797198</v>
       </c>
-      <c r="M41" s="94">
+      <c r="M41" s="91">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -27135,12 +28388,12 @@
       <c r="C42" s="18">
         <v>149.5</v>
       </c>
-      <c r="D42" s="123">
+      <c r="D42" s="120">
         <f t="shared" si="0"/>
         <v>-6.6851717840044067E-5</v>
       </c>
-      <c r="H42" s="71"/>
-      <c r="M42" s="94"/>
+      <c r="H42" s="68"/>
+      <c r="M42" s="91"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
@@ -27149,18 +28402,18 @@
       <c r="C43" s="18">
         <v>149.509995</v>
       </c>
-      <c r="D43" s="123">
+      <c r="D43" s="120">
         <f t="shared" si="0"/>
         <v>0.1054343438077634</v>
       </c>
-      <c r="H43" s="157" t="s">
+      <c r="H43" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
-      <c r="M43" s="159"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -27169,28 +28422,28 @@
       <c r="C44" s="18">
         <v>135.25</v>
       </c>
-      <c r="D44" s="123">
+      <c r="D44" s="120">
         <f t="shared" si="0"/>
         <v>-5.3798809937053105E-2</v>
       </c>
-      <c r="H44" s="95">
+      <c r="H44" s="92">
         <v>0.01</v>
       </c>
-      <c r="I44" s="96">
+      <c r="I44" s="93">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>-0.17625708598154247</v>
       </c>
-      <c r="J44" s="97">
+      <c r="J44" s="94">
         <v>0.2</v>
       </c>
-      <c r="K44" s="96">
+      <c r="K44" s="93">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>-6.5532251052551671E-2</v>
       </c>
-      <c r="L44" s="97">
+      <c r="L44" s="94">
         <v>0.85</v>
       </c>
-      <c r="M44" s="98">
+      <c r="M44" s="95">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>7.790344746207456E-2</v>
       </c>
@@ -27202,28 +28455,28 @@
       <c r="C45" s="18">
         <v>142.94000199999999</v>
       </c>
-      <c r="D45" s="123">
+      <c r="D45" s="120">
         <f t="shared" si="0"/>
         <v>2.0781282730709671E-2</v>
       </c>
-      <c r="H45" s="99">
+      <c r="H45" s="96">
         <v>0.02</v>
       </c>
-      <c r="I45" s="100">
+      <c r="I45" s="97">
         <f t="shared" si="7"/>
         <v>-0.14870136684728594</v>
       </c>
-      <c r="J45" s="101">
+      <c r="J45" s="98">
         <v>0.25</v>
       </c>
-      <c r="K45" s="100">
+      <c r="K45" s="97">
         <f t="shared" si="8"/>
         <v>-4.6407647425667942E-2</v>
       </c>
-      <c r="L45" s="101">
+      <c r="L45" s="98">
         <v>0.86</v>
       </c>
-      <c r="M45" s="102">
+      <c r="M45" s="99">
         <f t="shared" si="9"/>
         <v>8.1363249329655496E-2</v>
       </c>
@@ -27235,28 +28488,28 @@
       <c r="C46" s="18">
         <v>140.029999</v>
       </c>
-      <c r="D46" s="123">
+      <c r="D46" s="120">
         <f t="shared" si="0"/>
         <v>-8.3513283491020274E-2</v>
       </c>
-      <c r="H46" s="99">
+      <c r="H46" s="96">
         <v>0.03</v>
       </c>
-      <c r="I46" s="100">
+      <c r="I46" s="97">
         <f t="shared" si="7"/>
         <v>-0.1228585611805046</v>
       </c>
-      <c r="J46" s="101">
+      <c r="J46" s="98">
         <v>0.3</v>
       </c>
-      <c r="K46" s="100">
+      <c r="K46" s="97">
         <f t="shared" si="8"/>
         <v>-4.0049487554004413E-2</v>
       </c>
-      <c r="L46" s="101">
+      <c r="L46" s="98">
         <v>0.87</v>
       </c>
-      <c r="M46" s="102">
+      <c r="M46" s="99">
         <f t="shared" si="9"/>
         <v>8.8454878583209648E-2</v>
       </c>
@@ -27268,28 +28521,28 @@
       <c r="C47" s="18">
         <v>152.78999300000001</v>
       </c>
-      <c r="D47" s="123">
+      <c r="D47" s="120">
         <f t="shared" si="0"/>
         <v>-1.9445603028371061E-2</v>
       </c>
-      <c r="H47" s="99">
+      <c r="H47" s="96">
         <v>0.04</v>
       </c>
-      <c r="I47" s="100">
+      <c r="I47" s="97">
         <f t="shared" si="7"/>
         <v>-0.11898075207832921</v>
       </c>
-      <c r="J47" s="101">
+      <c r="J47" s="98">
         <v>0.35</v>
       </c>
-      <c r="K47" s="100">
+      <c r="K47" s="97">
         <f t="shared" si="8"/>
         <v>-3.3186318329401797E-2</v>
       </c>
-      <c r="L47" s="101">
+      <c r="L47" s="98">
         <v>0.88</v>
       </c>
-      <c r="M47" s="102">
+      <c r="M47" s="99">
         <f t="shared" si="9"/>
         <v>9.239283072182787E-2</v>
       </c>
@@ -27301,28 +28554,28 @@
       <c r="C48" s="18">
         <v>155.820007</v>
       </c>
-      <c r="D48" s="123">
+      <c r="D48" s="120">
         <f t="shared" si="0"/>
         <v>-7.6949466757081364E-4</v>
       </c>
-      <c r="H48" s="99">
+      <c r="H48" s="96">
         <v>0.05</v>
       </c>
-      <c r="I48" s="100">
+      <c r="I48" s="97">
         <f t="shared" si="7"/>
         <v>-0.11445520810419088</v>
       </c>
-      <c r="J48" s="101">
+      <c r="J48" s="98">
         <v>0.4</v>
       </c>
-      <c r="K48" s="100">
+      <c r="K48" s="97">
         <f t="shared" si="8"/>
         <v>-2.5279682784335612E-2</v>
       </c>
-      <c r="L48" s="101">
+      <c r="L48" s="98">
         <v>0.89</v>
       </c>
-      <c r="M48" s="102">
+      <c r="M48" s="99">
         <f t="shared" si="9"/>
         <v>9.7320570385347596E-2</v>
       </c>
@@ -27334,28 +28587,28 @@
       <c r="C49" s="18">
         <v>155.94000199999999</v>
       </c>
-      <c r="D49" s="123">
+      <c r="D49" s="120">
         <f t="shared" si="0"/>
         <v>4.5594763615359746E-2</v>
       </c>
-      <c r="H49" s="99">
+      <c r="H49" s="96">
         <v>0.06</v>
       </c>
-      <c r="I49" s="100">
+      <c r="I49" s="97">
         <f t="shared" si="7"/>
         <v>-0.10879651845152354</v>
       </c>
-      <c r="J49" s="101">
+      <c r="J49" s="98">
         <v>0.45</v>
       </c>
-      <c r="K49" s="100">
+      <c r="K49" s="97">
         <f t="shared" si="8"/>
         <v>-9.9837971567683058E-3</v>
       </c>
-      <c r="L49" s="101">
+      <c r="L49" s="98">
         <v>0.9</v>
       </c>
-      <c r="M49" s="102">
+      <c r="M49" s="99">
         <f t="shared" si="9"/>
         <v>0.10078017418895337</v>
       </c>
@@ -27367,28 +28620,28 @@
       <c r="C50" s="18">
         <v>149.13999899999999</v>
       </c>
-      <c r="D50" s="123">
+      <c r="D50" s="120">
         <f t="shared" si="0"/>
         <v>-8.0479344975883382E-3</v>
       </c>
-      <c r="H50" s="99">
+      <c r="H50" s="96">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="100">
+      <c r="I50" s="97">
         <f t="shared" si="7"/>
         <v>-0.10204440895798403</v>
       </c>
-      <c r="J50" s="101">
+      <c r="J50" s="98">
         <v>0.5</v>
       </c>
-      <c r="K50" s="100">
+      <c r="K50" s="97">
         <f t="shared" si="8"/>
         <v>-7.6949466757081364E-4</v>
       </c>
-      <c r="L50" s="101">
+      <c r="L50" s="98">
         <v>0.91</v>
       </c>
-      <c r="M50" s="102">
+      <c r="M50" s="99">
         <f t="shared" si="9"/>
         <v>0.10317625024150698</v>
       </c>
@@ -27400,28 +28653,28 @@
       <c r="C51" s="18">
         <v>150.35000600000001</v>
       </c>
-      <c r="D51" s="123">
+      <c r="D51" s="120">
         <f t="shared" si="0"/>
         <v>6.2919824593562934E-2</v>
       </c>
-      <c r="H51" s="99">
+      <c r="H51" s="96">
         <v>0.08</v>
       </c>
-      <c r="I51" s="100">
+      <c r="I51" s="97">
         <f t="shared" si="7"/>
         <v>-9.9512745258046473E-2</v>
       </c>
-      <c r="J51" s="101">
+      <c r="J51" s="98">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="100">
+      <c r="K51" s="97">
         <f t="shared" si="8"/>
         <v>9.8449578755132553E-3</v>
       </c>
-      <c r="L51" s="101">
+      <c r="L51" s="98">
         <v>0.92</v>
       </c>
-      <c r="M51" s="102">
+      <c r="M51" s="99">
         <f t="shared" si="9"/>
         <v>0.10821056944203931</v>
       </c>
@@ -27433,28 +28686,28 @@
       <c r="C52" s="18">
         <v>141.449997</v>
       </c>
-      <c r="D52" s="123">
+      <c r="D52" s="120">
         <f t="shared" si="0"/>
         <v>0.14478795151809565</v>
       </c>
-      <c r="H52" s="99">
+      <c r="H52" s="96">
         <v>0.09</v>
       </c>
-      <c r="I52" s="100">
+      <c r="I52" s="97">
         <f t="shared" si="7"/>
         <v>-9.7390301868346102E-2</v>
       </c>
-      <c r="J52" s="101">
+      <c r="J52" s="98">
         <v>0.6</v>
       </c>
-      <c r="K52" s="100">
+      <c r="K52" s="97">
         <f t="shared" si="8"/>
         <v>1.7254033487822357E-2</v>
       </c>
-      <c r="L52" s="101">
+      <c r="L52" s="98">
         <v>0.93</v>
       </c>
-      <c r="M52" s="102">
+      <c r="M52" s="99">
         <f t="shared" si="9"/>
         <v>0.11170240197046544</v>
       </c>
@@ -27466,28 +28719,28 @@
       <c r="C53" s="18">
         <v>123.55999799999999</v>
       </c>
-      <c r="D53" s="123">
+      <c r="D53" s="120">
         <f t="shared" si="0"/>
         <v>-9.253823171156772E-2</v>
       </c>
-      <c r="H53" s="99">
+      <c r="H53" s="96">
         <v>0.1</v>
       </c>
-      <c r="I53" s="100">
+      <c r="I53" s="97">
         <f t="shared" si="7"/>
         <v>-9.6379519752041148E-2</v>
       </c>
-      <c r="J53" s="101">
+      <c r="J53" s="98">
         <v>0.65</v>
       </c>
-      <c r="K53" s="100">
+      <c r="K53" s="97">
         <f t="shared" si="8"/>
         <v>3.0877489353101004E-2</v>
       </c>
-      <c r="L53" s="101">
+      <c r="L53" s="98">
         <v>0.94</v>
       </c>
-      <c r="M53" s="102">
+      <c r="M53" s="99">
         <f t="shared" si="9"/>
         <v>0.11831121482599063</v>
       </c>
@@ -27499,28 +28752,28 @@
       <c r="C54" s="18">
         <v>136.16000399999999</v>
       </c>
-      <c r="D54" s="123">
+      <c r="D54" s="120">
         <f t="shared" si="0"/>
         <v>-3.3091910015314974E-2</v>
       </c>
-      <c r="H54" s="99">
+      <c r="H54" s="96">
         <v>0.11</v>
       </c>
-      <c r="I54" s="100">
+      <c r="I54" s="97">
         <f t="shared" si="7"/>
         <v>-9.2923188237950857E-2</v>
       </c>
-      <c r="J54" s="101">
+      <c r="J54" s="98">
         <v>0.7</v>
       </c>
-      <c r="K54" s="100">
+      <c r="K54" s="97">
         <f t="shared" si="8"/>
         <v>4.5303098061554296E-2</v>
       </c>
-      <c r="L54" s="101">
+      <c r="L54" s="98">
         <v>0.95</v>
       </c>
-      <c r="M54" s="102">
+      <c r="M54" s="99">
         <f t="shared" si="9"/>
         <v>0.13616683810220143</v>
       </c>
@@ -27532,28 +28785,28 @@
       <c r="C55" s="18">
         <v>140.820007</v>
       </c>
-      <c r="D55" s="123">
+      <c r="D55" s="120">
         <f t="shared" si="0"/>
         <v>4.3884457103830599E-2</v>
       </c>
-      <c r="H55" s="99">
+      <c r="H55" s="96">
         <v>0.12</v>
       </c>
-      <c r="I55" s="100">
+      <c r="I55" s="97">
         <f t="shared" si="7"/>
         <v>-8.9827051971558824E-2</v>
       </c>
-      <c r="J55" s="101">
+      <c r="J55" s="98">
         <v>0.75</v>
       </c>
-      <c r="K55" s="100">
+      <c r="K55" s="97">
         <f t="shared" si="8"/>
         <v>6.2914696961257399E-2</v>
       </c>
-      <c r="L55" s="101">
+      <c r="L55" s="98">
         <v>0.96</v>
       </c>
-      <c r="M55" s="102">
+      <c r="M55" s="99">
         <f t="shared" si="9"/>
         <v>0.14843756857005316</v>
       </c>
@@ -27565,28 +28818,28 @@
       <c r="C56" s="18">
         <v>134.89999399999999</v>
       </c>
-      <c r="D56" s="123">
+      <c r="D56" s="120">
         <f t="shared" si="0"/>
         <v>-1.3384056560639457E-2</v>
       </c>
-      <c r="H56" s="99">
+      <c r="H56" s="96">
         <v>0.13</v>
       </c>
-      <c r="I56" s="100">
+      <c r="I56" s="97">
         <f t="shared" si="7"/>
         <v>-8.3227107193970001E-2</v>
       </c>
-      <c r="J56" s="101">
+      <c r="J56" s="98">
         <v>0.8</v>
       </c>
-      <c r="K56" s="100">
+      <c r="K56" s="97">
         <f t="shared" si="8"/>
         <v>7.1660573956005891E-2</v>
       </c>
-      <c r="L56" s="101">
+      <c r="L56" s="98">
         <v>0.97</v>
       </c>
-      <c r="M56" s="102">
+      <c r="M56" s="99">
         <f t="shared" si="9"/>
         <v>0.15761206168287051</v>
       </c>
@@ -27598,23 +28851,23 @@
       <c r="C57" s="18">
         <v>136.729996</v>
       </c>
-      <c r="D57" s="123">
+      <c r="D57" s="120">
         <f t="shared" si="0"/>
         <v>-4.1096852264446482E-2</v>
       </c>
-      <c r="H57" s="99">
+      <c r="H57" s="96">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="100">
+      <c r="I57" s="97">
         <f t="shared" si="7"/>
         <v>-8.2211411203507292E-2</v>
       </c>
-      <c r="J57" s="101"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="101">
+      <c r="J57" s="98"/>
+      <c r="K57" s="97"/>
+      <c r="L57" s="98">
         <v>0.98</v>
       </c>
-      <c r="M57" s="102">
+      <c r="M57" s="99">
         <f t="shared" si="9"/>
         <v>0.32882176490781712</v>
       </c>
@@ -27626,23 +28879,23 @@
       <c r="C58" s="18">
         <v>142.58999600000001</v>
       </c>
-      <c r="D58" s="123">
+      <c r="D58" s="120">
         <f t="shared" si="0"/>
         <v>4.4538870578670897E-2</v>
       </c>
-      <c r="H58" s="103">
+      <c r="H58" s="100">
         <v>0.15</v>
       </c>
-      <c r="I58" s="104">
+      <c r="I58" s="101">
         <f t="shared" si="7"/>
         <v>-7.9609930189779188E-2</v>
       </c>
-      <c r="J58" s="105"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="106">
+      <c r="J58" s="102"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="103">
         <v>0.99</v>
       </c>
-      <c r="M58" s="107">
+      <c r="M58" s="104">
         <f t="shared" si="9"/>
         <v>0.34821797117244579</v>
       </c>
@@ -27654,7 +28907,7 @@
       <c r="C59" s="18">
         <v>136.509995</v>
       </c>
-      <c r="D59" s="123">
+      <c r="D59" s="120">
         <f t="shared" si="0"/>
         <v>8.0668104813172992E-2</v>
       </c>
@@ -27666,14 +28919,14 @@
       <c r="C60" s="18">
         <v>126.32</v>
       </c>
-      <c r="D60" s="123">
+      <c r="D60" s="120">
         <f t="shared" si="0"/>
         <v>7.2508074991578075E-2</v>
       </c>
-      <c r="H60" s="108" t="s">
+      <c r="H60" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="I60" s="109">
+      <c r="I60" s="106">
         <v>0.1</v>
       </c>
     </row>
@@ -27684,14 +28937,14 @@
       <c r="C61" s="18">
         <v>117.779999</v>
       </c>
-      <c r="D61" s="123">
+      <c r="D61" s="120">
         <f t="shared" si="0"/>
         <v>-1.2492647249752187E-2</v>
       </c>
-      <c r="H61" s="110" t="s">
+      <c r="H61" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="I61" s="111">
+      <c r="I61" s="108">
         <v>0.45</v>
       </c>
     </row>
@@ -27702,11 +28955,11 @@
       <c r="C62" s="18">
         <v>119.269997</v>
       </c>
-      <c r="D62" s="123">
+      <c r="D62" s="120">
         <f t="shared" si="0"/>
         <v>0.36840283990808453</v>
       </c>
-      <c r="H62" s="112"/>
+      <c r="H62" s="109"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
@@ -27715,14 +28968,14 @@
       <c r="C63" s="18">
         <v>87.160004000000001</v>
       </c>
-      <c r="D63" s="123">
+      <c r="D63" s="120">
         <f t="shared" si="0"/>
         <v>-4.5762997405868089E-2</v>
       </c>
-      <c r="H63" s="108" t="s">
+      <c r="H63" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="I63" s="113">
+      <c r="I63" s="110">
         <v>210.03</v>
       </c>
     </row>
@@ -27733,14 +28986,14 @@
       <c r="C64" s="18">
         <v>91.339995999999999</v>
       </c>
-      <c r="D64" s="123">
+      <c r="D64" s="120">
         <f t="shared" si="0"/>
         <v>-2.9473310452207135E-3</v>
       </c>
-      <c r="H64" s="114" t="s">
+      <c r="H64" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="I64" s="115">
+      <c r="I64" s="112">
         <f>I63*(1-I60)</f>
         <v>189.02700000000002</v>
       </c>
@@ -27752,14 +29005,14 @@
       <c r="C65" s="18">
         <v>91.610000999999997</v>
       </c>
-      <c r="D65" s="123">
+      <c r="D65" s="120">
         <f t="shared" si="0"/>
         <v>-8.2891161106128375E-2</v>
       </c>
-      <c r="H65" s="110" t="s">
+      <c r="H65" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="I65" s="116">
+      <c r="I65" s="113">
         <f>I63*(1+I61)</f>
         <v>304.54349999999999</v>
       </c>
@@ -27771,7 +29024,7 @@
       <c r="C66" s="18">
         <v>99.889999000000003</v>
       </c>
-      <c r="D66" s="123">
+      <c r="D66" s="120">
         <f t="shared" si="0"/>
         <v>7.3739654667737797E-2</v>
       </c>
@@ -27783,7 +29036,7 @@
       <c r="C67" s="18">
         <v>93.029999000000004</v>
       </c>
-      <c r="D67" s="123">
+      <c r="D67" s="120">
         <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
         <v>9.9905377159958064E-2</v>
       </c>
@@ -27795,7 +29048,7 @@
       <c r="C68" s="18">
         <v>84.580001999999993</v>
       </c>
-      <c r="D68" s="123">
+      <c r="D68" s="120">
         <f t="shared" si="10"/>
         <v>6.5776221449392436E-2</v>
       </c>
@@ -27807,7 +29060,7 @@
       <c r="C69" s="18">
         <v>79.360000999999997</v>
       </c>
-      <c r="D69" s="123">
+      <c r="D69" s="120">
         <f t="shared" si="10"/>
         <v>0.10099887344620218</v>
       </c>
@@ -27819,7 +29072,7 @@
       <c r="C70" s="18">
         <v>72.080001999999993</v>
       </c>
-      <c r="D70" s="123">
+      <c r="D70" s="120">
         <f t="shared" si="10"/>
         <v>1.3355898215488438E-2</v>
       </c>
@@ -27831,7 +29084,7 @@
       <c r="C71" s="18">
         <v>71.129997000000003</v>
       </c>
-      <c r="D71" s="123">
+      <c r="D71" s="120">
         <f t="shared" si="10"/>
         <v>6.0820370331842177E-3</v>
       </c>
@@ -27843,7 +29096,7 @@
       <c r="C72" s="18">
         <v>70.699996999999996</v>
       </c>
-      <c r="D72" s="123">
+      <c r="D72" s="120">
         <f t="shared" si="10"/>
         <v>-3.1374175404142446E-2</v>
       </c>
@@ -27855,7 +29108,7 @@
       <c r="C73" s="18">
         <v>72.989998</v>
       </c>
-      <c r="D73" s="123">
+      <c r="D73" s="120">
         <f t="shared" si="10"/>
         <v>6.2909569328951864E-2</v>
       </c>
@@ -27867,7 +29120,7 @@
       <c r="C74" s="18">
         <v>68.669998000000007</v>
       </c>
-      <c r="D74" s="123">
+      <c r="D74" s="120">
         <f t="shared" si="10"/>
         <v>-2.8712858361224392E-2</v>
       </c>
@@ -27879,7 +29132,7 @@
       <c r="C75" s="18">
         <v>70.699996999999996</v>
       </c>
-      <c r="D75" s="123">
+      <c r="D75" s="120">
         <f t="shared" si="10"/>
         <v>1.4492681460964718E-2</v>
       </c>
@@ -27891,7 +29144,7 @@
       <c r="C76" s="18">
         <v>69.690002000000007</v>
       </c>
-      <c r="D76" s="123">
+      <c r="D76" s="120">
         <f t="shared" si="10"/>
         <v>2.9394462159282098E-2</v>
       </c>
@@ -27903,7 +29156,7 @@
       <c r="C77" s="18">
         <v>67.699996999999996</v>
       </c>
-      <c r="D77" s="123">
+      <c r="D77" s="120">
         <f t="shared" si="10"/>
         <v>-7.8033542148985613E-2</v>
       </c>
@@ -27915,7 +29168,7 @@
       <c r="C78" s="18">
         <v>73.430000000000007</v>
       </c>
-      <c r="D78" s="123">
+      <c r="D78" s="120">
         <f t="shared" si="10"/>
         <v>-8.0285525064405006E-2</v>
       </c>
@@ -27927,7 +29180,7 @@
       <c r="C79" s="18">
         <v>79.839995999999999</v>
       </c>
-      <c r="D79" s="123">
+      <c r="D79" s="120">
         <f t="shared" si="10"/>
         <v>-3.9807647869930296E-2</v>
       </c>
@@ -27939,7 +29192,7 @@
       <c r="C80" s="18">
         <v>83.150002000000001</v>
       </c>
-      <c r="D80" s="123">
+      <c r="D80" s="120">
         <f t="shared" si="10"/>
         <v>1.0942273556231008E-2</v>
       </c>
@@ -27951,7 +29204,7 @@
       <c r="C81" s="18">
         <v>82.25</v>
       </c>
-      <c r="D81" s="123">
+      <c r="D81" s="120">
         <f t="shared" si="10"/>
         <v>5.0312885974023391E-2</v>
       </c>
@@ -27963,7 +29216,7 @@
       <c r="C82" s="18">
         <v>78.309997999999993</v>
       </c>
-      <c r="D82" s="123">
+      <c r="D82" s="120">
         <f t="shared" si="10"/>
         <v>-0.20497463959390871</v>
       </c>
@@ -27975,7 +29228,7 @@
       <c r="C83" s="18">
         <v>98.5</v>
       </c>
-      <c r="D83" s="123">
+      <c r="D83" s="120">
         <f t="shared" si="10"/>
         <v>3.4337886138678497E-2</v>
       </c>
@@ -27987,7 +29240,7 @@
       <c r="C84" s="18">
         <v>95.230002999999996</v>
       </c>
-      <c r="D84" s="123">
+      <c r="D84" s="120">
         <f t="shared" si="10"/>
         <v>6.7481269672472477E-2</v>
       </c>
@@ -27999,7 +29252,7 @@
       <c r="C85" s="18">
         <v>89.209998999999996</v>
       </c>
-      <c r="D85" s="123">
+      <c r="D85" s="120">
         <f t="shared" si="10"/>
         <v>-0.10170173399862514</v>
       </c>
@@ -28011,7 +29264,7 @@
       <c r="C86" s="18">
         <v>99.309997999999993</v>
       </c>
-      <c r="D86" s="123">
+      <c r="D86" s="120">
         <f t="shared" si="10"/>
         <v>-2.4108989730519115E-3</v>
       </c>
@@ -28023,7 +29276,7 @@
       <c r="C87" s="18">
         <v>99.550003000000004</v>
       </c>
-      <c r="D87" s="123">
+      <c r="D87" s="120">
         <f t="shared" si="10"/>
         <v>7.2274960029080626E-2</v>
       </c>
@@ -28035,7 +29288,7 @@
       <c r="C88" s="18">
         <v>92.839995999999999</v>
       </c>
-      <c r="D88" s="123">
+      <c r="D88" s="120">
         <f t="shared" si="10"/>
         <v>-4.6102821253442006E-3</v>
       </c>
@@ -28047,7 +29300,7 @@
       <c r="C89" s="18">
         <v>93.269997000000004</v>
       </c>
-      <c r="D89" s="123">
+      <c r="D89" s="120">
         <f t="shared" si="10"/>
         <v>-2.5391850325763299E-2</v>
       </c>
@@ -28059,7 +29312,7 @@
       <c r="C90" s="18">
         <v>95.699996999999996</v>
       </c>
-      <c r="D90" s="123">
+      <c r="D90" s="120">
         <f t="shared" si="10"/>
         <v>-0.11728085488833784</v>
       </c>
@@ -28071,7 +29324,7 @@
       <c r="C91" s="18">
         <v>108.415001</v>
       </c>
-      <c r="D91" s="123">
+      <c r="D91" s="120">
         <f t="shared" si="10"/>
         <v>5.1857970311439017E-2</v>
       </c>
@@ -28083,7 +29336,7 @@
       <c r="C92" s="18">
         <v>103.07</v>
       </c>
-      <c r="D92" s="123">
+      <c r="D92" s="120">
         <f t="shared" si="10"/>
         <v>0.12337874659400527</v>
       </c>
@@ -28095,7 +29348,7 @@
       <c r="C93" s="18">
         <v>91.75</v>
       </c>
-      <c r="D93" s="123">
+      <c r="D93" s="120">
         <f t="shared" si="10"/>
         <v>-3.8763720443071303E-2</v>
       </c>
@@ -28107,7 +29360,7 @@
       <c r="C94" s="18">
         <v>95.449996999999996</v>
       </c>
-      <c r="D94" s="123">
+      <c r="D94" s="120">
         <f t="shared" si="10"/>
         <v>-3.9738480085744876E-2</v>
       </c>
@@ -28119,7 +29372,7 @@
       <c r="C95" s="18">
         <v>99.400002000000001</v>
       </c>
-      <c r="D95" s="123">
+      <c r="D95" s="120">
         <f t="shared" si="10"/>
         <v>-9.7102319814781346E-2</v>
       </c>
@@ -28131,7 +29384,7 @@
       <c r="C96" s="18">
         <v>110.089996</v>
       </c>
-      <c r="D96" s="123">
+      <c r="D96" s="120">
         <f t="shared" si="10"/>
         <v>0.158110649234392</v>
       </c>
@@ -28143,7 +29396,7 @@
       <c r="C97" s="18">
         <v>95.059997999999993</v>
       </c>
-      <c r="D97" s="123">
+      <c r="D97" s="120">
         <f t="shared" si="10"/>
         <v>-6.5565760378479498E-2</v>
       </c>
@@ -28155,7 +29408,7 @@
       <c r="C98" s="18">
         <v>101.730003</v>
       </c>
-      <c r="D98" s="123">
+      <c r="D98" s="120">
         <f t="shared" si="10"/>
         <v>7.4121043967068312E-2</v>
       </c>
@@ -28167,7 +29420,7 @@
       <c r="C99" s="18">
         <v>94.709998999999996</v>
       </c>
-      <c r="D99" s="123">
+      <c r="D99" s="120">
         <f t="shared" si="10"/>
         <v>1.4351461464556126E-2</v>
       </c>
@@ -28179,7 +29432,7 @@
       <c r="C100" s="18">
         <v>93.370002999999997</v>
       </c>
-      <c r="D100" s="123">
+      <c r="D100" s="120">
         <f t="shared" si="10"/>
         <v>4.5108654359017342E-2</v>
       </c>
@@ -28191,7 +29444,7 @@
       <c r="C101" s="18">
         <v>89.339995999999999</v>
       </c>
-      <c r="D101" s="123">
+      <c r="D101" s="120">
         <f t="shared" si="10"/>
         <v>6.63642524034882E-2</v>
       </c>
@@ -28203,7 +29456,7 @@
       <c r="C102" s="18">
         <v>83.779999000000004</v>
       </c>
-      <c r="D102" s="123">
+      <c r="D102" s="120">
         <f t="shared" si="10"/>
         <v>9.5736333975102506E-2</v>
       </c>
@@ -28215,7 +29468,7 @@
       <c r="C103" s="18">
         <v>76.459998999999996</v>
       </c>
-      <c r="D103" s="123">
+      <c r="D103" s="120">
         <f t="shared" si="10"/>
         <v>-0.148267778153095</v>
       </c>
@@ -28227,7 +29480,7 @@
       <c r="C104" s="18">
         <v>89.769997000000004</v>
       </c>
-      <c r="D104" s="123">
+      <c r="D104" s="120">
         <f t="shared" si="10"/>
         <v>0.11363349319397731</v>
       </c>
@@ -28239,7 +29492,7 @@
       <c r="C105" s="18">
         <v>80.610000999999997</v>
       </c>
-      <c r="D105" s="123">
+      <c r="D105" s="120">
         <f t="shared" si="10"/>
         <v>-6.7769167714014533E-2</v>
       </c>
@@ -28251,7 +29504,7 @@
       <c r="C106" s="18">
         <v>86.470000999999996</v>
       </c>
-      <c r="D106" s="123">
+      <c r="D106" s="120">
         <f t="shared" si="10"/>
         <v>5.465127906976619E-3</v>
       </c>
@@ -28263,7 +29516,7 @@
       <c r="C107" s="18">
         <v>86</v>
       </c>
-      <c r="D107" s="123">
+      <c r="D107" s="120">
         <f t="shared" si="10"/>
         <v>-4.2529503451347095E-2</v>
       </c>
@@ -28275,7 +29528,7 @@
       <c r="C108" s="18">
         <v>89.82</v>
       </c>
-      <c r="D108" s="123">
+      <c r="D108" s="120">
         <f t="shared" si="10"/>
         <v>-5.0126883462920602E-2</v>
       </c>
@@ -28287,7 +29540,7 @@
       <c r="C109" s="18">
         <v>94.559997999999993</v>
       </c>
-      <c r="D109" s="123">
+      <c r="D109" s="120">
         <f t="shared" si="10"/>
         <v>-1.1395755119796069E-2</v>
       </c>
@@ -28299,7 +29552,7 @@
       <c r="C110" s="18">
         <v>95.650002000000001</v>
       </c>
-      <c r="D110" s="123">
+      <c r="D110" s="120">
         <f t="shared" si="10"/>
         <v>2.7941955036798749E-2</v>
       </c>
@@ -28311,7 +29564,7 @@
       <c r="C111" s="18">
         <v>93.050003000000004</v>
       </c>
-      <c r="D111" s="123">
+      <c r="D111" s="120">
         <f t="shared" si="10"/>
         <v>4.9278337843933206E-2</v>
       </c>
@@ -28323,7 +29576,7 @@
       <c r="C112" s="18">
         <v>88.68</v>
       </c>
-      <c r="D112" s="123">
+      <c r="D112" s="120">
         <f t="shared" si="10"/>
         <v>0.15619300480546316</v>
       </c>
@@ -28335,7 +29588,7 @@
       <c r="C113" s="18">
         <v>76.699996999999996</v>
       </c>
-      <c r="D113" s="123">
+      <c r="D113" s="120">
         <f t="shared" si="10"/>
         <v>2.7048701124799068E-2</v>
       </c>
@@ -28347,7 +29600,7 @@
       <c r="C114" s="18">
         <v>74.680000000000007</v>
       </c>
-      <c r="D114" s="123">
+      <c r="D114" s="120">
         <f t="shared" si="10"/>
         <v>-0.15097770749178829</v>
       </c>
@@ -28359,7 +29612,7 @@
       <c r="C115" s="18">
         <v>87.959998999999996</v>
       </c>
-      <c r="D115" s="123">
+      <c r="D115" s="120">
         <f t="shared" si="10"/>
         <v>-3.3406604395604389E-2</v>
       </c>
@@ -28371,7 +29624,7 @@
       <c r="C116" s="18">
         <v>91</v>
       </c>
-      <c r="D116" s="123">
+      <c r="D116" s="120">
         <f t="shared" si="10"/>
         <v>-3.1914893617021267E-2</v>
       </c>
@@ -28383,7 +29636,7 @@
       <c r="C117" s="18">
         <v>94</v>
       </c>
-      <c r="D117" s="123">
+      <c r="D117" s="120">
         <f t="shared" si="10"/>
         <v>2.7546971112364371E-2</v>
       </c>
@@ -28395,7 +29648,7 @@
       <c r="C118" s="18">
         <v>91.480002999999996</v>
       </c>
-      <c r="D118" s="123">
+      <c r="D118" s="120">
         <f t="shared" si="10"/>
         <v>-3.8113796403924649E-3</v>
       </c>
@@ -28407,7 +29660,7 @@
       <c r="C119" s="18">
         <v>91.830001999999993</v>
       </c>
-      <c r="D119" s="123">
+      <c r="D119" s="120">
         <f t="shared" si="10"/>
         <v>7.1403606013342724E-2</v>
       </c>
@@ -28419,7 +29672,7 @@
       <c r="C120" s="18">
         <v>85.709998999999996</v>
       </c>
-      <c r="D120" s="123">
+      <c r="D120" s="120">
         <f t="shared" si="10"/>
         <v>-7.4705799677398321E-2</v>
       </c>
@@ -28431,7 +29684,7 @@
       <c r="C121" s="18">
         <v>92.629997000000003</v>
       </c>
-      <c r="D121" s="123">
+      <c r="D121" s="120">
         <f t="shared" si="10"/>
         <v>-9.3551275202049644E-2</v>
       </c>
@@ -28443,7 +29696,7 @@
       <c r="C122" s="18">
         <v>102.19000200000001</v>
       </c>
-      <c r="D122" s="123">
+      <c r="D122" s="120">
         <f t="shared" si="10"/>
         <v>-3.6942785440177262E-2</v>
       </c>
@@ -28455,7 +29708,7 @@
       <c r="C123" s="18">
         <v>106.110001</v>
       </c>
-      <c r="D123" s="123">
+      <c r="D123" s="120">
         <f t="shared" si="10"/>
         <v>-2.6156369549893199E-2</v>
       </c>
@@ -28467,7 +29720,7 @@
       <c r="C124" s="18">
         <v>108.959999</v>
       </c>
-      <c r="D124" s="123">
+      <c r="D124" s="120">
         <f t="shared" si="10"/>
         <v>4.228044727108804E-2</v>
       </c>
@@ -28479,7 +29732,7 @@
       <c r="C125" s="18">
         <v>104.540001</v>
       </c>
-      <c r="D125" s="123">
+      <c r="D125" s="120">
         <f t="shared" si="10"/>
         <v>9.2486140819602047E-2</v>
       </c>
@@ -28491,7 +29744,7 @@
       <c r="C126" s="18">
         <v>95.690002000000007</v>
       </c>
-      <c r="D126" s="123">
+      <c r="D126" s="120">
         <f t="shared" si="10"/>
         <v>-0.12259303360706086</v>
       </c>
@@ -28503,7 +29756,7 @@
       <c r="C127" s="18">
         <v>109.05999799999999</v>
       </c>
-      <c r="D127" s="123">
+      <c r="D127" s="120">
         <f t="shared" si="10"/>
         <v>-0.11029534817596109</v>
       </c>
@@ -28515,7 +29768,7 @@
       <c r="C128" s="18">
         <v>122.58000199999999</v>
       </c>
-      <c r="D128" s="123">
+      <c r="D128" s="120">
         <f t="shared" si="10"/>
         <v>-9.8411329149166615E-2</v>
       </c>
@@ -28527,7 +29780,7 @@
       <c r="C129" s="18">
         <v>135.96000699999999</v>
       </c>
-      <c r="D129" s="123">
+      <c r="D129" s="120">
         <f t="shared" si="10"/>
         <v>-0.12295185465225511</v>
       </c>
@@ -28539,7 +29792,7 @@
       <c r="C130" s="18">
         <v>155.020004</v>
       </c>
-      <c r="D130" s="123">
+      <c r="D130" s="120">
         <f t="shared" si="10"/>
         <v>8.3913877159016437E-3</v>
       </c>
@@ -28551,7 +29804,7 @@
       <c r="C131" s="18">
         <v>153.729996</v>
       </c>
-      <c r="D131" s="123">
+      <c r="D131" s="120">
         <f t="shared" ref="D131:D144" si="11">C131/C132-1</f>
         <v>-0.11491741476288309</v>
       </c>
@@ -28563,7 +29816,7 @@
       <c r="C132" s="18">
         <v>173.69000199999999</v>
       </c>
-      <c r="D132" s="123">
+      <c r="D132" s="120">
         <f t="shared" si="11"/>
         <v>-2.5636671873574435E-2</v>
       </c>
@@ -28575,7 +29828,7 @@
       <c r="C133" s="18">
         <v>178.259995</v>
       </c>
-      <c r="D133" s="123">
+      <c r="D133" s="120">
         <f t="shared" si="11"/>
         <v>0.13758773715866757</v>
       </c>
@@ -28587,7 +29840,7 @@
       <c r="C134" s="18">
         <v>156.699997</v>
       </c>
-      <c r="D134" s="123">
+      <c r="D134" s="120">
         <f t="shared" si="11"/>
         <v>-5.8971935888255222E-2</v>
       </c>
@@ -28599,7 +29852,7 @@
       <c r="C135" s="18">
         <v>166.520004</v>
       </c>
-      <c r="D135" s="123">
+      <c r="D135" s="120">
         <f t="shared" si="11"/>
         <v>3.6990919952784695E-2</v>
       </c>
@@ -28611,7 +29864,7 @@
       <c r="C136" s="18">
         <v>160.58000200000001</v>
       </c>
-      <c r="D136" s="123">
+      <c r="D136" s="120">
         <f t="shared" si="11"/>
         <v>-0.19456284281895064</v>
       </c>
@@ -28623,7 +29876,7 @@
       <c r="C137" s="18">
         <v>199.36999499999999</v>
       </c>
-      <c r="D137" s="123">
+      <c r="D137" s="120">
         <f t="shared" si="11"/>
         <v>7.7792190026860997E-2</v>
       </c>
@@ -28635,7 +29888,7 @@
       <c r="C138" s="18">
         <v>184.979996</v>
       </c>
-      <c r="D138" s="123">
+      <c r="D138" s="120">
         <f t="shared" si="11"/>
         <v>6.6966610917881253E-2</v>
       </c>
@@ -28647,7 +29900,7 @@
       <c r="C139" s="18">
         <v>173.36999499999999</v>
       </c>
-      <c r="D139" s="123">
+      <c r="D139" s="120">
         <f t="shared" si="11"/>
         <v>6.3228241913752425E-2</v>
       </c>
@@ -28659,7 +29912,7 @@
       <c r="C140" s="18">
         <v>163.05999800000001</v>
       </c>
-      <c r="D140" s="123">
+      <c r="D140" s="120">
         <f t="shared" si="11"/>
         <v>0.3577019210275092</v>
       </c>
@@ -28671,7 +29924,7 @@
       <c r="C141" s="18">
         <v>120.099998</v>
       </c>
-      <c r="D141" s="123">
+      <c r="D141" s="120">
         <f t="shared" si="11"/>
         <v>-4.7052297445467794E-2</v>
       </c>
@@ -28683,7 +29936,7 @@
       <c r="C142" s="18">
         <v>126.029999</v>
       </c>
-      <c r="D142" s="123">
+      <c r="D142" s="120">
         <f t="shared" si="11"/>
         <v>-7.7581831311504423E-2</v>
       </c>
@@ -28695,7 +29948,7 @@
       <c r="C143" s="18">
         <v>136.63000500000001</v>
       </c>
-      <c r="D143" s="123">
+      <c r="D143" s="120">
         <f t="shared" si="11"/>
         <v>1.6743562407219637E-2</v>
       </c>
@@ -28707,7 +29960,7 @@
       <c r="C144" s="18">
         <v>134.38000500000001</v>
       </c>
-      <c r="D144" s="123">
+      <c r="D144" s="120">
         <f t="shared" si="11"/>
         <v>-4.1853796791443743E-2</v>
       </c>

--- a/Business - Technology Services/DUOL.xlsx
+++ b/Business - Technology Services/DUOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B647A6F-EC5D-4E85-87A2-8FF4EEBBAF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F12FE3-E66C-4F5F-8937-7256B37C2EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="165" windowWidth="13575" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15045" yWindow="45" windowWidth="13755" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$N$2:$Y$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$N$8:$Y$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$N$9:$Y$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$N$21:$Y$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$N$22:$Y$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$N$2:$Y$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$N$21:$Y$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$N$22:$Y$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$N$2:$Y$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$N$2:$Y$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$N$8:$Y$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$N$9:$Y$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1781,7 +1781,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1819,7 +1819,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1941,7 +1940,17 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1999,36 +2008,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -7199,18 +7189,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7254,7 +7244,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7274,7 +7264,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS (diluted)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7305,18 +7295,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7360,7 +7350,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7380,7 +7370,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13102,8 +13092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13130,7 +13120,7 @@
       <c r="E2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="25"/>
@@ -13172,9 +13162,9 @@
       <c r="I3" s="10">
         <v>4253</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="37">
         <f>I3/($C$7*1000000)</f>
-        <v>9.6703046839472485E-5</v>
+        <v>8.5230460921843684E-5</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>157</v>
@@ -13182,7 +13172,7 @@
       <c r="M3" t="s">
         <v>158</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="36" t="s">
         <v>211</v>
       </c>
     </row>
@@ -13203,9 +13193,9 @@
       <c r="I4" s="10">
         <v>34045</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="37">
         <f>I4/($C$7*1000000)</f>
-        <v>7.7410186448385627E-4</v>
+        <v>6.8226452905811624E-4</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>159</v>
@@ -13227,7 +13217,7 @@
         <v>182</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="38"/>
+      <c r="J5" s="37"/>
       <c r="L5" s="5" t="s">
         <v>161</v>
       </c>
@@ -13241,7 +13231,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>276.43</v>
+        <v>205</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>183</v>
@@ -13255,9 +13245,9 @@
       <c r="I6" s="10">
         <v>124635</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <f>I6/($C$7*1000000)</f>
-        <v>2.8339017735334242E-3</v>
+        <v>2.4976953907815632E-3</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>163</v>
@@ -13274,8 +13264,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!X20</f>
-        <v>43.98</v>
+        <f>Model!AB20</f>
+        <v>49.9</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>185</v>
@@ -13289,9 +13279,9 @@
       <c r="I7" s="10">
         <v>7514</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="37">
         <f>I7/($C$7*1000000)</f>
-        <v>1.7085038653933605E-4</v>
+        <v>1.505811623246493E-4</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>165</v>
@@ -13309,7 +13299,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>12157.391399999999</v>
+        <v>10229.5</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>187</v>
@@ -13323,7 +13313,7 @@
       <c r="I8" s="10">
         <v>0</v>
       </c>
-      <c r="J8" s="38"/>
+      <c r="J8" s="37"/>
       <c r="L8" s="5" t="s">
         <v>167</v>
       </c>
@@ -13339,8 +13329,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!AA35</f>
-        <v>1097.883</v>
+        <f>Model!AB35</f>
+        <v>1121.454</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>189</v>
@@ -13354,9 +13344,9 @@
       <c r="I9" s="10">
         <v>160116</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="37">
         <f>I9/($C$7*1000000)</f>
-        <v>3.6406548431105047E-3</v>
+        <v>3.2087374749498999E-3</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>169</v>
@@ -13385,9 +13375,9 @@
       <c r="I10" s="10">
         <v>4253</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="37">
         <f>I10/($C$7*1000000)</f>
-        <v>9.6703046839472485E-5</v>
+        <v>8.5230460921843684E-5</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>171</v>
@@ -13403,7 +13393,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>1097.883</v>
+        <v>1121.454</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>193</v>
@@ -13417,9 +13407,9 @@
       <c r="I11" s="10">
         <v>64523</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="37">
         <f>I11/($C$7*1000000)</f>
-        <v>1.4670986812187357E-3</v>
+        <v>1.2930460921843688E-3</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>173</v>
@@ -13437,7 +13427,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>11059.508399999999</v>
+        <v>9108.0460000000003</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>195</v>
@@ -13467,9 +13457,9 @@
       <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <f>C6/Model!H21</f>
-        <v>141.19795602388956</v>
+        <v>104.71215492130868</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -13480,9 +13470,9 @@
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <f>C6/Model!I21</f>
-        <v>42.267584097859327</v>
+        <v>31.345565749235472</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -13498,9 +13488,9 @@
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <f>C6/Model!J22</f>
-        <v>33.145083932853716</v>
+        <v>24.58033573141487</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -13523,41 +13513,41 @@
       <c r="E17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="132" t="s">
+      <c r="L17" s="141" t="s">
         <v>210</v>
       </c>
-      <c r="M17" s="133"/>
-      <c r="N17" s="134"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="143"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="48">
         <f>C14/(C16*100)</f>
-        <v>0.18058647012925461</v>
+        <v>0.13392260744672138</v>
       </c>
       <c r="E18" t="s">
         <v>235</v>
       </c>
-      <c r="L18" s="135"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="137"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="146"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="48">
         <f>C15/(C17*100)</f>
-        <v>1.2042713828936855</v>
+        <v>0.89308553157474058</v>
       </c>
       <c r="E19" t="s">
         <v>236</v>
       </c>
-      <c r="L19" s="135"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="137"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="146"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -13570,9 +13560,9 @@
       <c r="E20" t="s">
         <v>237</v>
       </c>
-      <c r="L20" s="135"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="137"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="146"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -13585,9 +13575,9 @@
       <c r="E21" t="s">
         <v>238</v>
       </c>
-      <c r="L21" s="135"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="137"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="146"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -13597,9 +13587,9 @@
         <f>Model!H14</f>
         <v>62.595000000000027</v>
       </c>
-      <c r="L22" s="135"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="137"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="146"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13609,81 +13599,81 @@
         <f>Model!H17</f>
         <v>102.30600000000004</v>
       </c>
-      <c r="L23" s="135"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="137"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="146"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!AA23</f>
-        <v>0.72376667393415661</v>
-      </c>
-      <c r="L24" s="135"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="137"/>
+        <f>Model!AB23</f>
+        <v>0.72470216736041337</v>
+      </c>
+      <c r="L24" s="144"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="146"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!AA24</f>
-        <v>0.17751570768834374</v>
-      </c>
-      <c r="L25" s="135"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="137"/>
+        <f>Model!AB24</f>
+        <v>1.0753810086377904</v>
+      </c>
+      <c r="L25" s="144"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="146"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <f>C12/C23</f>
-        <v>108.10224620256871</v>
-      </c>
-      <c r="L26" s="135"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="137"/>
+        <v>89.027486168944122</v>
+      </c>
+      <c r="L26" s="144"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="146"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="114">
+      <c r="C27" s="113">
         <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="135"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="137"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="146"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="35">
         <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>233</v>
       </c>
-      <c r="L28" s="138"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="140"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="149"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="36">
-        <f>Model!AA39/Model!AA52</f>
-        <v>2.8087351474278881</v>
+      <c r="C29" s="35">
+        <f>Model!AB39/Model!AB52</f>
+        <v>2.8214492095595824</v>
       </c>
       <c r="E29" t="s">
         <v>234</v>
@@ -13693,9 +13683,9 @@
       <c r="B30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="36">
-        <f>Model!AA35/Model!AA52</f>
-        <v>2.329067870500209</v>
+      <c r="C30" s="35">
+        <f>Model!AB35/Model!AB52</f>
+        <v>2.314471457464812</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -13708,16 +13698,16 @@
       <c r="B32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="36">
-        <f>(Model!AA39-Model!AA52)/Main!C7</f>
-        <v>19.386243747157806</v>
+      <c r="C32" s="35">
+        <f>(Model!AB39-Model!AB52)/Main!C7</f>
+        <v>17.686673346693389</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="35">
         <f>Model!H8/Model!H39</f>
         <v>0.67904152913793547</v>
       </c>
@@ -13726,7 +13716,7 @@
       <c r="B34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="37">
         <f>Model!H19/Model!H47</f>
         <v>6.8043400771897106E-2</v>
       </c>
@@ -13735,9 +13725,9 @@
       <c r="B35" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="38">
-        <f>Model!I19/Model!AA56</f>
-        <v>0.2878311947113244</v>
+      <c r="C35" s="37">
+        <f>Model!I19/Model!AB56</f>
+        <v>0.21507580271028251</v>
       </c>
       <c r="D35" t="s">
         <v>209</v>
@@ -13762,21 +13752,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:AD77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB33" sqref="AB33"/>
+      <selection pane="bottomRight" activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="151"/>
     <col min="8" max="8" width="11.42578125" style="13"/>
-    <col min="24" max="24" width="11.42578125" style="151"/>
-    <col min="27" max="27" width="11.42578125" style="13"/>
+    <col min="27" max="27" width="11.42578125" style="161"/>
+    <col min="28" max="28" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -13797,7 +13786,7 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="151" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -13839,7 +13828,7 @@
       <c r="W2" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="151" t="s">
+      <c r="X2" t="s">
         <v>206</v>
       </c>
       <c r="Y2" t="s">
@@ -13848,10 +13837,10 @@
       <c r="Z2" t="s">
         <v>217</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="13" t="s">
         <v>224</v>
       </c>
       <c r="AC2" t="s">
@@ -13871,10 +13860,10 @@
       <c r="F3">
         <v>273.5</v>
       </c>
-      <c r="G3" s="151">
+      <c r="G3">
         <v>404.7</v>
       </c>
-      <c r="H3" s="171">
+      <c r="H3" s="138">
         <v>607.53099999999995</v>
       </c>
       <c r="N3">
@@ -13901,13 +13890,13 @@
       <c r="U3">
         <v>117.5</v>
       </c>
-      <c r="V3" s="122">
+      <c r="V3" s="121">
         <v>131.69999999999999</v>
       </c>
-      <c r="W3" s="126">
+      <c r="W3" s="125">
         <v>143.9</v>
       </c>
-      <c r="X3" s="126">
+      <c r="X3" s="125">
         <v>157.61699999999999</v>
       </c>
       <c r="Y3" s="18">
@@ -13917,10 +13906,12 @@
       <c r="Z3" s="18">
         <v>190.98699999999999</v>
       </c>
-      <c r="AA3" s="49">
+      <c r="AA3" s="162">
         <v>210.678</v>
       </c>
-      <c r="AB3" s="18"/>
+      <c r="AB3" s="48">
+        <v>271.71300000000002</v>
+      </c>
       <c r="AC3" s="18"/>
       <c r="AD3" s="18"/>
     </row>
@@ -13934,10 +13925,10 @@
       <c r="F4">
         <v>44.7</v>
       </c>
-      <c r="G4" s="151">
+      <c r="G4">
         <v>49.9</v>
       </c>
-      <c r="H4" s="171">
+      <c r="H4" s="138">
         <v>54.906999999999996</v>
       </c>
       <c r="N4">
@@ -13967,25 +13958,25 @@
       <c r="V4">
         <v>13</v>
       </c>
-      <c r="W4" s="127">
+      <c r="W4" s="126">
         <v>13.257999999999999</v>
       </c>
-      <c r="X4" s="160">
+      <c r="X4" s="126">
         <v>14.404999999999999</v>
       </c>
-      <c r="Y4" s="127">
+      <c r="Y4" s="126">
         <f>H4-X4-W4-V4</f>
         <v>14.243999999999996</v>
       </c>
-      <c r="Z4" s="127">
+      <c r="Z4" s="126">
         <v>17.882000000000001</v>
       </c>
-      <c r="AA4" s="125">
+      <c r="AA4" s="163">
         <v>20.603000000000002</v>
       </c>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="127"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="126"/>
+      <c r="AD4" s="126"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -13997,10 +13988,10 @@
       <c r="F5">
         <v>32.700000000000003</v>
       </c>
-      <c r="G5" s="151">
+      <c r="G5">
         <v>41.2</v>
       </c>
-      <c r="H5" s="171">
+      <c r="H5" s="138">
         <v>45.64</v>
       </c>
       <c r="N5">
@@ -14030,25 +14021,25 @@
       <c r="V5">
         <v>12.8</v>
       </c>
-      <c r="W5" s="127">
+      <c r="W5" s="126">
         <v>10.698</v>
       </c>
-      <c r="X5" s="160">
+      <c r="X5" s="126">
         <v>10.772</v>
       </c>
-      <c r="Y5" s="127">
+      <c r="Y5" s="126">
         <f t="shared" ref="Y5:Y7" si="0">H5-X5-W5-V5</f>
         <v>11.370000000000001</v>
       </c>
-      <c r="Z5" s="127">
+      <c r="Z5" s="126">
         <v>11.936</v>
       </c>
-      <c r="AA5" s="125">
+      <c r="AA5" s="163">
         <v>10.087999999999999</v>
       </c>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -14057,10 +14048,10 @@
       <c r="F6">
         <v>17.899999999999999</v>
       </c>
-      <c r="G6" s="151">
+      <c r="G6">
         <v>34.700000000000003</v>
       </c>
-      <c r="H6" s="171">
+      <c r="H6" s="138">
         <v>38.652999999999999</v>
       </c>
       <c r="Q6">
@@ -14075,25 +14066,25 @@
       <c r="V6">
         <v>9.9</v>
       </c>
-      <c r="W6" s="127">
+      <c r="W6" s="126">
         <v>10.176</v>
       </c>
-      <c r="X6" s="160">
+      <c r="X6" s="126">
         <v>9.4109999999999996</v>
       </c>
-      <c r="Y6" s="127">
+      <c r="Y6" s="126">
         <f t="shared" si="0"/>
         <v>9.165999999999995</v>
       </c>
-      <c r="Z6" s="127">
+      <c r="Z6" s="126">
         <v>9.4420000000000002</v>
       </c>
-      <c r="AA6" s="125">
+      <c r="AA6" s="163">
         <v>10.39</v>
       </c>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
+      <c r="AB6" s="124"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -14105,10 +14096,10 @@
       <c r="F7">
         <v>0.6</v>
       </c>
-      <c r="G7" s="151">
+      <c r="G7">
         <v>0.7</v>
       </c>
-      <c r="H7" s="171">
+      <c r="H7" s="138">
         <v>1.2929999999999999</v>
       </c>
       <c r="N7">
@@ -14138,25 +14129,25 @@
       <c r="V7">
         <v>0.2</v>
       </c>
-      <c r="W7" s="127">
+      <c r="W7" s="126">
         <v>0.28599999999999998</v>
       </c>
-      <c r="X7" s="160">
+      <c r="X7" s="126">
         <v>0.38900000000000001</v>
       </c>
-      <c r="Y7" s="127">
+      <c r="Y7" s="126">
         <f t="shared" si="0"/>
         <v>0.41799999999999987</v>
       </c>
-      <c r="Z7" s="127">
+      <c r="Z7" s="126">
         <v>0.44600000000000001</v>
       </c>
-      <c r="AA7" s="125">
+      <c r="AA7" s="163">
         <v>0.50600000000000001</v>
       </c>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="127"/>
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
     </row>
     <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -14177,7 +14168,7 @@
         <f>SUM(F3:F7)</f>
         <v>369.4</v>
       </c>
-      <c r="G8" s="152">
+      <c r="G8" s="11">
         <f>SUM(G3:G7)</f>
         <v>531.20000000000005</v>
       </c>
@@ -14185,10 +14176,10 @@
         <f>SUM(H3:H7)</f>
         <v>748.024</v>
       </c>
-      <c r="I8" s="173">
+      <c r="I8" s="39">
         <v>1020</v>
       </c>
-      <c r="J8" s="174">
+      <c r="J8">
         <v>1280</v>
       </c>
       <c r="N8" s="11">
@@ -14231,30 +14222,31 @@
         <f t="shared" si="2"/>
         <v>178.31800000000001</v>
       </c>
-      <c r="X8" s="152">
+      <c r="X8" s="11">
         <f>SUM(X3:X7)</f>
         <v>192.59399999999999</v>
       </c>
-      <c r="Y8" s="152">
+      <c r="Y8" s="11">
         <f>SUM(Y3:Y7)</f>
         <v>209.51200000000003</v>
       </c>
-      <c r="Z8" s="152">
+      <c r="Z8" s="11">
         <f>SUM(Z3:Z7)</f>
         <v>230.69300000000001</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA8" s="164">
         <f>SUM(AA3:AA7)</f>
         <v>252.26500000000001</v>
       </c>
-      <c r="AB8" s="177">
-        <v>260.35000000000002</v>
-      </c>
-      <c r="AC8" s="177">
+      <c r="AB8" s="160">
+        <f>AB3</f>
+        <v>271.71300000000002</v>
+      </c>
+      <c r="AC8" s="39">
         <v>274.41000000000003</v>
       </c>
-      <c r="AD8" s="152">
-        <f t="shared" ref="Z8:AD8" si="3">SUM(AD3:AD7)</f>
+      <c r="AD8" s="11">
+        <f t="shared" ref="AD8" si="3">SUM(AD3:AD7)</f>
         <v>0</v>
       </c>
     </row>
@@ -14266,31 +14258,31 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="169">
+      <c r="G9" s="10"/>
+      <c r="H9" s="136">
         <v>742.15</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="41">
         <v>1020</v>
       </c>
       <c r="J9">
         <v>1280</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10">
         <v>165.6</v>
       </c>
-      <c r="W9" s="40">
+      <c r="W9" s="39">
         <v>176.92</v>
       </c>
-      <c r="X9" s="161">
+      <c r="X9" s="132">
         <v>189.08</v>
       </c>
       <c r="Y9">
@@ -14299,7 +14291,7 @@
       <c r="Z9">
         <v>220.26</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="13">
         <v>260.35000000000002</v>
       </c>
       <c r="AC9">
@@ -14320,10 +14312,10 @@
       <c r="F10" s="10">
         <v>99.430999999999997</v>
       </c>
-      <c r="G10" s="153">
+      <c r="G10" s="10">
         <v>142.10499999999999</v>
       </c>
-      <c r="H10" s="168">
+      <c r="H10" s="15">
         <v>203.64500000000001</v>
       </c>
       <c r="I10" s="10"/>
@@ -14357,22 +14349,24 @@
       <c r="W10" s="10">
         <v>47.348999999999997</v>
       </c>
-      <c r="X10" s="153">
+      <c r="X10" s="10">
         <v>52.18</v>
       </c>
-      <c r="Y10" s="127">
+      <c r="Y10" s="126">
         <f t="shared" ref="Y10:Y18" si="4">H10-X10-W10-V10</f>
         <v>58.925000000000011</v>
       </c>
-      <c r="Z10" s="127">
+      <c r="Z10" s="126">
         <v>66.647000000000006</v>
       </c>
-      <c r="AA10" s="125">
+      <c r="AA10" s="163">
         <v>69.683999999999997</v>
       </c>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
+      <c r="AB10" s="124">
+        <v>74.802000000000007</v>
+      </c>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -14388,13 +14382,13 @@
       <c r="F11" s="10">
         <v>150.44399999999999</v>
       </c>
-      <c r="G11" s="153">
+      <c r="G11" s="10">
         <v>194.352</v>
       </c>
-      <c r="H11" s="168">
+      <c r="H11" s="15">
         <v>235.298</v>
       </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="39"/>
       <c r="N11" s="10">
         <v>29.780999999999999</v>
       </c>
@@ -14419,28 +14413,30 @@
       <c r="U11" s="10">
         <v>50.256</v>
       </c>
-      <c r="V11" s="123">
+      <c r="V11" s="122">
         <v>50.878</v>
       </c>
-      <c r="W11" s="123">
+      <c r="W11" s="122">
         <v>55.146999999999998</v>
       </c>
-      <c r="X11" s="162">
+      <c r="X11" s="122">
         <v>62.878</v>
       </c>
-      <c r="Y11" s="127">
+      <c r="Y11" s="126">
         <f t="shared" si="4"/>
         <v>66.395000000000024</v>
       </c>
-      <c r="Z11" s="127">
+      <c r="Z11" s="126">
         <v>70.39</v>
       </c>
-      <c r="AA11" s="125">
+      <c r="AA11" s="163">
         <v>73.67</v>
       </c>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
+      <c r="AB11" s="124">
+        <v>82.706999999999994</v>
+      </c>
+      <c r="AC11" s="126"/>
+      <c r="AD11" s="126"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -14456,13 +14452,13 @@
       <c r="F12" s="10">
         <v>66.966999999999999</v>
       </c>
-      <c r="G12" s="153">
+      <c r="G12" s="10">
         <v>75.787999999999997</v>
       </c>
-      <c r="H12" s="168">
+      <c r="H12" s="15">
         <v>90.494</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="39"/>
       <c r="N12" s="10">
         <v>14.94</v>
       </c>
@@ -14487,28 +14483,30 @@
       <c r="U12" s="10">
         <v>19.117999999999999</v>
       </c>
-      <c r="V12" s="123">
+      <c r="V12" s="122">
         <v>19.931000000000001</v>
       </c>
-      <c r="W12" s="123">
+      <c r="W12" s="122">
         <v>20.173999999999999</v>
       </c>
-      <c r="X12" s="162">
+      <c r="X12" s="122">
         <v>25.574000000000002</v>
       </c>
-      <c r="Y12" s="127">
+      <c r="Y12" s="126">
         <f t="shared" si="4"/>
         <v>24.815000000000001</v>
       </c>
-      <c r="Z12" s="127">
+      <c r="Z12" s="126">
         <v>26.661999999999999</v>
       </c>
-      <c r="AA12" s="125">
+      <c r="AA12" s="163">
         <v>29.562999999999999</v>
       </c>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
+      <c r="AB12" s="124">
+        <v>35.081000000000003</v>
+      </c>
+      <c r="AC12" s="126"/>
+      <c r="AD12" s="126"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -14524,10 +14522,10 @@
       <c r="F13" s="10">
         <v>117.848</v>
       </c>
-      <c r="G13" s="153">
+      <c r="G13" s="10">
         <v>132.12299999999999</v>
       </c>
-      <c r="H13" s="168">
+      <c r="H13" s="15">
         <v>155.99199999999999</v>
       </c>
       <c r="I13" s="10"/>
@@ -14555,28 +14553,30 @@
       <c r="U13" s="10">
         <v>36.244999999999997</v>
       </c>
-      <c r="V13" s="123">
+      <c r="V13" s="122">
         <v>35.113999999999997</v>
       </c>
-      <c r="W13" s="123">
+      <c r="W13" s="122">
         <v>36.957000000000001</v>
       </c>
-      <c r="X13" s="162">
+      <c r="X13" s="122">
         <v>38.387999999999998</v>
       </c>
-      <c r="Y13" s="127">
+      <c r="Y13" s="126">
         <f t="shared" si="4"/>
         <v>45.532999999999994</v>
       </c>
-      <c r="Z13" s="127">
+      <c r="Z13" s="126">
         <v>43.45</v>
       </c>
-      <c r="AA13" s="125">
+      <c r="AA13" s="163">
         <v>45.984999999999999</v>
       </c>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
+      <c r="AB13" s="124">
+        <v>43.963999999999999</v>
+      </c>
+      <c r="AC13" s="126"/>
+      <c r="AD13" s="126"/>
     </row>
     <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -14598,7 +14598,7 @@
         <f t="shared" si="5"/>
         <v>-65.29000000000002</v>
       </c>
-      <c r="G14" s="152">
+      <c r="G14" s="11">
         <f t="shared" si="5"/>
         <v>-13.167999999999893</v>
       </c>
@@ -14654,31 +14654,31 @@
         <f t="shared" si="6"/>
         <v>18.691000000000031</v>
       </c>
-      <c r="X14" s="152">
+      <c r="X14" s="11">
         <f t="shared" si="6"/>
         <v>13.573999999999984</v>
       </c>
-      <c r="Y14" s="152">
+      <c r="Y14" s="11">
         <f t="shared" si="6"/>
         <v>13.843999999999994</v>
       </c>
-      <c r="Z14" s="152">
+      <c r="Z14" s="11">
         <f t="shared" si="6"/>
         <v>23.544000000000011</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AA14" s="164">
         <f t="shared" si="6"/>
         <v>33.363000000000028</v>
       </c>
-      <c r="AB14" s="152">
+      <c r="AB14" s="14">
         <f t="shared" si="6"/>
-        <v>260.35000000000002</v>
-      </c>
-      <c r="AC14" s="152">
+        <v>35.158999999999992</v>
+      </c>
+      <c r="AC14" s="11">
         <f t="shared" si="6"/>
         <v>274.41000000000003</v>
       </c>
-      <c r="AD14" s="152"/>
+      <c r="AD14" s="11"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -14695,14 +14695,14 @@
       <c r="F15" s="10">
         <v>-0.67600000000000005</v>
       </c>
-      <c r="G15" s="153">
+      <c r="G15" s="10">
         <v>-5.5E-2</v>
       </c>
-      <c r="H15" s="168">
+      <c r="H15" s="15">
         <f>1.267-4.253</f>
         <v>-2.9860000000000002</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="39"/>
       <c r="N15" s="10">
         <v>-0.312</v>
       </c>
@@ -14733,22 +14733,24 @@
       <c r="W15" s="10">
         <v>-0.70699999999999996</v>
       </c>
-      <c r="X15" s="153">
+      <c r="X15" s="10">
         <v>0.56899999999999995</v>
       </c>
-      <c r="Y15" s="127">
+      <c r="Y15" s="126">
         <f t="shared" si="4"/>
         <v>-2.2270000000000003</v>
       </c>
-      <c r="Z15" s="127">
+      <c r="Z15" s="126">
         <v>1.0009999999999999</v>
       </c>
-      <c r="AA15" s="125">
+      <c r="AA15" s="163">
         <v>1.66</v>
       </c>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
+      <c r="AB15" s="124">
+        <v>-0.503</v>
+      </c>
+      <c r="AC15" s="126"/>
+      <c r="AD15" s="126"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -14762,13 +14764,13 @@
       <c r="F16" s="10">
         <v>7.2350000000000003</v>
       </c>
-      <c r="G16" s="153">
+      <c r="G16" s="10">
         <v>31.091000000000001</v>
       </c>
-      <c r="H16" s="168">
+      <c r="H16" s="15">
         <v>42.697000000000003</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="39"/>
       <c r="N16" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -14799,22 +14801,24 @@
       <c r="W16" s="10">
         <v>10.721</v>
       </c>
-      <c r="X16" s="153">
+      <c r="X16" s="10">
         <v>11.246</v>
       </c>
-      <c r="Y16" s="127">
+      <c r="Y16" s="126">
         <f t="shared" si="4"/>
         <v>10.697000000000001</v>
       </c>
-      <c r="Z16" s="127">
+      <c r="Z16" s="126">
         <v>10.414999999999999</v>
       </c>
-      <c r="AA16" s="125">
+      <c r="AA16" s="163">
         <v>11.427</v>
       </c>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
+      <c r="AB16" s="124">
+        <v>11.792999999999999</v>
+      </c>
+      <c r="AC16" s="126"/>
+      <c r="AD16" s="126"/>
     </row>
     <row r="17" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -14836,7 +14840,7 @@
         <f t="shared" si="7"/>
         <v>-58.731000000000023</v>
       </c>
-      <c r="G17" s="152">
+      <c r="G17" s="11">
         <f t="shared" si="7"/>
         <v>17.868000000000109</v>
       </c>
@@ -14888,31 +14892,31 @@
         <f t="shared" si="8"/>
         <v>28.70500000000003</v>
       </c>
-      <c r="X17" s="152">
+      <c r="X17" s="11">
         <f t="shared" si="8"/>
         <v>25.388999999999985</v>
       </c>
-      <c r="Y17" s="152">
+      <c r="Y17" s="11">
         <f t="shared" si="8"/>
         <v>22.313999999999993</v>
       </c>
-      <c r="Z17" s="152">
+      <c r="Z17" s="11">
         <f t="shared" si="8"/>
         <v>34.960000000000008</v>
       </c>
-      <c r="AA17" s="14">
+      <c r="AA17" s="164">
         <f t="shared" si="8"/>
         <v>46.450000000000031</v>
       </c>
-      <c r="AB17" s="152">
+      <c r="AB17" s="14">
         <f t="shared" si="8"/>
-        <v>260.35000000000002</v>
-      </c>
-      <c r="AC17" s="152">
+        <v>46.448999999999991</v>
+      </c>
+      <c r="AC17" s="11">
         <f t="shared" si="8"/>
         <v>274.41000000000003</v>
       </c>
-      <c r="AD17" s="152"/>
+      <c r="AD17" s="11"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -14928,13 +14932,13 @@
       <c r="F18" s="10">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G18" s="153">
+      <c r="G18" s="10">
         <v>1.71</v>
       </c>
-      <c r="H18" s="168">
+      <c r="H18" s="15">
         <v>13.731999999999999</v>
       </c>
-      <c r="I18" s="40"/>
+      <c r="I18" s="39"/>
       <c r="N18" s="10">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -14965,120 +14969,122 @@
       <c r="W18" s="10">
         <v>4.3630000000000004</v>
       </c>
-      <c r="X18" s="153">
+      <c r="X18" s="10">
         <v>2.0289999999999999</v>
       </c>
-      <c r="Y18" s="127">
+      <c r="Y18" s="126">
         <f t="shared" si="4"/>
         <v>8.4449999999999985</v>
       </c>
-      <c r="Z18" s="127">
+      <c r="Z18" s="126">
         <v>-0.125</v>
       </c>
-      <c r="AA18" s="125">
+      <c r="AA18" s="163">
         <v>1.669</v>
       </c>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
+      <c r="AB18" s="124">
+        <v>-245.74600000000001</v>
+      </c>
+      <c r="AC18" s="126"/>
+      <c r="AD18" s="126"/>
     </row>
     <row r="19" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11">
-        <f>C17-SUM(C18:C18)</f>
+        <f t="shared" ref="C19:H19" si="9">C17-SUM(C18:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="11">
-        <f>D17-SUM(D18:D18)</f>
+        <f t="shared" si="9"/>
         <v>-15.775999999999994</v>
       </c>
       <c r="E19" s="11">
-        <f>E17-SUM(E18:E18)</f>
+        <f t="shared" si="9"/>
         <v>-60.107000000000014</v>
       </c>
       <c r="F19" s="11">
-        <f>F17-SUM(F18:F18)</f>
+        <f t="shared" si="9"/>
         <v>-59.669000000000025</v>
       </c>
-      <c r="G19" s="152">
-        <f>G17-SUM(G18:G18)</f>
+      <c r="G19" s="11">
+        <f t="shared" si="9"/>
         <v>16.158000000000108</v>
       </c>
       <c r="H19" s="14">
-        <f>H17-SUM(H18:H18)</f>
+        <f t="shared" si="9"/>
         <v>88.574000000000041</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="52">
         <f>I22*I20</f>
         <v>281.22000000000003</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" ref="N19:AC19" si="9">N17-SUM(N18:N18)</f>
+        <f t="shared" ref="N19:AC19" si="10">N17-SUM(N18:N18)</f>
         <v>-12.174000000000005</v>
       </c>
       <c r="O19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-15.13099999999999</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-18.410000000000011</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-13.954000000000002</v>
       </c>
       <c r="R19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.542999999999989</v>
       </c>
       <c r="S19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.785999999999984</v>
       </c>
       <c r="T19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7830000000000119</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.132000000000032</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.002999999999989</v>
       </c>
       <c r="W19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.342000000000031</v>
       </c>
-      <c r="X19" s="152">
-        <f t="shared" si="9"/>
+      <c r="X19" s="11">
+        <f t="shared" si="10"/>
         <v>23.359999999999985</v>
       </c>
-      <c r="Y19" s="152">
-        <f t="shared" si="9"/>
+      <c r="Y19" s="11">
+        <f t="shared" si="10"/>
         <v>13.868999999999994</v>
       </c>
-      <c r="Z19" s="152">
-        <f t="shared" si="9"/>
+      <c r="Z19" s="11">
+        <f t="shared" si="10"/>
         <v>35.085000000000008</v>
       </c>
-      <c r="AA19" s="14">
-        <f t="shared" si="9"/>
+      <c r="AA19" s="164">
+        <f t="shared" si="10"/>
         <v>44.781000000000034</v>
       </c>
-      <c r="AB19" s="152">
-        <f t="shared" si="9"/>
-        <v>260.35000000000002</v>
-      </c>
-      <c r="AC19" s="152">
-        <f t="shared" si="9"/>
+      <c r="AB19" s="14">
+        <f t="shared" si="10"/>
+        <v>292.19499999999999</v>
+      </c>
+      <c r="AC19" s="11">
+        <f t="shared" si="10"/>
         <v>274.41000000000003</v>
       </c>
-      <c r="AD19" s="152"/>
+      <c r="AD19" s="11"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -15097,15 +15103,15 @@
         <f>32.201681+8.434238</f>
         <v>40.635919000000001</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="10">
         <f>36.680751+6.195077</f>
         <v>42.875827999999998</v>
       </c>
-      <c r="H20" s="168">
+      <c r="H20" s="15">
         <f>39.04419+6.198612</f>
         <v>45.242801999999998</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="39">
         <v>43</v>
       </c>
       <c r="N20" s="10">
@@ -15142,7 +15148,7 @@
         <f>37.436692+6.102077</f>
         <v>43.538769000000002</v>
       </c>
-      <c r="X20" s="153">
+      <c r="X20" s="10">
         <v>43.98</v>
       </c>
       <c r="Y20" s="10">
@@ -15152,10 +15158,12 @@
       <c r="Z20" s="10">
         <v>45.242801999999998</v>
       </c>
-      <c r="AA20" s="15">
+      <c r="AA20" s="165">
         <v>45.242801999999998</v>
       </c>
-      <c r="AB20" s="10"/>
+      <c r="AB20" s="15">
+        <v>49.9</v>
+      </c>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
     </row>
@@ -15178,18 +15186,18 @@
         <f>F19/F20</f>
         <v>-1.4683807200225993</v>
       </c>
-      <c r="G21" s="154">
+      <c r="G21" s="130">
         <f>G19/G20</f>
         <v>0.37685569594131474</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="50">
         <f>H19/H20</f>
         <v>1.9577478866140972</v>
       </c>
-      <c r="I21" s="175">
+      <c r="I21" s="140">
         <v>6.54</v>
       </c>
-      <c r="J21" s="176">
+      <c r="J21" s="1">
         <v>8.34</v>
       </c>
       <c r="N21" s="2">
@@ -15197,63 +15205,64 @@
         <v>-0.29958717065067497</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" ref="O21:AC21" si="10">O19/O20</f>
+        <f t="shared" ref="O21:AB21" si="11">O19/O20</f>
         <v>-0.37235530467515671</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.45304746276317781</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.34339078193358941</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5.9310807945213075E-2</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.8301501722601927E-2</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.4908367483888868E-2</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2829566346800354</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.6261983699409196</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.55908792460347301</v>
       </c>
-      <c r="X21" s="155">
+      <c r="X21" s="2">
         <v>0.49</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.30654600040024038</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.77548247343301169</v>
       </c>
-      <c r="AA21" s="35">
-        <f t="shared" si="10"/>
+      <c r="AA21" s="166">
+        <f t="shared" si="11"/>
         <v>0.98979280726246877</v>
       </c>
-      <c r="AB21" s="9">
-        <v>1.59</v>
+      <c r="AB21" s="166">
+        <f t="shared" si="11"/>
+        <v>5.8556112224448897</v>
       </c>
       <c r="AC21" s="9">
         <v>1.73</v>
       </c>
-      <c r="AD21" s="178"/>
+      <c r="AD21" s="18"/>
     </row>
     <row r="22" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
@@ -15263,31 +15272,31 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="170">
+      <c r="G22" s="2"/>
+      <c r="H22" s="137">
         <v>2.0099999999999998</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="42">
         <v>6.54</v>
       </c>
       <c r="J22" s="1">
         <v>8.34</v>
       </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="47">
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="46">
         <v>0.27</v>
       </c>
-      <c r="W22" s="47">
+      <c r="W22" s="46">
         <v>0.25</v>
       </c>
-      <c r="X22" s="163">
+      <c r="X22" s="46">
         <v>0.35</v>
       </c>
       <c r="Y22" s="1">
@@ -15296,8 +15305,8 @@
       <c r="Z22" s="1">
         <v>0.69</v>
       </c>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="1">
+      <c r="AA22" s="167"/>
+      <c r="AB22" s="16">
         <v>1.59</v>
       </c>
       <c r="AC22" s="1">
@@ -15309,187 +15318,187 @@
         <v>27</v>
       </c>
       <c r="C23" s="3" t="e">
-        <f>1-C10/C8</f>
+        <f t="shared" ref="C23:H23" si="12">1-C10/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D23" s="3">
-        <f>1-D10/D8</f>
+        <f t="shared" si="12"/>
         <v>0.71559593310904412</v>
       </c>
       <c r="E23" s="3">
-        <f>1-E10/E8</f>
+        <f t="shared" si="12"/>
         <v>0.72413875598086119</v>
       </c>
       <c r="F23" s="3">
-        <f>1-F10/F8</f>
+        <f t="shared" si="12"/>
         <v>0.73083107742284792</v>
       </c>
-      <c r="G23" s="39">
-        <f>1-G10/G8</f>
+      <c r="G23" s="38">
+        <f t="shared" si="12"/>
         <v>0.73248305722891571</v>
       </c>
       <c r="H23" s="6">
-        <f>1-H10/H8</f>
+        <f t="shared" si="12"/>
         <v>0.72775606130284587</v>
       </c>
-      <c r="I23" s="44"/>
+      <c r="I23" s="43"/>
       <c r="N23" s="3">
-        <f t="shared" ref="N23:W23" si="11">1-N10/N8</f>
+        <f t="shared" ref="N23:W23" si="13">1-N10/N8</f>
         <v>0.7353448275862069</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.72968289920724805</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.72630593132154009</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.73246628131021196</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.72781331028522045</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.73374310480693461</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.73652616279069771</v>
       </c>
-      <c r="U23" s="39">
+      <c r="U23" s="38">
         <f>1-U10/U8</f>
         <v>0.73131788079470206</v>
       </c>
-      <c r="V23" s="39">
+      <c r="V23" s="38">
         <f>1-V10/V8</f>
         <v>0.73036396181384244</v>
       </c>
-      <c r="W23" s="39">
-        <f t="shared" si="11"/>
+      <c r="W23" s="38">
+        <f t="shared" si="13"/>
         <v>0.73446875806144085</v>
       </c>
-      <c r="X23" s="39">
-        <f t="shared" ref="X23:Y23" si="12">1-X10/X8</f>
+      <c r="X23" s="38">
+        <f t="shared" ref="X23:Y23" si="14">1-X10/X8</f>
         <v>0.72906736450772092</v>
       </c>
-      <c r="Y23" s="39">
-        <f t="shared" si="12"/>
+      <c r="Y23" s="38">
+        <f t="shared" si="14"/>
         <v>0.71875119324907399</v>
       </c>
-      <c r="Z23" s="39">
-        <f t="shared" ref="Z23:AB23" si="13">1-Z10/Z8</f>
+      <c r="Z23" s="38">
+        <f t="shared" ref="Z23:AB23" si="15">1-Z10/Z8</f>
         <v>0.71110090033074258</v>
       </c>
-      <c r="AA23" s="6">
-        <f t="shared" si="13"/>
+      <c r="AA23" s="38">
+        <f t="shared" si="15"/>
         <v>0.72376667393415661</v>
       </c>
-      <c r="AB23" s="39">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
+      <c r="AB23" s="6">
+        <f>1-AB10/AB8</f>
+        <v>0.72470216736041337</v>
+      </c>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="4" t="e">
-        <f>C19/C8</f>
+        <f t="shared" ref="C24:H24" si="16">C19/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D24" s="4">
-        <f>D19/D8</f>
+        <f t="shared" si="16"/>
         <v>-9.7565802493568138E-2</v>
       </c>
       <c r="E24" s="4">
-        <f>E19/E8</f>
+        <f t="shared" si="16"/>
         <v>-0.23966108452950566</v>
       </c>
       <c r="F24" s="4">
-        <f>F19/F8</f>
+        <f t="shared" si="16"/>
         <v>-0.16152950730915006</v>
       </c>
-      <c r="G24" s="156">
-        <f>G19/G8</f>
+      <c r="G24" s="4">
+        <f t="shared" si="16"/>
         <v>3.0417921686747187E-2</v>
       </c>
       <c r="H24" s="7">
-        <f>H19/H8</f>
+        <f t="shared" si="16"/>
         <v>0.11841063923082687</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="44">
         <f>I19/I9</f>
         <v>0.27570588235294119</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" ref="N24:W24" si="14">N19/N8</f>
+        <f t="shared" ref="N24:W24" si="17">N19/N8</f>
         <v>-0.1499261083743843</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-0.17135900339750834</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-0.19157127991675352</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-0.13443159922928713</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-2.1979256698357728E-2</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.9834515366430135E-2</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.0225290697674501E-2</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8.0344370860927342E-2</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.16111575178997609</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.13650893347839269</v>
       </c>
-      <c r="X24" s="156">
-        <f t="shared" ref="X24:Y24" si="15">X19/X8</f>
+      <c r="X24" s="4">
+        <f t="shared" ref="X24:Y24" si="18">X19/X8</f>
         <v>0.12129142133192096</v>
       </c>
-      <c r="Y24" s="156">
-        <f t="shared" si="15"/>
+      <c r="Y24" s="4">
+        <f t="shared" si="18"/>
         <v>6.6196685631371918E-2</v>
       </c>
-      <c r="Z24" s="156">
+      <c r="Z24" s="4">
         <f>Z19/Z8</f>
         <v>0.15208523882389152</v>
       </c>
-      <c r="AA24" s="7">
-        <f t="shared" ref="Z24:AB24" si="16">AA19/AA8</f>
+      <c r="AA24" s="168">
+        <f t="shared" ref="AA24:AB24" si="19">AA19/AA8</f>
         <v>0.17751570768834374</v>
       </c>
-      <c r="AB24" s="156">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AC24" s="156"/>
-      <c r="AD24" s="156"/>
+      <c r="AB24" s="7">
+        <f t="shared" si="19"/>
+        <v>1.0753810086377904</v>
+      </c>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -15501,11 +15510,11 @@
         <f>E8/D8-1</f>
         <v>0.55105877696417971</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="38">
         <f>F8/E8-1</f>
         <v>0.47288676236044669</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="38">
         <f>G8/F8-1</f>
         <v>0.43800757985923133</v>
       </c>
@@ -15513,11 +15522,11 @@
         <f>H8/G8-1</f>
         <v>0.40817771084337329</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="45">
         <f>I9/H9-1</f>
         <v>0.37438523209593755</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="45">
         <f>J9/I9-1</f>
         <v>0.25490196078431371</v>
       </c>
@@ -15525,207 +15534,207 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="128">
-        <f t="shared" ref="R25:Z25" si="17">R8/N8-1</f>
+      <c r="R25" s="127">
+        <f t="shared" ref="R25:Y25" si="20">R8/N8-1</f>
         <v>0.42487684729064035</v>
       </c>
-      <c r="S25" s="128">
-        <f t="shared" si="17"/>
+      <c r="S25" s="127">
+        <f t="shared" si="20"/>
         <v>0.43714609286523198</v>
       </c>
-      <c r="T25" s="128">
-        <f t="shared" si="17"/>
+      <c r="T25" s="127">
+        <f t="shared" si="20"/>
         <v>0.43184183142559873</v>
       </c>
-      <c r="U25" s="128">
-        <f t="shared" si="17"/>
+      <c r="U25" s="127">
+        <f t="shared" si="20"/>
         <v>0.45472061657032792</v>
       </c>
-      <c r="V25" s="128">
-        <f t="shared" si="17"/>
+      <c r="V25" s="127">
+        <f t="shared" si="20"/>
         <v>0.44857389801210013</v>
       </c>
-      <c r="W25" s="128">
-        <f t="shared" si="17"/>
+      <c r="W25" s="127">
+        <f t="shared" si="20"/>
         <v>0.40518518518518531</v>
       </c>
-      <c r="X25" s="164">
-        <f t="shared" si="17"/>
+      <c r="X25" s="127">
+        <f t="shared" si="20"/>
         <v>0.3996656976744184</v>
       </c>
-      <c r="Y25" s="128">
-        <f t="shared" si="17"/>
+      <c r="Y25" s="127">
+        <f t="shared" si="20"/>
         <v>0.38749668874172172</v>
       </c>
-      <c r="Z25" s="128">
-        <f t="shared" ref="Z25" si="18">Z8/V8-1</f>
+      <c r="Z25" s="127">
+        <f t="shared" ref="Z25" si="21">Z8/V8-1</f>
         <v>0.37644988066825791</v>
       </c>
-      <c r="AA25" s="129">
-        <f t="shared" ref="AA25" si="19">AA8/W8-1</f>
+      <c r="AA25" s="169">
+        <f t="shared" ref="AA25" si="22">AA8/W8-1</f>
         <v>0.41469173050393127</v>
       </c>
       <c r="AB25" s="128">
         <f>AB8/X8-1</f>
-        <v>0.35180742909955676</v>
-      </c>
-      <c r="AC25" s="128">
+        <v>0.41080719025514822</v>
+      </c>
+      <c r="AC25" s="127">
         <f>AC8/Y8-1</f>
         <v>0.30975791362785898</v>
       </c>
-      <c r="AD25" s="128"/>
+      <c r="AD25" s="127"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>129</v>
       </c>
       <c r="C26" s="4" t="e">
-        <f>C11/C8</f>
+        <f t="shared" ref="C26:H26" si="23">C11/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D26" s="4">
-        <f>D11/D8</f>
+        <f t="shared" si="23"/>
         <v>0.32792400554126261</v>
       </c>
       <c r="E26" s="4">
-        <f>E11/E8</f>
+        <f t="shared" si="23"/>
         <v>0.41400717703349282</v>
       </c>
       <c r="F26" s="4">
-        <f>F11/F8</f>
+        <f t="shared" si="23"/>
         <v>0.40726583649160802</v>
       </c>
-      <c r="G26" s="156">
-        <f>G11/G8</f>
+      <c r="G26" s="4">
+        <f t="shared" si="23"/>
         <v>0.36587349397590357</v>
       </c>
       <c r="H26" s="7">
-        <f>H11/H8</f>
+        <f t="shared" si="23"/>
         <v>0.31455942590077324</v>
       </c>
-      <c r="I26" s="115"/>
+      <c r="I26" s="114"/>
       <c r="N26" s="4">
-        <f t="shared" ref="N26:U26" si="20">N11/N8</f>
+        <f t="shared" ref="N26:U26" si="24">N11/N8</f>
         <v>0.36676108374384236</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.38750849377123436</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.43679500520291364</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.42842003853564548</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.39623163353500435</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.37783293932230105</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.36558866279069763</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.33282119205298005</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" ref="V26" si="21">V11/V8</f>
+        <f t="shared" ref="V26" si="25">V11/V8</f>
         <v>0.30356801909307879</v>
       </c>
       <c r="W26" s="4">
         <f>W11/W8</f>
         <v>0.30926210477910249</v>
       </c>
-      <c r="X26" s="156">
+      <c r="X26" s="4">
         <f>X11/X8</f>
         <v>0.32647953726492002</v>
       </c>
-      <c r="Y26" s="156">
+      <c r="Y26" s="4">
         <f>Y11/Y8</f>
         <v>0.31690308908320297</v>
       </c>
-      <c r="Z26" s="156">
-        <f t="shared" ref="Z26:AB26" si="22">Z11/Z8</f>
+      <c r="Z26" s="4">
+        <f t="shared" ref="Z26:AB26" si="26">Z11/Z8</f>
         <v>0.3051241260029563</v>
       </c>
-      <c r="AA26" s="7">
-        <f t="shared" si="22"/>
+      <c r="AA26" s="168">
+        <f t="shared" si="26"/>
         <v>0.29203417041603075</v>
       </c>
-      <c r="AB26" s="156">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="156"/>
+      <c r="AB26" s="7">
+        <f t="shared" si="26"/>
+        <v>0.30439103024146796</v>
+      </c>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>153</v>
       </c>
       <c r="C27" s="4" t="e">
-        <f>C12/C8</f>
+        <f t="shared" ref="C27:H27" si="27">C12/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="4">
-        <f>D12/D8</f>
+        <f t="shared" si="27"/>
         <v>0.21635043538491983</v>
       </c>
       <c r="E27" s="4">
-        <f>E12/E8</f>
+        <f t="shared" si="27"/>
         <v>0.23592503987240832</v>
       </c>
       <c r="F27" s="4">
-        <f>F12/F8</f>
+        <f t="shared" si="27"/>
         <v>0.181285868976719</v>
       </c>
-      <c r="G27" s="156">
-        <f>G12/G8</f>
+      <c r="G27" s="4">
+        <f t="shared" si="27"/>
         <v>0.14267319277108431</v>
       </c>
       <c r="H27" s="7">
-        <f>H12/H8</f>
+        <f t="shared" si="27"/>
         <v>0.12097740179459482</v>
       </c>
-      <c r="I27" s="115"/>
+      <c r="I27" s="114"/>
       <c r="N27" s="4">
-        <f t="shared" ref="N27:U27" si="23">N12/N8</f>
+        <f t="shared" ref="N27:U27" si="28">N12/N8</f>
         <v>0.18399014778325121</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.1730124575311438</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.18440166493236212</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.18332369942196533</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.14348314606741572</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.13974783293932233</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.16231831395348836</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.12660927152317877</v>
       </c>
       <c r="V27" s="4">
@@ -15733,83 +15742,83 @@
         <v>0.1189200477326969</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" ref="W27:Y27" si="24">W12/W8</f>
+        <f t="shared" ref="W27:Y27" si="29">W12/W8</f>
         <v>0.1131349611368454</v>
       </c>
-      <c r="X27" s="156">
-        <f t="shared" si="24"/>
+      <c r="X27" s="4">
+        <f t="shared" si="29"/>
         <v>0.13278710655575979</v>
       </c>
-      <c r="Y27" s="156">
-        <f t="shared" si="24"/>
+      <c r="Y27" s="4">
+        <f t="shared" si="29"/>
         <v>0.11844190308908319</v>
       </c>
-      <c r="Z27" s="156">
-        <f t="shared" ref="Z27:AB27" si="25">Z12/Z8</f>
+      <c r="Z27" s="4">
+        <f t="shared" ref="Z27:AB27" si="30">Z12/Z8</f>
         <v>0.11557351111650548</v>
       </c>
-      <c r="AA27" s="7">
-        <f t="shared" si="25"/>
+      <c r="AA27" s="168">
+        <f t="shared" si="30"/>
         <v>0.11719025627812021</v>
       </c>
-      <c r="AB27" s="156">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="156"/>
-      <c r="AD27" s="156"/>
+      <c r="AB27" s="7">
+        <f t="shared" si="30"/>
+        <v>0.1291104952652247</v>
+      </c>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>130</v>
       </c>
       <c r="C28" s="4" t="e">
-        <f t="shared" ref="C28:G28" si="26">C13/C8</f>
+        <f t="shared" ref="C28:G28" si="31">C13/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.27034063922422324</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.31335725677830945</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.31902544667027616</v>
       </c>
-      <c r="G28" s="156">
-        <f t="shared" si="26"/>
+      <c r="G28" s="4">
+        <f t="shared" si="31"/>
         <v>0.24872552710843371</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" ref="H28" si="27">H13/H8</f>
+        <f t="shared" ref="H28" si="32">H13/H8</f>
         <v>0.2085387634621349</v>
       </c>
-      <c r="I28" s="115"/>
+      <c r="I28" s="114"/>
       <c r="N28" s="4">
-        <f t="shared" ref="N28:S28" si="28">N13/N8</f>
+        <f t="shared" ref="N28:S28" si="33">N13/N8</f>
         <v>0.33073891625615764</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.34039637599093991</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.31454734651404792</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.29582851637764934</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.26139152981849612</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.25401891252955083</v>
       </c>
       <c r="T28" s="4">
@@ -15821,35 +15830,35 @@
         <v>0.2400331125827814</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" ref="V28:W28" si="29">V13/V8</f>
+        <f t="shared" ref="V28:W28" si="34">V13/V8</f>
         <v>0.20951073985680191</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.2072533339315156</v>
       </c>
-      <c r="X28" s="156">
-        <f t="shared" ref="X28:Y28" si="30">X13/X8</f>
+      <c r="X28" s="4">
+        <f t="shared" ref="X28:Y28" si="35">X13/X8</f>
         <v>0.19932085111685721</v>
       </c>
-      <c r="Y28" s="156">
-        <f t="shared" si="30"/>
+      <c r="Y28" s="4">
+        <f t="shared" si="35"/>
         <v>0.21732884035281982</v>
       </c>
-      <c r="Z28" s="156">
-        <f t="shared" ref="Z28:AB28" si="31">Z13/Z8</f>
+      <c r="Z28" s="4">
+        <f t="shared" ref="Z28:AB28" si="36">Z13/Z8</f>
         <v>0.18834555014673179</v>
       </c>
-      <c r="AA28" s="7">
-        <f t="shared" si="31"/>
+      <c r="AA28" s="168">
+        <f t="shared" si="36"/>
         <v>0.18228846649356825</v>
       </c>
-      <c r="AB28" s="156">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="156"/>
+      <c r="AB28" s="7">
+        <f t="shared" si="36"/>
+        <v>0.16180307898407509</v>
+      </c>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -15858,22 +15867,22 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="e">
-        <f t="shared" ref="E29:H30" si="32">E3/D3-1</f>
+        <f t="shared" ref="E29:H30" si="37">E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.51355838406198129</v>
       </c>
-      <c r="G29" s="156">
-        <f t="shared" si="32"/>
+      <c r="G29" s="4">
+        <f t="shared" si="37"/>
         <v>0.4797074954296161</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.50118853471707436</v>
       </c>
-      <c r="I29" s="115"/>
+      <c r="I29" s="114"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -15891,22 +15900,22 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.16103896103896109</v>
       </c>
-      <c r="G30" s="156">
-        <f t="shared" si="32"/>
+      <c r="G30" s="4">
+        <f t="shared" si="37"/>
         <v>0.11633109619686799</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.10034068136272545</v>
       </c>
-      <c r="I30" s="115"/>
+      <c r="I30" s="114"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -15930,11 +15939,11 @@
         <f>-(E19/D19-1)</f>
         <v>-2.8100278904665337</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="38">
         <f>F19/E19-1</f>
         <v>-7.2870048413660182E-3</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="38">
         <f>G19/F19-1</f>
         <v>-1.2707938795689571</v>
       </c>
@@ -15942,11 +15951,11 @@
         <f>H19/G19-1</f>
         <v>4.4817427899492168</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="51">
         <f>I22/H22-1</f>
         <v>2.2537313432835826</v>
       </c>
-      <c r="J31" s="52">
+      <c r="J31" s="51">
         <f>J22/I22-1</f>
         <v>0.27522935779816504</v>
       </c>
@@ -15957,157 +15966,157 @@
         <v>-1.0543222377413883</v>
       </c>
       <c r="Q31" s="4" t="e">
-        <f t="shared" ref="Q31:V31" si="33">Q21/M21-1</f>
+        <f t="shared" ref="Q31:V31" si="38">Q21/M21-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>-0.80202487370739006</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>-1.237143128119623</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>-1.1432705683594535</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>-1.8240076599806869</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>-11.557913332075247</v>
       </c>
       <c r="W31" s="4">
-        <f>W21/S21-1</f>
+        <f t="shared" ref="W31:AB31" si="39">W21/S21-1</f>
         <v>5.3315788938657098</v>
       </c>
-      <c r="X31" s="156">
-        <f>X21/T21-1</f>
+      <c r="X31" s="4">
+        <f t="shared" si="39"/>
         <v>6.549103744160945</v>
       </c>
       <c r="Y31" s="4">
-        <f>Y21/U21-1</f>
+        <f t="shared" si="39"/>
         <v>8.3367423940702512E-2</v>
       </c>
       <c r="Z31" s="4">
-        <f>Z21/V21-1</f>
+        <f t="shared" si="39"/>
         <v>0.23839746421916863</v>
       </c>
-      <c r="AA31" s="7">
-        <f>AA21/W21-1</f>
+      <c r="AA31" s="168">
+        <f t="shared" si="39"/>
         <v>0.77037056910944468</v>
       </c>
-      <c r="AB31" s="156">
-        <f>AB21/X21-1</f>
-        <v>2.2448979591836737</v>
-      </c>
-      <c r="AC31" s="156">
-        <f t="shared" ref="AB31:AD31" si="34">AC21/Y21-1</f>
+      <c r="AB31" s="7">
+        <f t="shared" si="39"/>
+        <v>10.950226984581407</v>
+      </c>
+      <c r="AC31" s="4">
+        <f t="shared" ref="AC31" si="40">AC21/Y21-1</f>
         <v>4.6435249448410136</v>
       </c>
-      <c r="AD31" s="156"/>
+      <c r="AD31" s="4"/>
     </row>
     <row r="34" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" ref="C34:E34" si="35">C35</f>
+        <f t="shared" ref="C34:E34" si="41">C35</f>
         <v>0</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>120.49</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>553.99199999999996</v>
       </c>
       <c r="F34" s="11">
         <f>F35</f>
         <v>608.17999999999995</v>
       </c>
-      <c r="G34" s="152">
+      <c r="G34" s="11">
         <f>G35</f>
         <v>747.61</v>
       </c>
       <c r="H34" s="14">
-        <f t="shared" ref="H34:J34" si="36">H35</f>
+        <f t="shared" ref="H34:J34" si="42">H35</f>
         <v>877.6450000000001</v>
       </c>
-      <c r="I34" s="152">
-        <f t="shared" si="36"/>
+      <c r="I34" s="11">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="J34" s="152">
-        <f t="shared" si="36"/>
+      <c r="J34" s="11">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" ref="N34:AC34" si="37">N35</f>
+        <f t="shared" ref="N34:AC34" si="43">N35</f>
         <v>0</v>
       </c>
       <c r="O34" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P34" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q34" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>608.17999999999995</v>
       </c>
       <c r="R34" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>641.09100000000001</v>
       </c>
       <c r="S34" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>678.66499999999996</v>
       </c>
       <c r="T34" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>701.73699999999997</v>
       </c>
       <c r="U34" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>747.61</v>
       </c>
       <c r="V34" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>829.71299999999997</v>
       </c>
       <c r="W34" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>888.24</v>
       </c>
-      <c r="X34" s="152">
-        <f t="shared" si="37"/>
+      <c r="X34" s="11">
+        <f t="shared" si="43"/>
         <v>880.76300000000003</v>
       </c>
       <c r="Y34" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>877.6450000000001</v>
       </c>
       <c r="Z34" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>999.28</v>
       </c>
-      <c r="AA34" s="14">
-        <f t="shared" si="37"/>
+      <c r="AA34" s="164">
+        <f t="shared" si="43"/>
         <v>1097.883</v>
       </c>
-      <c r="AB34" s="11">
-        <f t="shared" si="37"/>
-        <v>0</v>
+      <c r="AB34" s="14">
+        <f t="shared" si="43"/>
+        <v>1121.454</v>
       </c>
       <c r="AC34" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -16125,7 +16134,7 @@
       <c r="F35" s="10">
         <v>608.17999999999995</v>
       </c>
-      <c r="G35" s="153">
+      <c r="G35" s="10">
         <v>747.61</v>
       </c>
       <c r="H35" s="15">
@@ -16158,23 +16167,26 @@
       <c r="W35" s="10">
         <v>888.24</v>
       </c>
-      <c r="X35" s="153">
+      <c r="X35" s="10">
         <f>854.409+26.354</f>
         <v>880.76300000000003</v>
       </c>
       <c r="Y35" s="10">
-        <f>+785.791+91.854</f>
+        <f>785.791+91.854</f>
         <v>877.6450000000001</v>
       </c>
       <c r="Z35" s="10">
         <f>883.996+115.284</f>
         <v>999.28</v>
       </c>
-      <c r="AA35" s="15">
+      <c r="AA35" s="165">
         <f>976.231+121.652</f>
         <v>1097.883</v>
       </c>
-      <c r="AB35" s="10"/>
+      <c r="AB35" s="15">
+        <f>1011.542+109.912</f>
+        <v>1121.454</v>
+      </c>
       <c r="AC35" s="10"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
@@ -16191,11 +16203,11 @@
       <c r="F36" s="10">
         <v>46.728000000000002</v>
       </c>
-      <c r="G36" s="153">
+      <c r="G36" s="10">
         <v>88.974999999999994</v>
       </c>
       <c r="H36" s="15">
-        <f t="shared" ref="H36:H38" si="38">Y36</f>
+        <f t="shared" ref="H36:H38" si="44">Y36</f>
         <v>128.923</v>
       </c>
       <c r="N36" s="10"/>
@@ -16224,7 +16236,7 @@
       <c r="W36" s="10">
         <v>77.721999999999994</v>
       </c>
-      <c r="X36" s="153">
+      <c r="X36" s="10">
         <v>94.215000000000003</v>
       </c>
       <c r="Y36" s="10">
@@ -16233,10 +16245,12 @@
       <c r="Z36" s="10">
         <v>114.18300000000001</v>
       </c>
-      <c r="AA36" s="15">
+      <c r="AA36" s="165">
         <v>112.919</v>
       </c>
-      <c r="AB36" s="10"/>
+      <c r="AB36" s="15">
+        <v>124.489</v>
+      </c>
       <c r="AC36" s="10"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
@@ -16253,11 +16267,11 @@
       <c r="F37" s="10">
         <v>35.040999999999997</v>
       </c>
-      <c r="G37" s="153">
+      <c r="G37" s="10">
         <v>53.930999999999997</v>
       </c>
       <c r="H37" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>80.162000000000006</v>
       </c>
       <c r="N37" s="10"/>
@@ -16286,7 +16300,7 @@
       <c r="W37" s="10">
         <v>63.284999999999997</v>
       </c>
-      <c r="X37" s="153">
+      <c r="X37" s="10">
         <v>67.328999999999994</v>
       </c>
       <c r="Y37" s="10">
@@ -16295,10 +16309,12 @@
       <c r="Z37" s="10">
         <v>89.563999999999993</v>
       </c>
-      <c r="AA37" s="15">
+      <c r="AA37" s="165">
         <v>93.793999999999997</v>
       </c>
-      <c r="AB37" s="10"/>
+      <c r="AB37" s="15">
+        <v>94.57</v>
+      </c>
       <c r="AC37" s="10"/>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
@@ -16315,11 +16331,11 @@
       <c r="F38" s="10">
         <v>7.234</v>
       </c>
-      <c r="G38" s="153">
+      <c r="G38" s="10">
         <v>7.282</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>14.858000000000001</v>
       </c>
       <c r="N38" s="10"/>
@@ -16348,7 +16364,7 @@
       <c r="W38" s="10">
         <v>12.317</v>
       </c>
-      <c r="X38" s="153">
+      <c r="X38" s="10">
         <v>16.13</v>
       </c>
       <c r="Y38" s="10">
@@ -16357,10 +16373,12 @@
       <c r="Z38" s="10">
         <v>16.63</v>
       </c>
-      <c r="AA38" s="15">
+      <c r="AA38" s="165">
         <v>19.393999999999998</v>
       </c>
-      <c r="AB38" s="10"/>
+      <c r="AB38" s="15">
+        <v>26.591999999999999</v>
+      </c>
       <c r="AC38" s="10"/>
     </row>
     <row r="39" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16383,84 +16401,84 @@
         <f>SUM(F35:F38)</f>
         <v>697.18299999999988</v>
       </c>
-      <c r="G39" s="152">
+      <c r="G39" s="11">
         <f>SUM(G35:G38)</f>
         <v>897.79800000000012</v>
       </c>
       <c r="H39" s="14">
-        <f t="shared" ref="H39:J39" si="39">SUM(H35:H38)</f>
+        <f t="shared" ref="H39:J39" si="45">SUM(H35:H38)</f>
         <v>1101.588</v>
       </c>
-      <c r="I39" s="152">
-        <f t="shared" si="39"/>
+      <c r="I39" s="11">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="J39" s="152">
-        <f t="shared" si="39"/>
+      <c r="J39" s="11">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N39" s="11">
-        <f t="shared" ref="N39:U39" si="40">SUM(N35:N38)</f>
+        <f t="shared" ref="N39:U39" si="46">SUM(N35:N38)</f>
         <v>0</v>
       </c>
       <c r="O39" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="P39" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Q39" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>697.18299999999988</v>
       </c>
       <c r="R39" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>741.23400000000004</v>
       </c>
       <c r="S39" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>784.94099999999992</v>
       </c>
       <c r="T39" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>819.10500000000002</v>
       </c>
       <c r="U39" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>897.79800000000012</v>
       </c>
       <c r="V39" s="11">
-        <f t="shared" ref="V39:AC39" si="41">SUM(V35:V38)</f>
+        <f t="shared" ref="V39:AC39" si="47">SUM(V35:V38)</f>
         <v>977.27800000000002</v>
       </c>
       <c r="W39" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>1041.5640000000001</v>
       </c>
-      <c r="X39" s="152">
-        <f t="shared" si="41"/>
+      <c r="X39" s="11">
+        <f t="shared" si="47"/>
         <v>1058.4370000000001</v>
       </c>
       <c r="Y39" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>1101.588</v>
       </c>
       <c r="Z39" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>1219.6570000000002</v>
       </c>
-      <c r="AA39" s="14">
-        <f t="shared" si="41"/>
+      <c r="AA39" s="164">
+        <f t="shared" si="47"/>
         <v>1323.9900000000002</v>
       </c>
-      <c r="AB39" s="11">
-        <f t="shared" si="41"/>
-        <v>0</v>
+      <c r="AB39" s="14">
+        <f t="shared" si="47"/>
+        <v>1367.105</v>
       </c>
       <c r="AC39" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -16478,9 +16496,9 @@
       <c r="F40" s="10">
         <v>12.968999999999999</v>
       </c>
-      <c r="G40" s="153"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="15">
-        <f t="shared" ref="H40:H45" si="42">Y40</f>
+        <f t="shared" ref="H40:H45" si="48">Y40</f>
         <v>18.943000000000001</v>
       </c>
       <c r="N40" s="10"/>
@@ -16497,7 +16515,7 @@
       <c r="W40" s="10">
         <v>18.343</v>
       </c>
-      <c r="X40" s="153">
+      <c r="X40" s="10">
         <v>48.624000000000002</v>
       </c>
       <c r="Y40" s="10">
@@ -16506,10 +16524,10 @@
       <c r="Z40" s="10">
         <v>19.161000000000001</v>
       </c>
-      <c r="AA40" s="15">
+      <c r="AA40" s="165">
         <v>19.684999999999999</v>
       </c>
-      <c r="AB40" s="10"/>
+      <c r="AB40" s="15"/>
       <c r="AC40" s="10"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.25">
@@ -16524,9 +16542,9 @@
       <c r="F41" s="10">
         <v>4.05</v>
       </c>
-      <c r="G41" s="153"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>10.538</v>
       </c>
       <c r="N41" s="10"/>
@@ -16543,7 +16561,7 @@
       <c r="W41" s="10">
         <v>4.05</v>
       </c>
-      <c r="X41" s="153">
+      <c r="X41" s="10">
         <v>10.538</v>
       </c>
       <c r="Y41" s="10">
@@ -16552,10 +16570,10 @@
       <c r="Z41" s="10">
         <v>10.538</v>
       </c>
-      <c r="AA41" s="15">
+      <c r="AA41" s="165">
         <v>10.538</v>
       </c>
-      <c r="AB41" s="10"/>
+      <c r="AB41" s="15"/>
       <c r="AC41" s="10"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.25">
@@ -16572,9 +16590,9 @@
       <c r="F42" s="10">
         <v>8.4969999999999999</v>
       </c>
-      <c r="G42" s="153"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>19.899000000000001</v>
       </c>
       <c r="N42" s="10"/>
@@ -16591,7 +16609,7 @@
       <c r="W42" s="10">
         <v>20.585999999999999</v>
       </c>
-      <c r="X42" s="153">
+      <c r="X42" s="10">
         <v>21.9</v>
       </c>
       <c r="Y42" s="10">
@@ -16600,10 +16618,10 @@
       <c r="Z42" s="10">
         <v>18.872</v>
       </c>
-      <c r="AA42" s="15">
+      <c r="AA42" s="165">
         <v>19.923999999999999</v>
       </c>
-      <c r="AB42" s="10"/>
+      <c r="AB42" s="15"/>
       <c r="AC42" s="10"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
@@ -16614,9 +16632,9 @@
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="153"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>98.292000000000002</v>
       </c>
       <c r="N43" s="10"/>
@@ -16629,7 +16647,7 @@
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
-      <c r="X43" s="153">
+      <c r="X43" s="10">
         <v>55.328000000000003</v>
       </c>
       <c r="Y43" s="10">
@@ -16638,10 +16656,10 @@
       <c r="Z43" s="10">
         <v>83.341999999999999</v>
       </c>
-      <c r="AA43" s="15">
+      <c r="AA43" s="165">
         <v>75.361999999999995</v>
       </c>
-      <c r="AB43" s="10"/>
+      <c r="AB43" s="15"/>
       <c r="AC43" s="10"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
@@ -16658,9 +16676,9 @@
       <c r="F44" s="10">
         <v>22</v>
       </c>
-      <c r="G44" s="153"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>47.494999999999997</v>
       </c>
       <c r="N44" s="10"/>
@@ -16677,7 +16695,7 @@
       <c r="W44" s="10">
         <v>49.76</v>
       </c>
-      <c r="X44" s="153">
+      <c r="X44" s="10">
         <f>19.495+2.735</f>
         <v>22.23</v>
       </c>
@@ -16687,10 +16705,10 @@
       <c r="Z44" s="10">
         <v>46.369</v>
       </c>
-      <c r="AA44" s="15">
+      <c r="AA44" s="165">
         <v>80.986999999999995</v>
       </c>
-      <c r="AB44" s="10"/>
+      <c r="AB44" s="15"/>
       <c r="AC44" s="10"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
@@ -16705,9 +16723,9 @@
       <c r="F45" s="10">
         <v>0.63300000000000001</v>
       </c>
-      <c r="G45" s="153"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="N45" s="10"/>
@@ -16726,7 +16744,7 @@
         <f>2.735+0.835</f>
         <v>3.57</v>
       </c>
-      <c r="X45" s="153">
+      <c r="X45" s="10">
         <v>0.83499999999999996</v>
       </c>
       <c r="Y45" s="10">
@@ -16735,10 +16753,10 @@
       <c r="Z45" s="10">
         <v>0.67500000000000004</v>
       </c>
-      <c r="AA45" s="15">
+      <c r="AA45" s="165">
         <v>0.67500000000000004</v>
       </c>
-      <c r="AB45" s="10"/>
+      <c r="AB45" s="15"/>
       <c r="AC45" s="10"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.25">
@@ -16755,7 +16773,7 @@
       <c r="F46" s="10">
         <v>1.5069999999999999</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="10">
         <v>56.158999999999999</v>
       </c>
       <c r="H46" s="15">
@@ -16788,7 +16806,7 @@
       <c r="W46" s="10">
         <v>1.57</v>
       </c>
-      <c r="X46" s="153">
+      <c r="X46" s="10">
         <v>1.657</v>
       </c>
       <c r="Y46" s="10">
@@ -16799,11 +16817,13 @@
         <f>2.735+1.797</f>
         <v>4.532</v>
       </c>
-      <c r="AA46" s="15">
+      <c r="AA46" s="165">
         <f>2.735+8.663</f>
         <v>11.398</v>
       </c>
-      <c r="AB46" s="10"/>
+      <c r="AB46" s="15">
+        <v>518.53300000000002</v>
+      </c>
       <c r="AC46" s="10"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.25">
@@ -16826,84 +16846,84 @@
         <f>SUM(F39:F46)</f>
         <v>746.83899999999983</v>
       </c>
-      <c r="G47" s="152">
+      <c r="G47" s="11">
         <f>SUM(G39:G46)</f>
         <v>953.95700000000011</v>
       </c>
       <c r="H47" s="14">
-        <f t="shared" ref="H47:J47" si="43">SUM(H39:H46)</f>
+        <f t="shared" ref="H47:J47" si="49">SUM(H39:H46)</f>
         <v>1301.7279999999996</v>
       </c>
-      <c r="I47" s="152">
-        <f t="shared" si="43"/>
+      <c r="I47" s="11">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J47" s="152">
-        <f t="shared" si="43"/>
+      <c r="J47" s="11">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N47" s="11">
-        <f t="shared" ref="N47:U47" si="44">SUM(N39:N46)</f>
+        <f t="shared" ref="N47:U47" si="50">SUM(N39:N46)</f>
         <v>0</v>
       </c>
       <c r="O47" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P47" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>698.68999999999983</v>
       </c>
       <c r="R47" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>790.37900000000002</v>
       </c>
       <c r="S47" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>834.80299999999988</v>
       </c>
       <c r="T47" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>870.71400000000006</v>
       </c>
       <c r="U47" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>953.95700000000011</v>
       </c>
       <c r="V47" s="11">
-        <f t="shared" ref="V47:AC47" si="45">SUM(V39:V46)</f>
+        <f t="shared" ref="V47:AC47" si="51">SUM(V39:V46)</f>
         <v>1068.6669999999999</v>
       </c>
       <c r="W47" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1139.443</v>
       </c>
-      <c r="X47" s="152">
-        <f t="shared" si="45"/>
+      <c r="X47" s="11">
+        <f t="shared" si="51"/>
         <v>1219.5490000000002</v>
       </c>
       <c r="Y47" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1301.7279999999996</v>
       </c>
       <c r="Z47" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1403.1460000000002</v>
       </c>
-      <c r="AA47" s="14">
-        <f t="shared" si="45"/>
+      <c r="AA47" s="164">
+        <f t="shared" si="51"/>
         <v>1542.5590000000002</v>
       </c>
-      <c r="AB47" s="11">
-        <f t="shared" si="45"/>
-        <v>0</v>
+      <c r="AB47" s="14">
+        <f t="shared" si="51"/>
+        <v>1885.6379999999999</v>
       </c>
       <c r="AC47" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -16921,11 +16941,11 @@
       <c r="F48" s="10">
         <v>1.177</v>
       </c>
-      <c r="G48" s="153">
+      <c r="G48" s="10">
         <v>2.4470000000000001</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" ref="H48:H51" si="46">Y48</f>
+        <f t="shared" ref="H48:H51" si="52">Y48</f>
         <v>6.3810000000000002</v>
       </c>
       <c r="N48" s="10"/>
@@ -16954,7 +16974,7 @@
       <c r="W48" s="10">
         <v>3.4049999999999998</v>
       </c>
-      <c r="X48" s="153">
+      <c r="X48" s="10">
         <v>3.649</v>
       </c>
       <c r="Y48" s="10">
@@ -16963,10 +16983,12 @@
       <c r="Z48" s="10">
         <v>2.5459999999999998</v>
       </c>
-      <c r="AA48" s="15">
+      <c r="AA48" s="165">
         <v>7.7290000000000001</v>
       </c>
-      <c r="AB48" s="10"/>
+      <c r="AB48" s="15">
+        <v>3.5680000000000001</v>
+      </c>
       <c r="AC48" s="10"/>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.25">
@@ -16983,11 +17005,11 @@
       <c r="F49" s="10">
         <v>157.55000000000001</v>
       </c>
-      <c r="G49" s="153">
+      <c r="G49" s="10">
         <v>249.19200000000001</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>372.88400000000001</v>
       </c>
       <c r="N49" s="10"/>
@@ -17016,7 +17038,7 @@
       <c r="W49" s="10">
         <v>291.47699999999998</v>
       </c>
-      <c r="X49" s="153">
+      <c r="X49" s="10">
         <v>310.60300000000001</v>
       </c>
       <c r="Y49" s="10">
@@ -17025,10 +17047,12 @@
       <c r="Z49" s="10">
         <v>415.02300000000002</v>
       </c>
-      <c r="AA49" s="15">
+      <c r="AA49" s="165">
         <v>431.17700000000002</v>
       </c>
-      <c r="AB49" s="10"/>
+      <c r="AB49" s="15">
+        <v>441.72800000000001</v>
+      </c>
       <c r="AC49" s="10"/>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.25">
@@ -17045,9 +17069,9 @@
       <c r="F50" s="10">
         <v>1.069</v>
       </c>
-      <c r="G50" s="153"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>6.5910000000000002</v>
       </c>
       <c r="N50" s="10"/>
@@ -17064,7 +17088,7 @@
       <c r="W50" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="X50" s="153">
+      <c r="X50" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="Y50" s="10">
@@ -17073,10 +17097,12 @@
       <c r="Z50" s="10">
         <v>6.3810000000000002</v>
       </c>
-      <c r="AA50" s="15">
+      <c r="AA50" s="165">
         <v>2.4E-2</v>
       </c>
-      <c r="AB50" s="10"/>
+      <c r="AB50" s="15">
+        <v>0</v>
+      </c>
       <c r="AC50" s="10"/>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.25">
@@ -17093,11 +17119,11 @@
       <c r="F51" s="10">
         <v>21.97</v>
       </c>
-      <c r="G51" s="153">
+      <c r="G51" s="10">
         <v>25.722999999999999</v>
       </c>
       <c r="H51" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>36.375</v>
       </c>
       <c r="N51" s="10"/>
@@ -17126,7 +17152,7 @@
       <c r="W51" s="10">
         <v>22.803999999999998</v>
       </c>
-      <c r="X51" s="153">
+      <c r="X51" s="10">
         <v>27.844999999999999</v>
       </c>
       <c r="Y51" s="10">
@@ -17135,10 +17161,12 @@
       <c r="Z51" s="10">
         <v>30.535</v>
       </c>
-      <c r="AA51" s="15">
+      <c r="AA51" s="165">
         <v>32.453000000000003</v>
       </c>
-      <c r="AB51" s="10"/>
+      <c r="AB51" s="15">
+        <v>39.244</v>
+      </c>
       <c r="AC51" s="10"/>
     </row>
     <row r="52" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17161,84 +17189,84 @@
         <f>SUM(F48:F51)</f>
         <v>181.76599999999999</v>
       </c>
-      <c r="G52" s="152">
+      <c r="G52" s="11">
         <f>SUM(G48:G51)</f>
         <v>277.36200000000002</v>
       </c>
       <c r="H52" s="14">
-        <f t="shared" ref="H52:J52" si="47">SUM(H48:H51)</f>
+        <f t="shared" ref="H52:J52" si="53">SUM(H48:H51)</f>
         <v>422.23099999999999</v>
       </c>
-      <c r="I52" s="152">
-        <f t="shared" si="47"/>
+      <c r="I52" s="11">
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="J52" s="152">
-        <f t="shared" si="47"/>
+      <c r="J52" s="11">
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" ref="N52:U52" si="48">SUM(N48:N51)</f>
+        <f t="shared" ref="N52:U52" si="54">SUM(N48:N51)</f>
         <v>0</v>
       </c>
       <c r="O52" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="P52" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q52" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>180.697</v>
       </c>
       <c r="R52" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>202.81299999999999</v>
       </c>
       <c r="S52" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>217.10599999999999</v>
       </c>
       <c r="T52" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>234.934</v>
       </c>
       <c r="U52" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>277.36200000000002</v>
       </c>
       <c r="V52" s="11">
-        <f t="shared" ref="V52:AC52" si="49">SUM(V48:V51)</f>
+        <f t="shared" ref="V52:AC52" si="55">SUM(V48:V51)</f>
         <v>303.72200000000004</v>
       </c>
       <c r="W52" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>317.72399999999993</v>
       </c>
-      <c r="X52" s="152">
-        <f t="shared" si="49"/>
+      <c r="X52" s="11">
+        <f t="shared" si="55"/>
         <v>342.13300000000004</v>
       </c>
       <c r="Y52" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>422.23099999999999</v>
       </c>
       <c r="Z52" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>454.48500000000007</v>
       </c>
-      <c r="AA52" s="14">
-        <f t="shared" si="49"/>
+      <c r="AA52" s="164">
+        <f t="shared" si="55"/>
         <v>471.38300000000004</v>
       </c>
-      <c r="AB52" s="11">
-        <f t="shared" si="49"/>
-        <v>0</v>
+      <c r="AB52" s="14">
+        <f t="shared" si="55"/>
+        <v>484.53999999999996</v>
       </c>
       <c r="AC52" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -17256,11 +17284,11 @@
       <c r="F53" s="10">
         <v>23.503</v>
       </c>
-      <c r="G53" s="153">
+      <c r="G53" s="10">
         <v>21.094000000000001</v>
       </c>
       <c r="H53" s="15">
-        <f t="shared" ref="H53:H54" si="50">Y53</f>
+        <f t="shared" ref="H53:H54" si="56">Y53</f>
         <v>54.655999999999999</v>
       </c>
       <c r="N53" s="10"/>
@@ -17289,7 +17317,7 @@
       <c r="W53" s="10">
         <v>54.774999999999999</v>
       </c>
-      <c r="X53" s="153">
+      <c r="X53" s="10">
         <v>54.651000000000003</v>
       </c>
       <c r="Y53" s="10">
@@ -17298,10 +17326,12 @@
       <c r="Z53" s="10">
         <v>54.533000000000001</v>
       </c>
-      <c r="AA53" s="15">
+      <c r="AA53" s="165">
         <v>93.843000000000004</v>
       </c>
-      <c r="AB53" s="10"/>
+      <c r="AB53" s="15">
+        <v>93.257000000000005</v>
+      </c>
       <c r="AC53" s="10"/>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.25">
@@ -17312,9 +17342,9 @@
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="153"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.29099999999999998</v>
       </c>
       <c r="N54" s="10"/>
@@ -17327,7 +17357,7 @@
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
-      <c r="X54" s="153">
+      <c r="X54" s="10">
         <v>0.312</v>
       </c>
       <c r="Y54" s="10">
@@ -17336,10 +17366,12 @@
       <c r="Z54" s="10">
         <v>0.30199999999999999</v>
       </c>
-      <c r="AA54" s="15">
+      <c r="AA54" s="165">
         <v>0.30199999999999999</v>
       </c>
-      <c r="AB54" s="10"/>
+      <c r="AB54" s="15">
+        <v>0.30199999999999999</v>
+      </c>
       <c r="AC54" s="10"/>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.25">
@@ -17362,64 +17394,64 @@
         <f>SUM(F52:F53)</f>
         <v>205.26900000000001</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="11">
         <f>SUM(G52:G53)</f>
         <v>298.45600000000002</v>
       </c>
       <c r="H55" s="14">
-        <f t="shared" ref="H55:K55" si="51">SUM(H52:H53)</f>
+        <f t="shared" ref="H55:J55" si="57">SUM(H52:H53)</f>
         <v>476.887</v>
       </c>
-      <c r="I55" s="152">
-        <f t="shared" si="51"/>
+      <c r="I55" s="11">
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="J55" s="152">
-        <f t="shared" si="51"/>
+      <c r="J55" s="11">
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="K55" s="152"/>
+      <c r="K55" s="11"/>
       <c r="N55" s="11">
-        <f t="shared" ref="N55:W55" si="52">SUM(N52:N53)</f>
+        <f t="shared" ref="N55:W55" si="58">SUM(N52:N53)</f>
         <v>0</v>
       </c>
       <c r="O55" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P55" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="Q55" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>204.2</v>
       </c>
       <c r="R55" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>225.19099999999997</v>
       </c>
       <c r="S55" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>238.398</v>
       </c>
       <c r="T55" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>255.89499999999998</v>
       </c>
       <c r="U55" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>298.45600000000002</v>
       </c>
       <c r="V55" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>357.61500000000001</v>
       </c>
       <c r="W55" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>372.49899999999991</v>
       </c>
-      <c r="X55" s="152">
+      <c r="X55" s="11">
         <f>SUM(X52:X54)</f>
         <v>397.09600000000006</v>
       </c>
@@ -17428,19 +17460,19 @@
         <v>477.178</v>
       </c>
       <c r="Z55" s="11">
-        <f t="shared" ref="Z55:AC55" si="53">SUM(Z52:Z54)</f>
+        <f t="shared" ref="Z55:AC55" si="59">SUM(Z52:Z54)</f>
         <v>509.32000000000011</v>
       </c>
-      <c r="AA55" s="14">
-        <f t="shared" si="53"/>
+      <c r="AA55" s="164">
+        <f t="shared" si="59"/>
         <v>565.52800000000002</v>
       </c>
-      <c r="AB55" s="11">
-        <f t="shared" si="53"/>
-        <v>0</v>
+      <c r="AB55" s="14">
+        <f t="shared" si="59"/>
+        <v>578.09900000000005</v>
       </c>
       <c r="AC55" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
@@ -17464,97 +17496,95 @@
         <f>F47-F55</f>
         <v>541.56999999999982</v>
       </c>
-      <c r="G56" s="153">
+      <c r="G56" s="10">
         <f>G47-G55</f>
         <v>655.50100000000009</v>
       </c>
       <c r="H56" s="15">
-        <f t="shared" ref="H56:K56" si="54">H47-H55</f>
+        <f t="shared" ref="H56:J56" si="60">H47-H55</f>
         <v>824.84099999999967</v>
       </c>
-      <c r="I56" s="153">
-        <f t="shared" si="54"/>
+      <c r="I56" s="10">
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="J56" s="153">
-        <f t="shared" si="54"/>
+      <c r="J56" s="10">
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="K56" s="153"/>
+      <c r="K56" s="10"/>
       <c r="Q56" s="10">
-        <f t="shared" ref="Q56:Y56" si="55">Q47-Q55</f>
+        <f t="shared" ref="Q56:Y56" si="61">Q47-Q55</f>
         <v>494.48999999999984</v>
       </c>
       <c r="R56" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>565.1880000000001</v>
       </c>
       <c r="S56" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>596.40499999999986</v>
       </c>
       <c r="T56" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>614.81900000000007</v>
       </c>
       <c r="U56" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>655.50100000000009</v>
       </c>
       <c r="V56" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>711.05199999999991</v>
       </c>
       <c r="W56" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>766.94400000000007</v>
       </c>
-      <c r="X56" s="153">
-        <f t="shared" si="55"/>
+      <c r="X56" s="10">
+        <f t="shared" si="61"/>
         <v>822.4530000000002</v>
       </c>
       <c r="Y56" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>824.54999999999961</v>
       </c>
       <c r="Z56" s="10">
-        <f t="shared" ref="Z56:AC56" si="56">Z47-Z55</f>
+        <f t="shared" ref="Z56:AC56" si="62">Z47-Z55</f>
         <v>893.82600000000002</v>
       </c>
-      <c r="AA56" s="15">
-        <f t="shared" si="56"/>
+      <c r="AA56" s="165">
+        <f t="shared" si="62"/>
         <v>977.03100000000018</v>
       </c>
-      <c r="AB56" s="10">
-        <f t="shared" si="56"/>
+      <c r="AB56" s="15">
+        <f t="shared" si="62"/>
+        <v>1307.5389999999998</v>
+      </c>
+      <c r="AC56" s="10">
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="AC56" s="10">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="58" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="157"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="131"/>
       <c r="H58" s="16"/>
-      <c r="X58" s="159"/>
-      <c r="AA58" s="16"/>
-    </row>
-    <row r="76" spans="7:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G76" s="158"/>
-      <c r="H76" s="41"/>
-      <c r="X76" s="158"/>
-      <c r="AA76" s="41"/>
-    </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G77" s="159"/>
+      <c r="AA58" s="167"/>
+      <c r="AB58" s="16"/>
+    </row>
+    <row r="76" spans="8:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="40"/>
+      <c r="AA76" s="170"/>
+      <c r="AB76" s="40"/>
+    </row>
+    <row r="77" spans="8:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H77" s="16"/>
-      <c r="X77" s="159"/>
-      <c r="AA77" s="16"/>
+      <c r="AA77" s="167"/>
+      <c r="AB77" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17598,10 +17628,10 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17720,6 +17750,9 @@
       <c r="V2">
         <v>47.7</v>
       </c>
+      <c r="W2">
+        <v>50.5</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -17767,6 +17800,9 @@
       <c r="V3">
         <v>128.30000000000001</v>
       </c>
+      <c r="W3">
+        <v>135.30000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -17814,58 +17850,61 @@
       <c r="V4">
         <v>10.9</v>
       </c>
+      <c r="W4">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119">
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J5" s="119">
+      <c r="J5" s="118">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K5" s="119">
+      <c r="K5" s="118">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="L5" s="119">
+      <c r="L5" s="118">
         <v>7.8E-2</v>
       </c>
-      <c r="M5" s="119">
+      <c r="M5" s="118">
         <v>0.08</v>
       </c>
-      <c r="N5" s="119">
+      <c r="N5" s="118">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="O5" s="119">
+      <c r="O5" s="118">
         <v>0.08</v>
       </c>
-      <c r="P5" s="119">
+      <c r="P5" s="118">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q5" s="119">
+      <c r="Q5" s="118">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="R5" s="119">
+      <c r="R5" s="118">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="S5" s="119">
+      <c r="S5" s="118">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="T5" s="119">
+      <c r="T5" s="118">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="U5" s="119">
+      <c r="U5" s="118">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="V5" s="119">
+      <c r="V5" s="118">
         <v>0.09</v>
       </c>
     </row>
@@ -17873,142 +17912,151 @@
       <c r="A7" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="130">
+      <c r="M7" s="119">
         <f t="shared" ref="M7:N7" si="0">M2/I2-1</f>
         <v>0.62400000000000011</v>
       </c>
-      <c r="N7" s="130">
+      <c r="N7" s="119">
         <f t="shared" si="0"/>
         <v>0.6212121212121211</v>
       </c>
-      <c r="O7" s="130">
+      <c r="O7" s="129">
         <f t="shared" ref="O7:P9" si="1">O2/K2-1</f>
         <v>0.62416107382550323</v>
       </c>
-      <c r="P7" s="130">
+      <c r="P7" s="129">
         <f t="shared" si="1"/>
         <v>0.65030674846625747</v>
       </c>
-      <c r="Q7" s="130">
+      <c r="Q7" s="129">
         <f t="shared" ref="Q7:Q9" si="2">Q2/M2-1</f>
         <v>0.54679802955665013</v>
       </c>
-      <c r="R7" s="131">
+      <c r="R7" s="129">
         <f t="shared" ref="R7:S9" si="3">R2/N2-1</f>
         <v>0.59345794392523388</v>
       </c>
-      <c r="S7" s="131">
+      <c r="S7" s="129">
         <f t="shared" si="3"/>
         <v>0.53719008264462831</v>
       </c>
-      <c r="T7" s="131">
+      <c r="T7" s="129">
         <f t="shared" ref="T7:T9" si="4">T2/P2-1</f>
         <v>0.50557620817843874</v>
       </c>
-      <c r="U7" s="131">
-        <f t="shared" ref="U7:V9" si="5">U2/Q2-1</f>
+      <c r="U7" s="129">
+        <f t="shared" ref="U7:W9" si="5">U2/Q2-1</f>
         <v>0.48407643312101922</v>
       </c>
-      <c r="V7" s="131">
+      <c r="V7" s="129">
         <f t="shared" si="5"/>
         <v>0.39882697947214085</v>
       </c>
-      <c r="W7" s="131"/>
+      <c r="W7" s="129">
+        <f t="shared" si="5"/>
+        <v>0.35752688172043001</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="130">
+      <c r="M8" s="119">
         <f t="shared" ref="M8:N8" si="6">M3/I3-1</f>
         <v>0.47560975609756073</v>
       </c>
-      <c r="N8" s="130">
+      <c r="N8" s="119">
         <f t="shared" si="6"/>
         <v>0.49696969696969684</v>
       </c>
-      <c r="O8" s="130">
+      <c r="O8" s="129">
         <f t="shared" si="1"/>
         <v>0.47079646017699095</v>
       </c>
-      <c r="P8" s="130">
+      <c r="P8" s="129">
         <f t="shared" si="1"/>
         <v>0.45634266886326191</v>
       </c>
-      <c r="Q8" s="131">
+      <c r="Q8" s="129">
         <f t="shared" si="2"/>
         <v>0.34435261707988984</v>
       </c>
-      <c r="R8" s="131">
+      <c r="R8" s="129">
         <f t="shared" si="3"/>
         <v>0.3981106612685561</v>
       </c>
-      <c r="S8" s="131">
+      <c r="S8" s="129">
         <f t="shared" si="3"/>
         <v>0.36101083032490977</v>
       </c>
-      <c r="T8" s="131">
+      <c r="T8" s="129">
         <f t="shared" si="4"/>
         <v>0.32013574660633481</v>
       </c>
-      <c r="U8" s="131">
+      <c r="U8" s="129">
         <f t="shared" si="5"/>
         <v>0.33401639344262302</v>
       </c>
-      <c r="V8" s="131">
+      <c r="V8" s="129">
         <f t="shared" si="5"/>
         <v>0.23841698841698866</v>
       </c>
-      <c r="W8" s="131"/>
+      <c r="W8" s="129">
+        <f t="shared" si="5"/>
+        <v>0.19628647214854134</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
-      <c r="M9" s="120">
+      <c r="M9" s="119">
         <f t="shared" ref="M9:N9" si="7">M4/I4-1</f>
         <v>0.65517241379310343</v>
       </c>
-      <c r="N9" s="120">
+      <c r="N9" s="119">
         <f t="shared" si="7"/>
         <v>0.57575757575757591</v>
       </c>
-      <c r="O9" s="120">
+      <c r="O9" s="129">
         <f t="shared" si="1"/>
         <v>0.56756756756756754</v>
       </c>
-      <c r="P9" s="120">
+      <c r="P9" s="129">
         <f t="shared" si="1"/>
         <v>0.57142857142857117</v>
       </c>
-      <c r="Q9" s="120">
+      <c r="Q9" s="129">
         <f t="shared" si="2"/>
         <v>0.54166666666666674</v>
       </c>
-      <c r="R9" s="120">
+      <c r="R9" s="129">
         <f t="shared" si="3"/>
         <v>0.53846153846153832</v>
       </c>
-      <c r="S9" s="120">
+      <c r="S9" s="129">
         <f t="shared" si="3"/>
         <v>0.48275862068965525</v>
       </c>
-      <c r="T9" s="120">
+      <c r="T9" s="129">
         <f t="shared" si="4"/>
         <v>0.43939393939393945</v>
       </c>
-      <c r="U9" s="120">
+      <c r="U9" s="129">
         <f t="shared" si="5"/>
         <v>0.39189189189189189</v>
       </c>
-      <c r="V9" s="120">
+      <c r="V9" s="129">
         <f t="shared" si="5"/>
         <v>0.36250000000000004</v>
       </c>
-      <c r="W9" s="120"/>
+      <c r="W9" s="129">
+        <f t="shared" si="5"/>
+        <v>0.33720930232558155</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="120" t="s">
         <v>139</v>
       </c>
     </row>
@@ -18059,6 +18107,9 @@
       <c r="V13">
         <v>227.25899999999999</v>
       </c>
+      <c r="W13">
+        <v>229.5</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -18107,175 +18158,187 @@
       <c r="V14">
         <v>268.02</v>
       </c>
+      <c r="W14">
+        <v>271.7</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="120">
+      <c r="I16" s="119">
         <f t="shared" ref="I16:P16" si="8">I13/I14</f>
         <v>0.76885406464250738</v>
       </c>
-      <c r="J16" s="120">
+      <c r="J16" s="119">
         <f t="shared" si="8"/>
         <v>0.7599999999999999</v>
       </c>
-      <c r="K16" s="120">
+      <c r="K16" s="119">
         <f t="shared" si="8"/>
         <v>0.76825705939629996</v>
       </c>
-      <c r="L16" s="120">
+      <c r="L16" s="119">
         <f t="shared" si="8"/>
         <v>0.793512658227848</v>
       </c>
-      <c r="M16" s="120">
+      <c r="M16" s="119">
         <f t="shared" si="8"/>
         <v>0.7858672376873661</v>
       </c>
-      <c r="N16" s="120">
+      <c r="N16" s="119">
         <f t="shared" si="8"/>
         <v>0.77309090909090905</v>
       </c>
-      <c r="O16" s="120">
+      <c r="O16" s="119">
         <f t="shared" si="8"/>
         <v>0.78971354166666663</v>
       </c>
-      <c r="P16" s="120">
+      <c r="P16" s="119">
         <f t="shared" si="8"/>
         <v>0.8261780104712042</v>
       </c>
-      <c r="Q16" s="120">
+      <c r="Q16" s="119">
         <f t="shared" ref="Q16:S16" si="9">Q13/Q14</f>
         <v>0.84860759493670879</v>
       </c>
-      <c r="R16" s="130">
+      <c r="R16" s="129">
         <f t="shared" si="9"/>
         <v>0.9379274066280906</v>
       </c>
-      <c r="S16" s="130">
+      <c r="S16" s="129">
         <f t="shared" si="9"/>
         <v>0.91063829787234041</v>
       </c>
-      <c r="T16" s="130">
+      <c r="T16" s="129">
         <f t="shared" ref="T16:V16" si="10">T13/T14</f>
         <v>0.70805264069008933</v>
       </c>
-      <c r="U16" s="130">
+      <c r="U16" s="129">
         <f t="shared" si="10"/>
         <v>0.85472376016020724</v>
       </c>
-      <c r="V16" s="130">
+      <c r="V16" s="129">
         <f t="shared" si="10"/>
         <v>0.84791806581598383</v>
       </c>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
+      <c r="W16" s="129">
+        <f t="shared" ref="W16" si="11">W13/W14</f>
+        <v>0.84468163415531838</v>
+      </c>
+      <c r="X16" s="129"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>143</v>
       </c>
-      <c r="M17" s="120">
-        <f t="shared" ref="M17:P18" si="11">M13/I13-1</f>
+      <c r="M17" s="119">
+        <f t="shared" ref="M17:P17" si="12">M13/I13-1</f>
         <v>0.40254777070063685</v>
       </c>
-      <c r="N17" s="120">
-        <f t="shared" si="11"/>
+      <c r="N17" s="119">
+        <f t="shared" si="12"/>
         <v>0.43454790823211886</v>
       </c>
-      <c r="O17" s="130">
-        <f t="shared" si="11"/>
+      <c r="O17" s="129">
+        <f t="shared" si="12"/>
         <v>0.53738910012674257</v>
       </c>
-      <c r="P17" s="130">
-        <f t="shared" si="11"/>
+      <c r="P17" s="129">
+        <f t="shared" si="12"/>
         <v>0.57328015952143585</v>
       </c>
-      <c r="Q17" s="130">
-        <f t="shared" ref="Q17:Q18" si="12">Q13/M13-1</f>
+      <c r="Q17" s="129">
+        <f t="shared" ref="Q17" si="13">Q13/M13-1</f>
         <v>0.52225249772933702</v>
       </c>
-      <c r="R17" s="130">
-        <f t="shared" ref="R17:S18" si="13">R13/N13-1</f>
+      <c r="R17" s="129">
+        <f t="shared" ref="R17:S17" si="14">R13/N13-1</f>
         <v>0.67732831608654775</v>
       </c>
-      <c r="S17" s="130">
-        <f t="shared" si="13"/>
+      <c r="S17" s="129">
+        <f t="shared" si="14"/>
         <v>0.58779884583676822</v>
       </c>
-      <c r="T17" s="130">
-        <f t="shared" ref="T17:T18" si="14">T13/P13-1</f>
+      <c r="T17" s="129">
+        <f t="shared" ref="T17" si="15">T13/P13-1</f>
         <v>0.2182319391634977</v>
       </c>
-      <c r="U17" s="130">
-        <f t="shared" ref="U17:U18" si="15">U13/Q13-1</f>
+      <c r="U17" s="129">
+        <f t="shared" ref="U17" si="16">U13/Q13-1</f>
         <v>0.38534606205250599</v>
       </c>
-      <c r="V17" s="130">
-        <f t="shared" ref="V17:V18" si="16">V13/R13-1</f>
+      <c r="V17" s="129">
+        <f t="shared" ref="V17" si="17">V13/R13-1</f>
         <v>0.27458777341559149</v>
       </c>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
+      <c r="W17" s="129">
+        <f>W13/S13-1</f>
+        <v>0.19158878504672905</v>
+      </c>
+      <c r="X17" s="129"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>144</v>
       </c>
-      <c r="M18" s="120">
-        <f t="shared" si="11"/>
+      <c r="M18" s="119">
+        <f>M14/I14-1</f>
         <v>0.37218413320274246</v>
       </c>
-      <c r="N18" s="120">
-        <f t="shared" si="11"/>
+      <c r="N18" s="119">
+        <f>N14/J14-1</f>
         <v>0.41025641025641035</v>
       </c>
-      <c r="O18" s="120">
-        <f t="shared" si="11"/>
+      <c r="O18" s="119">
+        <f>O14/K14-1</f>
         <v>0.49561830574488797</v>
       </c>
-      <c r="P18" s="120">
-        <f t="shared" si="11"/>
+      <c r="P18" s="119">
+        <f>P14/L14-1</f>
         <v>0.51107594936708844</v>
       </c>
-      <c r="Q18" s="120">
-        <f t="shared" si="12"/>
+      <c r="Q18" s="119">
+        <f>Q14/M14-1</f>
         <v>0.4097073518915062</v>
       </c>
-      <c r="R18" s="120">
-        <f t="shared" si="13"/>
+      <c r="R18" s="119">
+        <f>R14/N14-1</f>
         <v>0.38254545454545452</v>
       </c>
-      <c r="S18" s="120">
-        <f t="shared" si="13"/>
+      <c r="S18" s="119">
+        <f>S14/O14-1</f>
         <v>0.376953125</v>
       </c>
-      <c r="T18" s="120">
-        <f t="shared" si="14"/>
+      <c r="T18" s="119">
+        <f>T14/P14-1</f>
         <v>0.42147120418848161</v>
       </c>
-      <c r="U18" s="120">
-        <f t="shared" si="15"/>
+      <c r="U18" s="119">
+        <f>U14/Q14-1</f>
         <v>0.37543291139240509</v>
       </c>
-      <c r="V18" s="120">
-        <f t="shared" si="16"/>
+      <c r="V18" s="119">
+        <f>V14/R14-1</f>
         <v>0.40988953182535504</v>
       </c>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
+      <c r="W18" s="119">
+        <f>W14/S14-1</f>
+        <v>0.28463356973995269</v>
+      </c>
+      <c r="X18" s="119"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>227</v>
       </c>
-      <c r="D22" s="166">
+      <c r="D22" s="134">
         <v>168.32</v>
       </c>
-      <c r="E22" s="166">
+      <c r="E22" s="134">
         <v>238.75899999999999</v>
       </c>
-      <c r="F22" s="166">
+      <c r="F22" s="134">
         <v>311.53899999999999</v>
       </c>
     </row>
@@ -18283,30 +18346,30 @@
       <c r="A23" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="166">
+      <c r="D23" s="134">
         <v>201.17500000000001</v>
       </c>
-      <c r="E23" s="166">
+      <c r="E23" s="134">
         <v>292.35000000000002</v>
       </c>
-      <c r="F23" s="166">
+      <c r="F23" s="134">
         <v>436.48500000000001</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
-        <f t="shared" ref="C24:E24" si="17">SUM(C22:C23)</f>
+        <f t="shared" ref="C24:E24" si="18">SUM(C22:C23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="167">
-        <f t="shared" si="17"/>
+      <c r="D24" s="135">
+        <f t="shared" si="18"/>
         <v>369.495</v>
       </c>
-      <c r="E24" s="167">
-        <f t="shared" si="17"/>
+      <c r="E24" s="135">
+        <f t="shared" si="18"/>
         <v>531.10900000000004</v>
       </c>
-      <c r="F24" s="167">
+      <c r="F24" s="135">
         <f>SUM(F22:F23)</f>
         <v>748.024</v>
       </c>
@@ -18315,16 +18378,16 @@
       <c r="A26" t="s">
         <v>229</v>
       </c>
-      <c r="D26" s="165">
+      <c r="D26" s="133">
         <f>D22/D24</f>
         <v>0.45554067037442997</v>
       </c>
-      <c r="E26" s="165">
-        <f t="shared" ref="E26:F26" si="18">E22/E24</f>
+      <c r="E26" s="133">
+        <f t="shared" ref="E26:F26" si="19">E22/E24</f>
         <v>0.44954802121598386</v>
       </c>
-      <c r="F26" s="165">
-        <f t="shared" si="18"/>
+      <c r="F26" s="133">
+        <f t="shared" si="19"/>
         <v>0.41648262622589649</v>
       </c>
     </row>
@@ -18332,11 +18395,11 @@
       <c r="A27" t="s">
         <v>230</v>
       </c>
-      <c r="E27" s="165">
+      <c r="E27" s="133">
         <f>E22/D22-1</f>
         <v>0.41848265209125479</v>
       </c>
-      <c r="F27" s="165">
+      <c r="F27" s="133">
         <f>F22/E22-1</f>
         <v>0.30482620550429518</v>
       </c>
@@ -18345,22 +18408,82 @@
       <c r="A28" t="s">
         <v>231</v>
       </c>
-      <c r="E28" s="165">
+      <c r="E28" s="133">
         <f>E23/D23-1</f>
         <v>0.45321237728345976</v>
       </c>
-      <c r="F28" s="165">
+      <c r="F28" s="133">
         <f>F23/E23-1</f>
         <v>0.49302206259620318</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O32" s="172" t="s">
+      <c r="O32" s="139" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="M17:W17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:W18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:W7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:W8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9:W9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27305,14 +27428,14 @@
       <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="H1" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="143"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="152"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -27321,16 +27444,16 @@
       <c r="C2" s="18">
         <v>216.38</v>
       </c>
-      <c r="D2" s="120">
+      <c r="D2" s="119">
         <f>C2/C3-1</f>
         <v>0.11157914082853915</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
@@ -27339,26 +27462,26 @@
       <c r="C3" s="18">
         <v>194.66000399999999</v>
       </c>
-      <c r="D3" s="120">
+      <c r="D3" s="119">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>-7.7615568343958441E-2</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="61" t="s">
         <v>94</v>
       </c>
     </row>
@@ -27369,31 +27492,31 @@
       <c r="C4" s="18">
         <v>211.03999300000001</v>
       </c>
-      <c r="D4" s="120">
+      <c r="D4" s="119">
         <f t="shared" si="0"/>
         <v>-1.8464267207670915E-2</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="62">
         <f>$I$19-3*$I$23</f>
         <v>-0.26958302426293923</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="63">
         <f>H4</f>
         <v>-0.26958302426293923</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="64">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="65" t="str">
+      <c r="K4" s="64" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>Less than -26,96%</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="65">
         <f>J4/$I$31</f>
         <v>0</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="66">
         <f>L4</f>
         <v>0</v>
       </c>
@@ -27405,31 +27528,31 @@
       <c r="C5" s="18">
         <v>215.009995</v>
       </c>
-      <c r="D5" s="120">
+      <c r="D5" s="119">
         <f t="shared" si="0"/>
         <v>-2.5251640898978689E-2</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="67">
         <f>$I$19-2.4*$I$23</f>
         <v>-0.21426380716784171</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="68">
         <f>H5</f>
         <v>-0.21426380716784171</v>
       </c>
-      <c r="J5" s="70">
+      <c r="J5" s="69">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="71" t="str">
+      <c r="K5" s="70" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>-26,96% to -21,43%</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="71">
         <f>J5/$I$31</f>
         <v>0</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="72">
         <f>M4+L5</f>
         <v>0</v>
       </c>
@@ -27441,31 +27564,31 @@
       <c r="C6" s="18">
         <v>220.58000200000001</v>
       </c>
-      <c r="D6" s="120">
+      <c r="D6" s="119">
         <f t="shared" si="0"/>
         <v>-4.9592805370206494E-2</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="67">
         <f>$I$19-1.8*$I$23</f>
         <v>-0.15894459007274417</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="68">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>-0.15894459007274417</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="69">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="71" t="str">
+      <c r="K6" s="70" t="str">
         <f t="shared" si="1"/>
         <v>-21,43% to -15,89%</v>
       </c>
-      <c r="L6" s="72">
+      <c r="L6" s="71">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>1.3986013986013986E-2</v>
       </c>
-      <c r="M6" s="73">
+      <c r="M6" s="72">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>1.3986013986013986E-2</v>
       </c>
@@ -27477,31 +27600,31 @@
       <c r="C7" s="18">
         <v>232.08999600000001</v>
       </c>
-      <c r="D7" s="120">
+      <c r="D7" s="119">
         <f t="shared" si="0"/>
         <v>7.2802072160526476E-2</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="67">
         <f>$I$19-1.2*$I$23</f>
         <v>-0.10362537297764662</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="68">
         <f t="shared" si="2"/>
         <v>-0.10362537297764662</v>
       </c>
-      <c r="J7" s="70">
+      <c r="J7" s="69">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K7" s="71" t="str">
+      <c r="K7" s="70" t="str">
         <f t="shared" si="1"/>
         <v>-15,89% to -10,36%</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="71">
         <f t="shared" si="4"/>
         <v>5.5944055944055944E-2</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="72">
         <f t="shared" si="5"/>
         <v>6.9930069930069935E-2</v>
       </c>
@@ -27513,31 +27636,31 @@
       <c r="C8" s="18">
         <v>216.33999600000001</v>
       </c>
-      <c r="D8" s="120">
+      <c r="D8" s="119">
         <f t="shared" si="0"/>
         <v>1.3159729373669826E-2</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="67">
         <f>$I$19-0.6*$I$23</f>
         <v>-4.8306155882549093E-2</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="68">
         <f t="shared" si="2"/>
         <v>-4.8306155882549093E-2</v>
       </c>
-      <c r="J8" s="70">
+      <c r="J8" s="69">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="K8" s="71" t="str">
+      <c r="K8" s="70" t="str">
         <f t="shared" si="1"/>
         <v>-10,36% to -4,83%</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="71">
         <f t="shared" si="4"/>
         <v>0.16783216783216784</v>
       </c>
-      <c r="M8" s="73">
+      <c r="M8" s="72">
         <f t="shared" si="5"/>
         <v>0.23776223776223776</v>
       </c>
@@ -27549,31 +27672,31 @@
       <c r="C9" s="18">
         <v>213.529999</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="119">
         <f t="shared" si="0"/>
         <v>-9.7086580889539031E-2</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="67">
         <f>$I$19</f>
         <v>7.0130612125484468E-3</v>
       </c>
-      <c r="I9" s="69">
+      <c r="I9" s="68">
         <f t="shared" si="2"/>
         <v>7.0130612125484468E-3</v>
       </c>
-      <c r="J9" s="70">
+      <c r="J9" s="69">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="K9" s="71" t="str">
+      <c r="K9" s="70" t="str">
         <f t="shared" si="1"/>
         <v>-4,83% to 0,70%</v>
       </c>
-      <c r="L9" s="72">
+      <c r="L9" s="71">
         <f t="shared" si="4"/>
         <v>0.30069930069930068</v>
       </c>
-      <c r="M9" s="73">
+      <c r="M9" s="72">
         <f t="shared" si="5"/>
         <v>0.53846153846153844</v>
       </c>
@@ -27585,31 +27708,31 @@
       <c r="C10" s="18">
         <v>236.490005</v>
       </c>
-      <c r="D10" s="120">
+      <c r="D10" s="119">
         <f t="shared" si="0"/>
         <v>0.33512108803926233</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="67">
         <f>$I$19+0.6*$I$23</f>
         <v>6.2332278307645983E-2</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="68">
         <f t="shared" si="2"/>
         <v>6.2332278307645983E-2</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="69">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="K10" s="71" t="str">
+      <c r="K10" s="70" t="str">
         <f t="shared" si="1"/>
         <v>0,70% to 6,23%</v>
       </c>
-      <c r="L10" s="72">
+      <c r="L10" s="71">
         <f t="shared" si="4"/>
         <v>0.20279720279720279</v>
       </c>
-      <c r="M10" s="73">
+      <c r="M10" s="72">
         <f t="shared" si="5"/>
         <v>0.74125874125874125</v>
       </c>
@@ -27621,31 +27744,31 @@
       <c r="C11" s="18">
         <v>177.13000500000001</v>
       </c>
-      <c r="D11" s="120">
+      <c r="D11" s="119">
         <f t="shared" si="0"/>
         <v>-4.2022656853087703E-2</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="67">
         <f>$I$19+1.2*$I$23</f>
         <v>0.11765149540274353</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="68">
         <f t="shared" si="2"/>
         <v>0.11765149540274353</v>
       </c>
-      <c r="J11" s="70">
+      <c r="J11" s="69">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="K11" s="71" t="str">
+      <c r="K11" s="70" t="str">
         <f t="shared" si="1"/>
         <v>6,23% to 11,77%</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="71">
         <f t="shared" si="4"/>
         <v>0.19580419580419581</v>
       </c>
-      <c r="M11" s="73">
+      <c r="M11" s="72">
         <f t="shared" si="5"/>
         <v>0.93706293706293708</v>
       </c>
@@ -27657,31 +27780,31 @@
       <c r="C12" s="18">
         <v>184.89999399999999</v>
       </c>
-      <c r="D12" s="120">
+      <c r="D12" s="119">
         <f t="shared" si="0"/>
         <v>-3.5673364043147915E-2</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="67">
         <f>$I$19+1.8*$I$23</f>
         <v>0.17297071249784104</v>
       </c>
-      <c r="I12" s="69">
+      <c r="I12" s="68">
         <f t="shared" si="2"/>
         <v>0.17297071249784104</v>
       </c>
-      <c r="J12" s="70">
+      <c r="J12" s="69">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K12" s="71" t="str">
+      <c r="K12" s="70" t="str">
         <f t="shared" si="1"/>
         <v>11,77% to 17,30%</v>
       </c>
-      <c r="L12" s="72">
+      <c r="L12" s="71">
         <f t="shared" si="4"/>
         <v>3.4965034965034968E-2</v>
       </c>
-      <c r="M12" s="73">
+      <c r="M12" s="72">
         <f t="shared" si="5"/>
         <v>0.97202797202797209</v>
       </c>
@@ -27693,31 +27816,31 @@
       <c r="C13" s="18">
         <v>191.740005</v>
       </c>
-      <c r="D13" s="120">
+      <c r="D13" s="119">
         <f t="shared" si="0"/>
         <v>7.1831885917781335E-2</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="67">
         <f>$I$19+2.4*$I$23</f>
         <v>0.22828992959293859</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="68">
         <f t="shared" si="2"/>
         <v>0.22828992959293859</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="71" t="str">
+      <c r="K13" s="70" t="str">
         <f t="shared" si="1"/>
         <v>17,30% to 22,83%</v>
       </c>
-      <c r="L13" s="72">
+      <c r="L13" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="73">
+      <c r="M13" s="72">
         <f t="shared" si="5"/>
         <v>0.97202797202797209</v>
       </c>
@@ -27729,31 +27852,31 @@
       <c r="C14" s="18">
         <v>178.88999899999999</v>
       </c>
-      <c r="D14" s="120">
+      <c r="D14" s="119">
         <f t="shared" si="0"/>
         <v>-7.2580227448702517E-2</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="67">
         <f>$I$19+3*$I$23</f>
         <v>0.28360914668803616</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="68">
         <f t="shared" si="2"/>
         <v>0.28360914668803616</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="71" t="str">
+      <c r="K14" s="70" t="str">
         <f t="shared" si="1"/>
         <v>22,83% to 28,36%</v>
       </c>
-      <c r="L14" s="72">
+      <c r="L14" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="73">
+      <c r="M14" s="72">
         <f t="shared" si="5"/>
         <v>0.97202797202797209</v>
       </c>
@@ -27765,27 +27888,27 @@
       <c r="C15" s="18">
         <v>192.88999899999999</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="119">
         <f t="shared" si="0"/>
         <v>-8.7872916098472587E-3</v>
       </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75" t="s">
+      <c r="H15" s="73"/>
+      <c r="I15" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="75">
+      <c r="J15" s="74">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>4</v>
       </c>
-      <c r="K15" s="75" t="str">
+      <c r="K15" s="74" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>Greater than 28,36%</v>
       </c>
-      <c r="L15" s="76">
+      <c r="L15" s="75">
         <f t="shared" si="4"/>
         <v>2.7972027972027972E-2</v>
       </c>
-      <c r="M15" s="76">
+      <c r="M15" s="75">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -27797,12 +27920,12 @@
       <c r="C16" s="18">
         <v>194.60000600000001</v>
       </c>
-      <c r="D16" s="120">
+      <c r="D16" s="119">
         <f t="shared" si="0"/>
         <v>-8.2118718034968063E-2</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="M16" s="78"/>
+      <c r="H16" s="76"/>
+      <c r="M16" s="77"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
@@ -27811,15 +27934,15 @@
       <c r="C17" s="18">
         <v>212.009995</v>
       </c>
-      <c r="D17" s="120">
+      <c r="D17" s="119">
         <f t="shared" si="0"/>
         <v>3.857741295165984E-2</v>
       </c>
-      <c r="H17" s="144" t="s">
+      <c r="H17" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="145"/>
-      <c r="M17" s="78"/>
+      <c r="I17" s="154"/>
+      <c r="M17" s="77"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
@@ -27828,13 +27951,13 @@
       <c r="C18" s="18">
         <v>204.134995</v>
       </c>
-      <c r="D18" s="120">
+      <c r="D18" s="119">
         <f t="shared" si="0"/>
         <v>-0.1001322918192914</v>
       </c>
-      <c r="H18" s="146"/>
-      <c r="I18" s="147"/>
-      <c r="M18" s="78"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="156"/>
+      <c r="M18" s="77"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
@@ -27843,18 +27966,18 @@
       <c r="C19" s="18">
         <v>226.85000600000001</v>
       </c>
-      <c r="D19" s="120">
+      <c r="D19" s="119">
         <f t="shared" si="0"/>
         <v>-4.7848873032528827E-2</v>
       </c>
-      <c r="H19" s="79" t="s">
+      <c r="H19" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="116">
+      <c r="I19" s="115">
         <f>AVERAGE(D:D)</f>
         <v>7.0130612125484468E-3</v>
       </c>
-      <c r="M19" s="78"/>
+      <c r="M19" s="77"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
@@ -27863,18 +27986,18 @@
       <c r="C20" s="18">
         <v>238.25</v>
       </c>
-      <c r="D20" s="120">
+      <c r="D20" s="119">
         <f t="shared" si="0"/>
         <v>2.9202103131839241E-2</v>
       </c>
-      <c r="H20" s="79" t="s">
+      <c r="H20" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="116">
+      <c r="I20" s="115">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>7.7100422159371634E-3</v>
       </c>
-      <c r="M20" s="78"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
@@ -27883,18 +28006,18 @@
       <c r="C21" s="18">
         <v>231.490005</v>
       </c>
-      <c r="D21" s="120">
+      <c r="D21" s="119">
         <f t="shared" si="0"/>
         <v>7.795112922002323E-2</v>
       </c>
-      <c r="H21" s="79" t="s">
+      <c r="H21" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="116">
+      <c r="I21" s="115">
         <f>MEDIAN(D:D)</f>
         <v>-7.6949466757081364E-4</v>
       </c>
-      <c r="M21" s="78"/>
+      <c r="M21" s="77"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
@@ -27903,18 +28026,18 @@
       <c r="C22" s="18">
         <v>214.75</v>
       </c>
-      <c r="D22" s="120">
+      <c r="D22" s="119">
         <f t="shared" si="0"/>
         <v>6.7979230173755845E-3</v>
       </c>
-      <c r="H22" s="79" t="s">
+      <c r="H22" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="I22" s="116" t="e">
+      <c r="I22" s="115" t="e">
         <f>MODE(D:D)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="78"/>
+      <c r="M22" s="77"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -27923,18 +28046,18 @@
       <c r="C23" s="18">
         <v>213.300003</v>
       </c>
-      <c r="D23" s="120">
+      <c r="D23" s="119">
         <f t="shared" si="0"/>
         <v>-3.6846399991308565E-2</v>
       </c>
-      <c r="H23" s="79" t="s">
+      <c r="H23" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="116">
+      <c r="I23" s="115">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>9.2198695158495894E-2</v>
       </c>
-      <c r="M23" s="78"/>
+      <c r="M23" s="77"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -27943,18 +28066,18 @@
       <c r="C24" s="18">
         <v>221.46000699999999</v>
       </c>
-      <c r="D24" s="120">
+      <c r="D24" s="119">
         <f t="shared" si="0"/>
         <v>4.6350169043708922E-2</v>
       </c>
-      <c r="H24" s="79" t="s">
+      <c r="H24" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="116">
+      <c r="I24" s="115">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>8.5005993889292544E-3</v>
       </c>
-      <c r="M24" s="78"/>
+      <c r="M24" s="77"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
@@ -27963,18 +28086,18 @@
       <c r="C25" s="18">
         <v>211.64999399999999</v>
       </c>
-      <c r="D25" s="120">
+      <c r="D25" s="119">
         <f t="shared" si="0"/>
         <v>5.6727178446203119E-4</v>
       </c>
-      <c r="H25" s="79" t="s">
+      <c r="H25" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="117">
+      <c r="I25" s="116">
         <f>KURT(D:D)</f>
         <v>3.5761692065844546</v>
       </c>
-      <c r="M25" s="78"/>
+      <c r="M25" s="77"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
@@ -27983,18 +28106,18 @@
       <c r="C26" s="18">
         <v>211.529999</v>
       </c>
-      <c r="D26" s="120">
+      <c r="D26" s="119">
         <f t="shared" si="0"/>
         <v>0.32762189383516094</v>
       </c>
-      <c r="H26" s="79" t="s">
+      <c r="H26" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="117">
+      <c r="I26" s="116">
         <f>SKEW(D:D)</f>
         <v>1.1921520470223386</v>
       </c>
-      <c r="M26" s="78"/>
+      <c r="M26" s="77"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -28003,18 +28126,18 @@
       <c r="C27" s="18">
         <v>159.33000200000001</v>
       </c>
-      <c r="D27" s="120">
+      <c r="D27" s="119">
         <f t="shared" si="0"/>
         <v>0.10977219636131941</v>
       </c>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="116">
+      <c r="I27" s="115">
         <f>I29-I28</f>
         <v>0.57337747950199325</v>
       </c>
-      <c r="M27" s="78"/>
+      <c r="M27" s="77"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -28023,18 +28146,18 @@
       <c r="C28" s="18">
         <v>143.570007</v>
       </c>
-      <c r="D28" s="120">
+      <c r="D28" s="119">
         <f t="shared" si="0"/>
         <v>-6.548198706365993E-2</v>
       </c>
-      <c r="H28" s="79" t="s">
+      <c r="H28" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="I28" s="116">
+      <c r="I28" s="115">
         <f>MIN(D:D)</f>
         <v>-0.20497463959390871</v>
       </c>
-      <c r="M28" s="78"/>
+      <c r="M28" s="77"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -28043,18 +28166,18 @@
       <c r="C29" s="18">
         <v>153.63000500000001</v>
       </c>
-      <c r="D29" s="120">
+      <c r="D29" s="119">
         <f t="shared" si="0"/>
         <v>-4.0412247080115593E-2</v>
       </c>
-      <c r="H29" s="79" t="s">
+      <c r="H29" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="116">
+      <c r="I29" s="115">
         <f>MAX(D:D)</f>
         <v>0.36840283990808453</v>
       </c>
-      <c r="M29" s="78"/>
+      <c r="M29" s="77"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -28063,18 +28186,18 @@
       <c r="C30" s="18">
         <v>160.10000600000001</v>
       </c>
-      <c r="D30" s="120">
+      <c r="D30" s="119">
         <f t="shared" si="0"/>
         <v>-2.5207007269635651E-2</v>
       </c>
-      <c r="H30" s="79" t="s">
+      <c r="H30" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="117">
+      <c r="I30" s="116">
         <f>SUM(D:D)</f>
         <v>1.0028677533944279</v>
       </c>
-      <c r="M30" s="78"/>
+      <c r="M30" s="77"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
@@ -28083,18 +28206,18 @@
       <c r="C31" s="18">
         <v>164.240005</v>
       </c>
-      <c r="D31" s="120">
+      <c r="D31" s="119">
         <f t="shared" si="0"/>
         <v>-9.8269129386541199E-3</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="H31" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="56">
         <f>COUNT(D:D)</f>
         <v>143</v>
       </c>
-      <c r="M31" s="78"/>
+      <c r="M31" s="77"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
@@ -28103,12 +28226,12 @@
       <c r="C32" s="18">
         <v>165.86999499999999</v>
       </c>
-      <c r="D32" s="120">
+      <c r="D32" s="119">
         <f t="shared" si="0"/>
         <v>8.6460975783860361E-2</v>
       </c>
-      <c r="H32" s="82"/>
-      <c r="M32" s="78"/>
+      <c r="H32" s="81"/>
+      <c r="M32" s="77"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -28117,24 +28240,24 @@
       <c r="C33" s="18">
         <v>152.66999799999999</v>
       </c>
-      <c r="D33" s="120">
+      <c r="D33" s="119">
         <f t="shared" si="0"/>
         <v>-4.3001322904791195E-2</v>
       </c>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84" t="s">
+      <c r="H33" s="82"/>
+      <c r="I33" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="84" t="s">
+      <c r="J33" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="84" t="s">
+      <c r="K33" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="L33" s="85" t="s">
+      <c r="L33" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="M33" s="78"/>
+      <c r="M33" s="77"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
@@ -28143,30 +28266,30 @@
       <c r="C34" s="18">
         <v>159.529999</v>
       </c>
-      <c r="D34" s="120">
+      <c r="D34" s="119">
         <f t="shared" si="0"/>
         <v>1.929591781023321E-2</v>
       </c>
-      <c r="H34" s="86" t="s">
+      <c r="H34" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="72">
+      <c r="I34" s="71">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>7.5861524839146252E-2</v>
       </c>
-      <c r="J34" s="70">
+      <c r="J34" s="69">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>70</v>
       </c>
-      <c r="K34" s="72">
+      <c r="K34" s="71">
         <f>J34/$I$31</f>
         <v>0.48951048951048953</v>
       </c>
-      <c r="L34" s="73">
+      <c r="L34" s="72">
         <f>K34*I34</f>
         <v>3.7135012159022644E-2</v>
       </c>
-      <c r="M34" s="78"/>
+      <c r="M34" s="77"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
@@ -28175,30 +28298,30 @@
       <c r="C35" s="18">
         <v>156.509995</v>
       </c>
-      <c r="D35" s="120">
+      <c r="D35" s="119">
         <f t="shared" si="0"/>
         <v>5.0966942666760051E-2</v>
       </c>
-      <c r="H35" s="86" t="s">
+      <c r="H35" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="72">
+      <c r="I35" s="71">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>-5.9006013497887852E-2</v>
       </c>
-      <c r="J35" s="70">
+      <c r="J35" s="69">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>73</v>
       </c>
-      <c r="K35" s="72">
+      <c r="K35" s="71">
         <f>J35/$I$31</f>
         <v>0.51048951048951052</v>
       </c>
-      <c r="L35" s="73">
+      <c r="L35" s="72">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>-3.012195094647422E-2</v>
       </c>
-      <c r="M35" s="78"/>
+      <c r="M35" s="77"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
@@ -28207,29 +28330,29 @@
       <c r="C36" s="18">
         <v>148.91999799999999</v>
       </c>
-      <c r="D36" s="120">
+      <c r="D36" s="119">
         <f t="shared" si="0"/>
         <v>0.10253935205615261</v>
       </c>
-      <c r="H36" s="87" t="s">
+      <c r="H36" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="I36" s="75">
+      <c r="I36" s="74">
         <v>0</v>
       </c>
-      <c r="J36" s="75">
+      <c r="J36" s="74">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="88">
+      <c r="K36" s="87">
         <f>J36/$I$31</f>
         <v>0</v>
       </c>
-      <c r="L36" s="76">
+      <c r="L36" s="75">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" s="78"/>
+      <c r="M36" s="77"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
@@ -28238,16 +28361,16 @@
       <c r="C37" s="18">
         <v>135.070007</v>
       </c>
-      <c r="D37" s="120">
+      <c r="D37" s="119">
         <f t="shared" si="0"/>
         <v>9.0153388375247889E-2</v>
       </c>
-      <c r="H37" s="82"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="78"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="77"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
@@ -28256,26 +28379,26 @@
       <c r="C38" s="18">
         <v>123.900002</v>
       </c>
-      <c r="D38" s="120">
+      <c r="D38" s="119">
         <f t="shared" si="0"/>
         <v>-0.10741298332127347</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="I38" s="84" t="s">
+      <c r="I38" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="84" t="s">
+      <c r="J38" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="K38" s="84" t="s">
+      <c r="K38" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="L38" s="84" t="s">
+      <c r="L38" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="85" t="s">
+      <c r="M38" s="84" t="s">
         <v>119</v>
       </c>
     </row>
@@ -28286,30 +28409,30 @@
       <c r="C39" s="18">
         <v>138.80999800000001</v>
       </c>
-      <c r="D39" s="120">
+      <c r="D39" s="119">
         <f t="shared" si="0"/>
         <v>1.0556180761821521E-2</v>
       </c>
-      <c r="H39" s="90">
+      <c r="H39" s="89">
         <v>1</v>
       </c>
-      <c r="I39" s="72">
+      <c r="I39" s="71">
         <f>$I$19+($H39*$I$23)</f>
         <v>9.9211756371044346E-2</v>
       </c>
-      <c r="J39" s="72">
+      <c r="J39" s="71">
         <f>$I$19-($H39*$I$23)</f>
         <v>-8.5185633945947442E-2</v>
       </c>
-      <c r="K39" s="70">
+      <c r="K39" s="69">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>109</v>
       </c>
-      <c r="L39" s="72">
+      <c r="L39" s="71">
         <f>K39/$I$31</f>
         <v>0.76223776223776218</v>
       </c>
-      <c r="M39" s="73">
+      <c r="M39" s="72">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -28320,30 +28443,30 @@
       <c r="C40" s="18">
         <v>137.36000100000001</v>
       </c>
-      <c r="D40" s="120">
+      <c r="D40" s="119">
         <f t="shared" si="0"/>
         <v>-9.0090125658247922E-2</v>
       </c>
-      <c r="H40" s="90">
+      <c r="H40" s="89">
         <v>2</v>
       </c>
-      <c r="I40" s="72">
+      <c r="I40" s="71">
         <f>$I$19+($H40*$I$23)</f>
         <v>0.19141045152954023</v>
       </c>
-      <c r="J40" s="72">
+      <c r="J40" s="71">
         <f>$I$19-($H40*$I$23)</f>
         <v>-0.17738432910444335</v>
       </c>
-      <c r="K40" s="70">
+      <c r="K40" s="69">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>137</v>
       </c>
-      <c r="L40" s="72">
+      <c r="L40" s="71">
         <f>K40/$I$31</f>
         <v>0.95804195804195802</v>
       </c>
-      <c r="M40" s="73">
+      <c r="M40" s="72">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -28354,30 +28477,30 @@
       <c r="C41" s="18">
         <v>150.96000699999999</v>
       </c>
-      <c r="D41" s="120">
+      <c r="D41" s="119">
         <f t="shared" si="0"/>
         <v>9.7659331103678859E-3</v>
       </c>
-      <c r="H41" s="90">
+      <c r="H41" s="89">
         <v>3</v>
       </c>
-      <c r="I41" s="72">
+      <c r="I41" s="71">
         <f>$I$19+($H41*$I$23)</f>
         <v>0.28360914668803616</v>
       </c>
-      <c r="J41" s="72">
+      <c r="J41" s="71">
         <f>$I$19-($H41*$I$23)</f>
         <v>-0.26958302426293923</v>
       </c>
-      <c r="K41" s="70">
+      <c r="K41" s="69">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>139</v>
       </c>
-      <c r="L41" s="72">
+      <c r="L41" s="71">
         <f>K41/$I$31</f>
         <v>0.97202797202797198</v>
       </c>
-      <c r="M41" s="91">
+      <c r="M41" s="90">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -28388,12 +28511,12 @@
       <c r="C42" s="18">
         <v>149.5</v>
       </c>
-      <c r="D42" s="120">
+      <c r="D42" s="119">
         <f t="shared" si="0"/>
         <v>-6.6851717840044067E-5</v>
       </c>
-      <c r="H42" s="68"/>
-      <c r="M42" s="91"/>
+      <c r="H42" s="67"/>
+      <c r="M42" s="90"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
@@ -28402,18 +28525,18 @@
       <c r="C43" s="18">
         <v>149.509995</v>
       </c>
-      <c r="D43" s="120">
+      <c r="D43" s="119">
         <f t="shared" si="0"/>
         <v>0.1054343438077634</v>
       </c>
-      <c r="H43" s="148" t="s">
+      <c r="H43" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="150"/>
+      <c r="I43" s="158"/>
+      <c r="J43" s="158"/>
+      <c r="K43" s="158"/>
+      <c r="L43" s="158"/>
+      <c r="M43" s="159"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -28422,28 +28545,28 @@
       <c r="C44" s="18">
         <v>135.25</v>
       </c>
-      <c r="D44" s="120">
+      <c r="D44" s="119">
         <f t="shared" si="0"/>
         <v>-5.3798809937053105E-2</v>
       </c>
-      <c r="H44" s="92">
+      <c r="H44" s="91">
         <v>0.01</v>
       </c>
-      <c r="I44" s="93">
+      <c r="I44" s="92">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>-0.17625708598154247</v>
       </c>
-      <c r="J44" s="94">
+      <c r="J44" s="93">
         <v>0.2</v>
       </c>
-      <c r="K44" s="93">
+      <c r="K44" s="92">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>-6.5532251052551671E-2</v>
       </c>
-      <c r="L44" s="94">
+      <c r="L44" s="93">
         <v>0.85</v>
       </c>
-      <c r="M44" s="95">
+      <c r="M44" s="94">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>7.790344746207456E-2</v>
       </c>
@@ -28455,28 +28578,28 @@
       <c r="C45" s="18">
         <v>142.94000199999999</v>
       </c>
-      <c r="D45" s="120">
+      <c r="D45" s="119">
         <f t="shared" si="0"/>
         <v>2.0781282730709671E-2</v>
       </c>
-      <c r="H45" s="96">
+      <c r="H45" s="95">
         <v>0.02</v>
       </c>
-      <c r="I45" s="97">
+      <c r="I45" s="96">
         <f t="shared" si="7"/>
         <v>-0.14870136684728594</v>
       </c>
-      <c r="J45" s="98">
+      <c r="J45" s="97">
         <v>0.25</v>
       </c>
-      <c r="K45" s="97">
+      <c r="K45" s="96">
         <f t="shared" si="8"/>
         <v>-4.6407647425667942E-2</v>
       </c>
-      <c r="L45" s="98">
+      <c r="L45" s="97">
         <v>0.86</v>
       </c>
-      <c r="M45" s="99">
+      <c r="M45" s="98">
         <f t="shared" si="9"/>
         <v>8.1363249329655496E-2</v>
       </c>
@@ -28488,28 +28611,28 @@
       <c r="C46" s="18">
         <v>140.029999</v>
       </c>
-      <c r="D46" s="120">
+      <c r="D46" s="119">
         <f t="shared" si="0"/>
         <v>-8.3513283491020274E-2</v>
       </c>
-      <c r="H46" s="96">
+      <c r="H46" s="95">
         <v>0.03</v>
       </c>
-      <c r="I46" s="97">
+      <c r="I46" s="96">
         <f t="shared" si="7"/>
         <v>-0.1228585611805046</v>
       </c>
-      <c r="J46" s="98">
+      <c r="J46" s="97">
         <v>0.3</v>
       </c>
-      <c r="K46" s="97">
+      <c r="K46" s="96">
         <f t="shared" si="8"/>
         <v>-4.0049487554004413E-2</v>
       </c>
-      <c r="L46" s="98">
+      <c r="L46" s="97">
         <v>0.87</v>
       </c>
-      <c r="M46" s="99">
+      <c r="M46" s="98">
         <f t="shared" si="9"/>
         <v>8.8454878583209648E-2</v>
       </c>
@@ -28521,28 +28644,28 @@
       <c r="C47" s="18">
         <v>152.78999300000001</v>
       </c>
-      <c r="D47" s="120">
+      <c r="D47" s="119">
         <f t="shared" si="0"/>
         <v>-1.9445603028371061E-2</v>
       </c>
-      <c r="H47" s="96">
+      <c r="H47" s="95">
         <v>0.04</v>
       </c>
-      <c r="I47" s="97">
+      <c r="I47" s="96">
         <f t="shared" si="7"/>
         <v>-0.11898075207832921</v>
       </c>
-      <c r="J47" s="98">
+      <c r="J47" s="97">
         <v>0.35</v>
       </c>
-      <c r="K47" s="97">
+      <c r="K47" s="96">
         <f t="shared" si="8"/>
         <v>-3.3186318329401797E-2</v>
       </c>
-      <c r="L47" s="98">
+      <c r="L47" s="97">
         <v>0.88</v>
       </c>
-      <c r="M47" s="99">
+      <c r="M47" s="98">
         <f t="shared" si="9"/>
         <v>9.239283072182787E-2</v>
       </c>
@@ -28554,28 +28677,28 @@
       <c r="C48" s="18">
         <v>155.820007</v>
       </c>
-      <c r="D48" s="120">
+      <c r="D48" s="119">
         <f t="shared" si="0"/>
         <v>-7.6949466757081364E-4</v>
       </c>
-      <c r="H48" s="96">
+      <c r="H48" s="95">
         <v>0.05</v>
       </c>
-      <c r="I48" s="97">
+      <c r="I48" s="96">
         <f t="shared" si="7"/>
         <v>-0.11445520810419088</v>
       </c>
-      <c r="J48" s="98">
+      <c r="J48" s="97">
         <v>0.4</v>
       </c>
-      <c r="K48" s="97">
+      <c r="K48" s="96">
         <f t="shared" si="8"/>
         <v>-2.5279682784335612E-2</v>
       </c>
-      <c r="L48" s="98">
+      <c r="L48" s="97">
         <v>0.89</v>
       </c>
-      <c r="M48" s="99">
+      <c r="M48" s="98">
         <f t="shared" si="9"/>
         <v>9.7320570385347596E-2</v>
       </c>
@@ -28587,28 +28710,28 @@
       <c r="C49" s="18">
         <v>155.94000199999999</v>
       </c>
-      <c r="D49" s="120">
+      <c r="D49" s="119">
         <f t="shared" si="0"/>
         <v>4.5594763615359746E-2</v>
       </c>
-      <c r="H49" s="96">
+      <c r="H49" s="95">
         <v>0.06</v>
       </c>
-      <c r="I49" s="97">
+      <c r="I49" s="96">
         <f t="shared" si="7"/>
         <v>-0.10879651845152354</v>
       </c>
-      <c r="J49" s="98">
+      <c r="J49" s="97">
         <v>0.45</v>
       </c>
-      <c r="K49" s="97">
+      <c r="K49" s="96">
         <f t="shared" si="8"/>
         <v>-9.9837971567683058E-3</v>
       </c>
-      <c r="L49" s="98">
+      <c r="L49" s="97">
         <v>0.9</v>
       </c>
-      <c r="M49" s="99">
+      <c r="M49" s="98">
         <f t="shared" si="9"/>
         <v>0.10078017418895337</v>
       </c>
@@ -28620,28 +28743,28 @@
       <c r="C50" s="18">
         <v>149.13999899999999</v>
       </c>
-      <c r="D50" s="120">
+      <c r="D50" s="119">
         <f t="shared" si="0"/>
         <v>-8.0479344975883382E-3</v>
       </c>
-      <c r="H50" s="96">
+      <c r="H50" s="95">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="97">
+      <c r="I50" s="96">
         <f t="shared" si="7"/>
         <v>-0.10204440895798403</v>
       </c>
-      <c r="J50" s="98">
+      <c r="J50" s="97">
         <v>0.5</v>
       </c>
-      <c r="K50" s="97">
+      <c r="K50" s="96">
         <f t="shared" si="8"/>
         <v>-7.6949466757081364E-4</v>
       </c>
-      <c r="L50" s="98">
+      <c r="L50" s="97">
         <v>0.91</v>
       </c>
-      <c r="M50" s="99">
+      <c r="M50" s="98">
         <f t="shared" si="9"/>
         <v>0.10317625024150698</v>
       </c>
@@ -28653,28 +28776,28 @@
       <c r="C51" s="18">
         <v>150.35000600000001</v>
       </c>
-      <c r="D51" s="120">
+      <c r="D51" s="119">
         <f t="shared" si="0"/>
         <v>6.2919824593562934E-2</v>
       </c>
-      <c r="H51" s="96">
+      <c r="H51" s="95">
         <v>0.08</v>
       </c>
-      <c r="I51" s="97">
+      <c r="I51" s="96">
         <f t="shared" si="7"/>
         <v>-9.9512745258046473E-2</v>
       </c>
-      <c r="J51" s="98">
+      <c r="J51" s="97">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="97">
+      <c r="K51" s="96">
         <f t="shared" si="8"/>
         <v>9.8449578755132553E-3</v>
       </c>
-      <c r="L51" s="98">
+      <c r="L51" s="97">
         <v>0.92</v>
       </c>
-      <c r="M51" s="99">
+      <c r="M51" s="98">
         <f t="shared" si="9"/>
         <v>0.10821056944203931</v>
       </c>
@@ -28686,28 +28809,28 @@
       <c r="C52" s="18">
         <v>141.449997</v>
       </c>
-      <c r="D52" s="120">
+      <c r="D52" s="119">
         <f t="shared" si="0"/>
         <v>0.14478795151809565</v>
       </c>
-      <c r="H52" s="96">
+      <c r="H52" s="95">
         <v>0.09</v>
       </c>
-      <c r="I52" s="97">
+      <c r="I52" s="96">
         <f t="shared" si="7"/>
         <v>-9.7390301868346102E-2</v>
       </c>
-      <c r="J52" s="98">
+      <c r="J52" s="97">
         <v>0.6</v>
       </c>
-      <c r="K52" s="97">
+      <c r="K52" s="96">
         <f t="shared" si="8"/>
         <v>1.7254033487822357E-2</v>
       </c>
-      <c r="L52" s="98">
+      <c r="L52" s="97">
         <v>0.93</v>
       </c>
-      <c r="M52" s="99">
+      <c r="M52" s="98">
         <f t="shared" si="9"/>
         <v>0.11170240197046544</v>
       </c>
@@ -28719,28 +28842,28 @@
       <c r="C53" s="18">
         <v>123.55999799999999</v>
       </c>
-      <c r="D53" s="120">
+      <c r="D53" s="119">
         <f t="shared" si="0"/>
         <v>-9.253823171156772E-2</v>
       </c>
-      <c r="H53" s="96">
+      <c r="H53" s="95">
         <v>0.1</v>
       </c>
-      <c r="I53" s="97">
+      <c r="I53" s="96">
         <f t="shared" si="7"/>
         <v>-9.6379519752041148E-2</v>
       </c>
-      <c r="J53" s="98">
+      <c r="J53" s="97">
         <v>0.65</v>
       </c>
-      <c r="K53" s="97">
+      <c r="K53" s="96">
         <f t="shared" si="8"/>
         <v>3.0877489353101004E-2</v>
       </c>
-      <c r="L53" s="98">
+      <c r="L53" s="97">
         <v>0.94</v>
       </c>
-      <c r="M53" s="99">
+      <c r="M53" s="98">
         <f t="shared" si="9"/>
         <v>0.11831121482599063</v>
       </c>
@@ -28752,28 +28875,28 @@
       <c r="C54" s="18">
         <v>136.16000399999999</v>
       </c>
-      <c r="D54" s="120">
+      <c r="D54" s="119">
         <f t="shared" si="0"/>
         <v>-3.3091910015314974E-2</v>
       </c>
-      <c r="H54" s="96">
+      <c r="H54" s="95">
         <v>0.11</v>
       </c>
-      <c r="I54" s="97">
+      <c r="I54" s="96">
         <f t="shared" si="7"/>
         <v>-9.2923188237950857E-2</v>
       </c>
-      <c r="J54" s="98">
+      <c r="J54" s="97">
         <v>0.7</v>
       </c>
-      <c r="K54" s="97">
+      <c r="K54" s="96">
         <f t="shared" si="8"/>
         <v>4.5303098061554296E-2</v>
       </c>
-      <c r="L54" s="98">
+      <c r="L54" s="97">
         <v>0.95</v>
       </c>
-      <c r="M54" s="99">
+      <c r="M54" s="98">
         <f t="shared" si="9"/>
         <v>0.13616683810220143</v>
       </c>
@@ -28785,28 +28908,28 @@
       <c r="C55" s="18">
         <v>140.820007</v>
       </c>
-      <c r="D55" s="120">
+      <c r="D55" s="119">
         <f t="shared" si="0"/>
         <v>4.3884457103830599E-2</v>
       </c>
-      <c r="H55" s="96">
+      <c r="H55" s="95">
         <v>0.12</v>
       </c>
-      <c r="I55" s="97">
+      <c r="I55" s="96">
         <f t="shared" si="7"/>
         <v>-8.9827051971558824E-2</v>
       </c>
-      <c r="J55" s="98">
+      <c r="J55" s="97">
         <v>0.75</v>
       </c>
-      <c r="K55" s="97">
+      <c r="K55" s="96">
         <f t="shared" si="8"/>
         <v>6.2914696961257399E-2</v>
       </c>
-      <c r="L55" s="98">
+      <c r="L55" s="97">
         <v>0.96</v>
       </c>
-      <c r="M55" s="99">
+      <c r="M55" s="98">
         <f t="shared" si="9"/>
         <v>0.14843756857005316</v>
       </c>
@@ -28818,28 +28941,28 @@
       <c r="C56" s="18">
         <v>134.89999399999999</v>
       </c>
-      <c r="D56" s="120">
+      <c r="D56" s="119">
         <f t="shared" si="0"/>
         <v>-1.3384056560639457E-2</v>
       </c>
-      <c r="H56" s="96">
+      <c r="H56" s="95">
         <v>0.13</v>
       </c>
-      <c r="I56" s="97">
+      <c r="I56" s="96">
         <f t="shared" si="7"/>
         <v>-8.3227107193970001E-2</v>
       </c>
-      <c r="J56" s="98">
+      <c r="J56" s="97">
         <v>0.8</v>
       </c>
-      <c r="K56" s="97">
+      <c r="K56" s="96">
         <f t="shared" si="8"/>
         <v>7.1660573956005891E-2</v>
       </c>
-      <c r="L56" s="98">
+      <c r="L56" s="97">
         <v>0.97</v>
       </c>
-      <c r="M56" s="99">
+      <c r="M56" s="98">
         <f t="shared" si="9"/>
         <v>0.15761206168287051</v>
       </c>
@@ -28851,23 +28974,23 @@
       <c r="C57" s="18">
         <v>136.729996</v>
       </c>
-      <c r="D57" s="120">
+      <c r="D57" s="119">
         <f t="shared" si="0"/>
         <v>-4.1096852264446482E-2</v>
       </c>
-      <c r="H57" s="96">
+      <c r="H57" s="95">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="97">
+      <c r="I57" s="96">
         <f t="shared" si="7"/>
         <v>-8.2211411203507292E-2</v>
       </c>
-      <c r="J57" s="98"/>
-      <c r="K57" s="97"/>
-      <c r="L57" s="98">
+      <c r="J57" s="97"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="97">
         <v>0.98</v>
       </c>
-      <c r="M57" s="99">
+      <c r="M57" s="98">
         <f t="shared" si="9"/>
         <v>0.32882176490781712</v>
       </c>
@@ -28879,23 +29002,23 @@
       <c r="C58" s="18">
         <v>142.58999600000001</v>
       </c>
-      <c r="D58" s="120">
+      <c r="D58" s="119">
         <f t="shared" si="0"/>
         <v>4.4538870578670897E-2</v>
       </c>
-      <c r="H58" s="100">
+      <c r="H58" s="99">
         <v>0.15</v>
       </c>
-      <c r="I58" s="101">
+      <c r="I58" s="100">
         <f t="shared" si="7"/>
         <v>-7.9609930189779188E-2</v>
       </c>
-      <c r="J58" s="102"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="103">
+      <c r="J58" s="101"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="102">
         <v>0.99</v>
       </c>
-      <c r="M58" s="104">
+      <c r="M58" s="103">
         <f t="shared" si="9"/>
         <v>0.34821797117244579</v>
       </c>
@@ -28907,7 +29030,7 @@
       <c r="C59" s="18">
         <v>136.509995</v>
       </c>
-      <c r="D59" s="120">
+      <c r="D59" s="119">
         <f t="shared" si="0"/>
         <v>8.0668104813172992E-2</v>
       </c>
@@ -28919,14 +29042,14 @@
       <c r="C60" s="18">
         <v>126.32</v>
       </c>
-      <c r="D60" s="120">
+      <c r="D60" s="119">
         <f t="shared" si="0"/>
         <v>7.2508074991578075E-2</v>
       </c>
-      <c r="H60" s="105" t="s">
+      <c r="H60" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="I60" s="106">
+      <c r="I60" s="105">
         <v>0.1</v>
       </c>
     </row>
@@ -28937,14 +29060,14 @@
       <c r="C61" s="18">
         <v>117.779999</v>
       </c>
-      <c r="D61" s="120">
+      <c r="D61" s="119">
         <f t="shared" si="0"/>
         <v>-1.2492647249752187E-2</v>
       </c>
-      <c r="H61" s="107" t="s">
+      <c r="H61" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="I61" s="108">
+      <c r="I61" s="107">
         <v>0.45</v>
       </c>
     </row>
@@ -28955,11 +29078,11 @@
       <c r="C62" s="18">
         <v>119.269997</v>
       </c>
-      <c r="D62" s="120">
+      <c r="D62" s="119">
         <f t="shared" si="0"/>
         <v>0.36840283990808453</v>
       </c>
-      <c r="H62" s="109"/>
+      <c r="H62" s="108"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
@@ -28968,14 +29091,14 @@
       <c r="C63" s="18">
         <v>87.160004000000001</v>
       </c>
-      <c r="D63" s="120">
+      <c r="D63" s="119">
         <f t="shared" si="0"/>
         <v>-4.5762997405868089E-2</v>
       </c>
-      <c r="H63" s="105" t="s">
+      <c r="H63" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="I63" s="110">
+      <c r="I63" s="109">
         <v>210.03</v>
       </c>
     </row>
@@ -28986,14 +29109,14 @@
       <c r="C64" s="18">
         <v>91.339995999999999</v>
       </c>
-      <c r="D64" s="120">
+      <c r="D64" s="119">
         <f t="shared" si="0"/>
         <v>-2.9473310452207135E-3</v>
       </c>
-      <c r="H64" s="111" t="s">
+      <c r="H64" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="I64" s="112">
+      <c r="I64" s="111">
         <f>I63*(1-I60)</f>
         <v>189.02700000000002</v>
       </c>
@@ -29005,14 +29128,14 @@
       <c r="C65" s="18">
         <v>91.610000999999997</v>
       </c>
-      <c r="D65" s="120">
+      <c r="D65" s="119">
         <f t="shared" si="0"/>
         <v>-8.2891161106128375E-2</v>
       </c>
-      <c r="H65" s="107" t="s">
+      <c r="H65" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="I65" s="113">
+      <c r="I65" s="112">
         <f>I63*(1+I61)</f>
         <v>304.54349999999999</v>
       </c>
@@ -29024,7 +29147,7 @@
       <c r="C66" s="18">
         <v>99.889999000000003</v>
       </c>
-      <c r="D66" s="120">
+      <c r="D66" s="119">
         <f t="shared" si="0"/>
         <v>7.3739654667737797E-2</v>
       </c>
@@ -29036,7 +29159,7 @@
       <c r="C67" s="18">
         <v>93.029999000000004</v>
       </c>
-      <c r="D67" s="120">
+      <c r="D67" s="119">
         <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
         <v>9.9905377159958064E-2</v>
       </c>
@@ -29048,7 +29171,7 @@
       <c r="C68" s="18">
         <v>84.580001999999993</v>
       </c>
-      <c r="D68" s="120">
+      <c r="D68" s="119">
         <f t="shared" si="10"/>
         <v>6.5776221449392436E-2</v>
       </c>
@@ -29060,7 +29183,7 @@
       <c r="C69" s="18">
         <v>79.360000999999997</v>
       </c>
-      <c r="D69" s="120">
+      <c r="D69" s="119">
         <f t="shared" si="10"/>
         <v>0.10099887344620218</v>
       </c>
@@ -29072,7 +29195,7 @@
       <c r="C70" s="18">
         <v>72.080001999999993</v>
       </c>
-      <c r="D70" s="120">
+      <c r="D70" s="119">
         <f t="shared" si="10"/>
         <v>1.3355898215488438E-2</v>
       </c>
@@ -29084,7 +29207,7 @@
       <c r="C71" s="18">
         <v>71.129997000000003</v>
       </c>
-      <c r="D71" s="120">
+      <c r="D71" s="119">
         <f t="shared" si="10"/>
         <v>6.0820370331842177E-3</v>
       </c>
@@ -29096,7 +29219,7 @@
       <c r="C72" s="18">
         <v>70.699996999999996</v>
       </c>
-      <c r="D72" s="120">
+      <c r="D72" s="119">
         <f t="shared" si="10"/>
         <v>-3.1374175404142446E-2</v>
       </c>
@@ -29108,7 +29231,7 @@
       <c r="C73" s="18">
         <v>72.989998</v>
       </c>
-      <c r="D73" s="120">
+      <c r="D73" s="119">
         <f t="shared" si="10"/>
         <v>6.2909569328951864E-2</v>
       </c>
@@ -29120,7 +29243,7 @@
       <c r="C74" s="18">
         <v>68.669998000000007</v>
       </c>
-      <c r="D74" s="120">
+      <c r="D74" s="119">
         <f t="shared" si="10"/>
         <v>-2.8712858361224392E-2</v>
       </c>
@@ -29132,7 +29255,7 @@
       <c r="C75" s="18">
         <v>70.699996999999996</v>
       </c>
-      <c r="D75" s="120">
+      <c r="D75" s="119">
         <f t="shared" si="10"/>
         <v>1.4492681460964718E-2</v>
       </c>
@@ -29144,7 +29267,7 @@
       <c r="C76" s="18">
         <v>69.690002000000007</v>
       </c>
-      <c r="D76" s="120">
+      <c r="D76" s="119">
         <f t="shared" si="10"/>
         <v>2.9394462159282098E-2</v>
       </c>
@@ -29156,7 +29279,7 @@
       <c r="C77" s="18">
         <v>67.699996999999996</v>
       </c>
-      <c r="D77" s="120">
+      <c r="D77" s="119">
         <f t="shared" si="10"/>
         <v>-7.8033542148985613E-2</v>
       </c>
@@ -29168,7 +29291,7 @@
       <c r="C78" s="18">
         <v>73.430000000000007</v>
       </c>
-      <c r="D78" s="120">
+      <c r="D78" s="119">
         <f t="shared" si="10"/>
         <v>-8.0285525064405006E-2</v>
       </c>
@@ -29180,7 +29303,7 @@
       <c r="C79" s="18">
         <v>79.839995999999999</v>
       </c>
-      <c r="D79" s="120">
+      <c r="D79" s="119">
         <f t="shared" si="10"/>
         <v>-3.9807647869930296E-2</v>
       </c>
@@ -29192,7 +29315,7 @@
       <c r="C80" s="18">
         <v>83.150002000000001</v>
       </c>
-      <c r="D80" s="120">
+      <c r="D80" s="119">
         <f t="shared" si="10"/>
         <v>1.0942273556231008E-2</v>
       </c>
@@ -29204,7 +29327,7 @@
       <c r="C81" s="18">
         <v>82.25</v>
       </c>
-      <c r="D81" s="120">
+      <c r="D81" s="119">
         <f t="shared" si="10"/>
         <v>5.0312885974023391E-2</v>
       </c>
@@ -29216,7 +29339,7 @@
       <c r="C82" s="18">
         <v>78.309997999999993</v>
       </c>
-      <c r="D82" s="120">
+      <c r="D82" s="119">
         <f t="shared" si="10"/>
         <v>-0.20497463959390871</v>
       </c>
@@ -29228,7 +29351,7 @@
       <c r="C83" s="18">
         <v>98.5</v>
       </c>
-      <c r="D83" s="120">
+      <c r="D83" s="119">
         <f t="shared" si="10"/>
         <v>3.4337886138678497E-2</v>
       </c>
@@ -29240,7 +29363,7 @@
       <c r="C84" s="18">
         <v>95.230002999999996</v>
       </c>
-      <c r="D84" s="120">
+      <c r="D84" s="119">
         <f t="shared" si="10"/>
         <v>6.7481269672472477E-2</v>
       </c>
@@ -29252,7 +29375,7 @@
       <c r="C85" s="18">
         <v>89.209998999999996</v>
       </c>
-      <c r="D85" s="120">
+      <c r="D85" s="119">
         <f t="shared" si="10"/>
         <v>-0.10170173399862514</v>
       </c>
@@ -29264,7 +29387,7 @@
       <c r="C86" s="18">
         <v>99.309997999999993</v>
       </c>
-      <c r="D86" s="120">
+      <c r="D86" s="119">
         <f t="shared" si="10"/>
         <v>-2.4108989730519115E-3</v>
       </c>
@@ -29276,7 +29399,7 @@
       <c r="C87" s="18">
         <v>99.550003000000004</v>
       </c>
-      <c r="D87" s="120">
+      <c r="D87" s="119">
         <f t="shared" si="10"/>
         <v>7.2274960029080626E-2</v>
       </c>
@@ -29288,7 +29411,7 @@
       <c r="C88" s="18">
         <v>92.839995999999999</v>
       </c>
-      <c r="D88" s="120">
+      <c r="D88" s="119">
         <f t="shared" si="10"/>
         <v>-4.6102821253442006E-3</v>
       </c>
@@ -29300,7 +29423,7 @@
       <c r="C89" s="18">
         <v>93.269997000000004</v>
       </c>
-      <c r="D89" s="120">
+      <c r="D89" s="119">
         <f t="shared" si="10"/>
         <v>-2.5391850325763299E-2</v>
       </c>
@@ -29312,7 +29435,7 @@
       <c r="C90" s="18">
         <v>95.699996999999996</v>
       </c>
-      <c r="D90" s="120">
+      <c r="D90" s="119">
         <f t="shared" si="10"/>
         <v>-0.11728085488833784</v>
       </c>
@@ -29324,7 +29447,7 @@
       <c r="C91" s="18">
         <v>108.415001</v>
       </c>
-      <c r="D91" s="120">
+      <c r="D91" s="119">
         <f t="shared" si="10"/>
         <v>5.1857970311439017E-2</v>
       </c>
@@ -29336,7 +29459,7 @@
       <c r="C92" s="18">
         <v>103.07</v>
       </c>
-      <c r="D92" s="120">
+      <c r="D92" s="119">
         <f t="shared" si="10"/>
         <v>0.12337874659400527</v>
       </c>
@@ -29348,7 +29471,7 @@
       <c r="C93" s="18">
         <v>91.75</v>
       </c>
-      <c r="D93" s="120">
+      <c r="D93" s="119">
         <f t="shared" si="10"/>
         <v>-3.8763720443071303E-2</v>
       </c>
@@ -29360,7 +29483,7 @@
       <c r="C94" s="18">
         <v>95.449996999999996</v>
       </c>
-      <c r="D94" s="120">
+      <c r="D94" s="119">
         <f t="shared" si="10"/>
         <v>-3.9738480085744876E-2</v>
       </c>
@@ -29372,7 +29495,7 @@
       <c r="C95" s="18">
         <v>99.400002000000001</v>
       </c>
-      <c r="D95" s="120">
+      <c r="D95" s="119">
         <f t="shared" si="10"/>
         <v>-9.7102319814781346E-2</v>
       </c>
@@ -29384,7 +29507,7 @@
       <c r="C96" s="18">
         <v>110.089996</v>
       </c>
-      <c r="D96" s="120">
+      <c r="D96" s="119">
         <f t="shared" si="10"/>
         <v>0.158110649234392</v>
       </c>
@@ -29396,7 +29519,7 @@
       <c r="C97" s="18">
         <v>95.059997999999993</v>
       </c>
-      <c r="D97" s="120">
+      <c r="D97" s="119">
         <f t="shared" si="10"/>
         <v>-6.5565760378479498E-2</v>
       </c>
@@ -29408,7 +29531,7 @@
       <c r="C98" s="18">
         <v>101.730003</v>
       </c>
-      <c r="D98" s="120">
+      <c r="D98" s="119">
         <f t="shared" si="10"/>
         <v>7.4121043967068312E-2</v>
       </c>
@@ -29420,7 +29543,7 @@
       <c r="C99" s="18">
         <v>94.709998999999996</v>
       </c>
-      <c r="D99" s="120">
+      <c r="D99" s="119">
         <f t="shared" si="10"/>
         <v>1.4351461464556126E-2</v>
       </c>
@@ -29432,7 +29555,7 @@
       <c r="C100" s="18">
         <v>93.370002999999997</v>
       </c>
-      <c r="D100" s="120">
+      <c r="D100" s="119">
         <f t="shared" si="10"/>
         <v>4.5108654359017342E-2</v>
       </c>
@@ -29444,7 +29567,7 @@
       <c r="C101" s="18">
         <v>89.339995999999999</v>
       </c>
-      <c r="D101" s="120">
+      <c r="D101" s="119">
         <f t="shared" si="10"/>
         <v>6.63642524034882E-2</v>
       </c>
@@ -29456,7 +29579,7 @@
       <c r="C102" s="18">
         <v>83.779999000000004</v>
       </c>
-      <c r="D102" s="120">
+      <c r="D102" s="119">
         <f t="shared" si="10"/>
         <v>9.5736333975102506E-2</v>
       </c>
@@ -29468,7 +29591,7 @@
       <c r="C103" s="18">
         <v>76.459998999999996</v>
       </c>
-      <c r="D103" s="120">
+      <c r="D103" s="119">
         <f t="shared" si="10"/>
         <v>-0.148267778153095</v>
       </c>
@@ -29480,7 +29603,7 @@
       <c r="C104" s="18">
         <v>89.769997000000004</v>
       </c>
-      <c r="D104" s="120">
+      <c r="D104" s="119">
         <f t="shared" si="10"/>
         <v>0.11363349319397731</v>
       </c>
@@ -29492,7 +29615,7 @@
       <c r="C105" s="18">
         <v>80.610000999999997</v>
       </c>
-      <c r="D105" s="120">
+      <c r="D105" s="119">
         <f t="shared" si="10"/>
         <v>-6.7769167714014533E-2</v>
       </c>
@@ -29504,7 +29627,7 @@
       <c r="C106" s="18">
         <v>86.470000999999996</v>
       </c>
-      <c r="D106" s="120">
+      <c r="D106" s="119">
         <f t="shared" si="10"/>
         <v>5.465127906976619E-3</v>
       </c>
@@ -29516,7 +29639,7 @@
       <c r="C107" s="18">
         <v>86</v>
       </c>
-      <c r="D107" s="120">
+      <c r="D107" s="119">
         <f t="shared" si="10"/>
         <v>-4.2529503451347095E-2</v>
       </c>
@@ -29528,7 +29651,7 @@
       <c r="C108" s="18">
         <v>89.82</v>
       </c>
-      <c r="D108" s="120">
+      <c r="D108" s="119">
         <f t="shared" si="10"/>
         <v>-5.0126883462920602E-2</v>
       </c>
@@ -29540,7 +29663,7 @@
       <c r="C109" s="18">
         <v>94.559997999999993</v>
       </c>
-      <c r="D109" s="120">
+      <c r="D109" s="119">
         <f t="shared" si="10"/>
         <v>-1.1395755119796069E-2</v>
       </c>
@@ -29552,7 +29675,7 @@
       <c r="C110" s="18">
         <v>95.650002000000001</v>
       </c>
-      <c r="D110" s="120">
+      <c r="D110" s="119">
         <f t="shared" si="10"/>
         <v>2.7941955036798749E-2</v>
       </c>
@@ -29564,7 +29687,7 @@
       <c r="C111" s="18">
         <v>93.050003000000004</v>
       </c>
-      <c r="D111" s="120">
+      <c r="D111" s="119">
         <f t="shared" si="10"/>
         <v>4.9278337843933206E-2</v>
       </c>
@@ -29576,7 +29699,7 @@
       <c r="C112" s="18">
         <v>88.68</v>
       </c>
-      <c r="D112" s="120">
+      <c r="D112" s="119">
         <f t="shared" si="10"/>
         <v>0.15619300480546316</v>
       </c>
@@ -29588,7 +29711,7 @@
       <c r="C113" s="18">
         <v>76.699996999999996</v>
       </c>
-      <c r="D113" s="120">
+      <c r="D113" s="119">
         <f t="shared" si="10"/>
         <v>2.7048701124799068E-2</v>
       </c>
@@ -29600,7 +29723,7 @@
       <c r="C114" s="18">
         <v>74.680000000000007</v>
       </c>
-      <c r="D114" s="120">
+      <c r="D114" s="119">
         <f t="shared" si="10"/>
         <v>-0.15097770749178829</v>
       </c>
@@ -29612,7 +29735,7 @@
       <c r="C115" s="18">
         <v>87.959998999999996</v>
       </c>
-      <c r="D115" s="120">
+      <c r="D115" s="119">
         <f t="shared" si="10"/>
         <v>-3.3406604395604389E-2</v>
       </c>
@@ -29624,7 +29747,7 @@
       <c r="C116" s="18">
         <v>91</v>
       </c>
-      <c r="D116" s="120">
+      <c r="D116" s="119">
         <f t="shared" si="10"/>
         <v>-3.1914893617021267E-2</v>
       </c>
@@ -29636,7 +29759,7 @@
       <c r="C117" s="18">
         <v>94</v>
       </c>
-      <c r="D117" s="120">
+      <c r="D117" s="119">
         <f t="shared" si="10"/>
         <v>2.7546971112364371E-2</v>
       </c>
@@ -29648,7 +29771,7 @@
       <c r="C118" s="18">
         <v>91.480002999999996</v>
       </c>
-      <c r="D118" s="120">
+      <c r="D118" s="119">
         <f t="shared" si="10"/>
         <v>-3.8113796403924649E-3</v>
       </c>
@@ -29660,7 +29783,7 @@
       <c r="C119" s="18">
         <v>91.830001999999993</v>
       </c>
-      <c r="D119" s="120">
+      <c r="D119" s="119">
         <f t="shared" si="10"/>
         <v>7.1403606013342724E-2</v>
       </c>
@@ -29672,7 +29795,7 @@
       <c r="C120" s="18">
         <v>85.709998999999996</v>
       </c>
-      <c r="D120" s="120">
+      <c r="D120" s="119">
         <f t="shared" si="10"/>
         <v>-7.4705799677398321E-2</v>
       </c>
@@ -29684,7 +29807,7 @@
       <c r="C121" s="18">
         <v>92.629997000000003</v>
       </c>
-      <c r="D121" s="120">
+      <c r="D121" s="119">
         <f t="shared" si="10"/>
         <v>-9.3551275202049644E-2</v>
       </c>
@@ -29696,7 +29819,7 @@
       <c r="C122" s="18">
         <v>102.19000200000001</v>
       </c>
-      <c r="D122" s="120">
+      <c r="D122" s="119">
         <f t="shared" si="10"/>
         <v>-3.6942785440177262E-2</v>
       </c>
@@ -29708,7 +29831,7 @@
       <c r="C123" s="18">
         <v>106.110001</v>
       </c>
-      <c r="D123" s="120">
+      <c r="D123" s="119">
         <f t="shared" si="10"/>
         <v>-2.6156369549893199E-2</v>
       </c>
@@ -29720,7 +29843,7 @@
       <c r="C124" s="18">
         <v>108.959999</v>
       </c>
-      <c r="D124" s="120">
+      <c r="D124" s="119">
         <f t="shared" si="10"/>
         <v>4.228044727108804E-2</v>
       </c>
@@ -29732,7 +29855,7 @@
       <c r="C125" s="18">
         <v>104.540001</v>
       </c>
-      <c r="D125" s="120">
+      <c r="D125" s="119">
         <f t="shared" si="10"/>
         <v>9.2486140819602047E-2</v>
       </c>
@@ -29744,7 +29867,7 @@
       <c r="C126" s="18">
         <v>95.690002000000007</v>
       </c>
-      <c r="D126" s="120">
+      <c r="D126" s="119">
         <f t="shared" si="10"/>
         <v>-0.12259303360706086</v>
       </c>
@@ -29756,7 +29879,7 @@
       <c r="C127" s="18">
         <v>109.05999799999999</v>
       </c>
-      <c r="D127" s="120">
+      <c r="D127" s="119">
         <f t="shared" si="10"/>
         <v>-0.11029534817596109</v>
       </c>
@@ -29768,7 +29891,7 @@
       <c r="C128" s="18">
         <v>122.58000199999999</v>
       </c>
-      <c r="D128" s="120">
+      <c r="D128" s="119">
         <f t="shared" si="10"/>
         <v>-9.8411329149166615E-2</v>
       </c>
@@ -29780,7 +29903,7 @@
       <c r="C129" s="18">
         <v>135.96000699999999</v>
       </c>
-      <c r="D129" s="120">
+      <c r="D129" s="119">
         <f t="shared" si="10"/>
         <v>-0.12295185465225511</v>
       </c>
@@ -29792,7 +29915,7 @@
       <c r="C130" s="18">
         <v>155.020004</v>
       </c>
-      <c r="D130" s="120">
+      <c r="D130" s="119">
         <f t="shared" si="10"/>
         <v>8.3913877159016437E-3</v>
       </c>
@@ -29804,7 +29927,7 @@
       <c r="C131" s="18">
         <v>153.729996</v>
       </c>
-      <c r="D131" s="120">
+      <c r="D131" s="119">
         <f t="shared" ref="D131:D144" si="11">C131/C132-1</f>
         <v>-0.11491741476288309</v>
       </c>
@@ -29816,7 +29939,7 @@
       <c r="C132" s="18">
         <v>173.69000199999999</v>
       </c>
-      <c r="D132" s="120">
+      <c r="D132" s="119">
         <f t="shared" si="11"/>
         <v>-2.5636671873574435E-2</v>
       </c>
@@ -29828,7 +29951,7 @@
       <c r="C133" s="18">
         <v>178.259995</v>
       </c>
-      <c r="D133" s="120">
+      <c r="D133" s="119">
         <f t="shared" si="11"/>
         <v>0.13758773715866757</v>
       </c>
@@ -29840,7 +29963,7 @@
       <c r="C134" s="18">
         <v>156.699997</v>
       </c>
-      <c r="D134" s="120">
+      <c r="D134" s="119">
         <f t="shared" si="11"/>
         <v>-5.8971935888255222E-2</v>
       </c>
@@ -29852,7 +29975,7 @@
       <c r="C135" s="18">
         <v>166.520004</v>
       </c>
-      <c r="D135" s="120">
+      <c r="D135" s="119">
         <f t="shared" si="11"/>
         <v>3.6990919952784695E-2</v>
       </c>
@@ -29864,7 +29987,7 @@
       <c r="C136" s="18">
         <v>160.58000200000001</v>
       </c>
-      <c r="D136" s="120">
+      <c r="D136" s="119">
         <f t="shared" si="11"/>
         <v>-0.19456284281895064</v>
       </c>
@@ -29876,7 +29999,7 @@
       <c r="C137" s="18">
         <v>199.36999499999999</v>
       </c>
-      <c r="D137" s="120">
+      <c r="D137" s="119">
         <f t="shared" si="11"/>
         <v>7.7792190026860997E-2</v>
       </c>
@@ -29888,7 +30011,7 @@
       <c r="C138" s="18">
         <v>184.979996</v>
       </c>
-      <c r="D138" s="120">
+      <c r="D138" s="119">
         <f t="shared" si="11"/>
         <v>6.6966610917881253E-2</v>
       </c>
@@ -29900,7 +30023,7 @@
       <c r="C139" s="18">
         <v>173.36999499999999</v>
       </c>
-      <c r="D139" s="120">
+      <c r="D139" s="119">
         <f t="shared" si="11"/>
         <v>6.3228241913752425E-2</v>
       </c>
@@ -29912,7 +30035,7 @@
       <c r="C140" s="18">
         <v>163.05999800000001</v>
       </c>
-      <c r="D140" s="120">
+      <c r="D140" s="119">
         <f t="shared" si="11"/>
         <v>0.3577019210275092</v>
       </c>
@@ -29924,7 +30047,7 @@
       <c r="C141" s="18">
         <v>120.099998</v>
       </c>
-      <c r="D141" s="120">
+      <c r="D141" s="119">
         <f t="shared" si="11"/>
         <v>-4.7052297445467794E-2</v>
       </c>
@@ -29936,7 +30059,7 @@
       <c r="C142" s="18">
         <v>126.029999</v>
       </c>
-      <c r="D142" s="120">
+      <c r="D142" s="119">
         <f t="shared" si="11"/>
         <v>-7.7581831311504423E-2</v>
       </c>
@@ -29948,7 +30071,7 @@
       <c r="C143" s="18">
         <v>136.63000500000001</v>
       </c>
-      <c r="D143" s="120">
+      <c r="D143" s="119">
         <f t="shared" si="11"/>
         <v>1.6743562407219637E-2</v>
       </c>
@@ -29960,7 +30083,7 @@
       <c r="C144" s="18">
         <v>134.38000500000001</v>
       </c>
-      <c r="D144" s="120">
+      <c r="D144" s="119">
         <f t="shared" si="11"/>
         <v>-4.1853796791443743E-2</v>
       </c>
